--- a/solutions/fabergè_easter_eggs_crush_test.xlsx
+++ b/solutions/fabergè_easter_eggs_crush_test.xlsx
@@ -136,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -165,6 +165,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1728,7 +1729,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S199" sqref="S199"/>
+      <selection pane="bottomLeft" activeCell="S190" sqref="S190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7336,9 +7337,15 @@
       <c r="N190" s="7"/>
       <c r="O190" s="10"/>
       <c r="P190" s="7"/>
-      <c r="Q190" s="6"/>
-      <c r="R190" s="7"/>
-      <c r="S190" s="7"/>
+      <c r="Q190" s="6">
+        <v>2</v>
+      </c>
+      <c r="R190" s="7">
+        <v>3</v>
+      </c>
+      <c r="S190" s="7">
+        <v>3</v>
+      </c>
       <c r="T190" s="17">
         <v>1</v>
       </c>
@@ -7436,7 +7443,15 @@
       <c r="K193" s="7"/>
       <c r="L193" s="7"/>
       <c r="M193" s="8"/>
-      <c r="Q193" s="6"/>
+      <c r="Q193" s="12">
+        <v>2</v>
+      </c>
+      <c r="R193" s="20">
+        <v>3</v>
+      </c>
+      <c r="S193" s="20">
+        <v>1</v>
+      </c>
       <c r="T193" s="6"/>
       <c r="U193" s="7"/>
       <c r="V193" s="8"/>
@@ -7504,9 +7519,15 @@
       <c r="N195" s="7"/>
       <c r="O195" s="7"/>
       <c r="P195" s="7"/>
-      <c r="Q195" s="6"/>
-      <c r="R195" s="7"/>
-      <c r="S195" s="7"/>
+      <c r="Q195" s="12">
+        <v>3</v>
+      </c>
+      <c r="R195" s="13">
+        <v>2</v>
+      </c>
+      <c r="S195" s="13">
+        <v>0</v>
+      </c>
       <c r="T195" s="6"/>
       <c r="U195" s="7"/>
       <c r="V195" s="8"/>
@@ -7533,14 +7554,14 @@
       <c r="N196" s="7"/>
       <c r="O196" s="7"/>
       <c r="P196" s="7"/>
-      <c r="Q196" s="12">
+      <c r="Q196" s="17">
         <v>1</v>
       </c>
-      <c r="R196" s="13">
+      <c r="R196" s="18">
         <v>4</v>
       </c>
-      <c r="S196" s="13">
-        <v>2</v>
+      <c r="S196" s="18">
+        <v>3</v>
       </c>
       <c r="T196" s="12">
         <v>2</v>
@@ -7781,9 +7802,15 @@
       <c r="N201" s="7"/>
       <c r="O201" s="7"/>
       <c r="P201" s="8"/>
-      <c r="Q201" s="13"/>
-      <c r="R201" s="13"/>
-      <c r="S201" s="16"/>
+      <c r="Q201" s="13">
+        <v>3</v>
+      </c>
+      <c r="R201" s="13">
+        <v>2</v>
+      </c>
+      <c r="S201" s="16">
+        <v>0</v>
+      </c>
       <c r="T201" s="12">
         <v>5</v>
       </c>

--- a/solutions/fabergè_easter_eggs_crush_test.xlsx
+++ b/solutions/fabergè_easter_eggs_crush_test.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>floor</t>
   </si>
@@ -136,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -166,6 +166,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1725,11 +1728,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC207"/>
+  <dimension ref="A1:AF207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S190" sqref="S190"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U198" sqref="U198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,7 +1744,7 @@
     <col min="6" max="7" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1778,11 +1781,14 @@
       <c r="T1" s="6"/>
       <c r="U1" s="7"/>
       <c r="V1" s="8"/>
-      <c r="W1" s="7"/>
+      <c r="W1" s="6"/>
       <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>200</v>
       </c>
@@ -1807,11 +1813,14 @@
       <c r="T2" s="6"/>
       <c r="U2" s="7"/>
       <c r="V2" s="8"/>
-      <c r="W2" s="7"/>
+      <c r="W2" s="6"/>
       <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>199</v>
       </c>
@@ -1836,11 +1845,14 @@
       <c r="T3" s="6"/>
       <c r="U3" s="7"/>
       <c r="V3" s="8"/>
-      <c r="W3" s="7"/>
+      <c r="W3" s="6"/>
       <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>198</v>
       </c>
@@ -1865,11 +1877,14 @@
       <c r="T4" s="6"/>
       <c r="U4" s="7"/>
       <c r="V4" s="8"/>
-      <c r="W4" s="7"/>
+      <c r="W4" s="6"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>197</v>
       </c>
@@ -1894,11 +1909,14 @@
       <c r="T5" s="6"/>
       <c r="U5" s="7"/>
       <c r="V5" s="8"/>
-      <c r="W5" s="7"/>
+      <c r="W5" s="6"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>196</v>
       </c>
@@ -1923,11 +1941,14 @@
       <c r="T6" s="6"/>
       <c r="U6" s="7"/>
       <c r="V6" s="8"/>
-      <c r="W6" s="7"/>
+      <c r="W6" s="6"/>
       <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>195</v>
       </c>
@@ -1952,11 +1973,14 @@
       <c r="T7" s="6"/>
       <c r="U7" s="7"/>
       <c r="V7" s="8"/>
-      <c r="W7" s="7"/>
+      <c r="W7" s="6"/>
       <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>194</v>
       </c>
@@ -1981,11 +2005,14 @@
       <c r="T8" s="6"/>
       <c r="U8" s="7"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="7"/>
+      <c r="W8" s="6"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>193</v>
       </c>
@@ -2010,11 +2037,14 @@
       <c r="T9" s="6"/>
       <c r="U9" s="7"/>
       <c r="V9" s="8"/>
-      <c r="W9" s="7"/>
+      <c r="W9" s="6"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>192</v>
       </c>
@@ -2039,11 +2069,14 @@
       <c r="T10" s="6"/>
       <c r="U10" s="7"/>
       <c r="V10" s="8"/>
-      <c r="W10" s="7"/>
+      <c r="W10" s="6"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>191</v>
       </c>
@@ -2068,11 +2101,14 @@
       <c r="T11" s="6"/>
       <c r="U11" s="7"/>
       <c r="V11" s="8"/>
-      <c r="W11" s="7"/>
+      <c r="W11" s="6"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>190</v>
       </c>
@@ -2097,11 +2133,14 @@
       <c r="T12" s="6"/>
       <c r="U12" s="7"/>
       <c r="V12" s="8"/>
-      <c r="W12" s="7"/>
+      <c r="W12" s="6"/>
       <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>189</v>
       </c>
@@ -2126,11 +2165,14 @@
       <c r="T13" s="6"/>
       <c r="U13" s="7"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="7"/>
+      <c r="W13" s="6"/>
       <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>188</v>
       </c>
@@ -2155,11 +2197,14 @@
       <c r="T14" s="6"/>
       <c r="U14" s="7"/>
       <c r="V14" s="8"/>
-      <c r="W14" s="7"/>
+      <c r="W14" s="6"/>
       <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>187</v>
       </c>
@@ -2184,11 +2229,14 @@
       <c r="T15" s="6"/>
       <c r="U15" s="7"/>
       <c r="V15" s="8"/>
-      <c r="W15" s="7"/>
+      <c r="W15" s="6"/>
       <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>186</v>
       </c>
@@ -2213,11 +2261,14 @@
       <c r="T16" s="6"/>
       <c r="U16" s="7"/>
       <c r="V16" s="8"/>
-      <c r="W16" s="7"/>
+      <c r="W16" s="6"/>
       <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>185</v>
       </c>
@@ -2242,11 +2293,14 @@
       <c r="T17" s="6"/>
       <c r="U17" s="7"/>
       <c r="V17" s="8"/>
-      <c r="W17" s="7"/>
+      <c r="W17" s="6"/>
       <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>184</v>
       </c>
@@ -2271,11 +2325,14 @@
       <c r="T18" s="6"/>
       <c r="U18" s="7"/>
       <c r="V18" s="8"/>
-      <c r="W18" s="7"/>
+      <c r="W18" s="6"/>
       <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>183</v>
       </c>
@@ -2300,11 +2357,14 @@
       <c r="T19" s="6"/>
       <c r="U19" s="7"/>
       <c r="V19" s="8"/>
-      <c r="W19" s="7"/>
+      <c r="W19" s="6"/>
       <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>182</v>
       </c>
@@ -2329,11 +2389,14 @@
       <c r="T20" s="6"/>
       <c r="U20" s="7"/>
       <c r="V20" s="8"/>
-      <c r="W20" s="7"/>
+      <c r="W20" s="6"/>
       <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>181</v>
       </c>
@@ -2358,11 +2421,14 @@
       <c r="T21" s="6"/>
       <c r="U21" s="7"/>
       <c r="V21" s="8"/>
-      <c r="W21" s="7"/>
+      <c r="W21" s="6"/>
       <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>180</v>
       </c>
@@ -2387,11 +2453,14 @@
       <c r="T22" s="6"/>
       <c r="U22" s="7"/>
       <c r="V22" s="8"/>
-      <c r="W22" s="7"/>
+      <c r="W22" s="6"/>
       <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>179</v>
       </c>
@@ -2416,11 +2485,14 @@
       <c r="T23" s="6"/>
       <c r="U23" s="7"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="7"/>
+      <c r="W23" s="6"/>
       <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>178</v>
       </c>
@@ -2445,11 +2517,14 @@
       <c r="T24" s="6"/>
       <c r="U24" s="7"/>
       <c r="V24" s="8"/>
-      <c r="W24" s="7"/>
+      <c r="W24" s="6"/>
       <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>177</v>
       </c>
@@ -2474,11 +2549,14 @@
       <c r="T25" s="6"/>
       <c r="U25" s="7"/>
       <c r="V25" s="8"/>
-      <c r="W25" s="7"/>
+      <c r="W25" s="6"/>
       <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>176</v>
       </c>
@@ -2503,11 +2581,14 @@
       <c r="T26" s="6"/>
       <c r="U26" s="7"/>
       <c r="V26" s="8"/>
-      <c r="W26" s="7"/>
+      <c r="W26" s="6"/>
       <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>175</v>
       </c>
@@ -2532,11 +2613,14 @@
       <c r="T27" s="6"/>
       <c r="U27" s="7"/>
       <c r="V27" s="8"/>
-      <c r="W27" s="7"/>
+      <c r="W27" s="6"/>
       <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>174</v>
       </c>
@@ -2561,11 +2645,14 @@
       <c r="T28" s="6"/>
       <c r="U28" s="7"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="7"/>
+      <c r="W28" s="6"/>
       <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>173</v>
       </c>
@@ -2590,11 +2677,14 @@
       <c r="T29" s="6"/>
       <c r="U29" s="7"/>
       <c r="V29" s="8"/>
-      <c r="W29" s="7"/>
+      <c r="W29" s="6"/>
       <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>172</v>
       </c>
@@ -2619,11 +2709,14 @@
       <c r="T30" s="6"/>
       <c r="U30" s="7"/>
       <c r="V30" s="8"/>
-      <c r="W30" s="7"/>
+      <c r="W30" s="6"/>
       <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>171</v>
       </c>
@@ -2648,11 +2741,14 @@
       <c r="T31" s="6"/>
       <c r="U31" s="7"/>
       <c r="V31" s="8"/>
-      <c r="W31" s="7"/>
+      <c r="W31" s="6"/>
       <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>170</v>
       </c>
@@ -2677,11 +2773,14 @@
       <c r="T32" s="6"/>
       <c r="U32" s="7"/>
       <c r="V32" s="8"/>
-      <c r="W32" s="7"/>
+      <c r="W32" s="6"/>
       <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>169</v>
       </c>
@@ -2706,11 +2805,14 @@
       <c r="T33" s="6"/>
       <c r="U33" s="7"/>
       <c r="V33" s="8"/>
-      <c r="W33" s="7"/>
+      <c r="W33" s="6"/>
       <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>168</v>
       </c>
@@ -2735,11 +2837,14 @@
       <c r="T34" s="6"/>
       <c r="U34" s="7"/>
       <c r="V34" s="8"/>
-      <c r="W34" s="7"/>
+      <c r="W34" s="6"/>
       <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>167</v>
       </c>
@@ -2764,11 +2869,14 @@
       <c r="T35" s="6"/>
       <c r="U35" s="7"/>
       <c r="V35" s="8"/>
-      <c r="W35" s="7"/>
+      <c r="W35" s="6"/>
       <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>166</v>
       </c>
@@ -2793,11 +2901,14 @@
       <c r="T36" s="6"/>
       <c r="U36" s="7"/>
       <c r="V36" s="8"/>
-      <c r="W36" s="7"/>
+      <c r="W36" s="6"/>
       <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>165</v>
       </c>
@@ -2822,11 +2933,14 @@
       <c r="T37" s="6"/>
       <c r="U37" s="7"/>
       <c r="V37" s="8"/>
-      <c r="W37" s="7"/>
+      <c r="W37" s="6"/>
       <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>164</v>
       </c>
@@ -2851,11 +2965,14 @@
       <c r="T38" s="6"/>
       <c r="U38" s="7"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="7"/>
+      <c r="W38" s="6"/>
       <c r="X38" s="7"/>
-      <c r="Y38" s="7"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>163</v>
       </c>
@@ -2880,11 +2997,14 @@
       <c r="T39" s="6"/>
       <c r="U39" s="7"/>
       <c r="V39" s="8"/>
-      <c r="W39" s="7"/>
+      <c r="W39" s="6"/>
       <c r="X39" s="7"/>
-      <c r="Y39" s="7"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>162</v>
       </c>
@@ -2909,11 +3029,14 @@
       <c r="T40" s="6"/>
       <c r="U40" s="7"/>
       <c r="V40" s="8"/>
-      <c r="W40" s="7"/>
+      <c r="W40" s="6"/>
       <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>161</v>
       </c>
@@ -2938,11 +3061,14 @@
       <c r="T41" s="6"/>
       <c r="U41" s="7"/>
       <c r="V41" s="8"/>
-      <c r="W41" s="7"/>
+      <c r="W41" s="6"/>
       <c r="X41" s="7"/>
-      <c r="Y41" s="7"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>160</v>
       </c>
@@ -2967,11 +3093,14 @@
       <c r="T42" s="6"/>
       <c r="U42" s="7"/>
       <c r="V42" s="8"/>
-      <c r="W42" s="7"/>
+      <c r="W42" s="6"/>
       <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>159</v>
       </c>
@@ -2996,11 +3125,14 @@
       <c r="T43" s="6"/>
       <c r="U43" s="7"/>
       <c r="V43" s="8"/>
-      <c r="W43" s="7"/>
+      <c r="W43" s="6"/>
       <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>158</v>
       </c>
@@ -3025,11 +3157,14 @@
       <c r="T44" s="6"/>
       <c r="U44" s="7"/>
       <c r="V44" s="8"/>
-      <c r="W44" s="7"/>
+      <c r="W44" s="6"/>
       <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>157</v>
       </c>
@@ -3054,11 +3189,14 @@
       <c r="T45" s="6"/>
       <c r="U45" s="7"/>
       <c r="V45" s="8"/>
-      <c r="W45" s="7"/>
+      <c r="W45" s="6"/>
       <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>156</v>
       </c>
@@ -3083,11 +3221,14 @@
       <c r="T46" s="6"/>
       <c r="U46" s="7"/>
       <c r="V46" s="8"/>
-      <c r="W46" s="7"/>
+      <c r="W46" s="6"/>
       <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>155</v>
       </c>
@@ -3112,11 +3253,14 @@
       <c r="T47" s="6"/>
       <c r="U47" s="7"/>
       <c r="V47" s="8"/>
-      <c r="W47" s="7"/>
+      <c r="W47" s="6"/>
       <c r="X47" s="7"/>
-      <c r="Y47" s="7"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>154</v>
       </c>
@@ -3141,11 +3285,14 @@
       <c r="T48" s="6"/>
       <c r="U48" s="7"/>
       <c r="V48" s="8"/>
-      <c r="W48" s="7"/>
+      <c r="W48" s="6"/>
       <c r="X48" s="7"/>
-      <c r="Y48" s="7"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>153</v>
       </c>
@@ -3170,11 +3317,14 @@
       <c r="T49" s="6"/>
       <c r="U49" s="7"/>
       <c r="V49" s="8"/>
-      <c r="W49" s="7"/>
+      <c r="W49" s="6"/>
       <c r="X49" s="7"/>
-      <c r="Y49" s="7"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>152</v>
       </c>
@@ -3199,11 +3349,14 @@
       <c r="T50" s="6"/>
       <c r="U50" s="7"/>
       <c r="V50" s="8"/>
-      <c r="W50" s="7"/>
+      <c r="W50" s="6"/>
       <c r="X50" s="7"/>
-      <c r="Y50" s="7"/>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>151</v>
       </c>
@@ -3228,11 +3381,14 @@
       <c r="T51" s="6"/>
       <c r="U51" s="7"/>
       <c r="V51" s="8"/>
-      <c r="W51" s="7"/>
+      <c r="W51" s="6"/>
       <c r="X51" s="7"/>
-      <c r="Y51" s="7"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>150</v>
       </c>
@@ -3257,11 +3413,14 @@
       <c r="T52" s="6"/>
       <c r="U52" s="7"/>
       <c r="V52" s="8"/>
-      <c r="W52" s="7"/>
+      <c r="W52" s="6"/>
       <c r="X52" s="7"/>
-      <c r="Y52" s="7"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>149</v>
       </c>
@@ -3286,11 +3445,14 @@
       <c r="T53" s="6"/>
       <c r="U53" s="7"/>
       <c r="V53" s="8"/>
-      <c r="W53" s="7"/>
+      <c r="W53" s="6"/>
       <c r="X53" s="7"/>
-      <c r="Y53" s="7"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>148</v>
       </c>
@@ -3315,11 +3477,14 @@
       <c r="T54" s="6"/>
       <c r="U54" s="7"/>
       <c r="V54" s="8"/>
-      <c r="W54" s="7"/>
+      <c r="W54" s="6"/>
       <c r="X54" s="7"/>
-      <c r="Y54" s="7"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>147</v>
       </c>
@@ -3344,11 +3509,14 @@
       <c r="T55" s="6"/>
       <c r="U55" s="7"/>
       <c r="V55" s="8"/>
-      <c r="W55" s="7"/>
+      <c r="W55" s="6"/>
       <c r="X55" s="7"/>
-      <c r="Y55" s="7"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
+      <c r="AB55" s="7"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>146</v>
       </c>
@@ -3373,11 +3541,14 @@
       <c r="T56" s="6"/>
       <c r="U56" s="7"/>
       <c r="V56" s="8"/>
-      <c r="W56" s="7"/>
+      <c r="W56" s="6"/>
       <c r="X56" s="7"/>
-      <c r="Y56" s="7"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>145</v>
       </c>
@@ -3402,11 +3573,14 @@
       <c r="T57" s="6"/>
       <c r="U57" s="7"/>
       <c r="V57" s="8"/>
-      <c r="W57" s="7"/>
+      <c r="W57" s="6"/>
       <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>144</v>
       </c>
@@ -3431,11 +3605,14 @@
       <c r="T58" s="6"/>
       <c r="U58" s="7"/>
       <c r="V58" s="8"/>
-      <c r="W58" s="7"/>
+      <c r="W58" s="6"/>
       <c r="X58" s="7"/>
-      <c r="Y58" s="7"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
+      <c r="AB58" s="7"/>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>143</v>
       </c>
@@ -3460,11 +3637,14 @@
       <c r="T59" s="6"/>
       <c r="U59" s="7"/>
       <c r="V59" s="8"/>
-      <c r="W59" s="7"/>
+      <c r="W59" s="6"/>
       <c r="X59" s="7"/>
-      <c r="Y59" s="7"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>142</v>
       </c>
@@ -3489,11 +3669,14 @@
       <c r="T60" s="6"/>
       <c r="U60" s="7"/>
       <c r="V60" s="8"/>
-      <c r="W60" s="7"/>
+      <c r="W60" s="6"/>
       <c r="X60" s="7"/>
-      <c r="Y60" s="7"/>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>141</v>
       </c>
@@ -3518,11 +3701,14 @@
       <c r="T61" s="6"/>
       <c r="U61" s="7"/>
       <c r="V61" s="8"/>
-      <c r="W61" s="7"/>
+      <c r="W61" s="6"/>
       <c r="X61" s="7"/>
-      <c r="Y61" s="7"/>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>140</v>
       </c>
@@ -3547,11 +3733,14 @@
       <c r="T62" s="6"/>
       <c r="U62" s="7"/>
       <c r="V62" s="8"/>
-      <c r="W62" s="7"/>
+      <c r="W62" s="6"/>
       <c r="X62" s="7"/>
-      <c r="Y62" s="7"/>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="7"/>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>139</v>
       </c>
@@ -3576,11 +3765,14 @@
       <c r="T63" s="6"/>
       <c r="U63" s="7"/>
       <c r="V63" s="8"/>
-      <c r="W63" s="7"/>
+      <c r="W63" s="6"/>
       <c r="X63" s="7"/>
-      <c r="Y63" s="7"/>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="7"/>
+      <c r="AA63" s="7"/>
+      <c r="AB63" s="7"/>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>138</v>
       </c>
@@ -3605,11 +3797,14 @@
       <c r="T64" s="6"/>
       <c r="U64" s="7"/>
       <c r="V64" s="8"/>
-      <c r="W64" s="7"/>
+      <c r="W64" s="6"/>
       <c r="X64" s="7"/>
-      <c r="Y64" s="7"/>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="7"/>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>137</v>
       </c>
@@ -3634,11 +3829,14 @@
       <c r="T65" s="6"/>
       <c r="U65" s="7"/>
       <c r="V65" s="8"/>
-      <c r="W65" s="7"/>
+      <c r="W65" s="6"/>
       <c r="X65" s="7"/>
-      <c r="Y65" s="7"/>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>136</v>
       </c>
@@ -3663,11 +3861,14 @@
       <c r="T66" s="6"/>
       <c r="U66" s="7"/>
       <c r="V66" s="8"/>
-      <c r="W66" s="7"/>
+      <c r="W66" s="6"/>
       <c r="X66" s="7"/>
-      <c r="Y66" s="7"/>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7"/>
+      <c r="AB66" s="7"/>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>135</v>
       </c>
@@ -3692,11 +3893,14 @@
       <c r="T67" s="6"/>
       <c r="U67" s="7"/>
       <c r="V67" s="8"/>
-      <c r="W67" s="7"/>
+      <c r="W67" s="6"/>
       <c r="X67" s="7"/>
-      <c r="Y67" s="7"/>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="7"/>
+      <c r="AB67" s="7"/>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>134</v>
       </c>
@@ -3721,11 +3925,14 @@
       <c r="T68" s="6"/>
       <c r="U68" s="7"/>
       <c r="V68" s="8"/>
-      <c r="W68" s="7"/>
+      <c r="W68" s="6"/>
       <c r="X68" s="7"/>
-      <c r="Y68" s="7"/>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="7"/>
+      <c r="AA68" s="7"/>
+      <c r="AB68" s="7"/>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>133</v>
       </c>
@@ -3750,11 +3957,14 @@
       <c r="T69" s="6"/>
       <c r="U69" s="7"/>
       <c r="V69" s="8"/>
-      <c r="W69" s="7"/>
+      <c r="W69" s="6"/>
       <c r="X69" s="7"/>
-      <c r="Y69" s="7"/>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y69" s="8"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="7"/>
+      <c r="AB69" s="7"/>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>132</v>
       </c>
@@ -3779,11 +3989,14 @@
       <c r="T70" s="6"/>
       <c r="U70" s="7"/>
       <c r="V70" s="8"/>
-      <c r="W70" s="7"/>
+      <c r="W70" s="6"/>
       <c r="X70" s="7"/>
-      <c r="Y70" s="7"/>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y70" s="8"/>
+      <c r="Z70" s="7"/>
+      <c r="AA70" s="7"/>
+      <c r="AB70" s="7"/>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>131</v>
       </c>
@@ -3808,11 +4021,14 @@
       <c r="T71" s="6"/>
       <c r="U71" s="7"/>
       <c r="V71" s="8"/>
-      <c r="W71" s="7"/>
+      <c r="W71" s="6"/>
       <c r="X71" s="7"/>
-      <c r="Y71" s="7"/>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y71" s="8"/>
+      <c r="Z71" s="7"/>
+      <c r="AA71" s="7"/>
+      <c r="AB71" s="7"/>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>130</v>
       </c>
@@ -3837,11 +4053,14 @@
       <c r="T72" s="6"/>
       <c r="U72" s="7"/>
       <c r="V72" s="8"/>
-      <c r="W72" s="7"/>
+      <c r="W72" s="6"/>
       <c r="X72" s="7"/>
-      <c r="Y72" s="7"/>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="7"/>
+      <c r="AB72" s="7"/>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>129</v>
       </c>
@@ -3866,11 +4085,14 @@
       <c r="T73" s="6"/>
       <c r="U73" s="7"/>
       <c r="V73" s="8"/>
-      <c r="W73" s="7"/>
+      <c r="W73" s="6"/>
       <c r="X73" s="7"/>
-      <c r="Y73" s="7"/>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="7"/>
+      <c r="AA73" s="7"/>
+      <c r="AB73" s="7"/>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>128</v>
       </c>
@@ -3895,11 +4117,14 @@
       <c r="T74" s="6"/>
       <c r="U74" s="7"/>
       <c r="V74" s="8"/>
-      <c r="W74" s="7"/>
+      <c r="W74" s="6"/>
       <c r="X74" s="7"/>
-      <c r="Y74" s="7"/>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y74" s="8"/>
+      <c r="Z74" s="7"/>
+      <c r="AA74" s="7"/>
+      <c r="AB74" s="7"/>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>127</v>
       </c>
@@ -3924,11 +4149,14 @@
       <c r="T75" s="6"/>
       <c r="U75" s="7"/>
       <c r="V75" s="8"/>
-      <c r="W75" s="7"/>
+      <c r="W75" s="6"/>
       <c r="X75" s="7"/>
-      <c r="Y75" s="7"/>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y75" s="8"/>
+      <c r="Z75" s="7"/>
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="7"/>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>126</v>
       </c>
@@ -3953,11 +4181,14 @@
       <c r="T76" s="6"/>
       <c r="U76" s="7"/>
       <c r="V76" s="8"/>
-      <c r="W76" s="7"/>
+      <c r="W76" s="6"/>
       <c r="X76" s="7"/>
-      <c r="Y76" s="7"/>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y76" s="8"/>
+      <c r="Z76" s="7"/>
+      <c r="AA76" s="7"/>
+      <c r="AB76" s="7"/>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>125</v>
       </c>
@@ -3982,11 +4213,14 @@
       <c r="T77" s="6"/>
       <c r="U77" s="7"/>
       <c r="V77" s="8"/>
-      <c r="W77" s="7"/>
+      <c r="W77" s="6"/>
       <c r="X77" s="7"/>
-      <c r="Y77" s="7"/>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y77" s="8"/>
+      <c r="Z77" s="7"/>
+      <c r="AA77" s="7"/>
+      <c r="AB77" s="7"/>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>124</v>
       </c>
@@ -4011,11 +4245,14 @@
       <c r="T78" s="6"/>
       <c r="U78" s="7"/>
       <c r="V78" s="8"/>
-      <c r="W78" s="7"/>
+      <c r="W78" s="6"/>
       <c r="X78" s="7"/>
-      <c r="Y78" s="7"/>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="7"/>
+      <c r="AA78" s="7"/>
+      <c r="AB78" s="7"/>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>123</v>
       </c>
@@ -4040,11 +4277,14 @@
       <c r="T79" s="6"/>
       <c r="U79" s="7"/>
       <c r="V79" s="8"/>
-      <c r="W79" s="7"/>
+      <c r="W79" s="6"/>
       <c r="X79" s="7"/>
-      <c r="Y79" s="7"/>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y79" s="8"/>
+      <c r="Z79" s="7"/>
+      <c r="AA79" s="7"/>
+      <c r="AB79" s="7"/>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>122</v>
       </c>
@@ -4069,11 +4309,14 @@
       <c r="T80" s="6"/>
       <c r="U80" s="7"/>
       <c r="V80" s="8"/>
-      <c r="W80" s="7"/>
+      <c r="W80" s="6"/>
       <c r="X80" s="7"/>
-      <c r="Y80" s="7"/>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y80" s="8"/>
+      <c r="Z80" s="7"/>
+      <c r="AA80" s="7"/>
+      <c r="AB80" s="7"/>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>121</v>
       </c>
@@ -4098,11 +4341,14 @@
       <c r="T81" s="6"/>
       <c r="U81" s="7"/>
       <c r="V81" s="8"/>
-      <c r="W81" s="7"/>
+      <c r="W81" s="6"/>
       <c r="X81" s="7"/>
-      <c r="Y81" s="7"/>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y81" s="8"/>
+      <c r="Z81" s="7"/>
+      <c r="AA81" s="7"/>
+      <c r="AB81" s="7"/>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>120</v>
       </c>
@@ -4127,11 +4373,14 @@
       <c r="T82" s="6"/>
       <c r="U82" s="7"/>
       <c r="V82" s="8"/>
-      <c r="W82" s="7"/>
+      <c r="W82" s="6"/>
       <c r="X82" s="7"/>
-      <c r="Y82" s="7"/>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y82" s="8"/>
+      <c r="Z82" s="7"/>
+      <c r="AA82" s="7"/>
+      <c r="AB82" s="7"/>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>119</v>
       </c>
@@ -4156,11 +4405,14 @@
       <c r="T83" s="6"/>
       <c r="U83" s="7"/>
       <c r="V83" s="8"/>
-      <c r="W83" s="7"/>
+      <c r="W83" s="6"/>
       <c r="X83" s="7"/>
-      <c r="Y83" s="7"/>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y83" s="8"/>
+      <c r="Z83" s="7"/>
+      <c r="AA83" s="7"/>
+      <c r="AB83" s="7"/>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>118</v>
       </c>
@@ -4185,11 +4437,14 @@
       <c r="T84" s="6"/>
       <c r="U84" s="7"/>
       <c r="V84" s="8"/>
-      <c r="W84" s="7"/>
+      <c r="W84" s="6"/>
       <c r="X84" s="7"/>
-      <c r="Y84" s="7"/>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y84" s="8"/>
+      <c r="Z84" s="7"/>
+      <c r="AA84" s="7"/>
+      <c r="AB84" s="7"/>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>117</v>
       </c>
@@ -4214,11 +4469,14 @@
       <c r="T85" s="6"/>
       <c r="U85" s="7"/>
       <c r="V85" s="8"/>
-      <c r="W85" s="7"/>
+      <c r="W85" s="6"/>
       <c r="X85" s="7"/>
-      <c r="Y85" s="7"/>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y85" s="8"/>
+      <c r="Z85" s="7"/>
+      <c r="AA85" s="7"/>
+      <c r="AB85" s="7"/>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>116</v>
       </c>
@@ -4243,11 +4501,14 @@
       <c r="T86" s="6"/>
       <c r="U86" s="7"/>
       <c r="V86" s="8"/>
-      <c r="W86" s="7"/>
+      <c r="W86" s="6"/>
       <c r="X86" s="7"/>
-      <c r="Y86" s="7"/>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y86" s="8"/>
+      <c r="Z86" s="7"/>
+      <c r="AA86" s="7"/>
+      <c r="AB86" s="7"/>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>115</v>
       </c>
@@ -4272,11 +4533,14 @@
       <c r="T87" s="6"/>
       <c r="U87" s="7"/>
       <c r="V87" s="8"/>
-      <c r="W87" s="7"/>
+      <c r="W87" s="6"/>
       <c r="X87" s="7"/>
-      <c r="Y87" s="7"/>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y87" s="8"/>
+      <c r="Z87" s="7"/>
+      <c r="AA87" s="7"/>
+      <c r="AB87" s="7"/>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>114</v>
       </c>
@@ -4301,11 +4565,14 @@
       <c r="T88" s="6"/>
       <c r="U88" s="7"/>
       <c r="V88" s="8"/>
-      <c r="W88" s="7"/>
+      <c r="W88" s="6"/>
       <c r="X88" s="7"/>
-      <c r="Y88" s="7"/>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y88" s="8"/>
+      <c r="Z88" s="7"/>
+      <c r="AA88" s="7"/>
+      <c r="AB88" s="7"/>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>113</v>
       </c>
@@ -4330,11 +4597,14 @@
       <c r="T89" s="6"/>
       <c r="U89" s="7"/>
       <c r="V89" s="8"/>
-      <c r="W89" s="7"/>
+      <c r="W89" s="6"/>
       <c r="X89" s="7"/>
-      <c r="Y89" s="7"/>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y89" s="8"/>
+      <c r="Z89" s="7"/>
+      <c r="AA89" s="7"/>
+      <c r="AB89" s="7"/>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>112</v>
       </c>
@@ -4359,11 +4629,14 @@
       <c r="T90" s="6"/>
       <c r="U90" s="7"/>
       <c r="V90" s="8"/>
-      <c r="W90" s="7"/>
+      <c r="W90" s="6"/>
       <c r="X90" s="7"/>
-      <c r="Y90" s="7"/>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y90" s="8"/>
+      <c r="Z90" s="7"/>
+      <c r="AA90" s="7"/>
+      <c r="AB90" s="7"/>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>111</v>
       </c>
@@ -4388,11 +4661,14 @@
       <c r="T91" s="6"/>
       <c r="U91" s="7"/>
       <c r="V91" s="8"/>
-      <c r="W91" s="7"/>
+      <c r="W91" s="6"/>
       <c r="X91" s="7"/>
-      <c r="Y91" s="7"/>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y91" s="8"/>
+      <c r="Z91" s="7"/>
+      <c r="AA91" s="7"/>
+      <c r="AB91" s="7"/>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>110</v>
       </c>
@@ -4417,11 +4693,14 @@
       <c r="T92" s="6"/>
       <c r="U92" s="7"/>
       <c r="V92" s="8"/>
-      <c r="W92" s="7"/>
+      <c r="W92" s="6"/>
       <c r="X92" s="7"/>
-      <c r="Y92" s="7"/>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y92" s="8"/>
+      <c r="Z92" s="7"/>
+      <c r="AA92" s="7"/>
+      <c r="AB92" s="7"/>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>109</v>
       </c>
@@ -4446,11 +4725,14 @@
       <c r="T93" s="6"/>
       <c r="U93" s="7"/>
       <c r="V93" s="8"/>
-      <c r="W93" s="7"/>
+      <c r="W93" s="6"/>
       <c r="X93" s="7"/>
-      <c r="Y93" s="7"/>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y93" s="8"/>
+      <c r="Z93" s="7"/>
+      <c r="AA93" s="7"/>
+      <c r="AB93" s="7"/>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>108</v>
       </c>
@@ -4475,11 +4757,14 @@
       <c r="T94" s="6"/>
       <c r="U94" s="7"/>
       <c r="V94" s="8"/>
-      <c r="W94" s="7"/>
+      <c r="W94" s="6"/>
       <c r="X94" s="7"/>
-      <c r="Y94" s="7"/>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y94" s="8"/>
+      <c r="Z94" s="7"/>
+      <c r="AA94" s="7"/>
+      <c r="AB94" s="7"/>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>107</v>
       </c>
@@ -4504,11 +4789,14 @@
       <c r="T95" s="6"/>
       <c r="U95" s="7"/>
       <c r="V95" s="8"/>
-      <c r="W95" s="7"/>
+      <c r="W95" s="6"/>
       <c r="X95" s="7"/>
-      <c r="Y95" s="7"/>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y95" s="8"/>
+      <c r="Z95" s="7"/>
+      <c r="AA95" s="7"/>
+      <c r="AB95" s="7"/>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>106</v>
       </c>
@@ -4533,11 +4821,14 @@
       <c r="T96" s="6"/>
       <c r="U96" s="7"/>
       <c r="V96" s="8"/>
-      <c r="W96" s="7"/>
+      <c r="W96" s="6"/>
       <c r="X96" s="7"/>
-      <c r="Y96" s="7"/>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y96" s="8"/>
+      <c r="Z96" s="7"/>
+      <c r="AA96" s="7"/>
+      <c r="AB96" s="7"/>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>105</v>
       </c>
@@ -4562,11 +4853,14 @@
       <c r="T97" s="6"/>
       <c r="U97" s="7"/>
       <c r="V97" s="8"/>
-      <c r="W97" s="7"/>
+      <c r="W97" s="6"/>
       <c r="X97" s="7"/>
-      <c r="Y97" s="7"/>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y97" s="8"/>
+      <c r="Z97" s="7"/>
+      <c r="AA97" s="7"/>
+      <c r="AB97" s="7"/>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>104</v>
       </c>
@@ -4591,11 +4885,14 @@
       <c r="T98" s="6"/>
       <c r="U98" s="7"/>
       <c r="V98" s="8"/>
-      <c r="W98" s="7"/>
+      <c r="W98" s="6"/>
       <c r="X98" s="7"/>
-      <c r="Y98" s="7"/>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y98" s="8"/>
+      <c r="Z98" s="7"/>
+      <c r="AA98" s="7"/>
+      <c r="AB98" s="7"/>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>103</v>
       </c>
@@ -4620,11 +4917,14 @@
       <c r="T99" s="6"/>
       <c r="U99" s="7"/>
       <c r="V99" s="8"/>
-      <c r="W99" s="7"/>
+      <c r="W99" s="6"/>
       <c r="X99" s="7"/>
-      <c r="Y99" s="7"/>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y99" s="8"/>
+      <c r="Z99" s="7"/>
+      <c r="AA99" s="7"/>
+      <c r="AB99" s="7"/>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>102</v>
       </c>
@@ -4649,11 +4949,14 @@
       <c r="T100" s="6"/>
       <c r="U100" s="7"/>
       <c r="V100" s="8"/>
-      <c r="W100" s="7"/>
+      <c r="W100" s="6"/>
       <c r="X100" s="7"/>
-      <c r="Y100" s="7"/>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y100" s="8"/>
+      <c r="Z100" s="7"/>
+      <c r="AA100" s="7"/>
+      <c r="AB100" s="7"/>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>101</v>
       </c>
@@ -4678,11 +4981,14 @@
       <c r="T101" s="6"/>
       <c r="U101" s="7"/>
       <c r="V101" s="8"/>
-      <c r="W101" s="7"/>
+      <c r="W101" s="6"/>
       <c r="X101" s="7"/>
-      <c r="Y101" s="7"/>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y101" s="8"/>
+      <c r="Z101" s="7"/>
+      <c r="AA101" s="7"/>
+      <c r="AB101" s="7"/>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -4707,11 +5013,14 @@
       <c r="T102" s="6"/>
       <c r="U102" s="7"/>
       <c r="V102" s="8"/>
-      <c r="W102" s="7"/>
+      <c r="W102" s="6"/>
       <c r="X102" s="7"/>
-      <c r="Y102" s="7"/>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y102" s="8"/>
+      <c r="Z102" s="7"/>
+      <c r="AA102" s="7"/>
+      <c r="AB102" s="7"/>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>99</v>
       </c>
@@ -4736,11 +5045,14 @@
       <c r="T103" s="6"/>
       <c r="U103" s="7"/>
       <c r="V103" s="8"/>
-      <c r="W103" s="7"/>
+      <c r="W103" s="6"/>
       <c r="X103" s="7"/>
-      <c r="Y103" s="7"/>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y103" s="8"/>
+      <c r="Z103" s="7"/>
+      <c r="AA103" s="7"/>
+      <c r="AB103" s="7"/>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>98</v>
       </c>
@@ -4765,11 +5077,14 @@
       <c r="T104" s="6"/>
       <c r="U104" s="7"/>
       <c r="V104" s="8"/>
-      <c r="W104" s="7"/>
+      <c r="W104" s="6"/>
       <c r="X104" s="7"/>
-      <c r="Y104" s="7"/>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y104" s="8"/>
+      <c r="Z104" s="7"/>
+      <c r="AA104" s="7"/>
+      <c r="AB104" s="7"/>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>97</v>
       </c>
@@ -4794,11 +5109,14 @@
       <c r="T105" s="6"/>
       <c r="U105" s="7"/>
       <c r="V105" s="8"/>
-      <c r="W105" s="7"/>
+      <c r="W105" s="6"/>
       <c r="X105" s="7"/>
-      <c r="Y105" s="7"/>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y105" s="8"/>
+      <c r="Z105" s="7"/>
+      <c r="AA105" s="7"/>
+      <c r="AB105" s="7"/>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>96</v>
       </c>
@@ -4823,11 +5141,14 @@
       <c r="T106" s="6"/>
       <c r="U106" s="7"/>
       <c r="V106" s="8"/>
-      <c r="W106" s="7"/>
+      <c r="W106" s="6"/>
       <c r="X106" s="7"/>
-      <c r="Y106" s="7"/>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y106" s="8"/>
+      <c r="Z106" s="7"/>
+      <c r="AA106" s="7"/>
+      <c r="AB106" s="7"/>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>95</v>
       </c>
@@ -4852,11 +5173,14 @@
       <c r="T107" s="6"/>
       <c r="U107" s="7"/>
       <c r="V107" s="8"/>
-      <c r="W107" s="7"/>
+      <c r="W107" s="6"/>
       <c r="X107" s="7"/>
-      <c r="Y107" s="7"/>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y107" s="8"/>
+      <c r="Z107" s="7"/>
+      <c r="AA107" s="7"/>
+      <c r="AB107" s="7"/>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>94</v>
       </c>
@@ -4881,11 +5205,14 @@
       <c r="T108" s="6"/>
       <c r="U108" s="7"/>
       <c r="V108" s="8"/>
-      <c r="W108" s="7"/>
+      <c r="W108" s="6"/>
       <c r="X108" s="7"/>
-      <c r="Y108" s="7"/>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y108" s="8"/>
+      <c r="Z108" s="7"/>
+      <c r="AA108" s="7"/>
+      <c r="AB108" s="7"/>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>93</v>
       </c>
@@ -4910,11 +5237,14 @@
       <c r="T109" s="6"/>
       <c r="U109" s="7"/>
       <c r="V109" s="8"/>
-      <c r="W109" s="7"/>
+      <c r="W109" s="6"/>
       <c r="X109" s="7"/>
-      <c r="Y109" s="7"/>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y109" s="8"/>
+      <c r="Z109" s="7"/>
+      <c r="AA109" s="7"/>
+      <c r="AB109" s="7"/>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>92</v>
       </c>
@@ -4939,11 +5269,14 @@
       <c r="T110" s="6"/>
       <c r="U110" s="7"/>
       <c r="V110" s="8"/>
-      <c r="W110" s="7"/>
+      <c r="W110" s="6"/>
       <c r="X110" s="7"/>
-      <c r="Y110" s="7"/>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y110" s="8"/>
+      <c r="Z110" s="7"/>
+      <c r="AA110" s="7"/>
+      <c r="AB110" s="7"/>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>91</v>
       </c>
@@ -4968,11 +5301,14 @@
       <c r="T111" s="6"/>
       <c r="U111" s="7"/>
       <c r="V111" s="8"/>
-      <c r="W111" s="7"/>
+      <c r="W111" s="6"/>
       <c r="X111" s="7"/>
-      <c r="Y111" s="7"/>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y111" s="8"/>
+      <c r="Z111" s="7"/>
+      <c r="AA111" s="7"/>
+      <c r="AB111" s="7"/>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>90</v>
       </c>
@@ -4997,11 +5333,14 @@
       <c r="T112" s="6"/>
       <c r="U112" s="7"/>
       <c r="V112" s="8"/>
-      <c r="W112" s="7"/>
+      <c r="W112" s="6"/>
       <c r="X112" s="7"/>
-      <c r="Y112" s="7"/>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y112" s="8"/>
+      <c r="Z112" s="7"/>
+      <c r="AA112" s="7"/>
+      <c r="AB112" s="7"/>
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>89</v>
       </c>
@@ -5026,11 +5365,14 @@
       <c r="T113" s="6"/>
       <c r="U113" s="7"/>
       <c r="V113" s="8"/>
-      <c r="W113" s="7"/>
+      <c r="W113" s="6"/>
       <c r="X113" s="7"/>
-      <c r="Y113" s="7"/>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y113" s="8"/>
+      <c r="Z113" s="7"/>
+      <c r="AA113" s="7"/>
+      <c r="AB113" s="7"/>
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>88</v>
       </c>
@@ -5055,11 +5397,14 @@
       <c r="T114" s="6"/>
       <c r="U114" s="7"/>
       <c r="V114" s="8"/>
-      <c r="W114" s="7"/>
+      <c r="W114" s="6"/>
       <c r="X114" s="7"/>
-      <c r="Y114" s="7"/>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y114" s="8"/>
+      <c r="Z114" s="7"/>
+      <c r="AA114" s="7"/>
+      <c r="AB114" s="7"/>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>87</v>
       </c>
@@ -5084,11 +5429,14 @@
       <c r="T115" s="6"/>
       <c r="U115" s="7"/>
       <c r="V115" s="8"/>
-      <c r="W115" s="7"/>
+      <c r="W115" s="6"/>
       <c r="X115" s="7"/>
-      <c r="Y115" s="7"/>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y115" s="8"/>
+      <c r="Z115" s="7"/>
+      <c r="AA115" s="7"/>
+      <c r="AB115" s="7"/>
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>86</v>
       </c>
@@ -5113,11 +5461,14 @@
       <c r="T116" s="6"/>
       <c r="U116" s="7"/>
       <c r="V116" s="8"/>
-      <c r="W116" s="7"/>
+      <c r="W116" s="6"/>
       <c r="X116" s="7"/>
-      <c r="Y116" s="7"/>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y116" s="8"/>
+      <c r="Z116" s="7"/>
+      <c r="AA116" s="7"/>
+      <c r="AB116" s="7"/>
+    </row>
+    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>85</v>
       </c>
@@ -5142,11 +5493,14 @@
       <c r="T117" s="6"/>
       <c r="U117" s="7"/>
       <c r="V117" s="8"/>
-      <c r="W117" s="7"/>
+      <c r="W117" s="6"/>
       <c r="X117" s="7"/>
-      <c r="Y117" s="7"/>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y117" s="8"/>
+      <c r="Z117" s="7"/>
+      <c r="AA117" s="7"/>
+      <c r="AB117" s="7"/>
+    </row>
+    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>84</v>
       </c>
@@ -5171,11 +5525,14 @@
       <c r="T118" s="6"/>
       <c r="U118" s="7"/>
       <c r="V118" s="8"/>
-      <c r="W118" s="7"/>
+      <c r="W118" s="6"/>
       <c r="X118" s="7"/>
-      <c r="Y118" s="7"/>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y118" s="8"/>
+      <c r="Z118" s="7"/>
+      <c r="AA118" s="7"/>
+      <c r="AB118" s="7"/>
+    </row>
+    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>83</v>
       </c>
@@ -5200,11 +5557,14 @@
       <c r="T119" s="6"/>
       <c r="U119" s="7"/>
       <c r="V119" s="8"/>
-      <c r="W119" s="7"/>
+      <c r="W119" s="6"/>
       <c r="X119" s="7"/>
-      <c r="Y119" s="7"/>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y119" s="8"/>
+      <c r="Z119" s="7"/>
+      <c r="AA119" s="7"/>
+      <c r="AB119" s="7"/>
+    </row>
+    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>82</v>
       </c>
@@ -5229,11 +5589,14 @@
       <c r="T120" s="6"/>
       <c r="U120" s="7"/>
       <c r="V120" s="8"/>
-      <c r="W120" s="7"/>
+      <c r="W120" s="6"/>
       <c r="X120" s="7"/>
-      <c r="Y120" s="7"/>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y120" s="8"/>
+      <c r="Z120" s="7"/>
+      <c r="AA120" s="7"/>
+      <c r="AB120" s="7"/>
+    </row>
+    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>81</v>
       </c>
@@ -5258,11 +5621,14 @@
       <c r="T121" s="6"/>
       <c r="U121" s="7"/>
       <c r="V121" s="8"/>
-      <c r="W121" s="7"/>
+      <c r="W121" s="6"/>
       <c r="X121" s="7"/>
-      <c r="Y121" s="7"/>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y121" s="8"/>
+      <c r="Z121" s="7"/>
+      <c r="AA121" s="7"/>
+      <c r="AB121" s="7"/>
+    </row>
+    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>80</v>
       </c>
@@ -5287,11 +5653,14 @@
       <c r="T122" s="6"/>
       <c r="U122" s="7"/>
       <c r="V122" s="8"/>
-      <c r="W122" s="7"/>
+      <c r="W122" s="6"/>
       <c r="X122" s="7"/>
-      <c r="Y122" s="7"/>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y122" s="8"/>
+      <c r="Z122" s="7"/>
+      <c r="AA122" s="7"/>
+      <c r="AB122" s="7"/>
+    </row>
+    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>79</v>
       </c>
@@ -5316,11 +5685,14 @@
       <c r="T123" s="6"/>
       <c r="U123" s="7"/>
       <c r="V123" s="8"/>
-      <c r="W123" s="7"/>
+      <c r="W123" s="6"/>
       <c r="X123" s="7"/>
-      <c r="Y123" s="7"/>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y123" s="8"/>
+      <c r="Z123" s="7"/>
+      <c r="AA123" s="7"/>
+      <c r="AB123" s="7"/>
+    </row>
+    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>78</v>
       </c>
@@ -5345,11 +5717,14 @@
       <c r="T124" s="6"/>
       <c r="U124" s="7"/>
       <c r="V124" s="8"/>
-      <c r="W124" s="7"/>
+      <c r="W124" s="6"/>
       <c r="X124" s="7"/>
-      <c r="Y124" s="7"/>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y124" s="8"/>
+      <c r="Z124" s="7"/>
+      <c r="AA124" s="7"/>
+      <c r="AB124" s="7"/>
+    </row>
+    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>77</v>
       </c>
@@ -5374,11 +5749,14 @@
       <c r="T125" s="6"/>
       <c r="U125" s="7"/>
       <c r="V125" s="8"/>
-      <c r="W125" s="7"/>
+      <c r="W125" s="6"/>
       <c r="X125" s="7"/>
-      <c r="Y125" s="7"/>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y125" s="8"/>
+      <c r="Z125" s="7"/>
+      <c r="AA125" s="7"/>
+      <c r="AB125" s="7"/>
+    </row>
+    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>76</v>
       </c>
@@ -5403,11 +5781,14 @@
       <c r="T126" s="6"/>
       <c r="U126" s="7"/>
       <c r="V126" s="8"/>
-      <c r="W126" s="7"/>
+      <c r="W126" s="6"/>
       <c r="X126" s="7"/>
-      <c r="Y126" s="7"/>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y126" s="8"/>
+      <c r="Z126" s="7"/>
+      <c r="AA126" s="7"/>
+      <c r="AB126" s="7"/>
+    </row>
+    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>75</v>
       </c>
@@ -5432,11 +5813,14 @@
       <c r="T127" s="6"/>
       <c r="U127" s="7"/>
       <c r="V127" s="8"/>
-      <c r="W127" s="7"/>
+      <c r="W127" s="6"/>
       <c r="X127" s="7"/>
-      <c r="Y127" s="7"/>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y127" s="8"/>
+      <c r="Z127" s="7"/>
+      <c r="AA127" s="7"/>
+      <c r="AB127" s="7"/>
+    </row>
+    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>74</v>
       </c>
@@ -5461,11 +5845,14 @@
       <c r="T128" s="6"/>
       <c r="U128" s="7"/>
       <c r="V128" s="8"/>
-      <c r="W128" s="7"/>
+      <c r="W128" s="6"/>
       <c r="X128" s="7"/>
-      <c r="Y128" s="7"/>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y128" s="8"/>
+      <c r="Z128" s="7"/>
+      <c r="AA128" s="7"/>
+      <c r="AB128" s="7"/>
+    </row>
+    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>73</v>
       </c>
@@ -5490,11 +5877,14 @@
       <c r="T129" s="6"/>
       <c r="U129" s="7"/>
       <c r="V129" s="8"/>
-      <c r="W129" s="7"/>
+      <c r="W129" s="6"/>
       <c r="X129" s="7"/>
-      <c r="Y129" s="7"/>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y129" s="8"/>
+      <c r="Z129" s="7"/>
+      <c r="AA129" s="7"/>
+      <c r="AB129" s="7"/>
+    </row>
+    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>72</v>
       </c>
@@ -5519,11 +5909,14 @@
       <c r="T130" s="6"/>
       <c r="U130" s="7"/>
       <c r="V130" s="8"/>
-      <c r="W130" s="7"/>
+      <c r="W130" s="6"/>
       <c r="X130" s="7"/>
-      <c r="Y130" s="7"/>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y130" s="8"/>
+      <c r="Z130" s="7"/>
+      <c r="AA130" s="7"/>
+      <c r="AB130" s="7"/>
+    </row>
+    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>71</v>
       </c>
@@ -5548,11 +5941,14 @@
       <c r="T131" s="6"/>
       <c r="U131" s="7"/>
       <c r="V131" s="8"/>
-      <c r="W131" s="7"/>
+      <c r="W131" s="6"/>
       <c r="X131" s="7"/>
-      <c r="Y131" s="7"/>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y131" s="8"/>
+      <c r="Z131" s="7"/>
+      <c r="AA131" s="7"/>
+      <c r="AB131" s="7"/>
+    </row>
+    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>70</v>
       </c>
@@ -5577,11 +5973,14 @@
       <c r="T132" s="6"/>
       <c r="U132" s="7"/>
       <c r="V132" s="8"/>
-      <c r="W132" s="7"/>
+      <c r="W132" s="6"/>
       <c r="X132" s="7"/>
-      <c r="Y132" s="7"/>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y132" s="8"/>
+      <c r="Z132" s="7"/>
+      <c r="AA132" s="7"/>
+      <c r="AB132" s="7"/>
+    </row>
+    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>69</v>
       </c>
@@ -5606,11 +6005,14 @@
       <c r="T133" s="6"/>
       <c r="U133" s="7"/>
       <c r="V133" s="8"/>
-      <c r="W133" s="7"/>
+      <c r="W133" s="6"/>
       <c r="X133" s="7"/>
-      <c r="Y133" s="7"/>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y133" s="8"/>
+      <c r="Z133" s="7"/>
+      <c r="AA133" s="7"/>
+      <c r="AB133" s="7"/>
+    </row>
+    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>68</v>
       </c>
@@ -5635,11 +6037,14 @@
       <c r="T134" s="6"/>
       <c r="U134" s="7"/>
       <c r="V134" s="8"/>
-      <c r="W134" s="7"/>
+      <c r="W134" s="6"/>
       <c r="X134" s="7"/>
-      <c r="Y134" s="7"/>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y134" s="8"/>
+      <c r="Z134" s="7"/>
+      <c r="AA134" s="7"/>
+      <c r="AB134" s="7"/>
+    </row>
+    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>67</v>
       </c>
@@ -5664,11 +6069,14 @@
       <c r="T135" s="6"/>
       <c r="U135" s="7"/>
       <c r="V135" s="8"/>
-      <c r="W135" s="7"/>
+      <c r="W135" s="6"/>
       <c r="X135" s="7"/>
-      <c r="Y135" s="7"/>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y135" s="8"/>
+      <c r="Z135" s="7"/>
+      <c r="AA135" s="7"/>
+      <c r="AB135" s="7"/>
+    </row>
+    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>66</v>
       </c>
@@ -5693,11 +6101,14 @@
       <c r="T136" s="6"/>
       <c r="U136" s="7"/>
       <c r="V136" s="8"/>
-      <c r="W136" s="7"/>
+      <c r="W136" s="6"/>
       <c r="X136" s="7"/>
-      <c r="Y136" s="7"/>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y136" s="8"/>
+      <c r="Z136" s="7"/>
+      <c r="AA136" s="7"/>
+      <c r="AB136" s="7"/>
+    </row>
+    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>65</v>
       </c>
@@ -5722,11 +6133,14 @@
       <c r="T137" s="6"/>
       <c r="U137" s="7"/>
       <c r="V137" s="8"/>
-      <c r="W137" s="7"/>
+      <c r="W137" s="6"/>
       <c r="X137" s="7"/>
-      <c r="Y137" s="7"/>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y137" s="8"/>
+      <c r="Z137" s="7"/>
+      <c r="AA137" s="7"/>
+      <c r="AB137" s="7"/>
+    </row>
+    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>64</v>
       </c>
@@ -5751,11 +6165,14 @@
       <c r="T138" s="6"/>
       <c r="U138" s="7"/>
       <c r="V138" s="8"/>
-      <c r="W138" s="7"/>
+      <c r="W138" s="6"/>
       <c r="X138" s="7"/>
-      <c r="Y138" s="7"/>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y138" s="8"/>
+      <c r="Z138" s="7"/>
+      <c r="AA138" s="7"/>
+      <c r="AB138" s="7"/>
+    </row>
+    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>63</v>
       </c>
@@ -5780,11 +6197,14 @@
       <c r="T139" s="6"/>
       <c r="U139" s="7"/>
       <c r="V139" s="8"/>
-      <c r="W139" s="7"/>
+      <c r="W139" s="6"/>
       <c r="X139" s="7"/>
-      <c r="Y139" s="7"/>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y139" s="8"/>
+      <c r="Z139" s="7"/>
+      <c r="AA139" s="7"/>
+      <c r="AB139" s="7"/>
+    </row>
+    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>62</v>
       </c>
@@ -5809,11 +6229,14 @@
       <c r="T140" s="6"/>
       <c r="U140" s="7"/>
       <c r="V140" s="8"/>
-      <c r="W140" s="7"/>
+      <c r="W140" s="6"/>
       <c r="X140" s="7"/>
-      <c r="Y140" s="7"/>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y140" s="8"/>
+      <c r="Z140" s="7"/>
+      <c r="AA140" s="7"/>
+      <c r="AB140" s="7"/>
+    </row>
+    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>61</v>
       </c>
@@ -5838,11 +6261,14 @@
       <c r="T141" s="6"/>
       <c r="U141" s="7"/>
       <c r="V141" s="8"/>
-      <c r="W141" s="7"/>
+      <c r="W141" s="6"/>
       <c r="X141" s="7"/>
-      <c r="Y141" s="7"/>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y141" s="8"/>
+      <c r="Z141" s="7"/>
+      <c r="AA141" s="7"/>
+      <c r="AB141" s="7"/>
+    </row>
+    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>60</v>
       </c>
@@ -5867,11 +6293,14 @@
       <c r="T142" s="6"/>
       <c r="U142" s="7"/>
       <c r="V142" s="8"/>
-      <c r="W142" s="7"/>
+      <c r="W142" s="6"/>
       <c r="X142" s="7"/>
-      <c r="Y142" s="7"/>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y142" s="8"/>
+      <c r="Z142" s="7"/>
+      <c r="AA142" s="7"/>
+      <c r="AB142" s="7"/>
+    </row>
+    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>59</v>
       </c>
@@ -5896,11 +6325,14 @@
       <c r="T143" s="6"/>
       <c r="U143" s="7"/>
       <c r="V143" s="8"/>
-      <c r="W143" s="7"/>
+      <c r="W143" s="6"/>
       <c r="X143" s="7"/>
-      <c r="Y143" s="7"/>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y143" s="8"/>
+      <c r="Z143" s="7"/>
+      <c r="AA143" s="7"/>
+      <c r="AB143" s="7"/>
+    </row>
+    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>58</v>
       </c>
@@ -5925,11 +6357,14 @@
       <c r="T144" s="6"/>
       <c r="U144" s="7"/>
       <c r="V144" s="8"/>
-      <c r="W144" s="7"/>
+      <c r="W144" s="6"/>
       <c r="X144" s="7"/>
-      <c r="Y144" s="7"/>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y144" s="8"/>
+      <c r="Z144" s="7"/>
+      <c r="AA144" s="7"/>
+      <c r="AB144" s="7"/>
+    </row>
+    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>57</v>
       </c>
@@ -5954,11 +6389,14 @@
       <c r="T145" s="6"/>
       <c r="U145" s="7"/>
       <c r="V145" s="8"/>
-      <c r="W145" s="7"/>
+      <c r="W145" s="6"/>
       <c r="X145" s="7"/>
-      <c r="Y145" s="7"/>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y145" s="8"/>
+      <c r="Z145" s="7"/>
+      <c r="AA145" s="7"/>
+      <c r="AB145" s="7"/>
+    </row>
+    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>56</v>
       </c>
@@ -5983,11 +6421,14 @@
       <c r="T146" s="6"/>
       <c r="U146" s="7"/>
       <c r="V146" s="8"/>
-      <c r="W146" s="7"/>
+      <c r="W146" s="6"/>
       <c r="X146" s="7"/>
-      <c r="Y146" s="7"/>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y146" s="8"/>
+      <c r="Z146" s="7"/>
+      <c r="AA146" s="7"/>
+      <c r="AB146" s="7"/>
+    </row>
+    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>55</v>
       </c>
@@ -6012,11 +6453,14 @@
       <c r="T147" s="6"/>
       <c r="U147" s="7"/>
       <c r="V147" s="8"/>
-      <c r="W147" s="7"/>
+      <c r="W147" s="6"/>
       <c r="X147" s="7"/>
-      <c r="Y147" s="7"/>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y147" s="8"/>
+      <c r="Z147" s="7"/>
+      <c r="AA147" s="7"/>
+      <c r="AB147" s="7"/>
+    </row>
+    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>54</v>
       </c>
@@ -6041,11 +6485,14 @@
       <c r="T148" s="6"/>
       <c r="U148" s="7"/>
       <c r="V148" s="8"/>
-      <c r="W148" s="7"/>
+      <c r="W148" s="6"/>
       <c r="X148" s="7"/>
-      <c r="Y148" s="7"/>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y148" s="8"/>
+      <c r="Z148" s="7"/>
+      <c r="AA148" s="7"/>
+      <c r="AB148" s="7"/>
+    </row>
+    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>53</v>
       </c>
@@ -6070,11 +6517,14 @@
       <c r="T149" s="6"/>
       <c r="U149" s="7"/>
       <c r="V149" s="8"/>
-      <c r="W149" s="7"/>
+      <c r="W149" s="6"/>
       <c r="X149" s="7"/>
-      <c r="Y149" s="7"/>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y149" s="8"/>
+      <c r="Z149" s="7"/>
+      <c r="AA149" s="7"/>
+      <c r="AB149" s="7"/>
+    </row>
+    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>52</v>
       </c>
@@ -6099,11 +6549,14 @@
       <c r="T150" s="6"/>
       <c r="U150" s="7"/>
       <c r="V150" s="8"/>
-      <c r="W150" s="7"/>
+      <c r="W150" s="6"/>
       <c r="X150" s="7"/>
-      <c r="Y150" s="7"/>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y150" s="8"/>
+      <c r="Z150" s="7"/>
+      <c r="AA150" s="7"/>
+      <c r="AB150" s="7"/>
+    </row>
+    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>51</v>
       </c>
@@ -6128,11 +6581,14 @@
       <c r="T151" s="6"/>
       <c r="U151" s="7"/>
       <c r="V151" s="8"/>
-      <c r="W151" s="7"/>
+      <c r="W151" s="6"/>
       <c r="X151" s="7"/>
-      <c r="Y151" s="7"/>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y151" s="8"/>
+      <c r="Z151" s="7"/>
+      <c r="AA151" s="7"/>
+      <c r="AB151" s="7"/>
+    </row>
+    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>50</v>
       </c>
@@ -6157,11 +6613,14 @@
       <c r="T152" s="6"/>
       <c r="U152" s="7"/>
       <c r="V152" s="8"/>
-      <c r="W152" s="7"/>
+      <c r="W152" s="6"/>
       <c r="X152" s="7"/>
-      <c r="Y152" s="7"/>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y152" s="8"/>
+      <c r="Z152" s="7"/>
+      <c r="AA152" s="7"/>
+      <c r="AB152" s="7"/>
+    </row>
+    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>49</v>
       </c>
@@ -6186,11 +6645,14 @@
       <c r="T153" s="6"/>
       <c r="U153" s="7"/>
       <c r="V153" s="8"/>
-      <c r="W153" s="7"/>
+      <c r="W153" s="6"/>
       <c r="X153" s="7"/>
-      <c r="Y153" s="7"/>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y153" s="8"/>
+      <c r="Z153" s="7"/>
+      <c r="AA153" s="7"/>
+      <c r="AB153" s="7"/>
+    </row>
+    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>48</v>
       </c>
@@ -6215,11 +6677,14 @@
       <c r="T154" s="6"/>
       <c r="U154" s="7"/>
       <c r="V154" s="8"/>
-      <c r="W154" s="7"/>
+      <c r="W154" s="6"/>
       <c r="X154" s="7"/>
-      <c r="Y154" s="7"/>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y154" s="8"/>
+      <c r="Z154" s="7"/>
+      <c r="AA154" s="7"/>
+      <c r="AB154" s="7"/>
+    </row>
+    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>47</v>
       </c>
@@ -6244,11 +6709,14 @@
       <c r="T155" s="6"/>
       <c r="U155" s="7"/>
       <c r="V155" s="8"/>
-      <c r="W155" s="7"/>
+      <c r="W155" s="6"/>
       <c r="X155" s="7"/>
-      <c r="Y155" s="7"/>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y155" s="8"/>
+      <c r="Z155" s="7"/>
+      <c r="AA155" s="7"/>
+      <c r="AB155" s="7"/>
+    </row>
+    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>46</v>
       </c>
@@ -6273,11 +6741,14 @@
       <c r="T156" s="6"/>
       <c r="U156" s="7"/>
       <c r="V156" s="8"/>
-      <c r="W156" s="7"/>
+      <c r="W156" s="6"/>
       <c r="X156" s="7"/>
-      <c r="Y156" s="7"/>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y156" s="8"/>
+      <c r="Z156" s="7"/>
+      <c r="AA156" s="7"/>
+      <c r="AB156" s="7"/>
+    </row>
+    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>45</v>
       </c>
@@ -6302,11 +6773,14 @@
       <c r="T157" s="6"/>
       <c r="U157" s="7"/>
       <c r="V157" s="8"/>
-      <c r="W157" s="7"/>
+      <c r="W157" s="6"/>
       <c r="X157" s="7"/>
-      <c r="Y157" s="7"/>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y157" s="8"/>
+      <c r="Z157" s="7"/>
+      <c r="AA157" s="7"/>
+      <c r="AB157" s="7"/>
+    </row>
+    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>44</v>
       </c>
@@ -6331,11 +6805,14 @@
       <c r="T158" s="6"/>
       <c r="U158" s="7"/>
       <c r="V158" s="8"/>
-      <c r="W158" s="7"/>
+      <c r="W158" s="6"/>
       <c r="X158" s="7"/>
-      <c r="Y158" s="7"/>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y158" s="8"/>
+      <c r="Z158" s="7"/>
+      <c r="AA158" s="7"/>
+      <c r="AB158" s="7"/>
+    </row>
+    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>43</v>
       </c>
@@ -6360,11 +6837,14 @@
       <c r="T159" s="6"/>
       <c r="U159" s="7"/>
       <c r="V159" s="8"/>
-      <c r="W159" s="7"/>
+      <c r="W159" s="6"/>
       <c r="X159" s="7"/>
-      <c r="Y159" s="7"/>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y159" s="8"/>
+      <c r="Z159" s="7"/>
+      <c r="AA159" s="7"/>
+      <c r="AB159" s="7"/>
+    </row>
+    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>42</v>
       </c>
@@ -6389,11 +6869,14 @@
       <c r="T160" s="6"/>
       <c r="U160" s="7"/>
       <c r="V160" s="8"/>
-      <c r="W160" s="7"/>
+      <c r="W160" s="6"/>
       <c r="X160" s="7"/>
-      <c r="Y160" s="7"/>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y160" s="8"/>
+      <c r="Z160" s="7"/>
+      <c r="AA160" s="7"/>
+      <c r="AB160" s="7"/>
+    </row>
+    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>41</v>
       </c>
@@ -6418,11 +6901,14 @@
       <c r="T161" s="6"/>
       <c r="U161" s="7"/>
       <c r="V161" s="8"/>
-      <c r="W161" s="7"/>
+      <c r="W161" s="6"/>
       <c r="X161" s="7"/>
-      <c r="Y161" s="7"/>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y161" s="8"/>
+      <c r="Z161" s="7"/>
+      <c r="AA161" s="7"/>
+      <c r="AB161" s="7"/>
+    </row>
+    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>40</v>
       </c>
@@ -6447,11 +6933,14 @@
       <c r="T162" s="6"/>
       <c r="U162" s="7"/>
       <c r="V162" s="8"/>
-      <c r="W162" s="7"/>
+      <c r="W162" s="6"/>
       <c r="X162" s="7"/>
-      <c r="Y162" s="7"/>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y162" s="8"/>
+      <c r="Z162" s="7"/>
+      <c r="AA162" s="7"/>
+      <c r="AB162" s="7"/>
+    </row>
+    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>39</v>
       </c>
@@ -6476,11 +6965,14 @@
       <c r="T163" s="6"/>
       <c r="U163" s="7"/>
       <c r="V163" s="8"/>
-      <c r="W163" s="7"/>
+      <c r="W163" s="6"/>
       <c r="X163" s="7"/>
-      <c r="Y163" s="7"/>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y163" s="8"/>
+      <c r="Z163" s="7"/>
+      <c r="AA163" s="7"/>
+      <c r="AB163" s="7"/>
+    </row>
+    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>38</v>
       </c>
@@ -6505,11 +6997,14 @@
       <c r="T164" s="6"/>
       <c r="U164" s="7"/>
       <c r="V164" s="8"/>
-      <c r="W164" s="7"/>
+      <c r="W164" s="6"/>
       <c r="X164" s="7"/>
-      <c r="Y164" s="7"/>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y164" s="8"/>
+      <c r="Z164" s="7"/>
+      <c r="AA164" s="7"/>
+      <c r="AB164" s="7"/>
+    </row>
+    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>37</v>
       </c>
@@ -6534,11 +7029,14 @@
       <c r="T165" s="6"/>
       <c r="U165" s="7"/>
       <c r="V165" s="8"/>
-      <c r="W165" s="7"/>
+      <c r="W165" s="6"/>
       <c r="X165" s="7"/>
-      <c r="Y165" s="7"/>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y165" s="8"/>
+      <c r="Z165" s="7"/>
+      <c r="AA165" s="7"/>
+      <c r="AB165" s="7"/>
+    </row>
+    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>36</v>
       </c>
@@ -6563,11 +7061,14 @@
       <c r="T166" s="6"/>
       <c r="U166" s="7"/>
       <c r="V166" s="8"/>
-      <c r="W166" s="7"/>
+      <c r="W166" s="6"/>
       <c r="X166" s="7"/>
-      <c r="Y166" s="7"/>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y166" s="8"/>
+      <c r="Z166" s="7"/>
+      <c r="AA166" s="7"/>
+      <c r="AB166" s="7"/>
+    </row>
+    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>35</v>
       </c>
@@ -6592,11 +7093,14 @@
       <c r="T167" s="6"/>
       <c r="U167" s="7"/>
       <c r="V167" s="8"/>
-      <c r="W167" s="7"/>
+      <c r="W167" s="6"/>
       <c r="X167" s="7"/>
-      <c r="Y167" s="7"/>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y167" s="8"/>
+      <c r="Z167" s="7"/>
+      <c r="AA167" s="7"/>
+      <c r="AB167" s="7"/>
+    </row>
+    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>34</v>
       </c>
@@ -6621,11 +7125,14 @@
       <c r="T168" s="6"/>
       <c r="U168" s="7"/>
       <c r="V168" s="8"/>
-      <c r="W168" s="7"/>
+      <c r="W168" s="6"/>
       <c r="X168" s="7"/>
-      <c r="Y168" s="7"/>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y168" s="8"/>
+      <c r="Z168" s="7"/>
+      <c r="AA168" s="7"/>
+      <c r="AB168" s="7"/>
+    </row>
+    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>33</v>
       </c>
@@ -6650,11 +7157,14 @@
       <c r="T169" s="6"/>
       <c r="U169" s="7"/>
       <c r="V169" s="8"/>
-      <c r="W169" s="7"/>
+      <c r="W169" s="6"/>
       <c r="X169" s="7"/>
-      <c r="Y169" s="7"/>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y169" s="8"/>
+      <c r="Z169" s="7"/>
+      <c r="AA169" s="7"/>
+      <c r="AB169" s="7"/>
+    </row>
+    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>32</v>
       </c>
@@ -6679,11 +7189,14 @@
       <c r="T170" s="6"/>
       <c r="U170" s="7"/>
       <c r="V170" s="8"/>
-      <c r="W170" s="7"/>
+      <c r="W170" s="6"/>
       <c r="X170" s="7"/>
-      <c r="Y170" s="7"/>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y170" s="8"/>
+      <c r="Z170" s="7"/>
+      <c r="AA170" s="7"/>
+      <c r="AB170" s="7"/>
+    </row>
+    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>31</v>
       </c>
@@ -6708,11 +7221,14 @@
       <c r="T171" s="6"/>
       <c r="U171" s="7"/>
       <c r="V171" s="8"/>
-      <c r="W171" s="7"/>
+      <c r="W171" s="6"/>
       <c r="X171" s="7"/>
-      <c r="Y171" s="7"/>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y171" s="8"/>
+      <c r="Z171" s="7"/>
+      <c r="AA171" s="7"/>
+      <c r="AB171" s="7"/>
+    </row>
+    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>30</v>
       </c>
@@ -6737,11 +7253,14 @@
       <c r="T172" s="6"/>
       <c r="U172" s="7"/>
       <c r="V172" s="8"/>
-      <c r="W172" s="7"/>
+      <c r="W172" s="6"/>
       <c r="X172" s="7"/>
-      <c r="Y172" s="7"/>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y172" s="8"/>
+      <c r="Z172" s="7"/>
+      <c r="AA172" s="7"/>
+      <c r="AB172" s="7"/>
+    </row>
+    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>29</v>
       </c>
@@ -6766,11 +7285,14 @@
       <c r="T173" s="6"/>
       <c r="U173" s="7"/>
       <c r="V173" s="8"/>
-      <c r="W173" s="7"/>
+      <c r="W173" s="6"/>
       <c r="X173" s="7"/>
-      <c r="Y173" s="7"/>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y173" s="8"/>
+      <c r="Z173" s="7"/>
+      <c r="AA173" s="7"/>
+      <c r="AB173" s="7"/>
+    </row>
+    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>28</v>
       </c>
@@ -6792,14 +7314,17 @@
       <c r="Q174" s="15"/>
       <c r="R174" s="15"/>
       <c r="S174" s="15"/>
-      <c r="T174" s="6"/>
-      <c r="U174" s="7"/>
-      <c r="V174" s="8"/>
-      <c r="W174" s="7"/>
+      <c r="T174" s="11"/>
+      <c r="U174" s="15"/>
+      <c r="V174" s="9"/>
+      <c r="W174" s="6"/>
       <c r="X174" s="7"/>
-      <c r="Y174" s="7"/>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y174" s="8"/>
+      <c r="Z174" s="7"/>
+      <c r="AA174" s="7"/>
+      <c r="AB174" s="7"/>
+    </row>
+    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>27</v>
       </c>
@@ -6824,11 +7349,14 @@
       <c r="T175" s="6"/>
       <c r="U175" s="7"/>
       <c r="V175" s="8"/>
-      <c r="W175" s="7"/>
+      <c r="W175" s="6"/>
       <c r="X175" s="7"/>
-      <c r="Y175" s="7"/>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y175" s="8"/>
+      <c r="Z175" s="7"/>
+      <c r="AA175" s="7"/>
+      <c r="AB175" s="7"/>
+    </row>
+    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>26</v>
       </c>
@@ -6853,11 +7381,14 @@
       <c r="T176" s="6"/>
       <c r="U176" s="7"/>
       <c r="V176" s="8"/>
-      <c r="W176" s="7"/>
+      <c r="W176" s="6"/>
       <c r="X176" s="7"/>
-      <c r="Y176" s="7"/>
-    </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y176" s="8"/>
+      <c r="Z176" s="7"/>
+      <c r="AA176" s="7"/>
+      <c r="AB176" s="7"/>
+    </row>
+    <row r="177" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>25</v>
       </c>
@@ -6882,11 +7413,14 @@
       <c r="T177" s="6"/>
       <c r="U177" s="7"/>
       <c r="V177" s="8"/>
-      <c r="W177" s="7"/>
+      <c r="W177" s="6"/>
       <c r="X177" s="7"/>
-      <c r="Y177" s="7"/>
-    </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y177" s="8"/>
+      <c r="Z177" s="7"/>
+      <c r="AA177" s="7"/>
+      <c r="AB177" s="7"/>
+    </row>
+    <row r="178" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>24</v>
       </c>
@@ -6911,11 +7445,14 @@
       <c r="T178" s="6"/>
       <c r="U178" s="7"/>
       <c r="V178" s="8"/>
-      <c r="W178" s="7"/>
+      <c r="W178" s="6"/>
       <c r="X178" s="7"/>
-      <c r="Y178" s="7"/>
-    </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y178" s="8"/>
+      <c r="Z178" s="7"/>
+      <c r="AA178" s="7"/>
+      <c r="AB178" s="7"/>
+    </row>
+    <row r="179" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>23</v>
       </c>
@@ -6940,11 +7477,14 @@
       <c r="T179" s="6"/>
       <c r="U179" s="7"/>
       <c r="V179" s="8"/>
-      <c r="W179" s="7"/>
+      <c r="W179" s="6"/>
       <c r="X179" s="7"/>
-      <c r="Y179" s="7"/>
-    </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y179" s="8"/>
+      <c r="Z179" s="7"/>
+      <c r="AA179" s="7"/>
+      <c r="AB179" s="7"/>
+    </row>
+    <row r="180" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>22</v>
       </c>
@@ -6963,17 +7503,26 @@
       <c r="N180" s="6"/>
       <c r="O180" s="7"/>
       <c r="P180" s="8"/>
-      <c r="Q180" s="7"/>
-      <c r="R180" s="7"/>
-      <c r="S180" s="7"/>
+      <c r="Q180" s="7">
+        <v>4</v>
+      </c>
+      <c r="R180" s="7">
+        <v>1</v>
+      </c>
+      <c r="S180" s="7">
+        <v>3</v>
+      </c>
       <c r="T180" s="6"/>
       <c r="U180" s="7"/>
       <c r="V180" s="8"/>
-      <c r="W180" s="7"/>
+      <c r="W180" s="6"/>
       <c r="X180" s="7"/>
-      <c r="Y180" s="7"/>
-    </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y180" s="8"/>
+      <c r="Z180" s="7"/>
+      <c r="AA180" s="7"/>
+      <c r="AB180" s="7"/>
+    </row>
+    <row r="181" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>21</v>
       </c>
@@ -7004,11 +7553,14 @@
       <c r="T181" s="6"/>
       <c r="U181" s="7"/>
       <c r="V181" s="8"/>
-      <c r="W181" s="7"/>
+      <c r="W181" s="6"/>
       <c r="X181" s="7"/>
-      <c r="Y181" s="7"/>
-    </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y181" s="8"/>
+      <c r="Z181" s="7"/>
+      <c r="AA181" s="7"/>
+      <c r="AB181" s="7"/>
+    </row>
+    <row r="182" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>20</v>
       </c>
@@ -7036,20 +7588,23 @@
       <c r="Q182" s="7"/>
       <c r="R182" s="7"/>
       <c r="S182" s="7"/>
-      <c r="T182" s="12">
+      <c r="T182" s="6"/>
+      <c r="U182" s="7"/>
+      <c r="V182" s="8"/>
+      <c r="W182" s="12">
         <v>2</v>
       </c>
-      <c r="U182" s="13">
+      <c r="X182" s="13">
         <v>3</v>
       </c>
-      <c r="V182" s="14">
+      <c r="Y182" s="14">
         <v>3</v>
       </c>
-      <c r="W182" s="13"/>
-      <c r="X182" s="13"/>
-      <c r="Y182" s="13"/>
-    </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z182" s="13"/>
+      <c r="AA182" s="13"/>
+      <c r="AB182" s="13"/>
+    </row>
+    <row r="183" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>19</v>
       </c>
@@ -7071,20 +7626,23 @@
       <c r="Q183" s="7"/>
       <c r="R183" s="7"/>
       <c r="S183" s="7"/>
-      <c r="T183" s="6">
+      <c r="T183" s="6"/>
+      <c r="U183" s="7"/>
+      <c r="V183" s="8"/>
+      <c r="W183" s="6">
         <v>5</v>
       </c>
-      <c r="U183" s="7">
+      <c r="X183" s="7">
         <v>0</v>
       </c>
-      <c r="V183" s="8">
+      <c r="Y183" s="8">
         <v>3</v>
       </c>
-      <c r="W183" s="7"/>
-      <c r="X183" s="7"/>
-      <c r="Y183" s="7"/>
-    </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z183" s="7"/>
+      <c r="AA183" s="7"/>
+      <c r="AB183" s="7"/>
+    </row>
+    <row r="184" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>18</v>
       </c>
@@ -7109,23 +7667,32 @@
       <c r="P184" s="8">
         <v>3</v>
       </c>
-      <c r="Q184" s="7"/>
-      <c r="R184" s="7"/>
-      <c r="S184" s="7"/>
-      <c r="T184" s="6">
+      <c r="Q184" s="10">
+        <v>3</v>
+      </c>
+      <c r="R184" s="10">
+        <v>2</v>
+      </c>
+      <c r="S184" s="10">
+        <v>3</v>
+      </c>
+      <c r="T184" s="21"/>
+      <c r="U184" s="10"/>
+      <c r="V184" s="22"/>
+      <c r="W184" s="6">
         <v>4</v>
       </c>
-      <c r="U184" s="7">
+      <c r="X184" s="7">
         <v>1</v>
       </c>
-      <c r="V184" s="8">
+      <c r="Y184" s="8">
         <v>3</v>
       </c>
-      <c r="W184" s="7"/>
-      <c r="X184" s="7"/>
-      <c r="Y184" s="7"/>
-    </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z184" s="7"/>
+      <c r="AA184" s="7"/>
+      <c r="AB184" s="7"/>
+    </row>
+    <row r="185" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>17</v>
       </c>
@@ -7150,11 +7717,14 @@
       <c r="T185" s="6"/>
       <c r="U185" s="7"/>
       <c r="V185" s="8"/>
-      <c r="W185" s="7"/>
+      <c r="W185" s="6"/>
       <c r="X185" s="7"/>
-      <c r="Y185" s="7"/>
-    </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y185" s="8"/>
+      <c r="Z185" s="7"/>
+      <c r="AA185" s="7"/>
+      <c r="AB185" s="7"/>
+    </row>
+    <row r="186" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>16</v>
       </c>
@@ -7176,26 +7746,29 @@
       <c r="Q186" s="6"/>
       <c r="R186" s="7"/>
       <c r="S186" s="7"/>
-      <c r="T186" s="6">
+      <c r="T186" s="6"/>
+      <c r="U186" s="7"/>
+      <c r="V186" s="8"/>
+      <c r="W186" s="6">
         <v>3</v>
       </c>
-      <c r="U186" s="7">
+      <c r="X186" s="7">
         <v>2</v>
       </c>
-      <c r="V186" s="8">
+      <c r="Y186" s="8">
         <v>3</v>
       </c>
-      <c r="W186" s="16">
+      <c r="Z186" s="16">
         <v>1</v>
       </c>
-      <c r="X186" s="16">
+      <c r="AA186" s="16">
         <v>4</v>
       </c>
-      <c r="Y186" s="16">
+      <c r="AB186" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>15</v>
       </c>
@@ -7226,17 +7799,20 @@
       <c r="T187" s="6"/>
       <c r="U187" s="7"/>
       <c r="V187" s="8"/>
-      <c r="W187" s="7">
+      <c r="W187" s="6"/>
+      <c r="X187" s="7"/>
+      <c r="Y187" s="8"/>
+      <c r="Z187" s="7">
         <v>5</v>
       </c>
-      <c r="X187" s="7">
+      <c r="AA187" s="7">
         <v>0</v>
       </c>
-      <c r="Y187" s="7">
+      <c r="AB187" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>14</v>
       </c>
@@ -7273,17 +7849,20 @@
       <c r="T188" s="6"/>
       <c r="U188" s="7"/>
       <c r="V188" s="8"/>
-      <c r="W188" s="7">
+      <c r="W188" s="6"/>
+      <c r="X188" s="7"/>
+      <c r="Y188" s="8"/>
+      <c r="Z188" s="7">
         <v>4</v>
       </c>
-      <c r="X188" s="7">
+      <c r="AA188" s="7">
         <v>1</v>
       </c>
-      <c r="Y188" s="7">
+      <c r="AB188" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>13</v>
       </c>
@@ -7305,14 +7884,17 @@
       <c r="Q189" s="6"/>
       <c r="R189" s="7"/>
       <c r="S189" s="7"/>
-      <c r="T189" s="12"/>
-      <c r="U189" s="13"/>
-      <c r="V189" s="14"/>
-      <c r="W189" s="13"/>
+      <c r="T189" s="6"/>
+      <c r="U189" s="7"/>
+      <c r="V189" s="8"/>
+      <c r="W189" s="12"/>
       <c r="X189" s="13"/>
-      <c r="Y189" s="13"/>
-    </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y189" s="14"/>
+      <c r="Z189" s="13"/>
+      <c r="AA189" s="13"/>
+      <c r="AB189" s="13"/>
+    </row>
+    <row r="190" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>12</v>
       </c>
@@ -7346,29 +7928,32 @@
       <c r="S190" s="7">
         <v>3</v>
       </c>
-      <c r="T190" s="17">
+      <c r="T190" s="6"/>
+      <c r="U190" s="7"/>
+      <c r="V190" s="8"/>
+      <c r="W190" s="17">
         <v>1</v>
       </c>
-      <c r="U190" s="18">
+      <c r="X190" s="18">
         <v>4</v>
       </c>
-      <c r="V190" s="19">
+      <c r="Y190" s="19">
         <v>4</v>
       </c>
-      <c r="W190" s="18">
+      <c r="Z190" s="18">
         <v>3</v>
       </c>
-      <c r="X190" s="18">
+      <c r="AA190" s="18">
         <v>2</v>
       </c>
-      <c r="Y190" s="18">
+      <c r="AB190" s="18">
         <v>3</v>
       </c>
-      <c r="AC190" t="s">
+      <c r="AF190" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>11</v>
       </c>
@@ -7390,14 +7975,23 @@
       <c r="Q191" s="6"/>
       <c r="R191" s="7"/>
       <c r="S191" s="7"/>
-      <c r="T191" s="6"/>
-      <c r="U191" s="7"/>
-      <c r="V191" s="8"/>
-      <c r="W191" s="7"/>
+      <c r="T191" s="12">
+        <v>1</v>
+      </c>
+      <c r="U191" s="13">
+        <v>4</v>
+      </c>
+      <c r="V191" s="14">
+        <v>6</v>
+      </c>
+      <c r="W191" s="6"/>
       <c r="X191" s="7"/>
-      <c r="Y191" s="7"/>
-    </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y191" s="8"/>
+      <c r="Z191" s="7"/>
+      <c r="AA191" s="7"/>
+      <c r="AB191" s="7"/>
+    </row>
+    <row r="192" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>10</v>
       </c>
@@ -7417,11 +8011,14 @@
       <c r="T192" s="6"/>
       <c r="U192" s="7"/>
       <c r="V192" s="8"/>
-      <c r="W192" s="7"/>
+      <c r="W192" s="6"/>
       <c r="X192" s="7"/>
-      <c r="Y192" s="7"/>
-    </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y192" s="8"/>
+      <c r="Z192" s="7"/>
+      <c r="AA192" s="7"/>
+      <c r="AB192" s="7"/>
+    </row>
+    <row r="193" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>9</v>
       </c>
@@ -7452,14 +8049,17 @@
       <c r="S193" s="20">
         <v>1</v>
       </c>
-      <c r="T193" s="6"/>
-      <c r="U193" s="7"/>
-      <c r="V193" s="8"/>
-      <c r="W193" s="7"/>
+      <c r="T193" s="12"/>
+      <c r="U193" s="13"/>
+      <c r="V193" s="14"/>
+      <c r="W193" s="6"/>
       <c r="X193" s="7"/>
-      <c r="Y193" s="7"/>
-    </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y193" s="8"/>
+      <c r="Z193" s="7"/>
+      <c r="AA193" s="7"/>
+      <c r="AB193" s="7"/>
+    </row>
+    <row r="194" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>8</v>
       </c>
@@ -7487,20 +8087,23 @@
       <c r="Q194" s="12"/>
       <c r="R194" s="16"/>
       <c r="S194" s="13"/>
-      <c r="T194" s="6"/>
-      <c r="U194" s="7"/>
-      <c r="V194" s="8"/>
-      <c r="W194" s="7">
+      <c r="T194" s="12"/>
+      <c r="U194" s="16"/>
+      <c r="V194" s="14"/>
+      <c r="W194" s="6"/>
+      <c r="X194" s="7"/>
+      <c r="Y194" s="8"/>
+      <c r="Z194" s="7">
         <v>2</v>
       </c>
-      <c r="X194" s="7">
+      <c r="AA194" s="7">
         <v>3</v>
       </c>
-      <c r="Y194" s="7">
+      <c r="AB194" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>7</v>
       </c>
@@ -7528,14 +8131,23 @@
       <c r="S195" s="13">
         <v>0</v>
       </c>
-      <c r="T195" s="6"/>
-      <c r="U195" s="7"/>
-      <c r="V195" s="8"/>
-      <c r="W195" s="7"/>
+      <c r="T195" s="12">
+        <v>2</v>
+      </c>
+      <c r="U195" s="13">
+        <v>3</v>
+      </c>
+      <c r="V195" s="14">
+        <v>5</v>
+      </c>
+      <c r="W195" s="6"/>
       <c r="X195" s="7"/>
-      <c r="Y195" s="7"/>
-    </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y195" s="8"/>
+      <c r="Z195" s="7"/>
+      <c r="AA195" s="7"/>
+      <c r="AB195" s="7"/>
+    </row>
+    <row r="196" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>6</v>
       </c>
@@ -7563,20 +8175,23 @@
       <c r="S196" s="18">
         <v>3</v>
       </c>
-      <c r="T196" s="12">
+      <c r="T196" s="17"/>
+      <c r="U196" s="18"/>
+      <c r="V196" s="19"/>
+      <c r="W196" s="12">
         <v>2</v>
       </c>
-      <c r="U196" s="13">
+      <c r="X196" s="13">
         <v>3</v>
       </c>
-      <c r="V196" s="14">
+      <c r="Y196" s="14">
         <v>2</v>
       </c>
-      <c r="W196" s="13"/>
-      <c r="X196" s="13"/>
-      <c r="Y196" s="13"/>
-    </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z196" s="13"/>
+      <c r="AA196" s="13"/>
+      <c r="AB196" s="13"/>
+    </row>
+    <row r="197" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>5</v>
       </c>
@@ -7614,11 +8229,14 @@
       <c r="T197" s="6"/>
       <c r="U197" s="7"/>
       <c r="V197" s="8"/>
-      <c r="W197" s="7"/>
+      <c r="W197" s="6"/>
       <c r="X197" s="7"/>
-      <c r="Y197" s="7"/>
-    </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y197" s="8"/>
+      <c r="Z197" s="7"/>
+      <c r="AA197" s="7"/>
+      <c r="AB197" s="7"/>
+    </row>
+    <row r="198" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>4</v>
       </c>
@@ -7652,20 +8270,29 @@
       <c r="Q198" s="12"/>
       <c r="R198" s="13"/>
       <c r="S198" s="13"/>
-      <c r="T198" s="11"/>
-      <c r="U198" s="7"/>
-      <c r="V198" s="8"/>
-      <c r="W198" s="7">
+      <c r="T198" s="12">
         <v>3</v>
       </c>
-      <c r="X198" s="7">
+      <c r="U198" s="13">
         <v>2</v>
       </c>
-      <c r="Y198" s="7">
+      <c r="V198" s="14">
+        <v>4</v>
+      </c>
+      <c r="W198" s="11"/>
+      <c r="X198" s="7"/>
+      <c r="Y198" s="8"/>
+      <c r="Z198" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA198" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB198" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>3</v>
       </c>
@@ -7705,20 +8332,23 @@
       <c r="S199" s="13">
         <v>1</v>
       </c>
-      <c r="T199" s="12">
+      <c r="T199" s="12"/>
+      <c r="U199" s="13"/>
+      <c r="V199" s="14"/>
+      <c r="W199" s="12">
         <v>3</v>
       </c>
-      <c r="U199" s="13">
+      <c r="X199" s="13">
         <v>2</v>
       </c>
-      <c r="V199" s="14">
+      <c r="Y199" s="14">
         <v>1</v>
       </c>
-      <c r="W199" s="13"/>
-      <c r="X199" s="13"/>
-      <c r="Y199" s="13"/>
-    </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z199" s="13"/>
+      <c r="AA199" s="13"/>
+      <c r="AB199" s="13"/>
+    </row>
+    <row r="200" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2</v>
       </c>
@@ -7759,19 +8389,28 @@
         <v>1</v>
       </c>
       <c r="V200" s="14">
-        <v>1</v>
-      </c>
-      <c r="W200" s="13">
+        <v>3</v>
+      </c>
+      <c r="W200" s="12">
         <v>4</v>
       </c>
       <c r="X200" s="13">
         <v>1</v>
       </c>
-      <c r="Y200" s="13">
+      <c r="Y200" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z200" s="13">
+        <v>4</v>
+      </c>
+      <c r="AA200" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB200" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -7817,29 +8456,38 @@
       <c r="U201" s="13">
         <v>0</v>
       </c>
-      <c r="V201" s="14">
-        <v>1</v>
-      </c>
-      <c r="W201" s="13">
+      <c r="V201" s="23">
+        <v>2</v>
+      </c>
+      <c r="W201" s="12">
         <v>5</v>
       </c>
       <c r="X201" s="13">
         <v>0</v>
       </c>
-      <c r="Y201" s="13">
+      <c r="Y201" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z201" s="13">
+        <v>5</v>
+      </c>
+      <c r="AA201" s="13">
         <v>0</v>
       </c>
-      <c r="Z201" s="16">
+      <c r="AB201" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC201" s="16">
         <v>4</v>
       </c>
-      <c r="AA201" s="16">
+      <c r="AD201" s="16">
         <v>0</v>
       </c>
-      <c r="AB201" s="16">
+      <c r="AE201" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>0</v>
       </c>
@@ -7894,7 +8542,7 @@
       <c r="R202" s="7">
         <v>5</v>
       </c>
-      <c r="S202" s="8">
+      <c r="S202" s="7">
         <v>3</v>
       </c>
       <c r="T202" s="6">
@@ -7904,7 +8552,7 @@
         <v>5</v>
       </c>
       <c r="V202" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W202" s="6">
         <v>0</v>
@@ -7922,26 +8570,47 @@
         <v>5</v>
       </c>
       <c r="AB202" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC202" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD202" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE202" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Q204" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T204" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Q205" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T205" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Q206" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T206" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Q207" t="s">
+        <v>12</v>
+      </c>
+      <c r="T207" t="s">
         <v>12</v>
       </c>
     </row>

--- a/solutions/fabergè_easter_eggs_crush_test.xlsx
+++ b/solutions/fabergè_easter_eggs_crush_test.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="13">
   <si>
     <t>floor</t>
   </si>
@@ -1728,11 +1728,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF207"/>
+  <dimension ref="A1:AI213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U198" sqref="U198"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N175" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="W195" sqref="W195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,7 +1746,7 @@
     <col min="6" max="7" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1766,29 +1768,74 @@
       <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+    </row>
+    <row r="2" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>200</v>
       </c>
@@ -1813,14 +1860,17 @@
       <c r="T2" s="6"/>
       <c r="U2" s="7"/>
       <c r="V2" s="8"/>
-      <c r="W2" s="6"/>
+      <c r="W2" s="7"/>
       <c r="X2" s="7"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="6"/>
       <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+    </row>
+    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>199</v>
       </c>
@@ -1845,14 +1895,17 @@
       <c r="T3" s="6"/>
       <c r="U3" s="7"/>
       <c r="V3" s="8"/>
-      <c r="W3" s="6"/>
+      <c r="W3" s="7"/>
       <c r="X3" s="7"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="6"/>
       <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+    </row>
+    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>198</v>
       </c>
@@ -1877,14 +1930,17 @@
       <c r="T4" s="6"/>
       <c r="U4" s="7"/>
       <c r="V4" s="8"/>
-      <c r="W4" s="6"/>
+      <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="6"/>
       <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+    </row>
+    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>197</v>
       </c>
@@ -1909,14 +1965,17 @@
       <c r="T5" s="6"/>
       <c r="U5" s="7"/>
       <c r="V5" s="8"/>
-      <c r="W5" s="6"/>
+      <c r="W5" s="7"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="6"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+    </row>
+    <row r="6" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>196</v>
       </c>
@@ -1941,14 +2000,17 @@
       <c r="T6" s="6"/>
       <c r="U6" s="7"/>
       <c r="V6" s="8"/>
-      <c r="W6" s="6"/>
+      <c r="W6" s="7"/>
       <c r="X6" s="7"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="6"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+    </row>
+    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>195</v>
       </c>
@@ -1973,14 +2035,17 @@
       <c r="T7" s="6"/>
       <c r="U7" s="7"/>
       <c r="V7" s="8"/>
-      <c r="W7" s="6"/>
+      <c r="W7" s="7"/>
       <c r="X7" s="7"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="6"/>
       <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+    </row>
+    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>194</v>
       </c>
@@ -2005,14 +2070,17 @@
       <c r="T8" s="6"/>
       <c r="U8" s="7"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="6"/>
+      <c r="W8" s="7"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="6"/>
       <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+    </row>
+    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>193</v>
       </c>
@@ -2037,14 +2105,17 @@
       <c r="T9" s="6"/>
       <c r="U9" s="7"/>
       <c r="V9" s="8"/>
-      <c r="W9" s="6"/>
+      <c r="W9" s="7"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="6"/>
       <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+    </row>
+    <row r="10" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>192</v>
       </c>
@@ -2069,14 +2140,17 @@
       <c r="T10" s="6"/>
       <c r="U10" s="7"/>
       <c r="V10" s="8"/>
-      <c r="W10" s="6"/>
+      <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="6"/>
       <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+    </row>
+    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>191</v>
       </c>
@@ -2101,14 +2175,17 @@
       <c r="T11" s="6"/>
       <c r="U11" s="7"/>
       <c r="V11" s="8"/>
-      <c r="W11" s="6"/>
+      <c r="W11" s="7"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="6"/>
       <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+    </row>
+    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>190</v>
       </c>
@@ -2133,14 +2210,17 @@
       <c r="T12" s="6"/>
       <c r="U12" s="7"/>
       <c r="V12" s="8"/>
-      <c r="W12" s="6"/>
+      <c r="W12" s="7"/>
       <c r="X12" s="7"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="6"/>
       <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+    </row>
+    <row r="13" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>189</v>
       </c>
@@ -2165,14 +2245,17 @@
       <c r="T13" s="6"/>
       <c r="U13" s="7"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="6"/>
+      <c r="W13" s="7"/>
       <c r="X13" s="7"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="6"/>
       <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+    </row>
+    <row r="14" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>188</v>
       </c>
@@ -2197,14 +2280,17 @@
       <c r="T14" s="6"/>
       <c r="U14" s="7"/>
       <c r="V14" s="8"/>
-      <c r="W14" s="6"/>
+      <c r="W14" s="7"/>
       <c r="X14" s="7"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="6"/>
       <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+    </row>
+    <row r="15" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>187</v>
       </c>
@@ -2229,14 +2315,17 @@
       <c r="T15" s="6"/>
       <c r="U15" s="7"/>
       <c r="V15" s="8"/>
-      <c r="W15" s="6"/>
+      <c r="W15" s="7"/>
       <c r="X15" s="7"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="6"/>
       <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+    </row>
+    <row r="16" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>186</v>
       </c>
@@ -2261,14 +2350,17 @@
       <c r="T16" s="6"/>
       <c r="U16" s="7"/>
       <c r="V16" s="8"/>
-      <c r="W16" s="6"/>
+      <c r="W16" s="7"/>
       <c r="X16" s="7"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="6"/>
       <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+    </row>
+    <row r="17" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>185</v>
       </c>
@@ -2293,14 +2385,17 @@
       <c r="T17" s="6"/>
       <c r="U17" s="7"/>
       <c r="V17" s="8"/>
-      <c r="W17" s="6"/>
+      <c r="W17" s="7"/>
       <c r="X17" s="7"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="6"/>
       <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+    </row>
+    <row r="18" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>184</v>
       </c>
@@ -2325,14 +2420,17 @@
       <c r="T18" s="6"/>
       <c r="U18" s="7"/>
       <c r="V18" s="8"/>
-      <c r="W18" s="6"/>
+      <c r="W18" s="7"/>
       <c r="X18" s="7"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="6"/>
       <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+    </row>
+    <row r="19" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>183</v>
       </c>
@@ -2357,14 +2455,17 @@
       <c r="T19" s="6"/>
       <c r="U19" s="7"/>
       <c r="V19" s="8"/>
-      <c r="W19" s="6"/>
+      <c r="W19" s="7"/>
       <c r="X19" s="7"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="6"/>
       <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+    </row>
+    <row r="20" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>182</v>
       </c>
@@ -2389,14 +2490,17 @@
       <c r="T20" s="6"/>
       <c r="U20" s="7"/>
       <c r="V20" s="8"/>
-      <c r="W20" s="6"/>
+      <c r="W20" s="7"/>
       <c r="X20" s="7"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="6"/>
       <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+    </row>
+    <row r="21" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>181</v>
       </c>
@@ -2421,14 +2525,17 @@
       <c r="T21" s="6"/>
       <c r="U21" s="7"/>
       <c r="V21" s="8"/>
-      <c r="W21" s="6"/>
+      <c r="W21" s="7"/>
       <c r="X21" s="7"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="6"/>
       <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+    </row>
+    <row r="22" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>180</v>
       </c>
@@ -2453,14 +2560,17 @@
       <c r="T22" s="6"/>
       <c r="U22" s="7"/>
       <c r="V22" s="8"/>
-      <c r="W22" s="6"/>
+      <c r="W22" s="7"/>
       <c r="X22" s="7"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="6"/>
       <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+    </row>
+    <row r="23" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>179</v>
       </c>
@@ -2485,14 +2595,17 @@
       <c r="T23" s="6"/>
       <c r="U23" s="7"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="6"/>
+      <c r="W23" s="7"/>
       <c r="X23" s="7"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="6"/>
       <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+    </row>
+    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>178</v>
       </c>
@@ -2517,14 +2630,17 @@
       <c r="T24" s="6"/>
       <c r="U24" s="7"/>
       <c r="V24" s="8"/>
-      <c r="W24" s="6"/>
+      <c r="W24" s="7"/>
       <c r="X24" s="7"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="6"/>
       <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+    </row>
+    <row r="25" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>177</v>
       </c>
@@ -2549,14 +2665,17 @@
       <c r="T25" s="6"/>
       <c r="U25" s="7"/>
       <c r="V25" s="8"/>
-      <c r="W25" s="6"/>
+      <c r="W25" s="7"/>
       <c r="X25" s="7"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="6"/>
       <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+    </row>
+    <row r="26" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>176</v>
       </c>
@@ -2581,14 +2700,17 @@
       <c r="T26" s="6"/>
       <c r="U26" s="7"/>
       <c r="V26" s="8"/>
-      <c r="W26" s="6"/>
+      <c r="W26" s="7"/>
       <c r="X26" s="7"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="6"/>
       <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+    </row>
+    <row r="27" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>175</v>
       </c>
@@ -2613,14 +2735,17 @@
       <c r="T27" s="6"/>
       <c r="U27" s="7"/>
       <c r="V27" s="8"/>
-      <c r="W27" s="6"/>
+      <c r="W27" s="7"/>
       <c r="X27" s="7"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="6"/>
       <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+    </row>
+    <row r="28" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>174</v>
       </c>
@@ -2645,14 +2770,17 @@
       <c r="T28" s="6"/>
       <c r="U28" s="7"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="6"/>
+      <c r="W28" s="7"/>
       <c r="X28" s="7"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="6"/>
       <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+    </row>
+    <row r="29" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>173</v>
       </c>
@@ -2677,14 +2805,17 @@
       <c r="T29" s="6"/>
       <c r="U29" s="7"/>
       <c r="V29" s="8"/>
-      <c r="W29" s="6"/>
+      <c r="W29" s="7"/>
       <c r="X29" s="7"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="6"/>
       <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+    </row>
+    <row r="30" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>172</v>
       </c>
@@ -2709,14 +2840,17 @@
       <c r="T30" s="6"/>
       <c r="U30" s="7"/>
       <c r="V30" s="8"/>
-      <c r="W30" s="6"/>
+      <c r="W30" s="7"/>
       <c r="X30" s="7"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="6"/>
       <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+    </row>
+    <row r="31" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>171</v>
       </c>
@@ -2741,14 +2875,17 @@
       <c r="T31" s="6"/>
       <c r="U31" s="7"/>
       <c r="V31" s="8"/>
-      <c r="W31" s="6"/>
+      <c r="W31" s="7"/>
       <c r="X31" s="7"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="6"/>
       <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+    </row>
+    <row r="32" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>170</v>
       </c>
@@ -2773,14 +2910,17 @@
       <c r="T32" s="6"/>
       <c r="U32" s="7"/>
       <c r="V32" s="8"/>
-      <c r="W32" s="6"/>
+      <c r="W32" s="7"/>
       <c r="X32" s="7"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="6"/>
       <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+    </row>
+    <row r="33" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>169</v>
       </c>
@@ -2805,14 +2945,17 @@
       <c r="T33" s="6"/>
       <c r="U33" s="7"/>
       <c r="V33" s="8"/>
-      <c r="W33" s="6"/>
+      <c r="W33" s="7"/>
       <c r="X33" s="7"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="6"/>
       <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+    </row>
+    <row r="34" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>168</v>
       </c>
@@ -2837,14 +2980,17 @@
       <c r="T34" s="6"/>
       <c r="U34" s="7"/>
       <c r="V34" s="8"/>
-      <c r="W34" s="6"/>
+      <c r="W34" s="7"/>
       <c r="X34" s="7"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="6"/>
       <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+    </row>
+    <row r="35" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>167</v>
       </c>
@@ -2869,14 +3015,17 @@
       <c r="T35" s="6"/>
       <c r="U35" s="7"/>
       <c r="V35" s="8"/>
-      <c r="W35" s="6"/>
+      <c r="W35" s="7"/>
       <c r="X35" s="7"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="6"/>
       <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+    </row>
+    <row r="36" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>166</v>
       </c>
@@ -2901,14 +3050,17 @@
       <c r="T36" s="6"/>
       <c r="U36" s="7"/>
       <c r="V36" s="8"/>
-      <c r="W36" s="6"/>
+      <c r="W36" s="7"/>
       <c r="X36" s="7"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="6"/>
       <c r="AA36" s="7"/>
-      <c r="AB36" s="7"/>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+    </row>
+    <row r="37" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>165</v>
       </c>
@@ -2933,14 +3085,17 @@
       <c r="T37" s="6"/>
       <c r="U37" s="7"/>
       <c r="V37" s="8"/>
-      <c r="W37" s="6"/>
+      <c r="W37" s="7"/>
       <c r="X37" s="7"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="6"/>
       <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+    </row>
+    <row r="38" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>164</v>
       </c>
@@ -2965,14 +3120,17 @@
       <c r="T38" s="6"/>
       <c r="U38" s="7"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="6"/>
+      <c r="W38" s="7"/>
       <c r="X38" s="7"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="6"/>
       <c r="AA38" s="7"/>
-      <c r="AB38" s="7"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+    </row>
+    <row r="39" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>163</v>
       </c>
@@ -2997,14 +3155,17 @@
       <c r="T39" s="6"/>
       <c r="U39" s="7"/>
       <c r="V39" s="8"/>
-      <c r="W39" s="6"/>
+      <c r="W39" s="7"/>
       <c r="X39" s="7"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="6"/>
       <c r="AA39" s="7"/>
-      <c r="AB39" s="7"/>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+    </row>
+    <row r="40" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>162</v>
       </c>
@@ -3029,14 +3190,17 @@
       <c r="T40" s="6"/>
       <c r="U40" s="7"/>
       <c r="V40" s="8"/>
-      <c r="W40" s="6"/>
+      <c r="W40" s="7"/>
       <c r="X40" s="7"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="6"/>
       <c r="AA40" s="7"/>
-      <c r="AB40" s="7"/>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+    </row>
+    <row r="41" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>161</v>
       </c>
@@ -3061,14 +3225,17 @@
       <c r="T41" s="6"/>
       <c r="U41" s="7"/>
       <c r="V41" s="8"/>
-      <c r="W41" s="6"/>
+      <c r="W41" s="7"/>
       <c r="X41" s="7"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="6"/>
       <c r="AA41" s="7"/>
-      <c r="AB41" s="7"/>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+    </row>
+    <row r="42" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>160</v>
       </c>
@@ -3093,14 +3260,17 @@
       <c r="T42" s="6"/>
       <c r="U42" s="7"/>
       <c r="V42" s="8"/>
-      <c r="W42" s="6"/>
+      <c r="W42" s="7"/>
       <c r="X42" s="7"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="6"/>
       <c r="AA42" s="7"/>
-      <c r="AB42" s="7"/>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+    </row>
+    <row r="43" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>159</v>
       </c>
@@ -3125,14 +3295,17 @@
       <c r="T43" s="6"/>
       <c r="U43" s="7"/>
       <c r="V43" s="8"/>
-      <c r="W43" s="6"/>
+      <c r="W43" s="7"/>
       <c r="X43" s="7"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="6"/>
       <c r="AA43" s="7"/>
-      <c r="AB43" s="7"/>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+    </row>
+    <row r="44" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>158</v>
       </c>
@@ -3157,14 +3330,17 @@
       <c r="T44" s="6"/>
       <c r="U44" s="7"/>
       <c r="V44" s="8"/>
-      <c r="W44" s="6"/>
+      <c r="W44" s="7"/>
       <c r="X44" s="7"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="6"/>
       <c r="AA44" s="7"/>
-      <c r="AB44" s="7"/>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+    </row>
+    <row r="45" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>157</v>
       </c>
@@ -3189,14 +3365,17 @@
       <c r="T45" s="6"/>
       <c r="U45" s="7"/>
       <c r="V45" s="8"/>
-      <c r="W45" s="6"/>
+      <c r="W45" s="7"/>
       <c r="X45" s="7"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="6"/>
       <c r="AA45" s="7"/>
-      <c r="AB45" s="7"/>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+    </row>
+    <row r="46" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>156</v>
       </c>
@@ -3221,14 +3400,17 @@
       <c r="T46" s="6"/>
       <c r="U46" s="7"/>
       <c r="V46" s="8"/>
-      <c r="W46" s="6"/>
+      <c r="W46" s="7"/>
       <c r="X46" s="7"/>
-      <c r="Y46" s="8"/>
-      <c r="Z46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="6"/>
       <c r="AA46" s="7"/>
-      <c r="AB46" s="7"/>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+    </row>
+    <row r="47" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>155</v>
       </c>
@@ -3253,14 +3435,17 @@
       <c r="T47" s="6"/>
       <c r="U47" s="7"/>
       <c r="V47" s="8"/>
-      <c r="W47" s="6"/>
+      <c r="W47" s="7"/>
       <c r="X47" s="7"/>
-      <c r="Y47" s="8"/>
-      <c r="Z47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="6"/>
       <c r="AA47" s="7"/>
-      <c r="AB47" s="7"/>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+    </row>
+    <row r="48" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>154</v>
       </c>
@@ -3285,14 +3470,17 @@
       <c r="T48" s="6"/>
       <c r="U48" s="7"/>
       <c r="V48" s="8"/>
-      <c r="W48" s="6"/>
+      <c r="W48" s="7"/>
       <c r="X48" s="7"/>
-      <c r="Y48" s="8"/>
-      <c r="Z48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="6"/>
       <c r="AA48" s="7"/>
-      <c r="AB48" s="7"/>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+    </row>
+    <row r="49" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>153</v>
       </c>
@@ -3317,14 +3505,17 @@
       <c r="T49" s="6"/>
       <c r="U49" s="7"/>
       <c r="V49" s="8"/>
-      <c r="W49" s="6"/>
+      <c r="W49" s="7"/>
       <c r="X49" s="7"/>
-      <c r="Y49" s="8"/>
-      <c r="Z49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="6"/>
       <c r="AA49" s="7"/>
-      <c r="AB49" s="7"/>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+    </row>
+    <row r="50" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>152</v>
       </c>
@@ -3349,14 +3540,17 @@
       <c r="T50" s="6"/>
       <c r="U50" s="7"/>
       <c r="V50" s="8"/>
-      <c r="W50" s="6"/>
+      <c r="W50" s="7"/>
       <c r="X50" s="7"/>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="6"/>
       <c r="AA50" s="7"/>
-      <c r="AB50" s="7"/>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+    </row>
+    <row r="51" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>151</v>
       </c>
@@ -3381,14 +3575,17 @@
       <c r="T51" s="6"/>
       <c r="U51" s="7"/>
       <c r="V51" s="8"/>
-      <c r="W51" s="6"/>
+      <c r="W51" s="7"/>
       <c r="X51" s="7"/>
-      <c r="Y51" s="8"/>
-      <c r="Z51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="6"/>
       <c r="AA51" s="7"/>
-      <c r="AB51" s="7"/>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7"/>
+    </row>
+    <row r="52" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>150</v>
       </c>
@@ -3413,14 +3610,17 @@
       <c r="T52" s="6"/>
       <c r="U52" s="7"/>
       <c r="V52" s="8"/>
-      <c r="W52" s="6"/>
+      <c r="W52" s="7"/>
       <c r="X52" s="7"/>
-      <c r="Y52" s="8"/>
-      <c r="Z52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="6"/>
       <c r="AA52" s="7"/>
-      <c r="AB52" s="7"/>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+    </row>
+    <row r="53" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>149</v>
       </c>
@@ -3445,14 +3645,17 @@
       <c r="T53" s="6"/>
       <c r="U53" s="7"/>
       <c r="V53" s="8"/>
-      <c r="W53" s="6"/>
+      <c r="W53" s="7"/>
       <c r="X53" s="7"/>
-      <c r="Y53" s="8"/>
-      <c r="Z53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="6"/>
       <c r="AA53" s="7"/>
-      <c r="AB53" s="7"/>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="7"/>
+    </row>
+    <row r="54" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>148</v>
       </c>
@@ -3477,14 +3680,17 @@
       <c r="T54" s="6"/>
       <c r="U54" s="7"/>
       <c r="V54" s="8"/>
-      <c r="W54" s="6"/>
+      <c r="W54" s="7"/>
       <c r="X54" s="7"/>
-      <c r="Y54" s="8"/>
-      <c r="Z54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="6"/>
       <c r="AA54" s="7"/>
-      <c r="AB54" s="7"/>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7"/>
+    </row>
+    <row r="55" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>147</v>
       </c>
@@ -3509,14 +3715,17 @@
       <c r="T55" s="6"/>
       <c r="U55" s="7"/>
       <c r="V55" s="8"/>
-      <c r="W55" s="6"/>
+      <c r="W55" s="7"/>
       <c r="X55" s="7"/>
-      <c r="Y55" s="8"/>
-      <c r="Z55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="6"/>
       <c r="AA55" s="7"/>
-      <c r="AB55" s="7"/>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="7"/>
+      <c r="AD55" s="7"/>
+      <c r="AE55" s="7"/>
+    </row>
+    <row r="56" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>146</v>
       </c>
@@ -3541,14 +3750,17 @@
       <c r="T56" s="6"/>
       <c r="U56" s="7"/>
       <c r="V56" s="8"/>
-      <c r="W56" s="6"/>
+      <c r="W56" s="7"/>
       <c r="X56" s="7"/>
-      <c r="Y56" s="8"/>
-      <c r="Z56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="6"/>
       <c r="AA56" s="7"/>
-      <c r="AB56" s="7"/>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+    </row>
+    <row r="57" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>145</v>
       </c>
@@ -3573,14 +3785,17 @@
       <c r="T57" s="6"/>
       <c r="U57" s="7"/>
       <c r="V57" s="8"/>
-      <c r="W57" s="6"/>
+      <c r="W57" s="7"/>
       <c r="X57" s="7"/>
-      <c r="Y57" s="8"/>
-      <c r="Z57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="6"/>
       <c r="AA57" s="7"/>
-      <c r="AB57" s="7"/>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
+    </row>
+    <row r="58" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>144</v>
       </c>
@@ -3605,14 +3820,17 @@
       <c r="T58" s="6"/>
       <c r="U58" s="7"/>
       <c r="V58" s="8"/>
-      <c r="W58" s="6"/>
+      <c r="W58" s="7"/>
       <c r="X58" s="7"/>
-      <c r="Y58" s="8"/>
-      <c r="Z58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="6"/>
       <c r="AA58" s="7"/>
-      <c r="AB58" s="7"/>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="7"/>
+    </row>
+    <row r="59" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>143</v>
       </c>
@@ -3637,14 +3855,17 @@
       <c r="T59" s="6"/>
       <c r="U59" s="7"/>
       <c r="V59" s="8"/>
-      <c r="W59" s="6"/>
+      <c r="W59" s="7"/>
       <c r="X59" s="7"/>
-      <c r="Y59" s="8"/>
-      <c r="Z59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="6"/>
       <c r="AA59" s="7"/>
-      <c r="AB59" s="7"/>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="7"/>
+      <c r="AE59" s="7"/>
+    </row>
+    <row r="60" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>142</v>
       </c>
@@ -3669,14 +3890,17 @@
       <c r="T60" s="6"/>
       <c r="U60" s="7"/>
       <c r="V60" s="8"/>
-      <c r="W60" s="6"/>
+      <c r="W60" s="7"/>
       <c r="X60" s="7"/>
-      <c r="Y60" s="8"/>
-      <c r="Z60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="6"/>
       <c r="AA60" s="7"/>
-      <c r="AB60" s="7"/>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+    </row>
+    <row r="61" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>141</v>
       </c>
@@ -3701,14 +3925,17 @@
       <c r="T61" s="6"/>
       <c r="U61" s="7"/>
       <c r="V61" s="8"/>
-      <c r="W61" s="6"/>
+      <c r="W61" s="7"/>
       <c r="X61" s="7"/>
-      <c r="Y61" s="8"/>
-      <c r="Z61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="6"/>
       <c r="AA61" s="7"/>
-      <c r="AB61" s="7"/>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB61" s="8"/>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7"/>
+    </row>
+    <row r="62" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>140</v>
       </c>
@@ -3733,14 +3960,17 @@
       <c r="T62" s="6"/>
       <c r="U62" s="7"/>
       <c r="V62" s="8"/>
-      <c r="W62" s="6"/>
+      <c r="W62" s="7"/>
       <c r="X62" s="7"/>
-      <c r="Y62" s="8"/>
-      <c r="Z62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="6"/>
       <c r="AA62" s="7"/>
-      <c r="AB62" s="7"/>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB62" s="8"/>
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="7"/>
+    </row>
+    <row r="63" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>139</v>
       </c>
@@ -3765,14 +3995,17 @@
       <c r="T63" s="6"/>
       <c r="U63" s="7"/>
       <c r="V63" s="8"/>
-      <c r="W63" s="6"/>
+      <c r="W63" s="7"/>
       <c r="X63" s="7"/>
-      <c r="Y63" s="8"/>
-      <c r="Z63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="6"/>
       <c r="AA63" s="7"/>
-      <c r="AB63" s="7"/>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB63" s="8"/>
+      <c r="AC63" s="7"/>
+      <c r="AD63" s="7"/>
+      <c r="AE63" s="7"/>
+    </row>
+    <row r="64" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>138</v>
       </c>
@@ -3797,14 +4030,17 @@
       <c r="T64" s="6"/>
       <c r="U64" s="7"/>
       <c r="V64" s="8"/>
-      <c r="W64" s="6"/>
+      <c r="W64" s="7"/>
       <c r="X64" s="7"/>
-      <c r="Y64" s="8"/>
-      <c r="Z64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="6"/>
       <c r="AA64" s="7"/>
-      <c r="AB64" s="7"/>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB64" s="8"/>
+      <c r="AC64" s="7"/>
+      <c r="AD64" s="7"/>
+      <c r="AE64" s="7"/>
+    </row>
+    <row r="65" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>137</v>
       </c>
@@ -3829,14 +4065,17 @@
       <c r="T65" s="6"/>
       <c r="U65" s="7"/>
       <c r="V65" s="8"/>
-      <c r="W65" s="6"/>
+      <c r="W65" s="7"/>
       <c r="X65" s="7"/>
-      <c r="Y65" s="8"/>
-      <c r="Z65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="6"/>
       <c r="AA65" s="7"/>
-      <c r="AB65" s="7"/>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB65" s="8"/>
+      <c r="AC65" s="7"/>
+      <c r="AD65" s="7"/>
+      <c r="AE65" s="7"/>
+    </row>
+    <row r="66" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>136</v>
       </c>
@@ -3861,14 +4100,17 @@
       <c r="T66" s="6"/>
       <c r="U66" s="7"/>
       <c r="V66" s="8"/>
-      <c r="W66" s="6"/>
+      <c r="W66" s="7"/>
       <c r="X66" s="7"/>
-      <c r="Y66" s="8"/>
-      <c r="Z66" s="7"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="6"/>
       <c r="AA66" s="7"/>
-      <c r="AB66" s="7"/>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB66" s="8"/>
+      <c r="AC66" s="7"/>
+      <c r="AD66" s="7"/>
+      <c r="AE66" s="7"/>
+    </row>
+    <row r="67" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>135</v>
       </c>
@@ -3893,14 +4135,17 @@
       <c r="T67" s="6"/>
       <c r="U67" s="7"/>
       <c r="V67" s="8"/>
-      <c r="W67" s="6"/>
+      <c r="W67" s="7"/>
       <c r="X67" s="7"/>
-      <c r="Y67" s="8"/>
-      <c r="Z67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="6"/>
       <c r="AA67" s="7"/>
-      <c r="AB67" s="7"/>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB67" s="8"/>
+      <c r="AC67" s="7"/>
+      <c r="AD67" s="7"/>
+      <c r="AE67" s="7"/>
+    </row>
+    <row r="68" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>134</v>
       </c>
@@ -3925,14 +4170,17 @@
       <c r="T68" s="6"/>
       <c r="U68" s="7"/>
       <c r="V68" s="8"/>
-      <c r="W68" s="6"/>
+      <c r="W68" s="7"/>
       <c r="X68" s="7"/>
-      <c r="Y68" s="8"/>
-      <c r="Z68" s="7"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="6"/>
       <c r="AA68" s="7"/>
-      <c r="AB68" s="7"/>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB68" s="8"/>
+      <c r="AC68" s="7"/>
+      <c r="AD68" s="7"/>
+      <c r="AE68" s="7"/>
+    </row>
+    <row r="69" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>133</v>
       </c>
@@ -3957,14 +4205,17 @@
       <c r="T69" s="6"/>
       <c r="U69" s="7"/>
       <c r="V69" s="8"/>
-      <c r="W69" s="6"/>
+      <c r="W69" s="7"/>
       <c r="X69" s="7"/>
-      <c r="Y69" s="8"/>
-      <c r="Z69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="6"/>
       <c r="AA69" s="7"/>
-      <c r="AB69" s="7"/>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB69" s="8"/>
+      <c r="AC69" s="7"/>
+      <c r="AD69" s="7"/>
+      <c r="AE69" s="7"/>
+    </row>
+    <row r="70" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>132</v>
       </c>
@@ -3989,14 +4240,17 @@
       <c r="T70" s="6"/>
       <c r="U70" s="7"/>
       <c r="V70" s="8"/>
-      <c r="W70" s="6"/>
+      <c r="W70" s="7"/>
       <c r="X70" s="7"/>
-      <c r="Y70" s="8"/>
-      <c r="Z70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="6"/>
       <c r="AA70" s="7"/>
-      <c r="AB70" s="7"/>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB70" s="8"/>
+      <c r="AC70" s="7"/>
+      <c r="AD70" s="7"/>
+      <c r="AE70" s="7"/>
+    </row>
+    <row r="71" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>131</v>
       </c>
@@ -4021,14 +4275,17 @@
       <c r="T71" s="6"/>
       <c r="U71" s="7"/>
       <c r="V71" s="8"/>
-      <c r="W71" s="6"/>
+      <c r="W71" s="7"/>
       <c r="X71" s="7"/>
-      <c r="Y71" s="8"/>
-      <c r="Z71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="6"/>
       <c r="AA71" s="7"/>
-      <c r="AB71" s="7"/>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB71" s="8"/>
+      <c r="AC71" s="7"/>
+      <c r="AD71" s="7"/>
+      <c r="AE71" s="7"/>
+    </row>
+    <row r="72" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>130</v>
       </c>
@@ -4053,14 +4310,17 @@
       <c r="T72" s="6"/>
       <c r="U72" s="7"/>
       <c r="V72" s="8"/>
-      <c r="W72" s="6"/>
+      <c r="W72" s="7"/>
       <c r="X72" s="7"/>
-      <c r="Y72" s="8"/>
-      <c r="Z72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="6"/>
       <c r="AA72" s="7"/>
-      <c r="AB72" s="7"/>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB72" s="8"/>
+      <c r="AC72" s="7"/>
+      <c r="AD72" s="7"/>
+      <c r="AE72" s="7"/>
+    </row>
+    <row r="73" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>129</v>
       </c>
@@ -4085,14 +4345,17 @@
       <c r="T73" s="6"/>
       <c r="U73" s="7"/>
       <c r="V73" s="8"/>
-      <c r="W73" s="6"/>
+      <c r="W73" s="7"/>
       <c r="X73" s="7"/>
-      <c r="Y73" s="8"/>
-      <c r="Z73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="6"/>
       <c r="AA73" s="7"/>
-      <c r="AB73" s="7"/>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB73" s="8"/>
+      <c r="AC73" s="7"/>
+      <c r="AD73" s="7"/>
+      <c r="AE73" s="7"/>
+    </row>
+    <row r="74" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>128</v>
       </c>
@@ -4117,14 +4380,17 @@
       <c r="T74" s="6"/>
       <c r="U74" s="7"/>
       <c r="V74" s="8"/>
-      <c r="W74" s="6"/>
+      <c r="W74" s="7"/>
       <c r="X74" s="7"/>
-      <c r="Y74" s="8"/>
-      <c r="Z74" s="7"/>
+      <c r="Y74" s="7"/>
+      <c r="Z74" s="6"/>
       <c r="AA74" s="7"/>
-      <c r="AB74" s="7"/>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB74" s="8"/>
+      <c r="AC74" s="7"/>
+      <c r="AD74" s="7"/>
+      <c r="AE74" s="7"/>
+    </row>
+    <row r="75" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>127</v>
       </c>
@@ -4149,14 +4415,17 @@
       <c r="T75" s="6"/>
       <c r="U75" s="7"/>
       <c r="V75" s="8"/>
-      <c r="W75" s="6"/>
+      <c r="W75" s="7"/>
       <c r="X75" s="7"/>
-      <c r="Y75" s="8"/>
-      <c r="Z75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="6"/>
       <c r="AA75" s="7"/>
-      <c r="AB75" s="7"/>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB75" s="8"/>
+      <c r="AC75" s="7"/>
+      <c r="AD75" s="7"/>
+      <c r="AE75" s="7"/>
+    </row>
+    <row r="76" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>126</v>
       </c>
@@ -4181,14 +4450,17 @@
       <c r="T76" s="6"/>
       <c r="U76" s="7"/>
       <c r="V76" s="8"/>
-      <c r="W76" s="6"/>
+      <c r="W76" s="7"/>
       <c r="X76" s="7"/>
-      <c r="Y76" s="8"/>
-      <c r="Z76" s="7"/>
+      <c r="Y76" s="7"/>
+      <c r="Z76" s="6"/>
       <c r="AA76" s="7"/>
-      <c r="AB76" s="7"/>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB76" s="8"/>
+      <c r="AC76" s="7"/>
+      <c r="AD76" s="7"/>
+      <c r="AE76" s="7"/>
+    </row>
+    <row r="77" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>125</v>
       </c>
@@ -4213,14 +4485,17 @@
       <c r="T77" s="6"/>
       <c r="U77" s="7"/>
       <c r="V77" s="8"/>
-      <c r="W77" s="6"/>
+      <c r="W77" s="7"/>
       <c r="X77" s="7"/>
-      <c r="Y77" s="8"/>
-      <c r="Z77" s="7"/>
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="6"/>
       <c r="AA77" s="7"/>
-      <c r="AB77" s="7"/>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB77" s="8"/>
+      <c r="AC77" s="7"/>
+      <c r="AD77" s="7"/>
+      <c r="AE77" s="7"/>
+    </row>
+    <row r="78" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>124</v>
       </c>
@@ -4245,14 +4520,17 @@
       <c r="T78" s="6"/>
       <c r="U78" s="7"/>
       <c r="V78" s="8"/>
-      <c r="W78" s="6"/>
+      <c r="W78" s="7"/>
       <c r="X78" s="7"/>
-      <c r="Y78" s="8"/>
-      <c r="Z78" s="7"/>
+      <c r="Y78" s="7"/>
+      <c r="Z78" s="6"/>
       <c r="AA78" s="7"/>
-      <c r="AB78" s="7"/>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB78" s="8"/>
+      <c r="AC78" s="7"/>
+      <c r="AD78" s="7"/>
+      <c r="AE78" s="7"/>
+    </row>
+    <row r="79" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>123</v>
       </c>
@@ -4277,14 +4555,17 @@
       <c r="T79" s="6"/>
       <c r="U79" s="7"/>
       <c r="V79" s="8"/>
-      <c r="W79" s="6"/>
+      <c r="W79" s="7"/>
       <c r="X79" s="7"/>
-      <c r="Y79" s="8"/>
-      <c r="Z79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="6"/>
       <c r="AA79" s="7"/>
-      <c r="AB79" s="7"/>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB79" s="8"/>
+      <c r="AC79" s="7"/>
+      <c r="AD79" s="7"/>
+      <c r="AE79" s="7"/>
+    </row>
+    <row r="80" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>122</v>
       </c>
@@ -4309,14 +4590,17 @@
       <c r="T80" s="6"/>
       <c r="U80" s="7"/>
       <c r="V80" s="8"/>
-      <c r="W80" s="6"/>
+      <c r="W80" s="7"/>
       <c r="X80" s="7"/>
-      <c r="Y80" s="8"/>
-      <c r="Z80" s="7"/>
+      <c r="Y80" s="7"/>
+      <c r="Z80" s="6"/>
       <c r="AA80" s="7"/>
-      <c r="AB80" s="7"/>
-    </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB80" s="8"/>
+      <c r="AC80" s="7"/>
+      <c r="AD80" s="7"/>
+      <c r="AE80" s="7"/>
+    </row>
+    <row r="81" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>121</v>
       </c>
@@ -4341,14 +4625,17 @@
       <c r="T81" s="6"/>
       <c r="U81" s="7"/>
       <c r="V81" s="8"/>
-      <c r="W81" s="6"/>
+      <c r="W81" s="7"/>
       <c r="X81" s="7"/>
-      <c r="Y81" s="8"/>
-      <c r="Z81" s="7"/>
+      <c r="Y81" s="7"/>
+      <c r="Z81" s="6"/>
       <c r="AA81" s="7"/>
-      <c r="AB81" s="7"/>
-    </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB81" s="8"/>
+      <c r="AC81" s="7"/>
+      <c r="AD81" s="7"/>
+      <c r="AE81" s="7"/>
+    </row>
+    <row r="82" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>120</v>
       </c>
@@ -4373,14 +4660,17 @@
       <c r="T82" s="6"/>
       <c r="U82" s="7"/>
       <c r="V82" s="8"/>
-      <c r="W82" s="6"/>
+      <c r="W82" s="7"/>
       <c r="X82" s="7"/>
-      <c r="Y82" s="8"/>
-      <c r="Z82" s="7"/>
+      <c r="Y82" s="7"/>
+      <c r="Z82" s="6"/>
       <c r="AA82" s="7"/>
-      <c r="AB82" s="7"/>
-    </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB82" s="8"/>
+      <c r="AC82" s="7"/>
+      <c r="AD82" s="7"/>
+      <c r="AE82" s="7"/>
+    </row>
+    <row r="83" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>119</v>
       </c>
@@ -4405,14 +4695,17 @@
       <c r="T83" s="6"/>
       <c r="U83" s="7"/>
       <c r="V83" s="8"/>
-      <c r="W83" s="6"/>
+      <c r="W83" s="7"/>
       <c r="X83" s="7"/>
-      <c r="Y83" s="8"/>
-      <c r="Z83" s="7"/>
+      <c r="Y83" s="7"/>
+      <c r="Z83" s="6"/>
       <c r="AA83" s="7"/>
-      <c r="AB83" s="7"/>
-    </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB83" s="8"/>
+      <c r="AC83" s="7"/>
+      <c r="AD83" s="7"/>
+      <c r="AE83" s="7"/>
+    </row>
+    <row r="84" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>118</v>
       </c>
@@ -4437,14 +4730,17 @@
       <c r="T84" s="6"/>
       <c r="U84" s="7"/>
       <c r="V84" s="8"/>
-      <c r="W84" s="6"/>
+      <c r="W84" s="7"/>
       <c r="X84" s="7"/>
-      <c r="Y84" s="8"/>
-      <c r="Z84" s="7"/>
+      <c r="Y84" s="7"/>
+      <c r="Z84" s="6"/>
       <c r="AA84" s="7"/>
-      <c r="AB84" s="7"/>
-    </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB84" s="8"/>
+      <c r="AC84" s="7"/>
+      <c r="AD84" s="7"/>
+      <c r="AE84" s="7"/>
+    </row>
+    <row r="85" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>117</v>
       </c>
@@ -4469,14 +4765,17 @@
       <c r="T85" s="6"/>
       <c r="U85" s="7"/>
       <c r="V85" s="8"/>
-      <c r="W85" s="6"/>
+      <c r="W85" s="7"/>
       <c r="X85" s="7"/>
-      <c r="Y85" s="8"/>
-      <c r="Z85" s="7"/>
+      <c r="Y85" s="7"/>
+      <c r="Z85" s="6"/>
       <c r="AA85" s="7"/>
-      <c r="AB85" s="7"/>
-    </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB85" s="8"/>
+      <c r="AC85" s="7"/>
+      <c r="AD85" s="7"/>
+      <c r="AE85" s="7"/>
+    </row>
+    <row r="86" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>116</v>
       </c>
@@ -4501,14 +4800,17 @@
       <c r="T86" s="6"/>
       <c r="U86" s="7"/>
       <c r="V86" s="8"/>
-      <c r="W86" s="6"/>
+      <c r="W86" s="7"/>
       <c r="X86" s="7"/>
-      <c r="Y86" s="8"/>
-      <c r="Z86" s="7"/>
+      <c r="Y86" s="7"/>
+      <c r="Z86" s="6"/>
       <c r="AA86" s="7"/>
-      <c r="AB86" s="7"/>
-    </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB86" s="8"/>
+      <c r="AC86" s="7"/>
+      <c r="AD86" s="7"/>
+      <c r="AE86" s="7"/>
+    </row>
+    <row r="87" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>115</v>
       </c>
@@ -4533,14 +4835,17 @@
       <c r="T87" s="6"/>
       <c r="U87" s="7"/>
       <c r="V87" s="8"/>
-      <c r="W87" s="6"/>
+      <c r="W87" s="7"/>
       <c r="X87" s="7"/>
-      <c r="Y87" s="8"/>
-      <c r="Z87" s="7"/>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="6"/>
       <c r="AA87" s="7"/>
-      <c r="AB87" s="7"/>
-    </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB87" s="8"/>
+      <c r="AC87" s="7"/>
+      <c r="AD87" s="7"/>
+      <c r="AE87" s="7"/>
+    </row>
+    <row r="88" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>114</v>
       </c>
@@ -4565,14 +4870,17 @@
       <c r="T88" s="6"/>
       <c r="U88" s="7"/>
       <c r="V88" s="8"/>
-      <c r="W88" s="6"/>
+      <c r="W88" s="7"/>
       <c r="X88" s="7"/>
-      <c r="Y88" s="8"/>
-      <c r="Z88" s="7"/>
+      <c r="Y88" s="7"/>
+      <c r="Z88" s="6"/>
       <c r="AA88" s="7"/>
-      <c r="AB88" s="7"/>
-    </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB88" s="8"/>
+      <c r="AC88" s="7"/>
+      <c r="AD88" s="7"/>
+      <c r="AE88" s="7"/>
+    </row>
+    <row r="89" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>113</v>
       </c>
@@ -4597,14 +4905,17 @@
       <c r="T89" s="6"/>
       <c r="U89" s="7"/>
       <c r="V89" s="8"/>
-      <c r="W89" s="6"/>
+      <c r="W89" s="7"/>
       <c r="X89" s="7"/>
-      <c r="Y89" s="8"/>
-      <c r="Z89" s="7"/>
+      <c r="Y89" s="7"/>
+      <c r="Z89" s="6"/>
       <c r="AA89" s="7"/>
-      <c r="AB89" s="7"/>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB89" s="8"/>
+      <c r="AC89" s="7"/>
+      <c r="AD89" s="7"/>
+      <c r="AE89" s="7"/>
+    </row>
+    <row r="90" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>112</v>
       </c>
@@ -4629,14 +4940,17 @@
       <c r="T90" s="6"/>
       <c r="U90" s="7"/>
       <c r="V90" s="8"/>
-      <c r="W90" s="6"/>
+      <c r="W90" s="7"/>
       <c r="X90" s="7"/>
-      <c r="Y90" s="8"/>
-      <c r="Z90" s="7"/>
+      <c r="Y90" s="7"/>
+      <c r="Z90" s="6"/>
       <c r="AA90" s="7"/>
-      <c r="AB90" s="7"/>
-    </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB90" s="8"/>
+      <c r="AC90" s="7"/>
+      <c r="AD90" s="7"/>
+      <c r="AE90" s="7"/>
+    </row>
+    <row r="91" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>111</v>
       </c>
@@ -4661,14 +4975,17 @@
       <c r="T91" s="6"/>
       <c r="U91" s="7"/>
       <c r="V91" s="8"/>
-      <c r="W91" s="6"/>
+      <c r="W91" s="7"/>
       <c r="X91" s="7"/>
-      <c r="Y91" s="8"/>
-      <c r="Z91" s="7"/>
+      <c r="Y91" s="7"/>
+      <c r="Z91" s="6"/>
       <c r="AA91" s="7"/>
-      <c r="AB91" s="7"/>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB91" s="8"/>
+      <c r="AC91" s="7"/>
+      <c r="AD91" s="7"/>
+      <c r="AE91" s="7"/>
+    </row>
+    <row r="92" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>110</v>
       </c>
@@ -4693,14 +5010,17 @@
       <c r="T92" s="6"/>
       <c r="U92" s="7"/>
       <c r="V92" s="8"/>
-      <c r="W92" s="6"/>
+      <c r="W92" s="7"/>
       <c r="X92" s="7"/>
-      <c r="Y92" s="8"/>
-      <c r="Z92" s="7"/>
+      <c r="Y92" s="7"/>
+      <c r="Z92" s="6"/>
       <c r="AA92" s="7"/>
-      <c r="AB92" s="7"/>
-    </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB92" s="8"/>
+      <c r="AC92" s="7"/>
+      <c r="AD92" s="7"/>
+      <c r="AE92" s="7"/>
+    </row>
+    <row r="93" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>109</v>
       </c>
@@ -4725,14 +5045,17 @@
       <c r="T93" s="6"/>
       <c r="U93" s="7"/>
       <c r="V93" s="8"/>
-      <c r="W93" s="6"/>
+      <c r="W93" s="7"/>
       <c r="X93" s="7"/>
-      <c r="Y93" s="8"/>
-      <c r="Z93" s="7"/>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="6"/>
       <c r="AA93" s="7"/>
-      <c r="AB93" s="7"/>
-    </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB93" s="8"/>
+      <c r="AC93" s="7"/>
+      <c r="AD93" s="7"/>
+      <c r="AE93" s="7"/>
+    </row>
+    <row r="94" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>108</v>
       </c>
@@ -4757,14 +5080,17 @@
       <c r="T94" s="6"/>
       <c r="U94" s="7"/>
       <c r="V94" s="8"/>
-      <c r="W94" s="6"/>
+      <c r="W94" s="7"/>
       <c r="X94" s="7"/>
-      <c r="Y94" s="8"/>
-      <c r="Z94" s="7"/>
+      <c r="Y94" s="7"/>
+      <c r="Z94" s="6"/>
       <c r="AA94" s="7"/>
-      <c r="AB94" s="7"/>
-    </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB94" s="8"/>
+      <c r="AC94" s="7"/>
+      <c r="AD94" s="7"/>
+      <c r="AE94" s="7"/>
+    </row>
+    <row r="95" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>107</v>
       </c>
@@ -4789,14 +5115,17 @@
       <c r="T95" s="6"/>
       <c r="U95" s="7"/>
       <c r="V95" s="8"/>
-      <c r="W95" s="6"/>
+      <c r="W95" s="7"/>
       <c r="X95" s="7"/>
-      <c r="Y95" s="8"/>
-      <c r="Z95" s="7"/>
+      <c r="Y95" s="7"/>
+      <c r="Z95" s="6"/>
       <c r="AA95" s="7"/>
-      <c r="AB95" s="7"/>
-    </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB95" s="8"/>
+      <c r="AC95" s="7"/>
+      <c r="AD95" s="7"/>
+      <c r="AE95" s="7"/>
+    </row>
+    <row r="96" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>106</v>
       </c>
@@ -4821,14 +5150,17 @@
       <c r="T96" s="6"/>
       <c r="U96" s="7"/>
       <c r="V96" s="8"/>
-      <c r="W96" s="6"/>
+      <c r="W96" s="7"/>
       <c r="X96" s="7"/>
-      <c r="Y96" s="8"/>
-      <c r="Z96" s="7"/>
+      <c r="Y96" s="7"/>
+      <c r="Z96" s="6"/>
       <c r="AA96" s="7"/>
-      <c r="AB96" s="7"/>
-    </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB96" s="8"/>
+      <c r="AC96" s="7"/>
+      <c r="AD96" s="7"/>
+      <c r="AE96" s="7"/>
+    </row>
+    <row r="97" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>105</v>
       </c>
@@ -4853,14 +5185,17 @@
       <c r="T97" s="6"/>
       <c r="U97" s="7"/>
       <c r="V97" s="8"/>
-      <c r="W97" s="6"/>
+      <c r="W97" s="7"/>
       <c r="X97" s="7"/>
-      <c r="Y97" s="8"/>
-      <c r="Z97" s="7"/>
+      <c r="Y97" s="7"/>
+      <c r="Z97" s="6"/>
       <c r="AA97" s="7"/>
-      <c r="AB97" s="7"/>
-    </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB97" s="8"/>
+      <c r="AC97" s="7"/>
+      <c r="AD97" s="7"/>
+      <c r="AE97" s="7"/>
+    </row>
+    <row r="98" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>104</v>
       </c>
@@ -4885,14 +5220,17 @@
       <c r="T98" s="6"/>
       <c r="U98" s="7"/>
       <c r="V98" s="8"/>
-      <c r="W98" s="6"/>
+      <c r="W98" s="7"/>
       <c r="X98" s="7"/>
-      <c r="Y98" s="8"/>
-      <c r="Z98" s="7"/>
+      <c r="Y98" s="7"/>
+      <c r="Z98" s="6"/>
       <c r="AA98" s="7"/>
-      <c r="AB98" s="7"/>
-    </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB98" s="8"/>
+      <c r="AC98" s="7"/>
+      <c r="AD98" s="7"/>
+      <c r="AE98" s="7"/>
+    </row>
+    <row r="99" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>103</v>
       </c>
@@ -4917,14 +5255,17 @@
       <c r="T99" s="6"/>
       <c r="U99" s="7"/>
       <c r="V99" s="8"/>
-      <c r="W99" s="6"/>
+      <c r="W99" s="7"/>
       <c r="X99" s="7"/>
-      <c r="Y99" s="8"/>
-      <c r="Z99" s="7"/>
+      <c r="Y99" s="7"/>
+      <c r="Z99" s="6"/>
       <c r="AA99" s="7"/>
-      <c r="AB99" s="7"/>
-    </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB99" s="8"/>
+      <c r="AC99" s="7"/>
+      <c r="AD99" s="7"/>
+      <c r="AE99" s="7"/>
+    </row>
+    <row r="100" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>102</v>
       </c>
@@ -4949,14 +5290,17 @@
       <c r="T100" s="6"/>
       <c r="U100" s="7"/>
       <c r="V100" s="8"/>
-      <c r="W100" s="6"/>
+      <c r="W100" s="7"/>
       <c r="X100" s="7"/>
-      <c r="Y100" s="8"/>
-      <c r="Z100" s="7"/>
+      <c r="Y100" s="7"/>
+      <c r="Z100" s="6"/>
       <c r="AA100" s="7"/>
-      <c r="AB100" s="7"/>
-    </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB100" s="8"/>
+      <c r="AC100" s="7"/>
+      <c r="AD100" s="7"/>
+      <c r="AE100" s="7"/>
+    </row>
+    <row r="101" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>101</v>
       </c>
@@ -4981,14 +5325,17 @@
       <c r="T101" s="6"/>
       <c r="U101" s="7"/>
       <c r="V101" s="8"/>
-      <c r="W101" s="6"/>
+      <c r="W101" s="7"/>
       <c r="X101" s="7"/>
-      <c r="Y101" s="8"/>
-      <c r="Z101" s="7"/>
+      <c r="Y101" s="7"/>
+      <c r="Z101" s="6"/>
       <c r="AA101" s="7"/>
-      <c r="AB101" s="7"/>
-    </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB101" s="8"/>
+      <c r="AC101" s="7"/>
+      <c r="AD101" s="7"/>
+      <c r="AE101" s="7"/>
+    </row>
+    <row r="102" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5013,14 +5360,17 @@
       <c r="T102" s="6"/>
       <c r="U102" s="7"/>
       <c r="V102" s="8"/>
-      <c r="W102" s="6"/>
+      <c r="W102" s="7"/>
       <c r="X102" s="7"/>
-      <c r="Y102" s="8"/>
-      <c r="Z102" s="7"/>
+      <c r="Y102" s="7"/>
+      <c r="Z102" s="6"/>
       <c r="AA102" s="7"/>
-      <c r="AB102" s="7"/>
-    </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB102" s="8"/>
+      <c r="AC102" s="7"/>
+      <c r="AD102" s="7"/>
+      <c r="AE102" s="7"/>
+    </row>
+    <row r="103" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>99</v>
       </c>
@@ -5045,14 +5395,17 @@
       <c r="T103" s="6"/>
       <c r="U103" s="7"/>
       <c r="V103" s="8"/>
-      <c r="W103" s="6"/>
+      <c r="W103" s="7"/>
       <c r="X103" s="7"/>
-      <c r="Y103" s="8"/>
-      <c r="Z103" s="7"/>
+      <c r="Y103" s="7"/>
+      <c r="Z103" s="6"/>
       <c r="AA103" s="7"/>
-      <c r="AB103" s="7"/>
-    </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB103" s="8"/>
+      <c r="AC103" s="7"/>
+      <c r="AD103" s="7"/>
+      <c r="AE103" s="7"/>
+    </row>
+    <row r="104" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>98</v>
       </c>
@@ -5077,14 +5430,17 @@
       <c r="T104" s="6"/>
       <c r="U104" s="7"/>
       <c r="V104" s="8"/>
-      <c r="W104" s="6"/>
+      <c r="W104" s="7"/>
       <c r="X104" s="7"/>
-      <c r="Y104" s="8"/>
-      <c r="Z104" s="7"/>
+      <c r="Y104" s="7"/>
+      <c r="Z104" s="6"/>
       <c r="AA104" s="7"/>
-      <c r="AB104" s="7"/>
-    </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB104" s="8"/>
+      <c r="AC104" s="7"/>
+      <c r="AD104" s="7"/>
+      <c r="AE104" s="7"/>
+    </row>
+    <row r="105" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>97</v>
       </c>
@@ -5109,14 +5465,17 @@
       <c r="T105" s="6"/>
       <c r="U105" s="7"/>
       <c r="V105" s="8"/>
-      <c r="W105" s="6"/>
+      <c r="W105" s="7"/>
       <c r="X105" s="7"/>
-      <c r="Y105" s="8"/>
-      <c r="Z105" s="7"/>
+      <c r="Y105" s="7"/>
+      <c r="Z105" s="6"/>
       <c r="AA105" s="7"/>
-      <c r="AB105" s="7"/>
-    </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB105" s="8"/>
+      <c r="AC105" s="7"/>
+      <c r="AD105" s="7"/>
+      <c r="AE105" s="7"/>
+    </row>
+    <row r="106" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>96</v>
       </c>
@@ -5141,14 +5500,17 @@
       <c r="T106" s="6"/>
       <c r="U106" s="7"/>
       <c r="V106" s="8"/>
-      <c r="W106" s="6"/>
+      <c r="W106" s="7"/>
       <c r="X106" s="7"/>
-      <c r="Y106" s="8"/>
-      <c r="Z106" s="7"/>
+      <c r="Y106" s="7"/>
+      <c r="Z106" s="6"/>
       <c r="AA106" s="7"/>
-      <c r="AB106" s="7"/>
-    </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB106" s="8"/>
+      <c r="AC106" s="7"/>
+      <c r="AD106" s="7"/>
+      <c r="AE106" s="7"/>
+    </row>
+    <row r="107" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>95</v>
       </c>
@@ -5173,14 +5535,17 @@
       <c r="T107" s="6"/>
       <c r="U107" s="7"/>
       <c r="V107" s="8"/>
-      <c r="W107" s="6"/>
+      <c r="W107" s="7"/>
       <c r="X107" s="7"/>
-      <c r="Y107" s="8"/>
-      <c r="Z107" s="7"/>
+      <c r="Y107" s="7"/>
+      <c r="Z107" s="6"/>
       <c r="AA107" s="7"/>
-      <c r="AB107" s="7"/>
-    </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB107" s="8"/>
+      <c r="AC107" s="7"/>
+      <c r="AD107" s="7"/>
+      <c r="AE107" s="7"/>
+    </row>
+    <row r="108" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>94</v>
       </c>
@@ -5205,14 +5570,17 @@
       <c r="T108" s="6"/>
       <c r="U108" s="7"/>
       <c r="V108" s="8"/>
-      <c r="W108" s="6"/>
+      <c r="W108" s="7"/>
       <c r="X108" s="7"/>
-      <c r="Y108" s="8"/>
-      <c r="Z108" s="7"/>
+      <c r="Y108" s="7"/>
+      <c r="Z108" s="6"/>
       <c r="AA108" s="7"/>
-      <c r="AB108" s="7"/>
-    </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB108" s="8"/>
+      <c r="AC108" s="7"/>
+      <c r="AD108" s="7"/>
+      <c r="AE108" s="7"/>
+    </row>
+    <row r="109" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>93</v>
       </c>
@@ -5237,14 +5605,17 @@
       <c r="T109" s="6"/>
       <c r="U109" s="7"/>
       <c r="V109" s="8"/>
-      <c r="W109" s="6"/>
+      <c r="W109" s="7"/>
       <c r="X109" s="7"/>
-      <c r="Y109" s="8"/>
-      <c r="Z109" s="7"/>
+      <c r="Y109" s="7"/>
+      <c r="Z109" s="6"/>
       <c r="AA109" s="7"/>
-      <c r="AB109" s="7"/>
-    </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB109" s="8"/>
+      <c r="AC109" s="7"/>
+      <c r="AD109" s="7"/>
+      <c r="AE109" s="7"/>
+    </row>
+    <row r="110" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>92</v>
       </c>
@@ -5269,14 +5640,17 @@
       <c r="T110" s="6"/>
       <c r="U110" s="7"/>
       <c r="V110" s="8"/>
-      <c r="W110" s="6"/>
+      <c r="W110" s="7"/>
       <c r="X110" s="7"/>
-      <c r="Y110" s="8"/>
-      <c r="Z110" s="7"/>
+      <c r="Y110" s="7"/>
+      <c r="Z110" s="6"/>
       <c r="AA110" s="7"/>
-      <c r="AB110" s="7"/>
-    </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB110" s="8"/>
+      <c r="AC110" s="7"/>
+      <c r="AD110" s="7"/>
+      <c r="AE110" s="7"/>
+    </row>
+    <row r="111" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>91</v>
       </c>
@@ -5301,14 +5675,17 @@
       <c r="T111" s="6"/>
       <c r="U111" s="7"/>
       <c r="V111" s="8"/>
-      <c r="W111" s="6"/>
+      <c r="W111" s="7"/>
       <c r="X111" s="7"/>
-      <c r="Y111" s="8"/>
-      <c r="Z111" s="7"/>
+      <c r="Y111" s="7"/>
+      <c r="Z111" s="6"/>
       <c r="AA111" s="7"/>
-      <c r="AB111" s="7"/>
-    </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB111" s="8"/>
+      <c r="AC111" s="7"/>
+      <c r="AD111" s="7"/>
+      <c r="AE111" s="7"/>
+    </row>
+    <row r="112" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>90</v>
       </c>
@@ -5333,14 +5710,17 @@
       <c r="T112" s="6"/>
       <c r="U112" s="7"/>
       <c r="V112" s="8"/>
-      <c r="W112" s="6"/>
+      <c r="W112" s="7"/>
       <c r="X112" s="7"/>
-      <c r="Y112" s="8"/>
-      <c r="Z112" s="7"/>
+      <c r="Y112" s="7"/>
+      <c r="Z112" s="6"/>
       <c r="AA112" s="7"/>
-      <c r="AB112" s="7"/>
-    </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB112" s="8"/>
+      <c r="AC112" s="7"/>
+      <c r="AD112" s="7"/>
+      <c r="AE112" s="7"/>
+    </row>
+    <row r="113" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>89</v>
       </c>
@@ -5365,14 +5745,17 @@
       <c r="T113" s="6"/>
       <c r="U113" s="7"/>
       <c r="V113" s="8"/>
-      <c r="W113" s="6"/>
+      <c r="W113" s="7"/>
       <c r="X113" s="7"/>
-      <c r="Y113" s="8"/>
-      <c r="Z113" s="7"/>
+      <c r="Y113" s="7"/>
+      <c r="Z113" s="6"/>
       <c r="AA113" s="7"/>
-      <c r="AB113" s="7"/>
-    </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB113" s="8"/>
+      <c r="AC113" s="7"/>
+      <c r="AD113" s="7"/>
+      <c r="AE113" s="7"/>
+    </row>
+    <row r="114" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>88</v>
       </c>
@@ -5397,14 +5780,17 @@
       <c r="T114" s="6"/>
       <c r="U114" s="7"/>
       <c r="V114" s="8"/>
-      <c r="W114" s="6"/>
+      <c r="W114" s="7"/>
       <c r="X114" s="7"/>
-      <c r="Y114" s="8"/>
-      <c r="Z114" s="7"/>
+      <c r="Y114" s="7"/>
+      <c r="Z114" s="6"/>
       <c r="AA114" s="7"/>
-      <c r="AB114" s="7"/>
-    </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB114" s="8"/>
+      <c r="AC114" s="7"/>
+      <c r="AD114" s="7"/>
+      <c r="AE114" s="7"/>
+    </row>
+    <row r="115" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>87</v>
       </c>
@@ -5429,14 +5815,17 @@
       <c r="T115" s="6"/>
       <c r="U115" s="7"/>
       <c r="V115" s="8"/>
-      <c r="W115" s="6"/>
+      <c r="W115" s="7"/>
       <c r="X115" s="7"/>
-      <c r="Y115" s="8"/>
-      <c r="Z115" s="7"/>
+      <c r="Y115" s="7"/>
+      <c r="Z115" s="6"/>
       <c r="AA115" s="7"/>
-      <c r="AB115" s="7"/>
-    </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB115" s="8"/>
+      <c r="AC115" s="7"/>
+      <c r="AD115" s="7"/>
+      <c r="AE115" s="7"/>
+    </row>
+    <row r="116" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>86</v>
       </c>
@@ -5461,14 +5850,17 @@
       <c r="T116" s="6"/>
       <c r="U116" s="7"/>
       <c r="V116" s="8"/>
-      <c r="W116" s="6"/>
+      <c r="W116" s="7"/>
       <c r="X116" s="7"/>
-      <c r="Y116" s="8"/>
-      <c r="Z116" s="7"/>
+      <c r="Y116" s="7"/>
+      <c r="Z116" s="6"/>
       <c r="AA116" s="7"/>
-      <c r="AB116" s="7"/>
-    </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB116" s="8"/>
+      <c r="AC116" s="7"/>
+      <c r="AD116" s="7"/>
+      <c r="AE116" s="7"/>
+    </row>
+    <row r="117" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>85</v>
       </c>
@@ -5493,14 +5885,17 @@
       <c r="T117" s="6"/>
       <c r="U117" s="7"/>
       <c r="V117" s="8"/>
-      <c r="W117" s="6"/>
+      <c r="W117" s="7"/>
       <c r="X117" s="7"/>
-      <c r="Y117" s="8"/>
-      <c r="Z117" s="7"/>
+      <c r="Y117" s="7"/>
+      <c r="Z117" s="6"/>
       <c r="AA117" s="7"/>
-      <c r="AB117" s="7"/>
-    </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB117" s="8"/>
+      <c r="AC117" s="7"/>
+      <c r="AD117" s="7"/>
+      <c r="AE117" s="7"/>
+    </row>
+    <row r="118" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>84</v>
       </c>
@@ -5525,14 +5920,17 @@
       <c r="T118" s="6"/>
       <c r="U118" s="7"/>
       <c r="V118" s="8"/>
-      <c r="W118" s="6"/>
+      <c r="W118" s="7"/>
       <c r="X118" s="7"/>
-      <c r="Y118" s="8"/>
-      <c r="Z118" s="7"/>
+      <c r="Y118" s="7"/>
+      <c r="Z118" s="6"/>
       <c r="AA118" s="7"/>
-      <c r="AB118" s="7"/>
-    </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB118" s="8"/>
+      <c r="AC118" s="7"/>
+      <c r="AD118" s="7"/>
+      <c r="AE118" s="7"/>
+    </row>
+    <row r="119" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>83</v>
       </c>
@@ -5557,14 +5955,17 @@
       <c r="T119" s="6"/>
       <c r="U119" s="7"/>
       <c r="V119" s="8"/>
-      <c r="W119" s="6"/>
+      <c r="W119" s="7"/>
       <c r="X119" s="7"/>
-      <c r="Y119" s="8"/>
-      <c r="Z119" s="7"/>
+      <c r="Y119" s="7"/>
+      <c r="Z119" s="6"/>
       <c r="AA119" s="7"/>
-      <c r="AB119" s="7"/>
-    </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB119" s="8"/>
+      <c r="AC119" s="7"/>
+      <c r="AD119" s="7"/>
+      <c r="AE119" s="7"/>
+    </row>
+    <row r="120" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>82</v>
       </c>
@@ -5589,14 +5990,17 @@
       <c r="T120" s="6"/>
       <c r="U120" s="7"/>
       <c r="V120" s="8"/>
-      <c r="W120" s="6"/>
+      <c r="W120" s="7"/>
       <c r="X120" s="7"/>
-      <c r="Y120" s="8"/>
-      <c r="Z120" s="7"/>
+      <c r="Y120" s="7"/>
+      <c r="Z120" s="6"/>
       <c r="AA120" s="7"/>
-      <c r="AB120" s="7"/>
-    </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB120" s="8"/>
+      <c r="AC120" s="7"/>
+      <c r="AD120" s="7"/>
+      <c r="AE120" s="7"/>
+    </row>
+    <row r="121" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>81</v>
       </c>
@@ -5621,14 +6025,17 @@
       <c r="T121" s="6"/>
       <c r="U121" s="7"/>
       <c r="V121" s="8"/>
-      <c r="W121" s="6"/>
+      <c r="W121" s="7"/>
       <c r="X121" s="7"/>
-      <c r="Y121" s="8"/>
-      <c r="Z121" s="7"/>
+      <c r="Y121" s="7"/>
+      <c r="Z121" s="6"/>
       <c r="AA121" s="7"/>
-      <c r="AB121" s="7"/>
-    </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB121" s="8"/>
+      <c r="AC121" s="7"/>
+      <c r="AD121" s="7"/>
+      <c r="AE121" s="7"/>
+    </row>
+    <row r="122" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>80</v>
       </c>
@@ -5653,14 +6060,17 @@
       <c r="T122" s="6"/>
       <c r="U122" s="7"/>
       <c r="V122" s="8"/>
-      <c r="W122" s="6"/>
+      <c r="W122" s="7"/>
       <c r="X122" s="7"/>
-      <c r="Y122" s="8"/>
-      <c r="Z122" s="7"/>
+      <c r="Y122" s="7"/>
+      <c r="Z122" s="6"/>
       <c r="AA122" s="7"/>
-      <c r="AB122" s="7"/>
-    </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB122" s="8"/>
+      <c r="AC122" s="7"/>
+      <c r="AD122" s="7"/>
+      <c r="AE122" s="7"/>
+    </row>
+    <row r="123" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>79</v>
       </c>
@@ -5685,14 +6095,17 @@
       <c r="T123" s="6"/>
       <c r="U123" s="7"/>
       <c r="V123" s="8"/>
-      <c r="W123" s="6"/>
+      <c r="W123" s="7"/>
       <c r="X123" s="7"/>
-      <c r="Y123" s="8"/>
-      <c r="Z123" s="7"/>
+      <c r="Y123" s="7"/>
+      <c r="Z123" s="6"/>
       <c r="AA123" s="7"/>
-      <c r="AB123" s="7"/>
-    </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB123" s="8"/>
+      <c r="AC123" s="7"/>
+      <c r="AD123" s="7"/>
+      <c r="AE123" s="7"/>
+    </row>
+    <row r="124" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>78</v>
       </c>
@@ -5717,14 +6130,17 @@
       <c r="T124" s="6"/>
       <c r="U124" s="7"/>
       <c r="V124" s="8"/>
-      <c r="W124" s="6"/>
+      <c r="W124" s="7"/>
       <c r="X124" s="7"/>
-      <c r="Y124" s="8"/>
-      <c r="Z124" s="7"/>
+      <c r="Y124" s="7"/>
+      <c r="Z124" s="6"/>
       <c r="AA124" s="7"/>
-      <c r="AB124" s="7"/>
-    </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB124" s="8"/>
+      <c r="AC124" s="7"/>
+      <c r="AD124" s="7"/>
+      <c r="AE124" s="7"/>
+    </row>
+    <row r="125" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>77</v>
       </c>
@@ -5749,14 +6165,17 @@
       <c r="T125" s="6"/>
       <c r="U125" s="7"/>
       <c r="V125" s="8"/>
-      <c r="W125" s="6"/>
+      <c r="W125" s="7"/>
       <c r="X125" s="7"/>
-      <c r="Y125" s="8"/>
-      <c r="Z125" s="7"/>
+      <c r="Y125" s="7"/>
+      <c r="Z125" s="6"/>
       <c r="AA125" s="7"/>
-      <c r="AB125" s="7"/>
-    </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB125" s="8"/>
+      <c r="AC125" s="7"/>
+      <c r="AD125" s="7"/>
+      <c r="AE125" s="7"/>
+    </row>
+    <row r="126" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>76</v>
       </c>
@@ -5781,14 +6200,17 @@
       <c r="T126" s="6"/>
       <c r="U126" s="7"/>
       <c r="V126" s="8"/>
-      <c r="W126" s="6"/>
+      <c r="W126" s="7"/>
       <c r="X126" s="7"/>
-      <c r="Y126" s="8"/>
-      <c r="Z126" s="7"/>
+      <c r="Y126" s="7"/>
+      <c r="Z126" s="6"/>
       <c r="AA126" s="7"/>
-      <c r="AB126" s="7"/>
-    </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB126" s="8"/>
+      <c r="AC126" s="7"/>
+      <c r="AD126" s="7"/>
+      <c r="AE126" s="7"/>
+    </row>
+    <row r="127" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>75</v>
       </c>
@@ -5813,14 +6235,17 @@
       <c r="T127" s="6"/>
       <c r="U127" s="7"/>
       <c r="V127" s="8"/>
-      <c r="W127" s="6"/>
+      <c r="W127" s="7"/>
       <c r="X127" s="7"/>
-      <c r="Y127" s="8"/>
-      <c r="Z127" s="7"/>
+      <c r="Y127" s="7"/>
+      <c r="Z127" s="6"/>
       <c r="AA127" s="7"/>
-      <c r="AB127" s="7"/>
-    </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB127" s="8"/>
+      <c r="AC127" s="7"/>
+      <c r="AD127" s="7"/>
+      <c r="AE127" s="7"/>
+    </row>
+    <row r="128" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>74</v>
       </c>
@@ -5845,14 +6270,17 @@
       <c r="T128" s="6"/>
       <c r="U128" s="7"/>
       <c r="V128" s="8"/>
-      <c r="W128" s="6"/>
+      <c r="W128" s="7"/>
       <c r="X128" s="7"/>
-      <c r="Y128" s="8"/>
-      <c r="Z128" s="7"/>
+      <c r="Y128" s="7"/>
+      <c r="Z128" s="6"/>
       <c r="AA128" s="7"/>
-      <c r="AB128" s="7"/>
-    </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB128" s="8"/>
+      <c r="AC128" s="7"/>
+      <c r="AD128" s="7"/>
+      <c r="AE128" s="7"/>
+    </row>
+    <row r="129" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>73</v>
       </c>
@@ -5877,14 +6305,17 @@
       <c r="T129" s="6"/>
       <c r="U129" s="7"/>
       <c r="V129" s="8"/>
-      <c r="W129" s="6"/>
+      <c r="W129" s="7"/>
       <c r="X129" s="7"/>
-      <c r="Y129" s="8"/>
-      <c r="Z129" s="7"/>
+      <c r="Y129" s="7"/>
+      <c r="Z129" s="6"/>
       <c r="AA129" s="7"/>
-      <c r="AB129" s="7"/>
-    </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB129" s="8"/>
+      <c r="AC129" s="7"/>
+      <c r="AD129" s="7"/>
+      <c r="AE129" s="7"/>
+    </row>
+    <row r="130" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>72</v>
       </c>
@@ -5909,14 +6340,17 @@
       <c r="T130" s="6"/>
       <c r="U130" s="7"/>
       <c r="V130" s="8"/>
-      <c r="W130" s="6"/>
+      <c r="W130" s="7"/>
       <c r="X130" s="7"/>
-      <c r="Y130" s="8"/>
-      <c r="Z130" s="7"/>
+      <c r="Y130" s="7"/>
+      <c r="Z130" s="6"/>
       <c r="AA130" s="7"/>
-      <c r="AB130" s="7"/>
-    </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB130" s="8"/>
+      <c r="AC130" s="7"/>
+      <c r="AD130" s="7"/>
+      <c r="AE130" s="7"/>
+    </row>
+    <row r="131" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>71</v>
       </c>
@@ -5941,14 +6375,17 @@
       <c r="T131" s="6"/>
       <c r="U131" s="7"/>
       <c r="V131" s="8"/>
-      <c r="W131" s="6"/>
+      <c r="W131" s="7"/>
       <c r="X131" s="7"/>
-      <c r="Y131" s="8"/>
-      <c r="Z131" s="7"/>
+      <c r="Y131" s="7"/>
+      <c r="Z131" s="6"/>
       <c r="AA131" s="7"/>
-      <c r="AB131" s="7"/>
-    </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB131" s="8"/>
+      <c r="AC131" s="7"/>
+      <c r="AD131" s="7"/>
+      <c r="AE131" s="7"/>
+    </row>
+    <row r="132" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>70</v>
       </c>
@@ -5973,14 +6410,17 @@
       <c r="T132" s="6"/>
       <c r="U132" s="7"/>
       <c r="V132" s="8"/>
-      <c r="W132" s="6"/>
+      <c r="W132" s="7"/>
       <c r="X132" s="7"/>
-      <c r="Y132" s="8"/>
-      <c r="Z132" s="7"/>
+      <c r="Y132" s="7"/>
+      <c r="Z132" s="6"/>
       <c r="AA132" s="7"/>
-      <c r="AB132" s="7"/>
-    </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB132" s="8"/>
+      <c r="AC132" s="7"/>
+      <c r="AD132" s="7"/>
+      <c r="AE132" s="7"/>
+    </row>
+    <row r="133" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>69</v>
       </c>
@@ -6005,14 +6445,17 @@
       <c r="T133" s="6"/>
       <c r="U133" s="7"/>
       <c r="V133" s="8"/>
-      <c r="W133" s="6"/>
+      <c r="W133" s="7"/>
       <c r="X133" s="7"/>
-      <c r="Y133" s="8"/>
-      <c r="Z133" s="7"/>
+      <c r="Y133" s="7"/>
+      <c r="Z133" s="6"/>
       <c r="AA133" s="7"/>
-      <c r="AB133" s="7"/>
-    </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB133" s="8"/>
+      <c r="AC133" s="7"/>
+      <c r="AD133" s="7"/>
+      <c r="AE133" s="7"/>
+    </row>
+    <row r="134" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>68</v>
       </c>
@@ -6037,14 +6480,17 @@
       <c r="T134" s="6"/>
       <c r="U134" s="7"/>
       <c r="V134" s="8"/>
-      <c r="W134" s="6"/>
+      <c r="W134" s="7"/>
       <c r="X134" s="7"/>
-      <c r="Y134" s="8"/>
-      <c r="Z134" s="7"/>
+      <c r="Y134" s="7"/>
+      <c r="Z134" s="6"/>
       <c r="AA134" s="7"/>
-      <c r="AB134" s="7"/>
-    </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB134" s="8"/>
+      <c r="AC134" s="7"/>
+      <c r="AD134" s="7"/>
+      <c r="AE134" s="7"/>
+    </row>
+    <row r="135" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>67</v>
       </c>
@@ -6069,14 +6515,17 @@
       <c r="T135" s="6"/>
       <c r="U135" s="7"/>
       <c r="V135" s="8"/>
-      <c r="W135" s="6"/>
+      <c r="W135" s="7"/>
       <c r="X135" s="7"/>
-      <c r="Y135" s="8"/>
-      <c r="Z135" s="7"/>
+      <c r="Y135" s="7"/>
+      <c r="Z135" s="6"/>
       <c r="AA135" s="7"/>
-      <c r="AB135" s="7"/>
-    </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB135" s="8"/>
+      <c r="AC135" s="7"/>
+      <c r="AD135" s="7"/>
+      <c r="AE135" s="7"/>
+    </row>
+    <row r="136" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>66</v>
       </c>
@@ -6101,14 +6550,17 @@
       <c r="T136" s="6"/>
       <c r="U136" s="7"/>
       <c r="V136" s="8"/>
-      <c r="W136" s="6"/>
+      <c r="W136" s="7"/>
       <c r="X136" s="7"/>
-      <c r="Y136" s="8"/>
-      <c r="Z136" s="7"/>
+      <c r="Y136" s="7"/>
+      <c r="Z136" s="6"/>
       <c r="AA136" s="7"/>
-      <c r="AB136" s="7"/>
-    </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB136" s="8"/>
+      <c r="AC136" s="7"/>
+      <c r="AD136" s="7"/>
+      <c r="AE136" s="7"/>
+    </row>
+    <row r="137" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>65</v>
       </c>
@@ -6133,14 +6585,17 @@
       <c r="T137" s="6"/>
       <c r="U137" s="7"/>
       <c r="V137" s="8"/>
-      <c r="W137" s="6"/>
+      <c r="W137" s="7"/>
       <c r="X137" s="7"/>
-      <c r="Y137" s="8"/>
-      <c r="Z137" s="7"/>
+      <c r="Y137" s="7"/>
+      <c r="Z137" s="6"/>
       <c r="AA137" s="7"/>
-      <c r="AB137" s="7"/>
-    </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB137" s="8"/>
+      <c r="AC137" s="7"/>
+      <c r="AD137" s="7"/>
+      <c r="AE137" s="7"/>
+    </row>
+    <row r="138" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>64</v>
       </c>
@@ -6165,14 +6620,17 @@
       <c r="T138" s="6"/>
       <c r="U138" s="7"/>
       <c r="V138" s="8"/>
-      <c r="W138" s="6"/>
+      <c r="W138" s="7"/>
       <c r="X138" s="7"/>
-      <c r="Y138" s="8"/>
-      <c r="Z138" s="7"/>
+      <c r="Y138" s="7"/>
+      <c r="Z138" s="6"/>
       <c r="AA138" s="7"/>
-      <c r="AB138" s="7"/>
-    </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB138" s="8"/>
+      <c r="AC138" s="7"/>
+      <c r="AD138" s="7"/>
+      <c r="AE138" s="7"/>
+    </row>
+    <row r="139" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>63</v>
       </c>
@@ -6197,14 +6655,17 @@
       <c r="T139" s="6"/>
       <c r="U139" s="7"/>
       <c r="V139" s="8"/>
-      <c r="W139" s="6"/>
+      <c r="W139" s="7"/>
       <c r="X139" s="7"/>
-      <c r="Y139" s="8"/>
-      <c r="Z139" s="7"/>
+      <c r="Y139" s="7"/>
+      <c r="Z139" s="6"/>
       <c r="AA139" s="7"/>
-      <c r="AB139" s="7"/>
-    </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB139" s="8"/>
+      <c r="AC139" s="7"/>
+      <c r="AD139" s="7"/>
+      <c r="AE139" s="7"/>
+    </row>
+    <row r="140" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>62</v>
       </c>
@@ -6229,14 +6690,17 @@
       <c r="T140" s="6"/>
       <c r="U140" s="7"/>
       <c r="V140" s="8"/>
-      <c r="W140" s="6"/>
+      <c r="W140" s="7"/>
       <c r="X140" s="7"/>
-      <c r="Y140" s="8"/>
-      <c r="Z140" s="7"/>
+      <c r="Y140" s="7"/>
+      <c r="Z140" s="6"/>
       <c r="AA140" s="7"/>
-      <c r="AB140" s="7"/>
-    </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB140" s="8"/>
+      <c r="AC140" s="7"/>
+      <c r="AD140" s="7"/>
+      <c r="AE140" s="7"/>
+    </row>
+    <row r="141" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>61</v>
       </c>
@@ -6261,14 +6725,17 @@
       <c r="T141" s="6"/>
       <c r="U141" s="7"/>
       <c r="V141" s="8"/>
-      <c r="W141" s="6"/>
+      <c r="W141" s="7"/>
       <c r="X141" s="7"/>
-      <c r="Y141" s="8"/>
-      <c r="Z141" s="7"/>
+      <c r="Y141" s="7"/>
+      <c r="Z141" s="6"/>
       <c r="AA141" s="7"/>
-      <c r="AB141" s="7"/>
-    </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB141" s="8"/>
+      <c r="AC141" s="7"/>
+      <c r="AD141" s="7"/>
+      <c r="AE141" s="7"/>
+    </row>
+    <row r="142" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>60</v>
       </c>
@@ -6293,14 +6760,17 @@
       <c r="T142" s="6"/>
       <c r="U142" s="7"/>
       <c r="V142" s="8"/>
-      <c r="W142" s="6"/>
+      <c r="W142" s="7"/>
       <c r="X142" s="7"/>
-      <c r="Y142" s="8"/>
-      <c r="Z142" s="7"/>
+      <c r="Y142" s="7"/>
+      <c r="Z142" s="6"/>
       <c r="AA142" s="7"/>
-      <c r="AB142" s="7"/>
-    </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB142" s="8"/>
+      <c r="AC142" s="7"/>
+      <c r="AD142" s="7"/>
+      <c r="AE142" s="7"/>
+    </row>
+    <row r="143" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>59</v>
       </c>
@@ -6325,14 +6795,17 @@
       <c r="T143" s="6"/>
       <c r="U143" s="7"/>
       <c r="V143" s="8"/>
-      <c r="W143" s="6"/>
+      <c r="W143" s="7"/>
       <c r="X143" s="7"/>
-      <c r="Y143" s="8"/>
-      <c r="Z143" s="7"/>
+      <c r="Y143" s="7"/>
+      <c r="Z143" s="6"/>
       <c r="AA143" s="7"/>
-      <c r="AB143" s="7"/>
-    </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB143" s="8"/>
+      <c r="AC143" s="7"/>
+      <c r="AD143" s="7"/>
+      <c r="AE143" s="7"/>
+    </row>
+    <row r="144" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>58</v>
       </c>
@@ -6357,14 +6830,17 @@
       <c r="T144" s="6"/>
       <c r="U144" s="7"/>
       <c r="V144" s="8"/>
-      <c r="W144" s="6"/>
+      <c r="W144" s="7"/>
       <c r="X144" s="7"/>
-      <c r="Y144" s="8"/>
-      <c r="Z144" s="7"/>
+      <c r="Y144" s="7"/>
+      <c r="Z144" s="6"/>
       <c r="AA144" s="7"/>
-      <c r="AB144" s="7"/>
-    </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB144" s="8"/>
+      <c r="AC144" s="7"/>
+      <c r="AD144" s="7"/>
+      <c r="AE144" s="7"/>
+    </row>
+    <row r="145" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>57</v>
       </c>
@@ -6389,14 +6865,17 @@
       <c r="T145" s="6"/>
       <c r="U145" s="7"/>
       <c r="V145" s="8"/>
-      <c r="W145" s="6"/>
+      <c r="W145" s="7"/>
       <c r="X145" s="7"/>
-      <c r="Y145" s="8"/>
-      <c r="Z145" s="7"/>
+      <c r="Y145" s="7"/>
+      <c r="Z145" s="6"/>
       <c r="AA145" s="7"/>
-      <c r="AB145" s="7"/>
-    </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB145" s="8"/>
+      <c r="AC145" s="7"/>
+      <c r="AD145" s="7"/>
+      <c r="AE145" s="7"/>
+    </row>
+    <row r="146" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>56</v>
       </c>
@@ -6421,14 +6900,17 @@
       <c r="T146" s="6"/>
       <c r="U146" s="7"/>
       <c r="V146" s="8"/>
-      <c r="W146" s="6"/>
+      <c r="W146" s="7"/>
       <c r="X146" s="7"/>
-      <c r="Y146" s="8"/>
-      <c r="Z146" s="7"/>
+      <c r="Y146" s="7"/>
+      <c r="Z146" s="6"/>
       <c r="AA146" s="7"/>
-      <c r="AB146" s="7"/>
-    </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB146" s="8"/>
+      <c r="AC146" s="7"/>
+      <c r="AD146" s="7"/>
+      <c r="AE146" s="7"/>
+    </row>
+    <row r="147" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>55</v>
       </c>
@@ -6453,14 +6935,17 @@
       <c r="T147" s="6"/>
       <c r="U147" s="7"/>
       <c r="V147" s="8"/>
-      <c r="W147" s="6"/>
+      <c r="W147" s="7"/>
       <c r="X147" s="7"/>
-      <c r="Y147" s="8"/>
-      <c r="Z147" s="7"/>
+      <c r="Y147" s="7"/>
+      <c r="Z147" s="6"/>
       <c r="AA147" s="7"/>
-      <c r="AB147" s="7"/>
-    </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB147" s="8"/>
+      <c r="AC147" s="7"/>
+      <c r="AD147" s="7"/>
+      <c r="AE147" s="7"/>
+    </row>
+    <row r="148" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>54</v>
       </c>
@@ -6485,14 +6970,17 @@
       <c r="T148" s="6"/>
       <c r="U148" s="7"/>
       <c r="V148" s="8"/>
-      <c r="W148" s="6"/>
+      <c r="W148" s="7"/>
       <c r="X148" s="7"/>
-      <c r="Y148" s="8"/>
-      <c r="Z148" s="7"/>
+      <c r="Y148" s="7"/>
+      <c r="Z148" s="6"/>
       <c r="AA148" s="7"/>
-      <c r="AB148" s="7"/>
-    </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB148" s="8"/>
+      <c r="AC148" s="7"/>
+      <c r="AD148" s="7"/>
+      <c r="AE148" s="7"/>
+    </row>
+    <row r="149" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>53</v>
       </c>
@@ -6517,14 +7005,17 @@
       <c r="T149" s="6"/>
       <c r="U149" s="7"/>
       <c r="V149" s="8"/>
-      <c r="W149" s="6"/>
+      <c r="W149" s="7"/>
       <c r="X149" s="7"/>
-      <c r="Y149" s="8"/>
-      <c r="Z149" s="7"/>
+      <c r="Y149" s="7"/>
+      <c r="Z149" s="6"/>
       <c r="AA149" s="7"/>
-      <c r="AB149" s="7"/>
-    </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB149" s="8"/>
+      <c r="AC149" s="7"/>
+      <c r="AD149" s="7"/>
+      <c r="AE149" s="7"/>
+    </row>
+    <row r="150" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>52</v>
       </c>
@@ -6549,14 +7040,17 @@
       <c r="T150" s="6"/>
       <c r="U150" s="7"/>
       <c r="V150" s="8"/>
-      <c r="W150" s="6"/>
+      <c r="W150" s="7"/>
       <c r="X150" s="7"/>
-      <c r="Y150" s="8"/>
-      <c r="Z150" s="7"/>
+      <c r="Y150" s="7"/>
+      <c r="Z150" s="6"/>
       <c r="AA150" s="7"/>
-      <c r="AB150" s="7"/>
-    </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB150" s="8"/>
+      <c r="AC150" s="7"/>
+      <c r="AD150" s="7"/>
+      <c r="AE150" s="7"/>
+    </row>
+    <row r="151" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>51</v>
       </c>
@@ -6581,14 +7075,17 @@
       <c r="T151" s="6"/>
       <c r="U151" s="7"/>
       <c r="V151" s="8"/>
-      <c r="W151" s="6"/>
+      <c r="W151" s="7"/>
       <c r="X151" s="7"/>
-      <c r="Y151" s="8"/>
-      <c r="Z151" s="7"/>
+      <c r="Y151" s="7"/>
+      <c r="Z151" s="6"/>
       <c r="AA151" s="7"/>
-      <c r="AB151" s="7"/>
-    </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB151" s="8"/>
+      <c r="AC151" s="7"/>
+      <c r="AD151" s="7"/>
+      <c r="AE151" s="7"/>
+    </row>
+    <row r="152" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>50</v>
       </c>
@@ -6613,14 +7110,17 @@
       <c r="T152" s="6"/>
       <c r="U152" s="7"/>
       <c r="V152" s="8"/>
-      <c r="W152" s="6"/>
+      <c r="W152" s="7"/>
       <c r="X152" s="7"/>
-      <c r="Y152" s="8"/>
-      <c r="Z152" s="7"/>
+      <c r="Y152" s="7"/>
+      <c r="Z152" s="6"/>
       <c r="AA152" s="7"/>
-      <c r="AB152" s="7"/>
-    </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB152" s="8"/>
+      <c r="AC152" s="7"/>
+      <c r="AD152" s="7"/>
+      <c r="AE152" s="7"/>
+    </row>
+    <row r="153" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>49</v>
       </c>
@@ -6645,14 +7145,17 @@
       <c r="T153" s="6"/>
       <c r="U153" s="7"/>
       <c r="V153" s="8"/>
-      <c r="W153" s="6"/>
+      <c r="W153" s="7"/>
       <c r="X153" s="7"/>
-      <c r="Y153" s="8"/>
-      <c r="Z153" s="7"/>
+      <c r="Y153" s="7"/>
+      <c r="Z153" s="6"/>
       <c r="AA153" s="7"/>
-      <c r="AB153" s="7"/>
-    </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB153" s="8"/>
+      <c r="AC153" s="7"/>
+      <c r="AD153" s="7"/>
+      <c r="AE153" s="7"/>
+    </row>
+    <row r="154" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>48</v>
       </c>
@@ -6677,14 +7180,17 @@
       <c r="T154" s="6"/>
       <c r="U154" s="7"/>
       <c r="V154" s="8"/>
-      <c r="W154" s="6"/>
+      <c r="W154" s="7"/>
       <c r="X154" s="7"/>
-      <c r="Y154" s="8"/>
-      <c r="Z154" s="7"/>
+      <c r="Y154" s="7"/>
+      <c r="Z154" s="6"/>
       <c r="AA154" s="7"/>
-      <c r="AB154" s="7"/>
-    </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB154" s="8"/>
+      <c r="AC154" s="7"/>
+      <c r="AD154" s="7"/>
+      <c r="AE154" s="7"/>
+    </row>
+    <row r="155" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>47</v>
       </c>
@@ -6709,14 +7215,17 @@
       <c r="T155" s="6"/>
       <c r="U155" s="7"/>
       <c r="V155" s="8"/>
-      <c r="W155" s="6"/>
+      <c r="W155" s="7"/>
       <c r="X155" s="7"/>
-      <c r="Y155" s="8"/>
-      <c r="Z155" s="7"/>
+      <c r="Y155" s="7"/>
+      <c r="Z155" s="6"/>
       <c r="AA155" s="7"/>
-      <c r="AB155" s="7"/>
-    </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB155" s="8"/>
+      <c r="AC155" s="7"/>
+      <c r="AD155" s="7"/>
+      <c r="AE155" s="7"/>
+    </row>
+    <row r="156" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>46</v>
       </c>
@@ -6741,14 +7250,17 @@
       <c r="T156" s="6"/>
       <c r="U156" s="7"/>
       <c r="V156" s="8"/>
-      <c r="W156" s="6"/>
+      <c r="W156" s="7"/>
       <c r="X156" s="7"/>
-      <c r="Y156" s="8"/>
-      <c r="Z156" s="7"/>
+      <c r="Y156" s="7"/>
+      <c r="Z156" s="6"/>
       <c r="AA156" s="7"/>
-      <c r="AB156" s="7"/>
-    </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB156" s="8"/>
+      <c r="AC156" s="7"/>
+      <c r="AD156" s="7"/>
+      <c r="AE156" s="7"/>
+    </row>
+    <row r="157" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>45</v>
       </c>
@@ -6773,14 +7285,17 @@
       <c r="T157" s="6"/>
       <c r="U157" s="7"/>
       <c r="V157" s="8"/>
-      <c r="W157" s="6"/>
+      <c r="W157" s="7"/>
       <c r="X157" s="7"/>
-      <c r="Y157" s="8"/>
-      <c r="Z157" s="7"/>
+      <c r="Y157" s="7"/>
+      <c r="Z157" s="6"/>
       <c r="AA157" s="7"/>
-      <c r="AB157" s="7"/>
-    </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB157" s="8"/>
+      <c r="AC157" s="7"/>
+      <c r="AD157" s="7"/>
+      <c r="AE157" s="7"/>
+    </row>
+    <row r="158" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>44</v>
       </c>
@@ -6805,14 +7320,17 @@
       <c r="T158" s="6"/>
       <c r="U158" s="7"/>
       <c r="V158" s="8"/>
-      <c r="W158" s="6"/>
+      <c r="W158" s="7"/>
       <c r="X158" s="7"/>
-      <c r="Y158" s="8"/>
-      <c r="Z158" s="7"/>
+      <c r="Y158" s="7"/>
+      <c r="Z158" s="6"/>
       <c r="AA158" s="7"/>
-      <c r="AB158" s="7"/>
-    </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB158" s="8"/>
+      <c r="AC158" s="7"/>
+      <c r="AD158" s="7"/>
+      <c r="AE158" s="7"/>
+    </row>
+    <row r="159" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>43</v>
       </c>
@@ -6837,14 +7355,17 @@
       <c r="T159" s="6"/>
       <c r="U159" s="7"/>
       <c r="V159" s="8"/>
-      <c r="W159" s="6"/>
+      <c r="W159" s="7"/>
       <c r="X159" s="7"/>
-      <c r="Y159" s="8"/>
-      <c r="Z159" s="7"/>
+      <c r="Y159" s="7"/>
+      <c r="Z159" s="6"/>
       <c r="AA159" s="7"/>
-      <c r="AB159" s="7"/>
-    </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB159" s="8"/>
+      <c r="AC159" s="7"/>
+      <c r="AD159" s="7"/>
+      <c r="AE159" s="7"/>
+    </row>
+    <row r="160" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>42</v>
       </c>
@@ -6869,14 +7390,17 @@
       <c r="T160" s="6"/>
       <c r="U160" s="7"/>
       <c r="V160" s="8"/>
-      <c r="W160" s="6"/>
+      <c r="W160" s="7"/>
       <c r="X160" s="7"/>
-      <c r="Y160" s="8"/>
-      <c r="Z160" s="7"/>
+      <c r="Y160" s="7"/>
+      <c r="Z160" s="6"/>
       <c r="AA160" s="7"/>
-      <c r="AB160" s="7"/>
-    </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB160" s="8"/>
+      <c r="AC160" s="7"/>
+      <c r="AD160" s="7"/>
+      <c r="AE160" s="7"/>
+    </row>
+    <row r="161" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>41</v>
       </c>
@@ -6901,14 +7425,17 @@
       <c r="T161" s="6"/>
       <c r="U161" s="7"/>
       <c r="V161" s="8"/>
-      <c r="W161" s="6"/>
+      <c r="W161" s="7"/>
       <c r="X161" s="7"/>
-      <c r="Y161" s="8"/>
-      <c r="Z161" s="7"/>
+      <c r="Y161" s="7"/>
+      <c r="Z161" s="6"/>
       <c r="AA161" s="7"/>
-      <c r="AB161" s="7"/>
-    </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB161" s="8"/>
+      <c r="AC161" s="7"/>
+      <c r="AD161" s="7"/>
+      <c r="AE161" s="7"/>
+    </row>
+    <row r="162" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>40</v>
       </c>
@@ -6933,14 +7460,17 @@
       <c r="T162" s="6"/>
       <c r="U162" s="7"/>
       <c r="V162" s="8"/>
-      <c r="W162" s="6"/>
+      <c r="W162" s="7"/>
       <c r="X162" s="7"/>
-      <c r="Y162" s="8"/>
-      <c r="Z162" s="7"/>
+      <c r="Y162" s="7"/>
+      <c r="Z162" s="6"/>
       <c r="AA162" s="7"/>
-      <c r="AB162" s="7"/>
-    </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB162" s="8"/>
+      <c r="AC162" s="7"/>
+      <c r="AD162" s="7"/>
+      <c r="AE162" s="7"/>
+    </row>
+    <row r="163" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>39</v>
       </c>
@@ -6965,14 +7495,17 @@
       <c r="T163" s="6"/>
       <c r="U163" s="7"/>
       <c r="V163" s="8"/>
-      <c r="W163" s="6"/>
+      <c r="W163" s="7"/>
       <c r="X163" s="7"/>
-      <c r="Y163" s="8"/>
-      <c r="Z163" s="7"/>
+      <c r="Y163" s="7"/>
+      <c r="Z163" s="6"/>
       <c r="AA163" s="7"/>
-      <c r="AB163" s="7"/>
-    </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB163" s="8"/>
+      <c r="AC163" s="7"/>
+      <c r="AD163" s="7"/>
+      <c r="AE163" s="7"/>
+    </row>
+    <row r="164" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>38</v>
       </c>
@@ -6997,14 +7530,17 @@
       <c r="T164" s="6"/>
       <c r="U164" s="7"/>
       <c r="V164" s="8"/>
-      <c r="W164" s="6"/>
+      <c r="W164" s="7"/>
       <c r="X164" s="7"/>
-      <c r="Y164" s="8"/>
-      <c r="Z164" s="7"/>
+      <c r="Y164" s="7"/>
+      <c r="Z164" s="6"/>
       <c r="AA164" s="7"/>
-      <c r="AB164" s="7"/>
-    </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB164" s="8"/>
+      <c r="AC164" s="7"/>
+      <c r="AD164" s="7"/>
+      <c r="AE164" s="7"/>
+    </row>
+    <row r="165" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>37</v>
       </c>
@@ -7029,14 +7565,17 @@
       <c r="T165" s="6"/>
       <c r="U165" s="7"/>
       <c r="V165" s="8"/>
-      <c r="W165" s="6"/>
+      <c r="W165" s="7"/>
       <c r="X165" s="7"/>
-      <c r="Y165" s="8"/>
-      <c r="Z165" s="7"/>
+      <c r="Y165" s="7"/>
+      <c r="Z165" s="6"/>
       <c r="AA165" s="7"/>
-      <c r="AB165" s="7"/>
-    </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB165" s="8"/>
+      <c r="AC165" s="7"/>
+      <c r="AD165" s="7"/>
+      <c r="AE165" s="7"/>
+    </row>
+    <row r="166" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>36</v>
       </c>
@@ -7061,14 +7600,17 @@
       <c r="T166" s="6"/>
       <c r="U166" s="7"/>
       <c r="V166" s="8"/>
-      <c r="W166" s="6"/>
+      <c r="W166" s="7"/>
       <c r="X166" s="7"/>
-      <c r="Y166" s="8"/>
-      <c r="Z166" s="7"/>
+      <c r="Y166" s="7"/>
+      <c r="Z166" s="6"/>
       <c r="AA166" s="7"/>
-      <c r="AB166" s="7"/>
-    </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB166" s="8"/>
+      <c r="AC166" s="7"/>
+      <c r="AD166" s="7"/>
+      <c r="AE166" s="7"/>
+    </row>
+    <row r="167" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>35</v>
       </c>
@@ -7093,14 +7635,17 @@
       <c r="T167" s="6"/>
       <c r="U167" s="7"/>
       <c r="V167" s="8"/>
-      <c r="W167" s="6"/>
+      <c r="W167" s="7"/>
       <c r="X167" s="7"/>
-      <c r="Y167" s="8"/>
-      <c r="Z167" s="7"/>
+      <c r="Y167" s="7"/>
+      <c r="Z167" s="6"/>
       <c r="AA167" s="7"/>
-      <c r="AB167" s="7"/>
-    </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB167" s="8"/>
+      <c r="AC167" s="7"/>
+      <c r="AD167" s="7"/>
+      <c r="AE167" s="7"/>
+    </row>
+    <row r="168" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>34</v>
       </c>
@@ -7125,14 +7670,17 @@
       <c r="T168" s="6"/>
       <c r="U168" s="7"/>
       <c r="V168" s="8"/>
-      <c r="W168" s="6"/>
+      <c r="W168" s="7"/>
       <c r="X168" s="7"/>
-      <c r="Y168" s="8"/>
-      <c r="Z168" s="7"/>
+      <c r="Y168" s="7"/>
+      <c r="Z168" s="6"/>
       <c r="AA168" s="7"/>
-      <c r="AB168" s="7"/>
-    </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB168" s="8"/>
+      <c r="AC168" s="7"/>
+      <c r="AD168" s="7"/>
+      <c r="AE168" s="7"/>
+    </row>
+    <row r="169" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>33</v>
       </c>
@@ -7157,14 +7705,17 @@
       <c r="T169" s="6"/>
       <c r="U169" s="7"/>
       <c r="V169" s="8"/>
-      <c r="W169" s="6"/>
+      <c r="W169" s="7"/>
       <c r="X169" s="7"/>
-      <c r="Y169" s="8"/>
-      <c r="Z169" s="7"/>
+      <c r="Y169" s="7"/>
+      <c r="Z169" s="6"/>
       <c r="AA169" s="7"/>
-      <c r="AB169" s="7"/>
-    </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB169" s="8"/>
+      <c r="AC169" s="7"/>
+      <c r="AD169" s="7"/>
+      <c r="AE169" s="7"/>
+    </row>
+    <row r="170" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>32</v>
       </c>
@@ -7189,14 +7740,17 @@
       <c r="T170" s="6"/>
       <c r="U170" s="7"/>
       <c r="V170" s="8"/>
-      <c r="W170" s="6"/>
+      <c r="W170" s="7"/>
       <c r="X170" s="7"/>
-      <c r="Y170" s="8"/>
-      <c r="Z170" s="7"/>
+      <c r="Y170" s="7"/>
+      <c r="Z170" s="6"/>
       <c r="AA170" s="7"/>
-      <c r="AB170" s="7"/>
-    </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB170" s="8"/>
+      <c r="AC170" s="7"/>
+      <c r="AD170" s="7"/>
+      <c r="AE170" s="7"/>
+    </row>
+    <row r="171" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>31</v>
       </c>
@@ -7221,14 +7775,17 @@
       <c r="T171" s="6"/>
       <c r="U171" s="7"/>
       <c r="V171" s="8"/>
-      <c r="W171" s="6"/>
+      <c r="W171" s="7"/>
       <c r="X171" s="7"/>
-      <c r="Y171" s="8"/>
-      <c r="Z171" s="7"/>
+      <c r="Y171" s="7"/>
+      <c r="Z171" s="6"/>
       <c r="AA171" s="7"/>
-      <c r="AB171" s="7"/>
-    </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB171" s="8"/>
+      <c r="AC171" s="7"/>
+      <c r="AD171" s="7"/>
+      <c r="AE171" s="7"/>
+    </row>
+    <row r="172" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>30</v>
       </c>
@@ -7253,14 +7810,17 @@
       <c r="T172" s="6"/>
       <c r="U172" s="7"/>
       <c r="V172" s="8"/>
-      <c r="W172" s="6"/>
+      <c r="W172" s="7"/>
       <c r="X172" s="7"/>
-      <c r="Y172" s="8"/>
-      <c r="Z172" s="7"/>
+      <c r="Y172" s="7"/>
+      <c r="Z172" s="6"/>
       <c r="AA172" s="7"/>
-      <c r="AB172" s="7"/>
-    </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB172" s="8"/>
+      <c r="AC172" s="7"/>
+      <c r="AD172" s="7"/>
+      <c r="AE172" s="7"/>
+    </row>
+    <row r="173" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>29</v>
       </c>
@@ -7285,14 +7845,17 @@
       <c r="T173" s="6"/>
       <c r="U173" s="7"/>
       <c r="V173" s="8"/>
-      <c r="W173" s="6"/>
+      <c r="W173" s="7"/>
       <c r="X173" s="7"/>
-      <c r="Y173" s="8"/>
-      <c r="Z173" s="7"/>
+      <c r="Y173" s="7"/>
+      <c r="Z173" s="6"/>
       <c r="AA173" s="7"/>
-      <c r="AB173" s="7"/>
-    </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB173" s="8"/>
+      <c r="AC173" s="7"/>
+      <c r="AD173" s="7"/>
+      <c r="AE173" s="7"/>
+    </row>
+    <row r="174" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>28</v>
       </c>
@@ -7317,14 +7880,17 @@
       <c r="T174" s="11"/>
       <c r="U174" s="15"/>
       <c r="V174" s="9"/>
-      <c r="W174" s="6"/>
-      <c r="X174" s="7"/>
-      <c r="Y174" s="8"/>
-      <c r="Z174" s="7"/>
+      <c r="W174" s="15"/>
+      <c r="X174" s="15"/>
+      <c r="Y174" s="15"/>
+      <c r="Z174" s="6"/>
       <c r="AA174" s="7"/>
-      <c r="AB174" s="7"/>
-    </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB174" s="8"/>
+      <c r="AC174" s="7"/>
+      <c r="AD174" s="7"/>
+      <c r="AE174" s="7"/>
+    </row>
+    <row r="175" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>27</v>
       </c>
@@ -7349,14 +7915,17 @@
       <c r="T175" s="6"/>
       <c r="U175" s="7"/>
       <c r="V175" s="8"/>
-      <c r="W175" s="6"/>
+      <c r="W175" s="7"/>
       <c r="X175" s="7"/>
-      <c r="Y175" s="8"/>
-      <c r="Z175" s="7"/>
+      <c r="Y175" s="7"/>
+      <c r="Z175" s="6"/>
       <c r="AA175" s="7"/>
-      <c r="AB175" s="7"/>
-    </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB175" s="8"/>
+      <c r="AC175" s="7"/>
+      <c r="AD175" s="7"/>
+      <c r="AE175" s="7"/>
+    </row>
+    <row r="176" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>26</v>
       </c>
@@ -7381,14 +7950,17 @@
       <c r="T176" s="6"/>
       <c r="U176" s="7"/>
       <c r="V176" s="8"/>
-      <c r="W176" s="6"/>
+      <c r="W176" s="7"/>
       <c r="X176" s="7"/>
-      <c r="Y176" s="8"/>
-      <c r="Z176" s="7"/>
+      <c r="Y176" s="7"/>
+      <c r="Z176" s="6"/>
       <c r="AA176" s="7"/>
-      <c r="AB176" s="7"/>
-    </row>
-    <row r="177" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AB176" s="8"/>
+      <c r="AC176" s="7"/>
+      <c r="AD176" s="7"/>
+      <c r="AE176" s="7"/>
+    </row>
+    <row r="177" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>25</v>
       </c>
@@ -7413,14 +7985,17 @@
       <c r="T177" s="6"/>
       <c r="U177" s="7"/>
       <c r="V177" s="8"/>
-      <c r="W177" s="6"/>
+      <c r="W177" s="7"/>
       <c r="X177" s="7"/>
-      <c r="Y177" s="8"/>
-      <c r="Z177" s="7"/>
+      <c r="Y177" s="7"/>
+      <c r="Z177" s="6"/>
       <c r="AA177" s="7"/>
-      <c r="AB177" s="7"/>
-    </row>
-    <row r="178" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AB177" s="8"/>
+      <c r="AC177" s="7"/>
+      <c r="AD177" s="7"/>
+      <c r="AE177" s="7"/>
+    </row>
+    <row r="178" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>24</v>
       </c>
@@ -7442,17 +8017,26 @@
       <c r="Q178" s="7"/>
       <c r="R178" s="7"/>
       <c r="S178" s="7"/>
-      <c r="T178" s="6"/>
-      <c r="U178" s="7"/>
-      <c r="V178" s="8"/>
-      <c r="W178" s="6"/>
+      <c r="T178" s="12">
+        <v>2</v>
+      </c>
+      <c r="U178" s="13">
+        <v>3</v>
+      </c>
+      <c r="V178" s="14">
+        <v>6</v>
+      </c>
+      <c r="W178" s="7"/>
       <c r="X178" s="7"/>
-      <c r="Y178" s="8"/>
-      <c r="Z178" s="7"/>
+      <c r="Y178" s="7"/>
+      <c r="Z178" s="6"/>
       <c r="AA178" s="7"/>
-      <c r="AB178" s="7"/>
-    </row>
-    <row r="179" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AB178" s="8"/>
+      <c r="AC178" s="7"/>
+      <c r="AD178" s="7"/>
+      <c r="AE178" s="7"/>
+    </row>
+    <row r="179" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>23</v>
       </c>
@@ -7477,14 +8061,17 @@
       <c r="T179" s="6"/>
       <c r="U179" s="7"/>
       <c r="V179" s="8"/>
-      <c r="W179" s="6"/>
+      <c r="W179" s="7"/>
       <c r="X179" s="7"/>
-      <c r="Y179" s="8"/>
-      <c r="Z179" s="7"/>
+      <c r="Y179" s="7"/>
+      <c r="Z179" s="6"/>
       <c r="AA179" s="7"/>
-      <c r="AB179" s="7"/>
-    </row>
-    <row r="180" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AB179" s="8"/>
+      <c r="AC179" s="7"/>
+      <c r="AD179" s="7"/>
+      <c r="AE179" s="7"/>
+    </row>
+    <row r="180" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>22</v>
       </c>
@@ -7515,14 +8102,17 @@
       <c r="T180" s="6"/>
       <c r="U180" s="7"/>
       <c r="V180" s="8"/>
-      <c r="W180" s="6"/>
+      <c r="W180" s="7"/>
       <c r="X180" s="7"/>
-      <c r="Y180" s="8"/>
-      <c r="Z180" s="7"/>
+      <c r="Y180" s="7"/>
+      <c r="Z180" s="6"/>
       <c r="AA180" s="7"/>
-      <c r="AB180" s="7"/>
-    </row>
-    <row r="181" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AB180" s="8"/>
+      <c r="AC180" s="7"/>
+      <c r="AD180" s="7"/>
+      <c r="AE180" s="7"/>
+    </row>
+    <row r="181" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>21</v>
       </c>
@@ -7553,14 +8143,17 @@
       <c r="T181" s="6"/>
       <c r="U181" s="7"/>
       <c r="V181" s="8"/>
-      <c r="W181" s="6"/>
+      <c r="W181" s="7"/>
       <c r="X181" s="7"/>
-      <c r="Y181" s="8"/>
-      <c r="Z181" s="7"/>
+      <c r="Y181" s="7"/>
+      <c r="Z181" s="6"/>
       <c r="AA181" s="7"/>
-      <c r="AB181" s="7"/>
-    </row>
-    <row r="182" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AB181" s="8"/>
+      <c r="AC181" s="7"/>
+      <c r="AD181" s="7"/>
+      <c r="AE181" s="7"/>
+    </row>
+    <row r="182" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>20</v>
       </c>
@@ -7591,20 +8184,23 @@
       <c r="T182" s="6"/>
       <c r="U182" s="7"/>
       <c r="V182" s="8"/>
-      <c r="W182" s="12">
+      <c r="W182" s="7"/>
+      <c r="X182" s="7"/>
+      <c r="Y182" s="7"/>
+      <c r="Z182" s="12">
         <v>2</v>
       </c>
-      <c r="X182" s="13">
+      <c r="AA182" s="13">
         <v>3</v>
       </c>
-      <c r="Y182" s="14">
+      <c r="AB182" s="14">
         <v>3</v>
       </c>
-      <c r="Z182" s="13"/>
-      <c r="AA182" s="13"/>
-      <c r="AB182" s="13"/>
-    </row>
-    <row r="183" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AC182" s="13"/>
+      <c r="AD182" s="13"/>
+      <c r="AE182" s="13"/>
+    </row>
+    <row r="183" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>19</v>
       </c>
@@ -7629,20 +8225,23 @@
       <c r="T183" s="6"/>
       <c r="U183" s="7"/>
       <c r="V183" s="8"/>
-      <c r="W183" s="6">
+      <c r="W183" s="7"/>
+      <c r="X183" s="7"/>
+      <c r="Y183" s="7"/>
+      <c r="Z183" s="6">
         <v>5</v>
       </c>
-      <c r="X183" s="7">
+      <c r="AA183" s="7">
         <v>0</v>
       </c>
-      <c r="Y183" s="8">
+      <c r="AB183" s="8">
         <v>3</v>
       </c>
-      <c r="Z183" s="7"/>
-      <c r="AA183" s="7"/>
-      <c r="AB183" s="7"/>
-    </row>
-    <row r="184" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AC183" s="7"/>
+      <c r="AD183" s="7"/>
+      <c r="AE183" s="7"/>
+    </row>
+    <row r="184" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>18</v>
       </c>
@@ -7667,32 +8266,29 @@
       <c r="P184" s="8">
         <v>3</v>
       </c>
-      <c r="Q184" s="10">
-        <v>3</v>
-      </c>
-      <c r="R184" s="10">
-        <v>2</v>
-      </c>
-      <c r="S184" s="10">
-        <v>3</v>
-      </c>
+      <c r="Q184" s="10"/>
+      <c r="R184" s="10"/>
+      <c r="S184" s="10"/>
       <c r="T184" s="21"/>
       <c r="U184" s="10"/>
       <c r="V184" s="22"/>
-      <c r="W184" s="6">
+      <c r="W184" s="10"/>
+      <c r="X184" s="10"/>
+      <c r="Y184" s="10"/>
+      <c r="Z184" s="6">
         <v>4</v>
       </c>
-      <c r="X184" s="7">
+      <c r="AA184" s="7">
         <v>1</v>
       </c>
-      <c r="Y184" s="8">
+      <c r="AB184" s="8">
         <v>3</v>
       </c>
-      <c r="Z184" s="7"/>
-      <c r="AA184" s="7"/>
-      <c r="AB184" s="7"/>
-    </row>
-    <row r="185" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AC184" s="7"/>
+      <c r="AD184" s="7"/>
+      <c r="AE184" s="7"/>
+    </row>
+    <row r="185" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>17</v>
       </c>
@@ -7717,14 +8313,17 @@
       <c r="T185" s="6"/>
       <c r="U185" s="7"/>
       <c r="V185" s="8"/>
-      <c r="W185" s="6"/>
+      <c r="W185" s="7"/>
       <c r="X185" s="7"/>
-      <c r="Y185" s="8"/>
-      <c r="Z185" s="7"/>
+      <c r="Y185" s="7"/>
+      <c r="Z185" s="6"/>
       <c r="AA185" s="7"/>
-      <c r="AB185" s="7"/>
-    </row>
-    <row r="186" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AB185" s="8"/>
+      <c r="AC185" s="7"/>
+      <c r="AD185" s="7"/>
+      <c r="AE185" s="7"/>
+    </row>
+    <row r="186" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>16</v>
       </c>
@@ -7746,29 +8345,38 @@
       <c r="Q186" s="6"/>
       <c r="R186" s="7"/>
       <c r="S186" s="7"/>
-      <c r="T186" s="6"/>
-      <c r="U186" s="7"/>
-      <c r="V186" s="8"/>
-      <c r="W186" s="6">
+      <c r="T186" s="12">
+        <v>1</v>
+      </c>
+      <c r="U186" s="13">
+        <v>4</v>
+      </c>
+      <c r="V186" s="14">
+        <v>6</v>
+      </c>
+      <c r="W186" s="13"/>
+      <c r="X186" s="13"/>
+      <c r="Y186" s="13"/>
+      <c r="Z186" s="6">
         <v>3</v>
       </c>
-      <c r="X186" s="7">
+      <c r="AA186" s="7">
         <v>2</v>
       </c>
-      <c r="Y186" s="8">
+      <c r="AB186" s="8">
         <v>3</v>
       </c>
-      <c r="Z186" s="16">
+      <c r="AC186" s="16">
         <v>1</v>
       </c>
-      <c r="AA186" s="16">
+      <c r="AD186" s="16">
         <v>4</v>
       </c>
-      <c r="AB186" s="16">
+      <c r="AE186" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>15</v>
       </c>
@@ -7799,20 +8407,23 @@
       <c r="T187" s="6"/>
       <c r="U187" s="7"/>
       <c r="V187" s="8"/>
-      <c r="W187" s="6"/>
+      <c r="W187" s="7"/>
       <c r="X187" s="7"/>
-      <c r="Y187" s="8"/>
-      <c r="Z187" s="7">
+      <c r="Y187" s="7"/>
+      <c r="Z187" s="6"/>
+      <c r="AA187" s="7"/>
+      <c r="AB187" s="8"/>
+      <c r="AC187" s="7">
         <v>5</v>
       </c>
-      <c r="AA187" s="7">
+      <c r="AD187" s="7">
         <v>0</v>
       </c>
-      <c r="AB187" s="7">
+      <c r="AE187" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>14</v>
       </c>
@@ -7849,20 +8460,23 @@
       <c r="T188" s="6"/>
       <c r="U188" s="7"/>
       <c r="V188" s="8"/>
-      <c r="W188" s="6"/>
+      <c r="W188" s="7"/>
       <c r="X188" s="7"/>
-      <c r="Y188" s="8"/>
-      <c r="Z188" s="7">
+      <c r="Y188" s="7"/>
+      <c r="Z188" s="6"/>
+      <c r="AA188" s="7"/>
+      <c r="AB188" s="8"/>
+      <c r="AC188" s="7">
         <v>4</v>
       </c>
-      <c r="AA188" s="7">
+      <c r="AD188" s="7">
         <v>1</v>
       </c>
-      <c r="AB188" s="7">
+      <c r="AE188" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>13</v>
       </c>
@@ -7887,14 +8501,14 @@
       <c r="T189" s="6"/>
       <c r="U189" s="7"/>
       <c r="V189" s="8"/>
-      <c r="W189" s="12"/>
-      <c r="X189" s="13"/>
-      <c r="Y189" s="14"/>
-      <c r="Z189" s="13"/>
+      <c r="Z189" s="12"/>
       <c r="AA189" s="13"/>
-      <c r="AB189" s="13"/>
-    </row>
-    <row r="190" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AB189" s="14"/>
+      <c r="AC189" s="13"/>
+      <c r="AD189" s="13"/>
+      <c r="AE189" s="13"/>
+    </row>
+    <row r="190" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>12</v>
       </c>
@@ -7919,41 +8533,44 @@
       <c r="N190" s="7"/>
       <c r="O190" s="10"/>
       <c r="P190" s="7"/>
-      <c r="Q190" s="6">
-        <v>2</v>
-      </c>
-      <c r="R190" s="7">
-        <v>3</v>
-      </c>
-      <c r="S190" s="7">
-        <v>3</v>
-      </c>
+      <c r="Q190" s="6"/>
+      <c r="R190" s="7"/>
+      <c r="S190" s="7"/>
       <c r="T190" s="6"/>
       <c r="U190" s="7"/>
       <c r="V190" s="8"/>
-      <c r="W190" s="17">
+      <c r="W190" s="13">
+        <v>3</v>
+      </c>
+      <c r="X190" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y190" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z190" s="17">
         <v>1</v>
       </c>
-      <c r="X190" s="18">
+      <c r="AA190" s="18">
         <v>4</v>
       </c>
-      <c r="Y190" s="19">
+      <c r="AB190" s="19">
         <v>4</v>
       </c>
-      <c r="Z190" s="18">
+      <c r="AC190" s="18">
         <v>3</v>
       </c>
-      <c r="AA190" s="18">
+      <c r="AD190" s="18">
         <v>2</v>
       </c>
-      <c r="AB190" s="18">
+      <c r="AE190" s="18">
         <v>3</v>
       </c>
-      <c r="AF190" t="s">
+      <c r="AI190" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>11</v>
       </c>
@@ -7975,23 +8592,26 @@
       <c r="Q191" s="6"/>
       <c r="R191" s="7"/>
       <c r="S191" s="7"/>
-      <c r="T191" s="12">
-        <v>1</v>
-      </c>
-      <c r="U191" s="13">
-        <v>4</v>
-      </c>
-      <c r="V191" s="14">
-        <v>6</v>
-      </c>
-      <c r="W191" s="6"/>
-      <c r="X191" s="7"/>
-      <c r="Y191" s="8"/>
-      <c r="Z191" s="7"/>
+      <c r="T191" s="12"/>
+      <c r="U191" s="13"/>
+      <c r="V191" s="14"/>
+      <c r="W191" s="18">
+        <v>5</v>
+      </c>
+      <c r="X191" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y191" s="19">
+        <v>5</v>
+      </c>
+      <c r="Z191" s="6"/>
       <c r="AA191" s="7"/>
-      <c r="AB191" s="7"/>
-    </row>
-    <row r="192" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AB191" s="8"/>
+      <c r="AC191" s="7"/>
+      <c r="AD191" s="7"/>
+      <c r="AE191" s="7"/>
+    </row>
+    <row r="192" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>10</v>
       </c>
@@ -8008,17 +8628,26 @@
       <c r="L192" s="7"/>
       <c r="M192" s="8"/>
       <c r="Q192" s="6"/>
-      <c r="T192" s="6"/>
-      <c r="U192" s="7"/>
-      <c r="V192" s="8"/>
-      <c r="W192" s="6"/>
-      <c r="X192" s="7"/>
-      <c r="Y192" s="8"/>
-      <c r="Z192" s="7"/>
+      <c r="T192" s="12"/>
+      <c r="U192" s="16"/>
+      <c r="V192" s="14"/>
+      <c r="W192" s="18">
+        <v>4</v>
+      </c>
+      <c r="X192" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y192" s="19">
+        <v>5</v>
+      </c>
+      <c r="Z192" s="6"/>
       <c r="AA192" s="7"/>
-      <c r="AB192" s="7"/>
-    </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB192" s="8"/>
+      <c r="AC192" s="7"/>
+      <c r="AD192" s="7"/>
+      <c r="AE192" s="7"/>
+    </row>
+    <row r="193" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>9</v>
       </c>
@@ -8040,26 +8669,23 @@
       <c r="K193" s="7"/>
       <c r="L193" s="7"/>
       <c r="M193" s="8"/>
-      <c r="Q193" s="12">
-        <v>2</v>
-      </c>
-      <c r="R193" s="20">
-        <v>3</v>
-      </c>
-      <c r="S193" s="20">
-        <v>1</v>
-      </c>
-      <c r="T193" s="12"/>
-      <c r="U193" s="13"/>
-      <c r="V193" s="14"/>
-      <c r="W193" s="6"/>
-      <c r="X193" s="7"/>
-      <c r="Y193" s="8"/>
-      <c r="Z193" s="7"/>
+      <c r="Q193" s="12"/>
+      <c r="R193" s="20"/>
+      <c r="S193" s="20"/>
+      <c r="T193" s="6"/>
+      <c r="U193" s="7"/>
+      <c r="V193" s="8"/>
+      <c r="W193" s="20"/>
+      <c r="X193" s="20"/>
+      <c r="Y193" s="20"/>
+      <c r="Z193" s="6"/>
       <c r="AA193" s="7"/>
-      <c r="AB193" s="7"/>
-    </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB193" s="8"/>
+      <c r="AC193" s="7"/>
+      <c r="AD193" s="7"/>
+      <c r="AE193" s="7"/>
+    </row>
+    <row r="194" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>8</v>
       </c>
@@ -8087,23 +8713,38 @@
       <c r="Q194" s="12"/>
       <c r="R194" s="16"/>
       <c r="S194" s="13"/>
-      <c r="T194" s="12"/>
-      <c r="U194" s="16"/>
-      <c r="V194" s="14"/>
-      <c r="W194" s="6"/>
-      <c r="X194" s="7"/>
-      <c r="Y194" s="8"/>
-      <c r="Z194" s="7">
+      <c r="T194" s="12">
         <v>2</v>
       </c>
-      <c r="AA194" s="7">
+      <c r="U194" s="13">
         <v>3</v>
       </c>
-      <c r="AB194" s="7">
+      <c r="V194" s="14">
+        <v>5</v>
+      </c>
+      <c r="W194" s="18">
+        <v>2</v>
+      </c>
+      <c r="X194" s="18">
         <v>3</v>
       </c>
-    </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Y194" s="19">
+        <v>6</v>
+      </c>
+      <c r="Z194" s="6"/>
+      <c r="AA194" s="7"/>
+      <c r="AB194" s="8"/>
+      <c r="AC194" s="7">
+        <v>2</v>
+      </c>
+      <c r="AD194" s="7">
+        <v>3</v>
+      </c>
+      <c r="AE194" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>7</v>
       </c>
@@ -8122,32 +8763,17 @@
       <c r="N195" s="7"/>
       <c r="O195" s="7"/>
       <c r="P195" s="7"/>
-      <c r="Q195" s="12">
-        <v>3</v>
-      </c>
-      <c r="R195" s="13">
-        <v>2</v>
-      </c>
-      <c r="S195" s="13">
-        <v>0</v>
-      </c>
-      <c r="T195" s="12">
-        <v>2</v>
-      </c>
-      <c r="U195" s="13">
-        <v>3</v>
-      </c>
-      <c r="V195" s="14">
-        <v>5</v>
-      </c>
-      <c r="W195" s="6"/>
-      <c r="X195" s="7"/>
-      <c r="Y195" s="8"/>
-      <c r="Z195" s="7"/>
+      <c r="T195" s="6"/>
+      <c r="U195" s="7"/>
+      <c r="V195" s="8"/>
+      <c r="Z195" s="6"/>
       <c r="AA195" s="7"/>
-      <c r="AB195" s="7"/>
-    </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB195" s="8"/>
+      <c r="AC195" s="7"/>
+      <c r="AD195" s="7"/>
+      <c r="AE195" s="7"/>
+    </row>
+    <row r="196" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>6</v>
       </c>
@@ -8166,32 +8792,29 @@
       <c r="N196" s="7"/>
       <c r="O196" s="7"/>
       <c r="P196" s="7"/>
-      <c r="Q196" s="17">
-        <v>1</v>
-      </c>
-      <c r="R196" s="18">
-        <v>4</v>
-      </c>
-      <c r="S196" s="18">
-        <v>3</v>
-      </c>
+      <c r="Q196" s="12"/>
+      <c r="R196" s="13"/>
+      <c r="S196" s="13"/>
       <c r="T196" s="17"/>
       <c r="U196" s="18"/>
       <c r="V196" s="19"/>
-      <c r="W196" s="12">
+      <c r="W196" s="18"/>
+      <c r="X196" s="18"/>
+      <c r="Y196" s="18"/>
+      <c r="Z196" s="12">
         <v>2</v>
       </c>
-      <c r="X196" s="13">
+      <c r="AA196" s="13">
         <v>3</v>
       </c>
-      <c r="Y196" s="14">
+      <c r="AB196" s="14">
         <v>2</v>
       </c>
-      <c r="Z196" s="13"/>
-      <c r="AA196" s="13"/>
-      <c r="AB196" s="13"/>
-    </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AC196" s="13"/>
+      <c r="AD196" s="13"/>
+      <c r="AE196" s="13"/>
+    </row>
+    <row r="197" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>5</v>
       </c>
@@ -8225,18 +8848,20 @@
       <c r="M197" s="14">
         <v>1</v>
       </c>
-      <c r="Q197" s="6"/>
       <c r="T197" s="6"/>
       <c r="U197" s="7"/>
       <c r="V197" s="8"/>
-      <c r="W197" s="6"/>
+      <c r="W197" s="7"/>
       <c r="X197" s="7"/>
-      <c r="Y197" s="8"/>
-      <c r="Z197" s="7"/>
+      <c r="Y197" s="7"/>
+      <c r="Z197" s="6"/>
       <c r="AA197" s="7"/>
-      <c r="AB197" s="7"/>
-    </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB197" s="8"/>
+      <c r="AC197" s="7"/>
+      <c r="AD197" s="7"/>
+      <c r="AE197" s="7"/>
+    </row>
+    <row r="198" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>4</v>
       </c>
@@ -8267,9 +8892,15 @@
       <c r="N198" s="7"/>
       <c r="O198" s="10"/>
       <c r="P198" s="7"/>
-      <c r="Q198" s="12"/>
-      <c r="R198" s="13"/>
-      <c r="S198" s="13"/>
+      <c r="Q198" s="12">
+        <v>1</v>
+      </c>
+      <c r="R198" s="13">
+        <v>4</v>
+      </c>
+      <c r="S198" s="13">
+        <v>2</v>
+      </c>
       <c r="T198" s="12">
         <v>3</v>
       </c>
@@ -8279,20 +8910,23 @@
       <c r="V198" s="14">
         <v>4</v>
       </c>
-      <c r="W198" s="11"/>
-      <c r="X198" s="7"/>
-      <c r="Y198" s="8"/>
-      <c r="Z198" s="7">
+      <c r="W198" s="13"/>
+      <c r="X198" s="13"/>
+      <c r="Y198" s="13"/>
+      <c r="Z198" s="11"/>
+      <c r="AA198" s="7"/>
+      <c r="AB198" s="8"/>
+      <c r="AC198" s="7">
         <v>3</v>
       </c>
-      <c r="AA198" s="7">
+      <c r="AD198" s="7">
         <v>2</v>
       </c>
-      <c r="AB198" s="7">
+      <c r="AE198" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>3</v>
       </c>
@@ -8323,32 +8957,26 @@
       <c r="N199" s="7"/>
       <c r="O199" s="7"/>
       <c r="P199" s="7"/>
-      <c r="Q199" s="12">
-        <v>2</v>
-      </c>
-      <c r="R199" s="13">
-        <v>3</v>
-      </c>
-      <c r="S199" s="13">
-        <v>1</v>
-      </c>
       <c r="T199" s="12"/>
       <c r="U199" s="13"/>
       <c r="V199" s="14"/>
-      <c r="W199" s="12">
+      <c r="W199" s="13"/>
+      <c r="X199" s="13"/>
+      <c r="Y199" s="13"/>
+      <c r="Z199" s="12">
         <v>3</v>
       </c>
-      <c r="X199" s="13">
+      <c r="AA199" s="13">
         <v>2</v>
       </c>
-      <c r="Y199" s="14">
+      <c r="AB199" s="14">
         <v>1</v>
       </c>
-      <c r="Z199" s="13"/>
-      <c r="AA199" s="13"/>
-      <c r="AB199" s="13"/>
-    </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AC199" s="13"/>
+      <c r="AD199" s="13"/>
+      <c r="AE199" s="13"/>
+    </row>
+    <row r="200" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2</v>
       </c>
@@ -8379,9 +9007,15 @@
       <c r="N200" s="7"/>
       <c r="O200" s="7"/>
       <c r="P200" s="7"/>
-      <c r="Q200" s="12"/>
-      <c r="R200" s="13"/>
-      <c r="S200" s="13"/>
+      <c r="Q200" s="12">
+        <v>2</v>
+      </c>
+      <c r="R200" s="13">
+        <v>3</v>
+      </c>
+      <c r="S200" s="13">
+        <v>1</v>
+      </c>
       <c r="T200" s="12">
         <v>4</v>
       </c>
@@ -8391,26 +9025,29 @@
       <c r="V200" s="14">
         <v>3</v>
       </c>
-      <c r="W200" s="12">
-        <v>4</v>
-      </c>
-      <c r="X200" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y200" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z200" s="13">
+      <c r="W200" s="13"/>
+      <c r="X200" s="13"/>
+      <c r="Y200" s="13"/>
+      <c r="Z200" s="12">
         <v>4</v>
       </c>
       <c r="AA200" s="13">
         <v>1</v>
       </c>
-      <c r="AB200" s="13">
+      <c r="AB200" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AC200" s="13">
+        <v>4</v>
+      </c>
+      <c r="AD200" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE200" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -8459,35 +9096,38 @@
       <c r="V201" s="23">
         <v>2</v>
       </c>
-      <c r="W201" s="12">
-        <v>5</v>
-      </c>
-      <c r="X201" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y201" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z201" s="13">
+      <c r="W201" s="16"/>
+      <c r="X201" s="16"/>
+      <c r="Y201" s="16"/>
+      <c r="Z201" s="12">
         <v>5</v>
       </c>
       <c r="AA201" s="13">
         <v>0</v>
       </c>
-      <c r="AB201" s="13">
+      <c r="AB201" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC201" s="13">
+        <v>5</v>
+      </c>
+      <c r="AD201" s="13">
         <v>0</v>
       </c>
-      <c r="AC201" s="16">
+      <c r="AE201" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF201" s="16">
         <v>4</v>
       </c>
-      <c r="AD201" s="16">
+      <c r="AG201" s="16">
         <v>0</v>
       </c>
-      <c r="AE201" s="16">
+      <c r="AH201" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>0</v>
       </c>
@@ -8554,15 +9194,9 @@
       <c r="V202" s="8">
         <v>7</v>
       </c>
-      <c r="W202" s="6">
-        <v>0</v>
-      </c>
-      <c r="X202" s="7">
-        <v>5</v>
-      </c>
-      <c r="Y202" s="8">
-        <v>4</v>
-      </c>
+      <c r="W202" s="7"/>
+      <c r="X202" s="7"/>
+      <c r="Y202" s="7"/>
       <c r="Z202" s="6">
         <v>0</v>
       </c>
@@ -8579,10 +9213,19 @@
         <v>5</v>
       </c>
       <c r="AE202" s="8">
+        <v>4</v>
+      </c>
+      <c r="AF202" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG202" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AH202" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Q204" t="s">
         <v>9</v>
       </c>
@@ -8590,7 +9233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Q205" t="s">
         <v>10</v>
       </c>
@@ -8598,7 +9241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Q206" t="s">
         <v>11</v>
       </c>
@@ -8606,12 +9249,44 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Q207" t="s">
         <v>12</v>
       </c>
       <c r="T207" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T210">
+        <v>1</v>
+      </c>
+      <c r="U210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T211">
+        <v>2</v>
+      </c>
+      <c r="U211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T212">
+        <v>3</v>
+      </c>
+      <c r="U212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T213">
+        <v>4</v>
+      </c>
+      <c r="U213">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/solutions/fabergè_easter_eggs_crush_test.xlsx
+++ b/solutions/fabergè_easter_eggs_crush_test.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>floor</t>
   </si>
@@ -51,19 +51,16 @@
     <t>next_floor = 1 * 12 * 2 - 2 = 22</t>
   </si>
   <si>
-    <t>next_floor = (attempts_left -1) * (eggs_left - 1)</t>
+    <t>before_last_attempt = min(eggs, attempts_left) - 1</t>
   </si>
   <si>
-    <t>before_last_attempt = eggs_left - 1</t>
+    <t>before_last_eggs_left = eggs - before_last_attempt</t>
   </si>
   <si>
-    <t>before_last_attempt = 2</t>
+    <t xml:space="preserve">attempts_left = attempts_left - before_last_attempt </t>
   </si>
   <si>
-    <t>level_before_last = current_level + before_last_attempt + 1</t>
-  </si>
-  <si>
-    <t>level_before_last = 0 + 2 + 1 = 3</t>
+    <t>floor = floor + attempts_left + 1</t>
   </si>
 </sst>
 </file>
@@ -136,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -154,21 +151,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1728,13 +1726,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI213"/>
+  <dimension ref="A1:S209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N175" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W195" sqref="W195"/>
+      <selection pane="bottomRight" activeCell="N210" sqref="N210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,11 +1740,9 @@
     <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="7" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1754,88 +1750,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-    </row>
-    <row r="2" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="8"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>200</v>
       </c>
@@ -1848,29 +1781,14 @@
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="7"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="M2" s="8"/>
       <c r="N2" s="6"/>
       <c r="O2" s="7"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-    </row>
-    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>199</v>
       </c>
@@ -1883,29 +1801,14 @@
       <c r="H3" s="6"/>
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="7"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="M3" s="8"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-    </row>
-    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>198</v>
       </c>
@@ -1918,29 +1821,14 @@
       <c r="H4" s="6"/>
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="7"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="M4" s="8"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-    </row>
-    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>197</v>
       </c>
@@ -1953,29 +1841,14 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="7"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="8"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-    </row>
-    <row r="6" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>196</v>
       </c>
@@ -1988,29 +1861,14 @@
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="7"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="8"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-    </row>
-    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>195</v>
       </c>
@@ -2023,29 +1881,14 @@
       <c r="H7" s="6"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="6"/>
       <c r="O7" s="7"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-    </row>
-    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>194</v>
       </c>
@@ -2058,29 +1901,14 @@
       <c r="H8" s="6"/>
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="7"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="6"/>
       <c r="O8" s="7"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-    </row>
-    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>193</v>
       </c>
@@ -2093,29 +1921,14 @@
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="7"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="8"/>
       <c r="N9" s="6"/>
       <c r="O9" s="7"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-    </row>
-    <row r="10" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>192</v>
       </c>
@@ -2128,29 +1941,14 @@
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="7"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="8"/>
       <c r="N10" s="6"/>
       <c r="O10" s="7"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-    </row>
-    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>191</v>
       </c>
@@ -2163,29 +1961,14 @@
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="7"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="M11" s="8"/>
       <c r="N11" s="6"/>
       <c r="O11" s="7"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-    </row>
-    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>190</v>
       </c>
@@ -2198,29 +1981,14 @@
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="7"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="6"/>
       <c r="O12" s="7"/>
       <c r="P12" s="8"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-    </row>
-    <row r="13" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>189</v>
       </c>
@@ -2233,29 +2001,14 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="7"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="6"/>
       <c r="O13" s="7"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-    </row>
-    <row r="14" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>188</v>
       </c>
@@ -2268,29 +2021,14 @@
       <c r="H14" s="6"/>
       <c r="I14" s="7"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="7"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="8"/>
       <c r="N14" s="6"/>
       <c r="O14" s="7"/>
       <c r="P14" s="8"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-    </row>
-    <row r="15" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>187</v>
       </c>
@@ -2303,29 +2041,14 @@
       <c r="H15" s="6"/>
       <c r="I15" s="7"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="7"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="8"/>
       <c r="N15" s="6"/>
       <c r="O15" s="7"/>
       <c r="P15" s="8"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-    </row>
-    <row r="16" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>186</v>
       </c>
@@ -2338,29 +2061,14 @@
       <c r="H16" s="6"/>
       <c r="I16" s="7"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="7"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="8"/>
       <c r="N16" s="6"/>
       <c r="O16" s="7"/>
       <c r="P16" s="8"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-    </row>
-    <row r="17" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>185</v>
       </c>
@@ -2373,29 +2081,14 @@
       <c r="H17" s="6"/>
       <c r="I17" s="7"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="7"/>
+      <c r="K17" s="6"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="8"/>
       <c r="N17" s="6"/>
       <c r="O17" s="7"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-    </row>
-    <row r="18" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>184</v>
       </c>
@@ -2408,29 +2101,14 @@
       <c r="H18" s="6"/>
       <c r="I18" s="7"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="7"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="8"/>
       <c r="N18" s="6"/>
       <c r="O18" s="7"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-    </row>
-    <row r="19" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>183</v>
       </c>
@@ -2443,29 +2121,14 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="7"/>
+      <c r="K19" s="6"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="6"/>
       <c r="O19" s="7"/>
       <c r="P19" s="8"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-    </row>
-    <row r="20" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>182</v>
       </c>
@@ -2478,29 +2141,14 @@
       <c r="H20" s="6"/>
       <c r="I20" s="7"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="7"/>
+      <c r="K20" s="6"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="M20" s="8"/>
       <c r="N20" s="6"/>
       <c r="O20" s="7"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-    </row>
-    <row r="21" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>181</v>
       </c>
@@ -2513,29 +2161,14 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="7"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+      <c r="M21" s="8"/>
       <c r="N21" s="6"/>
       <c r="O21" s="7"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-    </row>
-    <row r="22" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>180</v>
       </c>
@@ -2548,29 +2181,14 @@
       <c r="H22" s="6"/>
       <c r="I22" s="7"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="7"/>
+      <c r="K22" s="6"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="M22" s="8"/>
       <c r="N22" s="6"/>
       <c r="O22" s="7"/>
       <c r="P22" s="8"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-    </row>
-    <row r="23" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>179</v>
       </c>
@@ -2583,29 +2201,14 @@
       <c r="H23" s="6"/>
       <c r="I23" s="7"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="7"/>
+      <c r="K23" s="6"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="6"/>
       <c r="O23" s="7"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-    </row>
-    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>178</v>
       </c>
@@ -2618,29 +2221,14 @@
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="7"/>
+      <c r="K24" s="6"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="M24" s="8"/>
       <c r="N24" s="6"/>
       <c r="O24" s="7"/>
       <c r="P24" s="8"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-    </row>
-    <row r="25" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>177</v>
       </c>
@@ -2653,29 +2241,14 @@
       <c r="H25" s="6"/>
       <c r="I25" s="7"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="7"/>
+      <c r="K25" s="6"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="M25" s="8"/>
       <c r="N25" s="6"/>
       <c r="O25" s="7"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-    </row>
-    <row r="26" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>176</v>
       </c>
@@ -2688,29 +2261,14 @@
       <c r="H26" s="6"/>
       <c r="I26" s="7"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="7"/>
+      <c r="K26" s="6"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="M26" s="8"/>
       <c r="N26" s="6"/>
       <c r="O26" s="7"/>
       <c r="P26" s="8"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-    </row>
-    <row r="27" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>175</v>
       </c>
@@ -2723,29 +2281,14 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="7"/>
+      <c r="K27" s="6"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="M27" s="8"/>
       <c r="N27" s="6"/>
       <c r="O27" s="7"/>
       <c r="P27" s="8"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
-    </row>
-    <row r="28" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>174</v>
       </c>
@@ -2758,29 +2301,14 @@
       <c r="H28" s="6"/>
       <c r="I28" s="7"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="7"/>
+      <c r="K28" s="6"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
+      <c r="M28" s="8"/>
       <c r="N28" s="6"/>
       <c r="O28" s="7"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
-    </row>
-    <row r="29" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>173</v>
       </c>
@@ -2793,29 +2321,14 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="7"/>
+      <c r="K29" s="6"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
+      <c r="M29" s="8"/>
       <c r="N29" s="6"/>
       <c r="O29" s="7"/>
       <c r="P29" s="8"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="7"/>
-      <c r="AE29" s="7"/>
-    </row>
-    <row r="30" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>172</v>
       </c>
@@ -2828,29 +2341,14 @@
       <c r="H30" s="6"/>
       <c r="I30" s="7"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="7"/>
+      <c r="K30" s="6"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
+      <c r="M30" s="8"/>
       <c r="N30" s="6"/>
       <c r="O30" s="7"/>
       <c r="P30" s="8"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-    </row>
-    <row r="31" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>171</v>
       </c>
@@ -2863,29 +2361,14 @@
       <c r="H31" s="6"/>
       <c r="I31" s="7"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="7"/>
+      <c r="K31" s="6"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
+      <c r="M31" s="8"/>
       <c r="N31" s="6"/>
       <c r="O31" s="7"/>
       <c r="P31" s="8"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
-    </row>
-    <row r="32" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>170</v>
       </c>
@@ -2898,29 +2381,14 @@
       <c r="H32" s="6"/>
       <c r="I32" s="7"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="7"/>
+      <c r="K32" s="6"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
+      <c r="M32" s="8"/>
       <c r="N32" s="6"/>
       <c r="O32" s="7"/>
       <c r="P32" s="8"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="7"/>
-      <c r="AD32" s="7"/>
-      <c r="AE32" s="7"/>
-    </row>
-    <row r="33" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>169</v>
       </c>
@@ -2933,29 +2401,14 @@
       <c r="H33" s="6"/>
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="7"/>
+      <c r="K33" s="6"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
+      <c r="M33" s="8"/>
       <c r="N33" s="6"/>
       <c r="O33" s="7"/>
       <c r="P33" s="8"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="7"/>
-      <c r="AD33" s="7"/>
-      <c r="AE33" s="7"/>
-    </row>
-    <row r="34" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>168</v>
       </c>
@@ -2968,29 +2421,14 @@
       <c r="H34" s="6"/>
       <c r="I34" s="7"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="7"/>
+      <c r="K34" s="6"/>
       <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
+      <c r="M34" s="8"/>
       <c r="N34" s="6"/>
       <c r="O34" s="7"/>
       <c r="P34" s="8"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="7"/>
-      <c r="AD34" s="7"/>
-      <c r="AE34" s="7"/>
-    </row>
-    <row r="35" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>167</v>
       </c>
@@ -3003,29 +2441,14 @@
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="7"/>
+      <c r="K35" s="6"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
+      <c r="M35" s="8"/>
       <c r="N35" s="6"/>
       <c r="O35" s="7"/>
       <c r="P35" s="8"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="7"/>
-      <c r="AD35" s="7"/>
-      <c r="AE35" s="7"/>
-    </row>
-    <row r="36" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>166</v>
       </c>
@@ -3038,29 +2461,14 @@
       <c r="H36" s="6"/>
       <c r="I36" s="7"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="7"/>
+      <c r="K36" s="6"/>
       <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
+      <c r="M36" s="8"/>
       <c r="N36" s="6"/>
       <c r="O36" s="7"/>
       <c r="P36" s="8"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="7"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="7"/>
-      <c r="AD36" s="7"/>
-      <c r="AE36" s="7"/>
-    </row>
-    <row r="37" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>165</v>
       </c>
@@ -3073,29 +2481,14 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="7"/>
+      <c r="K37" s="6"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
+      <c r="M37" s="8"/>
       <c r="N37" s="6"/>
       <c r="O37" s="7"/>
       <c r="P37" s="8"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="8"/>
-      <c r="AC37" s="7"/>
-      <c r="AD37" s="7"/>
-      <c r="AE37" s="7"/>
-    </row>
-    <row r="38" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>164</v>
       </c>
@@ -3108,29 +2501,14 @@
       <c r="H38" s="6"/>
       <c r="I38" s="7"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="7"/>
+      <c r="K38" s="6"/>
       <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
+      <c r="M38" s="8"/>
       <c r="N38" s="6"/>
       <c r="O38" s="7"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="7"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="7"/>
-      <c r="AD38" s="7"/>
-      <c r="AE38" s="7"/>
-    </row>
-    <row r="39" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>163</v>
       </c>
@@ -3143,29 +2521,14 @@
       <c r="H39" s="6"/>
       <c r="I39" s="7"/>
       <c r="J39" s="8"/>
-      <c r="K39" s="7"/>
+      <c r="K39" s="6"/>
       <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
+      <c r="M39" s="8"/>
       <c r="N39" s="6"/>
       <c r="O39" s="7"/>
       <c r="P39" s="8"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7"/>
-      <c r="Z39" s="6"/>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="7"/>
-      <c r="AD39" s="7"/>
-      <c r="AE39" s="7"/>
-    </row>
-    <row r="40" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>162</v>
       </c>
@@ -3178,29 +2541,14 @@
       <c r="H40" s="6"/>
       <c r="I40" s="7"/>
       <c r="J40" s="8"/>
-      <c r="K40" s="7"/>
+      <c r="K40" s="6"/>
       <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
+      <c r="M40" s="8"/>
       <c r="N40" s="6"/>
       <c r="O40" s="7"/>
       <c r="P40" s="8"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="7"/>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="7"/>
-      <c r="AD40" s="7"/>
-      <c r="AE40" s="7"/>
-    </row>
-    <row r="41" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>161</v>
       </c>
@@ -3213,29 +2561,14 @@
       <c r="H41" s="6"/>
       <c r="I41" s="7"/>
       <c r="J41" s="8"/>
-      <c r="K41" s="7"/>
+      <c r="K41" s="6"/>
       <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
+      <c r="M41" s="8"/>
       <c r="N41" s="6"/>
       <c r="O41" s="7"/>
       <c r="P41" s="8"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="7"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="7"/>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="7"/>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="7"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="7"/>
-      <c r="AD41" s="7"/>
-      <c r="AE41" s="7"/>
-    </row>
-    <row r="42" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>160</v>
       </c>
@@ -3248,29 +2581,14 @@
       <c r="H42" s="6"/>
       <c r="I42" s="7"/>
       <c r="J42" s="8"/>
-      <c r="K42" s="7"/>
+      <c r="K42" s="6"/>
       <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
+      <c r="M42" s="8"/>
       <c r="N42" s="6"/>
       <c r="O42" s="7"/>
       <c r="P42" s="8"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="7"/>
-      <c r="AB42" s="8"/>
-      <c r="AC42" s="7"/>
-      <c r="AD42" s="7"/>
-      <c r="AE42" s="7"/>
-    </row>
-    <row r="43" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>159</v>
       </c>
@@ -3283,29 +2601,14 @@
       <c r="H43" s="6"/>
       <c r="I43" s="7"/>
       <c r="J43" s="8"/>
-      <c r="K43" s="7"/>
+      <c r="K43" s="6"/>
       <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
+      <c r="M43" s="8"/>
       <c r="N43" s="6"/>
       <c r="O43" s="7"/>
       <c r="P43" s="8"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="7"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="7"/>
-      <c r="AD43" s="7"/>
-      <c r="AE43" s="7"/>
-    </row>
-    <row r="44" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>158</v>
       </c>
@@ -3318,29 +2621,14 @@
       <c r="H44" s="6"/>
       <c r="I44" s="7"/>
       <c r="J44" s="8"/>
-      <c r="K44" s="7"/>
+      <c r="K44" s="6"/>
       <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
+      <c r="M44" s="8"/>
       <c r="N44" s="6"/>
       <c r="O44" s="7"/>
       <c r="P44" s="8"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="7"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="7"/>
-      <c r="AD44" s="7"/>
-      <c r="AE44" s="7"/>
-    </row>
-    <row r="45" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>157</v>
       </c>
@@ -3353,29 +2641,14 @@
       <c r="H45" s="6"/>
       <c r="I45" s="7"/>
       <c r="J45" s="8"/>
-      <c r="K45" s="7"/>
+      <c r="K45" s="6"/>
       <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
+      <c r="M45" s="8"/>
       <c r="N45" s="6"/>
       <c r="O45" s="7"/>
       <c r="P45" s="8"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="7"/>
-      <c r="AB45" s="8"/>
-      <c r="AC45" s="7"/>
-      <c r="AD45" s="7"/>
-      <c r="AE45" s="7"/>
-    </row>
-    <row r="46" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>156</v>
       </c>
@@ -3388,29 +2661,14 @@
       <c r="H46" s="6"/>
       <c r="I46" s="7"/>
       <c r="J46" s="8"/>
-      <c r="K46" s="7"/>
+      <c r="K46" s="6"/>
       <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
+      <c r="M46" s="8"/>
       <c r="N46" s="6"/>
       <c r="O46" s="7"/>
       <c r="P46" s="8"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="8"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="7"/>
-      <c r="AB46" s="8"/>
-      <c r="AC46" s="7"/>
-      <c r="AD46" s="7"/>
-      <c r="AE46" s="7"/>
-    </row>
-    <row r="47" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>155</v>
       </c>
@@ -3423,29 +2681,14 @@
       <c r="H47" s="6"/>
       <c r="I47" s="7"/>
       <c r="J47" s="8"/>
-      <c r="K47" s="7"/>
+      <c r="K47" s="6"/>
       <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
+      <c r="M47" s="8"/>
       <c r="N47" s="6"/>
       <c r="O47" s="7"/>
       <c r="P47" s="8"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="7"/>
-      <c r="V47" s="8"/>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="6"/>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="8"/>
-      <c r="AC47" s="7"/>
-      <c r="AD47" s="7"/>
-      <c r="AE47" s="7"/>
-    </row>
-    <row r="48" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>154</v>
       </c>
@@ -3458,29 +2701,14 @@
       <c r="H48" s="6"/>
       <c r="I48" s="7"/>
       <c r="J48" s="8"/>
-      <c r="K48" s="7"/>
+      <c r="K48" s="6"/>
       <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
+      <c r="M48" s="8"/>
       <c r="N48" s="6"/>
       <c r="O48" s="7"/>
       <c r="P48" s="8"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="7"/>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="7"/>
-      <c r="Z48" s="6"/>
-      <c r="AA48" s="7"/>
-      <c r="AB48" s="8"/>
-      <c r="AC48" s="7"/>
-      <c r="AD48" s="7"/>
-      <c r="AE48" s="7"/>
-    </row>
-    <row r="49" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>153</v>
       </c>
@@ -3493,29 +2721,14 @@
       <c r="H49" s="6"/>
       <c r="I49" s="7"/>
       <c r="J49" s="8"/>
-      <c r="K49" s="7"/>
+      <c r="K49" s="6"/>
       <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
+      <c r="M49" s="8"/>
       <c r="N49" s="6"/>
       <c r="O49" s="7"/>
       <c r="P49" s="8"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="7"/>
-      <c r="X49" s="7"/>
-      <c r="Y49" s="7"/>
-      <c r="Z49" s="6"/>
-      <c r="AA49" s="7"/>
-      <c r="AB49" s="8"/>
-      <c r="AC49" s="7"/>
-      <c r="AD49" s="7"/>
-      <c r="AE49" s="7"/>
-    </row>
-    <row r="50" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>152</v>
       </c>
@@ -3528,29 +2741,14 @@
       <c r="H50" s="6"/>
       <c r="I50" s="7"/>
       <c r="J50" s="8"/>
-      <c r="K50" s="7"/>
+      <c r="K50" s="6"/>
       <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
+      <c r="M50" s="8"/>
       <c r="N50" s="6"/>
       <c r="O50" s="7"/>
       <c r="P50" s="8"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="7"/>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="7"/>
-      <c r="Z50" s="6"/>
-      <c r="AA50" s="7"/>
-      <c r="AB50" s="8"/>
-      <c r="AC50" s="7"/>
-      <c r="AD50" s="7"/>
-      <c r="AE50" s="7"/>
-    </row>
-    <row r="51" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>151</v>
       </c>
@@ -3563,29 +2761,14 @@
       <c r="H51" s="6"/>
       <c r="I51" s="7"/>
       <c r="J51" s="8"/>
-      <c r="K51" s="7"/>
+      <c r="K51" s="6"/>
       <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
+      <c r="M51" s="8"/>
       <c r="N51" s="6"/>
       <c r="O51" s="7"/>
       <c r="P51" s="8"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="7"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="7"/>
-      <c r="X51" s="7"/>
-      <c r="Y51" s="7"/>
-      <c r="Z51" s="6"/>
-      <c r="AA51" s="7"/>
-      <c r="AB51" s="8"/>
-      <c r="AC51" s="7"/>
-      <c r="AD51" s="7"/>
-      <c r="AE51" s="7"/>
-    </row>
-    <row r="52" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>150</v>
       </c>
@@ -3598,29 +2781,14 @@
       <c r="H52" s="6"/>
       <c r="I52" s="7"/>
       <c r="J52" s="8"/>
-      <c r="K52" s="7"/>
+      <c r="K52" s="6"/>
       <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
+      <c r="M52" s="8"/>
       <c r="N52" s="6"/>
       <c r="O52" s="7"/>
       <c r="P52" s="8"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="7"/>
-      <c r="Y52" s="7"/>
-      <c r="Z52" s="6"/>
-      <c r="AA52" s="7"/>
-      <c r="AB52" s="8"/>
-      <c r="AC52" s="7"/>
-      <c r="AD52" s="7"/>
-      <c r="AE52" s="7"/>
-    </row>
-    <row r="53" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>149</v>
       </c>
@@ -3633,29 +2801,14 @@
       <c r="H53" s="6"/>
       <c r="I53" s="7"/>
       <c r="J53" s="8"/>
-      <c r="K53" s="7"/>
+      <c r="K53" s="6"/>
       <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
+      <c r="M53" s="8"/>
       <c r="N53" s="6"/>
       <c r="O53" s="7"/>
       <c r="P53" s="8"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="7"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="7"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="7"/>
-      <c r="X53" s="7"/>
-      <c r="Y53" s="7"/>
-      <c r="Z53" s="6"/>
-      <c r="AA53" s="7"/>
-      <c r="AB53" s="8"/>
-      <c r="AC53" s="7"/>
-      <c r="AD53" s="7"/>
-      <c r="AE53" s="7"/>
-    </row>
-    <row r="54" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>148</v>
       </c>
@@ -3668,29 +2821,14 @@
       <c r="H54" s="6"/>
       <c r="I54" s="7"/>
       <c r="J54" s="8"/>
-      <c r="K54" s="7"/>
+      <c r="K54" s="6"/>
       <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
+      <c r="M54" s="8"/>
       <c r="N54" s="6"/>
       <c r="O54" s="7"/>
       <c r="P54" s="8"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="7"/>
-      <c r="V54" s="8"/>
-      <c r="W54" s="7"/>
-      <c r="X54" s="7"/>
-      <c r="Y54" s="7"/>
-      <c r="Z54" s="6"/>
-      <c r="AA54" s="7"/>
-      <c r="AB54" s="8"/>
-      <c r="AC54" s="7"/>
-      <c r="AD54" s="7"/>
-      <c r="AE54" s="7"/>
-    </row>
-    <row r="55" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>147</v>
       </c>
@@ -3703,29 +2841,14 @@
       <c r="H55" s="6"/>
       <c r="I55" s="7"/>
       <c r="J55" s="8"/>
-      <c r="K55" s="7"/>
+      <c r="K55" s="6"/>
       <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
+      <c r="M55" s="8"/>
       <c r="N55" s="6"/>
       <c r="O55" s="7"/>
       <c r="P55" s="8"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="7"/>
-      <c r="V55" s="8"/>
-      <c r="W55" s="7"/>
-      <c r="X55" s="7"/>
-      <c r="Y55" s="7"/>
-      <c r="Z55" s="6"/>
-      <c r="AA55" s="7"/>
-      <c r="AB55" s="8"/>
-      <c r="AC55" s="7"/>
-      <c r="AD55" s="7"/>
-      <c r="AE55" s="7"/>
-    </row>
-    <row r="56" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>146</v>
       </c>
@@ -3738,29 +2861,14 @@
       <c r="H56" s="6"/>
       <c r="I56" s="7"/>
       <c r="J56" s="8"/>
-      <c r="K56" s="7"/>
+      <c r="K56" s="6"/>
       <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
+      <c r="M56" s="8"/>
       <c r="N56" s="6"/>
       <c r="O56" s="7"/>
       <c r="P56" s="8"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="7"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="7"/>
-      <c r="X56" s="7"/>
-      <c r="Y56" s="7"/>
-      <c r="Z56" s="6"/>
-      <c r="AA56" s="7"/>
-      <c r="AB56" s="8"/>
-      <c r="AC56" s="7"/>
-      <c r="AD56" s="7"/>
-      <c r="AE56" s="7"/>
-    </row>
-    <row r="57" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>145</v>
       </c>
@@ -3773,29 +2881,14 @@
       <c r="H57" s="6"/>
       <c r="I57" s="7"/>
       <c r="J57" s="8"/>
-      <c r="K57" s="7"/>
+      <c r="K57" s="6"/>
       <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
+      <c r="M57" s="8"/>
       <c r="N57" s="6"/>
       <c r="O57" s="7"/>
       <c r="P57" s="8"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="8"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
-      <c r="Z57" s="6"/>
-      <c r="AA57" s="7"/>
-      <c r="AB57" s="8"/>
-      <c r="AC57" s="7"/>
-      <c r="AD57" s="7"/>
-      <c r="AE57" s="7"/>
-    </row>
-    <row r="58" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>144</v>
       </c>
@@ -3808,29 +2901,14 @@
       <c r="H58" s="6"/>
       <c r="I58" s="7"/>
       <c r="J58" s="8"/>
-      <c r="K58" s="7"/>
+      <c r="K58" s="6"/>
       <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
+      <c r="M58" s="8"/>
       <c r="N58" s="6"/>
       <c r="O58" s="7"/>
       <c r="P58" s="8"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="7"/>
-      <c r="V58" s="8"/>
-      <c r="W58" s="7"/>
-      <c r="X58" s="7"/>
-      <c r="Y58" s="7"/>
-      <c r="Z58" s="6"/>
-      <c r="AA58" s="7"/>
-      <c r="AB58" s="8"/>
-      <c r="AC58" s="7"/>
-      <c r="AD58" s="7"/>
-      <c r="AE58" s="7"/>
-    </row>
-    <row r="59" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>143</v>
       </c>
@@ -3843,29 +2921,14 @@
       <c r="H59" s="6"/>
       <c r="I59" s="7"/>
       <c r="J59" s="8"/>
-      <c r="K59" s="7"/>
+      <c r="K59" s="6"/>
       <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
+      <c r="M59" s="8"/>
       <c r="N59" s="6"/>
       <c r="O59" s="7"/>
       <c r="P59" s="8"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="7"/>
-      <c r="V59" s="8"/>
-      <c r="W59" s="7"/>
-      <c r="X59" s="7"/>
-      <c r="Y59" s="7"/>
-      <c r="Z59" s="6"/>
-      <c r="AA59" s="7"/>
-      <c r="AB59" s="8"/>
-      <c r="AC59" s="7"/>
-      <c r="AD59" s="7"/>
-      <c r="AE59" s="7"/>
-    </row>
-    <row r="60" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>142</v>
       </c>
@@ -3878,29 +2941,14 @@
       <c r="H60" s="6"/>
       <c r="I60" s="7"/>
       <c r="J60" s="8"/>
-      <c r="K60" s="7"/>
+      <c r="K60" s="6"/>
       <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
+      <c r="M60" s="8"/>
       <c r="N60" s="6"/>
       <c r="O60" s="7"/>
       <c r="P60" s="8"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="7"/>
-      <c r="V60" s="8"/>
-      <c r="W60" s="7"/>
-      <c r="X60" s="7"/>
-      <c r="Y60" s="7"/>
-      <c r="Z60" s="6"/>
-      <c r="AA60" s="7"/>
-      <c r="AB60" s="8"/>
-      <c r="AC60" s="7"/>
-      <c r="AD60" s="7"/>
-      <c r="AE60" s="7"/>
-    </row>
-    <row r="61" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>141</v>
       </c>
@@ -3913,29 +2961,14 @@
       <c r="H61" s="6"/>
       <c r="I61" s="7"/>
       <c r="J61" s="8"/>
-      <c r="K61" s="7"/>
+      <c r="K61" s="6"/>
       <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
+      <c r="M61" s="8"/>
       <c r="N61" s="6"/>
       <c r="O61" s="7"/>
       <c r="P61" s="8"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="7"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="7"/>
-      <c r="V61" s="8"/>
-      <c r="W61" s="7"/>
-      <c r="X61" s="7"/>
-      <c r="Y61" s="7"/>
-      <c r="Z61" s="6"/>
-      <c r="AA61" s="7"/>
-      <c r="AB61" s="8"/>
-      <c r="AC61" s="7"/>
-      <c r="AD61" s="7"/>
-      <c r="AE61" s="7"/>
-    </row>
-    <row r="62" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>140</v>
       </c>
@@ -3948,29 +2981,14 @@
       <c r="H62" s="6"/>
       <c r="I62" s="7"/>
       <c r="J62" s="8"/>
-      <c r="K62" s="7"/>
+      <c r="K62" s="6"/>
       <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
+      <c r="M62" s="8"/>
       <c r="N62" s="6"/>
       <c r="O62" s="7"/>
       <c r="P62" s="8"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="7"/>
-      <c r="T62" s="6"/>
-      <c r="U62" s="7"/>
-      <c r="V62" s="8"/>
-      <c r="W62" s="7"/>
-      <c r="X62" s="7"/>
-      <c r="Y62" s="7"/>
-      <c r="Z62" s="6"/>
-      <c r="AA62" s="7"/>
-      <c r="AB62" s="8"/>
-      <c r="AC62" s="7"/>
-      <c r="AD62" s="7"/>
-      <c r="AE62" s="7"/>
-    </row>
-    <row r="63" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>139</v>
       </c>
@@ -3983,29 +3001,14 @@
       <c r="H63" s="6"/>
       <c r="I63" s="7"/>
       <c r="J63" s="8"/>
-      <c r="K63" s="7"/>
+      <c r="K63" s="6"/>
       <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
+      <c r="M63" s="8"/>
       <c r="N63" s="6"/>
       <c r="O63" s="7"/>
       <c r="P63" s="8"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="7"/>
-      <c r="T63" s="6"/>
-      <c r="U63" s="7"/>
-      <c r="V63" s="8"/>
-      <c r="W63" s="7"/>
-      <c r="X63" s="7"/>
-      <c r="Y63" s="7"/>
-      <c r="Z63" s="6"/>
-      <c r="AA63" s="7"/>
-      <c r="AB63" s="8"/>
-      <c r="AC63" s="7"/>
-      <c r="AD63" s="7"/>
-      <c r="AE63" s="7"/>
-    </row>
-    <row r="64" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>138</v>
       </c>
@@ -4018,29 +3021,14 @@
       <c r="H64" s="6"/>
       <c r="I64" s="7"/>
       <c r="J64" s="8"/>
-      <c r="K64" s="7"/>
+      <c r="K64" s="6"/>
       <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
+      <c r="M64" s="8"/>
       <c r="N64" s="6"/>
       <c r="O64" s="7"/>
       <c r="P64" s="8"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="7"/>
-      <c r="T64" s="6"/>
-      <c r="U64" s="7"/>
-      <c r="V64" s="8"/>
-      <c r="W64" s="7"/>
-      <c r="X64" s="7"/>
-      <c r="Y64" s="7"/>
-      <c r="Z64" s="6"/>
-      <c r="AA64" s="7"/>
-      <c r="AB64" s="8"/>
-      <c r="AC64" s="7"/>
-      <c r="AD64" s="7"/>
-      <c r="AE64" s="7"/>
-    </row>
-    <row r="65" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>137</v>
       </c>
@@ -4053,29 +3041,14 @@
       <c r="H65" s="6"/>
       <c r="I65" s="7"/>
       <c r="J65" s="8"/>
-      <c r="K65" s="7"/>
+      <c r="K65" s="6"/>
       <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
+      <c r="M65" s="8"/>
       <c r="N65" s="6"/>
       <c r="O65" s="7"/>
       <c r="P65" s="8"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="7"/>
-      <c r="T65" s="6"/>
-      <c r="U65" s="7"/>
-      <c r="V65" s="8"/>
-      <c r="W65" s="7"/>
-      <c r="X65" s="7"/>
-      <c r="Y65" s="7"/>
-      <c r="Z65" s="6"/>
-      <c r="AA65" s="7"/>
-      <c r="AB65" s="8"/>
-      <c r="AC65" s="7"/>
-      <c r="AD65" s="7"/>
-      <c r="AE65" s="7"/>
-    </row>
-    <row r="66" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>136</v>
       </c>
@@ -4088,29 +3061,14 @@
       <c r="H66" s="6"/>
       <c r="I66" s="7"/>
       <c r="J66" s="8"/>
-      <c r="K66" s="7"/>
+      <c r="K66" s="6"/>
       <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
+      <c r="M66" s="8"/>
       <c r="N66" s="6"/>
       <c r="O66" s="7"/>
       <c r="P66" s="8"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="7"/>
-      <c r="V66" s="8"/>
-      <c r="W66" s="7"/>
-      <c r="X66" s="7"/>
-      <c r="Y66" s="7"/>
-      <c r="Z66" s="6"/>
-      <c r="AA66" s="7"/>
-      <c r="AB66" s="8"/>
-      <c r="AC66" s="7"/>
-      <c r="AD66" s="7"/>
-      <c r="AE66" s="7"/>
-    </row>
-    <row r="67" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>135</v>
       </c>
@@ -4123,29 +3081,14 @@
       <c r="H67" s="6"/>
       <c r="I67" s="7"/>
       <c r="J67" s="8"/>
-      <c r="K67" s="7"/>
+      <c r="K67" s="6"/>
       <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
+      <c r="M67" s="8"/>
       <c r="N67" s="6"/>
       <c r="O67" s="7"/>
       <c r="P67" s="8"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="6"/>
-      <c r="U67" s="7"/>
-      <c r="V67" s="8"/>
-      <c r="W67" s="7"/>
-      <c r="X67" s="7"/>
-      <c r="Y67" s="7"/>
-      <c r="Z67" s="6"/>
-      <c r="AA67" s="7"/>
-      <c r="AB67" s="8"/>
-      <c r="AC67" s="7"/>
-      <c r="AD67" s="7"/>
-      <c r="AE67" s="7"/>
-    </row>
-    <row r="68" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>134</v>
       </c>
@@ -4158,29 +3101,14 @@
       <c r="H68" s="6"/>
       <c r="I68" s="7"/>
       <c r="J68" s="8"/>
-      <c r="K68" s="7"/>
+      <c r="K68" s="6"/>
       <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
+      <c r="M68" s="8"/>
       <c r="N68" s="6"/>
       <c r="O68" s="7"/>
       <c r="P68" s="8"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="6"/>
-      <c r="U68" s="7"/>
-      <c r="V68" s="8"/>
-      <c r="W68" s="7"/>
-      <c r="X68" s="7"/>
-      <c r="Y68" s="7"/>
-      <c r="Z68" s="6"/>
-      <c r="AA68" s="7"/>
-      <c r="AB68" s="8"/>
-      <c r="AC68" s="7"/>
-      <c r="AD68" s="7"/>
-      <c r="AE68" s="7"/>
-    </row>
-    <row r="69" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>133</v>
       </c>
@@ -4193,29 +3121,14 @@
       <c r="H69" s="6"/>
       <c r="I69" s="7"/>
       <c r="J69" s="8"/>
-      <c r="K69" s="7"/>
+      <c r="K69" s="6"/>
       <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
+      <c r="M69" s="8"/>
       <c r="N69" s="6"/>
       <c r="O69" s="7"/>
       <c r="P69" s="8"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
-      <c r="S69" s="7"/>
-      <c r="T69" s="6"/>
-      <c r="U69" s="7"/>
-      <c r="V69" s="8"/>
-      <c r="W69" s="7"/>
-      <c r="X69" s="7"/>
-      <c r="Y69" s="7"/>
-      <c r="Z69" s="6"/>
-      <c r="AA69" s="7"/>
-      <c r="AB69" s="8"/>
-      <c r="AC69" s="7"/>
-      <c r="AD69" s="7"/>
-      <c r="AE69" s="7"/>
-    </row>
-    <row r="70" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>132</v>
       </c>
@@ -4228,29 +3141,14 @@
       <c r="H70" s="6"/>
       <c r="I70" s="7"/>
       <c r="J70" s="8"/>
-      <c r="K70" s="7"/>
+      <c r="K70" s="6"/>
       <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
+      <c r="M70" s="8"/>
       <c r="N70" s="6"/>
       <c r="O70" s="7"/>
       <c r="P70" s="8"/>
-      <c r="Q70" s="7"/>
-      <c r="R70" s="7"/>
-      <c r="S70" s="7"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="7"/>
-      <c r="V70" s="8"/>
-      <c r="W70" s="7"/>
-      <c r="X70" s="7"/>
-      <c r="Y70" s="7"/>
-      <c r="Z70" s="6"/>
-      <c r="AA70" s="7"/>
-      <c r="AB70" s="8"/>
-      <c r="AC70" s="7"/>
-      <c r="AD70" s="7"/>
-      <c r="AE70" s="7"/>
-    </row>
-    <row r="71" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>131</v>
       </c>
@@ -4263,29 +3161,14 @@
       <c r="H71" s="6"/>
       <c r="I71" s="7"/>
       <c r="J71" s="8"/>
-      <c r="K71" s="7"/>
+      <c r="K71" s="6"/>
       <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
+      <c r="M71" s="8"/>
       <c r="N71" s="6"/>
       <c r="O71" s="7"/>
       <c r="P71" s="8"/>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="7"/>
-      <c r="T71" s="6"/>
-      <c r="U71" s="7"/>
-      <c r="V71" s="8"/>
-      <c r="W71" s="7"/>
-      <c r="X71" s="7"/>
-      <c r="Y71" s="7"/>
-      <c r="Z71" s="6"/>
-      <c r="AA71" s="7"/>
-      <c r="AB71" s="8"/>
-      <c r="AC71" s="7"/>
-      <c r="AD71" s="7"/>
-      <c r="AE71" s="7"/>
-    </row>
-    <row r="72" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>130</v>
       </c>
@@ -4298,29 +3181,14 @@
       <c r="H72" s="6"/>
       <c r="I72" s="7"/>
       <c r="J72" s="8"/>
-      <c r="K72" s="7"/>
+      <c r="K72" s="6"/>
       <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
+      <c r="M72" s="8"/>
       <c r="N72" s="6"/>
       <c r="O72" s="7"/>
       <c r="P72" s="8"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="7"/>
-      <c r="T72" s="6"/>
-      <c r="U72" s="7"/>
-      <c r="V72" s="8"/>
-      <c r="W72" s="7"/>
-      <c r="X72" s="7"/>
-      <c r="Y72" s="7"/>
-      <c r="Z72" s="6"/>
-      <c r="AA72" s="7"/>
-      <c r="AB72" s="8"/>
-      <c r="AC72" s="7"/>
-      <c r="AD72" s="7"/>
-      <c r="AE72" s="7"/>
-    </row>
-    <row r="73" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>129</v>
       </c>
@@ -4333,29 +3201,14 @@
       <c r="H73" s="6"/>
       <c r="I73" s="7"/>
       <c r="J73" s="8"/>
-      <c r="K73" s="7"/>
+      <c r="K73" s="6"/>
       <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
+      <c r="M73" s="8"/>
       <c r="N73" s="6"/>
       <c r="O73" s="7"/>
       <c r="P73" s="8"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="7"/>
-      <c r="T73" s="6"/>
-      <c r="U73" s="7"/>
-      <c r="V73" s="8"/>
-      <c r="W73" s="7"/>
-      <c r="X73" s="7"/>
-      <c r="Y73" s="7"/>
-      <c r="Z73" s="6"/>
-      <c r="AA73" s="7"/>
-      <c r="AB73" s="8"/>
-      <c r="AC73" s="7"/>
-      <c r="AD73" s="7"/>
-      <c r="AE73" s="7"/>
-    </row>
-    <row r="74" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>128</v>
       </c>
@@ -4368,29 +3221,14 @@
       <c r="H74" s="6"/>
       <c r="I74" s="7"/>
       <c r="J74" s="8"/>
-      <c r="K74" s="7"/>
+      <c r="K74" s="6"/>
       <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
+      <c r="M74" s="8"/>
       <c r="N74" s="6"/>
       <c r="O74" s="7"/>
       <c r="P74" s="8"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="7"/>
-      <c r="T74" s="6"/>
-      <c r="U74" s="7"/>
-      <c r="V74" s="8"/>
-      <c r="W74" s="7"/>
-      <c r="X74" s="7"/>
-      <c r="Y74" s="7"/>
-      <c r="Z74" s="6"/>
-      <c r="AA74" s="7"/>
-      <c r="AB74" s="8"/>
-      <c r="AC74" s="7"/>
-      <c r="AD74" s="7"/>
-      <c r="AE74" s="7"/>
-    </row>
-    <row r="75" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>127</v>
       </c>
@@ -4403,29 +3241,14 @@
       <c r="H75" s="6"/>
       <c r="I75" s="7"/>
       <c r="J75" s="8"/>
-      <c r="K75" s="7"/>
+      <c r="K75" s="6"/>
       <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
+      <c r="M75" s="8"/>
       <c r="N75" s="6"/>
       <c r="O75" s="7"/>
       <c r="P75" s="8"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="7"/>
-      <c r="T75" s="6"/>
-      <c r="U75" s="7"/>
-      <c r="V75" s="8"/>
-      <c r="W75" s="7"/>
-      <c r="X75" s="7"/>
-      <c r="Y75" s="7"/>
-      <c r="Z75" s="6"/>
-      <c r="AA75" s="7"/>
-      <c r="AB75" s="8"/>
-      <c r="AC75" s="7"/>
-      <c r="AD75" s="7"/>
-      <c r="AE75" s="7"/>
-    </row>
-    <row r="76" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>126</v>
       </c>
@@ -4438,29 +3261,14 @@
       <c r="H76" s="6"/>
       <c r="I76" s="7"/>
       <c r="J76" s="8"/>
-      <c r="K76" s="7"/>
+      <c r="K76" s="6"/>
       <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
+      <c r="M76" s="8"/>
       <c r="N76" s="6"/>
       <c r="O76" s="7"/>
       <c r="P76" s="8"/>
-      <c r="Q76" s="7"/>
-      <c r="R76" s="7"/>
-      <c r="S76" s="7"/>
-      <c r="T76" s="6"/>
-      <c r="U76" s="7"/>
-      <c r="V76" s="8"/>
-      <c r="W76" s="7"/>
-      <c r="X76" s="7"/>
-      <c r="Y76" s="7"/>
-      <c r="Z76" s="6"/>
-      <c r="AA76" s="7"/>
-      <c r="AB76" s="8"/>
-      <c r="AC76" s="7"/>
-      <c r="AD76" s="7"/>
-      <c r="AE76" s="7"/>
-    </row>
-    <row r="77" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>125</v>
       </c>
@@ -4473,29 +3281,14 @@
       <c r="H77" s="6"/>
       <c r="I77" s="7"/>
       <c r="J77" s="8"/>
-      <c r="K77" s="7"/>
+      <c r="K77" s="6"/>
       <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
+      <c r="M77" s="8"/>
       <c r="N77" s="6"/>
       <c r="O77" s="7"/>
       <c r="P77" s="8"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="7"/>
-      <c r="T77" s="6"/>
-      <c r="U77" s="7"/>
-      <c r="V77" s="8"/>
-      <c r="W77" s="7"/>
-      <c r="X77" s="7"/>
-      <c r="Y77" s="7"/>
-      <c r="Z77" s="6"/>
-      <c r="AA77" s="7"/>
-      <c r="AB77" s="8"/>
-      <c r="AC77" s="7"/>
-      <c r="AD77" s="7"/>
-      <c r="AE77" s="7"/>
-    </row>
-    <row r="78" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>124</v>
       </c>
@@ -4508,29 +3301,14 @@
       <c r="H78" s="6"/>
       <c r="I78" s="7"/>
       <c r="J78" s="8"/>
-      <c r="K78" s="7"/>
+      <c r="K78" s="6"/>
       <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
+      <c r="M78" s="8"/>
       <c r="N78" s="6"/>
       <c r="O78" s="7"/>
       <c r="P78" s="8"/>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="7"/>
-      <c r="S78" s="7"/>
-      <c r="T78" s="6"/>
-      <c r="U78" s="7"/>
-      <c r="V78" s="8"/>
-      <c r="W78" s="7"/>
-      <c r="X78" s="7"/>
-      <c r="Y78" s="7"/>
-      <c r="Z78" s="6"/>
-      <c r="AA78" s="7"/>
-      <c r="AB78" s="8"/>
-      <c r="AC78" s="7"/>
-      <c r="AD78" s="7"/>
-      <c r="AE78" s="7"/>
-    </row>
-    <row r="79" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>123</v>
       </c>
@@ -4543,29 +3321,14 @@
       <c r="H79" s="6"/>
       <c r="I79" s="7"/>
       <c r="J79" s="8"/>
-      <c r="K79" s="7"/>
+      <c r="K79" s="6"/>
       <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
+      <c r="M79" s="8"/>
       <c r="N79" s="6"/>
       <c r="O79" s="7"/>
       <c r="P79" s="8"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
-      <c r="S79" s="7"/>
-      <c r="T79" s="6"/>
-      <c r="U79" s="7"/>
-      <c r="V79" s="8"/>
-      <c r="W79" s="7"/>
-      <c r="X79" s="7"/>
-      <c r="Y79" s="7"/>
-      <c r="Z79" s="6"/>
-      <c r="AA79" s="7"/>
-      <c r="AB79" s="8"/>
-      <c r="AC79" s="7"/>
-      <c r="AD79" s="7"/>
-      <c r="AE79" s="7"/>
-    </row>
-    <row r="80" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>122</v>
       </c>
@@ -4578,29 +3341,14 @@
       <c r="H80" s="6"/>
       <c r="I80" s="7"/>
       <c r="J80" s="8"/>
-      <c r="K80" s="7"/>
+      <c r="K80" s="6"/>
       <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
+      <c r="M80" s="8"/>
       <c r="N80" s="6"/>
       <c r="O80" s="7"/>
       <c r="P80" s="8"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="7"/>
-      <c r="T80" s="6"/>
-      <c r="U80" s="7"/>
-      <c r="V80" s="8"/>
-      <c r="W80" s="7"/>
-      <c r="X80" s="7"/>
-      <c r="Y80" s="7"/>
-      <c r="Z80" s="6"/>
-      <c r="AA80" s="7"/>
-      <c r="AB80" s="8"/>
-      <c r="AC80" s="7"/>
-      <c r="AD80" s="7"/>
-      <c r="AE80" s="7"/>
-    </row>
-    <row r="81" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>121</v>
       </c>
@@ -4613,29 +3361,14 @@
       <c r="H81" s="6"/>
       <c r="I81" s="7"/>
       <c r="J81" s="8"/>
-      <c r="K81" s="7"/>
+      <c r="K81" s="6"/>
       <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
+      <c r="M81" s="8"/>
       <c r="N81" s="6"/>
       <c r="O81" s="7"/>
       <c r="P81" s="8"/>
-      <c r="Q81" s="7"/>
-      <c r="R81" s="7"/>
-      <c r="S81" s="7"/>
-      <c r="T81" s="6"/>
-      <c r="U81" s="7"/>
-      <c r="V81" s="8"/>
-      <c r="W81" s="7"/>
-      <c r="X81" s="7"/>
-      <c r="Y81" s="7"/>
-      <c r="Z81" s="6"/>
-      <c r="AA81" s="7"/>
-      <c r="AB81" s="8"/>
-      <c r="AC81" s="7"/>
-      <c r="AD81" s="7"/>
-      <c r="AE81" s="7"/>
-    </row>
-    <row r="82" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>120</v>
       </c>
@@ -4648,29 +3381,14 @@
       <c r="H82" s="6"/>
       <c r="I82" s="7"/>
       <c r="J82" s="8"/>
-      <c r="K82" s="7"/>
+      <c r="K82" s="6"/>
       <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
+      <c r="M82" s="8"/>
       <c r="N82" s="6"/>
       <c r="O82" s="7"/>
       <c r="P82" s="8"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
-      <c r="S82" s="7"/>
-      <c r="T82" s="6"/>
-      <c r="U82" s="7"/>
-      <c r="V82" s="8"/>
-      <c r="W82" s="7"/>
-      <c r="X82" s="7"/>
-      <c r="Y82" s="7"/>
-      <c r="Z82" s="6"/>
-      <c r="AA82" s="7"/>
-      <c r="AB82" s="8"/>
-      <c r="AC82" s="7"/>
-      <c r="AD82" s="7"/>
-      <c r="AE82" s="7"/>
-    </row>
-    <row r="83" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>119</v>
       </c>
@@ -4683,29 +3401,14 @@
       <c r="H83" s="6"/>
       <c r="I83" s="7"/>
       <c r="J83" s="8"/>
-      <c r="K83" s="7"/>
+      <c r="K83" s="6"/>
       <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
+      <c r="M83" s="8"/>
       <c r="N83" s="6"/>
       <c r="O83" s="7"/>
       <c r="P83" s="8"/>
-      <c r="Q83" s="7"/>
-      <c r="R83" s="7"/>
-      <c r="S83" s="7"/>
-      <c r="T83" s="6"/>
-      <c r="U83" s="7"/>
-      <c r="V83" s="8"/>
-      <c r="W83" s="7"/>
-      <c r="X83" s="7"/>
-      <c r="Y83" s="7"/>
-      <c r="Z83" s="6"/>
-      <c r="AA83" s="7"/>
-      <c r="AB83" s="8"/>
-      <c r="AC83" s="7"/>
-      <c r="AD83" s="7"/>
-      <c r="AE83" s="7"/>
-    </row>
-    <row r="84" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>118</v>
       </c>
@@ -4718,29 +3421,14 @@
       <c r="H84" s="6"/>
       <c r="I84" s="7"/>
       <c r="J84" s="8"/>
-      <c r="K84" s="7"/>
+      <c r="K84" s="6"/>
       <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
+      <c r="M84" s="8"/>
       <c r="N84" s="6"/>
       <c r="O84" s="7"/>
       <c r="P84" s="8"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="7"/>
-      <c r="T84" s="6"/>
-      <c r="U84" s="7"/>
-      <c r="V84" s="8"/>
-      <c r="W84" s="7"/>
-      <c r="X84" s="7"/>
-      <c r="Y84" s="7"/>
-      <c r="Z84" s="6"/>
-      <c r="AA84" s="7"/>
-      <c r="AB84" s="8"/>
-      <c r="AC84" s="7"/>
-      <c r="AD84" s="7"/>
-      <c r="AE84" s="7"/>
-    </row>
-    <row r="85" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>117</v>
       </c>
@@ -4753,29 +3441,14 @@
       <c r="H85" s="6"/>
       <c r="I85" s="7"/>
       <c r="J85" s="8"/>
-      <c r="K85" s="7"/>
+      <c r="K85" s="6"/>
       <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
+      <c r="M85" s="8"/>
       <c r="N85" s="6"/>
       <c r="O85" s="7"/>
       <c r="P85" s="8"/>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="7"/>
-      <c r="T85" s="6"/>
-      <c r="U85" s="7"/>
-      <c r="V85" s="8"/>
-      <c r="W85" s="7"/>
-      <c r="X85" s="7"/>
-      <c r="Y85" s="7"/>
-      <c r="Z85" s="6"/>
-      <c r="AA85" s="7"/>
-      <c r="AB85" s="8"/>
-      <c r="AC85" s="7"/>
-      <c r="AD85" s="7"/>
-      <c r="AE85" s="7"/>
-    </row>
-    <row r="86" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>116</v>
       </c>
@@ -4788,29 +3461,14 @@
       <c r="H86" s="6"/>
       <c r="I86" s="7"/>
       <c r="J86" s="8"/>
-      <c r="K86" s="7"/>
+      <c r="K86" s="6"/>
       <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
+      <c r="M86" s="8"/>
       <c r="N86" s="6"/>
       <c r="O86" s="7"/>
       <c r="P86" s="8"/>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
-      <c r="S86" s="7"/>
-      <c r="T86" s="6"/>
-      <c r="U86" s="7"/>
-      <c r="V86" s="8"/>
-      <c r="W86" s="7"/>
-      <c r="X86" s="7"/>
-      <c r="Y86" s="7"/>
-      <c r="Z86" s="6"/>
-      <c r="AA86" s="7"/>
-      <c r="AB86" s="8"/>
-      <c r="AC86" s="7"/>
-      <c r="AD86" s="7"/>
-      <c r="AE86" s="7"/>
-    </row>
-    <row r="87" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>115</v>
       </c>
@@ -4823,29 +3481,14 @@
       <c r="H87" s="6"/>
       <c r="I87" s="7"/>
       <c r="J87" s="8"/>
-      <c r="K87" s="7"/>
+      <c r="K87" s="6"/>
       <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
+      <c r="M87" s="8"/>
       <c r="N87" s="6"/>
       <c r="O87" s="7"/>
       <c r="P87" s="8"/>
-      <c r="Q87" s="7"/>
-      <c r="R87" s="7"/>
-      <c r="S87" s="7"/>
-      <c r="T87" s="6"/>
-      <c r="U87" s="7"/>
-      <c r="V87" s="8"/>
-      <c r="W87" s="7"/>
-      <c r="X87" s="7"/>
-      <c r="Y87" s="7"/>
-      <c r="Z87" s="6"/>
-      <c r="AA87" s="7"/>
-      <c r="AB87" s="8"/>
-      <c r="AC87" s="7"/>
-      <c r="AD87" s="7"/>
-      <c r="AE87" s="7"/>
-    </row>
-    <row r="88" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>114</v>
       </c>
@@ -4858,29 +3501,14 @@
       <c r="H88" s="6"/>
       <c r="I88" s="7"/>
       <c r="J88" s="8"/>
-      <c r="K88" s="7"/>
+      <c r="K88" s="6"/>
       <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
+      <c r="M88" s="8"/>
       <c r="N88" s="6"/>
       <c r="O88" s="7"/>
       <c r="P88" s="8"/>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="7"/>
-      <c r="S88" s="7"/>
-      <c r="T88" s="6"/>
-      <c r="U88" s="7"/>
-      <c r="V88" s="8"/>
-      <c r="W88" s="7"/>
-      <c r="X88" s="7"/>
-      <c r="Y88" s="7"/>
-      <c r="Z88" s="6"/>
-      <c r="AA88" s="7"/>
-      <c r="AB88" s="8"/>
-      <c r="AC88" s="7"/>
-      <c r="AD88" s="7"/>
-      <c r="AE88" s="7"/>
-    </row>
-    <row r="89" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>113</v>
       </c>
@@ -4893,29 +3521,14 @@
       <c r="H89" s="6"/>
       <c r="I89" s="7"/>
       <c r="J89" s="8"/>
-      <c r="K89" s="7"/>
+      <c r="K89" s="6"/>
       <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
+      <c r="M89" s="8"/>
       <c r="N89" s="6"/>
       <c r="O89" s="7"/>
       <c r="P89" s="8"/>
-      <c r="Q89" s="7"/>
-      <c r="R89" s="7"/>
-      <c r="S89" s="7"/>
-      <c r="T89" s="6"/>
-      <c r="U89" s="7"/>
-      <c r="V89" s="8"/>
-      <c r="W89" s="7"/>
-      <c r="X89" s="7"/>
-      <c r="Y89" s="7"/>
-      <c r="Z89" s="6"/>
-      <c r="AA89" s="7"/>
-      <c r="AB89" s="8"/>
-      <c r="AC89" s="7"/>
-      <c r="AD89" s="7"/>
-      <c r="AE89" s="7"/>
-    </row>
-    <row r="90" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>112</v>
       </c>
@@ -4928,29 +3541,14 @@
       <c r="H90" s="6"/>
       <c r="I90" s="7"/>
       <c r="J90" s="8"/>
-      <c r="K90" s="7"/>
+      <c r="K90" s="6"/>
       <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
+      <c r="M90" s="8"/>
       <c r="N90" s="6"/>
       <c r="O90" s="7"/>
       <c r="P90" s="8"/>
-      <c r="Q90" s="7"/>
-      <c r="R90" s="7"/>
-      <c r="S90" s="7"/>
-      <c r="T90" s="6"/>
-      <c r="U90" s="7"/>
-      <c r="V90" s="8"/>
-      <c r="W90" s="7"/>
-      <c r="X90" s="7"/>
-      <c r="Y90" s="7"/>
-      <c r="Z90" s="6"/>
-      <c r="AA90" s="7"/>
-      <c r="AB90" s="8"/>
-      <c r="AC90" s="7"/>
-      <c r="AD90" s="7"/>
-      <c r="AE90" s="7"/>
-    </row>
-    <row r="91" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>111</v>
       </c>
@@ -4963,29 +3561,14 @@
       <c r="H91" s="6"/>
       <c r="I91" s="7"/>
       <c r="J91" s="8"/>
-      <c r="K91" s="7"/>
+      <c r="K91" s="6"/>
       <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
+      <c r="M91" s="8"/>
       <c r="N91" s="6"/>
       <c r="O91" s="7"/>
       <c r="P91" s="8"/>
-      <c r="Q91" s="7"/>
-      <c r="R91" s="7"/>
-      <c r="S91" s="7"/>
-      <c r="T91" s="6"/>
-      <c r="U91" s="7"/>
-      <c r="V91" s="8"/>
-      <c r="W91" s="7"/>
-      <c r="X91" s="7"/>
-      <c r="Y91" s="7"/>
-      <c r="Z91" s="6"/>
-      <c r="AA91" s="7"/>
-      <c r="AB91" s="8"/>
-      <c r="AC91" s="7"/>
-      <c r="AD91" s="7"/>
-      <c r="AE91" s="7"/>
-    </row>
-    <row r="92" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>110</v>
       </c>
@@ -4998,29 +3581,14 @@
       <c r="H92" s="6"/>
       <c r="I92" s="7"/>
       <c r="J92" s="8"/>
-      <c r="K92" s="7"/>
+      <c r="K92" s="6"/>
       <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
+      <c r="M92" s="8"/>
       <c r="N92" s="6"/>
       <c r="O92" s="7"/>
       <c r="P92" s="8"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="7"/>
-      <c r="T92" s="6"/>
-      <c r="U92" s="7"/>
-      <c r="V92" s="8"/>
-      <c r="W92" s="7"/>
-      <c r="X92" s="7"/>
-      <c r="Y92" s="7"/>
-      <c r="Z92" s="6"/>
-      <c r="AA92" s="7"/>
-      <c r="AB92" s="8"/>
-      <c r="AC92" s="7"/>
-      <c r="AD92" s="7"/>
-      <c r="AE92" s="7"/>
-    </row>
-    <row r="93" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>109</v>
       </c>
@@ -5033,29 +3601,14 @@
       <c r="H93" s="6"/>
       <c r="I93" s="7"/>
       <c r="J93" s="8"/>
-      <c r="K93" s="7"/>
+      <c r="K93" s="6"/>
       <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
+      <c r="M93" s="8"/>
       <c r="N93" s="6"/>
       <c r="O93" s="7"/>
       <c r="P93" s="8"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="7"/>
-      <c r="T93" s="6"/>
-      <c r="U93" s="7"/>
-      <c r="V93" s="8"/>
-      <c r="W93" s="7"/>
-      <c r="X93" s="7"/>
-      <c r="Y93" s="7"/>
-      <c r="Z93" s="6"/>
-      <c r="AA93" s="7"/>
-      <c r="AB93" s="8"/>
-      <c r="AC93" s="7"/>
-      <c r="AD93" s="7"/>
-      <c r="AE93" s="7"/>
-    </row>
-    <row r="94" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>108</v>
       </c>
@@ -5068,29 +3621,14 @@
       <c r="H94" s="6"/>
       <c r="I94" s="7"/>
       <c r="J94" s="8"/>
-      <c r="K94" s="7"/>
+      <c r="K94" s="6"/>
       <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
+      <c r="M94" s="8"/>
       <c r="N94" s="6"/>
       <c r="O94" s="7"/>
       <c r="P94" s="8"/>
-      <c r="Q94" s="7"/>
-      <c r="R94" s="7"/>
-      <c r="S94" s="7"/>
-      <c r="T94" s="6"/>
-      <c r="U94" s="7"/>
-      <c r="V94" s="8"/>
-      <c r="W94" s="7"/>
-      <c r="X94" s="7"/>
-      <c r="Y94" s="7"/>
-      <c r="Z94" s="6"/>
-      <c r="AA94" s="7"/>
-      <c r="AB94" s="8"/>
-      <c r="AC94" s="7"/>
-      <c r="AD94" s="7"/>
-      <c r="AE94" s="7"/>
-    </row>
-    <row r="95" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>107</v>
       </c>
@@ -5103,29 +3641,14 @@
       <c r="H95" s="6"/>
       <c r="I95" s="7"/>
       <c r="J95" s="8"/>
-      <c r="K95" s="7"/>
+      <c r="K95" s="6"/>
       <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
+      <c r="M95" s="8"/>
       <c r="N95" s="6"/>
       <c r="O95" s="7"/>
       <c r="P95" s="8"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-      <c r="S95" s="7"/>
-      <c r="T95" s="6"/>
-      <c r="U95" s="7"/>
-      <c r="V95" s="8"/>
-      <c r="W95" s="7"/>
-      <c r="X95" s="7"/>
-      <c r="Y95" s="7"/>
-      <c r="Z95" s="6"/>
-      <c r="AA95" s="7"/>
-      <c r="AB95" s="8"/>
-      <c r="AC95" s="7"/>
-      <c r="AD95" s="7"/>
-      <c r="AE95" s="7"/>
-    </row>
-    <row r="96" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>106</v>
       </c>
@@ -5138,29 +3661,14 @@
       <c r="H96" s="6"/>
       <c r="I96" s="7"/>
       <c r="J96" s="8"/>
-      <c r="K96" s="7"/>
+      <c r="K96" s="6"/>
       <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
+      <c r="M96" s="8"/>
       <c r="N96" s="6"/>
       <c r="O96" s="7"/>
       <c r="P96" s="8"/>
-      <c r="Q96" s="7"/>
-      <c r="R96" s="7"/>
-      <c r="S96" s="7"/>
-      <c r="T96" s="6"/>
-      <c r="U96" s="7"/>
-      <c r="V96" s="8"/>
-      <c r="W96" s="7"/>
-      <c r="X96" s="7"/>
-      <c r="Y96" s="7"/>
-      <c r="Z96" s="6"/>
-      <c r="AA96" s="7"/>
-      <c r="AB96" s="8"/>
-      <c r="AC96" s="7"/>
-      <c r="AD96" s="7"/>
-      <c r="AE96" s="7"/>
-    </row>
-    <row r="97" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>105</v>
       </c>
@@ -5173,29 +3681,14 @@
       <c r="H97" s="6"/>
       <c r="I97" s="7"/>
       <c r="J97" s="8"/>
-      <c r="K97" s="7"/>
+      <c r="K97" s="6"/>
       <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
+      <c r="M97" s="8"/>
       <c r="N97" s="6"/>
       <c r="O97" s="7"/>
       <c r="P97" s="8"/>
-      <c r="Q97" s="7"/>
-      <c r="R97" s="7"/>
-      <c r="S97" s="7"/>
-      <c r="T97" s="6"/>
-      <c r="U97" s="7"/>
-      <c r="V97" s="8"/>
-      <c r="W97" s="7"/>
-      <c r="X97" s="7"/>
-      <c r="Y97" s="7"/>
-      <c r="Z97" s="6"/>
-      <c r="AA97" s="7"/>
-      <c r="AB97" s="8"/>
-      <c r="AC97" s="7"/>
-      <c r="AD97" s="7"/>
-      <c r="AE97" s="7"/>
-    </row>
-    <row r="98" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>104</v>
       </c>
@@ -5208,29 +3701,14 @@
       <c r="H98" s="6"/>
       <c r="I98" s="7"/>
       <c r="J98" s="8"/>
-      <c r="K98" s="7"/>
+      <c r="K98" s="6"/>
       <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
+      <c r="M98" s="8"/>
       <c r="N98" s="6"/>
       <c r="O98" s="7"/>
       <c r="P98" s="8"/>
-      <c r="Q98" s="7"/>
-      <c r="R98" s="7"/>
-      <c r="S98" s="7"/>
-      <c r="T98" s="6"/>
-      <c r="U98" s="7"/>
-      <c r="V98" s="8"/>
-      <c r="W98" s="7"/>
-      <c r="X98" s="7"/>
-      <c r="Y98" s="7"/>
-      <c r="Z98" s="6"/>
-      <c r="AA98" s="7"/>
-      <c r="AB98" s="8"/>
-      <c r="AC98" s="7"/>
-      <c r="AD98" s="7"/>
-      <c r="AE98" s="7"/>
-    </row>
-    <row r="99" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>103</v>
       </c>
@@ -5243,29 +3721,14 @@
       <c r="H99" s="6"/>
       <c r="I99" s="7"/>
       <c r="J99" s="8"/>
-      <c r="K99" s="7"/>
+      <c r="K99" s="6"/>
       <c r="L99" s="7"/>
-      <c r="M99" s="7"/>
+      <c r="M99" s="8"/>
       <c r="N99" s="6"/>
       <c r="O99" s="7"/>
       <c r="P99" s="8"/>
-      <c r="Q99" s="7"/>
-      <c r="R99" s="7"/>
-      <c r="S99" s="7"/>
-      <c r="T99" s="6"/>
-      <c r="U99" s="7"/>
-      <c r="V99" s="8"/>
-      <c r="W99" s="7"/>
-      <c r="X99" s="7"/>
-      <c r="Y99" s="7"/>
-      <c r="Z99" s="6"/>
-      <c r="AA99" s="7"/>
-      <c r="AB99" s="8"/>
-      <c r="AC99" s="7"/>
-      <c r="AD99" s="7"/>
-      <c r="AE99" s="7"/>
-    </row>
-    <row r="100" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>102</v>
       </c>
@@ -5278,29 +3741,14 @@
       <c r="H100" s="6"/>
       <c r="I100" s="7"/>
       <c r="J100" s="8"/>
-      <c r="K100" s="7"/>
+      <c r="K100" s="6"/>
       <c r="L100" s="7"/>
-      <c r="M100" s="7"/>
+      <c r="M100" s="8"/>
       <c r="N100" s="6"/>
       <c r="O100" s="7"/>
       <c r="P100" s="8"/>
-      <c r="Q100" s="7"/>
-      <c r="R100" s="7"/>
-      <c r="S100" s="7"/>
-      <c r="T100" s="6"/>
-      <c r="U100" s="7"/>
-      <c r="V100" s="8"/>
-      <c r="W100" s="7"/>
-      <c r="X100" s="7"/>
-      <c r="Y100" s="7"/>
-      <c r="Z100" s="6"/>
-      <c r="AA100" s="7"/>
-      <c r="AB100" s="8"/>
-      <c r="AC100" s="7"/>
-      <c r="AD100" s="7"/>
-      <c r="AE100" s="7"/>
-    </row>
-    <row r="101" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>101</v>
       </c>
@@ -5313,29 +3761,14 @@
       <c r="H101" s="6"/>
       <c r="I101" s="7"/>
       <c r="J101" s="8"/>
-      <c r="K101" s="7"/>
+      <c r="K101" s="6"/>
       <c r="L101" s="7"/>
-      <c r="M101" s="7"/>
+      <c r="M101" s="8"/>
       <c r="N101" s="6"/>
       <c r="O101" s="7"/>
       <c r="P101" s="8"/>
-      <c r="Q101" s="7"/>
-      <c r="R101" s="7"/>
-      <c r="S101" s="7"/>
-      <c r="T101" s="6"/>
-      <c r="U101" s="7"/>
-      <c r="V101" s="8"/>
-      <c r="W101" s="7"/>
-      <c r="X101" s="7"/>
-      <c r="Y101" s="7"/>
-      <c r="Z101" s="6"/>
-      <c r="AA101" s="7"/>
-      <c r="AB101" s="8"/>
-      <c r="AC101" s="7"/>
-      <c r="AD101" s="7"/>
-      <c r="AE101" s="7"/>
-    </row>
-    <row r="102" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5348,29 +3781,14 @@
       <c r="H102" s="6"/>
       <c r="I102" s="7"/>
       <c r="J102" s="8"/>
-      <c r="K102" s="7"/>
+      <c r="K102" s="6"/>
       <c r="L102" s="7"/>
-      <c r="M102" s="7"/>
+      <c r="M102" s="8"/>
       <c r="N102" s="6"/>
       <c r="O102" s="7"/>
       <c r="P102" s="8"/>
-      <c r="Q102" s="7"/>
-      <c r="R102" s="7"/>
-      <c r="S102" s="7"/>
-      <c r="T102" s="6"/>
-      <c r="U102" s="7"/>
-      <c r="V102" s="8"/>
-      <c r="W102" s="7"/>
-      <c r="X102" s="7"/>
-      <c r="Y102" s="7"/>
-      <c r="Z102" s="6"/>
-      <c r="AA102" s="7"/>
-      <c r="AB102" s="8"/>
-      <c r="AC102" s="7"/>
-      <c r="AD102" s="7"/>
-      <c r="AE102" s="7"/>
-    </row>
-    <row r="103" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>99</v>
       </c>
@@ -5383,29 +3801,14 @@
       <c r="H103" s="6"/>
       <c r="I103" s="7"/>
       <c r="J103" s="8"/>
-      <c r="K103" s="7"/>
+      <c r="K103" s="6"/>
       <c r="L103" s="7"/>
-      <c r="M103" s="7"/>
+      <c r="M103" s="8"/>
       <c r="N103" s="6"/>
       <c r="O103" s="7"/>
       <c r="P103" s="8"/>
-      <c r="Q103" s="7"/>
-      <c r="R103" s="7"/>
-      <c r="S103" s="7"/>
-      <c r="T103" s="6"/>
-      <c r="U103" s="7"/>
-      <c r="V103" s="8"/>
-      <c r="W103" s="7"/>
-      <c r="X103" s="7"/>
-      <c r="Y103" s="7"/>
-      <c r="Z103" s="6"/>
-      <c r="AA103" s="7"/>
-      <c r="AB103" s="8"/>
-      <c r="AC103" s="7"/>
-      <c r="AD103" s="7"/>
-      <c r="AE103" s="7"/>
-    </row>
-    <row r="104" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>98</v>
       </c>
@@ -5418,29 +3821,14 @@
       <c r="H104" s="6"/>
       <c r="I104" s="7"/>
       <c r="J104" s="8"/>
-      <c r="K104" s="7"/>
+      <c r="K104" s="6"/>
       <c r="L104" s="7"/>
-      <c r="M104" s="7"/>
+      <c r="M104" s="8"/>
       <c r="N104" s="6"/>
       <c r="O104" s="7"/>
       <c r="P104" s="8"/>
-      <c r="Q104" s="7"/>
-      <c r="R104" s="7"/>
-      <c r="S104" s="7"/>
-      <c r="T104" s="6"/>
-      <c r="U104" s="7"/>
-      <c r="V104" s="8"/>
-      <c r="W104" s="7"/>
-      <c r="X104" s="7"/>
-      <c r="Y104" s="7"/>
-      <c r="Z104" s="6"/>
-      <c r="AA104" s="7"/>
-      <c r="AB104" s="8"/>
-      <c r="AC104" s="7"/>
-      <c r="AD104" s="7"/>
-      <c r="AE104" s="7"/>
-    </row>
-    <row r="105" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>97</v>
       </c>
@@ -5453,29 +3841,14 @@
       <c r="H105" s="6"/>
       <c r="I105" s="7"/>
       <c r="J105" s="8"/>
-      <c r="K105" s="7"/>
+      <c r="K105" s="6"/>
       <c r="L105" s="7"/>
-      <c r="M105" s="7"/>
+      <c r="M105" s="8"/>
       <c r="N105" s="6"/>
       <c r="O105" s="7"/>
       <c r="P105" s="8"/>
-      <c r="Q105" s="7"/>
-      <c r="R105" s="7"/>
-      <c r="S105" s="7"/>
-      <c r="T105" s="6"/>
-      <c r="U105" s="7"/>
-      <c r="V105" s="8"/>
-      <c r="W105" s="7"/>
-      <c r="X105" s="7"/>
-      <c r="Y105" s="7"/>
-      <c r="Z105" s="6"/>
-      <c r="AA105" s="7"/>
-      <c r="AB105" s="8"/>
-      <c r="AC105" s="7"/>
-      <c r="AD105" s="7"/>
-      <c r="AE105" s="7"/>
-    </row>
-    <row r="106" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>96</v>
       </c>
@@ -5488,29 +3861,14 @@
       <c r="H106" s="6"/>
       <c r="I106" s="7"/>
       <c r="J106" s="8"/>
-      <c r="K106" s="7"/>
+      <c r="K106" s="6"/>
       <c r="L106" s="7"/>
-      <c r="M106" s="7"/>
+      <c r="M106" s="8"/>
       <c r="N106" s="6"/>
       <c r="O106" s="7"/>
       <c r="P106" s="8"/>
-      <c r="Q106" s="7"/>
-      <c r="R106" s="7"/>
-      <c r="S106" s="7"/>
-      <c r="T106" s="6"/>
-      <c r="U106" s="7"/>
-      <c r="V106" s="8"/>
-      <c r="W106" s="7"/>
-      <c r="X106" s="7"/>
-      <c r="Y106" s="7"/>
-      <c r="Z106" s="6"/>
-      <c r="AA106" s="7"/>
-      <c r="AB106" s="8"/>
-      <c r="AC106" s="7"/>
-      <c r="AD106" s="7"/>
-      <c r="AE106" s="7"/>
-    </row>
-    <row r="107" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>95</v>
       </c>
@@ -5523,29 +3881,14 @@
       <c r="H107" s="6"/>
       <c r="I107" s="7"/>
       <c r="J107" s="8"/>
-      <c r="K107" s="7"/>
+      <c r="K107" s="6"/>
       <c r="L107" s="7"/>
-      <c r="M107" s="7"/>
+      <c r="M107" s="8"/>
       <c r="N107" s="6"/>
       <c r="O107" s="7"/>
       <c r="P107" s="8"/>
-      <c r="Q107" s="7"/>
-      <c r="R107" s="7"/>
-      <c r="S107" s="7"/>
-      <c r="T107" s="6"/>
-      <c r="U107" s="7"/>
-      <c r="V107" s="8"/>
-      <c r="W107" s="7"/>
-      <c r="X107" s="7"/>
-      <c r="Y107" s="7"/>
-      <c r="Z107" s="6"/>
-      <c r="AA107" s="7"/>
-      <c r="AB107" s="8"/>
-      <c r="AC107" s="7"/>
-      <c r="AD107" s="7"/>
-      <c r="AE107" s="7"/>
-    </row>
-    <row r="108" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>94</v>
       </c>
@@ -5558,29 +3901,14 @@
       <c r="H108" s="6"/>
       <c r="I108" s="7"/>
       <c r="J108" s="8"/>
-      <c r="K108" s="7"/>
+      <c r="K108" s="6"/>
       <c r="L108" s="7"/>
-      <c r="M108" s="7"/>
+      <c r="M108" s="8"/>
       <c r="N108" s="6"/>
       <c r="O108" s="7"/>
       <c r="P108" s="8"/>
-      <c r="Q108" s="7"/>
-      <c r="R108" s="7"/>
-      <c r="S108" s="7"/>
-      <c r="T108" s="6"/>
-      <c r="U108" s="7"/>
-      <c r="V108" s="8"/>
-      <c r="W108" s="7"/>
-      <c r="X108" s="7"/>
-      <c r="Y108" s="7"/>
-      <c r="Z108" s="6"/>
-      <c r="AA108" s="7"/>
-      <c r="AB108" s="8"/>
-      <c r="AC108" s="7"/>
-      <c r="AD108" s="7"/>
-      <c r="AE108" s="7"/>
-    </row>
-    <row r="109" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>93</v>
       </c>
@@ -5593,29 +3921,14 @@
       <c r="H109" s="6"/>
       <c r="I109" s="7"/>
       <c r="J109" s="8"/>
-      <c r="K109" s="7"/>
+      <c r="K109" s="6"/>
       <c r="L109" s="7"/>
-      <c r="M109" s="7"/>
+      <c r="M109" s="8"/>
       <c r="N109" s="6"/>
       <c r="O109" s="7"/>
       <c r="P109" s="8"/>
-      <c r="Q109" s="7"/>
-      <c r="R109" s="7"/>
-      <c r="S109" s="7"/>
-      <c r="T109" s="6"/>
-      <c r="U109" s="7"/>
-      <c r="V109" s="8"/>
-      <c r="W109" s="7"/>
-      <c r="X109" s="7"/>
-      <c r="Y109" s="7"/>
-      <c r="Z109" s="6"/>
-      <c r="AA109" s="7"/>
-      <c r="AB109" s="8"/>
-      <c r="AC109" s="7"/>
-      <c r="AD109" s="7"/>
-      <c r="AE109" s="7"/>
-    </row>
-    <row r="110" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>92</v>
       </c>
@@ -5628,29 +3941,14 @@
       <c r="H110" s="6"/>
       <c r="I110" s="7"/>
       <c r="J110" s="8"/>
-      <c r="K110" s="7"/>
+      <c r="K110" s="6"/>
       <c r="L110" s="7"/>
-      <c r="M110" s="7"/>
+      <c r="M110" s="8"/>
       <c r="N110" s="6"/>
       <c r="O110" s="7"/>
       <c r="P110" s="8"/>
-      <c r="Q110" s="7"/>
-      <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
-      <c r="T110" s="6"/>
-      <c r="U110" s="7"/>
-      <c r="V110" s="8"/>
-      <c r="W110" s="7"/>
-      <c r="X110" s="7"/>
-      <c r="Y110" s="7"/>
-      <c r="Z110" s="6"/>
-      <c r="AA110" s="7"/>
-      <c r="AB110" s="8"/>
-      <c r="AC110" s="7"/>
-      <c r="AD110" s="7"/>
-      <c r="AE110" s="7"/>
-    </row>
-    <row r="111" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>91</v>
       </c>
@@ -5663,29 +3961,14 @@
       <c r="H111" s="6"/>
       <c r="I111" s="7"/>
       <c r="J111" s="8"/>
-      <c r="K111" s="7"/>
+      <c r="K111" s="6"/>
       <c r="L111" s="7"/>
-      <c r="M111" s="7"/>
+      <c r="M111" s="8"/>
       <c r="N111" s="6"/>
       <c r="O111" s="7"/>
       <c r="P111" s="8"/>
-      <c r="Q111" s="7"/>
-      <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
-      <c r="T111" s="6"/>
-      <c r="U111" s="7"/>
-      <c r="V111" s="8"/>
-      <c r="W111" s="7"/>
-      <c r="X111" s="7"/>
-      <c r="Y111" s="7"/>
-      <c r="Z111" s="6"/>
-      <c r="AA111" s="7"/>
-      <c r="AB111" s="8"/>
-      <c r="AC111" s="7"/>
-      <c r="AD111" s="7"/>
-      <c r="AE111" s="7"/>
-    </row>
-    <row r="112" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>90</v>
       </c>
@@ -5698,29 +3981,14 @@
       <c r="H112" s="6"/>
       <c r="I112" s="7"/>
       <c r="J112" s="8"/>
-      <c r="K112" s="7"/>
+      <c r="K112" s="6"/>
       <c r="L112" s="7"/>
-      <c r="M112" s="7"/>
+      <c r="M112" s="8"/>
       <c r="N112" s="6"/>
       <c r="O112" s="7"/>
       <c r="P112" s="8"/>
-      <c r="Q112" s="7"/>
-      <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
-      <c r="T112" s="6"/>
-      <c r="U112" s="7"/>
-      <c r="V112" s="8"/>
-      <c r="W112" s="7"/>
-      <c r="X112" s="7"/>
-      <c r="Y112" s="7"/>
-      <c r="Z112" s="6"/>
-      <c r="AA112" s="7"/>
-      <c r="AB112" s="8"/>
-      <c r="AC112" s="7"/>
-      <c r="AD112" s="7"/>
-      <c r="AE112" s="7"/>
-    </row>
-    <row r="113" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>89</v>
       </c>
@@ -5733,29 +4001,14 @@
       <c r="H113" s="6"/>
       <c r="I113" s="7"/>
       <c r="J113" s="8"/>
-      <c r="K113" s="7"/>
+      <c r="K113" s="6"/>
       <c r="L113" s="7"/>
-      <c r="M113" s="7"/>
+      <c r="M113" s="8"/>
       <c r="N113" s="6"/>
       <c r="O113" s="7"/>
       <c r="P113" s="8"/>
-      <c r="Q113" s="7"/>
-      <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
-      <c r="T113" s="6"/>
-      <c r="U113" s="7"/>
-      <c r="V113" s="8"/>
-      <c r="W113" s="7"/>
-      <c r="X113" s="7"/>
-      <c r="Y113" s="7"/>
-      <c r="Z113" s="6"/>
-      <c r="AA113" s="7"/>
-      <c r="AB113" s="8"/>
-      <c r="AC113" s="7"/>
-      <c r="AD113" s="7"/>
-      <c r="AE113" s="7"/>
-    </row>
-    <row r="114" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>88</v>
       </c>
@@ -5768,29 +4021,14 @@
       <c r="H114" s="6"/>
       <c r="I114" s="7"/>
       <c r="J114" s="8"/>
-      <c r="K114" s="7"/>
+      <c r="K114" s="6"/>
       <c r="L114" s="7"/>
-      <c r="M114" s="7"/>
+      <c r="M114" s="8"/>
       <c r="N114" s="6"/>
       <c r="O114" s="7"/>
       <c r="P114" s="8"/>
-      <c r="Q114" s="7"/>
-      <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
-      <c r="T114" s="6"/>
-      <c r="U114" s="7"/>
-      <c r="V114" s="8"/>
-      <c r="W114" s="7"/>
-      <c r="X114" s="7"/>
-      <c r="Y114" s="7"/>
-      <c r="Z114" s="6"/>
-      <c r="AA114" s="7"/>
-      <c r="AB114" s="8"/>
-      <c r="AC114" s="7"/>
-      <c r="AD114" s="7"/>
-      <c r="AE114" s="7"/>
-    </row>
-    <row r="115" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>87</v>
       </c>
@@ -5803,29 +4041,14 @@
       <c r="H115" s="6"/>
       <c r="I115" s="7"/>
       <c r="J115" s="8"/>
-      <c r="K115" s="7"/>
+      <c r="K115" s="6"/>
       <c r="L115" s="7"/>
-      <c r="M115" s="7"/>
+      <c r="M115" s="8"/>
       <c r="N115" s="6"/>
       <c r="O115" s="7"/>
       <c r="P115" s="8"/>
-      <c r="Q115" s="7"/>
-      <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
-      <c r="T115" s="6"/>
-      <c r="U115" s="7"/>
-      <c r="V115" s="8"/>
-      <c r="W115" s="7"/>
-      <c r="X115" s="7"/>
-      <c r="Y115" s="7"/>
-      <c r="Z115" s="6"/>
-      <c r="AA115" s="7"/>
-      <c r="AB115" s="8"/>
-      <c r="AC115" s="7"/>
-      <c r="AD115" s="7"/>
-      <c r="AE115" s="7"/>
-    </row>
-    <row r="116" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>86</v>
       </c>
@@ -5838,29 +4061,14 @@
       <c r="H116" s="6"/>
       <c r="I116" s="7"/>
       <c r="J116" s="8"/>
-      <c r="K116" s="7"/>
+      <c r="K116" s="6"/>
       <c r="L116" s="7"/>
-      <c r="M116" s="7"/>
+      <c r="M116" s="8"/>
       <c r="N116" s="6"/>
       <c r="O116" s="7"/>
       <c r="P116" s="8"/>
-      <c r="Q116" s="7"/>
-      <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
-      <c r="T116" s="6"/>
-      <c r="U116" s="7"/>
-      <c r="V116" s="8"/>
-      <c r="W116" s="7"/>
-      <c r="X116" s="7"/>
-      <c r="Y116" s="7"/>
-      <c r="Z116" s="6"/>
-      <c r="AA116" s="7"/>
-      <c r="AB116" s="8"/>
-      <c r="AC116" s="7"/>
-      <c r="AD116" s="7"/>
-      <c r="AE116" s="7"/>
-    </row>
-    <row r="117" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>85</v>
       </c>
@@ -5873,29 +4081,14 @@
       <c r="H117" s="6"/>
       <c r="I117" s="7"/>
       <c r="J117" s="8"/>
-      <c r="K117" s="7"/>
+      <c r="K117" s="6"/>
       <c r="L117" s="7"/>
-      <c r="M117" s="7"/>
+      <c r="M117" s="8"/>
       <c r="N117" s="6"/>
       <c r="O117" s="7"/>
       <c r="P117" s="8"/>
-      <c r="Q117" s="7"/>
-      <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
-      <c r="T117" s="6"/>
-      <c r="U117" s="7"/>
-      <c r="V117" s="8"/>
-      <c r="W117" s="7"/>
-      <c r="X117" s="7"/>
-      <c r="Y117" s="7"/>
-      <c r="Z117" s="6"/>
-      <c r="AA117" s="7"/>
-      <c r="AB117" s="8"/>
-      <c r="AC117" s="7"/>
-      <c r="AD117" s="7"/>
-      <c r="AE117" s="7"/>
-    </row>
-    <row r="118" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>84</v>
       </c>
@@ -5908,29 +4101,14 @@
       <c r="H118" s="6"/>
       <c r="I118" s="7"/>
       <c r="J118" s="8"/>
-      <c r="K118" s="7"/>
+      <c r="K118" s="6"/>
       <c r="L118" s="7"/>
-      <c r="M118" s="7"/>
+      <c r="M118" s="8"/>
       <c r="N118" s="6"/>
       <c r="O118" s="7"/>
       <c r="P118" s="8"/>
-      <c r="Q118" s="7"/>
-      <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
-      <c r="T118" s="6"/>
-      <c r="U118" s="7"/>
-      <c r="V118" s="8"/>
-      <c r="W118" s="7"/>
-      <c r="X118" s="7"/>
-      <c r="Y118" s="7"/>
-      <c r="Z118" s="6"/>
-      <c r="AA118" s="7"/>
-      <c r="AB118" s="8"/>
-      <c r="AC118" s="7"/>
-      <c r="AD118" s="7"/>
-      <c r="AE118" s="7"/>
-    </row>
-    <row r="119" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>83</v>
       </c>
@@ -5943,29 +4121,14 @@
       <c r="H119" s="6"/>
       <c r="I119" s="7"/>
       <c r="J119" s="8"/>
-      <c r="K119" s="7"/>
+      <c r="K119" s="6"/>
       <c r="L119" s="7"/>
-      <c r="M119" s="7"/>
+      <c r="M119" s="8"/>
       <c r="N119" s="6"/>
       <c r="O119" s="7"/>
       <c r="P119" s="8"/>
-      <c r="Q119" s="7"/>
-      <c r="R119" s="7"/>
-      <c r="S119" s="7"/>
-      <c r="T119" s="6"/>
-      <c r="U119" s="7"/>
-      <c r="V119" s="8"/>
-      <c r="W119" s="7"/>
-      <c r="X119" s="7"/>
-      <c r="Y119" s="7"/>
-      <c r="Z119" s="6"/>
-      <c r="AA119" s="7"/>
-      <c r="AB119" s="8"/>
-      <c r="AC119" s="7"/>
-      <c r="AD119" s="7"/>
-      <c r="AE119" s="7"/>
-    </row>
-    <row r="120" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>82</v>
       </c>
@@ -5978,29 +4141,14 @@
       <c r="H120" s="6"/>
       <c r="I120" s="7"/>
       <c r="J120" s="8"/>
-      <c r="K120" s="7"/>
+      <c r="K120" s="6"/>
       <c r="L120" s="7"/>
-      <c r="M120" s="7"/>
+      <c r="M120" s="8"/>
       <c r="N120" s="6"/>
       <c r="O120" s="7"/>
       <c r="P120" s="8"/>
-      <c r="Q120" s="7"/>
-      <c r="R120" s="7"/>
-      <c r="S120" s="7"/>
-      <c r="T120" s="6"/>
-      <c r="U120" s="7"/>
-      <c r="V120" s="8"/>
-      <c r="W120" s="7"/>
-      <c r="X120" s="7"/>
-      <c r="Y120" s="7"/>
-      <c r="Z120" s="6"/>
-      <c r="AA120" s="7"/>
-      <c r="AB120" s="8"/>
-      <c r="AC120" s="7"/>
-      <c r="AD120" s="7"/>
-      <c r="AE120" s="7"/>
-    </row>
-    <row r="121" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>81</v>
       </c>
@@ -6013,29 +4161,14 @@
       <c r="H121" s="6"/>
       <c r="I121" s="7"/>
       <c r="J121" s="8"/>
-      <c r="K121" s="7"/>
+      <c r="K121" s="6"/>
       <c r="L121" s="7"/>
-      <c r="M121" s="7"/>
+      <c r="M121" s="8"/>
       <c r="N121" s="6"/>
       <c r="O121" s="7"/>
       <c r="P121" s="8"/>
-      <c r="Q121" s="7"/>
-      <c r="R121" s="7"/>
-      <c r="S121" s="7"/>
-      <c r="T121" s="6"/>
-      <c r="U121" s="7"/>
-      <c r="V121" s="8"/>
-      <c r="W121" s="7"/>
-      <c r="X121" s="7"/>
-      <c r="Y121" s="7"/>
-      <c r="Z121" s="6"/>
-      <c r="AA121" s="7"/>
-      <c r="AB121" s="8"/>
-      <c r="AC121" s="7"/>
-      <c r="AD121" s="7"/>
-      <c r="AE121" s="7"/>
-    </row>
-    <row r="122" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>80</v>
       </c>
@@ -6048,29 +4181,14 @@
       <c r="H122" s="6"/>
       <c r="I122" s="7"/>
       <c r="J122" s="8"/>
-      <c r="K122" s="7"/>
+      <c r="K122" s="6"/>
       <c r="L122" s="7"/>
-      <c r="M122" s="7"/>
+      <c r="M122" s="8"/>
       <c r="N122" s="6"/>
       <c r="O122" s="7"/>
       <c r="P122" s="8"/>
-      <c r="Q122" s="7"/>
-      <c r="R122" s="7"/>
-      <c r="S122" s="7"/>
-      <c r="T122" s="6"/>
-      <c r="U122" s="7"/>
-      <c r="V122" s="8"/>
-      <c r="W122" s="7"/>
-      <c r="X122" s="7"/>
-      <c r="Y122" s="7"/>
-      <c r="Z122" s="6"/>
-      <c r="AA122" s="7"/>
-      <c r="AB122" s="8"/>
-      <c r="AC122" s="7"/>
-      <c r="AD122" s="7"/>
-      <c r="AE122" s="7"/>
-    </row>
-    <row r="123" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>79</v>
       </c>
@@ -6083,29 +4201,14 @@
       <c r="H123" s="6"/>
       <c r="I123" s="7"/>
       <c r="J123" s="8"/>
-      <c r="K123" s="7"/>
+      <c r="K123" s="6"/>
       <c r="L123" s="7"/>
-      <c r="M123" s="7"/>
+      <c r="M123" s="8"/>
       <c r="N123" s="6"/>
       <c r="O123" s="7"/>
       <c r="P123" s="8"/>
-      <c r="Q123" s="7"/>
-      <c r="R123" s="7"/>
-      <c r="S123" s="7"/>
-      <c r="T123" s="6"/>
-      <c r="U123" s="7"/>
-      <c r="V123" s="8"/>
-      <c r="W123" s="7"/>
-      <c r="X123" s="7"/>
-      <c r="Y123" s="7"/>
-      <c r="Z123" s="6"/>
-      <c r="AA123" s="7"/>
-      <c r="AB123" s="8"/>
-      <c r="AC123" s="7"/>
-      <c r="AD123" s="7"/>
-      <c r="AE123" s="7"/>
-    </row>
-    <row r="124" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>78</v>
       </c>
@@ -6118,29 +4221,14 @@
       <c r="H124" s="6"/>
       <c r="I124" s="7"/>
       <c r="J124" s="8"/>
-      <c r="K124" s="7"/>
+      <c r="K124" s="6"/>
       <c r="L124" s="7"/>
-      <c r="M124" s="7"/>
+      <c r="M124" s="8"/>
       <c r="N124" s="6"/>
       <c r="O124" s="7"/>
       <c r="P124" s="8"/>
-      <c r="Q124" s="7"/>
-      <c r="R124" s="7"/>
-      <c r="S124" s="7"/>
-      <c r="T124" s="6"/>
-      <c r="U124" s="7"/>
-      <c r="V124" s="8"/>
-      <c r="W124" s="7"/>
-      <c r="X124" s="7"/>
-      <c r="Y124" s="7"/>
-      <c r="Z124" s="6"/>
-      <c r="AA124" s="7"/>
-      <c r="AB124" s="8"/>
-      <c r="AC124" s="7"/>
-      <c r="AD124" s="7"/>
-      <c r="AE124" s="7"/>
-    </row>
-    <row r="125" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>77</v>
       </c>
@@ -6153,29 +4241,14 @@
       <c r="H125" s="6"/>
       <c r="I125" s="7"/>
       <c r="J125" s="8"/>
-      <c r="K125" s="7"/>
+      <c r="K125" s="6"/>
       <c r="L125" s="7"/>
-      <c r="M125" s="7"/>
+      <c r="M125" s="8"/>
       <c r="N125" s="6"/>
       <c r="O125" s="7"/>
       <c r="P125" s="8"/>
-      <c r="Q125" s="7"/>
-      <c r="R125" s="7"/>
-      <c r="S125" s="7"/>
-      <c r="T125" s="6"/>
-      <c r="U125" s="7"/>
-      <c r="V125" s="8"/>
-      <c r="W125" s="7"/>
-      <c r="X125" s="7"/>
-      <c r="Y125" s="7"/>
-      <c r="Z125" s="6"/>
-      <c r="AA125" s="7"/>
-      <c r="AB125" s="8"/>
-      <c r="AC125" s="7"/>
-      <c r="AD125" s="7"/>
-      <c r="AE125" s="7"/>
-    </row>
-    <row r="126" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>76</v>
       </c>
@@ -6188,29 +4261,14 @@
       <c r="H126" s="6"/>
       <c r="I126" s="7"/>
       <c r="J126" s="8"/>
-      <c r="K126" s="7"/>
+      <c r="K126" s="6"/>
       <c r="L126" s="7"/>
-      <c r="M126" s="7"/>
+      <c r="M126" s="8"/>
       <c r="N126" s="6"/>
       <c r="O126" s="7"/>
       <c r="P126" s="8"/>
-      <c r="Q126" s="7"/>
-      <c r="R126" s="7"/>
-      <c r="S126" s="7"/>
-      <c r="T126" s="6"/>
-      <c r="U126" s="7"/>
-      <c r="V126" s="8"/>
-      <c r="W126" s="7"/>
-      <c r="X126" s="7"/>
-      <c r="Y126" s="7"/>
-      <c r="Z126" s="6"/>
-      <c r="AA126" s="7"/>
-      <c r="AB126" s="8"/>
-      <c r="AC126" s="7"/>
-      <c r="AD126" s="7"/>
-      <c r="AE126" s="7"/>
-    </row>
-    <row r="127" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>75</v>
       </c>
@@ -6223,29 +4281,14 @@
       <c r="H127" s="6"/>
       <c r="I127" s="7"/>
       <c r="J127" s="8"/>
-      <c r="K127" s="7"/>
+      <c r="K127" s="6"/>
       <c r="L127" s="7"/>
-      <c r="M127" s="7"/>
+      <c r="M127" s="8"/>
       <c r="N127" s="6"/>
       <c r="O127" s="7"/>
       <c r="P127" s="8"/>
-      <c r="Q127" s="7"/>
-      <c r="R127" s="7"/>
-      <c r="S127" s="7"/>
-      <c r="T127" s="6"/>
-      <c r="U127" s="7"/>
-      <c r="V127" s="8"/>
-      <c r="W127" s="7"/>
-      <c r="X127" s="7"/>
-      <c r="Y127" s="7"/>
-      <c r="Z127" s="6"/>
-      <c r="AA127" s="7"/>
-      <c r="AB127" s="8"/>
-      <c r="AC127" s="7"/>
-      <c r="AD127" s="7"/>
-      <c r="AE127" s="7"/>
-    </row>
-    <row r="128" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>74</v>
       </c>
@@ -6258,29 +4301,14 @@
       <c r="H128" s="6"/>
       <c r="I128" s="7"/>
       <c r="J128" s="8"/>
-      <c r="K128" s="7"/>
+      <c r="K128" s="6"/>
       <c r="L128" s="7"/>
-      <c r="M128" s="7"/>
+      <c r="M128" s="8"/>
       <c r="N128" s="6"/>
       <c r="O128" s="7"/>
       <c r="P128" s="8"/>
-      <c r="Q128" s="7"/>
-      <c r="R128" s="7"/>
-      <c r="S128" s="7"/>
-      <c r="T128" s="6"/>
-      <c r="U128" s="7"/>
-      <c r="V128" s="8"/>
-      <c r="W128" s="7"/>
-      <c r="X128" s="7"/>
-      <c r="Y128" s="7"/>
-      <c r="Z128" s="6"/>
-      <c r="AA128" s="7"/>
-      <c r="AB128" s="8"/>
-      <c r="AC128" s="7"/>
-      <c r="AD128" s="7"/>
-      <c r="AE128" s="7"/>
-    </row>
-    <row r="129" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>73</v>
       </c>
@@ -6293,29 +4321,14 @@
       <c r="H129" s="6"/>
       <c r="I129" s="7"/>
       <c r="J129" s="8"/>
-      <c r="K129" s="7"/>
+      <c r="K129" s="6"/>
       <c r="L129" s="7"/>
-      <c r="M129" s="7"/>
+      <c r="M129" s="8"/>
       <c r="N129" s="6"/>
       <c r="O129" s="7"/>
       <c r="P129" s="8"/>
-      <c r="Q129" s="7"/>
-      <c r="R129" s="7"/>
-      <c r="S129" s="7"/>
-      <c r="T129" s="6"/>
-      <c r="U129" s="7"/>
-      <c r="V129" s="8"/>
-      <c r="W129" s="7"/>
-      <c r="X129" s="7"/>
-      <c r="Y129" s="7"/>
-      <c r="Z129" s="6"/>
-      <c r="AA129" s="7"/>
-      <c r="AB129" s="8"/>
-      <c r="AC129" s="7"/>
-      <c r="AD129" s="7"/>
-      <c r="AE129" s="7"/>
-    </row>
-    <row r="130" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>72</v>
       </c>
@@ -6328,29 +4341,14 @@
       <c r="H130" s="6"/>
       <c r="I130" s="7"/>
       <c r="J130" s="8"/>
-      <c r="K130" s="7"/>
+      <c r="K130" s="6"/>
       <c r="L130" s="7"/>
-      <c r="M130" s="7"/>
+      <c r="M130" s="8"/>
       <c r="N130" s="6"/>
       <c r="O130" s="7"/>
       <c r="P130" s="8"/>
-      <c r="Q130" s="7"/>
-      <c r="R130" s="7"/>
-      <c r="S130" s="7"/>
-      <c r="T130" s="6"/>
-      <c r="U130" s="7"/>
-      <c r="V130" s="8"/>
-      <c r="W130" s="7"/>
-      <c r="X130" s="7"/>
-      <c r="Y130" s="7"/>
-      <c r="Z130" s="6"/>
-      <c r="AA130" s="7"/>
-      <c r="AB130" s="8"/>
-      <c r="AC130" s="7"/>
-      <c r="AD130" s="7"/>
-      <c r="AE130" s="7"/>
-    </row>
-    <row r="131" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>71</v>
       </c>
@@ -6363,29 +4361,14 @@
       <c r="H131" s="6"/>
       <c r="I131" s="7"/>
       <c r="J131" s="8"/>
-      <c r="K131" s="7"/>
+      <c r="K131" s="6"/>
       <c r="L131" s="7"/>
-      <c r="M131" s="7"/>
+      <c r="M131" s="8"/>
       <c r="N131" s="6"/>
       <c r="O131" s="7"/>
       <c r="P131" s="8"/>
-      <c r="Q131" s="7"/>
-      <c r="R131" s="7"/>
-      <c r="S131" s="7"/>
-      <c r="T131" s="6"/>
-      <c r="U131" s="7"/>
-      <c r="V131" s="8"/>
-      <c r="W131" s="7"/>
-      <c r="X131" s="7"/>
-      <c r="Y131" s="7"/>
-      <c r="Z131" s="6"/>
-      <c r="AA131" s="7"/>
-      <c r="AB131" s="8"/>
-      <c r="AC131" s="7"/>
-      <c r="AD131" s="7"/>
-      <c r="AE131" s="7"/>
-    </row>
-    <row r="132" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>70</v>
       </c>
@@ -6398,29 +4381,14 @@
       <c r="H132" s="6"/>
       <c r="I132" s="7"/>
       <c r="J132" s="8"/>
-      <c r="K132" s="7"/>
+      <c r="K132" s="6"/>
       <c r="L132" s="7"/>
-      <c r="M132" s="7"/>
+      <c r="M132" s="8"/>
       <c r="N132" s="6"/>
       <c r="O132" s="7"/>
       <c r="P132" s="8"/>
-      <c r="Q132" s="7"/>
-      <c r="R132" s="7"/>
-      <c r="S132" s="7"/>
-      <c r="T132" s="6"/>
-      <c r="U132" s="7"/>
-      <c r="V132" s="8"/>
-      <c r="W132" s="7"/>
-      <c r="X132" s="7"/>
-      <c r="Y132" s="7"/>
-      <c r="Z132" s="6"/>
-      <c r="AA132" s="7"/>
-      <c r="AB132" s="8"/>
-      <c r="AC132" s="7"/>
-      <c r="AD132" s="7"/>
-      <c r="AE132" s="7"/>
-    </row>
-    <row r="133" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>69</v>
       </c>
@@ -6433,29 +4401,14 @@
       <c r="H133" s="6"/>
       <c r="I133" s="7"/>
       <c r="J133" s="8"/>
-      <c r="K133" s="7"/>
+      <c r="K133" s="6"/>
       <c r="L133" s="7"/>
-      <c r="M133" s="7"/>
+      <c r="M133" s="8"/>
       <c r="N133" s="6"/>
       <c r="O133" s="7"/>
       <c r="P133" s="8"/>
-      <c r="Q133" s="7"/>
-      <c r="R133" s="7"/>
-      <c r="S133" s="7"/>
-      <c r="T133" s="6"/>
-      <c r="U133" s="7"/>
-      <c r="V133" s="8"/>
-      <c r="W133" s="7"/>
-      <c r="X133" s="7"/>
-      <c r="Y133" s="7"/>
-      <c r="Z133" s="6"/>
-      <c r="AA133" s="7"/>
-      <c r="AB133" s="8"/>
-      <c r="AC133" s="7"/>
-      <c r="AD133" s="7"/>
-      <c r="AE133" s="7"/>
-    </row>
-    <row r="134" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>68</v>
       </c>
@@ -6468,29 +4421,14 @@
       <c r="H134" s="6"/>
       <c r="I134" s="7"/>
       <c r="J134" s="8"/>
-      <c r="K134" s="7"/>
+      <c r="K134" s="6"/>
       <c r="L134" s="7"/>
-      <c r="M134" s="7"/>
+      <c r="M134" s="8"/>
       <c r="N134" s="6"/>
       <c r="O134" s="7"/>
       <c r="P134" s="8"/>
-      <c r="Q134" s="7"/>
-      <c r="R134" s="7"/>
-      <c r="S134" s="7"/>
-      <c r="T134" s="6"/>
-      <c r="U134" s="7"/>
-      <c r="V134" s="8"/>
-      <c r="W134" s="7"/>
-      <c r="X134" s="7"/>
-      <c r="Y134" s="7"/>
-      <c r="Z134" s="6"/>
-      <c r="AA134" s="7"/>
-      <c r="AB134" s="8"/>
-      <c r="AC134" s="7"/>
-      <c r="AD134" s="7"/>
-      <c r="AE134" s="7"/>
-    </row>
-    <row r="135" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>67</v>
       </c>
@@ -6503,29 +4441,14 @@
       <c r="H135" s="6"/>
       <c r="I135" s="7"/>
       <c r="J135" s="8"/>
-      <c r="K135" s="7"/>
+      <c r="K135" s="6"/>
       <c r="L135" s="7"/>
-      <c r="M135" s="7"/>
+      <c r="M135" s="8"/>
       <c r="N135" s="6"/>
       <c r="O135" s="7"/>
       <c r="P135" s="8"/>
-      <c r="Q135" s="7"/>
-      <c r="R135" s="7"/>
-      <c r="S135" s="7"/>
-      <c r="T135" s="6"/>
-      <c r="U135" s="7"/>
-      <c r="V135" s="8"/>
-      <c r="W135" s="7"/>
-      <c r="X135" s="7"/>
-      <c r="Y135" s="7"/>
-      <c r="Z135" s="6"/>
-      <c r="AA135" s="7"/>
-      <c r="AB135" s="8"/>
-      <c r="AC135" s="7"/>
-      <c r="AD135" s="7"/>
-      <c r="AE135" s="7"/>
-    </row>
-    <row r="136" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>66</v>
       </c>
@@ -6538,29 +4461,14 @@
       <c r="H136" s="6"/>
       <c r="I136" s="7"/>
       <c r="J136" s="8"/>
-      <c r="K136" s="7"/>
+      <c r="K136" s="6"/>
       <c r="L136" s="7"/>
-      <c r="M136" s="7"/>
+      <c r="M136" s="8"/>
       <c r="N136" s="6"/>
       <c r="O136" s="7"/>
       <c r="P136" s="8"/>
-      <c r="Q136" s="7"/>
-      <c r="R136" s="7"/>
-      <c r="S136" s="7"/>
-      <c r="T136" s="6"/>
-      <c r="U136" s="7"/>
-      <c r="V136" s="8"/>
-      <c r="W136" s="7"/>
-      <c r="X136" s="7"/>
-      <c r="Y136" s="7"/>
-      <c r="Z136" s="6"/>
-      <c r="AA136" s="7"/>
-      <c r="AB136" s="8"/>
-      <c r="AC136" s="7"/>
-      <c r="AD136" s="7"/>
-      <c r="AE136" s="7"/>
-    </row>
-    <row r="137" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>65</v>
       </c>
@@ -6573,29 +4481,14 @@
       <c r="H137" s="6"/>
       <c r="I137" s="7"/>
       <c r="J137" s="8"/>
-      <c r="K137" s="7"/>
+      <c r="K137" s="6"/>
       <c r="L137" s="7"/>
-      <c r="M137" s="7"/>
+      <c r="M137" s="8"/>
       <c r="N137" s="6"/>
       <c r="O137" s="7"/>
       <c r="P137" s="8"/>
-      <c r="Q137" s="7"/>
-      <c r="R137" s="7"/>
-      <c r="S137" s="7"/>
-      <c r="T137" s="6"/>
-      <c r="U137" s="7"/>
-      <c r="V137" s="8"/>
-      <c r="W137" s="7"/>
-      <c r="X137" s="7"/>
-      <c r="Y137" s="7"/>
-      <c r="Z137" s="6"/>
-      <c r="AA137" s="7"/>
-      <c r="AB137" s="8"/>
-      <c r="AC137" s="7"/>
-      <c r="AD137" s="7"/>
-      <c r="AE137" s="7"/>
-    </row>
-    <row r="138" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>64</v>
       </c>
@@ -6608,29 +4501,14 @@
       <c r="H138" s="6"/>
       <c r="I138" s="7"/>
       <c r="J138" s="8"/>
-      <c r="K138" s="7"/>
+      <c r="K138" s="6"/>
       <c r="L138" s="7"/>
-      <c r="M138" s="7"/>
+      <c r="M138" s="8"/>
       <c r="N138" s="6"/>
       <c r="O138" s="7"/>
       <c r="P138" s="8"/>
-      <c r="Q138" s="7"/>
-      <c r="R138" s="7"/>
-      <c r="S138" s="7"/>
-      <c r="T138" s="6"/>
-      <c r="U138" s="7"/>
-      <c r="V138" s="8"/>
-      <c r="W138" s="7"/>
-      <c r="X138" s="7"/>
-      <c r="Y138" s="7"/>
-      <c r="Z138" s="6"/>
-      <c r="AA138" s="7"/>
-      <c r="AB138" s="8"/>
-      <c r="AC138" s="7"/>
-      <c r="AD138" s="7"/>
-      <c r="AE138" s="7"/>
-    </row>
-    <row r="139" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>63</v>
       </c>
@@ -6643,29 +4521,14 @@
       <c r="H139" s="6"/>
       <c r="I139" s="7"/>
       <c r="J139" s="8"/>
-      <c r="K139" s="7"/>
+      <c r="K139" s="6"/>
       <c r="L139" s="7"/>
-      <c r="M139" s="7"/>
+      <c r="M139" s="8"/>
       <c r="N139" s="6"/>
       <c r="O139" s="7"/>
       <c r="P139" s="8"/>
-      <c r="Q139" s="7"/>
-      <c r="R139" s="7"/>
-      <c r="S139" s="7"/>
-      <c r="T139" s="6"/>
-      <c r="U139" s="7"/>
-      <c r="V139" s="8"/>
-      <c r="W139" s="7"/>
-      <c r="X139" s="7"/>
-      <c r="Y139" s="7"/>
-      <c r="Z139" s="6"/>
-      <c r="AA139" s="7"/>
-      <c r="AB139" s="8"/>
-      <c r="AC139" s="7"/>
-      <c r="AD139" s="7"/>
-      <c r="AE139" s="7"/>
-    </row>
-    <row r="140" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>62</v>
       </c>
@@ -6678,29 +4541,14 @@
       <c r="H140" s="6"/>
       <c r="I140" s="7"/>
       <c r="J140" s="8"/>
-      <c r="K140" s="7"/>
+      <c r="K140" s="6"/>
       <c r="L140" s="7"/>
-      <c r="M140" s="7"/>
+      <c r="M140" s="8"/>
       <c r="N140" s="6"/>
       <c r="O140" s="7"/>
       <c r="P140" s="8"/>
-      <c r="Q140" s="7"/>
-      <c r="R140" s="7"/>
-      <c r="S140" s="7"/>
-      <c r="T140" s="6"/>
-      <c r="U140" s="7"/>
-      <c r="V140" s="8"/>
-      <c r="W140" s="7"/>
-      <c r="X140" s="7"/>
-      <c r="Y140" s="7"/>
-      <c r="Z140" s="6"/>
-      <c r="AA140" s="7"/>
-      <c r="AB140" s="8"/>
-      <c r="AC140" s="7"/>
-      <c r="AD140" s="7"/>
-      <c r="AE140" s="7"/>
-    </row>
-    <row r="141" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>61</v>
       </c>
@@ -6713,29 +4561,14 @@
       <c r="H141" s="6"/>
       <c r="I141" s="7"/>
       <c r="J141" s="8"/>
-      <c r="K141" s="7"/>
+      <c r="K141" s="6"/>
       <c r="L141" s="7"/>
-      <c r="M141" s="7"/>
+      <c r="M141" s="8"/>
       <c r="N141" s="6"/>
       <c r="O141" s="7"/>
       <c r="P141" s="8"/>
-      <c r="Q141" s="7"/>
-      <c r="R141" s="7"/>
-      <c r="S141" s="7"/>
-      <c r="T141" s="6"/>
-      <c r="U141" s="7"/>
-      <c r="V141" s="8"/>
-      <c r="W141" s="7"/>
-      <c r="X141" s="7"/>
-      <c r="Y141" s="7"/>
-      <c r="Z141" s="6"/>
-      <c r="AA141" s="7"/>
-      <c r="AB141" s="8"/>
-      <c r="AC141" s="7"/>
-      <c r="AD141" s="7"/>
-      <c r="AE141" s="7"/>
-    </row>
-    <row r="142" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>60</v>
       </c>
@@ -6748,29 +4581,14 @@
       <c r="H142" s="6"/>
       <c r="I142" s="7"/>
       <c r="J142" s="8"/>
-      <c r="K142" s="7"/>
+      <c r="K142" s="6"/>
       <c r="L142" s="7"/>
-      <c r="M142" s="7"/>
+      <c r="M142" s="8"/>
       <c r="N142" s="6"/>
       <c r="O142" s="7"/>
       <c r="P142" s="8"/>
-      <c r="Q142" s="7"/>
-      <c r="R142" s="7"/>
-      <c r="S142" s="7"/>
-      <c r="T142" s="6"/>
-      <c r="U142" s="7"/>
-      <c r="V142" s="8"/>
-      <c r="W142" s="7"/>
-      <c r="X142" s="7"/>
-      <c r="Y142" s="7"/>
-      <c r="Z142" s="6"/>
-      <c r="AA142" s="7"/>
-      <c r="AB142" s="8"/>
-      <c r="AC142" s="7"/>
-      <c r="AD142" s="7"/>
-      <c r="AE142" s="7"/>
-    </row>
-    <row r="143" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>59</v>
       </c>
@@ -6783,29 +4601,14 @@
       <c r="H143" s="6"/>
       <c r="I143" s="7"/>
       <c r="J143" s="8"/>
-      <c r="K143" s="7"/>
+      <c r="K143" s="6"/>
       <c r="L143" s="7"/>
-      <c r="M143" s="7"/>
+      <c r="M143" s="8"/>
       <c r="N143" s="6"/>
       <c r="O143" s="7"/>
       <c r="P143" s="8"/>
-      <c r="Q143" s="7"/>
-      <c r="R143" s="7"/>
-      <c r="S143" s="7"/>
-      <c r="T143" s="6"/>
-      <c r="U143" s="7"/>
-      <c r="V143" s="8"/>
-      <c r="W143" s="7"/>
-      <c r="X143" s="7"/>
-      <c r="Y143" s="7"/>
-      <c r="Z143" s="6"/>
-      <c r="AA143" s="7"/>
-      <c r="AB143" s="8"/>
-      <c r="AC143" s="7"/>
-      <c r="AD143" s="7"/>
-      <c r="AE143" s="7"/>
-    </row>
-    <row r="144" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>58</v>
       </c>
@@ -6818,29 +4621,14 @@
       <c r="H144" s="6"/>
       <c r="I144" s="7"/>
       <c r="J144" s="8"/>
-      <c r="K144" s="7"/>
+      <c r="K144" s="6"/>
       <c r="L144" s="7"/>
-      <c r="M144" s="7"/>
+      <c r="M144" s="8"/>
       <c r="N144" s="6"/>
       <c r="O144" s="7"/>
       <c r="P144" s="8"/>
-      <c r="Q144" s="7"/>
-      <c r="R144" s="7"/>
-      <c r="S144" s="7"/>
-      <c r="T144" s="6"/>
-      <c r="U144" s="7"/>
-      <c r="V144" s="8"/>
-      <c r="W144" s="7"/>
-      <c r="X144" s="7"/>
-      <c r="Y144" s="7"/>
-      <c r="Z144" s="6"/>
-      <c r="AA144" s="7"/>
-      <c r="AB144" s="8"/>
-      <c r="AC144" s="7"/>
-      <c r="AD144" s="7"/>
-      <c r="AE144" s="7"/>
-    </row>
-    <row r="145" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>57</v>
       </c>
@@ -6853,29 +4641,14 @@
       <c r="H145" s="6"/>
       <c r="I145" s="7"/>
       <c r="J145" s="8"/>
-      <c r="K145" s="7"/>
+      <c r="K145" s="6"/>
       <c r="L145" s="7"/>
-      <c r="M145" s="7"/>
+      <c r="M145" s="8"/>
       <c r="N145" s="6"/>
       <c r="O145" s="7"/>
       <c r="P145" s="8"/>
-      <c r="Q145" s="7"/>
-      <c r="R145" s="7"/>
-      <c r="S145" s="7"/>
-      <c r="T145" s="6"/>
-      <c r="U145" s="7"/>
-      <c r="V145" s="8"/>
-      <c r="W145" s="7"/>
-      <c r="X145" s="7"/>
-      <c r="Y145" s="7"/>
-      <c r="Z145" s="6"/>
-      <c r="AA145" s="7"/>
-      <c r="AB145" s="8"/>
-      <c r="AC145" s="7"/>
-      <c r="AD145" s="7"/>
-      <c r="AE145" s="7"/>
-    </row>
-    <row r="146" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>56</v>
       </c>
@@ -6888,29 +4661,14 @@
       <c r="H146" s="6"/>
       <c r="I146" s="7"/>
       <c r="J146" s="8"/>
-      <c r="K146" s="7"/>
+      <c r="K146" s="6"/>
       <c r="L146" s="7"/>
-      <c r="M146" s="7"/>
+      <c r="M146" s="8"/>
       <c r="N146" s="6"/>
       <c r="O146" s="7"/>
       <c r="P146" s="8"/>
-      <c r="Q146" s="7"/>
-      <c r="R146" s="7"/>
-      <c r="S146" s="7"/>
-      <c r="T146" s="6"/>
-      <c r="U146" s="7"/>
-      <c r="V146" s="8"/>
-      <c r="W146" s="7"/>
-      <c r="X146" s="7"/>
-      <c r="Y146" s="7"/>
-      <c r="Z146" s="6"/>
-      <c r="AA146" s="7"/>
-      <c r="AB146" s="8"/>
-      <c r="AC146" s="7"/>
-      <c r="AD146" s="7"/>
-      <c r="AE146" s="7"/>
-    </row>
-    <row r="147" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>55</v>
       </c>
@@ -6923,29 +4681,14 @@
       <c r="H147" s="6"/>
       <c r="I147" s="7"/>
       <c r="J147" s="8"/>
-      <c r="K147" s="7"/>
+      <c r="K147" s="6"/>
       <c r="L147" s="7"/>
-      <c r="M147" s="7"/>
+      <c r="M147" s="8"/>
       <c r="N147" s="6"/>
       <c r="O147" s="7"/>
       <c r="P147" s="8"/>
-      <c r="Q147" s="7"/>
-      <c r="R147" s="7"/>
-      <c r="S147" s="7"/>
-      <c r="T147" s="6"/>
-      <c r="U147" s="7"/>
-      <c r="V147" s="8"/>
-      <c r="W147" s="7"/>
-      <c r="X147" s="7"/>
-      <c r="Y147" s="7"/>
-      <c r="Z147" s="6"/>
-      <c r="AA147" s="7"/>
-      <c r="AB147" s="8"/>
-      <c r="AC147" s="7"/>
-      <c r="AD147" s="7"/>
-      <c r="AE147" s="7"/>
-    </row>
-    <row r="148" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>54</v>
       </c>
@@ -6958,29 +4701,14 @@
       <c r="H148" s="6"/>
       <c r="I148" s="7"/>
       <c r="J148" s="8"/>
-      <c r="K148" s="7"/>
+      <c r="K148" s="6"/>
       <c r="L148" s="7"/>
-      <c r="M148" s="7"/>
+      <c r="M148" s="8"/>
       <c r="N148" s="6"/>
       <c r="O148" s="7"/>
       <c r="P148" s="8"/>
-      <c r="Q148" s="7"/>
-      <c r="R148" s="7"/>
-      <c r="S148" s="7"/>
-      <c r="T148" s="6"/>
-      <c r="U148" s="7"/>
-      <c r="V148" s="8"/>
-      <c r="W148" s="7"/>
-      <c r="X148" s="7"/>
-      <c r="Y148" s="7"/>
-      <c r="Z148" s="6"/>
-      <c r="AA148" s="7"/>
-      <c r="AB148" s="8"/>
-      <c r="AC148" s="7"/>
-      <c r="AD148" s="7"/>
-      <c r="AE148" s="7"/>
-    </row>
-    <row r="149" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>53</v>
       </c>
@@ -6993,29 +4721,14 @@
       <c r="H149" s="6"/>
       <c r="I149" s="7"/>
       <c r="J149" s="8"/>
-      <c r="K149" s="7"/>
+      <c r="K149" s="6"/>
       <c r="L149" s="7"/>
-      <c r="M149" s="7"/>
+      <c r="M149" s="8"/>
       <c r="N149" s="6"/>
       <c r="O149" s="7"/>
       <c r="P149" s="8"/>
-      <c r="Q149" s="7"/>
-      <c r="R149" s="7"/>
-      <c r="S149" s="7"/>
-      <c r="T149" s="6"/>
-      <c r="U149" s="7"/>
-      <c r="V149" s="8"/>
-      <c r="W149" s="7"/>
-      <c r="X149" s="7"/>
-      <c r="Y149" s="7"/>
-      <c r="Z149" s="6"/>
-      <c r="AA149" s="7"/>
-      <c r="AB149" s="8"/>
-      <c r="AC149" s="7"/>
-      <c r="AD149" s="7"/>
-      <c r="AE149" s="7"/>
-    </row>
-    <row r="150" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>52</v>
       </c>
@@ -7028,29 +4741,14 @@
       <c r="H150" s="6"/>
       <c r="I150" s="7"/>
       <c r="J150" s="8"/>
-      <c r="K150" s="7"/>
+      <c r="K150" s="6"/>
       <c r="L150" s="7"/>
-      <c r="M150" s="7"/>
+      <c r="M150" s="8"/>
       <c r="N150" s="6"/>
       <c r="O150" s="7"/>
       <c r="P150" s="8"/>
-      <c r="Q150" s="7"/>
-      <c r="R150" s="7"/>
-      <c r="S150" s="7"/>
-      <c r="T150" s="6"/>
-      <c r="U150" s="7"/>
-      <c r="V150" s="8"/>
-      <c r="W150" s="7"/>
-      <c r="X150" s="7"/>
-      <c r="Y150" s="7"/>
-      <c r="Z150" s="6"/>
-      <c r="AA150" s="7"/>
-      <c r="AB150" s="8"/>
-      <c r="AC150" s="7"/>
-      <c r="AD150" s="7"/>
-      <c r="AE150" s="7"/>
-    </row>
-    <row r="151" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>51</v>
       </c>
@@ -7063,29 +4761,14 @@
       <c r="H151" s="6"/>
       <c r="I151" s="7"/>
       <c r="J151" s="8"/>
-      <c r="K151" s="7"/>
+      <c r="K151" s="6"/>
       <c r="L151" s="7"/>
-      <c r="M151" s="7"/>
+      <c r="M151" s="8"/>
       <c r="N151" s="6"/>
       <c r="O151" s="7"/>
       <c r="P151" s="8"/>
-      <c r="Q151" s="7"/>
-      <c r="R151" s="7"/>
-      <c r="S151" s="7"/>
-      <c r="T151" s="6"/>
-      <c r="U151" s="7"/>
-      <c r="V151" s="8"/>
-      <c r="W151" s="7"/>
-      <c r="X151" s="7"/>
-      <c r="Y151" s="7"/>
-      <c r="Z151" s="6"/>
-      <c r="AA151" s="7"/>
-      <c r="AB151" s="8"/>
-      <c r="AC151" s="7"/>
-      <c r="AD151" s="7"/>
-      <c r="AE151" s="7"/>
-    </row>
-    <row r="152" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>50</v>
       </c>
@@ -7098,29 +4781,14 @@
       <c r="H152" s="6"/>
       <c r="I152" s="7"/>
       <c r="J152" s="8"/>
-      <c r="K152" s="7"/>
+      <c r="K152" s="6"/>
       <c r="L152" s="7"/>
-      <c r="M152" s="7"/>
+      <c r="M152" s="8"/>
       <c r="N152" s="6"/>
       <c r="O152" s="7"/>
       <c r="P152" s="8"/>
-      <c r="Q152" s="7"/>
-      <c r="R152" s="7"/>
-      <c r="S152" s="7"/>
-      <c r="T152" s="6"/>
-      <c r="U152" s="7"/>
-      <c r="V152" s="8"/>
-      <c r="W152" s="7"/>
-      <c r="X152" s="7"/>
-      <c r="Y152" s="7"/>
-      <c r="Z152" s="6"/>
-      <c r="AA152" s="7"/>
-      <c r="AB152" s="8"/>
-      <c r="AC152" s="7"/>
-      <c r="AD152" s="7"/>
-      <c r="AE152" s="7"/>
-    </row>
-    <row r="153" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>49</v>
       </c>
@@ -7133,29 +4801,14 @@
       <c r="H153" s="6"/>
       <c r="I153" s="7"/>
       <c r="J153" s="8"/>
-      <c r="K153" s="7"/>
+      <c r="K153" s="6"/>
       <c r="L153" s="7"/>
-      <c r="M153" s="7"/>
+      <c r="M153" s="8"/>
       <c r="N153" s="6"/>
       <c r="O153" s="7"/>
       <c r="P153" s="8"/>
-      <c r="Q153" s="7"/>
-      <c r="R153" s="7"/>
-      <c r="S153" s="7"/>
-      <c r="T153" s="6"/>
-      <c r="U153" s="7"/>
-      <c r="V153" s="8"/>
-      <c r="W153" s="7"/>
-      <c r="X153" s="7"/>
-      <c r="Y153" s="7"/>
-      <c r="Z153" s="6"/>
-      <c r="AA153" s="7"/>
-      <c r="AB153" s="8"/>
-      <c r="AC153" s="7"/>
-      <c r="AD153" s="7"/>
-      <c r="AE153" s="7"/>
-    </row>
-    <row r="154" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>48</v>
       </c>
@@ -7168,29 +4821,14 @@
       <c r="H154" s="6"/>
       <c r="I154" s="7"/>
       <c r="J154" s="8"/>
-      <c r="K154" s="7"/>
+      <c r="K154" s="6"/>
       <c r="L154" s="7"/>
-      <c r="M154" s="7"/>
+      <c r="M154" s="8"/>
       <c r="N154" s="6"/>
       <c r="O154" s="7"/>
       <c r="P154" s="8"/>
-      <c r="Q154" s="7"/>
-      <c r="R154" s="7"/>
-      <c r="S154" s="7"/>
-      <c r="T154" s="6"/>
-      <c r="U154" s="7"/>
-      <c r="V154" s="8"/>
-      <c r="W154" s="7"/>
-      <c r="X154" s="7"/>
-      <c r="Y154" s="7"/>
-      <c r="Z154" s="6"/>
-      <c r="AA154" s="7"/>
-      <c r="AB154" s="8"/>
-      <c r="AC154" s="7"/>
-      <c r="AD154" s="7"/>
-      <c r="AE154" s="7"/>
-    </row>
-    <row r="155" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>47</v>
       </c>
@@ -7203,29 +4841,14 @@
       <c r="H155" s="6"/>
       <c r="I155" s="7"/>
       <c r="J155" s="8"/>
-      <c r="K155" s="7"/>
+      <c r="K155" s="6"/>
       <c r="L155" s="7"/>
-      <c r="M155" s="7"/>
+      <c r="M155" s="8"/>
       <c r="N155" s="6"/>
       <c r="O155" s="7"/>
       <c r="P155" s="8"/>
-      <c r="Q155" s="7"/>
-      <c r="R155" s="7"/>
-      <c r="S155" s="7"/>
-      <c r="T155" s="6"/>
-      <c r="U155" s="7"/>
-      <c r="V155" s="8"/>
-      <c r="W155" s="7"/>
-      <c r="X155" s="7"/>
-      <c r="Y155" s="7"/>
-      <c r="Z155" s="6"/>
-      <c r="AA155" s="7"/>
-      <c r="AB155" s="8"/>
-      <c r="AC155" s="7"/>
-      <c r="AD155" s="7"/>
-      <c r="AE155" s="7"/>
-    </row>
-    <row r="156" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>46</v>
       </c>
@@ -7238,29 +4861,14 @@
       <c r="H156" s="6"/>
       <c r="I156" s="7"/>
       <c r="J156" s="8"/>
-      <c r="K156" s="7"/>
+      <c r="K156" s="6"/>
       <c r="L156" s="7"/>
-      <c r="M156" s="7"/>
+      <c r="M156" s="8"/>
       <c r="N156" s="6"/>
       <c r="O156" s="7"/>
       <c r="P156" s="8"/>
-      <c r="Q156" s="7"/>
-      <c r="R156" s="7"/>
-      <c r="S156" s="7"/>
-      <c r="T156" s="6"/>
-      <c r="U156" s="7"/>
-      <c r="V156" s="8"/>
-      <c r="W156" s="7"/>
-      <c r="X156" s="7"/>
-      <c r="Y156" s="7"/>
-      <c r="Z156" s="6"/>
-      <c r="AA156" s="7"/>
-      <c r="AB156" s="8"/>
-      <c r="AC156" s="7"/>
-      <c r="AD156" s="7"/>
-      <c r="AE156" s="7"/>
-    </row>
-    <row r="157" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>45</v>
       </c>
@@ -7273,29 +4881,14 @@
       <c r="H157" s="6"/>
       <c r="I157" s="7"/>
       <c r="J157" s="8"/>
-      <c r="K157" s="7"/>
+      <c r="K157" s="6"/>
       <c r="L157" s="7"/>
-      <c r="M157" s="7"/>
+      <c r="M157" s="8"/>
       <c r="N157" s="6"/>
       <c r="O157" s="7"/>
       <c r="P157" s="8"/>
-      <c r="Q157" s="7"/>
-      <c r="R157" s="7"/>
-      <c r="S157" s="7"/>
-      <c r="T157" s="6"/>
-      <c r="U157" s="7"/>
-      <c r="V157" s="8"/>
-      <c r="W157" s="7"/>
-      <c r="X157" s="7"/>
-      <c r="Y157" s="7"/>
-      <c r="Z157" s="6"/>
-      <c r="AA157" s="7"/>
-      <c r="AB157" s="8"/>
-      <c r="AC157" s="7"/>
-      <c r="AD157" s="7"/>
-      <c r="AE157" s="7"/>
-    </row>
-    <row r="158" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>44</v>
       </c>
@@ -7308,29 +4901,14 @@
       <c r="H158" s="6"/>
       <c r="I158" s="7"/>
       <c r="J158" s="8"/>
-      <c r="K158" s="7"/>
+      <c r="K158" s="6"/>
       <c r="L158" s="7"/>
-      <c r="M158" s="7"/>
+      <c r="M158" s="8"/>
       <c r="N158" s="6"/>
       <c r="O158" s="7"/>
       <c r="P158" s="8"/>
-      <c r="Q158" s="7"/>
-      <c r="R158" s="7"/>
-      <c r="S158" s="7"/>
-      <c r="T158" s="6"/>
-      <c r="U158" s="7"/>
-      <c r="V158" s="8"/>
-      <c r="W158" s="7"/>
-      <c r="X158" s="7"/>
-      <c r="Y158" s="7"/>
-      <c r="Z158" s="6"/>
-      <c r="AA158" s="7"/>
-      <c r="AB158" s="8"/>
-      <c r="AC158" s="7"/>
-      <c r="AD158" s="7"/>
-      <c r="AE158" s="7"/>
-    </row>
-    <row r="159" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>43</v>
       </c>
@@ -7343,29 +4921,14 @@
       <c r="H159" s="6"/>
       <c r="I159" s="7"/>
       <c r="J159" s="8"/>
-      <c r="K159" s="7"/>
+      <c r="K159" s="6"/>
       <c r="L159" s="7"/>
-      <c r="M159" s="7"/>
+      <c r="M159" s="8"/>
       <c r="N159" s="6"/>
       <c r="O159" s="7"/>
       <c r="P159" s="8"/>
-      <c r="Q159" s="7"/>
-      <c r="R159" s="7"/>
-      <c r="S159" s="7"/>
-      <c r="T159" s="6"/>
-      <c r="U159" s="7"/>
-      <c r="V159" s="8"/>
-      <c r="W159" s="7"/>
-      <c r="X159" s="7"/>
-      <c r="Y159" s="7"/>
-      <c r="Z159" s="6"/>
-      <c r="AA159" s="7"/>
-      <c r="AB159" s="8"/>
-      <c r="AC159" s="7"/>
-      <c r="AD159" s="7"/>
-      <c r="AE159" s="7"/>
-    </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>42</v>
       </c>
@@ -7378,29 +4941,14 @@
       <c r="H160" s="6"/>
       <c r="I160" s="7"/>
       <c r="J160" s="8"/>
-      <c r="K160" s="7"/>
+      <c r="K160" s="6"/>
       <c r="L160" s="7"/>
-      <c r="M160" s="7"/>
+      <c r="M160" s="8"/>
       <c r="N160" s="6"/>
       <c r="O160" s="7"/>
       <c r="P160" s="8"/>
-      <c r="Q160" s="7"/>
-      <c r="R160" s="7"/>
-      <c r="S160" s="7"/>
-      <c r="T160" s="6"/>
-      <c r="U160" s="7"/>
-      <c r="V160" s="8"/>
-      <c r="W160" s="7"/>
-      <c r="X160" s="7"/>
-      <c r="Y160" s="7"/>
-      <c r="Z160" s="6"/>
-      <c r="AA160" s="7"/>
-      <c r="AB160" s="8"/>
-      <c r="AC160" s="7"/>
-      <c r="AD160" s="7"/>
-      <c r="AE160" s="7"/>
-    </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>41</v>
       </c>
@@ -7413,29 +4961,14 @@
       <c r="H161" s="6"/>
       <c r="I161" s="7"/>
       <c r="J161" s="8"/>
-      <c r="K161" s="7"/>
+      <c r="K161" s="6"/>
       <c r="L161" s="7"/>
-      <c r="M161" s="7"/>
+      <c r="M161" s="8"/>
       <c r="N161" s="6"/>
       <c r="O161" s="7"/>
       <c r="P161" s="8"/>
-      <c r="Q161" s="7"/>
-      <c r="R161" s="7"/>
-      <c r="S161" s="7"/>
-      <c r="T161" s="6"/>
-      <c r="U161" s="7"/>
-      <c r="V161" s="8"/>
-      <c r="W161" s="7"/>
-      <c r="X161" s="7"/>
-      <c r="Y161" s="7"/>
-      <c r="Z161" s="6"/>
-      <c r="AA161" s="7"/>
-      <c r="AB161" s="8"/>
-      <c r="AC161" s="7"/>
-      <c r="AD161" s="7"/>
-      <c r="AE161" s="7"/>
-    </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>40</v>
       </c>
@@ -7448,29 +4981,14 @@
       <c r="H162" s="6"/>
       <c r="I162" s="7"/>
       <c r="J162" s="8"/>
-      <c r="K162" s="7"/>
+      <c r="K162" s="6"/>
       <c r="L162" s="7"/>
-      <c r="M162" s="7"/>
+      <c r="M162" s="8"/>
       <c r="N162" s="6"/>
       <c r="O162" s="7"/>
       <c r="P162" s="8"/>
-      <c r="Q162" s="7"/>
-      <c r="R162" s="7"/>
-      <c r="S162" s="7"/>
-      <c r="T162" s="6"/>
-      <c r="U162" s="7"/>
-      <c r="V162" s="8"/>
-      <c r="W162" s="7"/>
-      <c r="X162" s="7"/>
-      <c r="Y162" s="7"/>
-      <c r="Z162" s="6"/>
-      <c r="AA162" s="7"/>
-      <c r="AB162" s="8"/>
-      <c r="AC162" s="7"/>
-      <c r="AD162" s="7"/>
-      <c r="AE162" s="7"/>
-    </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>39</v>
       </c>
@@ -7483,29 +5001,14 @@
       <c r="H163" s="6"/>
       <c r="I163" s="7"/>
       <c r="J163" s="8"/>
-      <c r="K163" s="7"/>
+      <c r="K163" s="6"/>
       <c r="L163" s="7"/>
-      <c r="M163" s="7"/>
+      <c r="M163" s="8"/>
       <c r="N163" s="6"/>
       <c r="O163" s="7"/>
       <c r="P163" s="8"/>
-      <c r="Q163" s="7"/>
-      <c r="R163" s="7"/>
-      <c r="S163" s="7"/>
-      <c r="T163" s="6"/>
-      <c r="U163" s="7"/>
-      <c r="V163" s="8"/>
-      <c r="W163" s="7"/>
-      <c r="X163" s="7"/>
-      <c r="Y163" s="7"/>
-      <c r="Z163" s="6"/>
-      <c r="AA163" s="7"/>
-      <c r="AB163" s="8"/>
-      <c r="AC163" s="7"/>
-      <c r="AD163" s="7"/>
-      <c r="AE163" s="7"/>
-    </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>38</v>
       </c>
@@ -7518,29 +5021,14 @@
       <c r="H164" s="6"/>
       <c r="I164" s="7"/>
       <c r="J164" s="8"/>
-      <c r="K164" s="7"/>
+      <c r="K164" s="6"/>
       <c r="L164" s="7"/>
-      <c r="M164" s="7"/>
+      <c r="M164" s="8"/>
       <c r="N164" s="6"/>
       <c r="O164" s="7"/>
       <c r="P164" s="8"/>
-      <c r="Q164" s="7"/>
-      <c r="R164" s="7"/>
-      <c r="S164" s="7"/>
-      <c r="T164" s="6"/>
-      <c r="U164" s="7"/>
-      <c r="V164" s="8"/>
-      <c r="W164" s="7"/>
-      <c r="X164" s="7"/>
-      <c r="Y164" s="7"/>
-      <c r="Z164" s="6"/>
-      <c r="AA164" s="7"/>
-      <c r="AB164" s="8"/>
-      <c r="AC164" s="7"/>
-      <c r="AD164" s="7"/>
-      <c r="AE164" s="7"/>
-    </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>37</v>
       </c>
@@ -7553,29 +5041,14 @@
       <c r="H165" s="6"/>
       <c r="I165" s="7"/>
       <c r="J165" s="8"/>
-      <c r="K165" s="7"/>
+      <c r="K165" s="6"/>
       <c r="L165" s="7"/>
-      <c r="M165" s="7"/>
+      <c r="M165" s="8"/>
       <c r="N165" s="6"/>
       <c r="O165" s="7"/>
       <c r="P165" s="8"/>
-      <c r="Q165" s="7"/>
-      <c r="R165" s="7"/>
-      <c r="S165" s="7"/>
-      <c r="T165" s="6"/>
-      <c r="U165" s="7"/>
-      <c r="V165" s="8"/>
-      <c r="W165" s="7"/>
-      <c r="X165" s="7"/>
-      <c r="Y165" s="7"/>
-      <c r="Z165" s="6"/>
-      <c r="AA165" s="7"/>
-      <c r="AB165" s="8"/>
-      <c r="AC165" s="7"/>
-      <c r="AD165" s="7"/>
-      <c r="AE165" s="7"/>
-    </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>36</v>
       </c>
@@ -7588,29 +5061,14 @@
       <c r="H166" s="6"/>
       <c r="I166" s="7"/>
       <c r="J166" s="8"/>
-      <c r="K166" s="7"/>
+      <c r="K166" s="6"/>
       <c r="L166" s="7"/>
-      <c r="M166" s="7"/>
+      <c r="M166" s="8"/>
       <c r="N166" s="6"/>
       <c r="O166" s="7"/>
       <c r="P166" s="8"/>
-      <c r="Q166" s="7"/>
-      <c r="R166" s="7"/>
-      <c r="S166" s="7"/>
-      <c r="T166" s="6"/>
-      <c r="U166" s="7"/>
-      <c r="V166" s="8"/>
-      <c r="W166" s="7"/>
-      <c r="X166" s="7"/>
-      <c r="Y166" s="7"/>
-      <c r="Z166" s="6"/>
-      <c r="AA166" s="7"/>
-      <c r="AB166" s="8"/>
-      <c r="AC166" s="7"/>
-      <c r="AD166" s="7"/>
-      <c r="AE166" s="7"/>
-    </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>35</v>
       </c>
@@ -7623,29 +5081,14 @@
       <c r="H167" s="6"/>
       <c r="I167" s="7"/>
       <c r="J167" s="8"/>
-      <c r="K167" s="7"/>
+      <c r="K167" s="6"/>
       <c r="L167" s="7"/>
-      <c r="M167" s="7"/>
+      <c r="M167" s="8"/>
       <c r="N167" s="6"/>
       <c r="O167" s="7"/>
       <c r="P167" s="8"/>
-      <c r="Q167" s="7"/>
-      <c r="R167" s="7"/>
-      <c r="S167" s="7"/>
-      <c r="T167" s="6"/>
-      <c r="U167" s="7"/>
-      <c r="V167" s="8"/>
-      <c r="W167" s="7"/>
-      <c r="X167" s="7"/>
-      <c r="Y167" s="7"/>
-      <c r="Z167" s="6"/>
-      <c r="AA167" s="7"/>
-      <c r="AB167" s="8"/>
-      <c r="AC167" s="7"/>
-      <c r="AD167" s="7"/>
-      <c r="AE167" s="7"/>
-    </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>34</v>
       </c>
@@ -7658,29 +5101,14 @@
       <c r="H168" s="6"/>
       <c r="I168" s="7"/>
       <c r="J168" s="8"/>
-      <c r="K168" s="7"/>
+      <c r="K168" s="6"/>
       <c r="L168" s="7"/>
-      <c r="M168" s="7"/>
+      <c r="M168" s="8"/>
       <c r="N168" s="6"/>
       <c r="O168" s="7"/>
       <c r="P168" s="8"/>
-      <c r="Q168" s="7"/>
-      <c r="R168" s="7"/>
-      <c r="S168" s="7"/>
-      <c r="T168" s="6"/>
-      <c r="U168" s="7"/>
-      <c r="V168" s="8"/>
-      <c r="W168" s="7"/>
-      <c r="X168" s="7"/>
-      <c r="Y168" s="7"/>
-      <c r="Z168" s="6"/>
-      <c r="AA168" s="7"/>
-      <c r="AB168" s="8"/>
-      <c r="AC168" s="7"/>
-      <c r="AD168" s="7"/>
-      <c r="AE168" s="7"/>
-    </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>33</v>
       </c>
@@ -7693,29 +5121,14 @@
       <c r="H169" s="6"/>
       <c r="I169" s="7"/>
       <c r="J169" s="8"/>
-      <c r="K169" s="7"/>
+      <c r="K169" s="6"/>
       <c r="L169" s="7"/>
-      <c r="M169" s="7"/>
+      <c r="M169" s="8"/>
       <c r="N169" s="6"/>
       <c r="O169" s="7"/>
       <c r="P169" s="8"/>
-      <c r="Q169" s="7"/>
-      <c r="R169" s="7"/>
-      <c r="S169" s="7"/>
-      <c r="T169" s="6"/>
-      <c r="U169" s="7"/>
-      <c r="V169" s="8"/>
-      <c r="W169" s="7"/>
-      <c r="X169" s="7"/>
-      <c r="Y169" s="7"/>
-      <c r="Z169" s="6"/>
-      <c r="AA169" s="7"/>
-      <c r="AB169" s="8"/>
-      <c r="AC169" s="7"/>
-      <c r="AD169" s="7"/>
-      <c r="AE169" s="7"/>
-    </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>32</v>
       </c>
@@ -7728,29 +5141,14 @@
       <c r="H170" s="6"/>
       <c r="I170" s="7"/>
       <c r="J170" s="8"/>
-      <c r="K170" s="7"/>
+      <c r="K170" s="6"/>
       <c r="L170" s="7"/>
-      <c r="M170" s="7"/>
+      <c r="M170" s="8"/>
       <c r="N170" s="6"/>
       <c r="O170" s="7"/>
       <c r="P170" s="8"/>
-      <c r="Q170" s="7"/>
-      <c r="R170" s="7"/>
-      <c r="S170" s="7"/>
-      <c r="T170" s="6"/>
-      <c r="U170" s="7"/>
-      <c r="V170" s="8"/>
-      <c r="W170" s="7"/>
-      <c r="X170" s="7"/>
-      <c r="Y170" s="7"/>
-      <c r="Z170" s="6"/>
-      <c r="AA170" s="7"/>
-      <c r="AB170" s="8"/>
-      <c r="AC170" s="7"/>
-      <c r="AD170" s="7"/>
-      <c r="AE170" s="7"/>
-    </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>31</v>
       </c>
@@ -7763,29 +5161,14 @@
       <c r="H171" s="6"/>
       <c r="I171" s="7"/>
       <c r="J171" s="8"/>
-      <c r="K171" s="7"/>
+      <c r="K171" s="6"/>
       <c r="L171" s="7"/>
-      <c r="M171" s="7"/>
+      <c r="M171" s="8"/>
       <c r="N171" s="6"/>
       <c r="O171" s="7"/>
       <c r="P171" s="8"/>
-      <c r="Q171" s="7"/>
-      <c r="R171" s="7"/>
-      <c r="S171" s="7"/>
-      <c r="T171" s="6"/>
-      <c r="U171" s="7"/>
-      <c r="V171" s="8"/>
-      <c r="W171" s="7"/>
-      <c r="X171" s="7"/>
-      <c r="Y171" s="7"/>
-      <c r="Z171" s="6"/>
-      <c r="AA171" s="7"/>
-      <c r="AB171" s="8"/>
-      <c r="AC171" s="7"/>
-      <c r="AD171" s="7"/>
-      <c r="AE171" s="7"/>
-    </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>30</v>
       </c>
@@ -7798,29 +5181,14 @@
       <c r="H172" s="6"/>
       <c r="I172" s="7"/>
       <c r="J172" s="8"/>
-      <c r="K172" s="7"/>
+      <c r="K172" s="6"/>
       <c r="L172" s="7"/>
-      <c r="M172" s="7"/>
+      <c r="M172" s="8"/>
       <c r="N172" s="6"/>
       <c r="O172" s="7"/>
       <c r="P172" s="8"/>
-      <c r="Q172" s="7"/>
-      <c r="R172" s="7"/>
-      <c r="S172" s="7"/>
-      <c r="T172" s="6"/>
-      <c r="U172" s="7"/>
-      <c r="V172" s="8"/>
-      <c r="W172" s="7"/>
-      <c r="X172" s="7"/>
-      <c r="Y172" s="7"/>
-      <c r="Z172" s="6"/>
-      <c r="AA172" s="7"/>
-      <c r="AB172" s="8"/>
-      <c r="AC172" s="7"/>
-      <c r="AD172" s="7"/>
-      <c r="AE172" s="7"/>
-    </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>29</v>
       </c>
@@ -7833,29 +5201,14 @@
       <c r="H173" s="6"/>
       <c r="I173" s="7"/>
       <c r="J173" s="8"/>
-      <c r="K173" s="7"/>
+      <c r="K173" s="6"/>
       <c r="L173" s="7"/>
-      <c r="M173" s="7"/>
+      <c r="M173" s="8"/>
       <c r="N173" s="6"/>
       <c r="O173" s="7"/>
       <c r="P173" s="8"/>
-      <c r="Q173" s="7"/>
-      <c r="R173" s="7"/>
-      <c r="S173" s="7"/>
-      <c r="T173" s="6"/>
-      <c r="U173" s="7"/>
-      <c r="V173" s="8"/>
-      <c r="W173" s="7"/>
-      <c r="X173" s="7"/>
-      <c r="Y173" s="7"/>
-      <c r="Z173" s="6"/>
-      <c r="AA173" s="7"/>
-      <c r="AB173" s="8"/>
-      <c r="AC173" s="7"/>
-      <c r="AD173" s="7"/>
-      <c r="AE173" s="7"/>
-    </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>28</v>
       </c>
@@ -7868,29 +5221,14 @@
       <c r="H174" s="6"/>
       <c r="I174" s="7"/>
       <c r="J174" s="8"/>
-      <c r="K174" s="7"/>
+      <c r="K174" s="6"/>
       <c r="L174" s="7"/>
-      <c r="M174" s="7"/>
+      <c r="M174" s="8"/>
       <c r="N174" s="6"/>
       <c r="O174" s="7"/>
-      <c r="P174" s="9"/>
-      <c r="Q174" s="15"/>
-      <c r="R174" s="15"/>
-      <c r="S174" s="15"/>
-      <c r="T174" s="11"/>
-      <c r="U174" s="15"/>
-      <c r="V174" s="9"/>
-      <c r="W174" s="15"/>
-      <c r="X174" s="15"/>
-      <c r="Y174" s="15"/>
-      <c r="Z174" s="6"/>
-      <c r="AA174" s="7"/>
-      <c r="AB174" s="8"/>
-      <c r="AC174" s="7"/>
-      <c r="AD174" s="7"/>
-      <c r="AE174" s="7"/>
-    </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="P174" s="8"/>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>27</v>
       </c>
@@ -7903,29 +5241,14 @@
       <c r="H175" s="6"/>
       <c r="I175" s="7"/>
       <c r="J175" s="8"/>
-      <c r="K175" s="7"/>
+      <c r="K175" s="6"/>
       <c r="L175" s="7"/>
-      <c r="M175" s="7"/>
+      <c r="M175" s="8"/>
       <c r="N175" s="6"/>
       <c r="O175" s="7"/>
       <c r="P175" s="8"/>
-      <c r="Q175" s="7"/>
-      <c r="R175" s="7"/>
-      <c r="S175" s="7"/>
-      <c r="T175" s="6"/>
-      <c r="U175" s="7"/>
-      <c r="V175" s="8"/>
-      <c r="W175" s="7"/>
-      <c r="X175" s="7"/>
-      <c r="Y175" s="7"/>
-      <c r="Z175" s="6"/>
-      <c r="AA175" s="7"/>
-      <c r="AB175" s="8"/>
-      <c r="AC175" s="7"/>
-      <c r="AD175" s="7"/>
-      <c r="AE175" s="7"/>
-    </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>26</v>
       </c>
@@ -7938,29 +5261,14 @@
       <c r="H176" s="6"/>
       <c r="I176" s="7"/>
       <c r="J176" s="8"/>
-      <c r="K176" s="7"/>
+      <c r="K176" s="6"/>
       <c r="L176" s="7"/>
-      <c r="M176" s="7"/>
+      <c r="M176" s="8"/>
       <c r="N176" s="6"/>
       <c r="O176" s="7"/>
       <c r="P176" s="8"/>
-      <c r="Q176" s="7"/>
-      <c r="R176" s="7"/>
-      <c r="S176" s="7"/>
-      <c r="T176" s="6"/>
-      <c r="U176" s="7"/>
-      <c r="V176" s="8"/>
-      <c r="W176" s="7"/>
-      <c r="X176" s="7"/>
-      <c r="Y176" s="7"/>
-      <c r="Z176" s="6"/>
-      <c r="AA176" s="7"/>
-      <c r="AB176" s="8"/>
-      <c r="AC176" s="7"/>
-      <c r="AD176" s="7"/>
-      <c r="AE176" s="7"/>
-    </row>
-    <row r="177" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>25</v>
       </c>
@@ -7973,29 +5281,14 @@
       <c r="H177" s="6"/>
       <c r="I177" s="7"/>
       <c r="J177" s="8"/>
-      <c r="K177" s="7"/>
+      <c r="K177" s="6"/>
       <c r="L177" s="7"/>
-      <c r="M177" s="7"/>
+      <c r="M177" s="8"/>
       <c r="N177" s="6"/>
       <c r="O177" s="7"/>
       <c r="P177" s="8"/>
-      <c r="Q177" s="7"/>
-      <c r="R177" s="7"/>
-      <c r="S177" s="7"/>
-      <c r="T177" s="6"/>
-      <c r="U177" s="7"/>
-      <c r="V177" s="8"/>
-      <c r="W177" s="7"/>
-      <c r="X177" s="7"/>
-      <c r="Y177" s="7"/>
-      <c r="Z177" s="6"/>
-      <c r="AA177" s="7"/>
-      <c r="AB177" s="8"/>
-      <c r="AC177" s="7"/>
-      <c r="AD177" s="7"/>
-      <c r="AE177" s="7"/>
-    </row>
-    <row r="178" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>24</v>
       </c>
@@ -8008,35 +5301,14 @@
       <c r="H178" s="6"/>
       <c r="I178" s="7"/>
       <c r="J178" s="8"/>
-      <c r="K178" s="7"/>
+      <c r="K178" s="6"/>
       <c r="L178" s="7"/>
-      <c r="M178" s="7"/>
+      <c r="M178" s="8"/>
       <c r="N178" s="6"/>
       <c r="O178" s="7"/>
       <c r="P178" s="8"/>
-      <c r="Q178" s="7"/>
-      <c r="R178" s="7"/>
-      <c r="S178" s="7"/>
-      <c r="T178" s="12">
-        <v>2</v>
-      </c>
-      <c r="U178" s="13">
-        <v>3</v>
-      </c>
-      <c r="V178" s="14">
-        <v>6</v>
-      </c>
-      <c r="W178" s="7"/>
-      <c r="X178" s="7"/>
-      <c r="Y178" s="7"/>
-      <c r="Z178" s="6"/>
-      <c r="AA178" s="7"/>
-      <c r="AB178" s="8"/>
-      <c r="AC178" s="7"/>
-      <c r="AD178" s="7"/>
-      <c r="AE178" s="7"/>
-    </row>
-    <row r="179" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>23</v>
       </c>
@@ -8049,29 +5321,14 @@
       <c r="H179" s="6"/>
       <c r="I179" s="7"/>
       <c r="J179" s="8"/>
-      <c r="K179" s="7"/>
+      <c r="K179" s="6"/>
       <c r="L179" s="7"/>
-      <c r="M179" s="7"/>
+      <c r="M179" s="8"/>
       <c r="N179" s="6"/>
       <c r="O179" s="7"/>
       <c r="P179" s="8"/>
-      <c r="Q179" s="7"/>
-      <c r="R179" s="7"/>
-      <c r="S179" s="7"/>
-      <c r="T179" s="6"/>
-      <c r="U179" s="7"/>
-      <c r="V179" s="8"/>
-      <c r="W179" s="7"/>
-      <c r="X179" s="7"/>
-      <c r="Y179" s="7"/>
-      <c r="Z179" s="6"/>
-      <c r="AA179" s="7"/>
-      <c r="AB179" s="8"/>
-      <c r="AC179" s="7"/>
-      <c r="AD179" s="7"/>
-      <c r="AE179" s="7"/>
-    </row>
-    <row r="180" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>22</v>
       </c>
@@ -8084,35 +5341,14 @@
       <c r="H180" s="6"/>
       <c r="I180" s="7"/>
       <c r="J180" s="8"/>
-      <c r="K180" s="7"/>
+      <c r="K180" s="6"/>
       <c r="L180" s="7"/>
-      <c r="M180" s="7"/>
+      <c r="M180" s="8"/>
       <c r="N180" s="6"/>
       <c r="O180" s="7"/>
       <c r="P180" s="8"/>
-      <c r="Q180" s="7">
-        <v>4</v>
-      </c>
-      <c r="R180" s="7">
-        <v>1</v>
-      </c>
-      <c r="S180" s="7">
-        <v>3</v>
-      </c>
-      <c r="T180" s="6"/>
-      <c r="U180" s="7"/>
-      <c r="V180" s="8"/>
-      <c r="W180" s="7"/>
-      <c r="X180" s="7"/>
-      <c r="Y180" s="7"/>
-      <c r="Z180" s="6"/>
-      <c r="AA180" s="7"/>
-      <c r="AB180" s="8"/>
-      <c r="AC180" s="7"/>
-      <c r="AD180" s="7"/>
-      <c r="AE180" s="7"/>
-    </row>
-    <row r="181" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>21</v>
       </c>
@@ -8125,35 +5361,14 @@
       <c r="H181" s="6"/>
       <c r="I181" s="7"/>
       <c r="J181" s="8"/>
-      <c r="K181" s="7"/>
+      <c r="K181" s="6"/>
       <c r="L181" s="7"/>
-      <c r="M181" s="7"/>
-      <c r="N181" s="6">
-        <v>5</v>
-      </c>
-      <c r="O181" s="7">
-        <v>0</v>
-      </c>
-      <c r="P181" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q181" s="7"/>
-      <c r="R181" s="7"/>
-      <c r="S181" s="7"/>
-      <c r="T181" s="6"/>
-      <c r="U181" s="7"/>
-      <c r="V181" s="8"/>
-      <c r="W181" s="7"/>
-      <c r="X181" s="7"/>
-      <c r="Y181" s="7"/>
-      <c r="Z181" s="6"/>
-      <c r="AA181" s="7"/>
-      <c r="AB181" s="8"/>
-      <c r="AC181" s="7"/>
-      <c r="AD181" s="7"/>
-      <c r="AE181" s="7"/>
-    </row>
-    <row r="182" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="M181" s="8"/>
+      <c r="N181" s="6"/>
+      <c r="O181" s="7"/>
+      <c r="P181" s="8"/>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>20</v>
       </c>
@@ -8166,41 +5381,14 @@
       <c r="H182" s="6"/>
       <c r="I182" s="7"/>
       <c r="J182" s="8"/>
-      <c r="K182" s="7"/>
+      <c r="K182" s="6"/>
       <c r="L182" s="7"/>
-      <c r="M182" s="7"/>
-      <c r="N182" s="6">
-        <v>4</v>
-      </c>
-      <c r="O182" s="7">
-        <v>1</v>
-      </c>
-      <c r="P182" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q182" s="7"/>
-      <c r="R182" s="7"/>
-      <c r="S182" s="7"/>
-      <c r="T182" s="6"/>
-      <c r="U182" s="7"/>
-      <c r="V182" s="8"/>
-      <c r="W182" s="7"/>
-      <c r="X182" s="7"/>
-      <c r="Y182" s="7"/>
-      <c r="Z182" s="12">
-        <v>2</v>
-      </c>
-      <c r="AA182" s="13">
-        <v>3</v>
-      </c>
-      <c r="AB182" s="14">
-        <v>3</v>
-      </c>
-      <c r="AC182" s="13"/>
-      <c r="AD182" s="13"/>
-      <c r="AE182" s="13"/>
-    </row>
-    <row r="183" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="M182" s="8"/>
+      <c r="N182" s="6"/>
+      <c r="O182" s="7"/>
+      <c r="P182" s="8"/>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>19</v>
       </c>
@@ -8213,35 +5401,14 @@
       <c r="H183" s="6"/>
       <c r="I183" s="7"/>
       <c r="J183" s="8"/>
-      <c r="K183" s="7"/>
+      <c r="K183" s="6"/>
       <c r="L183" s="7"/>
-      <c r="M183" s="7"/>
+      <c r="M183" s="8"/>
       <c r="N183" s="6"/>
       <c r="O183" s="7"/>
       <c r="P183" s="8"/>
-      <c r="Q183" s="7"/>
-      <c r="R183" s="7"/>
-      <c r="S183" s="7"/>
-      <c r="T183" s="6"/>
-      <c r="U183" s="7"/>
-      <c r="V183" s="8"/>
-      <c r="W183" s="7"/>
-      <c r="X183" s="7"/>
-      <c r="Y183" s="7"/>
-      <c r="Z183" s="6">
-        <v>5</v>
-      </c>
-      <c r="AA183" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB183" s="8">
-        <v>3</v>
-      </c>
-      <c r="AC183" s="7"/>
-      <c r="AD183" s="7"/>
-      <c r="AE183" s="7"/>
-    </row>
-    <row r="184" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>18</v>
       </c>
@@ -8254,41 +5421,14 @@
       <c r="H184" s="6"/>
       <c r="I184" s="7"/>
       <c r="J184" s="8"/>
-      <c r="K184" s="7"/>
+      <c r="K184" s="6"/>
       <c r="L184" s="7"/>
-      <c r="M184" s="7"/>
-      <c r="N184" s="6">
-        <v>3</v>
-      </c>
-      <c r="O184" s="7">
-        <v>2</v>
-      </c>
-      <c r="P184" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q184" s="10"/>
-      <c r="R184" s="10"/>
-      <c r="S184" s="10"/>
-      <c r="T184" s="21"/>
-      <c r="U184" s="10"/>
-      <c r="V184" s="22"/>
-      <c r="W184" s="10"/>
-      <c r="X184" s="10"/>
-      <c r="Y184" s="10"/>
-      <c r="Z184" s="6">
-        <v>4</v>
-      </c>
-      <c r="AA184" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB184" s="8">
-        <v>3</v>
-      </c>
-      <c r="AC184" s="7"/>
-      <c r="AD184" s="7"/>
-      <c r="AE184" s="7"/>
-    </row>
-    <row r="185" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="M184" s="8"/>
+      <c r="N184" s="6"/>
+      <c r="O184" s="7"/>
+      <c r="P184" s="8"/>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>17</v>
       </c>
@@ -8301,29 +5441,14 @@
       <c r="H185" s="6"/>
       <c r="I185" s="7"/>
       <c r="J185" s="8"/>
-      <c r="K185" s="7"/>
+      <c r="K185" s="6"/>
       <c r="L185" s="7"/>
-      <c r="M185" s="7"/>
+      <c r="M185" s="8"/>
       <c r="N185" s="6"/>
       <c r="O185" s="7"/>
-      <c r="P185" s="7"/>
-      <c r="Q185" s="6"/>
-      <c r="R185" s="7"/>
-      <c r="S185" s="7"/>
-      <c r="T185" s="6"/>
-      <c r="U185" s="7"/>
-      <c r="V185" s="8"/>
-      <c r="W185" s="7"/>
-      <c r="X185" s="7"/>
-      <c r="Y185" s="7"/>
-      <c r="Z185" s="6"/>
-      <c r="AA185" s="7"/>
-      <c r="AB185" s="8"/>
-      <c r="AC185" s="7"/>
-      <c r="AD185" s="7"/>
-      <c r="AE185" s="7"/>
-    </row>
-    <row r="186" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="P185" s="8"/>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>16</v>
       </c>
@@ -8336,47 +5461,14 @@
       <c r="H186" s="6"/>
       <c r="I186" s="7"/>
       <c r="J186" s="8"/>
-      <c r="K186" s="7"/>
+      <c r="K186" s="6"/>
       <c r="L186" s="7"/>
-      <c r="M186" s="7"/>
+      <c r="M186" s="8"/>
       <c r="N186" s="6"/>
       <c r="O186" s="7"/>
-      <c r="P186" s="7"/>
-      <c r="Q186" s="6"/>
-      <c r="R186" s="7"/>
-      <c r="S186" s="7"/>
-      <c r="T186" s="12">
-        <v>1</v>
-      </c>
-      <c r="U186" s="13">
-        <v>4</v>
-      </c>
-      <c r="V186" s="14">
-        <v>6</v>
-      </c>
-      <c r="W186" s="13"/>
-      <c r="X186" s="13"/>
-      <c r="Y186" s="13"/>
-      <c r="Z186" s="6">
-        <v>3</v>
-      </c>
-      <c r="AA186" s="7">
-        <v>2</v>
-      </c>
-      <c r="AB186" s="8">
-        <v>3</v>
-      </c>
-      <c r="AC186" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD186" s="16">
-        <v>4</v>
-      </c>
-      <c r="AE186" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="P186" s="8"/>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>15</v>
       </c>
@@ -8386,97 +5478,43 @@
       <c r="E187" s="6"/>
       <c r="F187" s="7"/>
       <c r="G187" s="8"/>
-      <c r="H187" s="6">
-        <v>5</v>
-      </c>
-      <c r="I187" s="7">
-        <v>0</v>
-      </c>
-      <c r="J187" s="8">
-        <v>2</v>
-      </c>
-      <c r="K187" s="7"/>
+      <c r="H187" s="6"/>
+      <c r="I187" s="7"/>
+      <c r="J187" s="8"/>
+      <c r="K187" s="6"/>
       <c r="L187" s="7"/>
-      <c r="M187" s="7"/>
+      <c r="M187" s="8"/>
       <c r="N187" s="6"/>
-      <c r="O187" s="10"/>
-      <c r="P187" s="7"/>
-      <c r="Q187" s="6"/>
-      <c r="R187" s="7"/>
-      <c r="S187" s="7"/>
-      <c r="T187" s="6"/>
-      <c r="U187" s="7"/>
-      <c r="V187" s="8"/>
-      <c r="W187" s="7"/>
-      <c r="X187" s="7"/>
-      <c r="Y187" s="7"/>
-      <c r="Z187" s="6"/>
-      <c r="AA187" s="7"/>
-      <c r="AB187" s="8"/>
-      <c r="AC187" s="7">
-        <v>5</v>
-      </c>
-      <c r="AD187" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE187" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="O187" s="7"/>
+      <c r="P187" s="8"/>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>14</v>
       </c>
-      <c r="B188" s="6"/>
-      <c r="C188" s="7"/>
-      <c r="D188" s="8"/>
+      <c r="B188" s="10">
+        <v>1</v>
+      </c>
+      <c r="C188" s="11">
+        <v>1</v>
+      </c>
+      <c r="D188" s="12">
+        <v>13</v>
+      </c>
       <c r="E188" s="6"/>
       <c r="F188" s="7"/>
       <c r="G188" s="8"/>
-      <c r="H188" s="6">
-        <v>4</v>
-      </c>
-      <c r="I188" s="7">
-        <v>1</v>
-      </c>
-      <c r="J188" s="8">
-        <v>2</v>
-      </c>
-      <c r="K188" s="7"/>
+      <c r="H188" s="6"/>
+      <c r="I188" s="7"/>
+      <c r="J188" s="8"/>
+      <c r="K188" s="6"/>
       <c r="L188" s="7"/>
-      <c r="M188" s="7"/>
-      <c r="N188" s="6">
-        <v>2</v>
-      </c>
-      <c r="O188" s="10">
-        <v>3</v>
-      </c>
-      <c r="P188" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q188" s="6"/>
-      <c r="R188" s="7"/>
-      <c r="S188" s="7"/>
-      <c r="T188" s="6"/>
-      <c r="U188" s="7"/>
-      <c r="V188" s="8"/>
-      <c r="W188" s="7"/>
-      <c r="X188" s="7"/>
-      <c r="Y188" s="7"/>
-      <c r="Z188" s="6"/>
-      <c r="AA188" s="7"/>
-      <c r="AB188" s="8"/>
-      <c r="AC188" s="7">
-        <v>4</v>
-      </c>
-      <c r="AD188" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE188" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="M188" s="8"/>
+      <c r="N188" s="6"/>
+      <c r="O188" s="7"/>
+      <c r="P188" s="8"/>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>13</v>
       </c>
@@ -8489,26 +5527,14 @@
       <c r="H189" s="6"/>
       <c r="I189" s="7"/>
       <c r="J189" s="8"/>
-      <c r="K189" s="7"/>
+      <c r="K189" s="6"/>
       <c r="L189" s="7"/>
       <c r="M189" s="8"/>
-      <c r="N189" s="7"/>
+      <c r="N189" s="6"/>
       <c r="O189" s="7"/>
-      <c r="P189" s="7"/>
-      <c r="Q189" s="6"/>
-      <c r="R189" s="7"/>
-      <c r="S189" s="7"/>
-      <c r="T189" s="6"/>
-      <c r="U189" s="7"/>
-      <c r="V189" s="8"/>
-      <c r="Z189" s="12"/>
-      <c r="AA189" s="13"/>
-      <c r="AB189" s="14"/>
-      <c r="AC189" s="13"/>
-      <c r="AD189" s="13"/>
-      <c r="AE189" s="13"/>
-    </row>
-    <row r="190" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="P189" s="8"/>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>12</v>
       </c>
@@ -8518,59 +5544,17 @@
       <c r="E190" s="6"/>
       <c r="F190" s="7"/>
       <c r="G190" s="8"/>
-      <c r="H190" s="6">
-        <v>3</v>
-      </c>
-      <c r="I190" s="7">
-        <v>2</v>
-      </c>
-      <c r="J190" s="8">
-        <v>2</v>
-      </c>
-      <c r="K190" s="7"/>
+      <c r="H190" s="6"/>
+      <c r="I190" s="7"/>
+      <c r="J190" s="8"/>
+      <c r="K190" s="6"/>
       <c r="L190" s="7"/>
       <c r="M190" s="8"/>
-      <c r="N190" s="7"/>
-      <c r="O190" s="10"/>
-      <c r="P190" s="7"/>
-      <c r="Q190" s="6"/>
-      <c r="R190" s="7"/>
-      <c r="S190" s="7"/>
-      <c r="T190" s="6"/>
-      <c r="U190" s="7"/>
-      <c r="V190" s="8"/>
-      <c r="W190" s="13">
-        <v>3</v>
-      </c>
-      <c r="X190" s="13">
-        <v>2</v>
-      </c>
-      <c r="Y190" s="13">
-        <v>5</v>
-      </c>
-      <c r="Z190" s="17">
-        <v>1</v>
-      </c>
-      <c r="AA190" s="18">
-        <v>4</v>
-      </c>
-      <c r="AB190" s="19">
-        <v>4</v>
-      </c>
-      <c r="AC190" s="18">
-        <v>3</v>
-      </c>
-      <c r="AD190" s="18">
-        <v>2</v>
-      </c>
-      <c r="AE190" s="18">
-        <v>3</v>
-      </c>
-      <c r="AI190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="191" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="N190" s="6"/>
+      <c r="O190" s="7"/>
+      <c r="P190" s="8"/>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>11</v>
       </c>
@@ -8583,35 +5567,11 @@
       <c r="H191" s="6"/>
       <c r="I191" s="7"/>
       <c r="J191" s="8"/>
-      <c r="K191" s="7"/>
+      <c r="K191" s="6"/>
       <c r="L191" s="7"/>
       <c r="M191" s="8"/>
-      <c r="N191" s="7"/>
-      <c r="O191" s="7"/>
-      <c r="P191" s="7"/>
-      <c r="Q191" s="6"/>
-      <c r="R191" s="7"/>
-      <c r="S191" s="7"/>
-      <c r="T191" s="12"/>
-      <c r="U191" s="13"/>
-      <c r="V191" s="14"/>
-      <c r="W191" s="18">
-        <v>5</v>
-      </c>
-      <c r="X191" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y191" s="19">
-        <v>5</v>
-      </c>
-      <c r="Z191" s="6"/>
-      <c r="AA191" s="7"/>
-      <c r="AB191" s="8"/>
-      <c r="AC191" s="7"/>
-      <c r="AD191" s="7"/>
-      <c r="AE191" s="7"/>
-    </row>
-    <row r="192" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>10</v>
       </c>
@@ -8624,30 +5584,14 @@
       <c r="H192" s="6"/>
       <c r="I192" s="7"/>
       <c r="J192" s="8"/>
-      <c r="K192" s="7"/>
+      <c r="K192" s="6"/>
       <c r="L192" s="7"/>
       <c r="M192" s="8"/>
-      <c r="Q192" s="6"/>
-      <c r="T192" s="12"/>
-      <c r="U192" s="16"/>
-      <c r="V192" s="14"/>
-      <c r="W192" s="18">
-        <v>4</v>
-      </c>
-      <c r="X192" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y192" s="19">
-        <v>5</v>
-      </c>
-      <c r="Z192" s="6"/>
-      <c r="AA192" s="7"/>
-      <c r="AB192" s="8"/>
-      <c r="AC192" s="7"/>
-      <c r="AD192" s="7"/>
-      <c r="AE192" s="7"/>
-    </row>
-    <row r="193" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="N192" s="10"/>
+      <c r="O192" s="11"/>
+      <c r="P192" s="8"/>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>9</v>
       </c>
@@ -8657,35 +5601,26 @@
       <c r="E193" s="6"/>
       <c r="F193" s="7"/>
       <c r="G193" s="8"/>
-      <c r="H193" s="6">
-        <v>2</v>
-      </c>
-      <c r="I193" s="7">
-        <v>3</v>
-      </c>
-      <c r="J193" s="8">
-        <v>2</v>
-      </c>
-      <c r="K193" s="7"/>
+      <c r="H193" s="6"/>
+      <c r="I193" s="7"/>
+      <c r="J193" s="8"/>
+      <c r="K193" s="6"/>
       <c r="L193" s="7"/>
       <c r="M193" s="8"/>
-      <c r="Q193" s="12"/>
-      <c r="R193" s="20"/>
-      <c r="S193" s="20"/>
-      <c r="T193" s="6"/>
-      <c r="U193" s="7"/>
-      <c r="V193" s="8"/>
-      <c r="W193" s="20"/>
-      <c r="X193" s="20"/>
-      <c r="Y193" s="20"/>
-      <c r="Z193" s="6"/>
-      <c r="AA193" s="7"/>
-      <c r="AB193" s="8"/>
-      <c r="AC193" s="7"/>
-      <c r="AD193" s="7"/>
-      <c r="AE193" s="7"/>
-    </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="N193" s="10"/>
+      <c r="O193" s="11"/>
+      <c r="P193" s="8"/>
+      <c r="Q193">
+        <v>1</v>
+      </c>
+      <c r="R193" s="14">
+        <v>3</v>
+      </c>
+      <c r="S193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>8</v>
       </c>
@@ -8695,56 +5630,35 @@
       <c r="E194" s="6"/>
       <c r="F194" s="7"/>
       <c r="G194" s="8"/>
-      <c r="H194" s="6"/>
-      <c r="I194" s="7"/>
-      <c r="J194" s="8"/>
-      <c r="K194" s="7"/>
-      <c r="L194" s="7"/>
-      <c r="M194" s="8"/>
-      <c r="N194" s="7">
+      <c r="H194" s="10">
         <v>1</v>
       </c>
-      <c r="O194" s="10">
+      <c r="I194" s="11">
+        <v>2</v>
+      </c>
+      <c r="J194" s="12">
         <v>4</v>
       </c>
-      <c r="P194" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q194" s="12"/>
-      <c r="R194" s="16"/>
-      <c r="S194" s="13"/>
-      <c r="T194" s="12">
+      <c r="K194" s="10">
+        <v>1</v>
+      </c>
+      <c r="L194" s="11">
         <v>2</v>
       </c>
-      <c r="U194" s="13">
-        <v>3</v>
-      </c>
-      <c r="V194" s="14">
-        <v>5</v>
-      </c>
-      <c r="W194" s="18">
+      <c r="M194" s="12">
+        <v>4</v>
+      </c>
+      <c r="N194" s="10">
+        <v>1</v>
+      </c>
+      <c r="O194" s="11">
         <v>2</v>
       </c>
-      <c r="X194" s="18">
-        <v>3</v>
-      </c>
-      <c r="Y194" s="19">
-        <v>6</v>
-      </c>
-      <c r="Z194" s="6"/>
-      <c r="AA194" s="7"/>
-      <c r="AB194" s="8"/>
-      <c r="AC194" s="7">
-        <v>2</v>
-      </c>
-      <c r="AD194" s="7">
-        <v>3</v>
-      </c>
-      <c r="AE194" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="P194" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>7</v>
       </c>
@@ -8757,23 +5671,26 @@
       <c r="H195" s="6"/>
       <c r="I195" s="7"/>
       <c r="J195" s="8"/>
-      <c r="K195" s="7"/>
-      <c r="L195" s="7"/>
-      <c r="M195" s="8"/>
-      <c r="N195" s="7"/>
-      <c r="O195" s="7"/>
-      <c r="P195" s="7"/>
-      <c r="T195" s="6"/>
-      <c r="U195" s="7"/>
-      <c r="V195" s="8"/>
-      <c r="Z195" s="6"/>
-      <c r="AA195" s="7"/>
-      <c r="AB195" s="8"/>
-      <c r="AC195" s="7"/>
-      <c r="AD195" s="7"/>
-      <c r="AE195" s="7"/>
-    </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="K195" s="10">
+        <v>3</v>
+      </c>
+      <c r="L195" s="11">
+        <v>1</v>
+      </c>
+      <c r="M195" s="12">
+        <v>2</v>
+      </c>
+      <c r="N195" s="16">
+        <v>3</v>
+      </c>
+      <c r="O195" s="15">
+        <v>1</v>
+      </c>
+      <c r="P195" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>6</v>
       </c>
@@ -8786,147 +5703,90 @@
       <c r="H196" s="6"/>
       <c r="I196" s="7"/>
       <c r="J196" s="8"/>
-      <c r="K196" s="7"/>
+      <c r="K196" s="6"/>
       <c r="L196" s="7"/>
       <c r="M196" s="8"/>
-      <c r="N196" s="7"/>
-      <c r="O196" s="7"/>
-      <c r="P196" s="7"/>
-      <c r="Q196" s="12"/>
-      <c r="R196" s="13"/>
-      <c r="S196" s="13"/>
-      <c r="T196" s="17"/>
-      <c r="U196" s="18"/>
-      <c r="V196" s="19"/>
-      <c r="W196" s="18"/>
-      <c r="X196" s="18"/>
-      <c r="Y196" s="18"/>
-      <c r="Z196" s="12">
+      <c r="P196" s="8"/>
+      <c r="Q196">
         <v>2</v>
       </c>
-      <c r="AA196" s="13">
+      <c r="R196" s="14">
+        <v>2</v>
+      </c>
+      <c r="S196">
         <v>3</v>
       </c>
-      <c r="AB196" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC196" s="13"/>
-      <c r="AD196" s="13"/>
-      <c r="AE196" s="13"/>
-    </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>5</v>
       </c>
       <c r="B197" s="6"/>
       <c r="C197" s="7"/>
       <c r="D197" s="8"/>
-      <c r="E197" s="6">
-        <v>5</v>
-      </c>
-      <c r="F197" s="7">
-        <v>0</v>
-      </c>
-      <c r="G197" s="8">
+      <c r="E197" s="10">
         <v>1</v>
       </c>
-      <c r="H197" s="6">
+      <c r="F197" s="11">
         <v>1</v>
       </c>
-      <c r="I197" s="7">
+      <c r="G197" s="12">
         <v>4</v>
       </c>
-      <c r="J197" s="8">
-        <v>2</v>
-      </c>
-      <c r="K197" s="12">
-        <v>1</v>
-      </c>
-      <c r="L197" s="13">
-        <v>4</v>
-      </c>
-      <c r="M197" s="14">
-        <v>1</v>
-      </c>
-      <c r="T197" s="6"/>
-      <c r="U197" s="7"/>
-      <c r="V197" s="8"/>
-      <c r="W197" s="7"/>
-      <c r="X197" s="7"/>
-      <c r="Y197" s="7"/>
-      <c r="Z197" s="6"/>
-      <c r="AA197" s="7"/>
-      <c r="AB197" s="8"/>
-      <c r="AC197" s="7"/>
-      <c r="AD197" s="7"/>
-      <c r="AE197" s="7"/>
-    </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="H197" s="6"/>
+      <c r="I197" s="7"/>
+      <c r="J197" s="8"/>
+      <c r="K197" s="6"/>
+      <c r="L197" s="7"/>
+      <c r="M197" s="8"/>
+      <c r="P197" s="8"/>
+      <c r="R197" s="14"/>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>4</v>
       </c>
       <c r="B198" s="6"/>
       <c r="C198" s="7"/>
       <c r="D198" s="8"/>
-      <c r="E198" s="6">
-        <v>4</v>
-      </c>
-      <c r="F198" s="7">
+      <c r="E198" s="10">
+        <v>5</v>
+      </c>
+      <c r="F198" s="11">
+        <v>0</v>
+      </c>
+      <c r="G198" s="12">
+        <v>0</v>
+      </c>
+      <c r="H198" s="21">
+        <v>2</v>
+      </c>
+      <c r="I198" s="13">
         <v>1</v>
       </c>
-      <c r="G198" s="8">
-        <v>1</v>
-      </c>
-      <c r="H198" s="6"/>
-      <c r="I198" s="7"/>
-      <c r="J198" s="8"/>
-      <c r="K198" s="13">
+      <c r="J198" s="22">
+        <v>3</v>
+      </c>
+      <c r="K198" s="6">
         <v>2</v>
       </c>
-      <c r="L198" s="13">
+      <c r="L198" s="7">
+        <v>2</v>
+      </c>
+      <c r="M198" s="8">
         <v>3</v>
       </c>
-      <c r="M198" s="14">
-        <v>1</v>
-      </c>
-      <c r="N198" s="7"/>
-      <c r="O198" s="10"/>
-      <c r="P198" s="7"/>
-      <c r="Q198" s="12">
-        <v>1</v>
-      </c>
-      <c r="R198" s="13">
-        <v>4</v>
-      </c>
-      <c r="S198" s="13">
+      <c r="N198" s="9">
         <v>2</v>
       </c>
-      <c r="T198" s="12">
+      <c r="O198" s="9">
+        <v>2</v>
+      </c>
+      <c r="P198" s="8">
         <v>3</v>
       </c>
-      <c r="U198" s="13">
-        <v>2</v>
-      </c>
-      <c r="V198" s="14">
-        <v>4</v>
-      </c>
-      <c r="W198" s="13"/>
-      <c r="X198" s="13"/>
-      <c r="Y198" s="13"/>
-      <c r="Z198" s="11"/>
-      <c r="AA198" s="7"/>
-      <c r="AB198" s="8"/>
-      <c r="AC198" s="7">
-        <v>3</v>
-      </c>
-      <c r="AD198" s="7">
-        <v>2</v>
-      </c>
-      <c r="AE198" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>3</v>
       </c>
@@ -8934,49 +5794,38 @@
       <c r="C199" s="7"/>
       <c r="D199" s="8"/>
       <c r="E199" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F199" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G199" s="8">
         <v>1</v>
       </c>
-      <c r="H199" s="6"/>
-      <c r="I199" s="7"/>
-      <c r="J199" s="8"/>
-      <c r="K199" s="13">
-        <v>4</v>
-      </c>
-      <c r="L199" s="13">
+      <c r="H199" s="10">
+        <v>5</v>
+      </c>
+      <c r="I199" s="11">
+        <v>0</v>
+      </c>
+      <c r="J199" s="12">
+        <v>0</v>
+      </c>
+      <c r="K199" s="6"/>
+      <c r="L199" s="7"/>
+      <c r="M199" s="8"/>
+      <c r="P199" s="8"/>
+      <c r="Q199">
+        <v>3</v>
+      </c>
+      <c r="R199">
         <v>1</v>
       </c>
-      <c r="M199" s="14">
-        <v>1</v>
-      </c>
-      <c r="N199" s="7"/>
-      <c r="O199" s="7"/>
-      <c r="P199" s="7"/>
-      <c r="T199" s="12"/>
-      <c r="U199" s="13"/>
-      <c r="V199" s="14"/>
-      <c r="W199" s="13"/>
-      <c r="X199" s="13"/>
-      <c r="Y199" s="13"/>
-      <c r="Z199" s="12">
-        <v>3</v>
-      </c>
-      <c r="AA199" s="13">
+      <c r="S199">
         <v>2</v>
       </c>
-      <c r="AB199" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC199" s="13"/>
-      <c r="AD199" s="13"/>
-      <c r="AE199" s="13"/>
-    </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2</v>
       </c>
@@ -8984,150 +5833,68 @@
       <c r="C200" s="7"/>
       <c r="D200" s="8"/>
       <c r="E200" s="6">
+        <v>3</v>
+      </c>
+      <c r="F200" s="7">
+        <v>1</v>
+      </c>
+      <c r="G200" s="8">
         <v>2</v>
       </c>
-      <c r="F200" s="7">
-        <v>3</v>
-      </c>
-      <c r="G200" s="8">
+      <c r="H200" s="6">
+        <v>4</v>
+      </c>
+      <c r="I200" s="7">
         <v>1</v>
       </c>
-      <c r="H200" s="6"/>
-      <c r="I200" s="7"/>
-      <c r="J200" s="8"/>
-      <c r="K200" s="13">
+      <c r="J200" s="8">
+        <v>1</v>
+      </c>
+      <c r="K200" s="6"/>
+      <c r="L200" s="7"/>
+      <c r="M200" s="8"/>
+      <c r="P200" s="8"/>
+      <c r="Q200">
         <v>4</v>
       </c>
-      <c r="L200" s="13">
+      <c r="R200">
+        <v>0</v>
+      </c>
+      <c r="S200">
         <v>1</v>
       </c>
-      <c r="M200" s="14">
-        <v>1</v>
-      </c>
-      <c r="N200" s="7"/>
-      <c r="O200" s="7"/>
-      <c r="P200" s="7"/>
-      <c r="Q200" s="12">
-        <v>2</v>
-      </c>
-      <c r="R200" s="13">
-        <v>3</v>
-      </c>
-      <c r="S200" s="13">
-        <v>1</v>
-      </c>
-      <c r="T200" s="12">
-        <v>4</v>
-      </c>
-      <c r="U200" s="13">
-        <v>1</v>
-      </c>
-      <c r="V200" s="14">
-        <v>3</v>
-      </c>
-      <c r="W200" s="13"/>
-      <c r="X200" s="13"/>
-      <c r="Y200" s="13"/>
-      <c r="Z200" s="12">
-        <v>4</v>
-      </c>
-      <c r="AA200" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB200" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC200" s="13">
-        <v>4</v>
-      </c>
-      <c r="AD200" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE200" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
       <c r="B201" s="6"/>
       <c r="C201" s="7"/>
       <c r="D201" s="8"/>
-      <c r="E201" s="6">
+      <c r="E201" s="16">
+        <v>2</v>
+      </c>
+      <c r="F201" s="17">
         <v>1</v>
       </c>
-      <c r="F201" s="7">
-        <v>4</v>
-      </c>
-      <c r="G201" s="8">
+      <c r="G201" s="18">
+        <v>3</v>
+      </c>
+      <c r="H201" s="23">
+        <v>3</v>
+      </c>
+      <c r="I201" s="15">
         <v>1</v>
       </c>
-      <c r="H201" s="6"/>
-      <c r="I201" s="7"/>
-      <c r="J201" s="8"/>
-      <c r="K201" s="13">
-        <v>5</v>
-      </c>
-      <c r="L201" s="13">
-        <v>0</v>
-      </c>
-      <c r="M201" s="14">
-        <v>1</v>
-      </c>
-      <c r="N201" s="7"/>
-      <c r="O201" s="7"/>
+      <c r="J201" s="24">
+        <v>2</v>
+      </c>
+      <c r="K201" s="6"/>
+      <c r="L201" s="7"/>
+      <c r="M201" s="8"/>
       <c r="P201" s="8"/>
-      <c r="Q201" s="13">
-        <v>3</v>
-      </c>
-      <c r="R201" s="13">
-        <v>2</v>
-      </c>
-      <c r="S201" s="16">
-        <v>0</v>
-      </c>
-      <c r="T201" s="12">
-        <v>5</v>
-      </c>
-      <c r="U201" s="13">
-        <v>0</v>
-      </c>
-      <c r="V201" s="23">
-        <v>2</v>
-      </c>
-      <c r="W201" s="16"/>
-      <c r="X201" s="16"/>
-      <c r="Y201" s="16"/>
-      <c r="Z201" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA201" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB201" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC201" s="13">
-        <v>5</v>
-      </c>
-      <c r="AD201" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE201" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF201" s="16">
-        <v>4</v>
-      </c>
-      <c r="AG201" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH201" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>0</v>
       </c>
@@ -9135,162 +5902,79 @@
         <v>0</v>
       </c>
       <c r="C202" s="7">
+        <v>2</v>
+      </c>
+      <c r="D202" s="8">
+        <v>14</v>
+      </c>
+      <c r="E202" s="19">
+        <v>0</v>
+      </c>
+      <c r="F202" s="9">
+        <v>2</v>
+      </c>
+      <c r="G202" s="20">
         <v>5</v>
       </c>
-      <c r="D202" s="8">
+      <c r="H202" s="19">
         <v>0</v>
       </c>
-      <c r="E202" s="6">
+      <c r="I202" s="9">
+        <v>3</v>
+      </c>
+      <c r="J202" s="20">
+        <v>5</v>
+      </c>
+      <c r="K202" s="19">
         <v>0</v>
       </c>
-      <c r="F202" s="7">
+      <c r="L202" s="9">
+        <v>3</v>
+      </c>
+      <c r="M202" s="20">
         <v>5</v>
       </c>
-      <c r="G202" s="8">
-        <v>1</v>
-      </c>
-      <c r="H202" s="6">
+      <c r="N202" s="19">
         <v>0</v>
       </c>
-      <c r="I202" s="7">
+      <c r="O202" s="9">
+        <v>3</v>
+      </c>
+      <c r="P202" s="20">
         <v>5</v>
       </c>
-      <c r="J202" s="8">
-        <v>2</v>
-      </c>
-      <c r="K202" s="6">
+      <c r="Q202" s="9">
         <v>0</v>
       </c>
-      <c r="L202" s="7">
+      <c r="R202" s="9">
+        <v>4</v>
+      </c>
+      <c r="S202" s="9">
         <v>5</v>
       </c>
-      <c r="M202" s="8">
-        <v>2</v>
-      </c>
-      <c r="N202" s="7">
-        <v>0</v>
-      </c>
-      <c r="O202" s="7">
-        <v>5</v>
-      </c>
-      <c r="P202" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q202" s="7">
-        <v>0</v>
-      </c>
-      <c r="R202" s="7">
-        <v>5</v>
-      </c>
-      <c r="S202" s="7">
-        <v>3</v>
-      </c>
-      <c r="T202" s="6">
-        <v>0</v>
-      </c>
-      <c r="U202" s="7">
-        <v>5</v>
-      </c>
-      <c r="V202" s="8">
-        <v>7</v>
-      </c>
-      <c r="W202" s="7"/>
-      <c r="X202" s="7"/>
-      <c r="Y202" s="7"/>
-      <c r="Z202" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA202" s="7">
-        <v>5</v>
-      </c>
-      <c r="AB202" s="8">
-        <v>4</v>
-      </c>
-      <c r="AC202" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD202" s="7">
-        <v>5</v>
-      </c>
-      <c r="AE202" s="8">
-        <v>4</v>
-      </c>
-      <c r="AF202" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG202" s="7">
-        <v>5</v>
-      </c>
-      <c r="AH202" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="204" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="Q204" t="s">
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N207" t="s">
         <v>9</v>
       </c>
-      <c r="T204" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="205" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="Q205" t="s">
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N208" t="s">
         <v>10</v>
       </c>
-      <c r="T205" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="206" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="Q206" t="s">
+    </row>
+    <row r="209" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N209" t="s">
         <v>11</v>
-      </c>
-      <c r="T206" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="207" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="Q207" t="s">
-        <v>12</v>
-      </c>
-      <c r="T207" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="210" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T210">
-        <v>1</v>
-      </c>
-      <c r="U210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T211">
-        <v>2</v>
-      </c>
-      <c r="U211">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T212">
-        <v>3</v>
-      </c>
-      <c r="U212">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="213" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T213">
-        <v>4</v>
-      </c>
-      <c r="U213">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/solutions/fabergè_easter_eggs_crush_test.xlsx
+++ b/solutions/fabergè_easter_eggs_crush_test.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>floor</t>
   </si>
@@ -133,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -158,6 +158,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -167,6 +168,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1729,10 +1731,10 @@
   <dimension ref="A1:S209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B180" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N210" sqref="N210"/>
+      <selection pane="bottomRight" activeCell="J194" sqref="J194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,7 +1744,7 @@
     <col min="3" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1767,8 +1769,17 @@
       <c r="N1" s="6"/>
       <c r="O1" s="7"/>
       <c r="P1" s="8"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>200</v>
       </c>
@@ -1788,7 +1799,7 @@
       <c r="O2" s="7"/>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>199</v>
       </c>
@@ -1808,7 +1819,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>198</v>
       </c>
@@ -1828,7 +1839,7 @@
       <c r="O4" s="7"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>197</v>
       </c>
@@ -1848,7 +1859,7 @@
       <c r="O5" s="7"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>196</v>
       </c>
@@ -1868,7 +1879,7 @@
       <c r="O6" s="7"/>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>195</v>
       </c>
@@ -1888,7 +1899,7 @@
       <c r="O7" s="7"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>194</v>
       </c>
@@ -1908,7 +1919,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>193</v>
       </c>
@@ -1928,7 +1939,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>192</v>
       </c>
@@ -1948,7 +1959,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>191</v>
       </c>
@@ -1968,7 +1979,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>190</v>
       </c>
@@ -1988,7 +1999,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="8"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>189</v>
       </c>
@@ -2008,7 +2019,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>188</v>
       </c>
@@ -2028,7 +2039,7 @@
       <c r="O14" s="7"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>187</v>
       </c>
@@ -2048,7 +2059,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>186</v>
       </c>
@@ -5268,7 +5279,7 @@
       <c r="O176" s="7"/>
       <c r="P176" s="8"/>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>25</v>
       </c>
@@ -5288,7 +5299,7 @@
       <c r="O177" s="7"/>
       <c r="P177" s="8"/>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>24</v>
       </c>
@@ -5308,7 +5319,7 @@
       <c r="O178" s="7"/>
       <c r="P178" s="8"/>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>23</v>
       </c>
@@ -5328,7 +5339,7 @@
       <c r="O179" s="7"/>
       <c r="P179" s="8"/>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>22</v>
       </c>
@@ -5348,7 +5359,7 @@
       <c r="O180" s="7"/>
       <c r="P180" s="8"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>21</v>
       </c>
@@ -5368,7 +5379,7 @@
       <c r="O181" s="7"/>
       <c r="P181" s="8"/>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>20</v>
       </c>
@@ -5388,7 +5399,7 @@
       <c r="O182" s="7"/>
       <c r="P182" s="8"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>19</v>
       </c>
@@ -5408,7 +5419,7 @@
       <c r="O183" s="7"/>
       <c r="P183" s="8"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>18</v>
       </c>
@@ -5428,7 +5439,7 @@
       <c r="O184" s="7"/>
       <c r="P184" s="8"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>17</v>
       </c>
@@ -5448,7 +5459,7 @@
       <c r="O185" s="7"/>
       <c r="P185" s="8"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>16</v>
       </c>
@@ -5468,7 +5479,7 @@
       <c r="O186" s="7"/>
       <c r="P186" s="8"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>15</v>
       </c>
@@ -5488,7 +5499,7 @@
       <c r="O187" s="7"/>
       <c r="P187" s="8"/>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>14</v>
       </c>
@@ -5513,8 +5524,17 @@
       <c r="N188" s="6"/>
       <c r="O188" s="7"/>
       <c r="P188" s="8"/>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q188" s="14">
+        <v>1</v>
+      </c>
+      <c r="R188" s="14">
+        <v>3</v>
+      </c>
+      <c r="S188" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>13</v>
       </c>
@@ -5534,7 +5554,7 @@
       <c r="O189" s="7"/>
       <c r="P189" s="8"/>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>12</v>
       </c>
@@ -5553,8 +5573,11 @@
       <c r="N190" s="6"/>
       <c r="O190" s="7"/>
       <c r="P190" s="8"/>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q190" s="26"/>
+      <c r="R190" s="26"/>
+      <c r="S190" s="26"/>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>11</v>
       </c>
@@ -5571,7 +5594,7 @@
       <c r="L191" s="7"/>
       <c r="M191" s="8"/>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>10</v>
       </c>
@@ -5590,6 +5613,9 @@
       <c r="N192" s="10"/>
       <c r="O192" s="11"/>
       <c r="P192" s="8"/>
+      <c r="Q192" s="16"/>
+      <c r="R192" s="16"/>
+      <c r="S192" s="16"/>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193">
@@ -5610,15 +5636,6 @@
       <c r="N193" s="10"/>
       <c r="O193" s="11"/>
       <c r="P193" s="8"/>
-      <c r="Q193">
-        <v>1</v>
-      </c>
-      <c r="R193" s="14">
-        <v>3</v>
-      </c>
-      <c r="S193">
-        <v>4</v>
-      </c>
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194">
@@ -5657,6 +5674,9 @@
       <c r="P194" s="8">
         <v>4</v>
       </c>
+      <c r="Q194" s="14"/>
+      <c r="R194" s="14"/>
+      <c r="S194" s="14"/>
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195">
@@ -5680,7 +5700,7 @@
       <c r="M195" s="12">
         <v>2</v>
       </c>
-      <c r="N195" s="16">
+      <c r="N195" s="17">
         <v>3</v>
       </c>
       <c r="O195" s="15">
@@ -5707,13 +5727,13 @@
       <c r="L196" s="7"/>
       <c r="M196" s="8"/>
       <c r="P196" s="8"/>
-      <c r="Q196">
+      <c r="Q196" s="14">
         <v>2</v>
       </c>
       <c r="R196" s="14">
         <v>2</v>
       </c>
-      <c r="S196">
+      <c r="S196" s="14">
         <v>3</v>
       </c>
     </row>
@@ -5758,13 +5778,13 @@
       <c r="G198" s="12">
         <v>0</v>
       </c>
-      <c r="H198" s="21">
+      <c r="H198" s="22">
         <v>2</v>
       </c>
       <c r="I198" s="13">
         <v>1</v>
       </c>
-      <c r="J198" s="22">
+      <c r="J198" s="23">
         <v>3</v>
       </c>
       <c r="K198" s="6">
@@ -5815,13 +5835,13 @@
       <c r="L199" s="7"/>
       <c r="M199" s="8"/>
       <c r="P199" s="8"/>
-      <c r="Q199">
+      <c r="Q199" s="14">
         <v>3</v>
       </c>
-      <c r="R199">
+      <c r="R199" s="14">
         <v>1</v>
       </c>
-      <c r="S199">
+      <c r="S199" s="14">
         <v>2</v>
       </c>
     </row>
@@ -5854,13 +5874,13 @@
       <c r="L200" s="7"/>
       <c r="M200" s="8"/>
       <c r="P200" s="8"/>
-      <c r="Q200">
+      <c r="Q200" s="14">
         <v>4</v>
       </c>
-      <c r="R200">
+      <c r="R200" s="14">
         <v>0</v>
       </c>
-      <c r="S200">
+      <c r="S200" s="14">
         <v>1</v>
       </c>
     </row>
@@ -5871,22 +5891,22 @@
       <c r="B201" s="6"/>
       <c r="C201" s="7"/>
       <c r="D201" s="8"/>
-      <c r="E201" s="16">
+      <c r="E201" s="17">
         <v>2</v>
       </c>
-      <c r="F201" s="17">
+      <c r="F201" s="18">
         <v>1</v>
       </c>
-      <c r="G201" s="18">
+      <c r="G201" s="19">
         <v>3</v>
       </c>
-      <c r="H201" s="23">
+      <c r="H201" s="24">
         <v>3</v>
       </c>
       <c r="I201" s="15">
         <v>1</v>
       </c>
-      <c r="J201" s="24">
+      <c r="J201" s="25">
         <v>2</v>
       </c>
       <c r="K201" s="6"/>
@@ -5907,40 +5927,40 @@
       <c r="D202" s="8">
         <v>14</v>
       </c>
-      <c r="E202" s="19">
+      <c r="E202" s="20">
         <v>0</v>
       </c>
       <c r="F202" s="9">
         <v>2</v>
       </c>
-      <c r="G202" s="20">
+      <c r="G202" s="21">
         <v>5</v>
       </c>
-      <c r="H202" s="19">
+      <c r="H202" s="20">
         <v>0</v>
       </c>
       <c r="I202" s="9">
         <v>3</v>
       </c>
-      <c r="J202" s="20">
+      <c r="J202" s="21">
         <v>5</v>
       </c>
-      <c r="K202" s="19">
+      <c r="K202" s="20">
         <v>0</v>
       </c>
       <c r="L202" s="9">
         <v>3</v>
       </c>
-      <c r="M202" s="20">
+      <c r="M202" s="21">
         <v>5</v>
       </c>
-      <c r="N202" s="19">
+      <c r="N202" s="20">
         <v>0</v>
       </c>
       <c r="O202" s="9">
         <v>3</v>
       </c>
-      <c r="P202" s="20">
+      <c r="P202" s="21">
         <v>5</v>
       </c>
       <c r="Q202" s="9">

--- a/solutions/fabergè_easter_eggs_crush_test.xlsx
+++ b/solutions/fabergè_easter_eggs_crush_test.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="13">
   <si>
     <t>floor</t>
   </si>
@@ -62,12 +62,15 @@
   <si>
     <t>floor = floor + attempts_left + 1</t>
   </si>
+  <si>
+    <t>*</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +91,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -103,7 +121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -129,11 +147,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -169,6 +233,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -184,6 +264,301 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>98533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>433552</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>105102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Left Bracket 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{753B08FD-D08F-4FFE-A905-50DF7AABA7ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12455744" y="37246033"/>
+          <a:ext cx="176377" cy="1340069"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>580368</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>105103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>145831</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>112985</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Left Bracket 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F233B23E-4062-499B-89AA-37342EA4BA6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12168023" y="38014603"/>
+          <a:ext cx="176377" cy="579382"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>575113</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>111672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>140576</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>28902</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Left Bracket 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFEB2A9C-A0A2-49F0-98D9-5CC9594112C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12162768" y="37259172"/>
+          <a:ext cx="176377" cy="679230"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>313669</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>111672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>490046</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>30216</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Left Bracket 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E7CED9F-58E5-4363-98C7-2CA0D775CAE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11901324" y="37640172"/>
+          <a:ext cx="176377" cy="299544"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314982</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>106417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>491359</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>24961</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Left Bracket 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D6A6197-90BD-4CA1-9AFA-2623AE5A302C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11902637" y="37253917"/>
+          <a:ext cx="176377" cy="299544"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1728,13 +2103,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S209"/>
+  <dimension ref="A1:AB209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B186" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="O96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J194" sqref="J194"/>
+      <selection pane="bottomRight" activeCell="Y100" sqref="Y100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3679,7 +4054,7 @@
       <c r="O96" s="7"/>
       <c r="P96" s="8"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>105</v>
       </c>
@@ -3699,7 +4074,7 @@
       <c r="O97" s="7"/>
       <c r="P97" s="8"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>104</v>
       </c>
@@ -3719,7 +4094,7 @@
       <c r="O98" s="7"/>
       <c r="P98" s="8"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>103</v>
       </c>
@@ -3739,7 +4114,7 @@
       <c r="O99" s="7"/>
       <c r="P99" s="8"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>102</v>
       </c>
@@ -3758,8 +4133,17 @@
       <c r="N100" s="6"/>
       <c r="O100" s="7"/>
       <c r="P100" s="8"/>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="X100" s="32">
+        <v>12</v>
+      </c>
+      <c r="Y100" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z100" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>101</v>
       </c>
@@ -3778,8 +4162,11 @@
       <c r="N101" s="6"/>
       <c r="O101" s="7"/>
       <c r="P101" s="8"/>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y101" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -3798,8 +4185,11 @@
       <c r="N102" s="6"/>
       <c r="O102" s="7"/>
       <c r="P102" s="8"/>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y102" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>99</v>
       </c>
@@ -3818,8 +4208,17 @@
       <c r="N103" s="6"/>
       <c r="O103" s="7"/>
       <c r="P103" s="8"/>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="X103" s="32">
+        <v>11</v>
+      </c>
+      <c r="Y103" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z103" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>98</v>
       </c>
@@ -3838,8 +4237,11 @@
       <c r="N104" s="6"/>
       <c r="O104" s="7"/>
       <c r="P104" s="8"/>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y104" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>97</v>
       </c>
@@ -3858,8 +4260,11 @@
       <c r="N105" s="6"/>
       <c r="O105" s="7"/>
       <c r="P105" s="8"/>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y105" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>96</v>
       </c>
@@ -3878,8 +4283,11 @@
       <c r="N106" s="6"/>
       <c r="O106" s="7"/>
       <c r="P106" s="8"/>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y106" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>95</v>
       </c>
@@ -3898,8 +4306,17 @@
       <c r="N107" s="6"/>
       <c r="O107" s="7"/>
       <c r="P107" s="8"/>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="X107" s="32">
+        <v>10</v>
+      </c>
+      <c r="Y107" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z107" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>94</v>
       </c>
@@ -3918,8 +4335,11 @@
       <c r="N108" s="6"/>
       <c r="O108" s="7"/>
       <c r="P108" s="8"/>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y108" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>93</v>
       </c>
@@ -3938,8 +4358,11 @@
       <c r="N109" s="6"/>
       <c r="O109" s="7"/>
       <c r="P109" s="8"/>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y109" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>92</v>
       </c>
@@ -3958,8 +4381,11 @@
       <c r="N110" s="6"/>
       <c r="O110" s="7"/>
       <c r="P110" s="8"/>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y110" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>91</v>
       </c>
@@ -3978,8 +4404,11 @@
       <c r="N111" s="6"/>
       <c r="O111" s="7"/>
       <c r="P111" s="8"/>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y111" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>90</v>
       </c>
@@ -3998,8 +4427,17 @@
       <c r="N112" s="6"/>
       <c r="O112" s="7"/>
       <c r="P112" s="8"/>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="X112" s="32">
+        <v>9</v>
+      </c>
+      <c r="Y112" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z112" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>89</v>
       </c>
@@ -4018,8 +4456,11 @@
       <c r="N113" s="6"/>
       <c r="O113" s="7"/>
       <c r="P113" s="8"/>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y113" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>88</v>
       </c>
@@ -4038,8 +4479,11 @@
       <c r="N114" s="6"/>
       <c r="O114" s="7"/>
       <c r="P114" s="8"/>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y114" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>87</v>
       </c>
@@ -4058,8 +4502,11 @@
       <c r="N115" s="6"/>
       <c r="O115" s="7"/>
       <c r="P115" s="8"/>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y115" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>86</v>
       </c>
@@ -4078,8 +4525,11 @@
       <c r="N116" s="6"/>
       <c r="O116" s="7"/>
       <c r="P116" s="8"/>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y116" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>85</v>
       </c>
@@ -4098,8 +4548,11 @@
       <c r="N117" s="6"/>
       <c r="O117" s="7"/>
       <c r="P117" s="8"/>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y117" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>84</v>
       </c>
@@ -4118,8 +4571,17 @@
       <c r="N118" s="6"/>
       <c r="O118" s="7"/>
       <c r="P118" s="8"/>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="X118" s="32">
+        <v>8</v>
+      </c>
+      <c r="Y118" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z118" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>83</v>
       </c>
@@ -4138,8 +4600,11 @@
       <c r="N119" s="6"/>
       <c r="O119" s="7"/>
       <c r="P119" s="8"/>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y119" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>82</v>
       </c>
@@ -4158,8 +4623,11 @@
       <c r="N120" s="6"/>
       <c r="O120" s="7"/>
       <c r="P120" s="8"/>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y120" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>81</v>
       </c>
@@ -4178,8 +4646,11 @@
       <c r="N121" s="6"/>
       <c r="O121" s="7"/>
       <c r="P121" s="8"/>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y121" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>80</v>
       </c>
@@ -4198,8 +4669,11 @@
       <c r="N122" s="6"/>
       <c r="O122" s="7"/>
       <c r="P122" s="8"/>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y122" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>79</v>
       </c>
@@ -4218,8 +4692,11 @@
       <c r="N123" s="6"/>
       <c r="O123" s="7"/>
       <c r="P123" s="8"/>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y123" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>78</v>
       </c>
@@ -4238,8 +4715,11 @@
       <c r="N124" s="6"/>
       <c r="O124" s="7"/>
       <c r="P124" s="8"/>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y124" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>77</v>
       </c>
@@ -4258,8 +4738,17 @@
       <c r="N125" s="6"/>
       <c r="O125" s="7"/>
       <c r="P125" s="8"/>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="X125" s="32">
+        <v>7</v>
+      </c>
+      <c r="Y125" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z125" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>76</v>
       </c>
@@ -4278,8 +4767,11 @@
       <c r="N126" s="6"/>
       <c r="O126" s="7"/>
       <c r="P126" s="8"/>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y126" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>75</v>
       </c>
@@ -4298,8 +4790,11 @@
       <c r="N127" s="6"/>
       <c r="O127" s="7"/>
       <c r="P127" s="8"/>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y127" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>74</v>
       </c>
@@ -4318,8 +4813,11 @@
       <c r="N128" s="6"/>
       <c r="O128" s="7"/>
       <c r="P128" s="8"/>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y128" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>73</v>
       </c>
@@ -4338,8 +4836,11 @@
       <c r="N129" s="6"/>
       <c r="O129" s="7"/>
       <c r="P129" s="8"/>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y129" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>72</v>
       </c>
@@ -4358,8 +4859,11 @@
       <c r="N130" s="6"/>
       <c r="O130" s="7"/>
       <c r="P130" s="8"/>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y130" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>71</v>
       </c>
@@ -4378,8 +4882,11 @@
       <c r="N131" s="6"/>
       <c r="O131" s="7"/>
       <c r="P131" s="8"/>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y131" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>70</v>
       </c>
@@ -4398,8 +4905,11 @@
       <c r="N132" s="6"/>
       <c r="O132" s="7"/>
       <c r="P132" s="8"/>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y132" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>69</v>
       </c>
@@ -4418,8 +4928,17 @@
       <c r="N133" s="6"/>
       <c r="O133" s="7"/>
       <c r="P133" s="8"/>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="X133" s="32">
+        <v>6</v>
+      </c>
+      <c r="Y133" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z133" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>68</v>
       </c>
@@ -4438,8 +4957,11 @@
       <c r="N134" s="6"/>
       <c r="O134" s="7"/>
       <c r="P134" s="8"/>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y134" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>67</v>
       </c>
@@ -4458,8 +4980,11 @@
       <c r="N135" s="6"/>
       <c r="O135" s="7"/>
       <c r="P135" s="8"/>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y135" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>66</v>
       </c>
@@ -4478,8 +5003,11 @@
       <c r="N136" s="6"/>
       <c r="O136" s="7"/>
       <c r="P136" s="8"/>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y136" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>65</v>
       </c>
@@ -4498,8 +5026,11 @@
       <c r="N137" s="6"/>
       <c r="O137" s="7"/>
       <c r="P137" s="8"/>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y137" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>64</v>
       </c>
@@ -4518,8 +5049,11 @@
       <c r="N138" s="6"/>
       <c r="O138" s="7"/>
       <c r="P138" s="8"/>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y138" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>63</v>
       </c>
@@ -4538,8 +5072,11 @@
       <c r="N139" s="6"/>
       <c r="O139" s="7"/>
       <c r="P139" s="8"/>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y139" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>62</v>
       </c>
@@ -4558,8 +5095,11 @@
       <c r="N140" s="6"/>
       <c r="O140" s="7"/>
       <c r="P140" s="8"/>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y140" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>61</v>
       </c>
@@ -4578,8 +5118,11 @@
       <c r="N141" s="6"/>
       <c r="O141" s="7"/>
       <c r="P141" s="8"/>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y141" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>60</v>
       </c>
@@ -4598,8 +5141,17 @@
       <c r="N142" s="6"/>
       <c r="O142" s="7"/>
       <c r="P142" s="8"/>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="X142" s="32">
+        <v>5</v>
+      </c>
+      <c r="Y142" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z142" s="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>59</v>
       </c>
@@ -4618,8 +5170,11 @@
       <c r="N143" s="6"/>
       <c r="O143" s="7"/>
       <c r="P143" s="8"/>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y143" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>58</v>
       </c>
@@ -4638,8 +5193,11 @@
       <c r="N144" s="6"/>
       <c r="O144" s="7"/>
       <c r="P144" s="8"/>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y144" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>57</v>
       </c>
@@ -4658,8 +5216,11 @@
       <c r="N145" s="6"/>
       <c r="O145" s="7"/>
       <c r="P145" s="8"/>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y145" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>56</v>
       </c>
@@ -4678,8 +5239,11 @@
       <c r="N146" s="6"/>
       <c r="O146" s="7"/>
       <c r="P146" s="8"/>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y146" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>55</v>
       </c>
@@ -4698,8 +5262,11 @@
       <c r="N147" s="6"/>
       <c r="O147" s="7"/>
       <c r="P147" s="8"/>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y147" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>54</v>
       </c>
@@ -4718,8 +5285,11 @@
       <c r="N148" s="6"/>
       <c r="O148" s="7"/>
       <c r="P148" s="8"/>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y148" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>53</v>
       </c>
@@ -4738,8 +5308,11 @@
       <c r="N149" s="6"/>
       <c r="O149" s="7"/>
       <c r="P149" s="8"/>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y149" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>52</v>
       </c>
@@ -4758,8 +5331,11 @@
       <c r="N150" s="6"/>
       <c r="O150" s="7"/>
       <c r="P150" s="8"/>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y150" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>51</v>
       </c>
@@ -4778,8 +5354,11 @@
       <c r="N151" s="6"/>
       <c r="O151" s="7"/>
       <c r="P151" s="8"/>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y151" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>50</v>
       </c>
@@ -4798,8 +5377,17 @@
       <c r="N152" s="6"/>
       <c r="O152" s="7"/>
       <c r="P152" s="8"/>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="X152" s="32">
+        <v>4</v>
+      </c>
+      <c r="Y152" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z152" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>49</v>
       </c>
@@ -4818,8 +5406,11 @@
       <c r="N153" s="6"/>
       <c r="O153" s="7"/>
       <c r="P153" s="8"/>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y153" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>48</v>
       </c>
@@ -4838,8 +5429,11 @@
       <c r="N154" s="6"/>
       <c r="O154" s="7"/>
       <c r="P154" s="8"/>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y154" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>47</v>
       </c>
@@ -4858,8 +5452,11 @@
       <c r="N155" s="6"/>
       <c r="O155" s="7"/>
       <c r="P155" s="8"/>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y155" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>46</v>
       </c>
@@ -4878,8 +5475,11 @@
       <c r="N156" s="6"/>
       <c r="O156" s="7"/>
       <c r="P156" s="8"/>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y156" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>45</v>
       </c>
@@ -4898,8 +5498,11 @@
       <c r="N157" s="6"/>
       <c r="O157" s="7"/>
       <c r="P157" s="8"/>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y157" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>44</v>
       </c>
@@ -4918,8 +5521,11 @@
       <c r="N158" s="6"/>
       <c r="O158" s="7"/>
       <c r="P158" s="8"/>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y158" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>43</v>
       </c>
@@ -4938,8 +5544,11 @@
       <c r="N159" s="6"/>
       <c r="O159" s="7"/>
       <c r="P159" s="8"/>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y159" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>42</v>
       </c>
@@ -4958,8 +5567,11 @@
       <c r="N160" s="6"/>
       <c r="O160" s="7"/>
       <c r="P160" s="8"/>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y160" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>41</v>
       </c>
@@ -4978,8 +5590,11 @@
       <c r="N161" s="6"/>
       <c r="O161" s="7"/>
       <c r="P161" s="8"/>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y161" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>40</v>
       </c>
@@ -4998,8 +5613,11 @@
       <c r="N162" s="6"/>
       <c r="O162" s="7"/>
       <c r="P162" s="8"/>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y162" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>39</v>
       </c>
@@ -5018,8 +5636,17 @@
       <c r="N163" s="6"/>
       <c r="O163" s="7"/>
       <c r="P163" s="8"/>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="X163" s="32">
+        <v>3</v>
+      </c>
+      <c r="Y163" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z163" s="34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>38</v>
       </c>
@@ -5038,8 +5665,11 @@
       <c r="N164" s="6"/>
       <c r="O164" s="7"/>
       <c r="P164" s="8"/>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y164" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>37</v>
       </c>
@@ -5058,8 +5688,11 @@
       <c r="N165" s="6"/>
       <c r="O165" s="7"/>
       <c r="P165" s="8"/>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y165" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>36</v>
       </c>
@@ -5078,8 +5711,11 @@
       <c r="N166" s="6"/>
       <c r="O166" s="7"/>
       <c r="P166" s="8"/>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y166" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>35</v>
       </c>
@@ -5098,8 +5734,11 @@
       <c r="N167" s="6"/>
       <c r="O167" s="7"/>
       <c r="P167" s="8"/>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y167" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>34</v>
       </c>
@@ -5118,8 +5757,11 @@
       <c r="N168" s="6"/>
       <c r="O168" s="7"/>
       <c r="P168" s="8"/>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y168" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>33</v>
       </c>
@@ -5138,8 +5780,11 @@
       <c r="N169" s="6"/>
       <c r="O169" s="7"/>
       <c r="P169" s="8"/>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y169" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>32</v>
       </c>
@@ -5158,8 +5803,11 @@
       <c r="N170" s="6"/>
       <c r="O170" s="7"/>
       <c r="P170" s="8"/>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y170" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>31</v>
       </c>
@@ -5178,8 +5826,11 @@
       <c r="N171" s="6"/>
       <c r="O171" s="7"/>
       <c r="P171" s="8"/>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y171" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>30</v>
       </c>
@@ -5198,8 +5849,20 @@
       <c r="N172" s="6"/>
       <c r="O172" s="7"/>
       <c r="P172" s="8"/>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U172" s="29">
+        <v>5</v>
+      </c>
+      <c r="V172" s="29">
+        <v>3</v>
+      </c>
+      <c r="W172" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y172" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>29</v>
       </c>
@@ -5218,8 +5881,20 @@
       <c r="N173" s="6"/>
       <c r="O173" s="7"/>
       <c r="P173" s="8"/>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U173" s="29">
+        <v>4</v>
+      </c>
+      <c r="V173" s="29">
+        <v>3</v>
+      </c>
+      <c r="W173" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y173" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>28</v>
       </c>
@@ -5238,8 +5913,14 @@
       <c r="N174" s="6"/>
       <c r="O174" s="7"/>
       <c r="P174" s="8"/>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="V174" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y174" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>27</v>
       </c>
@@ -5258,8 +5939,26 @@
       <c r="N175" s="6"/>
       <c r="O175" s="7"/>
       <c r="P175" s="8"/>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U175" s="29">
+        <v>3</v>
+      </c>
+      <c r="V175" s="29">
+        <v>3</v>
+      </c>
+      <c r="W175" s="29">
+        <v>2</v>
+      </c>
+      <c r="X175" s="38">
+        <v>2</v>
+      </c>
+      <c r="Y175" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z175" s="40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>26</v>
       </c>
@@ -5278,8 +5977,20 @@
       <c r="N176" s="6"/>
       <c r="O176" s="7"/>
       <c r="P176" s="8"/>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U176">
+        <v>5</v>
+      </c>
+      <c r="V176">
+        <v>2</v>
+      </c>
+      <c r="W176">
+        <v>0</v>
+      </c>
+      <c r="Y176" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>25</v>
       </c>
@@ -5298,8 +6009,20 @@
       <c r="N177" s="6"/>
       <c r="O177" s="7"/>
       <c r="P177" s="8"/>
-    </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U177">
+        <v>4</v>
+      </c>
+      <c r="V177">
+        <v>2</v>
+      </c>
+      <c r="W177">
+        <v>1</v>
+      </c>
+      <c r="Y177" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>24</v>
       </c>
@@ -5318,8 +6041,14 @@
       <c r="N178" s="6"/>
       <c r="O178" s="7"/>
       <c r="P178" s="8"/>
-    </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V178" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y178" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>23</v>
       </c>
@@ -5338,8 +6067,21 @@
       <c r="N179" s="6"/>
       <c r="O179" s="7"/>
       <c r="P179" s="8"/>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U179" s="31">
+        <v>2</v>
+      </c>
+      <c r="V179" s="29">
+        <v>3</v>
+      </c>
+      <c r="W179" s="29">
+        <v>3</v>
+      </c>
+      <c r="X179" s="30"/>
+      <c r="Y179" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>22</v>
       </c>
@@ -5358,8 +6100,20 @@
       <c r="N180" s="6"/>
       <c r="O180" s="7"/>
       <c r="P180" s="8"/>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U180">
+        <v>5</v>
+      </c>
+      <c r="V180">
+        <v>2</v>
+      </c>
+      <c r="W180">
+        <v>0</v>
+      </c>
+      <c r="Y180" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>21</v>
       </c>
@@ -5378,8 +6132,20 @@
       <c r="N181" s="6"/>
       <c r="O181" s="7"/>
       <c r="P181" s="8"/>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U181">
+        <v>4</v>
+      </c>
+      <c r="V181">
+        <v>2</v>
+      </c>
+      <c r="W181">
+        <v>1</v>
+      </c>
+      <c r="Y181" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>20</v>
       </c>
@@ -5398,8 +6164,14 @@
       <c r="N182" s="6"/>
       <c r="O182" s="7"/>
       <c r="P182" s="8"/>
-    </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V182" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y182" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>19</v>
       </c>
@@ -5418,8 +6190,20 @@
       <c r="N183" s="6"/>
       <c r="O183" s="7"/>
       <c r="P183" s="8"/>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U183">
+        <v>3</v>
+      </c>
+      <c r="V183">
+        <v>2</v>
+      </c>
+      <c r="W183">
+        <v>2</v>
+      </c>
+      <c r="Y183" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>18</v>
       </c>
@@ -5438,8 +6222,20 @@
       <c r="N184" s="6"/>
       <c r="O184" s="7"/>
       <c r="P184" s="8"/>
-    </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U184">
+        <v>5</v>
+      </c>
+      <c r="V184">
+        <v>1</v>
+      </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="Y184" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>17</v>
       </c>
@@ -5458,8 +6254,20 @@
       <c r="N185" s="6"/>
       <c r="O185" s="7"/>
       <c r="P185" s="8"/>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U185">
+        <v>4</v>
+      </c>
+      <c r="V185">
+        <v>1</v>
+      </c>
+      <c r="W185">
+        <v>1</v>
+      </c>
+      <c r="Y185" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>16</v>
       </c>
@@ -5478,8 +6286,14 @@
       <c r="N186" s="6"/>
       <c r="O186" s="7"/>
       <c r="P186" s="8"/>
-    </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V186" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y186" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>15</v>
       </c>
@@ -5498,8 +6312,21 @@
       <c r="N187" s="6"/>
       <c r="O187" s="7"/>
       <c r="P187" s="8"/>
-    </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U187" s="35">
+        <v>1</v>
+      </c>
+      <c r="V187" s="36">
+        <v>4</v>
+      </c>
+      <c r="W187" s="37">
+        <v>4</v>
+      </c>
+      <c r="X187" s="30"/>
+      <c r="Y187" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>14</v>
       </c>
@@ -5524,17 +6351,29 @@
       <c r="N188" s="6"/>
       <c r="O188" s="7"/>
       <c r="P188" s="8"/>
-      <c r="Q188" s="14">
+      <c r="Q188" s="14"/>
+      <c r="R188" s="14"/>
+      <c r="S188" s="14"/>
+      <c r="U188">
+        <v>5</v>
+      </c>
+      <c r="V188">
+        <v>2</v>
+      </c>
+      <c r="W188">
+        <v>0</v>
+      </c>
+      <c r="X188" s="32">
         <v>1</v>
       </c>
-      <c r="R188" s="14">
-        <v>3</v>
-      </c>
-      <c r="S188" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y188" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z188" s="34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>13</v>
       </c>
@@ -5553,8 +6392,20 @@
       <c r="N189" s="6"/>
       <c r="O189" s="7"/>
       <c r="P189" s="8"/>
-    </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U189">
+        <v>4</v>
+      </c>
+      <c r="V189">
+        <v>2</v>
+      </c>
+      <c r="W189">
+        <v>1</v>
+      </c>
+      <c r="Y189" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>12</v>
       </c>
@@ -5576,8 +6427,14 @@
       <c r="Q190" s="26"/>
       <c r="R190" s="26"/>
       <c r="S190" s="26"/>
-    </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V190" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y190" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>11</v>
       </c>
@@ -5593,8 +6450,20 @@
       <c r="K191" s="6"/>
       <c r="L191" s="7"/>
       <c r="M191" s="8"/>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U191">
+        <v>3</v>
+      </c>
+      <c r="V191">
+        <v>2</v>
+      </c>
+      <c r="W191">
+        <v>2</v>
+      </c>
+      <c r="Y191" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>10</v>
       </c>
@@ -5616,8 +6485,20 @@
       <c r="Q192" s="16"/>
       <c r="R192" s="16"/>
       <c r="S192" s="16"/>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U192">
+        <v>5</v>
+      </c>
+      <c r="V192">
+        <v>1</v>
+      </c>
+      <c r="W192">
+        <v>0</v>
+      </c>
+      <c r="Y192" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>9</v>
       </c>
@@ -5636,8 +6517,21 @@
       <c r="N193" s="10"/>
       <c r="O193" s="11"/>
       <c r="P193" s="8"/>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T193" s="14"/>
+      <c r="U193">
+        <v>4</v>
+      </c>
+      <c r="V193">
+        <v>1</v>
+      </c>
+      <c r="W193">
+        <v>1</v>
+      </c>
+      <c r="Y193" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>8</v>
       </c>
@@ -5677,8 +6571,15 @@
       <c r="Q194" s="14"/>
       <c r="R194" s="14"/>
       <c r="S194" s="14"/>
-    </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T194" s="14"/>
+      <c r="V194" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y194" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>7</v>
       </c>
@@ -5709,8 +6610,23 @@
       <c r="P195" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q195" s="14"/>
+      <c r="R195" s="14"/>
+      <c r="S195" s="14"/>
+      <c r="U195" s="16">
+        <v>2</v>
+      </c>
+      <c r="V195" s="16">
+        <v>2</v>
+      </c>
+      <c r="W195" s="16">
+        <v>3</v>
+      </c>
+      <c r="Y195" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>6</v>
       </c>
@@ -5727,17 +6643,14 @@
       <c r="L196" s="7"/>
       <c r="M196" s="8"/>
       <c r="P196" s="8"/>
-      <c r="Q196" s="14">
-        <v>2</v>
-      </c>
-      <c r="R196" s="14">
-        <v>2</v>
-      </c>
-      <c r="S196" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V196" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y196" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>5</v>
       </c>
@@ -5761,8 +6674,25 @@
       <c r="M197" s="8"/>
       <c r="P197" s="8"/>
       <c r="R197" s="14"/>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T197" s="14"/>
+      <c r="U197">
+        <v>4</v>
+      </c>
+      <c r="V197">
+        <v>1</v>
+      </c>
+      <c r="W197">
+        <v>1</v>
+      </c>
+      <c r="X197" s="14"/>
+      <c r="Y197" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z197" s="16"/>
+      <c r="AA197" s="16"/>
+      <c r="AB197" s="16"/>
+    </row>
+    <row r="198" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>4</v>
       </c>
@@ -5805,8 +6735,19 @@
       <c r="P198" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q198" s="9"/>
+      <c r="R198" s="9"/>
+      <c r="S198" s="9"/>
+      <c r="T198" s="14"/>
+      <c r="V198" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="X198" s="14"/>
+      <c r="Y198" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>3</v>
       </c>
@@ -5835,17 +6776,28 @@
       <c r="L199" s="7"/>
       <c r="M199" s="8"/>
       <c r="P199" s="8"/>
-      <c r="Q199" s="14">
+      <c r="Q199" s="14"/>
+      <c r="R199" s="14"/>
+      <c r="S199" s="14"/>
+      <c r="T199" s="14"/>
+      <c r="U199" s="16">
         <v>3</v>
       </c>
-      <c r="R199" s="14">
+      <c r="V199" s="16">
         <v>1</v>
       </c>
-      <c r="S199" s="14">
+      <c r="W199" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="X199" s="15"/>
+      <c r="Y199" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z199" s="27"/>
+      <c r="AA199" s="15"/>
+      <c r="AB199" s="15"/>
+    </row>
+    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2</v>
       </c>
@@ -5874,17 +6826,20 @@
       <c r="L200" s="7"/>
       <c r="M200" s="8"/>
       <c r="P200" s="8"/>
-      <c r="Q200" s="14">
-        <v>4</v>
-      </c>
-      <c r="R200" s="14">
-        <v>0</v>
-      </c>
-      <c r="S200" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q200" s="14"/>
+      <c r="R200" s="14"/>
+      <c r="S200" s="14"/>
+      <c r="T200" s="14"/>
+      <c r="U200" s="16"/>
+      <c r="V200" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="W200" s="16"/>
+      <c r="Y200" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -5913,8 +6868,17 @@
       <c r="L201" s="7"/>
       <c r="M201" s="8"/>
       <c r="P201" s="8"/>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T201" s="16"/>
+      <c r="U201" s="16"/>
+      <c r="V201" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="W201" s="16"/>
+      <c r="Y201" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>0</v>
       </c>
@@ -5972,18 +6936,37 @@
       <c r="S202" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T202" s="9"/>
+      <c r="U202" s="9">
+        <v>0</v>
+      </c>
+      <c r="V202" s="9">
+        <v>4</v>
+      </c>
+      <c r="W202" s="9">
+        <v>5</v>
+      </c>
+      <c r="X202" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y202" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z202" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N206" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N207" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N208" t="s">
         <v>10</v>
       </c>
@@ -5996,5 +6979,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/solutions/fabergè_easter_eggs_crush_test.xlsx
+++ b/solutions/fabergè_easter_eggs_crush_test.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="13">
   <si>
     <t>floor</t>
   </si>
@@ -70,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,23 +92,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,8 +106,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -145,15 +137,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -197,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -237,18 +220,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2106,10 +2097,10 @@
   <dimension ref="A1:AB209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O169" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y100" sqref="Y100"/>
+      <selection pane="bottomRight" activeCell="AA178" sqref="AA178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4093,6 +4084,15 @@
       <c r="N98" s="6"/>
       <c r="O98" s="7"/>
       <c r="P98" s="8"/>
+      <c r="X98" s="30">
+        <v>13</v>
+      </c>
+      <c r="Y98" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z98" s="32">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99">
@@ -4113,6 +4113,9 @@
       <c r="N99" s="6"/>
       <c r="O99" s="7"/>
       <c r="P99" s="8"/>
+      <c r="Y99" s="28" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100">
@@ -4133,13 +4136,13 @@
       <c r="N100" s="6"/>
       <c r="O100" s="7"/>
       <c r="P100" s="8"/>
-      <c r="X100" s="32">
-        <v>12</v>
-      </c>
-      <c r="Y100" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z100" s="34">
+      <c r="X100" s="30">
+        <v>12</v>
+      </c>
+      <c r="Y100" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z100" s="32">
         <v>2</v>
       </c>
     </row>
@@ -4208,13 +4211,13 @@
       <c r="N103" s="6"/>
       <c r="O103" s="7"/>
       <c r="P103" s="8"/>
-      <c r="X103" s="32">
+      <c r="X103" s="30">
         <v>11</v>
       </c>
-      <c r="Y103" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z103" s="34">
+      <c r="Y103" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z103" s="32">
         <v>3</v>
       </c>
     </row>
@@ -4306,13 +4309,13 @@
       <c r="N107" s="6"/>
       <c r="O107" s="7"/>
       <c r="P107" s="8"/>
-      <c r="X107" s="32">
+      <c r="X107" s="30">
         <v>10</v>
       </c>
-      <c r="Y107" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z107" s="34">
+      <c r="Y107" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z107" s="32">
         <v>4</v>
       </c>
     </row>
@@ -4427,13 +4430,13 @@
       <c r="N112" s="6"/>
       <c r="O112" s="7"/>
       <c r="P112" s="8"/>
-      <c r="X112" s="32">
+      <c r="X112" s="30">
         <v>9</v>
       </c>
-      <c r="Y112" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z112" s="34">
+      <c r="Y112" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z112" s="32">
         <v>5</v>
       </c>
     </row>
@@ -4571,13 +4574,13 @@
       <c r="N118" s="6"/>
       <c r="O118" s="7"/>
       <c r="P118" s="8"/>
-      <c r="X118" s="32">
+      <c r="X118" s="30">
         <v>8</v>
       </c>
-      <c r="Y118" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z118" s="34">
+      <c r="Y118" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z118" s="32">
         <v>6</v>
       </c>
     </row>
@@ -4738,13 +4741,13 @@
       <c r="N125" s="6"/>
       <c r="O125" s="7"/>
       <c r="P125" s="8"/>
-      <c r="X125" s="32">
+      <c r="X125" s="30">
         <v>7</v>
       </c>
-      <c r="Y125" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z125" s="34">
+      <c r="Y125" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z125" s="32">
         <v>7</v>
       </c>
     </row>
@@ -4928,13 +4931,13 @@
       <c r="N133" s="6"/>
       <c r="O133" s="7"/>
       <c r="P133" s="8"/>
-      <c r="X133" s="32">
+      <c r="X133" s="30">
         <v>6</v>
       </c>
-      <c r="Y133" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z133" s="34">
+      <c r="Y133" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z133" s="32">
         <v>8</v>
       </c>
     </row>
@@ -5141,13 +5144,13 @@
       <c r="N142" s="6"/>
       <c r="O142" s="7"/>
       <c r="P142" s="8"/>
-      <c r="X142" s="32">
+      <c r="X142" s="30">
         <v>5</v>
       </c>
-      <c r="Y142" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z142" s="34">
+      <c r="Y142" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z142" s="32">
         <v>9</v>
       </c>
     </row>
@@ -5377,13 +5380,13 @@
       <c r="N152" s="6"/>
       <c r="O152" s="7"/>
       <c r="P152" s="8"/>
-      <c r="X152" s="32">
+      <c r="X152" s="30">
         <v>4</v>
       </c>
-      <c r="Y152" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z152" s="34">
+      <c r="Y152" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z152" s="32">
         <v>10</v>
       </c>
     </row>
@@ -5636,13 +5639,13 @@
       <c r="N163" s="6"/>
       <c r="O163" s="7"/>
       <c r="P163" s="8"/>
-      <c r="X163" s="32">
+      <c r="X163" s="30">
         <v>3</v>
       </c>
-      <c r="Y163" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z163" s="34">
+      <c r="Y163" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z163" s="32">
         <v>11</v>
       </c>
     </row>
@@ -5849,13 +5852,13 @@
       <c r="N172" s="6"/>
       <c r="O172" s="7"/>
       <c r="P172" s="8"/>
-      <c r="U172" s="29">
+      <c r="U172" s="44">
         <v>5</v>
       </c>
-      <c r="V172" s="29">
+      <c r="V172" s="45">
         <v>3</v>
       </c>
-      <c r="W172" s="29">
+      <c r="W172" s="46">
         <v>0</v>
       </c>
       <c r="Y172" s="28" t="s">
@@ -5881,13 +5884,13 @@
       <c r="N173" s="6"/>
       <c r="O173" s="7"/>
       <c r="P173" s="8"/>
-      <c r="U173" s="29">
+      <c r="U173" s="43">
         <v>4</v>
       </c>
-      <c r="V173" s="29">
+      <c r="V173" s="41">
         <v>3</v>
       </c>
-      <c r="W173" s="29">
+      <c r="W173" s="42">
         <v>1</v>
       </c>
       <c r="Y173" s="28" t="s">
@@ -5939,22 +5942,22 @@
       <c r="N175" s="6"/>
       <c r="O175" s="7"/>
       <c r="P175" s="8"/>
-      <c r="U175" s="29">
+      <c r="U175" s="43">
         <v>3</v>
       </c>
-      <c r="V175" s="29">
+      <c r="V175" s="41">
         <v>3</v>
       </c>
-      <c r="W175" s="29">
+      <c r="W175" s="42">
         <v>2</v>
       </c>
-      <c r="X175" s="38">
+      <c r="X175" s="35">
         <v>2</v>
       </c>
-      <c r="Y175" s="39">
-        <v>1</v>
-      </c>
-      <c r="Z175" s="40">
+      <c r="Y175" s="36">
+        <v>1</v>
+      </c>
+      <c r="Z175" s="37">
         <v>12</v>
       </c>
     </row>
@@ -6009,7 +6012,7 @@
       <c r="N177" s="6"/>
       <c r="O177" s="7"/>
       <c r="P177" s="8"/>
-      <c r="U177">
+      <c r="U177" s="26">
         <v>4</v>
       </c>
       <c r="V177">
@@ -6067,16 +6070,16 @@
       <c r="N179" s="6"/>
       <c r="O179" s="7"/>
       <c r="P179" s="8"/>
-      <c r="U179" s="31">
+      <c r="U179" s="48">
         <v>2</v>
       </c>
-      <c r="V179" s="29">
+      <c r="V179" s="41">
         <v>3</v>
       </c>
-      <c r="W179" s="29">
+      <c r="W179" s="42">
         <v>3</v>
       </c>
-      <c r="X179" s="30"/>
+      <c r="X179" s="29"/>
       <c r="Y179" s="28" t="s">
         <v>12</v>
       </c>
@@ -6190,13 +6193,13 @@
       <c r="N183" s="6"/>
       <c r="O183" s="7"/>
       <c r="P183" s="8"/>
-      <c r="U183">
+      <c r="U183" s="30">
         <v>3</v>
       </c>
-      <c r="V183">
+      <c r="V183" s="31">
         <v>2</v>
       </c>
-      <c r="W183">
+      <c r="W183" s="32">
         <v>2</v>
       </c>
       <c r="Y183" s="28" t="s">
@@ -6312,16 +6315,16 @@
       <c r="N187" s="6"/>
       <c r="O187" s="7"/>
       <c r="P187" s="8"/>
-      <c r="U187" s="35">
-        <v>1</v>
-      </c>
-      <c r="V187" s="36">
+      <c r="U187" s="47">
+        <v>1</v>
+      </c>
+      <c r="V187" s="39">
+        <v>3</v>
+      </c>
+      <c r="W187" s="40">
         <v>4</v>
       </c>
-      <c r="W187" s="37">
-        <v>4</v>
-      </c>
-      <c r="X187" s="30"/>
+      <c r="X187" s="29"/>
       <c r="Y187" s="28" t="s">
         <v>12</v>
       </c>
@@ -6363,13 +6366,13 @@
       <c r="W188">
         <v>0</v>
       </c>
-      <c r="X188" s="32">
-        <v>1</v>
-      </c>
-      <c r="Y188" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z188" s="34">
+      <c r="X188" s="30">
+        <v>1</v>
+      </c>
+      <c r="Y188" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z188" s="32">
         <v>13</v>
       </c>
     </row>
@@ -6450,13 +6453,13 @@
       <c r="K191" s="6"/>
       <c r="L191" s="7"/>
       <c r="M191" s="8"/>
-      <c r="U191">
+      <c r="U191" s="30">
         <v>3</v>
       </c>
-      <c r="V191">
+      <c r="V191" s="31">
         <v>2</v>
       </c>
-      <c r="W191">
+      <c r="W191" s="32">
         <v>2</v>
       </c>
       <c r="Y191" s="28" t="s">
@@ -6613,13 +6616,13 @@
       <c r="Q195" s="14"/>
       <c r="R195" s="14"/>
       <c r="S195" s="14"/>
-      <c r="U195" s="16">
+      <c r="U195" s="38">
         <v>2</v>
       </c>
-      <c r="V195" s="16">
+      <c r="V195" s="33">
         <v>2</v>
       </c>
-      <c r="W195" s="16">
+      <c r="W195" s="34">
         <v>3</v>
       </c>
       <c r="Y195" s="28" t="s">

--- a/solutions/fabergè_easter_eggs_crush_test.xlsx
+++ b/solutions/fabergè_easter_eggs_crush_test.xlsx
@@ -16,7 +16,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>floor</t>
   </si>
@@ -65,6 +64,21 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> attempt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eggs</t>
   </si>
 </sst>
 </file>
@@ -113,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -163,24 +177,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -216,30 +217,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -255,301 +250,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>98533</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>433552</xdr:colOff>
-      <xdr:row>201</xdr:row>
-      <xdr:rowOff>105102</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Left Bracket 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{753B08FD-D08F-4FFE-A905-50DF7AABA7ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12455744" y="37246033"/>
-          <a:ext cx="176377" cy="1340069"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftBracket">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>580368</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>105103</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>145831</xdr:colOff>
-      <xdr:row>201</xdr:row>
-      <xdr:rowOff>112985</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Left Bracket 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F233B23E-4062-499B-89AA-37342EA4BA6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12168023" y="38014603"/>
-          <a:ext cx="176377" cy="579382"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftBracket">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>575113</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>111672</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>140576</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>28902</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Left Bracket 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFEB2A9C-A0A2-49F0-98D9-5CC9594112C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12162768" y="37259172"/>
-          <a:ext cx="176377" cy="679230"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftBracket">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>313669</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>111672</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>490046</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>30216</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Left Bracket 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E7CED9F-58E5-4363-98C7-2CA0D775CAE5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11901324" y="37640172"/>
-          <a:ext cx="176377" cy="299544"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftBracket">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>314982</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>106417</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>491359</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>24961</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Left Bracket 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D6A6197-90BD-4CA1-9AFA-2623AE5A302C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11902637" y="37253917"/>
-          <a:ext cx="176377" cy="299544"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftBracket">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2094,13 +1794,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB209"/>
+  <dimension ref="A1:AC209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O169" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA178" sqref="AA178"/>
+      <selection pane="bottomRight" activeCell="AC198" sqref="AC198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2110,7 +1810,7 @@
     <col min="3" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2141,11 +1841,38 @@
       <c r="R1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>200</v>
       </c>
@@ -2164,8 +1891,13 @@
       <c r="N2" s="6"/>
       <c r="O2" s="7"/>
       <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2" s="6"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="8"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>199</v>
       </c>
@@ -2184,8 +1916,13 @@
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3" s="6"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="8"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>198</v>
       </c>
@@ -2204,8 +1941,13 @@
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
       <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="6"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="8"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>197</v>
       </c>
@@ -2224,8 +1966,13 @@
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
       <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5" s="6"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="8"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>196</v>
       </c>
@@ -2244,8 +1991,13 @@
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
       <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6" s="6"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="8"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>195</v>
       </c>
@@ -2264,8 +2016,13 @@
       <c r="N7" s="6"/>
       <c r="O7" s="7"/>
       <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7" s="6"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="8"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>194</v>
       </c>
@@ -2284,8 +2041,13 @@
       <c r="N8" s="6"/>
       <c r="O8" s="7"/>
       <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8" s="6"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="8"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>193</v>
       </c>
@@ -2304,8 +2066,13 @@
       <c r="N9" s="6"/>
       <c r="O9" s="7"/>
       <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9" s="6"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="8"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>192</v>
       </c>
@@ -2324,8 +2091,13 @@
       <c r="N10" s="6"/>
       <c r="O10" s="7"/>
       <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10" s="6"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="8"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>191</v>
       </c>
@@ -2344,8 +2116,13 @@
       <c r="N11" s="6"/>
       <c r="O11" s="7"/>
       <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11" s="6"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="8"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>190</v>
       </c>
@@ -2364,8 +2141,13 @@
       <c r="N12" s="6"/>
       <c r="O12" s="7"/>
       <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12" s="6"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="8"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>189</v>
       </c>
@@ -2384,8 +2166,13 @@
       <c r="N13" s="6"/>
       <c r="O13" s="7"/>
       <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13" s="6"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="8"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>188</v>
       </c>
@@ -2404,8 +2191,13 @@
       <c r="N14" s="6"/>
       <c r="O14" s="7"/>
       <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14" s="6"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="8"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>187</v>
       </c>
@@ -2424,8 +2216,13 @@
       <c r="N15" s="6"/>
       <c r="O15" s="7"/>
       <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15" s="6"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="8"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>186</v>
       </c>
@@ -2444,8 +2241,13 @@
       <c r="N16" s="6"/>
       <c r="O16" s="7"/>
       <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T16" s="6"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="8"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>185</v>
       </c>
@@ -2464,8 +2266,13 @@
       <c r="N17" s="6"/>
       <c r="O17" s="7"/>
       <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T17" s="6"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="8"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>184</v>
       </c>
@@ -2484,8 +2291,13 @@
       <c r="N18" s="6"/>
       <c r="O18" s="7"/>
       <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T18" s="6"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="8"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>183</v>
       </c>
@@ -2504,8 +2316,13 @@
       <c r="N19" s="6"/>
       <c r="O19" s="7"/>
       <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T19" s="6"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="8"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>182</v>
       </c>
@@ -2524,8 +2341,13 @@
       <c r="N20" s="6"/>
       <c r="O20" s="7"/>
       <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T20" s="6"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="8"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>181</v>
       </c>
@@ -2544,8 +2366,13 @@
       <c r="N21" s="6"/>
       <c r="O21" s="7"/>
       <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T21" s="6"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="8"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>180</v>
       </c>
@@ -2564,8 +2391,13 @@
       <c r="N22" s="6"/>
       <c r="O22" s="7"/>
       <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T22" s="6"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="8"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>179</v>
       </c>
@@ -2584,8 +2416,13 @@
       <c r="N23" s="6"/>
       <c r="O23" s="7"/>
       <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T23" s="6"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="8"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>178</v>
       </c>
@@ -2604,8 +2441,13 @@
       <c r="N24" s="6"/>
       <c r="O24" s="7"/>
       <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T24" s="6"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="8"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>177</v>
       </c>
@@ -2624,8 +2466,13 @@
       <c r="N25" s="6"/>
       <c r="O25" s="7"/>
       <c r="P25" s="8"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T25" s="6"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="8"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>176</v>
       </c>
@@ -2644,8 +2491,13 @@
       <c r="N26" s="6"/>
       <c r="O26" s="7"/>
       <c r="P26" s="8"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T26" s="6"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="8"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>175</v>
       </c>
@@ -2664,8 +2516,13 @@
       <c r="N27" s="6"/>
       <c r="O27" s="7"/>
       <c r="P27" s="8"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T27" s="6"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="8"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>174</v>
       </c>
@@ -2684,8 +2541,13 @@
       <c r="N28" s="6"/>
       <c r="O28" s="7"/>
       <c r="P28" s="8"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T28" s="6"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="8"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>173</v>
       </c>
@@ -2704,8 +2566,13 @@
       <c r="N29" s="6"/>
       <c r="O29" s="7"/>
       <c r="P29" s="8"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T29" s="6"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="8"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>172</v>
       </c>
@@ -2724,8 +2591,13 @@
       <c r="N30" s="6"/>
       <c r="O30" s="7"/>
       <c r="P30" s="8"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T30" s="6"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="8"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>171</v>
       </c>
@@ -2744,8 +2616,13 @@
       <c r="N31" s="6"/>
       <c r="O31" s="7"/>
       <c r="P31" s="8"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T31" s="6"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="8"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>170</v>
       </c>
@@ -2764,8 +2641,13 @@
       <c r="N32" s="6"/>
       <c r="O32" s="7"/>
       <c r="P32" s="8"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T32" s="6"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="8"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>169</v>
       </c>
@@ -2784,8 +2666,13 @@
       <c r="N33" s="6"/>
       <c r="O33" s="7"/>
       <c r="P33" s="8"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T33" s="6"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="8"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>168</v>
       </c>
@@ -2804,8 +2691,13 @@
       <c r="N34" s="6"/>
       <c r="O34" s="7"/>
       <c r="P34" s="8"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T34" s="6"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="8"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>167</v>
       </c>
@@ -2824,8 +2716,13 @@
       <c r="N35" s="6"/>
       <c r="O35" s="7"/>
       <c r="P35" s="8"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T35" s="6"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="8"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>166</v>
       </c>
@@ -2844,8 +2741,13 @@
       <c r="N36" s="6"/>
       <c r="O36" s="7"/>
       <c r="P36" s="8"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T36" s="6"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="8"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>165</v>
       </c>
@@ -2864,8 +2766,13 @@
       <c r="N37" s="6"/>
       <c r="O37" s="7"/>
       <c r="P37" s="8"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T37" s="6"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="8"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>164</v>
       </c>
@@ -2884,8 +2791,13 @@
       <c r="N38" s="6"/>
       <c r="O38" s="7"/>
       <c r="P38" s="8"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T38" s="6"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="8"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>163</v>
       </c>
@@ -2904,8 +2816,13 @@
       <c r="N39" s="6"/>
       <c r="O39" s="7"/>
       <c r="P39" s="8"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T39" s="6"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="8"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>162</v>
       </c>
@@ -2924,8 +2841,13 @@
       <c r="N40" s="6"/>
       <c r="O40" s="7"/>
       <c r="P40" s="8"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T40" s="6"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="8"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>161</v>
       </c>
@@ -2944,8 +2866,13 @@
       <c r="N41" s="6"/>
       <c r="O41" s="7"/>
       <c r="P41" s="8"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T41" s="6"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="8"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>160</v>
       </c>
@@ -2964,8 +2891,13 @@
       <c r="N42" s="6"/>
       <c r="O42" s="7"/>
       <c r="P42" s="8"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T42" s="6"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="8"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>159</v>
       </c>
@@ -2984,8 +2916,13 @@
       <c r="N43" s="6"/>
       <c r="O43" s="7"/>
       <c r="P43" s="8"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T43" s="6"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="8"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>158</v>
       </c>
@@ -3004,8 +2941,13 @@
       <c r="N44" s="6"/>
       <c r="O44" s="7"/>
       <c r="P44" s="8"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T44" s="6"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="8"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>157</v>
       </c>
@@ -3024,8 +2966,13 @@
       <c r="N45" s="6"/>
       <c r="O45" s="7"/>
       <c r="P45" s="8"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T45" s="6"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="8"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>156</v>
       </c>
@@ -3044,8 +2991,13 @@
       <c r="N46" s="6"/>
       <c r="O46" s="7"/>
       <c r="P46" s="8"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T46" s="6"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="8"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>155</v>
       </c>
@@ -3064,8 +3016,13 @@
       <c r="N47" s="6"/>
       <c r="O47" s="7"/>
       <c r="P47" s="8"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T47" s="6"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="8"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>154</v>
       </c>
@@ -3084,8 +3041,13 @@
       <c r="N48" s="6"/>
       <c r="O48" s="7"/>
       <c r="P48" s="8"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T48" s="6"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="8"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>153</v>
       </c>
@@ -3104,8 +3066,13 @@
       <c r="N49" s="6"/>
       <c r="O49" s="7"/>
       <c r="P49" s="8"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T49" s="6"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="8"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>152</v>
       </c>
@@ -3124,8 +3091,13 @@
       <c r="N50" s="6"/>
       <c r="O50" s="7"/>
       <c r="P50" s="8"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T50" s="6"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="8"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>151</v>
       </c>
@@ -3144,8 +3116,13 @@
       <c r="N51" s="6"/>
       <c r="O51" s="7"/>
       <c r="P51" s="8"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T51" s="6"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="8"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>150</v>
       </c>
@@ -3164,8 +3141,13 @@
       <c r="N52" s="6"/>
       <c r="O52" s="7"/>
       <c r="P52" s="8"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T52" s="6"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="8"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>149</v>
       </c>
@@ -3184,8 +3166,13 @@
       <c r="N53" s="6"/>
       <c r="O53" s="7"/>
       <c r="P53" s="8"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T53" s="6"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="8"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>148</v>
       </c>
@@ -3204,8 +3191,13 @@
       <c r="N54" s="6"/>
       <c r="O54" s="7"/>
       <c r="P54" s="8"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T54" s="6"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="8"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>147</v>
       </c>
@@ -3224,8 +3216,13 @@
       <c r="N55" s="6"/>
       <c r="O55" s="7"/>
       <c r="P55" s="8"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T55" s="6"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="8"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>146</v>
       </c>
@@ -3244,8 +3241,13 @@
       <c r="N56" s="6"/>
       <c r="O56" s="7"/>
       <c r="P56" s="8"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T56" s="6"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="8"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>145</v>
       </c>
@@ -3264,8 +3266,13 @@
       <c r="N57" s="6"/>
       <c r="O57" s="7"/>
       <c r="P57" s="8"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T57" s="6"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="8"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>144</v>
       </c>
@@ -3284,8 +3291,13 @@
       <c r="N58" s="6"/>
       <c r="O58" s="7"/>
       <c r="P58" s="8"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T58" s="6"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="8"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>143</v>
       </c>
@@ -3304,8 +3316,13 @@
       <c r="N59" s="6"/>
       <c r="O59" s="7"/>
       <c r="P59" s="8"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T59" s="6"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="8"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>142</v>
       </c>
@@ -3324,8 +3341,13 @@
       <c r="N60" s="6"/>
       <c r="O60" s="7"/>
       <c r="P60" s="8"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T60" s="6"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="8"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>141</v>
       </c>
@@ -3344,8 +3366,13 @@
       <c r="N61" s="6"/>
       <c r="O61" s="7"/>
       <c r="P61" s="8"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T61" s="6"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="8"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>140</v>
       </c>
@@ -3364,8 +3391,13 @@
       <c r="N62" s="6"/>
       <c r="O62" s="7"/>
       <c r="P62" s="8"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T62" s="6"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="8"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>139</v>
       </c>
@@ -3384,8 +3416,13 @@
       <c r="N63" s="6"/>
       <c r="O63" s="7"/>
       <c r="P63" s="8"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T63" s="6"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="8"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>138</v>
       </c>
@@ -3404,8 +3441,13 @@
       <c r="N64" s="6"/>
       <c r="O64" s="7"/>
       <c r="P64" s="8"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T64" s="6"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="8"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>137</v>
       </c>
@@ -3424,8 +3466,13 @@
       <c r="N65" s="6"/>
       <c r="O65" s="7"/>
       <c r="P65" s="8"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T65" s="6"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="8"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>136</v>
       </c>
@@ -3444,8 +3491,13 @@
       <c r="N66" s="6"/>
       <c r="O66" s="7"/>
       <c r="P66" s="8"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T66" s="6"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="8"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>135</v>
       </c>
@@ -3464,8 +3516,13 @@
       <c r="N67" s="6"/>
       <c r="O67" s="7"/>
       <c r="P67" s="8"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T67" s="6"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="8"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>134</v>
       </c>
@@ -3484,8 +3541,13 @@
       <c r="N68" s="6"/>
       <c r="O68" s="7"/>
       <c r="P68" s="8"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T68" s="6"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="8"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>133</v>
       </c>
@@ -3504,8 +3566,13 @@
       <c r="N69" s="6"/>
       <c r="O69" s="7"/>
       <c r="P69" s="8"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T69" s="6"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="8"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>132</v>
       </c>
@@ -3524,8 +3591,13 @@
       <c r="N70" s="6"/>
       <c r="O70" s="7"/>
       <c r="P70" s="8"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T70" s="6"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="8"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>131</v>
       </c>
@@ -3544,8 +3616,13 @@
       <c r="N71" s="6"/>
       <c r="O71" s="7"/>
       <c r="P71" s="8"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T71" s="6"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="8"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>130</v>
       </c>
@@ -3564,8 +3641,13 @@
       <c r="N72" s="6"/>
       <c r="O72" s="7"/>
       <c r="P72" s="8"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T72" s="6"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="8"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>129</v>
       </c>
@@ -3584,8 +3666,13 @@
       <c r="N73" s="6"/>
       <c r="O73" s="7"/>
       <c r="P73" s="8"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T73" s="6"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="8"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>128</v>
       </c>
@@ -3604,8 +3691,13 @@
       <c r="N74" s="6"/>
       <c r="O74" s="7"/>
       <c r="P74" s="8"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T74" s="6"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="8"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>127</v>
       </c>
@@ -3624,8 +3716,13 @@
       <c r="N75" s="6"/>
       <c r="O75" s="7"/>
       <c r="P75" s="8"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T75" s="6"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="8"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>126</v>
       </c>
@@ -3644,8 +3741,13 @@
       <c r="N76" s="6"/>
       <c r="O76" s="7"/>
       <c r="P76" s="8"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T76" s="6"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
+      <c r="X76" s="8"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>125</v>
       </c>
@@ -3664,8 +3766,13 @@
       <c r="N77" s="6"/>
       <c r="O77" s="7"/>
       <c r="P77" s="8"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T77" s="6"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="8"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>124</v>
       </c>
@@ -3684,8 +3791,13 @@
       <c r="N78" s="6"/>
       <c r="O78" s="7"/>
       <c r="P78" s="8"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T78" s="6"/>
+      <c r="U78" s="7"/>
+      <c r="V78" s="7"/>
+      <c r="W78" s="7"/>
+      <c r="X78" s="8"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>123</v>
       </c>
@@ -3704,8 +3816,13 @@
       <c r="N79" s="6"/>
       <c r="O79" s="7"/>
       <c r="P79" s="8"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T79" s="6"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="8"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>122</v>
       </c>
@@ -3724,8 +3841,13 @@
       <c r="N80" s="6"/>
       <c r="O80" s="7"/>
       <c r="P80" s="8"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T80" s="6"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="8"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>121</v>
       </c>
@@ -3744,8 +3866,13 @@
       <c r="N81" s="6"/>
       <c r="O81" s="7"/>
       <c r="P81" s="8"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T81" s="6"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="8"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>120</v>
       </c>
@@ -3764,8 +3891,13 @@
       <c r="N82" s="6"/>
       <c r="O82" s="7"/>
       <c r="P82" s="8"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T82" s="6"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="8"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>119</v>
       </c>
@@ -3784,8 +3916,13 @@
       <c r="N83" s="6"/>
       <c r="O83" s="7"/>
       <c r="P83" s="8"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T83" s="6"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="8"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>118</v>
       </c>
@@ -3804,8 +3941,13 @@
       <c r="N84" s="6"/>
       <c r="O84" s="7"/>
       <c r="P84" s="8"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T84" s="6"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7"/>
+      <c r="X84" s="8"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>117</v>
       </c>
@@ -3824,8 +3966,15 @@
       <c r="N85" s="6"/>
       <c r="O85" s="7"/>
       <c r="P85" s="8"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T85" s="6"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="8"/>
+      <c r="Y85" s="7"/>
+      <c r="Z85" s="7"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>116</v>
       </c>
@@ -3844,8 +3993,15 @@
       <c r="N86" s="6"/>
       <c r="O86" s="7"/>
       <c r="P86" s="8"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T86" s="6"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="8"/>
+      <c r="Y86" s="7"/>
+      <c r="Z86" s="7"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>115</v>
       </c>
@@ -3864,8 +4020,15 @@
       <c r="N87" s="6"/>
       <c r="O87" s="7"/>
       <c r="P87" s="8"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T87" s="6"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="8"/>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="7"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>114</v>
       </c>
@@ -3884,8 +4047,15 @@
       <c r="N88" s="6"/>
       <c r="O88" s="7"/>
       <c r="P88" s="8"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T88" s="6"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="8"/>
+      <c r="Y88" s="7"/>
+      <c r="Z88" s="7"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>113</v>
       </c>
@@ -3904,8 +4074,15 @@
       <c r="N89" s="6"/>
       <c r="O89" s="7"/>
       <c r="P89" s="8"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T89" s="6"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="8"/>
+      <c r="Y89" s="7"/>
+      <c r="Z89" s="7"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>112</v>
       </c>
@@ -3924,8 +4101,15 @@
       <c r="N90" s="6"/>
       <c r="O90" s="7"/>
       <c r="P90" s="8"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T90" s="6"/>
+      <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
+      <c r="W90" s="7"/>
+      <c r="X90" s="8"/>
+      <c r="Y90" s="7"/>
+      <c r="Z90" s="7"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>111</v>
       </c>
@@ -3944,8 +4128,15 @@
       <c r="N91" s="6"/>
       <c r="O91" s="7"/>
       <c r="P91" s="8"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T91" s="6"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="8"/>
+      <c r="Y91" s="7"/>
+      <c r="Z91" s="7"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>110</v>
       </c>
@@ -3964,8 +4155,15 @@
       <c r="N92" s="6"/>
       <c r="O92" s="7"/>
       <c r="P92" s="8"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T92" s="6"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="8"/>
+      <c r="Y92" s="7"/>
+      <c r="Z92" s="7"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>109</v>
       </c>
@@ -3984,8 +4182,15 @@
       <c r="N93" s="6"/>
       <c r="O93" s="7"/>
       <c r="P93" s="8"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T93" s="6"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="8"/>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="7"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>108</v>
       </c>
@@ -4004,8 +4209,15 @@
       <c r="N94" s="6"/>
       <c r="O94" s="7"/>
       <c r="P94" s="8"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T94" s="6"/>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="8"/>
+      <c r="Y94" s="7"/>
+      <c r="Z94" s="7"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>107</v>
       </c>
@@ -4024,8 +4236,15 @@
       <c r="N95" s="6"/>
       <c r="O95" s="7"/>
       <c r="P95" s="8"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T95" s="6"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="8"/>
+      <c r="Y95" s="7"/>
+      <c r="Z95" s="7"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>106</v>
       </c>
@@ -4044,6 +4263,13 @@
       <c r="N96" s="6"/>
       <c r="O96" s="7"/>
       <c r="P96" s="8"/>
+      <c r="T96" s="6"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="8"/>
+      <c r="Y96" s="7"/>
+      <c r="Z96" s="7"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97">
@@ -4064,6 +4290,13 @@
       <c r="N97" s="6"/>
       <c r="O97" s="7"/>
       <c r="P97" s="8"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="8"/>
+      <c r="Y97" s="7"/>
+      <c r="Z97" s="7"/>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98">
@@ -4084,15 +4317,13 @@
       <c r="N98" s="6"/>
       <c r="O98" s="7"/>
       <c r="P98" s="8"/>
-      <c r="X98" s="30">
-        <v>13</v>
-      </c>
-      <c r="Y98" s="31">
-        <v>1</v>
-      </c>
-      <c r="Z98" s="32">
-        <v>1</v>
-      </c>
+      <c r="T98" s="6"/>
+      <c r="U98" s="7"/>
+      <c r="V98" s="7"/>
+      <c r="W98" s="7"/>
+      <c r="X98" s="8"/>
+      <c r="Y98" s="7"/>
+      <c r="Z98" s="7"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99">
@@ -4113,9 +4344,13 @@
       <c r="N99" s="6"/>
       <c r="O99" s="7"/>
       <c r="P99" s="8"/>
-      <c r="Y99" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T99" s="6"/>
+      <c r="U99" s="7"/>
+      <c r="V99" s="7"/>
+      <c r="W99" s="7"/>
+      <c r="X99" s="8"/>
+      <c r="Y99" s="38"/>
+      <c r="Z99" s="7"/>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100">
@@ -4136,15 +4371,13 @@
       <c r="N100" s="6"/>
       <c r="O100" s="7"/>
       <c r="P100" s="8"/>
-      <c r="X100" s="30">
-        <v>12</v>
-      </c>
-      <c r="Y100" s="31">
-        <v>1</v>
-      </c>
-      <c r="Z100" s="32">
-        <v>2</v>
-      </c>
+      <c r="T100" s="6"/>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
+      <c r="W100" s="7"/>
+      <c r="X100" s="8"/>
+      <c r="Y100" s="7"/>
+      <c r="Z100" s="7"/>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101">
@@ -4165,9 +4398,13 @@
       <c r="N101" s="6"/>
       <c r="O101" s="7"/>
       <c r="P101" s="8"/>
-      <c r="Y101" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T101" s="6"/>
+      <c r="U101" s="7"/>
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="8"/>
+      <c r="Y101" s="38"/>
+      <c r="Z101" s="7"/>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102">
@@ -4188,9 +4425,13 @@
       <c r="N102" s="6"/>
       <c r="O102" s="7"/>
       <c r="P102" s="8"/>
-      <c r="Y102" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T102" s="6"/>
+      <c r="U102" s="7"/>
+      <c r="V102" s="7"/>
+      <c r="W102" s="7"/>
+      <c r="X102" s="8"/>
+      <c r="Y102" s="38"/>
+      <c r="Z102" s="7"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103">
@@ -4211,15 +4452,13 @@
       <c r="N103" s="6"/>
       <c r="O103" s="7"/>
       <c r="P103" s="8"/>
-      <c r="X103" s="30">
-        <v>11</v>
-      </c>
-      <c r="Y103" s="31">
-        <v>1</v>
-      </c>
-      <c r="Z103" s="32">
-        <v>3</v>
-      </c>
+      <c r="T103" s="6"/>
+      <c r="U103" s="7"/>
+      <c r="V103" s="7"/>
+      <c r="W103" s="7"/>
+      <c r="X103" s="8"/>
+      <c r="Y103" s="7"/>
+      <c r="Z103" s="7"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104">
@@ -4240,9 +4479,13 @@
       <c r="N104" s="6"/>
       <c r="O104" s="7"/>
       <c r="P104" s="8"/>
-      <c r="Y104" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T104" s="6"/>
+      <c r="U104" s="7"/>
+      <c r="V104" s="7"/>
+      <c r="W104" s="7"/>
+      <c r="X104" s="8"/>
+      <c r="Y104" s="38"/>
+      <c r="Z104" s="7"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105">
@@ -4263,9 +4506,13 @@
       <c r="N105" s="6"/>
       <c r="O105" s="7"/>
       <c r="P105" s="8"/>
-      <c r="Y105" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T105" s="6"/>
+      <c r="U105" s="7"/>
+      <c r="V105" s="7"/>
+      <c r="W105" s="7"/>
+      <c r="X105" s="8"/>
+      <c r="Y105" s="38"/>
+      <c r="Z105" s="7"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106">
@@ -4286,9 +4533,13 @@
       <c r="N106" s="6"/>
       <c r="O106" s="7"/>
       <c r="P106" s="8"/>
-      <c r="Y106" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T106" s="6"/>
+      <c r="U106" s="7"/>
+      <c r="V106" s="7"/>
+      <c r="W106" s="7"/>
+      <c r="X106" s="8"/>
+      <c r="Y106" s="38"/>
+      <c r="Z106" s="7"/>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107">
@@ -4309,15 +4560,13 @@
       <c r="N107" s="6"/>
       <c r="O107" s="7"/>
       <c r="P107" s="8"/>
-      <c r="X107" s="30">
-        <v>10</v>
-      </c>
-      <c r="Y107" s="31">
-        <v>1</v>
-      </c>
-      <c r="Z107" s="32">
-        <v>4</v>
-      </c>
+      <c r="T107" s="6"/>
+      <c r="U107" s="7"/>
+      <c r="V107" s="7"/>
+      <c r="W107" s="7"/>
+      <c r="X107" s="8"/>
+      <c r="Y107" s="7"/>
+      <c r="Z107" s="7"/>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108">
@@ -4338,9 +4587,13 @@
       <c r="N108" s="6"/>
       <c r="O108" s="7"/>
       <c r="P108" s="8"/>
-      <c r="Y108" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T108" s="6"/>
+      <c r="U108" s="7"/>
+      <c r="V108" s="7"/>
+      <c r="W108" s="7"/>
+      <c r="X108" s="8"/>
+      <c r="Y108" s="38"/>
+      <c r="Z108" s="7"/>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109">
@@ -4361,9 +4614,13 @@
       <c r="N109" s="6"/>
       <c r="O109" s="7"/>
       <c r="P109" s="8"/>
-      <c r="Y109" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T109" s="6"/>
+      <c r="U109" s="7"/>
+      <c r="V109" s="7"/>
+      <c r="W109" s="7"/>
+      <c r="X109" s="8"/>
+      <c r="Y109" s="38"/>
+      <c r="Z109" s="7"/>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110">
@@ -4384,9 +4641,13 @@
       <c r="N110" s="6"/>
       <c r="O110" s="7"/>
       <c r="P110" s="8"/>
-      <c r="Y110" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T110" s="6"/>
+      <c r="U110" s="7"/>
+      <c r="V110" s="7"/>
+      <c r="W110" s="7"/>
+      <c r="X110" s="8"/>
+      <c r="Y110" s="38"/>
+      <c r="Z110" s="7"/>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111">
@@ -4407,9 +4668,13 @@
       <c r="N111" s="6"/>
       <c r="O111" s="7"/>
       <c r="P111" s="8"/>
-      <c r="Y111" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T111" s="6"/>
+      <c r="U111" s="7"/>
+      <c r="V111" s="7"/>
+      <c r="W111" s="7"/>
+      <c r="X111" s="8"/>
+      <c r="Y111" s="38"/>
+      <c r="Z111" s="7"/>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112">
@@ -4430,15 +4695,13 @@
       <c r="N112" s="6"/>
       <c r="O112" s="7"/>
       <c r="P112" s="8"/>
-      <c r="X112" s="30">
-        <v>9</v>
-      </c>
-      <c r="Y112" s="31">
-        <v>1</v>
-      </c>
-      <c r="Z112" s="32">
-        <v>5</v>
-      </c>
+      <c r="T112" s="6"/>
+      <c r="U112" s="7"/>
+      <c r="V112" s="7"/>
+      <c r="W112" s="7"/>
+      <c r="X112" s="8"/>
+      <c r="Y112" s="7"/>
+      <c r="Z112" s="7"/>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113">
@@ -4459,9 +4722,13 @@
       <c r="N113" s="6"/>
       <c r="O113" s="7"/>
       <c r="P113" s="8"/>
-      <c r="Y113" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T113" s="6"/>
+      <c r="U113" s="7"/>
+      <c r="V113" s="7"/>
+      <c r="W113" s="7"/>
+      <c r="X113" s="8"/>
+      <c r="Y113" s="38"/>
+      <c r="Z113" s="7"/>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114">
@@ -4482,9 +4749,13 @@
       <c r="N114" s="6"/>
       <c r="O114" s="7"/>
       <c r="P114" s="8"/>
-      <c r="Y114" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T114" s="6"/>
+      <c r="U114" s="7"/>
+      <c r="V114" s="7"/>
+      <c r="W114" s="7"/>
+      <c r="X114" s="8"/>
+      <c r="Y114" s="38"/>
+      <c r="Z114" s="7"/>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115">
@@ -4505,9 +4776,13 @@
       <c r="N115" s="6"/>
       <c r="O115" s="7"/>
       <c r="P115" s="8"/>
-      <c r="Y115" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T115" s="6"/>
+      <c r="U115" s="7"/>
+      <c r="V115" s="7"/>
+      <c r="W115" s="7"/>
+      <c r="X115" s="8"/>
+      <c r="Y115" s="38"/>
+      <c r="Z115" s="7"/>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116">
@@ -4528,9 +4803,13 @@
       <c r="N116" s="6"/>
       <c r="O116" s="7"/>
       <c r="P116" s="8"/>
-      <c r="Y116" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T116" s="6"/>
+      <c r="U116" s="7"/>
+      <c r="V116" s="7"/>
+      <c r="W116" s="7"/>
+      <c r="X116" s="8"/>
+      <c r="Y116" s="38"/>
+      <c r="Z116" s="7"/>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117">
@@ -4551,9 +4830,13 @@
       <c r="N117" s="6"/>
       <c r="O117" s="7"/>
       <c r="P117" s="8"/>
-      <c r="Y117" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T117" s="6"/>
+      <c r="U117" s="7"/>
+      <c r="V117" s="7"/>
+      <c r="W117" s="7"/>
+      <c r="X117" s="8"/>
+      <c r="Y117" s="38"/>
+      <c r="Z117" s="7"/>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118">
@@ -4574,15 +4857,13 @@
       <c r="N118" s="6"/>
       <c r="O118" s="7"/>
       <c r="P118" s="8"/>
-      <c r="X118" s="30">
-        <v>8</v>
-      </c>
-      <c r="Y118" s="31">
-        <v>1</v>
-      </c>
-      <c r="Z118" s="32">
-        <v>6</v>
-      </c>
+      <c r="T118" s="6"/>
+      <c r="U118" s="7"/>
+      <c r="V118" s="7"/>
+      <c r="W118" s="7"/>
+      <c r="X118" s="8"/>
+      <c r="Y118" s="7"/>
+      <c r="Z118" s="7"/>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119">
@@ -4603,9 +4884,13 @@
       <c r="N119" s="6"/>
       <c r="O119" s="7"/>
       <c r="P119" s="8"/>
-      <c r="Y119" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T119" s="6"/>
+      <c r="U119" s="7"/>
+      <c r="V119" s="7"/>
+      <c r="W119" s="7"/>
+      <c r="X119" s="8"/>
+      <c r="Y119" s="38"/>
+      <c r="Z119" s="7"/>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120">
@@ -4626,9 +4911,13 @@
       <c r="N120" s="6"/>
       <c r="O120" s="7"/>
       <c r="P120" s="8"/>
-      <c r="Y120" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T120" s="6"/>
+      <c r="U120" s="7"/>
+      <c r="V120" s="7"/>
+      <c r="W120" s="7"/>
+      <c r="X120" s="8"/>
+      <c r="Y120" s="38"/>
+      <c r="Z120" s="7"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121">
@@ -4649,9 +4938,13 @@
       <c r="N121" s="6"/>
       <c r="O121" s="7"/>
       <c r="P121" s="8"/>
-      <c r="Y121" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T121" s="6"/>
+      <c r="U121" s="7"/>
+      <c r="V121" s="7"/>
+      <c r="W121" s="7"/>
+      <c r="X121" s="8"/>
+      <c r="Y121" s="38"/>
+      <c r="Z121" s="7"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122">
@@ -4672,9 +4965,13 @@
       <c r="N122" s="6"/>
       <c r="O122" s="7"/>
       <c r="P122" s="8"/>
-      <c r="Y122" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T122" s="6"/>
+      <c r="U122" s="7"/>
+      <c r="V122" s="7"/>
+      <c r="W122" s="7"/>
+      <c r="X122" s="8"/>
+      <c r="Y122" s="38"/>
+      <c r="Z122" s="7"/>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123">
@@ -4695,9 +4992,13 @@
       <c r="N123" s="6"/>
       <c r="O123" s="7"/>
       <c r="P123" s="8"/>
-      <c r="Y123" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T123" s="6"/>
+      <c r="U123" s="7"/>
+      <c r="V123" s="7"/>
+      <c r="W123" s="7"/>
+      <c r="X123" s="8"/>
+      <c r="Y123" s="38"/>
+      <c r="Z123" s="7"/>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124">
@@ -4718,9 +5019,13 @@
       <c r="N124" s="6"/>
       <c r="O124" s="7"/>
       <c r="P124" s="8"/>
-      <c r="Y124" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T124" s="6"/>
+      <c r="U124" s="7"/>
+      <c r="V124" s="7"/>
+      <c r="W124" s="7"/>
+      <c r="X124" s="8"/>
+      <c r="Y124" s="38"/>
+      <c r="Z124" s="7"/>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125">
@@ -4741,15 +5046,13 @@
       <c r="N125" s="6"/>
       <c r="O125" s="7"/>
       <c r="P125" s="8"/>
-      <c r="X125" s="30">
-        <v>7</v>
-      </c>
-      <c r="Y125" s="31">
-        <v>1</v>
-      </c>
-      <c r="Z125" s="32">
-        <v>7</v>
-      </c>
+      <c r="T125" s="6"/>
+      <c r="U125" s="7"/>
+      <c r="V125" s="7"/>
+      <c r="W125" s="7"/>
+      <c r="X125" s="8"/>
+      <c r="Y125" s="7"/>
+      <c r="Z125" s="7"/>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126">
@@ -4770,9 +5073,13 @@
       <c r="N126" s="6"/>
       <c r="O126" s="7"/>
       <c r="P126" s="8"/>
-      <c r="Y126" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T126" s="6"/>
+      <c r="U126" s="7"/>
+      <c r="V126" s="7"/>
+      <c r="W126" s="7"/>
+      <c r="X126" s="8"/>
+      <c r="Y126" s="38"/>
+      <c r="Z126" s="7"/>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127">
@@ -4793,9 +5100,13 @@
       <c r="N127" s="6"/>
       <c r="O127" s="7"/>
       <c r="P127" s="8"/>
-      <c r="Y127" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T127" s="6"/>
+      <c r="U127" s="7"/>
+      <c r="V127" s="7"/>
+      <c r="W127" s="7"/>
+      <c r="X127" s="8"/>
+      <c r="Y127" s="38"/>
+      <c r="Z127" s="7"/>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128">
@@ -4816,9 +5127,13 @@
       <c r="N128" s="6"/>
       <c r="O128" s="7"/>
       <c r="P128" s="8"/>
-      <c r="Y128" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T128" s="6"/>
+      <c r="U128" s="7"/>
+      <c r="V128" s="7"/>
+      <c r="W128" s="7"/>
+      <c r="X128" s="8"/>
+      <c r="Y128" s="38"/>
+      <c r="Z128" s="7"/>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129">
@@ -4839,9 +5154,13 @@
       <c r="N129" s="6"/>
       <c r="O129" s="7"/>
       <c r="P129" s="8"/>
-      <c r="Y129" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T129" s="6"/>
+      <c r="U129" s="7"/>
+      <c r="V129" s="7"/>
+      <c r="W129" s="7"/>
+      <c r="X129" s="8"/>
+      <c r="Y129" s="38"/>
+      <c r="Z129" s="7"/>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130">
@@ -4862,9 +5181,13 @@
       <c r="N130" s="6"/>
       <c r="O130" s="7"/>
       <c r="P130" s="8"/>
-      <c r="Y130" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T130" s="6"/>
+      <c r="U130" s="7"/>
+      <c r="V130" s="7"/>
+      <c r="W130" s="7"/>
+      <c r="X130" s="8"/>
+      <c r="Y130" s="38"/>
+      <c r="Z130" s="7"/>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131">
@@ -4885,9 +5208,13 @@
       <c r="N131" s="6"/>
       <c r="O131" s="7"/>
       <c r="P131" s="8"/>
-      <c r="Y131" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T131" s="6"/>
+      <c r="U131" s="7"/>
+      <c r="V131" s="7"/>
+      <c r="W131" s="7"/>
+      <c r="X131" s="8"/>
+      <c r="Y131" s="38"/>
+      <c r="Z131" s="7"/>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132">
@@ -4908,9 +5235,13 @@
       <c r="N132" s="6"/>
       <c r="O132" s="7"/>
       <c r="P132" s="8"/>
-      <c r="Y132" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T132" s="6"/>
+      <c r="U132" s="7"/>
+      <c r="V132" s="7"/>
+      <c r="W132" s="7"/>
+      <c r="X132" s="8"/>
+      <c r="Y132" s="38"/>
+      <c r="Z132" s="7"/>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133">
@@ -4931,15 +5262,13 @@
       <c r="N133" s="6"/>
       <c r="O133" s="7"/>
       <c r="P133" s="8"/>
-      <c r="X133" s="30">
-        <v>6</v>
-      </c>
-      <c r="Y133" s="31">
-        <v>1</v>
-      </c>
-      <c r="Z133" s="32">
-        <v>8</v>
-      </c>
+      <c r="T133" s="6"/>
+      <c r="U133" s="7"/>
+      <c r="V133" s="7"/>
+      <c r="W133" s="7"/>
+      <c r="X133" s="8"/>
+      <c r="Y133" s="7"/>
+      <c r="Z133" s="7"/>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134">
@@ -4960,9 +5289,13 @@
       <c r="N134" s="6"/>
       <c r="O134" s="7"/>
       <c r="P134" s="8"/>
-      <c r="Y134" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T134" s="6"/>
+      <c r="U134" s="7"/>
+      <c r="V134" s="7"/>
+      <c r="W134" s="7"/>
+      <c r="X134" s="8"/>
+      <c r="Y134" s="38"/>
+      <c r="Z134" s="7"/>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -4983,9 +5316,13 @@
       <c r="N135" s="6"/>
       <c r="O135" s="7"/>
       <c r="P135" s="8"/>
-      <c r="Y135" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T135" s="6"/>
+      <c r="U135" s="7"/>
+      <c r="V135" s="7"/>
+      <c r="W135" s="7"/>
+      <c r="X135" s="8"/>
+      <c r="Y135" s="38"/>
+      <c r="Z135" s="7"/>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136">
@@ -5006,9 +5343,13 @@
       <c r="N136" s="6"/>
       <c r="O136" s="7"/>
       <c r="P136" s="8"/>
-      <c r="Y136" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T136" s="6"/>
+      <c r="U136" s="7"/>
+      <c r="V136" s="7"/>
+      <c r="W136" s="7"/>
+      <c r="X136" s="8"/>
+      <c r="Y136" s="38"/>
+      <c r="Z136" s="7"/>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137">
@@ -5029,9 +5370,13 @@
       <c r="N137" s="6"/>
       <c r="O137" s="7"/>
       <c r="P137" s="8"/>
-      <c r="Y137" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T137" s="6"/>
+      <c r="U137" s="7"/>
+      <c r="V137" s="7"/>
+      <c r="W137" s="7"/>
+      <c r="X137" s="8"/>
+      <c r="Y137" s="38"/>
+      <c r="Z137" s="7"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138">
@@ -5052,9 +5397,13 @@
       <c r="N138" s="6"/>
       <c r="O138" s="7"/>
       <c r="P138" s="8"/>
-      <c r="Y138" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T138" s="6"/>
+      <c r="U138" s="7"/>
+      <c r="V138" s="7"/>
+      <c r="W138" s="7"/>
+      <c r="X138" s="8"/>
+      <c r="Y138" s="38"/>
+      <c r="Z138" s="7"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139">
@@ -5075,9 +5424,13 @@
       <c r="N139" s="6"/>
       <c r="O139" s="7"/>
       <c r="P139" s="8"/>
-      <c r="Y139" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T139" s="6"/>
+      <c r="U139" s="7"/>
+      <c r="V139" s="7"/>
+      <c r="W139" s="7"/>
+      <c r="X139" s="8"/>
+      <c r="Y139" s="38"/>
+      <c r="Z139" s="7"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140">
@@ -5098,9 +5451,13 @@
       <c r="N140" s="6"/>
       <c r="O140" s="7"/>
       <c r="P140" s="8"/>
-      <c r="Y140" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T140" s="6"/>
+      <c r="U140" s="7"/>
+      <c r="V140" s="7"/>
+      <c r="W140" s="7"/>
+      <c r="X140" s="8"/>
+      <c r="Y140" s="38"/>
+      <c r="Z140" s="7"/>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141">
@@ -5121,9 +5478,13 @@
       <c r="N141" s="6"/>
       <c r="O141" s="7"/>
       <c r="P141" s="8"/>
-      <c r="Y141" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T141" s="6"/>
+      <c r="U141" s="7"/>
+      <c r="V141" s="7"/>
+      <c r="W141" s="7"/>
+      <c r="X141" s="8"/>
+      <c r="Y141" s="38"/>
+      <c r="Z141" s="7"/>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142">
@@ -5144,15 +5505,13 @@
       <c r="N142" s="6"/>
       <c r="O142" s="7"/>
       <c r="P142" s="8"/>
-      <c r="X142" s="30">
-        <v>5</v>
-      </c>
-      <c r="Y142" s="31">
-        <v>1</v>
-      </c>
-      <c r="Z142" s="32">
-        <v>9</v>
-      </c>
+      <c r="T142" s="6"/>
+      <c r="U142" s="7"/>
+      <c r="V142" s="7"/>
+      <c r="W142" s="7"/>
+      <c r="X142" s="8"/>
+      <c r="Y142" s="7"/>
+      <c r="Z142" s="7"/>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143">
@@ -5173,9 +5532,13 @@
       <c r="N143" s="6"/>
       <c r="O143" s="7"/>
       <c r="P143" s="8"/>
-      <c r="Y143" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T143" s="6"/>
+      <c r="U143" s="7"/>
+      <c r="V143" s="7"/>
+      <c r="W143" s="7"/>
+      <c r="X143" s="8"/>
+      <c r="Y143" s="38"/>
+      <c r="Z143" s="7"/>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144">
@@ -5196,9 +5559,13 @@
       <c r="N144" s="6"/>
       <c r="O144" s="7"/>
       <c r="P144" s="8"/>
-      <c r="Y144" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T144" s="6"/>
+      <c r="U144" s="7"/>
+      <c r="V144" s="7"/>
+      <c r="W144" s="7"/>
+      <c r="X144" s="8"/>
+      <c r="Y144" s="38"/>
+      <c r="Z144" s="7"/>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145">
@@ -5219,9 +5586,13 @@
       <c r="N145" s="6"/>
       <c r="O145" s="7"/>
       <c r="P145" s="8"/>
-      <c r="Y145" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T145" s="6"/>
+      <c r="U145" s="7"/>
+      <c r="V145" s="7"/>
+      <c r="W145" s="7"/>
+      <c r="X145" s="8"/>
+      <c r="Y145" s="38"/>
+      <c r="Z145" s="7"/>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146">
@@ -5242,9 +5613,13 @@
       <c r="N146" s="6"/>
       <c r="O146" s="7"/>
       <c r="P146" s="8"/>
-      <c r="Y146" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T146" s="6"/>
+      <c r="U146" s="7"/>
+      <c r="V146" s="7"/>
+      <c r="W146" s="7"/>
+      <c r="X146" s="8"/>
+      <c r="Y146" s="38"/>
+      <c r="Z146" s="7"/>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147">
@@ -5265,9 +5640,13 @@
       <c r="N147" s="6"/>
       <c r="O147" s="7"/>
       <c r="P147" s="8"/>
-      <c r="Y147" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T147" s="6"/>
+      <c r="U147" s="7"/>
+      <c r="V147" s="7"/>
+      <c r="W147" s="7"/>
+      <c r="X147" s="8"/>
+      <c r="Y147" s="38"/>
+      <c r="Z147" s="7"/>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148">
@@ -5288,9 +5667,13 @@
       <c r="N148" s="6"/>
       <c r="O148" s="7"/>
       <c r="P148" s="8"/>
-      <c r="Y148" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T148" s="6"/>
+      <c r="U148" s="7"/>
+      <c r="V148" s="7"/>
+      <c r="W148" s="7"/>
+      <c r="X148" s="8"/>
+      <c r="Y148" s="38"/>
+      <c r="Z148" s="7"/>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149">
@@ -5311,9 +5694,13 @@
       <c r="N149" s="6"/>
       <c r="O149" s="7"/>
       <c r="P149" s="8"/>
-      <c r="Y149" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T149" s="6"/>
+      <c r="U149" s="7"/>
+      <c r="V149" s="7"/>
+      <c r="W149" s="7"/>
+      <c r="X149" s="8"/>
+      <c r="Y149" s="38"/>
+      <c r="Z149" s="7"/>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150">
@@ -5334,9 +5721,13 @@
       <c r="N150" s="6"/>
       <c r="O150" s="7"/>
       <c r="P150" s="8"/>
-      <c r="Y150" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T150" s="6"/>
+      <c r="U150" s="7"/>
+      <c r="V150" s="7"/>
+      <c r="W150" s="7"/>
+      <c r="X150" s="8"/>
+      <c r="Y150" s="38"/>
+      <c r="Z150" s="7"/>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151">
@@ -5357,9 +5748,13 @@
       <c r="N151" s="6"/>
       <c r="O151" s="7"/>
       <c r="P151" s="8"/>
-      <c r="Y151" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T151" s="6"/>
+      <c r="U151" s="7"/>
+      <c r="V151" s="7"/>
+      <c r="W151" s="7"/>
+      <c r="X151" s="8"/>
+      <c r="Y151" s="38"/>
+      <c r="Z151" s="7"/>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152">
@@ -5380,15 +5775,13 @@
       <c r="N152" s="6"/>
       <c r="O152" s="7"/>
       <c r="P152" s="8"/>
-      <c r="X152" s="30">
-        <v>4</v>
-      </c>
-      <c r="Y152" s="31">
-        <v>1</v>
-      </c>
-      <c r="Z152" s="32">
-        <v>10</v>
-      </c>
+      <c r="T152" s="6"/>
+      <c r="U152" s="7"/>
+      <c r="V152" s="7"/>
+      <c r="W152" s="7"/>
+      <c r="X152" s="8"/>
+      <c r="Y152" s="7"/>
+      <c r="Z152" s="7"/>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153">
@@ -5409,9 +5802,13 @@
       <c r="N153" s="6"/>
       <c r="O153" s="7"/>
       <c r="P153" s="8"/>
-      <c r="Y153" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T153" s="6"/>
+      <c r="U153" s="7"/>
+      <c r="V153" s="7"/>
+      <c r="W153" s="7"/>
+      <c r="X153" s="8"/>
+      <c r="Y153" s="38"/>
+      <c r="Z153" s="7"/>
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A154">
@@ -5432,9 +5829,13 @@
       <c r="N154" s="6"/>
       <c r="O154" s="7"/>
       <c r="P154" s="8"/>
-      <c r="Y154" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T154" s="6"/>
+      <c r="U154" s="7"/>
+      <c r="V154" s="7"/>
+      <c r="W154" s="7"/>
+      <c r="X154" s="8"/>
+      <c r="Y154" s="38"/>
+      <c r="Z154" s="7"/>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A155">
@@ -5455,9 +5856,13 @@
       <c r="N155" s="6"/>
       <c r="O155" s="7"/>
       <c r="P155" s="8"/>
-      <c r="Y155" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T155" s="6"/>
+      <c r="U155" s="7"/>
+      <c r="V155" s="7"/>
+      <c r="W155" s="7"/>
+      <c r="X155" s="8"/>
+      <c r="Y155" s="38"/>
+      <c r="Z155" s="7"/>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156">
@@ -5478,9 +5883,13 @@
       <c r="N156" s="6"/>
       <c r="O156" s="7"/>
       <c r="P156" s="8"/>
-      <c r="Y156" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T156" s="6"/>
+      <c r="U156" s="7"/>
+      <c r="V156" s="7"/>
+      <c r="W156" s="7"/>
+      <c r="X156" s="8"/>
+      <c r="Y156" s="38"/>
+      <c r="Z156" s="7"/>
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A157">
@@ -5501,9 +5910,13 @@
       <c r="N157" s="6"/>
       <c r="O157" s="7"/>
       <c r="P157" s="8"/>
-      <c r="Y157" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T157" s="6"/>
+      <c r="U157" s="7"/>
+      <c r="V157" s="7"/>
+      <c r="W157" s="7"/>
+      <c r="X157" s="8"/>
+      <c r="Y157" s="38"/>
+      <c r="Z157" s="7"/>
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A158">
@@ -5524,9 +5937,13 @@
       <c r="N158" s="6"/>
       <c r="O158" s="7"/>
       <c r="P158" s="8"/>
-      <c r="Y158" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T158" s="6"/>
+      <c r="U158" s="7"/>
+      <c r="V158" s="7"/>
+      <c r="W158" s="7"/>
+      <c r="X158" s="8"/>
+      <c r="Y158" s="38"/>
+      <c r="Z158" s="7"/>
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A159">
@@ -5547,9 +5964,13 @@
       <c r="N159" s="6"/>
       <c r="O159" s="7"/>
       <c r="P159" s="8"/>
-      <c r="Y159" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="T159" s="6"/>
+      <c r="U159" s="7"/>
+      <c r="V159" s="7"/>
+      <c r="W159" s="7"/>
+      <c r="X159" s="8"/>
+      <c r="Y159" s="38"/>
+      <c r="Z159" s="7"/>
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160">
@@ -5570,11 +5991,15 @@
       <c r="N160" s="6"/>
       <c r="O160" s="7"/>
       <c r="P160" s="8"/>
-      <c r="Y160" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T160" s="6"/>
+      <c r="U160" s="7"/>
+      <c r="V160" s="7"/>
+      <c r="W160" s="7"/>
+      <c r="X160" s="8"/>
+      <c r="Y160" s="38"/>
+      <c r="Z160" s="7"/>
+    </row>
+    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>41</v>
       </c>
@@ -5593,11 +6018,15 @@
       <c r="N161" s="6"/>
       <c r="O161" s="7"/>
       <c r="P161" s="8"/>
-      <c r="Y161" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T161" s="6"/>
+      <c r="U161" s="7"/>
+      <c r="V161" s="7"/>
+      <c r="W161" s="7"/>
+      <c r="X161" s="8"/>
+      <c r="Y161" s="38"/>
+      <c r="Z161" s="7"/>
+    </row>
+    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>40</v>
       </c>
@@ -5616,11 +6045,15 @@
       <c r="N162" s="6"/>
       <c r="O162" s="7"/>
       <c r="P162" s="8"/>
-      <c r="Y162" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T162" s="6"/>
+      <c r="U162" s="7"/>
+      <c r="V162" s="7"/>
+      <c r="W162" s="7"/>
+      <c r="X162" s="8"/>
+      <c r="Y162" s="38"/>
+      <c r="Z162" s="7"/>
+    </row>
+    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>39</v>
       </c>
@@ -5639,17 +6072,15 @@
       <c r="N163" s="6"/>
       <c r="O163" s="7"/>
       <c r="P163" s="8"/>
-      <c r="X163" s="30">
-        <v>3</v>
-      </c>
-      <c r="Y163" s="31">
-        <v>1</v>
-      </c>
-      <c r="Z163" s="32">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T163" s="6"/>
+      <c r="U163" s="7"/>
+      <c r="V163" s="7"/>
+      <c r="W163" s="7"/>
+      <c r="X163" s="8"/>
+      <c r="Y163" s="7"/>
+      <c r="Z163" s="7"/>
+    </row>
+    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>38</v>
       </c>
@@ -5668,11 +6099,15 @@
       <c r="N164" s="6"/>
       <c r="O164" s="7"/>
       <c r="P164" s="8"/>
-      <c r="Y164" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T164" s="6"/>
+      <c r="U164" s="7"/>
+      <c r="V164" s="7"/>
+      <c r="W164" s="7"/>
+      <c r="X164" s="8"/>
+      <c r="Y164" s="38"/>
+      <c r="Z164" s="7"/>
+    </row>
+    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>37</v>
       </c>
@@ -5691,11 +6126,15 @@
       <c r="N165" s="6"/>
       <c r="O165" s="7"/>
       <c r="P165" s="8"/>
-      <c r="Y165" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T165" s="6"/>
+      <c r="U165" s="7"/>
+      <c r="V165" s="7"/>
+      <c r="W165" s="7"/>
+      <c r="X165" s="8"/>
+      <c r="Y165" s="38"/>
+      <c r="Z165" s="7"/>
+    </row>
+    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>36</v>
       </c>
@@ -5714,11 +6153,14 @@
       <c r="N166" s="6"/>
       <c r="O166" s="7"/>
       <c r="P166" s="8"/>
-      <c r="Y166" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T166" s="6"/>
+      <c r="U166" s="7"/>
+      <c r="V166" s="7"/>
+      <c r="W166" s="7"/>
+      <c r="X166" s="8"/>
+      <c r="AC166" s="9"/>
+    </row>
+    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>35</v>
       </c>
@@ -5737,11 +6179,14 @@
       <c r="N167" s="6"/>
       <c r="O167" s="7"/>
       <c r="P167" s="8"/>
-      <c r="Y167" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T167" s="6"/>
+      <c r="U167" s="7"/>
+      <c r="V167" s="7"/>
+      <c r="W167" s="7"/>
+      <c r="X167" s="8"/>
+      <c r="AC167" s="9"/>
+    </row>
+    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>34</v>
       </c>
@@ -5760,11 +6205,14 @@
       <c r="N168" s="6"/>
       <c r="O168" s="7"/>
       <c r="P168" s="8"/>
-      <c r="Y168" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T168" s="6"/>
+      <c r="U168" s="7"/>
+      <c r="V168" s="7"/>
+      <c r="W168" s="7"/>
+      <c r="X168" s="8"/>
+      <c r="AC168" s="9"/>
+    </row>
+    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>33</v>
       </c>
@@ -5783,11 +6231,14 @@
       <c r="N169" s="6"/>
       <c r="O169" s="7"/>
       <c r="P169" s="8"/>
-      <c r="Y169" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T169" s="6"/>
+      <c r="U169" s="7"/>
+      <c r="V169" s="7"/>
+      <c r="W169" s="7"/>
+      <c r="X169" s="8"/>
+      <c r="AC169" s="9"/>
+    </row>
+    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>32</v>
       </c>
@@ -5806,11 +6257,14 @@
       <c r="N170" s="6"/>
       <c r="O170" s="7"/>
       <c r="P170" s="8"/>
-      <c r="Y170" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T170" s="6"/>
+      <c r="U170" s="7"/>
+      <c r="V170" s="7"/>
+      <c r="W170" s="7"/>
+      <c r="X170" s="8"/>
+      <c r="AC170" s="9"/>
+    </row>
+    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>31</v>
       </c>
@@ -5829,11 +6283,14 @@
       <c r="N171" s="6"/>
       <c r="O171" s="7"/>
       <c r="P171" s="8"/>
-      <c r="Y171" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T171" s="6"/>
+      <c r="U171" s="7"/>
+      <c r="V171" s="7"/>
+      <c r="W171" s="7"/>
+      <c r="X171" s="8"/>
+      <c r="AC171" s="9"/>
+    </row>
+    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>30</v>
       </c>
@@ -5852,20 +6309,22 @@
       <c r="N172" s="6"/>
       <c r="O172" s="7"/>
       <c r="P172" s="8"/>
-      <c r="U172" s="44">
+      <c r="T172" s="6">
+        <v>1</v>
+      </c>
+      <c r="U172" s="34">
         <v>5</v>
       </c>
-      <c r="V172" s="45">
+      <c r="V172" s="35">
         <v>3</v>
       </c>
-      <c r="W172" s="46">
+      <c r="W172" s="35">
         <v>0</v>
       </c>
-      <c r="Y172" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X172" s="8"/>
+      <c r="AC172" s="9"/>
+    </row>
+    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>29</v>
       </c>
@@ -5884,20 +6343,22 @@
       <c r="N173" s="6"/>
       <c r="O173" s="7"/>
       <c r="P173" s="8"/>
-      <c r="U173" s="43">
+      <c r="T173" s="6">
+        <v>1</v>
+      </c>
+      <c r="U173" s="33">
         <v>4</v>
       </c>
-      <c r="V173" s="41">
+      <c r="V173" s="32">
         <v>3</v>
       </c>
-      <c r="W173" s="42">
+      <c r="W173" s="32">
         <v>1</v>
       </c>
-      <c r="Y173" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X173" s="8"/>
+      <c r="AC173" s="9"/>
+    </row>
+    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>28</v>
       </c>
@@ -5916,14 +6377,16 @@
       <c r="N174" s="6"/>
       <c r="O174" s="7"/>
       <c r="P174" s="8"/>
-      <c r="V174" s="28" t="s">
+      <c r="T174" s="6"/>
+      <c r="U174" s="7"/>
+      <c r="V174" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="Y174" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W174" s="7"/>
+      <c r="X174" s="8"/>
+      <c r="AC174" s="9"/>
+    </row>
+    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>27</v>
       </c>
@@ -5942,26 +6405,22 @@
       <c r="N175" s="6"/>
       <c r="O175" s="7"/>
       <c r="P175" s="8"/>
-      <c r="U175" s="43">
+      <c r="T175" s="6">
+        <v>1</v>
+      </c>
+      <c r="U175" s="33">
         <v>3</v>
       </c>
-      <c r="V175" s="41">
+      <c r="V175" s="32">
         <v>3</v>
       </c>
-      <c r="W175" s="42">
+      <c r="W175" s="32">
         <v>2</v>
       </c>
-      <c r="X175" s="35">
-        <v>2</v>
-      </c>
-      <c r="Y175" s="36">
-        <v>1</v>
-      </c>
-      <c r="Z175" s="37">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X175" s="40"/>
+      <c r="AC175" s="9"/>
+    </row>
+    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>26</v>
       </c>
@@ -5980,20 +6439,24 @@
       <c r="N176" s="6"/>
       <c r="O176" s="7"/>
       <c r="P176" s="8"/>
-      <c r="U176">
+      <c r="T176" s="6">
+        <v>2</v>
+      </c>
+      <c r="U176" s="7">
         <v>5</v>
       </c>
-      <c r="V176">
+      <c r="V176" s="7">
         <v>2</v>
       </c>
-      <c r="W176">
+      <c r="W176" s="7">
         <v>0</v>
       </c>
-      <c r="Y176" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X176" s="21">
+        <v>3</v>
+      </c>
+      <c r="AC176" s="9"/>
+    </row>
+    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>25</v>
       </c>
@@ -6012,20 +6475,24 @@
       <c r="N177" s="6"/>
       <c r="O177" s="7"/>
       <c r="P177" s="8"/>
-      <c r="U177" s="26">
+      <c r="T177" s="6">
+        <v>2</v>
+      </c>
+      <c r="U177" s="39">
         <v>4</v>
       </c>
-      <c r="V177">
+      <c r="V177" s="7">
         <v>2</v>
       </c>
-      <c r="W177">
+      <c r="W177" s="7">
         <v>1</v>
       </c>
-      <c r="Y177" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X177" s="21">
+        <v>3</v>
+      </c>
+      <c r="AC177" s="9"/>
+    </row>
+    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>24</v>
       </c>
@@ -6044,14 +6511,16 @@
       <c r="N178" s="6"/>
       <c r="O178" s="7"/>
       <c r="P178" s="8"/>
-      <c r="V178" s="28" t="s">
+      <c r="T178" s="6"/>
+      <c r="U178" s="7"/>
+      <c r="V178" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="Y178" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W178" s="7"/>
+      <c r="X178" s="8"/>
+      <c r="AC178" s="9"/>
+    </row>
+    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>23</v>
       </c>
@@ -6070,21 +6539,24 @@
       <c r="N179" s="6"/>
       <c r="O179" s="7"/>
       <c r="P179" s="8"/>
-      <c r="U179" s="48">
+      <c r="T179" s="6">
+        <v>1</v>
+      </c>
+      <c r="U179" s="37">
         <v>2</v>
       </c>
-      <c r="V179" s="41">
+      <c r="V179" s="32">
         <v>3</v>
       </c>
-      <c r="W179" s="42">
+      <c r="W179" s="32">
         <v>3</v>
       </c>
-      <c r="X179" s="29"/>
-      <c r="Y179" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X179" s="41">
+        <v>1</v>
+      </c>
+      <c r="AC179" s="9"/>
+    </row>
+    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>22</v>
       </c>
@@ -6103,20 +6575,24 @@
       <c r="N180" s="6"/>
       <c r="O180" s="7"/>
       <c r="P180" s="8"/>
-      <c r="U180">
+      <c r="T180" s="6">
+        <v>2</v>
+      </c>
+      <c r="U180" s="7">
         <v>5</v>
       </c>
-      <c r="V180">
+      <c r="V180" s="7">
         <v>2</v>
       </c>
-      <c r="W180">
+      <c r="W180" s="7">
         <v>0</v>
       </c>
-      <c r="Y180" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X180" s="21">
+        <v>3</v>
+      </c>
+      <c r="AC180" s="9"/>
+    </row>
+    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>21</v>
       </c>
@@ -6135,20 +6611,36 @@
       <c r="N181" s="6"/>
       <c r="O181" s="7"/>
       <c r="P181" s="8"/>
-      <c r="U181">
+      <c r="T181" s="6">
+        <v>2</v>
+      </c>
+      <c r="U181" s="7">
         <v>4</v>
       </c>
-      <c r="V181">
+      <c r="V181" s="7">
         <v>2</v>
       </c>
-      <c r="W181">
+      <c r="W181" s="7">
         <v>1</v>
       </c>
-      <c r="Y181" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X181" s="21">
+        <v>3</v>
+      </c>
+      <c r="Y181" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z181" s="7">
+        <v>30</v>
+      </c>
+      <c r="AA181" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB181" s="7">
+        <v>4</v>
+      </c>
+      <c r="AC181" s="9"/>
+    </row>
+    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>20</v>
       </c>
@@ -6167,14 +6659,28 @@
       <c r="N182" s="6"/>
       <c r="O182" s="7"/>
       <c r="P182" s="8"/>
-      <c r="V182" s="28" t="s">
+      <c r="T182" s="6"/>
+      <c r="U182" s="7"/>
+      <c r="V182" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="Y182" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W182" s="7"/>
+      <c r="X182" s="8"/>
+      <c r="Y182" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z182" s="7">
+        <v>29</v>
+      </c>
+      <c r="AA182" s="7">
+        <v>4</v>
+      </c>
+      <c r="AB182" s="7">
+        <v>4</v>
+      </c>
+      <c r="AC182" s="9"/>
+    </row>
+    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>19</v>
       </c>
@@ -6193,20 +6699,36 @@
       <c r="N183" s="6"/>
       <c r="O183" s="7"/>
       <c r="P183" s="8"/>
-      <c r="U183" s="30">
+      <c r="T183" s="6">
+        <v>2</v>
+      </c>
+      <c r="U183" s="27">
         <v>3</v>
       </c>
-      <c r="V183" s="31">
+      <c r="V183" s="28">
         <v>2</v>
       </c>
-      <c r="W183" s="32">
+      <c r="W183" s="28">
         <v>2</v>
       </c>
-      <c r="Y183" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X183" s="21">
+        <v>2</v>
+      </c>
+      <c r="Y183" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z183" s="7">
+        <v>27</v>
+      </c>
+      <c r="AA183" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB183" s="7">
+        <v>4</v>
+      </c>
+      <c r="AC183" s="9"/>
+    </row>
+    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>18</v>
       </c>
@@ -6225,20 +6747,36 @@
       <c r="N184" s="6"/>
       <c r="O184" s="7"/>
       <c r="P184" s="8"/>
-      <c r="U184">
+      <c r="T184" s="10">
+        <v>3</v>
+      </c>
+      <c r="U184" s="7">
         <v>5</v>
       </c>
-      <c r="V184">
+      <c r="V184" s="7">
         <v>1</v>
       </c>
-      <c r="W184">
+      <c r="W184" s="7">
         <v>0</v>
       </c>
-      <c r="Y184" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X184" s="21">
+        <v>3</v>
+      </c>
+      <c r="Y184" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z184" s="7">
+        <v>26</v>
+      </c>
+      <c r="AA184" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB184" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC184" s="9"/>
+    </row>
+    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>17</v>
       </c>
@@ -6257,20 +6795,36 @@
       <c r="N185" s="6"/>
       <c r="O185" s="7"/>
       <c r="P185" s="8"/>
-      <c r="U185">
+      <c r="T185" s="10">
+        <v>3</v>
+      </c>
+      <c r="U185" s="7">
         <v>4</v>
       </c>
-      <c r="V185">
+      <c r="V185" s="7">
         <v>1</v>
       </c>
-      <c r="W185">
+      <c r="W185" s="7">
         <v>1</v>
       </c>
-      <c r="Y185" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X185" s="21">
+        <v>3</v>
+      </c>
+      <c r="Y185" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z185" s="7">
+        <v>25</v>
+      </c>
+      <c r="AA185" s="7">
+        <v>4</v>
+      </c>
+      <c r="AB185" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC185" s="9"/>
+    </row>
+    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>16</v>
       </c>
@@ -6289,14 +6843,28 @@
       <c r="N186" s="6"/>
       <c r="O186" s="7"/>
       <c r="P186" s="8"/>
-      <c r="V186" s="28" t="s">
+      <c r="T186" s="6"/>
+      <c r="U186" s="7"/>
+      <c r="V186" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="Y186" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W186" s="7"/>
+      <c r="X186" s="8"/>
+      <c r="Y186" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z186" s="7">
+        <v>23</v>
+      </c>
+      <c r="AA186" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB186" s="7">
+        <v>4</v>
+      </c>
+      <c r="AC186" s="9"/>
+    </row>
+    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>15</v>
       </c>
@@ -6315,21 +6883,35 @@
       <c r="N187" s="6"/>
       <c r="O187" s="7"/>
       <c r="P187" s="8"/>
-      <c r="U187" s="47">
+      <c r="T187" s="6">
         <v>1</v>
       </c>
-      <c r="V187" s="39">
+      <c r="U187" s="36">
+        <v>1</v>
+      </c>
+      <c r="V187" s="31">
         <v>3</v>
       </c>
-      <c r="W187" s="40">
+      <c r="W187" s="31">
         <v>4</v>
       </c>
-      <c r="X187" s="29"/>
-      <c r="Y187" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X187" s="42">
+        <v>1</v>
+      </c>
+      <c r="Y187" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z187" s="7">
+        <v>22</v>
+      </c>
+      <c r="AA187" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB187" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>14</v>
       </c>
@@ -6357,26 +6939,35 @@
       <c r="Q188" s="14"/>
       <c r="R188" s="14"/>
       <c r="S188" s="14"/>
-      <c r="U188">
+      <c r="T188" s="6">
+        <v>2</v>
+      </c>
+      <c r="U188" s="7">
         <v>5</v>
       </c>
-      <c r="V188">
+      <c r="V188" s="7">
         <v>2</v>
       </c>
-      <c r="W188">
+      <c r="W188" s="7">
         <v>0</v>
       </c>
-      <c r="X188" s="30">
-        <v>1</v>
-      </c>
-      <c r="Y188" s="31">
-        <v>1</v>
-      </c>
-      <c r="Z188" s="32">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X188" s="21">
+        <v>3</v>
+      </c>
+      <c r="Y188" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z188" s="7">
+        <v>21</v>
+      </c>
+      <c r="AA188" s="7">
+        <v>4</v>
+      </c>
+      <c r="AB188" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>13</v>
       </c>
@@ -6395,20 +6986,35 @@
       <c r="N189" s="6"/>
       <c r="O189" s="7"/>
       <c r="P189" s="8"/>
-      <c r="U189">
+      <c r="T189" s="6">
+        <v>2</v>
+      </c>
+      <c r="U189" s="7">
         <v>4</v>
       </c>
-      <c r="V189">
+      <c r="V189" s="7">
         <v>2</v>
       </c>
-      <c r="W189">
+      <c r="W189" s="7">
         <v>1</v>
       </c>
-      <c r="Y189" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X189" s="21">
+        <v>3</v>
+      </c>
+      <c r="Y189" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z189" s="7">
+        <v>19</v>
+      </c>
+      <c r="AA189" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB189" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>12</v>
       </c>
@@ -6430,14 +7036,27 @@
       <c r="Q190" s="26"/>
       <c r="R190" s="26"/>
       <c r="S190" s="26"/>
-      <c r="V190" s="28" t="s">
+      <c r="T190" s="6"/>
+      <c r="U190" s="7"/>
+      <c r="V190" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="Y190" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W190" s="7"/>
+      <c r="X190" s="8"/>
+      <c r="Y190" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z190" s="7">
+        <v>18</v>
+      </c>
+      <c r="AA190" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB190" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>11</v>
       </c>
@@ -6453,20 +7072,35 @@
       <c r="K191" s="6"/>
       <c r="L191" s="7"/>
       <c r="M191" s="8"/>
-      <c r="U191" s="30">
+      <c r="T191" s="6">
+        <v>2</v>
+      </c>
+      <c r="U191" s="27">
         <v>3</v>
       </c>
-      <c r="V191" s="31">
+      <c r="V191" s="28">
         <v>2</v>
       </c>
-      <c r="W191" s="32">
+      <c r="W191" s="28">
         <v>2</v>
       </c>
-      <c r="Y191" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X191" s="21">
+        <v>2</v>
+      </c>
+      <c r="Y191" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z191" s="7">
+        <v>17</v>
+      </c>
+      <c r="AA191" s="7">
+        <v>4</v>
+      </c>
+      <c r="AB191" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>10</v>
       </c>
@@ -6488,17 +7122,32 @@
       <c r="Q192" s="16"/>
       <c r="R192" s="16"/>
       <c r="S192" s="16"/>
-      <c r="U192">
+      <c r="T192" s="10">
+        <v>3</v>
+      </c>
+      <c r="U192" s="7">
         <v>5</v>
       </c>
-      <c r="V192">
+      <c r="V192" s="7">
         <v>1</v>
       </c>
-      <c r="W192">
+      <c r="W192" s="7">
         <v>0</v>
       </c>
-      <c r="Y192" s="28" t="s">
-        <v>12</v>
+      <c r="X192" s="21">
+        <v>3</v>
+      </c>
+      <c r="Y192" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z192" s="7">
+        <v>15</v>
+      </c>
+      <c r="AA192" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB192" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.25">
@@ -6520,18 +7169,32 @@
       <c r="N193" s="10"/>
       <c r="O193" s="11"/>
       <c r="P193" s="8"/>
-      <c r="T193" s="14"/>
-      <c r="U193">
+      <c r="T193" s="10">
+        <v>3</v>
+      </c>
+      <c r="U193" s="7">
         <v>4</v>
       </c>
-      <c r="V193">
+      <c r="V193" s="7">
         <v>1</v>
       </c>
-      <c r="W193">
+      <c r="W193" s="7">
         <v>1</v>
       </c>
-      <c r="Y193" s="28" t="s">
-        <v>12</v>
+      <c r="X193" s="21">
+        <v>3</v>
+      </c>
+      <c r="Y193" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z193" s="7">
+        <v>14</v>
+      </c>
+      <c r="AA193" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB193" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.25">
@@ -6574,12 +7237,24 @@
       <c r="Q194" s="14"/>
       <c r="R194" s="14"/>
       <c r="S194" s="14"/>
-      <c r="T194" s="14"/>
-      <c r="V194" s="28" t="s">
+      <c r="T194" s="10"/>
+      <c r="U194" s="7"/>
+      <c r="V194" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="Y194" s="28" t="s">
-        <v>12</v>
+      <c r="W194" s="7"/>
+      <c r="X194" s="8"/>
+      <c r="Y194" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z194" s="7">
+        <v>13</v>
+      </c>
+      <c r="AA194" s="7">
+        <v>4</v>
+      </c>
+      <c r="AB194" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.25">
@@ -6616,17 +7291,32 @@
       <c r="Q195" s="14"/>
       <c r="R195" s="14"/>
       <c r="S195" s="14"/>
-      <c r="U195" s="38">
+      <c r="T195" s="6">
         <v>2</v>
       </c>
-      <c r="V195" s="33">
+      <c r="U195" s="30">
         <v>2</v>
       </c>
-      <c r="W195" s="34">
+      <c r="V195" s="29">
+        <v>2</v>
+      </c>
+      <c r="W195" s="29">
         <v>3</v>
       </c>
-      <c r="Y195" s="28" t="s">
-        <v>12</v>
+      <c r="X195" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y195" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z195" s="7">
+        <v>11</v>
+      </c>
+      <c r="AA195" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB195" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:28" x14ac:dyDescent="0.25">
@@ -6646,11 +7336,32 @@
       <c r="L196" s="7"/>
       <c r="M196" s="8"/>
       <c r="P196" s="8"/>
-      <c r="V196" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y196" s="28" t="s">
-        <v>12</v>
+      <c r="T196" s="10">
+        <v>3</v>
+      </c>
+      <c r="U196" s="7">
+        <v>5</v>
+      </c>
+      <c r="V196" s="7">
+        <v>1</v>
+      </c>
+      <c r="W196" s="7">
+        <v>0</v>
+      </c>
+      <c r="X196" s="21">
+        <v>3</v>
+      </c>
+      <c r="Y196" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z196" s="7">
+        <v>10</v>
+      </c>
+      <c r="AA196" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB196" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:28" x14ac:dyDescent="0.25">
@@ -6677,23 +7388,33 @@
       <c r="M197" s="8"/>
       <c r="P197" s="8"/>
       <c r="R197" s="14"/>
-      <c r="T197" s="14"/>
-      <c r="U197">
+      <c r="T197" s="10">
+        <v>3</v>
+      </c>
+      <c r="U197" s="7">
         <v>4</v>
       </c>
-      <c r="V197">
+      <c r="V197" s="7">
         <v>1</v>
       </c>
-      <c r="W197">
+      <c r="W197" s="7">
         <v>1</v>
       </c>
-      <c r="X197" s="14"/>
-      <c r="Y197" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z197" s="16"/>
-      <c r="AA197" s="16"/>
-      <c r="AB197" s="16"/>
+      <c r="X197" s="12">
+        <v>3</v>
+      </c>
+      <c r="Y197" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z197" s="7">
+        <v>9</v>
+      </c>
+      <c r="AA197" s="7">
+        <v>4</v>
+      </c>
+      <c r="AB197" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A198">
@@ -6741,13 +7462,24 @@
       <c r="Q198" s="9"/>
       <c r="R198" s="9"/>
       <c r="S198" s="9"/>
-      <c r="T198" s="14"/>
-      <c r="V198" s="28" t="s">
+      <c r="T198" s="10"/>
+      <c r="U198" s="7"/>
+      <c r="V198" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="X198" s="14"/>
-      <c r="Y198" s="28" t="s">
-        <v>12</v>
+      <c r="W198" s="7"/>
+      <c r="X198" s="12"/>
+      <c r="Y198" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z198" s="7">
+        <v>7</v>
+      </c>
+      <c r="AA198" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB198" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.25">
@@ -6782,23 +7514,33 @@
       <c r="Q199" s="14"/>
       <c r="R199" s="14"/>
       <c r="S199" s="14"/>
-      <c r="T199" s="14"/>
-      <c r="U199" s="16">
+      <c r="T199" s="10">
         <v>3</v>
       </c>
-      <c r="V199" s="16">
+      <c r="U199" s="18">
+        <v>3</v>
+      </c>
+      <c r="V199" s="18">
         <v>1</v>
       </c>
-      <c r="W199" s="16">
+      <c r="W199" s="18">
         <v>2</v>
       </c>
-      <c r="X199" s="15"/>
-      <c r="Y199" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z199" s="27"/>
-      <c r="AA199" s="15"/>
-      <c r="AB199" s="15"/>
+      <c r="X199" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y199" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z199" s="7">
+        <v>6</v>
+      </c>
+      <c r="AA199" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB199" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="200" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A200">
@@ -6832,14 +7574,24 @@
       <c r="Q200" s="14"/>
       <c r="R200" s="14"/>
       <c r="S200" s="14"/>
-      <c r="T200" s="14"/>
-      <c r="U200" s="16"/>
-      <c r="V200" s="28" t="s">
+      <c r="T200" s="10"/>
+      <c r="U200" s="18"/>
+      <c r="V200" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="W200" s="16"/>
-      <c r="Y200" s="28" t="s">
-        <v>12</v>
+      <c r="W200" s="18"/>
+      <c r="X200" s="8"/>
+      <c r="Y200" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z200" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA200" s="7">
+        <v>4</v>
+      </c>
+      <c r="AB200" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:28" x14ac:dyDescent="0.25">
@@ -6871,14 +7623,24 @@
       <c r="L201" s="7"/>
       <c r="M201" s="8"/>
       <c r="P201" s="8"/>
-      <c r="T201" s="16"/>
-      <c r="U201" s="16"/>
-      <c r="V201" s="28" t="s">
+      <c r="T201" s="17"/>
+      <c r="U201" s="18"/>
+      <c r="V201" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="W201" s="16"/>
-      <c r="Y201" s="28" t="s">
-        <v>12</v>
+      <c r="W201" s="18"/>
+      <c r="X201" s="8"/>
+      <c r="Y201" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z201" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA201" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB201" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:28" x14ac:dyDescent="0.25">
@@ -6949,15 +7711,27 @@
       <c r="W202" s="9">
         <v>5</v>
       </c>
-      <c r="X202" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y202" s="9">
-        <v>2</v>
-      </c>
-      <c r="Z202" s="9">
-        <v>14</v>
-      </c>
+      <c r="X202" s="9"/>
+      <c r="Y202" s="7"/>
+      <c r="Z202" s="7"/>
+      <c r="AA202" s="7"/>
+      <c r="AB202" s="7"/>
+    </row>
+    <row r="203" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y203" s="7"/>
+      <c r="Z203" s="7"/>
+      <c r="AA203" s="7"/>
+      <c r="AB203" s="7"/>
+    </row>
+    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y204" s="7"/>
+      <c r="Z204" s="7"/>
+      <c r="AA204" s="7"/>
+      <c r="AB204" s="7"/>
+    </row>
+    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y205" s="9"/>
+      <c r="Z205" s="9"/>
     </row>
     <row r="206" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N206" t="s">
@@ -6980,8 +7754,10 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="Y166:AC186">
+    <sortCondition descending="1" ref="AC166:AC186"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/solutions/fabergè_easter_eggs_crush_test.xlsx
+++ b/solutions/fabergè_easter_eggs_crush_test.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="20">
   <si>
     <t>floor</t>
   </si>
@@ -72,13 +72,19 @@
     <t>quantity</t>
   </si>
   <si>
-    <t xml:space="preserve"> floor</t>
-  </si>
-  <si>
     <t xml:space="preserve"> attempt</t>
   </si>
   <si>
     <t xml:space="preserve"> eggs</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>tries</t>
   </si>
 </sst>
 </file>
@@ -127,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -177,11 +183,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -235,6 +254,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1794,13 +1815,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC209"/>
+  <dimension ref="A1:AN209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O184" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X181" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC198" sqref="AC198"/>
+      <selection pane="bottomRight" activeCell="AK170" sqref="AK170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1810,7 +1831,7 @@
     <col min="3" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1868,11 +1889,47 @@
       <c r="AA1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>200</v>
       </c>
@@ -1896,8 +1953,24 @@
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="8"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="8"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>199</v>
       </c>
@@ -1921,8 +1994,24 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="8"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="8"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>198</v>
       </c>
@@ -1946,8 +2035,24 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="8"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="8"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>197</v>
       </c>
@@ -1971,8 +2076,24 @@
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="8"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="8"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>196</v>
       </c>
@@ -1996,8 +2117,24 @@
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="8"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="8"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>195</v>
       </c>
@@ -2021,8 +2158,24 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="8"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="8"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>194</v>
       </c>
@@ -2046,8 +2199,24 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="8"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="8"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>193</v>
       </c>
@@ -2071,8 +2240,24 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="8"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="8"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>192</v>
       </c>
@@ -2096,8 +2281,24 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="8"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="8"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>191</v>
       </c>
@@ -2121,8 +2322,24 @@
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="8"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="8"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>190</v>
       </c>
@@ -2146,8 +2363,24 @@
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="8"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="8"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>189</v>
       </c>
@@ -2171,8 +2404,24 @@
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="8"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="8"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>188</v>
       </c>
@@ -2196,8 +2445,24 @@
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="8"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="8"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>187</v>
       </c>
@@ -2221,8 +2486,24 @@
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="8"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="8"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>186</v>
       </c>
@@ -2246,8 +2527,24 @@
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="8"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="8"/>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>185</v>
       </c>
@@ -2271,8 +2568,24 @@
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="8"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="8"/>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>184</v>
       </c>
@@ -2296,8 +2609,24 @@
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="X18" s="8"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="8"/>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>183</v>
       </c>
@@ -2321,8 +2650,24 @@
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="8"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="8"/>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>182</v>
       </c>
@@ -2346,8 +2691,24 @@
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="8"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="8"/>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>181</v>
       </c>
@@ -2371,8 +2732,24 @@
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="8"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="8"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>180</v>
       </c>
@@ -2396,8 +2773,24 @@
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="8"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="8"/>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>179</v>
       </c>
@@ -2421,8 +2814,24 @@
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="8"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="8"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>178</v>
       </c>
@@ -2446,8 +2855,24 @@
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="8"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="8"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>177</v>
       </c>
@@ -2471,8 +2896,24 @@
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="8"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="8"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>176</v>
       </c>
@@ -2496,8 +2937,24 @@
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="X26" s="8"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="8"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>175</v>
       </c>
@@ -2521,8 +2978,24 @@
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
       <c r="X27" s="8"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="8"/>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>174</v>
       </c>
@@ -2546,8 +3019,24 @@
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
       <c r="X28" s="8"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="7"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="8"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>173</v>
       </c>
@@ -2571,8 +3060,24 @@
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
       <c r="X29" s="8"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="8"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>172</v>
       </c>
@@ -2596,8 +3101,24 @@
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="8"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="8"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>171</v>
       </c>
@@ -2621,8 +3142,24 @@
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="8"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="8"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>170</v>
       </c>
@@ -2646,8 +3183,24 @@
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
       <c r="X32" s="8"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="8"/>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>169</v>
       </c>
@@ -2671,8 +3224,24 @@
       <c r="V33" s="7"/>
       <c r="W33" s="7"/>
       <c r="X33" s="8"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="8"/>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>168</v>
       </c>
@@ -2696,8 +3265,24 @@
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
       <c r="X34" s="8"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="8"/>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>167</v>
       </c>
@@ -2721,8 +3306,24 @@
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
       <c r="X35" s="8"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="7"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="7"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="8"/>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>166</v>
       </c>
@@ -2746,8 +3347,24 @@
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
       <c r="X36" s="8"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="8"/>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>165</v>
       </c>
@@ -2771,8 +3388,24 @@
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
       <c r="X37" s="8"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="6"/>
+      <c r="AL37" s="7"/>
+      <c r="AM37" s="7"/>
+      <c r="AN37" s="8"/>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>164</v>
       </c>
@@ -2796,8 +3429,24 @@
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
       <c r="X38" s="8"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="8"/>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>163</v>
       </c>
@@ -2821,8 +3470,24 @@
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
       <c r="X39" s="8"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="6"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7"/>
+      <c r="AN39" s="8"/>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>162</v>
       </c>
@@ -2846,8 +3511,24 @@
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
       <c r="X40" s="8"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="6"/>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="6"/>
+      <c r="AL40" s="7"/>
+      <c r="AM40" s="7"/>
+      <c r="AN40" s="8"/>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>161</v>
       </c>
@@ -2871,8 +3552,24 @@
       <c r="V41" s="7"/>
       <c r="W41" s="7"/>
       <c r="X41" s="8"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="6"/>
+      <c r="AL41" s="7"/>
+      <c r="AM41" s="7"/>
+      <c r="AN41" s="8"/>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>160</v>
       </c>
@@ -2896,8 +3593,24 @@
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
       <c r="X42" s="8"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="7"/>
+      <c r="AI42" s="7"/>
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="6"/>
+      <c r="AL42" s="7"/>
+      <c r="AM42" s="7"/>
+      <c r="AN42" s="8"/>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>159</v>
       </c>
@@ -2921,8 +3634,24 @@
       <c r="V43" s="7"/>
       <c r="W43" s="7"/>
       <c r="X43" s="8"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="6"/>
+      <c r="AH43" s="7"/>
+      <c r="AI43" s="7"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="6"/>
+      <c r="AL43" s="7"/>
+      <c r="AM43" s="7"/>
+      <c r="AN43" s="8"/>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>158</v>
       </c>
@@ -2946,8 +3675,24 @@
       <c r="V44" s="7"/>
       <c r="W44" s="7"/>
       <c r="X44" s="8"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="8"/>
+      <c r="AG44" s="6"/>
+      <c r="AH44" s="7"/>
+      <c r="AI44" s="7"/>
+      <c r="AJ44" s="8"/>
+      <c r="AK44" s="6"/>
+      <c r="AL44" s="7"/>
+      <c r="AM44" s="7"/>
+      <c r="AN44" s="8"/>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>157</v>
       </c>
@@ -2971,8 +3716,24 @@
       <c r="V45" s="7"/>
       <c r="W45" s="7"/>
       <c r="X45" s="8"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="6"/>
+      <c r="AH45" s="7"/>
+      <c r="AI45" s="7"/>
+      <c r="AJ45" s="8"/>
+      <c r="AK45" s="6"/>
+      <c r="AL45" s="7"/>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="8"/>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>156</v>
       </c>
@@ -2996,8 +3757,24 @@
       <c r="V46" s="7"/>
       <c r="W46" s="7"/>
       <c r="X46" s="8"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="6"/>
+      <c r="AH46" s="7"/>
+      <c r="AI46" s="7"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="6"/>
+      <c r="AL46" s="7"/>
+      <c r="AM46" s="7"/>
+      <c r="AN46" s="8"/>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>155</v>
       </c>
@@ -3021,8 +3798,24 @@
       <c r="V47" s="7"/>
       <c r="W47" s="7"/>
       <c r="X47" s="8"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="6"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="7"/>
+      <c r="AJ47" s="8"/>
+      <c r="AK47" s="6"/>
+      <c r="AL47" s="7"/>
+      <c r="AM47" s="7"/>
+      <c r="AN47" s="8"/>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>154</v>
       </c>
@@ -3046,8 +3839,24 @@
       <c r="V48" s="7"/>
       <c r="W48" s="7"/>
       <c r="X48" s="8"/>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="7"/>
+      <c r="AI48" s="7"/>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" s="6"/>
+      <c r="AL48" s="7"/>
+      <c r="AM48" s="7"/>
+      <c r="AN48" s="8"/>
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>153</v>
       </c>
@@ -3071,8 +3880,24 @@
       <c r="V49" s="7"/>
       <c r="W49" s="7"/>
       <c r="X49" s="8"/>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="6"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="8"/>
+      <c r="AK49" s="6"/>
+      <c r="AL49" s="7"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="8"/>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>152</v>
       </c>
@@ -3096,8 +3921,24 @@
       <c r="V50" s="7"/>
       <c r="W50" s="7"/>
       <c r="X50" s="8"/>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="6"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="6"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="6"/>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="8"/>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>151</v>
       </c>
@@ -3121,8 +3962,24 @@
       <c r="V51" s="7"/>
       <c r="W51" s="7"/>
       <c r="X51" s="8"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="6"/>
+      <c r="AH51" s="7"/>
+      <c r="AI51" s="7"/>
+      <c r="AJ51" s="8"/>
+      <c r="AK51" s="6"/>
+      <c r="AL51" s="7"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" s="8"/>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>150</v>
       </c>
@@ -3146,8 +4003,24 @@
       <c r="V52" s="7"/>
       <c r="W52" s="7"/>
       <c r="X52" s="8"/>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="6"/>
+      <c r="AH52" s="7"/>
+      <c r="AI52" s="7"/>
+      <c r="AJ52" s="8"/>
+      <c r="AK52" s="6"/>
+      <c r="AL52" s="7"/>
+      <c r="AM52" s="7"/>
+      <c r="AN52" s="8"/>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>149</v>
       </c>
@@ -3171,8 +4044,24 @@
       <c r="V53" s="7"/>
       <c r="W53" s="7"/>
       <c r="X53" s="8"/>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="7"/>
+      <c r="AF53" s="8"/>
+      <c r="AG53" s="6"/>
+      <c r="AH53" s="7"/>
+      <c r="AI53" s="7"/>
+      <c r="AJ53" s="8"/>
+      <c r="AK53" s="6"/>
+      <c r="AL53" s="7"/>
+      <c r="AM53" s="7"/>
+      <c r="AN53" s="8"/>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>148</v>
       </c>
@@ -3196,8 +4085,24 @@
       <c r="V54" s="7"/>
       <c r="W54" s="7"/>
       <c r="X54" s="8"/>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="6"/>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="6"/>
+      <c r="AH54" s="7"/>
+      <c r="AI54" s="7"/>
+      <c r="AJ54" s="8"/>
+      <c r="AK54" s="6"/>
+      <c r="AL54" s="7"/>
+      <c r="AM54" s="7"/>
+      <c r="AN54" s="8"/>
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>147</v>
       </c>
@@ -3221,8 +4126,24 @@
       <c r="V55" s="7"/>
       <c r="W55" s="7"/>
       <c r="X55" s="8"/>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="7"/>
+      <c r="AE55" s="7"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="6"/>
+      <c r="AH55" s="7"/>
+      <c r="AI55" s="7"/>
+      <c r="AJ55" s="8"/>
+      <c r="AK55" s="6"/>
+      <c r="AL55" s="7"/>
+      <c r="AM55" s="7"/>
+      <c r="AN55" s="8"/>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>146</v>
       </c>
@@ -3246,8 +4167,24 @@
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
       <c r="X56" s="8"/>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="8"/>
+      <c r="AG56" s="6"/>
+      <c r="AH56" s="7"/>
+      <c r="AI56" s="7"/>
+      <c r="AJ56" s="8"/>
+      <c r="AK56" s="6"/>
+      <c r="AL56" s="7"/>
+      <c r="AM56" s="7"/>
+      <c r="AN56" s="8"/>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>145</v>
       </c>
@@ -3271,8 +4208,24 @@
       <c r="V57" s="7"/>
       <c r="W57" s="7"/>
       <c r="X57" s="8"/>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="6"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="8"/>
+      <c r="AG57" s="6"/>
+      <c r="AH57" s="7"/>
+      <c r="AI57" s="7"/>
+      <c r="AJ57" s="8"/>
+      <c r="AK57" s="6"/>
+      <c r="AL57" s="7"/>
+      <c r="AM57" s="7"/>
+      <c r="AN57" s="8"/>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>144</v>
       </c>
@@ -3296,8 +4249,24 @@
       <c r="V58" s="7"/>
       <c r="W58" s="7"/>
       <c r="X58" s="8"/>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="6"/>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="8"/>
+      <c r="AG58" s="6"/>
+      <c r="AH58" s="7"/>
+      <c r="AI58" s="7"/>
+      <c r="AJ58" s="8"/>
+      <c r="AK58" s="6"/>
+      <c r="AL58" s="7"/>
+      <c r="AM58" s="7"/>
+      <c r="AN58" s="8"/>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>143</v>
       </c>
@@ -3321,8 +4290,24 @@
       <c r="V59" s="7"/>
       <c r="W59" s="7"/>
       <c r="X59" s="8"/>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="6"/>
+      <c r="AD59" s="7"/>
+      <c r="AE59" s="7"/>
+      <c r="AF59" s="8"/>
+      <c r="AG59" s="6"/>
+      <c r="AH59" s="7"/>
+      <c r="AI59" s="7"/>
+      <c r="AJ59" s="8"/>
+      <c r="AK59" s="6"/>
+      <c r="AL59" s="7"/>
+      <c r="AM59" s="7"/>
+      <c r="AN59" s="8"/>
+    </row>
+    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>142</v>
       </c>
@@ -3346,8 +4331,24 @@
       <c r="V60" s="7"/>
       <c r="W60" s="7"/>
       <c r="X60" s="8"/>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="6"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="8"/>
+      <c r="AG60" s="6"/>
+      <c r="AH60" s="7"/>
+      <c r="AI60" s="7"/>
+      <c r="AJ60" s="8"/>
+      <c r="AK60" s="6"/>
+      <c r="AL60" s="7"/>
+      <c r="AM60" s="7"/>
+      <c r="AN60" s="8"/>
+    </row>
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>141</v>
       </c>
@@ -3371,8 +4372,24 @@
       <c r="V61" s="7"/>
       <c r="W61" s="7"/>
       <c r="X61" s="8"/>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="8"/>
+      <c r="AC61" s="6"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="8"/>
+      <c r="AG61" s="6"/>
+      <c r="AH61" s="7"/>
+      <c r="AI61" s="7"/>
+      <c r="AJ61" s="8"/>
+      <c r="AK61" s="6"/>
+      <c r="AL61" s="7"/>
+      <c r="AM61" s="7"/>
+      <c r="AN61" s="8"/>
+    </row>
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>140</v>
       </c>
@@ -3396,8 +4413,24 @@
       <c r="V62" s="7"/>
       <c r="W62" s="7"/>
       <c r="X62" s="8"/>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="8"/>
+      <c r="AC62" s="6"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="7"/>
+      <c r="AF62" s="8"/>
+      <c r="AG62" s="6"/>
+      <c r="AH62" s="7"/>
+      <c r="AI62" s="7"/>
+      <c r="AJ62" s="8"/>
+      <c r="AK62" s="6"/>
+      <c r="AL62" s="7"/>
+      <c r="AM62" s="7"/>
+      <c r="AN62" s="8"/>
+    </row>
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>139</v>
       </c>
@@ -3421,8 +4454,24 @@
       <c r="V63" s="7"/>
       <c r="W63" s="7"/>
       <c r="X63" s="8"/>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="7"/>
+      <c r="AA63" s="7"/>
+      <c r="AB63" s="8"/>
+      <c r="AC63" s="6"/>
+      <c r="AD63" s="7"/>
+      <c r="AE63" s="7"/>
+      <c r="AF63" s="8"/>
+      <c r="AG63" s="6"/>
+      <c r="AH63" s="7"/>
+      <c r="AI63" s="7"/>
+      <c r="AJ63" s="8"/>
+      <c r="AK63" s="6"/>
+      <c r="AL63" s="7"/>
+      <c r="AM63" s="7"/>
+      <c r="AN63" s="8"/>
+    </row>
+    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>138</v>
       </c>
@@ -3446,8 +4495,24 @@
       <c r="V64" s="7"/>
       <c r="W64" s="7"/>
       <c r="X64" s="8"/>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="8"/>
+      <c r="AC64" s="6"/>
+      <c r="AD64" s="7"/>
+      <c r="AE64" s="7"/>
+      <c r="AF64" s="8"/>
+      <c r="AG64" s="6"/>
+      <c r="AH64" s="7"/>
+      <c r="AI64" s="7"/>
+      <c r="AJ64" s="8"/>
+      <c r="AK64" s="6"/>
+      <c r="AL64" s="7"/>
+      <c r="AM64" s="7"/>
+      <c r="AN64" s="8"/>
+    </row>
+    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>137</v>
       </c>
@@ -3471,8 +4536,24 @@
       <c r="V65" s="7"/>
       <c r="W65" s="7"/>
       <c r="X65" s="8"/>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="8"/>
+      <c r="AC65" s="6"/>
+      <c r="AD65" s="7"/>
+      <c r="AE65" s="7"/>
+      <c r="AF65" s="8"/>
+      <c r="AG65" s="6"/>
+      <c r="AH65" s="7"/>
+      <c r="AI65" s="7"/>
+      <c r="AJ65" s="8"/>
+      <c r="AK65" s="6"/>
+      <c r="AL65" s="7"/>
+      <c r="AM65" s="7"/>
+      <c r="AN65" s="8"/>
+    </row>
+    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>136</v>
       </c>
@@ -3496,8 +4577,24 @@
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
       <c r="X66" s="8"/>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7"/>
+      <c r="AB66" s="8"/>
+      <c r="AC66" s="6"/>
+      <c r="AD66" s="7"/>
+      <c r="AE66" s="7"/>
+      <c r="AF66" s="8"/>
+      <c r="AG66" s="6"/>
+      <c r="AH66" s="7"/>
+      <c r="AI66" s="7"/>
+      <c r="AJ66" s="8"/>
+      <c r="AK66" s="6"/>
+      <c r="AL66" s="7"/>
+      <c r="AM66" s="7"/>
+      <c r="AN66" s="8"/>
+    </row>
+    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>135</v>
       </c>
@@ -3521,8 +4618,24 @@
       <c r="V67" s="7"/>
       <c r="W67" s="7"/>
       <c r="X67" s="8"/>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="7"/>
+      <c r="AB67" s="8"/>
+      <c r="AC67" s="6"/>
+      <c r="AD67" s="7"/>
+      <c r="AE67" s="7"/>
+      <c r="AF67" s="8"/>
+      <c r="AG67" s="6"/>
+      <c r="AH67" s="7"/>
+      <c r="AI67" s="7"/>
+      <c r="AJ67" s="8"/>
+      <c r="AK67" s="6"/>
+      <c r="AL67" s="7"/>
+      <c r="AM67" s="7"/>
+      <c r="AN67" s="8"/>
+    </row>
+    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>134</v>
       </c>
@@ -3546,8 +4659,24 @@
       <c r="V68" s="7"/>
       <c r="W68" s="7"/>
       <c r="X68" s="8"/>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="7"/>
+      <c r="AA68" s="7"/>
+      <c r="AB68" s="8"/>
+      <c r="AC68" s="6"/>
+      <c r="AD68" s="7"/>
+      <c r="AE68" s="7"/>
+      <c r="AF68" s="8"/>
+      <c r="AG68" s="6"/>
+      <c r="AH68" s="7"/>
+      <c r="AI68" s="7"/>
+      <c r="AJ68" s="8"/>
+      <c r="AK68" s="6"/>
+      <c r="AL68" s="7"/>
+      <c r="AM68" s="7"/>
+      <c r="AN68" s="8"/>
+    </row>
+    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>133</v>
       </c>
@@ -3571,8 +4700,24 @@
       <c r="V69" s="7"/>
       <c r="W69" s="7"/>
       <c r="X69" s="8"/>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="7"/>
+      <c r="AB69" s="8"/>
+      <c r="AC69" s="6"/>
+      <c r="AD69" s="7"/>
+      <c r="AE69" s="7"/>
+      <c r="AF69" s="8"/>
+      <c r="AG69" s="6"/>
+      <c r="AH69" s="7"/>
+      <c r="AI69" s="7"/>
+      <c r="AJ69" s="8"/>
+      <c r="AK69" s="6"/>
+      <c r="AL69" s="7"/>
+      <c r="AM69" s="7"/>
+      <c r="AN69" s="8"/>
+    </row>
+    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>132</v>
       </c>
@@ -3596,8 +4741,24 @@
       <c r="V70" s="7"/>
       <c r="W70" s="7"/>
       <c r="X70" s="8"/>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="7"/>
+      <c r="AA70" s="7"/>
+      <c r="AB70" s="8"/>
+      <c r="AC70" s="6"/>
+      <c r="AD70" s="7"/>
+      <c r="AE70" s="7"/>
+      <c r="AF70" s="8"/>
+      <c r="AG70" s="6"/>
+      <c r="AH70" s="7"/>
+      <c r="AI70" s="7"/>
+      <c r="AJ70" s="8"/>
+      <c r="AK70" s="6"/>
+      <c r="AL70" s="7"/>
+      <c r="AM70" s="7"/>
+      <c r="AN70" s="8"/>
+    </row>
+    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>131</v>
       </c>
@@ -3621,8 +4782,24 @@
       <c r="V71" s="7"/>
       <c r="W71" s="7"/>
       <c r="X71" s="8"/>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="7"/>
+      <c r="AA71" s="7"/>
+      <c r="AB71" s="8"/>
+      <c r="AC71" s="6"/>
+      <c r="AD71" s="7"/>
+      <c r="AE71" s="7"/>
+      <c r="AF71" s="8"/>
+      <c r="AG71" s="6"/>
+      <c r="AH71" s="7"/>
+      <c r="AI71" s="7"/>
+      <c r="AJ71" s="8"/>
+      <c r="AK71" s="6"/>
+      <c r="AL71" s="7"/>
+      <c r="AM71" s="7"/>
+      <c r="AN71" s="8"/>
+    </row>
+    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>130</v>
       </c>
@@ -3646,8 +4823,24 @@
       <c r="V72" s="7"/>
       <c r="W72" s="7"/>
       <c r="X72" s="8"/>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="7"/>
+      <c r="AB72" s="8"/>
+      <c r="AC72" s="6"/>
+      <c r="AD72" s="7"/>
+      <c r="AE72" s="7"/>
+      <c r="AF72" s="8"/>
+      <c r="AG72" s="6"/>
+      <c r="AH72" s="7"/>
+      <c r="AI72" s="7"/>
+      <c r="AJ72" s="8"/>
+      <c r="AK72" s="6"/>
+      <c r="AL72" s="7"/>
+      <c r="AM72" s="7"/>
+      <c r="AN72" s="8"/>
+    </row>
+    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>129</v>
       </c>
@@ -3671,8 +4864,24 @@
       <c r="V73" s="7"/>
       <c r="W73" s="7"/>
       <c r="X73" s="8"/>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="7"/>
+      <c r="AA73" s="7"/>
+      <c r="AB73" s="8"/>
+      <c r="AC73" s="6"/>
+      <c r="AD73" s="7"/>
+      <c r="AE73" s="7"/>
+      <c r="AF73" s="8"/>
+      <c r="AG73" s="6"/>
+      <c r="AH73" s="7"/>
+      <c r="AI73" s="7"/>
+      <c r="AJ73" s="8"/>
+      <c r="AK73" s="6"/>
+      <c r="AL73" s="7"/>
+      <c r="AM73" s="7"/>
+      <c r="AN73" s="8"/>
+    </row>
+    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>128</v>
       </c>
@@ -3696,8 +4905,24 @@
       <c r="V74" s="7"/>
       <c r="W74" s="7"/>
       <c r="X74" s="8"/>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y74" s="7"/>
+      <c r="Z74" s="7"/>
+      <c r="AA74" s="7"/>
+      <c r="AB74" s="8"/>
+      <c r="AC74" s="6"/>
+      <c r="AD74" s="7"/>
+      <c r="AE74" s="7"/>
+      <c r="AF74" s="8"/>
+      <c r="AG74" s="6"/>
+      <c r="AH74" s="7"/>
+      <c r="AI74" s="7"/>
+      <c r="AJ74" s="8"/>
+      <c r="AK74" s="6"/>
+      <c r="AL74" s="7"/>
+      <c r="AM74" s="7"/>
+      <c r="AN74" s="8"/>
+    </row>
+    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>127</v>
       </c>
@@ -3721,8 +4946,24 @@
       <c r="V75" s="7"/>
       <c r="W75" s="7"/>
       <c r="X75" s="8"/>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="7"/>
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="8"/>
+      <c r="AC75" s="6"/>
+      <c r="AD75" s="7"/>
+      <c r="AE75" s="7"/>
+      <c r="AF75" s="8"/>
+      <c r="AG75" s="6"/>
+      <c r="AH75" s="7"/>
+      <c r="AI75" s="7"/>
+      <c r="AJ75" s="8"/>
+      <c r="AK75" s="6"/>
+      <c r="AL75" s="7"/>
+      <c r="AM75" s="7"/>
+      <c r="AN75" s="8"/>
+    </row>
+    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>126</v>
       </c>
@@ -3746,8 +4987,24 @@
       <c r="V76" s="7"/>
       <c r="W76" s="7"/>
       <c r="X76" s="8"/>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y76" s="7"/>
+      <c r="Z76" s="7"/>
+      <c r="AA76" s="7"/>
+      <c r="AB76" s="8"/>
+      <c r="AC76" s="6"/>
+      <c r="AD76" s="7"/>
+      <c r="AE76" s="7"/>
+      <c r="AF76" s="8"/>
+      <c r="AG76" s="6"/>
+      <c r="AH76" s="7"/>
+      <c r="AI76" s="7"/>
+      <c r="AJ76" s="8"/>
+      <c r="AK76" s="6"/>
+      <c r="AL76" s="7"/>
+      <c r="AM76" s="7"/>
+      <c r="AN76" s="8"/>
+    </row>
+    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>125</v>
       </c>
@@ -3771,8 +5028,24 @@
       <c r="V77" s="7"/>
       <c r="W77" s="7"/>
       <c r="X77" s="8"/>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="7"/>
+      <c r="AA77" s="7"/>
+      <c r="AB77" s="8"/>
+      <c r="AC77" s="6"/>
+      <c r="AD77" s="7"/>
+      <c r="AE77" s="7"/>
+      <c r="AF77" s="8"/>
+      <c r="AG77" s="6"/>
+      <c r="AH77" s="7"/>
+      <c r="AI77" s="7"/>
+      <c r="AJ77" s="8"/>
+      <c r="AK77" s="6"/>
+      <c r="AL77" s="7"/>
+      <c r="AM77" s="7"/>
+      <c r="AN77" s="8"/>
+    </row>
+    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>124</v>
       </c>
@@ -3796,8 +5069,24 @@
       <c r="V78" s="7"/>
       <c r="W78" s="7"/>
       <c r="X78" s="8"/>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y78" s="7"/>
+      <c r="Z78" s="7"/>
+      <c r="AA78" s="7"/>
+      <c r="AB78" s="8"/>
+      <c r="AC78" s="6"/>
+      <c r="AD78" s="7"/>
+      <c r="AE78" s="7"/>
+      <c r="AF78" s="8"/>
+      <c r="AG78" s="6"/>
+      <c r="AH78" s="7"/>
+      <c r="AI78" s="7"/>
+      <c r="AJ78" s="8"/>
+      <c r="AK78" s="6"/>
+      <c r="AL78" s="7"/>
+      <c r="AM78" s="7"/>
+      <c r="AN78" s="8"/>
+    </row>
+    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>123</v>
       </c>
@@ -3821,8 +5110,24 @@
       <c r="V79" s="7"/>
       <c r="W79" s="7"/>
       <c r="X79" s="8"/>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="7"/>
+      <c r="AA79" s="7"/>
+      <c r="AB79" s="8"/>
+      <c r="AC79" s="6"/>
+      <c r="AD79" s="7"/>
+      <c r="AE79" s="7"/>
+      <c r="AF79" s="8"/>
+      <c r="AG79" s="6"/>
+      <c r="AH79" s="7"/>
+      <c r="AI79" s="7"/>
+      <c r="AJ79" s="8"/>
+      <c r="AK79" s="6"/>
+      <c r="AL79" s="7"/>
+      <c r="AM79" s="7"/>
+      <c r="AN79" s="8"/>
+    </row>
+    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>122</v>
       </c>
@@ -3846,8 +5151,24 @@
       <c r="V80" s="7"/>
       <c r="W80" s="7"/>
       <c r="X80" s="8"/>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y80" s="7"/>
+      <c r="Z80" s="7"/>
+      <c r="AA80" s="7"/>
+      <c r="AB80" s="8"/>
+      <c r="AC80" s="6"/>
+      <c r="AD80" s="7"/>
+      <c r="AE80" s="7"/>
+      <c r="AF80" s="8"/>
+      <c r="AG80" s="6"/>
+      <c r="AH80" s="7"/>
+      <c r="AI80" s="7"/>
+      <c r="AJ80" s="8"/>
+      <c r="AK80" s="6"/>
+      <c r="AL80" s="7"/>
+      <c r="AM80" s="7"/>
+      <c r="AN80" s="8"/>
+    </row>
+    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>121</v>
       </c>
@@ -3871,8 +5192,24 @@
       <c r="V81" s="7"/>
       <c r="W81" s="7"/>
       <c r="X81" s="8"/>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y81" s="7"/>
+      <c r="Z81" s="7"/>
+      <c r="AA81" s="7"/>
+      <c r="AB81" s="8"/>
+      <c r="AC81" s="6"/>
+      <c r="AD81" s="7"/>
+      <c r="AE81" s="7"/>
+      <c r="AF81" s="8"/>
+      <c r="AG81" s="6"/>
+      <c r="AH81" s="7"/>
+      <c r="AI81" s="7"/>
+      <c r="AJ81" s="8"/>
+      <c r="AK81" s="6"/>
+      <c r="AL81" s="7"/>
+      <c r="AM81" s="7"/>
+      <c r="AN81" s="8"/>
+    </row>
+    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>120</v>
       </c>
@@ -3896,8 +5233,24 @@
       <c r="V82" s="7"/>
       <c r="W82" s="7"/>
       <c r="X82" s="8"/>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y82" s="7"/>
+      <c r="Z82" s="7"/>
+      <c r="AA82" s="7"/>
+      <c r="AB82" s="8"/>
+      <c r="AC82" s="6"/>
+      <c r="AD82" s="7"/>
+      <c r="AE82" s="7"/>
+      <c r="AF82" s="8"/>
+      <c r="AG82" s="6"/>
+      <c r="AH82" s="7"/>
+      <c r="AI82" s="7"/>
+      <c r="AJ82" s="8"/>
+      <c r="AK82" s="6"/>
+      <c r="AL82" s="7"/>
+      <c r="AM82" s="7"/>
+      <c r="AN82" s="8"/>
+    </row>
+    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>119</v>
       </c>
@@ -3921,8 +5274,24 @@
       <c r="V83" s="7"/>
       <c r="W83" s="7"/>
       <c r="X83" s="8"/>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y83" s="7"/>
+      <c r="Z83" s="7"/>
+      <c r="AA83" s="7"/>
+      <c r="AB83" s="8"/>
+      <c r="AC83" s="6"/>
+      <c r="AD83" s="7"/>
+      <c r="AE83" s="7"/>
+      <c r="AF83" s="8"/>
+      <c r="AG83" s="6"/>
+      <c r="AH83" s="7"/>
+      <c r="AI83" s="7"/>
+      <c r="AJ83" s="8"/>
+      <c r="AK83" s="6"/>
+      <c r="AL83" s="7"/>
+      <c r="AM83" s="7"/>
+      <c r="AN83" s="8"/>
+    </row>
+    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>118</v>
       </c>
@@ -3946,8 +5315,24 @@
       <c r="V84" s="7"/>
       <c r="W84" s="7"/>
       <c r="X84" s="8"/>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y84" s="7"/>
+      <c r="Z84" s="7"/>
+      <c r="AA84" s="7"/>
+      <c r="AB84" s="8"/>
+      <c r="AC84" s="6"/>
+      <c r="AD84" s="7"/>
+      <c r="AE84" s="7"/>
+      <c r="AF84" s="8"/>
+      <c r="AG84" s="6"/>
+      <c r="AH84" s="7"/>
+      <c r="AI84" s="7"/>
+      <c r="AJ84" s="8"/>
+      <c r="AK84" s="6"/>
+      <c r="AL84" s="7"/>
+      <c r="AM84" s="7"/>
+      <c r="AN84" s="8"/>
+    </row>
+    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>117</v>
       </c>
@@ -3973,8 +5358,22 @@
       <c r="X85" s="8"/>
       <c r="Y85" s="7"/>
       <c r="Z85" s="7"/>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA85" s="7"/>
+      <c r="AB85" s="8"/>
+      <c r="AC85" s="6"/>
+      <c r="AD85" s="7"/>
+      <c r="AE85" s="7"/>
+      <c r="AF85" s="8"/>
+      <c r="AG85" s="6"/>
+      <c r="AH85" s="7"/>
+      <c r="AI85" s="7"/>
+      <c r="AJ85" s="8"/>
+      <c r="AK85" s="6"/>
+      <c r="AL85" s="7"/>
+      <c r="AM85" s="7"/>
+      <c r="AN85" s="8"/>
+    </row>
+    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>116</v>
       </c>
@@ -4000,8 +5399,22 @@
       <c r="X86" s="8"/>
       <c r="Y86" s="7"/>
       <c r="Z86" s="7"/>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA86" s="7"/>
+      <c r="AB86" s="8"/>
+      <c r="AC86" s="6"/>
+      <c r="AD86" s="7"/>
+      <c r="AE86" s="7"/>
+      <c r="AF86" s="8"/>
+      <c r="AG86" s="6"/>
+      <c r="AH86" s="7"/>
+      <c r="AI86" s="7"/>
+      <c r="AJ86" s="8"/>
+      <c r="AK86" s="6"/>
+      <c r="AL86" s="7"/>
+      <c r="AM86" s="7"/>
+      <c r="AN86" s="8"/>
+    </row>
+    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>115</v>
       </c>
@@ -4027,8 +5440,22 @@
       <c r="X87" s="8"/>
       <c r="Y87" s="7"/>
       <c r="Z87" s="7"/>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA87" s="7"/>
+      <c r="AB87" s="8"/>
+      <c r="AC87" s="6"/>
+      <c r="AD87" s="7"/>
+      <c r="AE87" s="7"/>
+      <c r="AF87" s="8"/>
+      <c r="AG87" s="6"/>
+      <c r="AH87" s="7"/>
+      <c r="AI87" s="7"/>
+      <c r="AJ87" s="8"/>
+      <c r="AK87" s="6"/>
+      <c r="AL87" s="7"/>
+      <c r="AM87" s="7"/>
+      <c r="AN87" s="8"/>
+    </row>
+    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>114</v>
       </c>
@@ -4054,8 +5481,22 @@
       <c r="X88" s="8"/>
       <c r="Y88" s="7"/>
       <c r="Z88" s="7"/>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA88" s="7"/>
+      <c r="AB88" s="8"/>
+      <c r="AC88" s="6"/>
+      <c r="AD88" s="7"/>
+      <c r="AE88" s="7"/>
+      <c r="AF88" s="8"/>
+      <c r="AG88" s="6"/>
+      <c r="AH88" s="7"/>
+      <c r="AI88" s="7"/>
+      <c r="AJ88" s="8"/>
+      <c r="AK88" s="6"/>
+      <c r="AL88" s="7"/>
+      <c r="AM88" s="7"/>
+      <c r="AN88" s="8"/>
+    </row>
+    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>113</v>
       </c>
@@ -4081,8 +5522,22 @@
       <c r="X89" s="8"/>
       <c r="Y89" s="7"/>
       <c r="Z89" s="7"/>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA89" s="7"/>
+      <c r="AB89" s="8"/>
+      <c r="AC89" s="6"/>
+      <c r="AD89" s="7"/>
+      <c r="AE89" s="7"/>
+      <c r="AF89" s="8"/>
+      <c r="AG89" s="6"/>
+      <c r="AH89" s="7"/>
+      <c r="AI89" s="7"/>
+      <c r="AJ89" s="8"/>
+      <c r="AK89" s="6"/>
+      <c r="AL89" s="7"/>
+      <c r="AM89" s="7"/>
+      <c r="AN89" s="8"/>
+    </row>
+    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>112</v>
       </c>
@@ -4108,8 +5563,22 @@
       <c r="X90" s="8"/>
       <c r="Y90" s="7"/>
       <c r="Z90" s="7"/>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA90" s="7"/>
+      <c r="AB90" s="8"/>
+      <c r="AC90" s="6"/>
+      <c r="AD90" s="7"/>
+      <c r="AE90" s="7"/>
+      <c r="AF90" s="8"/>
+      <c r="AG90" s="6"/>
+      <c r="AH90" s="7"/>
+      <c r="AI90" s="7"/>
+      <c r="AJ90" s="8"/>
+      <c r="AK90" s="6"/>
+      <c r="AL90" s="7"/>
+      <c r="AM90" s="7"/>
+      <c r="AN90" s="8"/>
+    </row>
+    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>111</v>
       </c>
@@ -4135,8 +5604,22 @@
       <c r="X91" s="8"/>
       <c r="Y91" s="7"/>
       <c r="Z91" s="7"/>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA91" s="7"/>
+      <c r="AB91" s="8"/>
+      <c r="AC91" s="6"/>
+      <c r="AD91" s="7"/>
+      <c r="AE91" s="7"/>
+      <c r="AF91" s="8"/>
+      <c r="AG91" s="6"/>
+      <c r="AH91" s="7"/>
+      <c r="AI91" s="7"/>
+      <c r="AJ91" s="8"/>
+      <c r="AK91" s="6"/>
+      <c r="AL91" s="7"/>
+      <c r="AM91" s="7"/>
+      <c r="AN91" s="8"/>
+    </row>
+    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>110</v>
       </c>
@@ -4162,8 +5645,22 @@
       <c r="X92" s="8"/>
       <c r="Y92" s="7"/>
       <c r="Z92" s="7"/>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA92" s="7"/>
+      <c r="AB92" s="8"/>
+      <c r="AC92" s="6"/>
+      <c r="AD92" s="7"/>
+      <c r="AE92" s="7"/>
+      <c r="AF92" s="8"/>
+      <c r="AG92" s="6"/>
+      <c r="AH92" s="7"/>
+      <c r="AI92" s="7"/>
+      <c r="AJ92" s="8"/>
+      <c r="AK92" s="6"/>
+      <c r="AL92" s="7"/>
+      <c r="AM92" s="7"/>
+      <c r="AN92" s="8"/>
+    </row>
+    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>109</v>
       </c>
@@ -4189,8 +5686,22 @@
       <c r="X93" s="8"/>
       <c r="Y93" s="7"/>
       <c r="Z93" s="7"/>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA93" s="7"/>
+      <c r="AB93" s="8"/>
+      <c r="AC93" s="6"/>
+      <c r="AD93" s="7"/>
+      <c r="AE93" s="7"/>
+      <c r="AF93" s="8"/>
+      <c r="AG93" s="6"/>
+      <c r="AH93" s="7"/>
+      <c r="AI93" s="7"/>
+      <c r="AJ93" s="8"/>
+      <c r="AK93" s="6"/>
+      <c r="AL93" s="7"/>
+      <c r="AM93" s="7"/>
+      <c r="AN93" s="8"/>
+    </row>
+    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>108</v>
       </c>
@@ -4216,8 +5727,22 @@
       <c r="X94" s="8"/>
       <c r="Y94" s="7"/>
       <c r="Z94" s="7"/>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA94" s="7"/>
+      <c r="AB94" s="8"/>
+      <c r="AC94" s="6"/>
+      <c r="AD94" s="7"/>
+      <c r="AE94" s="7"/>
+      <c r="AF94" s="8"/>
+      <c r="AG94" s="6"/>
+      <c r="AH94" s="7"/>
+      <c r="AI94" s="7"/>
+      <c r="AJ94" s="8"/>
+      <c r="AK94" s="6"/>
+      <c r="AL94" s="7"/>
+      <c r="AM94" s="7"/>
+      <c r="AN94" s="8"/>
+    </row>
+    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>107</v>
       </c>
@@ -4243,8 +5768,22 @@
       <c r="X95" s="8"/>
       <c r="Y95" s="7"/>
       <c r="Z95" s="7"/>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA95" s="7"/>
+      <c r="AB95" s="8"/>
+      <c r="AC95" s="6"/>
+      <c r="AD95" s="7"/>
+      <c r="AE95" s="7"/>
+      <c r="AF95" s="8"/>
+      <c r="AG95" s="6"/>
+      <c r="AH95" s="7"/>
+      <c r="AI95" s="7"/>
+      <c r="AJ95" s="8"/>
+      <c r="AK95" s="6"/>
+      <c r="AL95" s="7"/>
+      <c r="AM95" s="7"/>
+      <c r="AN95" s="8"/>
+    </row>
+    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>106</v>
       </c>
@@ -4270,8 +5809,22 @@
       <c r="X96" s="8"/>
       <c r="Y96" s="7"/>
       <c r="Z96" s="7"/>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA96" s="7"/>
+      <c r="AB96" s="8"/>
+      <c r="AC96" s="6"/>
+      <c r="AD96" s="7"/>
+      <c r="AE96" s="7"/>
+      <c r="AF96" s="8"/>
+      <c r="AG96" s="6"/>
+      <c r="AH96" s="7"/>
+      <c r="AI96" s="7"/>
+      <c r="AJ96" s="8"/>
+      <c r="AK96" s="6"/>
+      <c r="AL96" s="7"/>
+      <c r="AM96" s="7"/>
+      <c r="AN96" s="8"/>
+    </row>
+    <row r="97" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>105</v>
       </c>
@@ -4297,8 +5850,22 @@
       <c r="X97" s="8"/>
       <c r="Y97" s="7"/>
       <c r="Z97" s="7"/>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA97" s="7"/>
+      <c r="AB97" s="8"/>
+      <c r="AC97" s="6"/>
+      <c r="AD97" s="7"/>
+      <c r="AE97" s="7"/>
+      <c r="AF97" s="8"/>
+      <c r="AG97" s="6"/>
+      <c r="AH97" s="7"/>
+      <c r="AI97" s="7"/>
+      <c r="AJ97" s="8"/>
+      <c r="AK97" s="6"/>
+      <c r="AL97" s="7"/>
+      <c r="AM97" s="7"/>
+      <c r="AN97" s="8"/>
+    </row>
+    <row r="98" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>104</v>
       </c>
@@ -4324,8 +5891,22 @@
       <c r="X98" s="8"/>
       <c r="Y98" s="7"/>
       <c r="Z98" s="7"/>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA98" s="7"/>
+      <c r="AB98" s="8"/>
+      <c r="AC98" s="6"/>
+      <c r="AD98" s="7"/>
+      <c r="AE98" s="7"/>
+      <c r="AF98" s="8"/>
+      <c r="AG98" s="6"/>
+      <c r="AH98" s="7"/>
+      <c r="AI98" s="7"/>
+      <c r="AJ98" s="8"/>
+      <c r="AK98" s="6"/>
+      <c r="AL98" s="7"/>
+      <c r="AM98" s="7"/>
+      <c r="AN98" s="8"/>
+    </row>
+    <row r="99" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>103</v>
       </c>
@@ -4351,8 +5932,22 @@
       <c r="X99" s="8"/>
       <c r="Y99" s="38"/>
       <c r="Z99" s="7"/>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA99" s="7"/>
+      <c r="AB99" s="8"/>
+      <c r="AC99" s="6"/>
+      <c r="AD99" s="7"/>
+      <c r="AE99" s="7"/>
+      <c r="AF99" s="8"/>
+      <c r="AG99" s="6"/>
+      <c r="AH99" s="7"/>
+      <c r="AI99" s="7"/>
+      <c r="AJ99" s="8"/>
+      <c r="AK99" s="6"/>
+      <c r="AL99" s="7"/>
+      <c r="AM99" s="7"/>
+      <c r="AN99" s="8"/>
+    </row>
+    <row r="100" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>102</v>
       </c>
@@ -4378,8 +5973,22 @@
       <c r="X100" s="8"/>
       <c r="Y100" s="7"/>
       <c r="Z100" s="7"/>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA100" s="7"/>
+      <c r="AB100" s="8"/>
+      <c r="AC100" s="6"/>
+      <c r="AD100" s="7"/>
+      <c r="AE100" s="7"/>
+      <c r="AF100" s="8"/>
+      <c r="AG100" s="6"/>
+      <c r="AH100" s="7"/>
+      <c r="AI100" s="7"/>
+      <c r="AJ100" s="8"/>
+      <c r="AK100" s="6"/>
+      <c r="AL100" s="7"/>
+      <c r="AM100" s="7"/>
+      <c r="AN100" s="8"/>
+    </row>
+    <row r="101" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>101</v>
       </c>
@@ -4405,8 +6014,22 @@
       <c r="X101" s="8"/>
       <c r="Y101" s="38"/>
       <c r="Z101" s="7"/>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA101" s="7"/>
+      <c r="AB101" s="8"/>
+      <c r="AC101" s="6"/>
+      <c r="AD101" s="7"/>
+      <c r="AE101" s="7"/>
+      <c r="AF101" s="8"/>
+      <c r="AG101" s="6"/>
+      <c r="AH101" s="7"/>
+      <c r="AI101" s="7"/>
+      <c r="AJ101" s="8"/>
+      <c r="AK101" s="6"/>
+      <c r="AL101" s="7"/>
+      <c r="AM101" s="7"/>
+      <c r="AN101" s="8"/>
+    </row>
+    <row r="102" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -4432,8 +6055,22 @@
       <c r="X102" s="8"/>
       <c r="Y102" s="38"/>
       <c r="Z102" s="7"/>
-    </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA102" s="7"/>
+      <c r="AB102" s="8"/>
+      <c r="AC102" s="6"/>
+      <c r="AD102" s="7"/>
+      <c r="AE102" s="7"/>
+      <c r="AF102" s="8"/>
+      <c r="AG102" s="6"/>
+      <c r="AH102" s="7"/>
+      <c r="AI102" s="7"/>
+      <c r="AJ102" s="8"/>
+      <c r="AK102" s="6"/>
+      <c r="AL102" s="7"/>
+      <c r="AM102" s="7"/>
+      <c r="AN102" s="8"/>
+    </row>
+    <row r="103" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>99</v>
       </c>
@@ -4459,8 +6096,22 @@
       <c r="X103" s="8"/>
       <c r="Y103" s="7"/>
       <c r="Z103" s="7"/>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA103" s="7"/>
+      <c r="AB103" s="8"/>
+      <c r="AC103" s="6"/>
+      <c r="AD103" s="7"/>
+      <c r="AE103" s="7"/>
+      <c r="AF103" s="8"/>
+      <c r="AG103" s="6"/>
+      <c r="AH103" s="7"/>
+      <c r="AI103" s="7"/>
+      <c r="AJ103" s="8"/>
+      <c r="AK103" s="6"/>
+      <c r="AL103" s="7"/>
+      <c r="AM103" s="7"/>
+      <c r="AN103" s="8"/>
+    </row>
+    <row r="104" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>98</v>
       </c>
@@ -4486,8 +6137,22 @@
       <c r="X104" s="8"/>
       <c r="Y104" s="38"/>
       <c r="Z104" s="7"/>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA104" s="7"/>
+      <c r="AB104" s="8"/>
+      <c r="AC104" s="6"/>
+      <c r="AD104" s="7"/>
+      <c r="AE104" s="7"/>
+      <c r="AF104" s="8"/>
+      <c r="AG104" s="6"/>
+      <c r="AH104" s="7"/>
+      <c r="AI104" s="7"/>
+      <c r="AJ104" s="8"/>
+      <c r="AK104" s="6"/>
+      <c r="AL104" s="7"/>
+      <c r="AM104" s="7"/>
+      <c r="AN104" s="8"/>
+    </row>
+    <row r="105" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>97</v>
       </c>
@@ -4513,8 +6178,22 @@
       <c r="X105" s="8"/>
       <c r="Y105" s="38"/>
       <c r="Z105" s="7"/>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA105" s="7"/>
+      <c r="AB105" s="8"/>
+      <c r="AC105" s="6"/>
+      <c r="AD105" s="7"/>
+      <c r="AE105" s="7"/>
+      <c r="AF105" s="8"/>
+      <c r="AG105" s="6"/>
+      <c r="AH105" s="7"/>
+      <c r="AI105" s="7"/>
+      <c r="AJ105" s="8"/>
+      <c r="AK105" s="6"/>
+      <c r="AL105" s="7"/>
+      <c r="AM105" s="7"/>
+      <c r="AN105" s="8"/>
+    </row>
+    <row r="106" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>96</v>
       </c>
@@ -4540,8 +6219,22 @@
       <c r="X106" s="8"/>
       <c r="Y106" s="38"/>
       <c r="Z106" s="7"/>
-    </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA106" s="7"/>
+      <c r="AB106" s="8"/>
+      <c r="AC106" s="6"/>
+      <c r="AD106" s="7"/>
+      <c r="AE106" s="7"/>
+      <c r="AF106" s="8"/>
+      <c r="AG106" s="6"/>
+      <c r="AH106" s="7"/>
+      <c r="AI106" s="7"/>
+      <c r="AJ106" s="8"/>
+      <c r="AK106" s="6"/>
+      <c r="AL106" s="7"/>
+      <c r="AM106" s="7"/>
+      <c r="AN106" s="8"/>
+    </row>
+    <row r="107" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>95</v>
       </c>
@@ -4567,8 +6260,22 @@
       <c r="X107" s="8"/>
       <c r="Y107" s="7"/>
       <c r="Z107" s="7"/>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA107" s="7"/>
+      <c r="AB107" s="8"/>
+      <c r="AC107" s="6"/>
+      <c r="AD107" s="7"/>
+      <c r="AE107" s="7"/>
+      <c r="AF107" s="8"/>
+      <c r="AG107" s="6"/>
+      <c r="AH107" s="7"/>
+      <c r="AI107" s="7"/>
+      <c r="AJ107" s="8"/>
+      <c r="AK107" s="6"/>
+      <c r="AL107" s="7"/>
+      <c r="AM107" s="7"/>
+      <c r="AN107" s="8"/>
+    </row>
+    <row r="108" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>94</v>
       </c>
@@ -4594,8 +6301,22 @@
       <c r="X108" s="8"/>
       <c r="Y108" s="38"/>
       <c r="Z108" s="7"/>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA108" s="7"/>
+      <c r="AB108" s="8"/>
+      <c r="AC108" s="6"/>
+      <c r="AD108" s="7"/>
+      <c r="AE108" s="7"/>
+      <c r="AF108" s="8"/>
+      <c r="AG108" s="6"/>
+      <c r="AH108" s="7"/>
+      <c r="AI108" s="7"/>
+      <c r="AJ108" s="8"/>
+      <c r="AK108" s="6"/>
+      <c r="AL108" s="7"/>
+      <c r="AM108" s="7"/>
+      <c r="AN108" s="8"/>
+    </row>
+    <row r="109" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>93</v>
       </c>
@@ -4621,8 +6342,22 @@
       <c r="X109" s="8"/>
       <c r="Y109" s="38"/>
       <c r="Z109" s="7"/>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA109" s="7"/>
+      <c r="AB109" s="8"/>
+      <c r="AC109" s="6"/>
+      <c r="AD109" s="7"/>
+      <c r="AE109" s="7"/>
+      <c r="AF109" s="8"/>
+      <c r="AG109" s="6"/>
+      <c r="AH109" s="7"/>
+      <c r="AI109" s="7"/>
+      <c r="AJ109" s="8"/>
+      <c r="AK109" s="6"/>
+      <c r="AL109" s="7"/>
+      <c r="AM109" s="7"/>
+      <c r="AN109" s="8"/>
+    </row>
+    <row r="110" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>92</v>
       </c>
@@ -4648,8 +6383,22 @@
       <c r="X110" s="8"/>
       <c r="Y110" s="38"/>
       <c r="Z110" s="7"/>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA110" s="7"/>
+      <c r="AB110" s="8"/>
+      <c r="AC110" s="6"/>
+      <c r="AD110" s="7"/>
+      <c r="AE110" s="7"/>
+      <c r="AF110" s="8"/>
+      <c r="AG110" s="6"/>
+      <c r="AH110" s="7"/>
+      <c r="AI110" s="7"/>
+      <c r="AJ110" s="8"/>
+      <c r="AK110" s="6"/>
+      <c r="AL110" s="7"/>
+      <c r="AM110" s="7"/>
+      <c r="AN110" s="8"/>
+    </row>
+    <row r="111" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>91</v>
       </c>
@@ -4675,8 +6424,22 @@
       <c r="X111" s="8"/>
       <c r="Y111" s="38"/>
       <c r="Z111" s="7"/>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA111" s="7"/>
+      <c r="AB111" s="8"/>
+      <c r="AC111" s="6"/>
+      <c r="AD111" s="7"/>
+      <c r="AE111" s="7"/>
+      <c r="AF111" s="8"/>
+      <c r="AG111" s="6"/>
+      <c r="AH111" s="7"/>
+      <c r="AI111" s="7"/>
+      <c r="AJ111" s="8"/>
+      <c r="AK111" s="6"/>
+      <c r="AL111" s="7"/>
+      <c r="AM111" s="7"/>
+      <c r="AN111" s="8"/>
+    </row>
+    <row r="112" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>90</v>
       </c>
@@ -4702,8 +6465,22 @@
       <c r="X112" s="8"/>
       <c r="Y112" s="7"/>
       <c r="Z112" s="7"/>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA112" s="7"/>
+      <c r="AB112" s="8"/>
+      <c r="AC112" s="6"/>
+      <c r="AD112" s="7"/>
+      <c r="AE112" s="7"/>
+      <c r="AF112" s="8"/>
+      <c r="AG112" s="6"/>
+      <c r="AH112" s="7"/>
+      <c r="AI112" s="7"/>
+      <c r="AJ112" s="8"/>
+      <c r="AK112" s="6"/>
+      <c r="AL112" s="7"/>
+      <c r="AM112" s="7"/>
+      <c r="AN112" s="8"/>
+    </row>
+    <row r="113" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>89</v>
       </c>
@@ -4729,8 +6506,22 @@
       <c r="X113" s="8"/>
       <c r="Y113" s="38"/>
       <c r="Z113" s="7"/>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA113" s="7"/>
+      <c r="AB113" s="8"/>
+      <c r="AC113" s="6"/>
+      <c r="AD113" s="7"/>
+      <c r="AE113" s="7"/>
+      <c r="AF113" s="8"/>
+      <c r="AG113" s="6"/>
+      <c r="AH113" s="7"/>
+      <c r="AI113" s="7"/>
+      <c r="AJ113" s="8"/>
+      <c r="AK113" s="6"/>
+      <c r="AL113" s="7"/>
+      <c r="AM113" s="7"/>
+      <c r="AN113" s="8"/>
+    </row>
+    <row r="114" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>88</v>
       </c>
@@ -4756,8 +6547,22 @@
       <c r="X114" s="8"/>
       <c r="Y114" s="38"/>
       <c r="Z114" s="7"/>
-    </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA114" s="7"/>
+      <c r="AB114" s="8"/>
+      <c r="AC114" s="6"/>
+      <c r="AD114" s="7"/>
+      <c r="AE114" s="7"/>
+      <c r="AF114" s="8"/>
+      <c r="AG114" s="6"/>
+      <c r="AH114" s="7"/>
+      <c r="AI114" s="7"/>
+      <c r="AJ114" s="8"/>
+      <c r="AK114" s="6"/>
+      <c r="AL114" s="7"/>
+      <c r="AM114" s="7"/>
+      <c r="AN114" s="8"/>
+    </row>
+    <row r="115" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>87</v>
       </c>
@@ -4783,8 +6588,22 @@
       <c r="X115" s="8"/>
       <c r="Y115" s="38"/>
       <c r="Z115" s="7"/>
-    </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA115" s="7"/>
+      <c r="AB115" s="8"/>
+      <c r="AC115" s="6"/>
+      <c r="AD115" s="7"/>
+      <c r="AE115" s="7"/>
+      <c r="AF115" s="8"/>
+      <c r="AG115" s="6"/>
+      <c r="AH115" s="7"/>
+      <c r="AI115" s="7"/>
+      <c r="AJ115" s="8"/>
+      <c r="AK115" s="6"/>
+      <c r="AL115" s="7"/>
+      <c r="AM115" s="7"/>
+      <c r="AN115" s="8"/>
+    </row>
+    <row r="116" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>86</v>
       </c>
@@ -4810,8 +6629,22 @@
       <c r="X116" s="8"/>
       <c r="Y116" s="38"/>
       <c r="Z116" s="7"/>
-    </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA116" s="7"/>
+      <c r="AB116" s="8"/>
+      <c r="AC116" s="6"/>
+      <c r="AD116" s="7"/>
+      <c r="AE116" s="7"/>
+      <c r="AF116" s="8"/>
+      <c r="AG116" s="6"/>
+      <c r="AH116" s="7"/>
+      <c r="AI116" s="7"/>
+      <c r="AJ116" s="8"/>
+      <c r="AK116" s="6"/>
+      <c r="AL116" s="7"/>
+      <c r="AM116" s="7"/>
+      <c r="AN116" s="8"/>
+    </row>
+    <row r="117" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>85</v>
       </c>
@@ -4837,8 +6670,22 @@
       <c r="X117" s="8"/>
       <c r="Y117" s="38"/>
       <c r="Z117" s="7"/>
-    </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA117" s="7"/>
+      <c r="AB117" s="8"/>
+      <c r="AC117" s="6"/>
+      <c r="AD117" s="7"/>
+      <c r="AE117" s="7"/>
+      <c r="AF117" s="8"/>
+      <c r="AG117" s="6"/>
+      <c r="AH117" s="7"/>
+      <c r="AI117" s="7"/>
+      <c r="AJ117" s="8"/>
+      <c r="AK117" s="6"/>
+      <c r="AL117" s="7"/>
+      <c r="AM117" s="7"/>
+      <c r="AN117" s="8"/>
+    </row>
+    <row r="118" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>84</v>
       </c>
@@ -4864,8 +6711,22 @@
       <c r="X118" s="8"/>
       <c r="Y118" s="7"/>
       <c r="Z118" s="7"/>
-    </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA118" s="7"/>
+      <c r="AB118" s="8"/>
+      <c r="AC118" s="6"/>
+      <c r="AD118" s="7"/>
+      <c r="AE118" s="7"/>
+      <c r="AF118" s="8"/>
+      <c r="AG118" s="6"/>
+      <c r="AH118" s="7"/>
+      <c r="AI118" s="7"/>
+      <c r="AJ118" s="8"/>
+      <c r="AK118" s="6"/>
+      <c r="AL118" s="7"/>
+      <c r="AM118" s="7"/>
+      <c r="AN118" s="8"/>
+    </row>
+    <row r="119" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>83</v>
       </c>
@@ -4891,8 +6752,22 @@
       <c r="X119" s="8"/>
       <c r="Y119" s="38"/>
       <c r="Z119" s="7"/>
-    </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA119" s="7"/>
+      <c r="AB119" s="8"/>
+      <c r="AC119" s="6"/>
+      <c r="AD119" s="7"/>
+      <c r="AE119" s="7"/>
+      <c r="AF119" s="8"/>
+      <c r="AG119" s="6"/>
+      <c r="AH119" s="7"/>
+      <c r="AI119" s="7"/>
+      <c r="AJ119" s="8"/>
+      <c r="AK119" s="6"/>
+      <c r="AL119" s="7"/>
+      <c r="AM119" s="7"/>
+      <c r="AN119" s="8"/>
+    </row>
+    <row r="120" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>82</v>
       </c>
@@ -4918,8 +6793,22 @@
       <c r="X120" s="8"/>
       <c r="Y120" s="38"/>
       <c r="Z120" s="7"/>
-    </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA120" s="7"/>
+      <c r="AB120" s="8"/>
+      <c r="AC120" s="6"/>
+      <c r="AD120" s="7"/>
+      <c r="AE120" s="7"/>
+      <c r="AF120" s="8"/>
+      <c r="AG120" s="6"/>
+      <c r="AH120" s="7"/>
+      <c r="AI120" s="7"/>
+      <c r="AJ120" s="8"/>
+      <c r="AK120" s="6"/>
+      <c r="AL120" s="7"/>
+      <c r="AM120" s="7"/>
+      <c r="AN120" s="8"/>
+    </row>
+    <row r="121" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>81</v>
       </c>
@@ -4945,8 +6834,22 @@
       <c r="X121" s="8"/>
       <c r="Y121" s="38"/>
       <c r="Z121" s="7"/>
-    </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA121" s="7"/>
+      <c r="AB121" s="8"/>
+      <c r="AC121" s="6"/>
+      <c r="AD121" s="7"/>
+      <c r="AE121" s="7"/>
+      <c r="AF121" s="8"/>
+      <c r="AG121" s="6"/>
+      <c r="AH121" s="7"/>
+      <c r="AI121" s="7"/>
+      <c r="AJ121" s="8"/>
+      <c r="AK121" s="6"/>
+      <c r="AL121" s="7"/>
+      <c r="AM121" s="7"/>
+      <c r="AN121" s="8"/>
+    </row>
+    <row r="122" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>80</v>
       </c>
@@ -4972,8 +6875,22 @@
       <c r="X122" s="8"/>
       <c r="Y122" s="38"/>
       <c r="Z122" s="7"/>
-    </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA122" s="7"/>
+      <c r="AB122" s="8"/>
+      <c r="AC122" s="6"/>
+      <c r="AD122" s="7"/>
+      <c r="AE122" s="7"/>
+      <c r="AF122" s="8"/>
+      <c r="AG122" s="6"/>
+      <c r="AH122" s="7"/>
+      <c r="AI122" s="7"/>
+      <c r="AJ122" s="8"/>
+      <c r="AK122" s="6"/>
+      <c r="AL122" s="7"/>
+      <c r="AM122" s="7"/>
+      <c r="AN122" s="8"/>
+    </row>
+    <row r="123" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>79</v>
       </c>
@@ -4999,8 +6916,22 @@
       <c r="X123" s="8"/>
       <c r="Y123" s="38"/>
       <c r="Z123" s="7"/>
-    </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA123" s="7"/>
+      <c r="AB123" s="8"/>
+      <c r="AC123" s="6"/>
+      <c r="AD123" s="7"/>
+      <c r="AE123" s="7"/>
+      <c r="AF123" s="8"/>
+      <c r="AG123" s="6"/>
+      <c r="AH123" s="7"/>
+      <c r="AI123" s="7"/>
+      <c r="AJ123" s="8"/>
+      <c r="AK123" s="6"/>
+      <c r="AL123" s="7"/>
+      <c r="AM123" s="7"/>
+      <c r="AN123" s="8"/>
+    </row>
+    <row r="124" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>78</v>
       </c>
@@ -5026,8 +6957,22 @@
       <c r="X124" s="8"/>
       <c r="Y124" s="38"/>
       <c r="Z124" s="7"/>
-    </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA124" s="7"/>
+      <c r="AB124" s="8"/>
+      <c r="AC124" s="6"/>
+      <c r="AD124" s="7"/>
+      <c r="AE124" s="7"/>
+      <c r="AF124" s="8"/>
+      <c r="AG124" s="6"/>
+      <c r="AH124" s="7"/>
+      <c r="AI124" s="7"/>
+      <c r="AJ124" s="8"/>
+      <c r="AK124" s="6"/>
+      <c r="AL124" s="7"/>
+      <c r="AM124" s="7"/>
+      <c r="AN124" s="8"/>
+    </row>
+    <row r="125" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>77</v>
       </c>
@@ -5053,8 +6998,22 @@
       <c r="X125" s="8"/>
       <c r="Y125" s="7"/>
       <c r="Z125" s="7"/>
-    </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA125" s="7"/>
+      <c r="AB125" s="8"/>
+      <c r="AC125" s="6"/>
+      <c r="AD125" s="7"/>
+      <c r="AE125" s="7"/>
+      <c r="AF125" s="8"/>
+      <c r="AG125" s="6"/>
+      <c r="AH125" s="7"/>
+      <c r="AI125" s="7"/>
+      <c r="AJ125" s="8"/>
+      <c r="AK125" s="6"/>
+      <c r="AL125" s="7"/>
+      <c r="AM125" s="7"/>
+      <c r="AN125" s="8"/>
+    </row>
+    <row r="126" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>76</v>
       </c>
@@ -5080,8 +7039,22 @@
       <c r="X126" s="8"/>
       <c r="Y126" s="38"/>
       <c r="Z126" s="7"/>
-    </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA126" s="7"/>
+      <c r="AB126" s="8"/>
+      <c r="AC126" s="6"/>
+      <c r="AD126" s="7"/>
+      <c r="AE126" s="7"/>
+      <c r="AF126" s="8"/>
+      <c r="AG126" s="6"/>
+      <c r="AH126" s="7"/>
+      <c r="AI126" s="7"/>
+      <c r="AJ126" s="8"/>
+      <c r="AK126" s="6"/>
+      <c r="AL126" s="7"/>
+      <c r="AM126" s="7"/>
+      <c r="AN126" s="8"/>
+    </row>
+    <row r="127" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>75</v>
       </c>
@@ -5107,8 +7080,22 @@
       <c r="X127" s="8"/>
       <c r="Y127" s="38"/>
       <c r="Z127" s="7"/>
-    </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA127" s="7"/>
+      <c r="AB127" s="8"/>
+      <c r="AC127" s="6"/>
+      <c r="AD127" s="7"/>
+      <c r="AE127" s="7"/>
+      <c r="AF127" s="8"/>
+      <c r="AG127" s="6"/>
+      <c r="AH127" s="7"/>
+      <c r="AI127" s="7"/>
+      <c r="AJ127" s="8"/>
+      <c r="AK127" s="6"/>
+      <c r="AL127" s="7"/>
+      <c r="AM127" s="7"/>
+      <c r="AN127" s="8"/>
+    </row>
+    <row r="128" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>74</v>
       </c>
@@ -5134,8 +7121,22 @@
       <c r="X128" s="8"/>
       <c r="Y128" s="38"/>
       <c r="Z128" s="7"/>
-    </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA128" s="7"/>
+      <c r="AB128" s="8"/>
+      <c r="AC128" s="6"/>
+      <c r="AD128" s="7"/>
+      <c r="AE128" s="7"/>
+      <c r="AF128" s="8"/>
+      <c r="AG128" s="6"/>
+      <c r="AH128" s="7"/>
+      <c r="AI128" s="7"/>
+      <c r="AJ128" s="8"/>
+      <c r="AK128" s="6"/>
+      <c r="AL128" s="7"/>
+      <c r="AM128" s="7"/>
+      <c r="AN128" s="8"/>
+    </row>
+    <row r="129" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>73</v>
       </c>
@@ -5161,8 +7162,22 @@
       <c r="X129" s="8"/>
       <c r="Y129" s="38"/>
       <c r="Z129" s="7"/>
-    </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA129" s="7"/>
+      <c r="AB129" s="8"/>
+      <c r="AC129" s="6"/>
+      <c r="AD129" s="7"/>
+      <c r="AE129" s="7"/>
+      <c r="AF129" s="8"/>
+      <c r="AG129" s="6"/>
+      <c r="AH129" s="7"/>
+      <c r="AI129" s="7"/>
+      <c r="AJ129" s="8"/>
+      <c r="AK129" s="6"/>
+      <c r="AL129" s="7"/>
+      <c r="AM129" s="7"/>
+      <c r="AN129" s="8"/>
+    </row>
+    <row r="130" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>72</v>
       </c>
@@ -5188,8 +7203,22 @@
       <c r="X130" s="8"/>
       <c r="Y130" s="38"/>
       <c r="Z130" s="7"/>
-    </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA130" s="7"/>
+      <c r="AB130" s="8"/>
+      <c r="AC130" s="6"/>
+      <c r="AD130" s="7"/>
+      <c r="AE130" s="7"/>
+      <c r="AF130" s="8"/>
+      <c r="AG130" s="6"/>
+      <c r="AH130" s="7"/>
+      <c r="AI130" s="7"/>
+      <c r="AJ130" s="8"/>
+      <c r="AK130" s="6"/>
+      <c r="AL130" s="7"/>
+      <c r="AM130" s="7"/>
+      <c r="AN130" s="8"/>
+    </row>
+    <row r="131" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>71</v>
       </c>
@@ -5215,8 +7244,22 @@
       <c r="X131" s="8"/>
       <c r="Y131" s="38"/>
       <c r="Z131" s="7"/>
-    </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA131" s="7"/>
+      <c r="AB131" s="8"/>
+      <c r="AC131" s="6"/>
+      <c r="AD131" s="7"/>
+      <c r="AE131" s="7"/>
+      <c r="AF131" s="8"/>
+      <c r="AG131" s="6"/>
+      <c r="AH131" s="7"/>
+      <c r="AI131" s="7"/>
+      <c r="AJ131" s="8"/>
+      <c r="AK131" s="6"/>
+      <c r="AL131" s="7"/>
+      <c r="AM131" s="7"/>
+      <c r="AN131" s="8"/>
+    </row>
+    <row r="132" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>70</v>
       </c>
@@ -5242,8 +7285,22 @@
       <c r="X132" s="8"/>
       <c r="Y132" s="38"/>
       <c r="Z132" s="7"/>
-    </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA132" s="7"/>
+      <c r="AB132" s="8"/>
+      <c r="AC132" s="6"/>
+      <c r="AD132" s="7"/>
+      <c r="AE132" s="7"/>
+      <c r="AF132" s="8"/>
+      <c r="AG132" s="6"/>
+      <c r="AH132" s="7"/>
+      <c r="AI132" s="7"/>
+      <c r="AJ132" s="8"/>
+      <c r="AK132" s="6"/>
+      <c r="AL132" s="7"/>
+      <c r="AM132" s="7"/>
+      <c r="AN132" s="8"/>
+    </row>
+    <row r="133" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>69</v>
       </c>
@@ -5269,8 +7326,22 @@
       <c r="X133" s="8"/>
       <c r="Y133" s="7"/>
       <c r="Z133" s="7"/>
-    </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA133" s="7"/>
+      <c r="AB133" s="8"/>
+      <c r="AC133" s="6"/>
+      <c r="AD133" s="7"/>
+      <c r="AE133" s="7"/>
+      <c r="AF133" s="8"/>
+      <c r="AG133" s="6"/>
+      <c r="AH133" s="7"/>
+      <c r="AI133" s="7"/>
+      <c r="AJ133" s="8"/>
+      <c r="AK133" s="6"/>
+      <c r="AL133" s="7"/>
+      <c r="AM133" s="7"/>
+      <c r="AN133" s="8"/>
+    </row>
+    <row r="134" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>68</v>
       </c>
@@ -5296,8 +7367,22 @@
       <c r="X134" s="8"/>
       <c r="Y134" s="38"/>
       <c r="Z134" s="7"/>
-    </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA134" s="7"/>
+      <c r="AB134" s="8"/>
+      <c r="AC134" s="6"/>
+      <c r="AD134" s="7"/>
+      <c r="AE134" s="7"/>
+      <c r="AF134" s="8"/>
+      <c r="AG134" s="6"/>
+      <c r="AH134" s="7"/>
+      <c r="AI134" s="7"/>
+      <c r="AJ134" s="8"/>
+      <c r="AK134" s="6"/>
+      <c r="AL134" s="7"/>
+      <c r="AM134" s="7"/>
+      <c r="AN134" s="8"/>
+    </row>
+    <row r="135" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>67</v>
       </c>
@@ -5323,8 +7408,22 @@
       <c r="X135" s="8"/>
       <c r="Y135" s="38"/>
       <c r="Z135" s="7"/>
-    </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA135" s="7"/>
+      <c r="AB135" s="8"/>
+      <c r="AC135" s="6"/>
+      <c r="AD135" s="7"/>
+      <c r="AE135" s="7"/>
+      <c r="AF135" s="8"/>
+      <c r="AG135" s="6"/>
+      <c r="AH135" s="7"/>
+      <c r="AI135" s="7"/>
+      <c r="AJ135" s="8"/>
+      <c r="AK135" s="6"/>
+      <c r="AL135" s="7"/>
+      <c r="AM135" s="7"/>
+      <c r="AN135" s="8"/>
+    </row>
+    <row r="136" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>66</v>
       </c>
@@ -5350,8 +7449,22 @@
       <c r="X136" s="8"/>
       <c r="Y136" s="38"/>
       <c r="Z136" s="7"/>
-    </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA136" s="7"/>
+      <c r="AB136" s="8"/>
+      <c r="AC136" s="6"/>
+      <c r="AD136" s="7"/>
+      <c r="AE136" s="7"/>
+      <c r="AF136" s="8"/>
+      <c r="AG136" s="6"/>
+      <c r="AH136" s="7"/>
+      <c r="AI136" s="7"/>
+      <c r="AJ136" s="8"/>
+      <c r="AK136" s="6"/>
+      <c r="AL136" s="7"/>
+      <c r="AM136" s="7"/>
+      <c r="AN136" s="8"/>
+    </row>
+    <row r="137" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>65</v>
       </c>
@@ -5377,8 +7490,22 @@
       <c r="X137" s="8"/>
       <c r="Y137" s="38"/>
       <c r="Z137" s="7"/>
-    </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA137" s="7"/>
+      <c r="AB137" s="8"/>
+      <c r="AC137" s="6"/>
+      <c r="AD137" s="7"/>
+      <c r="AE137" s="7"/>
+      <c r="AF137" s="8"/>
+      <c r="AG137" s="6"/>
+      <c r="AH137" s="7"/>
+      <c r="AI137" s="7"/>
+      <c r="AJ137" s="8"/>
+      <c r="AK137" s="6"/>
+      <c r="AL137" s="7"/>
+      <c r="AM137" s="7"/>
+      <c r="AN137" s="8"/>
+    </row>
+    <row r="138" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>64</v>
       </c>
@@ -5404,8 +7531,22 @@
       <c r="X138" s="8"/>
       <c r="Y138" s="38"/>
       <c r="Z138" s="7"/>
-    </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA138" s="7"/>
+      <c r="AB138" s="8"/>
+      <c r="AC138" s="6"/>
+      <c r="AD138" s="7"/>
+      <c r="AE138" s="7"/>
+      <c r="AF138" s="8"/>
+      <c r="AG138" s="6"/>
+      <c r="AH138" s="7"/>
+      <c r="AI138" s="7"/>
+      <c r="AJ138" s="8"/>
+      <c r="AK138" s="6"/>
+      <c r="AL138" s="7"/>
+      <c r="AM138" s="7"/>
+      <c r="AN138" s="8"/>
+    </row>
+    <row r="139" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>63</v>
       </c>
@@ -5431,8 +7572,22 @@
       <c r="X139" s="8"/>
       <c r="Y139" s="38"/>
       <c r="Z139" s="7"/>
-    </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA139" s="7"/>
+      <c r="AB139" s="8"/>
+      <c r="AC139" s="6"/>
+      <c r="AD139" s="7"/>
+      <c r="AE139" s="7"/>
+      <c r="AF139" s="8"/>
+      <c r="AG139" s="6"/>
+      <c r="AH139" s="7"/>
+      <c r="AI139" s="7"/>
+      <c r="AJ139" s="8"/>
+      <c r="AK139" s="6"/>
+      <c r="AL139" s="7"/>
+      <c r="AM139" s="7"/>
+      <c r="AN139" s="8"/>
+    </row>
+    <row r="140" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>62</v>
       </c>
@@ -5458,8 +7613,30 @@
       <c r="X140" s="8"/>
       <c r="Y140" s="38"/>
       <c r="Z140" s="7"/>
-    </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA140" s="7"/>
+      <c r="AB140" s="8"/>
+      <c r="AC140" s="6"/>
+      <c r="AD140" s="7"/>
+      <c r="AE140" s="7"/>
+      <c r="AF140" s="8"/>
+      <c r="AG140" s="6"/>
+      <c r="AH140" s="7"/>
+      <c r="AI140" s="7"/>
+      <c r="AJ140" s="8"/>
+      <c r="AK140" s="36">
+        <v>1</v>
+      </c>
+      <c r="AL140" s="31">
+        <v>6</v>
+      </c>
+      <c r="AM140" s="31">
+        <v>5</v>
+      </c>
+      <c r="AN140" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>61</v>
       </c>
@@ -5485,8 +7662,30 @@
       <c r="X141" s="8"/>
       <c r="Y141" s="38"/>
       <c r="Z141" s="7"/>
-    </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA141" s="7"/>
+      <c r="AB141" s="8"/>
+      <c r="AC141" s="6"/>
+      <c r="AD141" s="7"/>
+      <c r="AE141" s="7"/>
+      <c r="AF141" s="8"/>
+      <c r="AG141" s="6"/>
+      <c r="AH141" s="7"/>
+      <c r="AI141" s="7"/>
+      <c r="AJ141" s="8"/>
+      <c r="AK141" s="36">
+        <v>1</v>
+      </c>
+      <c r="AL141" s="31">
+        <v>5</v>
+      </c>
+      <c r="AM141" s="31">
+        <v>5</v>
+      </c>
+      <c r="AN141" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>60</v>
       </c>
@@ -5512,8 +7711,30 @@
       <c r="X142" s="8"/>
       <c r="Y142" s="7"/>
       <c r="Z142" s="7"/>
-    </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA142" s="7"/>
+      <c r="AB142" s="8"/>
+      <c r="AC142" s="6"/>
+      <c r="AD142" s="7"/>
+      <c r="AE142" s="7"/>
+      <c r="AF142" s="8"/>
+      <c r="AG142" s="6"/>
+      <c r="AH142" s="7"/>
+      <c r="AI142" s="7"/>
+      <c r="AJ142" s="8"/>
+      <c r="AK142" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL142" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM142" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN142" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>59</v>
       </c>
@@ -5539,8 +7760,30 @@
       <c r="X143" s="8"/>
       <c r="Y143" s="38"/>
       <c r="Z143" s="7"/>
-    </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA143" s="7"/>
+      <c r="AB143" s="8"/>
+      <c r="AC143" s="6"/>
+      <c r="AD143" s="7"/>
+      <c r="AE143" s="7"/>
+      <c r="AF143" s="8"/>
+      <c r="AG143" s="6"/>
+      <c r="AH143" s="7"/>
+      <c r="AI143" s="7"/>
+      <c r="AJ143" s="8"/>
+      <c r="AK143" s="36">
+        <v>1</v>
+      </c>
+      <c r="AL143" s="31">
+        <v>4</v>
+      </c>
+      <c r="AM143" s="31">
+        <v>5</v>
+      </c>
+      <c r="AN143" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>58</v>
       </c>
@@ -5566,8 +7809,30 @@
       <c r="X144" s="8"/>
       <c r="Y144" s="38"/>
       <c r="Z144" s="7"/>
-    </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA144" s="7"/>
+      <c r="AB144" s="8"/>
+      <c r="AC144" s="6"/>
+      <c r="AD144" s="7"/>
+      <c r="AE144" s="7"/>
+      <c r="AF144" s="8"/>
+      <c r="AG144" s="6"/>
+      <c r="AH144" s="7"/>
+      <c r="AI144" s="7"/>
+      <c r="AJ144" s="8"/>
+      <c r="AK144" s="6">
+        <v>2</v>
+      </c>
+      <c r="AL144" s="7">
+        <v>6</v>
+      </c>
+      <c r="AM144" s="7">
+        <v>4</v>
+      </c>
+      <c r="AN144" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>57</v>
       </c>
@@ -5593,8 +7858,30 @@
       <c r="X145" s="8"/>
       <c r="Y145" s="38"/>
       <c r="Z145" s="7"/>
-    </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA145" s="7"/>
+      <c r="AB145" s="8"/>
+      <c r="AC145" s="6"/>
+      <c r="AD145" s="7"/>
+      <c r="AE145" s="7"/>
+      <c r="AF145" s="8"/>
+      <c r="AG145" s="6"/>
+      <c r="AH145" s="7"/>
+      <c r="AI145" s="7"/>
+      <c r="AJ145" s="8"/>
+      <c r="AK145" s="6">
+        <v>2</v>
+      </c>
+      <c r="AL145" s="7">
+        <v>5</v>
+      </c>
+      <c r="AM145" s="7">
+        <v>4</v>
+      </c>
+      <c r="AN145" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>56</v>
       </c>
@@ -5620,8 +7907,38 @@
       <c r="X146" s="8"/>
       <c r="Y146" s="38"/>
       <c r="Z146" s="7"/>
-    </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA146" s="7"/>
+      <c r="AB146" s="8"/>
+      <c r="AC146" s="6"/>
+      <c r="AD146" s="7"/>
+      <c r="AE146" s="7"/>
+      <c r="AF146" s="8"/>
+      <c r="AG146" s="36">
+        <v>1</v>
+      </c>
+      <c r="AH146" s="31">
+        <v>6</v>
+      </c>
+      <c r="AI146" s="31">
+        <v>4</v>
+      </c>
+      <c r="AJ146" s="43">
+        <v>0</v>
+      </c>
+      <c r="AK146" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL146" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM146" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN146" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>55</v>
       </c>
@@ -5647,8 +7964,38 @@
       <c r="X147" s="8"/>
       <c r="Y147" s="38"/>
       <c r="Z147" s="7"/>
-    </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA147" s="7"/>
+      <c r="AB147" s="8"/>
+      <c r="AC147" s="6"/>
+      <c r="AD147" s="7"/>
+      <c r="AE147" s="7"/>
+      <c r="AF147" s="8"/>
+      <c r="AG147" s="36">
+        <v>1</v>
+      </c>
+      <c r="AH147" s="31">
+        <v>5</v>
+      </c>
+      <c r="AI147" s="31">
+        <v>4</v>
+      </c>
+      <c r="AJ147" s="43">
+        <v>1</v>
+      </c>
+      <c r="AK147" s="36">
+        <v>1</v>
+      </c>
+      <c r="AL147" s="31">
+        <v>3</v>
+      </c>
+      <c r="AM147" s="31">
+        <v>5</v>
+      </c>
+      <c r="AN147" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>54</v>
       </c>
@@ -5674,8 +8021,38 @@
       <c r="X148" s="8"/>
       <c r="Y148" s="38"/>
       <c r="Z148" s="7"/>
-    </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA148" s="7"/>
+      <c r="AB148" s="8"/>
+      <c r="AC148" s="6"/>
+      <c r="AD148" s="7"/>
+      <c r="AE148" s="7"/>
+      <c r="AF148" s="8"/>
+      <c r="AG148" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH148" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI148" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ148" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK148" s="6">
+        <v>2</v>
+      </c>
+      <c r="AL148" s="7">
+        <v>6</v>
+      </c>
+      <c r="AM148" s="7">
+        <v>4</v>
+      </c>
+      <c r="AN148" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>53</v>
       </c>
@@ -5701,8 +8078,38 @@
       <c r="X149" s="8"/>
       <c r="Y149" s="38"/>
       <c r="Z149" s="7"/>
-    </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA149" s="7"/>
+      <c r="AB149" s="8"/>
+      <c r="AC149" s="6"/>
+      <c r="AD149" s="7"/>
+      <c r="AE149" s="7"/>
+      <c r="AF149" s="8"/>
+      <c r="AG149" s="36">
+        <v>1</v>
+      </c>
+      <c r="AH149" s="31">
+        <v>4</v>
+      </c>
+      <c r="AI149" s="31">
+        <v>4</v>
+      </c>
+      <c r="AJ149" s="43">
+        <v>2</v>
+      </c>
+      <c r="AK149" s="6">
+        <v>2</v>
+      </c>
+      <c r="AL149" s="7">
+        <v>5</v>
+      </c>
+      <c r="AM149" s="7">
+        <v>4</v>
+      </c>
+      <c r="AN149" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>52</v>
       </c>
@@ -5728,8 +8135,38 @@
       <c r="X150" s="8"/>
       <c r="Y150" s="38"/>
       <c r="Z150" s="7"/>
-    </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA150" s="7"/>
+      <c r="AB150" s="8"/>
+      <c r="AC150" s="6"/>
+      <c r="AD150" s="7"/>
+      <c r="AE150" s="7"/>
+      <c r="AF150" s="8"/>
+      <c r="AG150" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH150" s="7">
+        <v>6</v>
+      </c>
+      <c r="AI150" s="7">
+        <v>3</v>
+      </c>
+      <c r="AJ150" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK150" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL150" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM150" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN150" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>51</v>
       </c>
@@ -5755,8 +8192,38 @@
       <c r="X151" s="8"/>
       <c r="Y151" s="38"/>
       <c r="Z151" s="7"/>
-    </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA151" s="7"/>
+      <c r="AB151" s="8"/>
+      <c r="AC151" s="6"/>
+      <c r="AD151" s="7"/>
+      <c r="AE151" s="7"/>
+      <c r="AF151" s="8"/>
+      <c r="AG151" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH151" s="7">
+        <v>5</v>
+      </c>
+      <c r="AI151" s="7">
+        <v>3</v>
+      </c>
+      <c r="AJ151" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK151" s="6">
+        <v>2</v>
+      </c>
+      <c r="AL151" s="7">
+        <v>4</v>
+      </c>
+      <c r="AM151" s="7">
+        <v>4</v>
+      </c>
+      <c r="AN151" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>50</v>
       </c>
@@ -5782,8 +8249,38 @@
       <c r="X152" s="8"/>
       <c r="Y152" s="7"/>
       <c r="Z152" s="7"/>
-    </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA152" s="7"/>
+      <c r="AB152" s="8"/>
+      <c r="AC152" s="6"/>
+      <c r="AD152" s="7"/>
+      <c r="AE152" s="7"/>
+      <c r="AF152" s="8"/>
+      <c r="AG152" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH152" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI152" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ152" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK152" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL152" s="7">
+        <v>6</v>
+      </c>
+      <c r="AM152" s="7">
+        <v>3</v>
+      </c>
+      <c r="AN152" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>49</v>
       </c>
@@ -5809,8 +8306,38 @@
       <c r="X153" s="8"/>
       <c r="Y153" s="38"/>
       <c r="Z153" s="7"/>
-    </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA153" s="7"/>
+      <c r="AB153" s="8"/>
+      <c r="AC153" s="6"/>
+      <c r="AD153" s="7"/>
+      <c r="AE153" s="7"/>
+      <c r="AF153" s="8"/>
+      <c r="AG153" s="36">
+        <v>1</v>
+      </c>
+      <c r="AH153" s="31">
+        <v>3</v>
+      </c>
+      <c r="AI153" s="31">
+        <v>4</v>
+      </c>
+      <c r="AJ153" s="43">
+        <v>3</v>
+      </c>
+      <c r="AK153" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL153" s="7">
+        <v>5</v>
+      </c>
+      <c r="AM153" s="7">
+        <v>3</v>
+      </c>
+      <c r="AN153" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>48</v>
       </c>
@@ -5836,8 +8363,38 @@
       <c r="X154" s="8"/>
       <c r="Y154" s="38"/>
       <c r="Z154" s="7"/>
-    </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA154" s="7"/>
+      <c r="AB154" s="8"/>
+      <c r="AC154" s="6"/>
+      <c r="AD154" s="7"/>
+      <c r="AE154" s="7"/>
+      <c r="AF154" s="8"/>
+      <c r="AG154" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH154" s="7">
+        <v>6</v>
+      </c>
+      <c r="AI154" s="7">
+        <v>3</v>
+      </c>
+      <c r="AJ154" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK154" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL154" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM154" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN154" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>47</v>
       </c>
@@ -5863,8 +8420,38 @@
       <c r="X155" s="8"/>
       <c r="Y155" s="38"/>
       <c r="Z155" s="7"/>
-    </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA155" s="7"/>
+      <c r="AB155" s="8"/>
+      <c r="AC155" s="6"/>
+      <c r="AD155" s="7"/>
+      <c r="AE155" s="7"/>
+      <c r="AF155" s="8"/>
+      <c r="AG155" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH155" s="7">
+        <v>5</v>
+      </c>
+      <c r="AI155" s="7">
+        <v>3</v>
+      </c>
+      <c r="AJ155" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK155" s="36">
+        <v>1</v>
+      </c>
+      <c r="AL155" s="31">
+        <v>2</v>
+      </c>
+      <c r="AM155" s="31">
+        <v>5</v>
+      </c>
+      <c r="AN155" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>46</v>
       </c>
@@ -5890,8 +8477,38 @@
       <c r="X156" s="8"/>
       <c r="Y156" s="38"/>
       <c r="Z156" s="7"/>
-    </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA156" s="7"/>
+      <c r="AB156" s="8"/>
+      <c r="AC156" s="6"/>
+      <c r="AD156" s="7"/>
+      <c r="AE156" s="7"/>
+      <c r="AF156" s="8"/>
+      <c r="AG156" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH156" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI156" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ156" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK156" s="6">
+        <v>2</v>
+      </c>
+      <c r="AL156" s="7">
+        <v>6</v>
+      </c>
+      <c r="AM156" s="7">
+        <v>4</v>
+      </c>
+      <c r="AN156" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>45</v>
       </c>
@@ -5917,8 +8534,38 @@
       <c r="X157" s="8"/>
       <c r="Y157" s="38"/>
       <c r="Z157" s="7"/>
-    </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA157" s="7"/>
+      <c r="AB157" s="8"/>
+      <c r="AC157" s="6"/>
+      <c r="AD157" s="7"/>
+      <c r="AE157" s="7"/>
+      <c r="AF157" s="8"/>
+      <c r="AG157" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH157" s="7">
+        <v>4</v>
+      </c>
+      <c r="AI157" s="7">
+        <v>3</v>
+      </c>
+      <c r="AJ157" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK157" s="6">
+        <v>2</v>
+      </c>
+      <c r="AL157" s="7">
+        <v>5</v>
+      </c>
+      <c r="AM157" s="7">
+        <v>4</v>
+      </c>
+      <c r="AN157" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>44</v>
       </c>
@@ -5944,8 +8591,38 @@
       <c r="X158" s="8"/>
       <c r="Y158" s="38"/>
       <c r="Z158" s="7"/>
-    </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA158" s="7"/>
+      <c r="AB158" s="8"/>
+      <c r="AC158" s="6"/>
+      <c r="AD158" s="7"/>
+      <c r="AE158" s="7"/>
+      <c r="AF158" s="8"/>
+      <c r="AG158" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH158" s="7">
+        <v>6</v>
+      </c>
+      <c r="AI158" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ158" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK158" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL158" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM158" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN158" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>43</v>
       </c>
@@ -5971,8 +8648,38 @@
       <c r="X159" s="8"/>
       <c r="Y159" s="38"/>
       <c r="Z159" s="7"/>
-    </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA159" s="7"/>
+      <c r="AB159" s="8"/>
+      <c r="AC159" s="6"/>
+      <c r="AD159" s="7"/>
+      <c r="AE159" s="7"/>
+      <c r="AF159" s="8"/>
+      <c r="AG159" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH159" s="7">
+        <v>5</v>
+      </c>
+      <c r="AI159" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ159" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK159" s="6">
+        <v>2</v>
+      </c>
+      <c r="AL159" s="7">
+        <v>4</v>
+      </c>
+      <c r="AM159" s="7">
+        <v>4</v>
+      </c>
+      <c r="AN159" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>42</v>
       </c>
@@ -5998,8 +8705,38 @@
       <c r="X160" s="8"/>
       <c r="Y160" s="38"/>
       <c r="Z160" s="7"/>
-    </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA160" s="7"/>
+      <c r="AB160" s="8"/>
+      <c r="AC160" s="6"/>
+      <c r="AD160" s="7"/>
+      <c r="AE160" s="7"/>
+      <c r="AF160" s="8"/>
+      <c r="AG160" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH160" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI160" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ160" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK160" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL160" s="7">
+        <v>6</v>
+      </c>
+      <c r="AM160" s="7">
+        <v>3</v>
+      </c>
+      <c r="AN160" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>41</v>
       </c>
@@ -6025,8 +8762,38 @@
       <c r="X161" s="8"/>
       <c r="Y161" s="38"/>
       <c r="Z161" s="7"/>
-    </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA161" s="7"/>
+      <c r="AB161" s="8"/>
+      <c r="AC161" s="6"/>
+      <c r="AD161" s="7"/>
+      <c r="AE161" s="7"/>
+      <c r="AF161" s="8"/>
+      <c r="AG161" s="36">
+        <v>1</v>
+      </c>
+      <c r="AH161" s="31">
+        <v>2</v>
+      </c>
+      <c r="AI161" s="31">
+        <v>4</v>
+      </c>
+      <c r="AJ161" s="43">
+        <v>4</v>
+      </c>
+      <c r="AK161" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL161" s="7">
+        <v>5</v>
+      </c>
+      <c r="AM161" s="7">
+        <v>3</v>
+      </c>
+      <c r="AN161" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>40</v>
       </c>
@@ -6052,8 +8819,38 @@
       <c r="X162" s="8"/>
       <c r="Y162" s="38"/>
       <c r="Z162" s="7"/>
-    </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA162" s="7"/>
+      <c r="AB162" s="8"/>
+      <c r="AC162" s="6"/>
+      <c r="AD162" s="7"/>
+      <c r="AE162" s="7"/>
+      <c r="AF162" s="8"/>
+      <c r="AG162" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH162" s="7">
+        <v>6</v>
+      </c>
+      <c r="AI162" s="7">
+        <v>3</v>
+      </c>
+      <c r="AJ162" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK162" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL162" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM162" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN162" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>39</v>
       </c>
@@ -6079,8 +8876,38 @@
       <c r="X163" s="8"/>
       <c r="Y163" s="7"/>
       <c r="Z163" s="7"/>
-    </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA163" s="7"/>
+      <c r="AB163" s="8"/>
+      <c r="AC163" s="6"/>
+      <c r="AD163" s="7"/>
+      <c r="AE163" s="7"/>
+      <c r="AF163" s="8"/>
+      <c r="AG163" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH163" s="7">
+        <v>5</v>
+      </c>
+      <c r="AI163" s="7">
+        <v>3</v>
+      </c>
+      <c r="AJ163" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK163" s="6">
+        <v>2</v>
+      </c>
+      <c r="AL163" s="7">
+        <v>3</v>
+      </c>
+      <c r="AM163" s="7">
+        <v>4</v>
+      </c>
+      <c r="AN163" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>38</v>
       </c>
@@ -6106,8 +8933,38 @@
       <c r="X164" s="8"/>
       <c r="Y164" s="38"/>
       <c r="Z164" s="7"/>
-    </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA164" s="7"/>
+      <c r="AB164" s="8"/>
+      <c r="AC164" s="6"/>
+      <c r="AD164" s="7"/>
+      <c r="AE164" s="7"/>
+      <c r="AF164" s="8"/>
+      <c r="AG164" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH164" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI164" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ164" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK164" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL164" s="7">
+        <v>6</v>
+      </c>
+      <c r="AM164" s="7">
+        <v>3</v>
+      </c>
+      <c r="AN164" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>37</v>
       </c>
@@ -6133,8 +8990,38 @@
       <c r="X165" s="8"/>
       <c r="Y165" s="38"/>
       <c r="Z165" s="7"/>
-    </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA165" s="7"/>
+      <c r="AB165" s="8"/>
+      <c r="AC165" s="6"/>
+      <c r="AD165" s="7"/>
+      <c r="AE165" s="7"/>
+      <c r="AF165" s="8"/>
+      <c r="AG165" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH165" s="7">
+        <v>4</v>
+      </c>
+      <c r="AI165" s="7">
+        <v>3</v>
+      </c>
+      <c r="AJ165" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK165" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL165" s="7">
+        <v>5</v>
+      </c>
+      <c r="AM165" s="7">
+        <v>3</v>
+      </c>
+      <c r="AN165" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>36</v>
       </c>
@@ -6158,9 +9045,40 @@
       <c r="V166" s="7"/>
       <c r="W166" s="7"/>
       <c r="X166" s="8"/>
-      <c r="AC166" s="9"/>
-    </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y166" s="7"/>
+      <c r="Z166" s="7"/>
+      <c r="AA166" s="7"/>
+      <c r="AB166" s="21"/>
+      <c r="AC166" s="6"/>
+      <c r="AD166" s="7"/>
+      <c r="AE166" s="7"/>
+      <c r="AF166" s="8"/>
+      <c r="AG166" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH166" s="7">
+        <v>6</v>
+      </c>
+      <c r="AI166" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ166" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK166" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL166" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM166" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN166" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>35</v>
       </c>
@@ -6184,9 +9102,40 @@
       <c r="V167" s="7"/>
       <c r="W167" s="7"/>
       <c r="X167" s="8"/>
-      <c r="AC167" s="9"/>
-    </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y167" s="7"/>
+      <c r="Z167" s="7"/>
+      <c r="AA167" s="7"/>
+      <c r="AB167" s="21"/>
+      <c r="AC167" s="6"/>
+      <c r="AD167" s="7"/>
+      <c r="AE167" s="7"/>
+      <c r="AF167" s="8"/>
+      <c r="AG167" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH167" s="7">
+        <v>5</v>
+      </c>
+      <c r="AI167" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ167" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK167" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL167" s="7">
+        <v>4</v>
+      </c>
+      <c r="AM167" s="7">
+        <v>3</v>
+      </c>
+      <c r="AN167" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>34</v>
       </c>
@@ -6210,9 +9159,40 @@
       <c r="V168" s="7"/>
       <c r="W168" s="7"/>
       <c r="X168" s="8"/>
-      <c r="AC168" s="9"/>
-    </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y168" s="7"/>
+      <c r="Z168" s="7"/>
+      <c r="AA168" s="7"/>
+      <c r="AB168" s="21"/>
+      <c r="AC168" s="6"/>
+      <c r="AD168" s="7"/>
+      <c r="AE168" s="7"/>
+      <c r="AF168" s="8"/>
+      <c r="AG168" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH168" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI168" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ168" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK168" s="6">
+        <v>4</v>
+      </c>
+      <c r="AL168" s="7">
+        <v>6</v>
+      </c>
+      <c r="AM168" s="7">
+        <v>2</v>
+      </c>
+      <c r="AN168" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>33</v>
       </c>
@@ -6236,9 +9216,40 @@
       <c r="V169" s="7"/>
       <c r="W169" s="7"/>
       <c r="X169" s="8"/>
-      <c r="AC169" s="9"/>
-    </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y169" s="7"/>
+      <c r="Z169" s="7"/>
+      <c r="AA169" s="7"/>
+      <c r="AB169" s="21"/>
+      <c r="AC169" s="6"/>
+      <c r="AD169" s="7"/>
+      <c r="AE169" s="7"/>
+      <c r="AF169" s="8"/>
+      <c r="AG169" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH169" s="7">
+        <v>3</v>
+      </c>
+      <c r="AI169" s="7">
+        <v>3</v>
+      </c>
+      <c r="AJ169" s="8">
+        <v>3</v>
+      </c>
+      <c r="AK169" s="6">
+        <v>4</v>
+      </c>
+      <c r="AL169" s="7">
+        <v>5</v>
+      </c>
+      <c r="AM169" s="7">
+        <v>2</v>
+      </c>
+      <c r="AN169" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>32</v>
       </c>
@@ -6262,9 +9273,40 @@
       <c r="V170" s="7"/>
       <c r="W170" s="7"/>
       <c r="X170" s="8"/>
-      <c r="AC170" s="9"/>
-    </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y170" s="7"/>
+      <c r="Z170" s="7"/>
+      <c r="AA170" s="7"/>
+      <c r="AB170" s="21"/>
+      <c r="AC170" s="6"/>
+      <c r="AD170" s="7"/>
+      <c r="AE170" s="7"/>
+      <c r="AF170" s="8"/>
+      <c r="AG170" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH170" s="7">
+        <v>6</v>
+      </c>
+      <c r="AI170" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ170" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK170" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL170" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM170" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN170" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>31</v>
       </c>
@@ -6288,9 +9330,48 @@
       <c r="V171" s="7"/>
       <c r="W171" s="7"/>
       <c r="X171" s="8"/>
-      <c r="AC171" s="9"/>
-    </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y171" s="7"/>
+      <c r="Z171" s="7"/>
+      <c r="AA171" s="7"/>
+      <c r="AB171" s="21"/>
+      <c r="AC171" s="36">
+        <v>1</v>
+      </c>
+      <c r="AD171" s="31">
+        <v>5</v>
+      </c>
+      <c r="AE171" s="31">
+        <v>5</v>
+      </c>
+      <c r="AF171" s="43">
+        <v>0</v>
+      </c>
+      <c r="AG171" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH171" s="7">
+        <v>5</v>
+      </c>
+      <c r="AI171" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ171" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK171" s="36">
+        <v>1</v>
+      </c>
+      <c r="AL171" s="31">
+        <v>1</v>
+      </c>
+      <c r="AM171" s="31">
+        <v>5</v>
+      </c>
+      <c r="AN171" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>30</v>
       </c>
@@ -6322,9 +9403,56 @@
         <v>0</v>
       </c>
       <c r="X172" s="8"/>
-      <c r="AC172" s="9"/>
-    </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y172" s="36">
+        <v>1</v>
+      </c>
+      <c r="Z172" s="31">
+        <v>5</v>
+      </c>
+      <c r="AA172" s="31">
+        <v>4</v>
+      </c>
+      <c r="AB172" s="43">
+        <v>0</v>
+      </c>
+      <c r="AC172" s="36">
+        <v>1</v>
+      </c>
+      <c r="AD172" s="31">
+        <v>4</v>
+      </c>
+      <c r="AE172" s="31">
+        <v>5</v>
+      </c>
+      <c r="AF172" s="43">
+        <v>1</v>
+      </c>
+      <c r="AG172" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH172" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI172" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ172" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK172" s="27">
+        <v>2</v>
+      </c>
+      <c r="AL172" s="28">
+        <v>6</v>
+      </c>
+      <c r="AM172" s="28">
+        <v>4</v>
+      </c>
+      <c r="AN172" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>29</v>
       </c>
@@ -6356,9 +9484,56 @@
         <v>1</v>
       </c>
       <c r="X173" s="8"/>
-      <c r="AC173" s="9"/>
-    </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y173" s="36">
+        <v>1</v>
+      </c>
+      <c r="Z173" s="31">
+        <v>4</v>
+      </c>
+      <c r="AA173" s="31">
+        <v>4</v>
+      </c>
+      <c r="AB173" s="43">
+        <v>1</v>
+      </c>
+      <c r="AC173" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD173" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE173" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF173" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG173" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH173" s="7">
+        <v>4</v>
+      </c>
+      <c r="AI173" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ173" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK173" s="27">
+        <v>2</v>
+      </c>
+      <c r="AL173" s="28">
+        <v>5</v>
+      </c>
+      <c r="AM173" s="28">
+        <v>4</v>
+      </c>
+      <c r="AN173" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>28</v>
       </c>
@@ -6384,9 +9559,56 @@
       </c>
       <c r="W174" s="7"/>
       <c r="X174" s="8"/>
-      <c r="AC174" s="9"/>
-    </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y174" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z174" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA174" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB174" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC174" s="36">
+        <v>1</v>
+      </c>
+      <c r="AD174" s="31">
+        <v>3</v>
+      </c>
+      <c r="AE174" s="31">
+        <v>5</v>
+      </c>
+      <c r="AF174" s="43">
+        <v>2</v>
+      </c>
+      <c r="AG174" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH174" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI174" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ174" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK174" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL174" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM174" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN174" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>27</v>
       </c>
@@ -6418,9 +9640,56 @@
         <v>2</v>
       </c>
       <c r="X175" s="40"/>
-      <c r="AC175" s="9"/>
-    </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y175" s="36">
+        <v>1</v>
+      </c>
+      <c r="Z175" s="31">
+        <v>3</v>
+      </c>
+      <c r="AA175" s="31">
+        <v>4</v>
+      </c>
+      <c r="AB175" s="43">
+        <v>2</v>
+      </c>
+      <c r="AC175" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD175" s="7">
+        <v>5</v>
+      </c>
+      <c r="AE175" s="7">
+        <v>4</v>
+      </c>
+      <c r="AF175" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG175" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH175" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI175" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ175" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK175" s="27">
+        <v>2</v>
+      </c>
+      <c r="AL175" s="28">
+        <v>4</v>
+      </c>
+      <c r="AM175" s="28">
+        <v>4</v>
+      </c>
+      <c r="AN175" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>26</v>
       </c>
@@ -6454,9 +9723,56 @@
       <c r="X176" s="21">
         <v>3</v>
       </c>
-      <c r="AC176" s="9"/>
-    </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y176" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z176" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA176" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB176" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC176" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD176" s="7">
+        <v>4</v>
+      </c>
+      <c r="AE176" s="7">
+        <v>4</v>
+      </c>
+      <c r="AF176" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG176" s="36">
+        <v>1</v>
+      </c>
+      <c r="AH176" s="31">
+        <v>1</v>
+      </c>
+      <c r="AI176" s="31">
+        <v>4</v>
+      </c>
+      <c r="AJ176" s="43">
+        <v>5</v>
+      </c>
+      <c r="AK176" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL176" s="7">
+        <v>6</v>
+      </c>
+      <c r="AM176" s="7">
+        <v>3</v>
+      </c>
+      <c r="AN176" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>25</v>
       </c>
@@ -6490,9 +9806,56 @@
       <c r="X177" s="21">
         <v>3</v>
       </c>
-      <c r="AC177" s="9"/>
-    </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y177" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z177" s="7">
+        <v>4</v>
+      </c>
+      <c r="AA177" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB177" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC177" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD177" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE177" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF177" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG177" s="27">
+        <v>2</v>
+      </c>
+      <c r="AH177" s="28">
+        <v>6</v>
+      </c>
+      <c r="AI177" s="28">
+        <v>3</v>
+      </c>
+      <c r="AJ177" s="44">
+        <v>0</v>
+      </c>
+      <c r="AK177" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL177" s="7">
+        <v>5</v>
+      </c>
+      <c r="AM177" s="7">
+        <v>3</v>
+      </c>
+      <c r="AN177" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>24</v>
       </c>
@@ -6518,9 +9881,56 @@
       </c>
       <c r="W178" s="7"/>
       <c r="X178" s="8"/>
-      <c r="AC178" s="9"/>
-    </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y178" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z178" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA178" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB178" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC178" s="36">
+        <v>1</v>
+      </c>
+      <c r="AD178" s="31">
+        <v>2</v>
+      </c>
+      <c r="AE178" s="31">
+        <v>5</v>
+      </c>
+      <c r="AF178" s="43">
+        <v>3</v>
+      </c>
+      <c r="AG178" s="27">
+        <v>2</v>
+      </c>
+      <c r="AH178" s="28">
+        <v>5</v>
+      </c>
+      <c r="AI178" s="28">
+        <v>3</v>
+      </c>
+      <c r="AJ178" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK178" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL178" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM178" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN178" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>23</v>
       </c>
@@ -6554,9 +9964,56 @@
       <c r="X179" s="41">
         <v>1</v>
       </c>
-      <c r="AC179" s="9"/>
-    </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y179" s="36">
+        <v>1</v>
+      </c>
+      <c r="Z179" s="31">
+        <v>2</v>
+      </c>
+      <c r="AA179" s="31">
+        <v>4</v>
+      </c>
+      <c r="AB179" s="43">
+        <v>3</v>
+      </c>
+      <c r="AC179" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD179" s="7">
+        <v>5</v>
+      </c>
+      <c r="AE179" s="7">
+        <v>4</v>
+      </c>
+      <c r="AF179" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG179" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH179" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI179" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ179" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK179" s="27">
+        <v>2</v>
+      </c>
+      <c r="AL179" s="28">
+        <v>3</v>
+      </c>
+      <c r="AM179" s="28">
+        <v>4</v>
+      </c>
+      <c r="AN179" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>22</v>
       </c>
@@ -6590,9 +10047,56 @@
       <c r="X180" s="21">
         <v>3</v>
       </c>
-      <c r="AC180" s="9"/>
-    </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y180" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z180" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA180" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB180" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC180" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD180" s="7">
+        <v>4</v>
+      </c>
+      <c r="AE180" s="7">
+        <v>4</v>
+      </c>
+      <c r="AF180" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG180" s="27">
+        <v>2</v>
+      </c>
+      <c r="AH180" s="28">
+        <v>4</v>
+      </c>
+      <c r="AI180" s="28">
+        <v>3</v>
+      </c>
+      <c r="AJ180" s="44">
+        <v>2</v>
+      </c>
+      <c r="AK180" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL180" s="7">
+        <v>6</v>
+      </c>
+      <c r="AM180" s="7">
+        <v>3</v>
+      </c>
+      <c r="AN180" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>21</v>
       </c>
@@ -6627,20 +10131,55 @@
         <v>3</v>
       </c>
       <c r="Y181" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z181" s="7">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="AA181" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB181" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC181" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD181" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE181" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF181" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG181" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH181" s="7">
+        <v>6</v>
+      </c>
+      <c r="AI181" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ181" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK181" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL181" s="7">
         <v>5</v>
       </c>
-      <c r="AB181" s="7">
-        <v>4</v>
-      </c>
-      <c r="AC181" s="9"/>
-    </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AM181" s="7">
+        <v>3</v>
+      </c>
+      <c r="AN181" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>20</v>
       </c>
@@ -6666,21 +10205,56 @@
       </c>
       <c r="W182" s="7"/>
       <c r="X182" s="8"/>
-      <c r="Y182" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z182" s="7">
-        <v>29</v>
-      </c>
-      <c r="AA182" s="7">
+      <c r="Y182" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z182" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA182" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB182" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC182" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD182" s="7">
+        <v>3</v>
+      </c>
+      <c r="AE182" s="7">
         <v>4</v>
       </c>
-      <c r="AB182" s="7">
-        <v>4</v>
-      </c>
-      <c r="AC182" s="9"/>
-    </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AF182" s="8">
+        <v>2</v>
+      </c>
+      <c r="AG182" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH182" s="7">
+        <v>5</v>
+      </c>
+      <c r="AI182" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ182" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK182" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL182" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM182" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN182" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>19</v>
       </c>
@@ -6714,21 +10288,56 @@
       <c r="X183" s="21">
         <v>2</v>
       </c>
-      <c r="Y183" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z183" s="7">
-        <v>27</v>
-      </c>
-      <c r="AA183" s="7">
-        <v>3</v>
-      </c>
-      <c r="AB183" s="7">
+      <c r="Y183" s="27">
+        <v>2</v>
+      </c>
+      <c r="Z183" s="28">
+        <v>3</v>
+      </c>
+      <c r="AA183" s="28">
+        <v>3</v>
+      </c>
+      <c r="AB183" s="44">
+        <v>2</v>
+      </c>
+      <c r="AC183" s="6">
+        <v>3</v>
+      </c>
+      <c r="AD183" s="7">
+        <v>5</v>
+      </c>
+      <c r="AE183" s="7">
+        <v>3</v>
+      </c>
+      <c r="AF183" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG183" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH183" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI183" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ183" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK183" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL183" s="7">
         <v>4</v>
       </c>
-      <c r="AC183" s="9"/>
-    </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AM183" s="7">
+        <v>3</v>
+      </c>
+      <c r="AN183" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>18</v>
       </c>
@@ -6763,20 +10372,55 @@
         <v>3</v>
       </c>
       <c r="Y184" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z184" s="7">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="AA184" s="7">
-        <v>5</v>
-      </c>
-      <c r="AB184" s="7">
-        <v>3</v>
-      </c>
-      <c r="AC184" s="9"/>
-    </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="AB184" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC184" s="6">
+        <v>3</v>
+      </c>
+      <c r="AD184" s="7">
+        <v>4</v>
+      </c>
+      <c r="AE184" s="7">
+        <v>3</v>
+      </c>
+      <c r="AF184" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG184" s="27">
+        <v>2</v>
+      </c>
+      <c r="AH184" s="28">
+        <v>3</v>
+      </c>
+      <c r="AI184" s="28">
+        <v>3</v>
+      </c>
+      <c r="AJ184" s="44">
+        <v>3</v>
+      </c>
+      <c r="AK184" s="6">
+        <v>4</v>
+      </c>
+      <c r="AL184" s="7">
+        <v>6</v>
+      </c>
+      <c r="AM184" s="7">
+        <v>2</v>
+      </c>
+      <c r="AN184" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>17</v>
       </c>
@@ -6811,20 +10455,55 @@
         <v>3</v>
       </c>
       <c r="Y185" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z185" s="7">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="AA185" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB185" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC185" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD185" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE185" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF185" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG185" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH185" s="7">
+        <v>6</v>
+      </c>
+      <c r="AI185" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ185" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK185" s="6">
         <v>4</v>
       </c>
-      <c r="AB185" s="7">
-        <v>3</v>
-      </c>
-      <c r="AC185" s="9"/>
-    </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AL185" s="7">
+        <v>5</v>
+      </c>
+      <c r="AM185" s="7">
+        <v>2</v>
+      </c>
+      <c r="AN185" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>16</v>
       </c>
@@ -6850,21 +10529,56 @@
       </c>
       <c r="W186" s="7"/>
       <c r="X186" s="8"/>
-      <c r="Y186" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z186" s="7">
-        <v>23</v>
-      </c>
-      <c r="AA186" s="7">
-        <v>2</v>
-      </c>
-      <c r="AB186" s="7">
+      <c r="Y186" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z186" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA186" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB186" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC186" s="36">
+        <v>1</v>
+      </c>
+      <c r="AD186" s="31">
+        <v>1</v>
+      </c>
+      <c r="AE186" s="31">
+        <v>5</v>
+      </c>
+      <c r="AF186" s="43">
         <v>4</v>
       </c>
-      <c r="AC186" s="9"/>
-    </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AG186" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH186" s="7">
+        <v>5</v>
+      </c>
+      <c r="AI186" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ186" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK186" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL186" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM186" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN186" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>15</v>
       </c>
@@ -6898,20 +10612,56 @@
       <c r="X187" s="42">
         <v>1</v>
       </c>
-      <c r="Y187" s="7">
-        <v>2</v>
-      </c>
-      <c r="Z187" s="7">
-        <v>22</v>
-      </c>
-      <c r="AA187" s="7">
+      <c r="Y187" s="36">
+        <v>1</v>
+      </c>
+      <c r="Z187" s="31">
+        <v>1</v>
+      </c>
+      <c r="AA187" s="31">
+        <v>4</v>
+      </c>
+      <c r="AB187" s="43">
+        <v>4</v>
+      </c>
+      <c r="AC187" s="27">
+        <v>2</v>
+      </c>
+      <c r="AD187" s="28">
         <v>5</v>
       </c>
-      <c r="AB187" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE187" s="28">
+        <v>4</v>
+      </c>
+      <c r="AF187" s="44">
+        <v>0</v>
+      </c>
+      <c r="AG187" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH187" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI187" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ187" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK187" s="27">
+        <v>2</v>
+      </c>
+      <c r="AL187" s="28">
+        <v>2</v>
+      </c>
+      <c r="AM187" s="28">
+        <v>4</v>
+      </c>
+      <c r="AN187" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>14</v>
       </c>
@@ -6954,20 +10704,56 @@
       <c r="X188" s="21">
         <v>3</v>
       </c>
-      <c r="Y188" s="7">
-        <v>2</v>
-      </c>
-      <c r="Z188" s="7">
-        <v>21</v>
-      </c>
-      <c r="AA188" s="7">
+      <c r="Y188" s="27">
+        <v>2</v>
+      </c>
+      <c r="Z188" s="28">
+        <v>5</v>
+      </c>
+      <c r="AA188" s="28">
+        <v>3</v>
+      </c>
+      <c r="AB188" s="44">
+        <v>0</v>
+      </c>
+      <c r="AC188" s="27">
+        <v>2</v>
+      </c>
+      <c r="AD188" s="28">
         <v>4</v>
       </c>
-      <c r="AB188" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE188" s="28">
+        <v>4</v>
+      </c>
+      <c r="AF188" s="44">
+        <v>1</v>
+      </c>
+      <c r="AG188" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH188" s="7">
+        <v>4</v>
+      </c>
+      <c r="AI188" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ188" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK188" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL188" s="7">
+        <v>6</v>
+      </c>
+      <c r="AM188" s="7">
+        <v>3</v>
+      </c>
+      <c r="AN188" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>13</v>
       </c>
@@ -7001,20 +10787,56 @@
       <c r="X189" s="21">
         <v>3</v>
       </c>
-      <c r="Y189" s="7">
-        <v>2</v>
-      </c>
-      <c r="Z189" s="7">
-        <v>19</v>
-      </c>
-      <c r="AA189" s="7">
-        <v>3</v>
-      </c>
-      <c r="AB189" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y189" s="27">
+        <v>2</v>
+      </c>
+      <c r="Z189" s="28">
+        <v>4</v>
+      </c>
+      <c r="AA189" s="28">
+        <v>3</v>
+      </c>
+      <c r="AB189" s="44">
+        <v>1</v>
+      </c>
+      <c r="AC189" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD189" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE189" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF189" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG189" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH189" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI189" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ189" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK189" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL189" s="7">
+        <v>5</v>
+      </c>
+      <c r="AM189" s="7">
+        <v>3</v>
+      </c>
+      <c r="AN189" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>12</v>
       </c>
@@ -7043,20 +10865,56 @@
       </c>
       <c r="W190" s="7"/>
       <c r="X190" s="8"/>
-      <c r="Y190" s="7">
-        <v>3</v>
-      </c>
-      <c r="Z190" s="7">
-        <v>18</v>
-      </c>
-      <c r="AA190" s="7">
-        <v>5</v>
-      </c>
-      <c r="AB190" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y190" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z190" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA190" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB190" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC190" s="27">
+        <v>2</v>
+      </c>
+      <c r="AD190" s="28">
+        <v>3</v>
+      </c>
+      <c r="AE190" s="28">
+        <v>4</v>
+      </c>
+      <c r="AF190" s="44">
+        <v>2</v>
+      </c>
+      <c r="AG190" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH190" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI190" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ190" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK190" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL190" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM190" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN190" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>11</v>
       </c>
@@ -7087,20 +10945,56 @@
       <c r="X191" s="21">
         <v>2</v>
       </c>
-      <c r="Y191" s="7">
-        <v>3</v>
-      </c>
-      <c r="Z191" s="7">
-        <v>17</v>
-      </c>
-      <c r="AA191" s="7">
+      <c r="Y191" s="27">
+        <v>2</v>
+      </c>
+      <c r="Z191" s="28">
+        <v>3</v>
+      </c>
+      <c r="AA191" s="28">
+        <v>3</v>
+      </c>
+      <c r="AB191" s="44">
+        <v>2</v>
+      </c>
+      <c r="AC191" s="6">
+        <v>3</v>
+      </c>
+      <c r="AD191" s="7">
+        <v>5</v>
+      </c>
+      <c r="AE191" s="7">
+        <v>3</v>
+      </c>
+      <c r="AF191" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG191" s="27">
+        <v>2</v>
+      </c>
+      <c r="AH191" s="28">
+        <v>2</v>
+      </c>
+      <c r="AI191" s="28">
+        <v>3</v>
+      </c>
+      <c r="AJ191" s="44">
         <v>4</v>
       </c>
-      <c r="AB191" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AK191" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL191" s="7">
+        <v>4</v>
+      </c>
+      <c r="AM191" s="7">
+        <v>3</v>
+      </c>
+      <c r="AN191" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>10</v>
       </c>
@@ -7138,19 +11032,55 @@
         <v>3</v>
       </c>
       <c r="Y192" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z192" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AA192" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB192" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB192" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC192" s="6">
+        <v>3</v>
+      </c>
+      <c r="AD192" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE192" s="7">
+        <v>3</v>
+      </c>
+      <c r="AF192" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG192" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH192" s="7">
+        <v>6</v>
+      </c>
+      <c r="AI192" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ192" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK192" s="6">
+        <v>4</v>
+      </c>
+      <c r="AL192" s="7">
+        <v>6</v>
+      </c>
+      <c r="AM192" s="7">
+        <v>2</v>
+      </c>
+      <c r="AN192" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>9</v>
       </c>
@@ -7185,19 +11115,55 @@
         <v>3</v>
       </c>
       <c r="Y193" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z193" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AA193" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB193" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC193" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD193" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE193" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF193" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG193" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH193" s="7">
         <v>5</v>
       </c>
-      <c r="AB193" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AI193" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ193" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK193" s="6">
+        <v>4</v>
+      </c>
+      <c r="AL193" s="7">
+        <v>5</v>
+      </c>
+      <c r="AM193" s="7">
+        <v>2</v>
+      </c>
+      <c r="AN193" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>8</v>
       </c>
@@ -7244,20 +11210,56 @@
       </c>
       <c r="W194" s="7"/>
       <c r="X194" s="8"/>
-      <c r="Y194" s="7">
-        <v>2</v>
-      </c>
-      <c r="Z194" s="7">
-        <v>13</v>
-      </c>
-      <c r="AA194" s="7">
+      <c r="Y194" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z194" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA194" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB194" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC194" s="27">
+        <v>2</v>
+      </c>
+      <c r="AD194" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE194" s="28">
         <v>4</v>
       </c>
-      <c r="AB194" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AF194" s="44">
+        <v>3</v>
+      </c>
+      <c r="AG194" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH194" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI194" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ194" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK194" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL194" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM194" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN194" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>7</v>
       </c>
@@ -7306,20 +11308,56 @@
       <c r="X195" s="25">
         <v>1</v>
       </c>
-      <c r="Y195" s="7">
-        <v>2</v>
-      </c>
-      <c r="Z195" s="7">
-        <v>11</v>
-      </c>
-      <c r="AA195" s="7">
-        <v>3</v>
-      </c>
-      <c r="AB195" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y195" s="27">
+        <v>2</v>
+      </c>
+      <c r="Z195" s="28">
+        <v>2</v>
+      </c>
+      <c r="AA195" s="28">
+        <v>3</v>
+      </c>
+      <c r="AB195" s="44">
+        <v>3</v>
+      </c>
+      <c r="AC195" s="6">
+        <v>3</v>
+      </c>
+      <c r="AD195" s="7">
+        <v>5</v>
+      </c>
+      <c r="AE195" s="7">
+        <v>3</v>
+      </c>
+      <c r="AF195" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG195" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH195" s="7">
+        <v>4</v>
+      </c>
+      <c r="AI195" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ195" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK195" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL195" s="7">
+        <v>3</v>
+      </c>
+      <c r="AM195" s="7">
+        <v>3</v>
+      </c>
+      <c r="AN195" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>6</v>
       </c>
@@ -7355,16 +11393,52 @@
         <v>3</v>
       </c>
       <c r="Z196" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA196" s="7">
-        <v>5</v>
-      </c>
-      <c r="AB196" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="AB196" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC196" s="6">
+        <v>3</v>
+      </c>
+      <c r="AD196" s="7">
+        <v>4</v>
+      </c>
+      <c r="AE196" s="7">
+        <v>3</v>
+      </c>
+      <c r="AF196" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG196" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH196" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI196" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ196" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK196" s="6">
+        <v>4</v>
+      </c>
+      <c r="AL196" s="7">
+        <v>6</v>
+      </c>
+      <c r="AM196" s="7">
+        <v>2</v>
+      </c>
+      <c r="AN196" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>5</v>
       </c>
@@ -7407,16 +11481,52 @@
         <v>3</v>
       </c>
       <c r="Z197" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AA197" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB197" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC197" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD197" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE197" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF197" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG197" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH197" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI197" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ197" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK197" s="6">
         <v>4</v>
       </c>
-      <c r="AB197" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AL197" s="7">
+        <v>5</v>
+      </c>
+      <c r="AM197" s="7">
+        <v>2</v>
+      </c>
+      <c r="AN197" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>4</v>
       </c>
@@ -7469,20 +11579,56 @@
       </c>
       <c r="W198" s="7"/>
       <c r="X198" s="12"/>
-      <c r="Y198" s="7">
-        <v>2</v>
-      </c>
-      <c r="Z198" s="7">
-        <v>7</v>
-      </c>
-      <c r="AA198" s="7">
-        <v>2</v>
-      </c>
-      <c r="AB198" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y198" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z198" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA198" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB198" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC198" s="6">
+        <v>3</v>
+      </c>
+      <c r="AD198" s="7">
+        <v>3</v>
+      </c>
+      <c r="AE198" s="7">
+        <v>3</v>
+      </c>
+      <c r="AF198" s="8">
+        <v>2</v>
+      </c>
+      <c r="AG198" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH198" s="7">
+        <v>3</v>
+      </c>
+      <c r="AI198" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ198" s="8">
+        <v>3</v>
+      </c>
+      <c r="AK198" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL198" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM198" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN198" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>3</v>
       </c>
@@ -7533,16 +11679,52 @@
         <v>3</v>
       </c>
       <c r="Z199" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AA199" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB199" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC199" s="6">
+        <v>4</v>
+      </c>
+      <c r="AD199" s="7">
         <v>5</v>
       </c>
-      <c r="AB199" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE199" s="7">
+        <v>2</v>
+      </c>
+      <c r="AF199" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG199" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH199" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI199" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ199" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK199" s="6">
+        <v>4</v>
+      </c>
+      <c r="AL199" s="7">
+        <v>4</v>
+      </c>
+      <c r="AM199" s="7">
+        <v>2</v>
+      </c>
+      <c r="AN199" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2</v>
       </c>
@@ -7581,20 +11763,56 @@
       </c>
       <c r="W200" s="18"/>
       <c r="X200" s="8"/>
-      <c r="Y200" s="7">
-        <v>3</v>
-      </c>
-      <c r="Z200" s="7">
-        <v>5</v>
-      </c>
-      <c r="AA200" s="7">
+      <c r="Y200" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z200" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA200" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB200" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC200" s="6">
         <v>4</v>
       </c>
-      <c r="AB200" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD200" s="7">
+        <v>4</v>
+      </c>
+      <c r="AE200" s="7">
+        <v>2</v>
+      </c>
+      <c r="AF200" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG200" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH200" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI200" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ200" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK200" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL200" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM200" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN200" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -7630,20 +11848,56 @@
       </c>
       <c r="W201" s="18"/>
       <c r="X201" s="8"/>
-      <c r="Y201" s="7">
-        <v>3</v>
-      </c>
-      <c r="Z201" s="7">
-        <v>3</v>
-      </c>
-      <c r="AA201" s="7">
-        <v>3</v>
-      </c>
-      <c r="AB201" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y201" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z201" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA201" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB201" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC201" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD201" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE201" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF201" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG201" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH201" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI201" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ201" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK201" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL201" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM201" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN201" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="202" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>0</v>
       </c>
@@ -7712,38 +11966,79 @@
         <v>5</v>
       </c>
       <c r="X202" s="9"/>
-      <c r="Y202" s="7"/>
-      <c r="Z202" s="7"/>
-      <c r="AA202" s="7"/>
-      <c r="AB202" s="7"/>
-    </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y202" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z202" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA202" s="9">
+        <v>4</v>
+      </c>
+      <c r="AB202" s="8">
+        <v>5</v>
+      </c>
+      <c r="AC202" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD202" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE202" s="7">
+        <v>5</v>
+      </c>
+      <c r="AF202" s="8">
+        <v>5</v>
+      </c>
+      <c r="AG202" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH202" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI202" s="7">
+        <v>4</v>
+      </c>
+      <c r="AJ202" s="8">
+        <v>6</v>
+      </c>
+      <c r="AK202" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL202" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM202" s="7">
+        <v>5</v>
+      </c>
+      <c r="AN202" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:40" x14ac:dyDescent="0.25">
       <c r="Y203" s="7"/>
       <c r="Z203" s="7"/>
       <c r="AA203" s="7"/>
-      <c r="AB203" s="7"/>
-    </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:40" x14ac:dyDescent="0.25">
       <c r="Y204" s="7"/>
       <c r="Z204" s="7"/>
       <c r="AA204" s="7"/>
-      <c r="AB204" s="7"/>
-    </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:40" x14ac:dyDescent="0.25">
       <c r="Y205" s="9"/>
-      <c r="Z205" s="9"/>
-    </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:40" x14ac:dyDescent="0.25">
       <c r="N206" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:40" x14ac:dyDescent="0.25">
       <c r="N207" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:40" x14ac:dyDescent="0.25">
       <c r="N208" t="s">
         <v>10</v>
       </c>
@@ -7754,8 +12049,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="Y166:AC186">
-    <sortCondition descending="1" ref="AC166:AC186"/>
+  <sortState ref="Y166:AB186">
+    <sortCondition descending="1" ref="AB166:AB186"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/solutions/fabergè_easter_eggs_crush_test.xlsx
+++ b/solutions/fabergè_easter_eggs_crush_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="29">
   <si>
     <t>floor</t>
   </si>
@@ -37,18 +37,6 @@
   </si>
   <si>
     <t>eggs left</t>
-  </si>
-  <si>
-    <t>eggs_left -= 1</t>
-  </si>
-  <si>
-    <t>next_floor = (eggs_left - 1) * (attempts - eggs_left) * eggs_left + eggs_left</t>
-  </si>
-  <si>
-    <t>next_floor = (2 - 1) * (14 - 2) * 2 - 2</t>
-  </si>
-  <si>
-    <t>next_floor = 1 * 12 * 2 - 2 = 22</t>
   </si>
   <si>
     <t>before_last_attempt = min(eggs, attempts_left) - 1</t>
@@ -86,6 +74,45 @@
   <si>
     <t>tries</t>
   </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>no. of segments</t>
+  </si>
+  <si>
+    <t>tries - (level - 1)</t>
+  </si>
+  <si>
+    <t>segment</t>
+  </si>
+  <si>
+    <t>no. sub levels</t>
+  </si>
+  <si>
+    <t>=sum(no(level1) - 2, 1)</t>
+  </si>
+  <si>
+    <t>=sum(no(level1) - 3, 1)</t>
+  </si>
+  <si>
+    <t>=sum(no(level1) - 4, 1)</t>
+  </si>
+  <si>
+    <t>=sum(no(level1) - 5, 1)</t>
+  </si>
+  <si>
+    <t>=sum(no(level2) - 2, 1) + [no(level2) - 2]</t>
+  </si>
+  <si>
+    <t>3 + 3</t>
+  </si>
+  <si>
+    <t>=sum(no(level2) - 3, 1) + [no(level2) - 3]</t>
+  </si>
+  <si>
+    <t>2 + 2</t>
+  </si>
 </sst>
 </file>
 
@@ -113,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +156,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -256,6 +301,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,1242 +627,351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N202"/>
+  <dimension ref="A1:O188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C222" sqref="C222"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="7" width="10.140625" customWidth="1"/>
+    <col min="3" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1.6</v>
+      </c>
+      <c r="G1">
+        <v>1.6</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+      <c r="G2">
+        <v>1.5</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.4</v>
+      </c>
+      <c r="B3">
+        <v>2.5</v>
+      </c>
+      <c r="G3">
+        <v>1.4</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2.4</v>
+      </c>
+      <c r="G4">
+        <v>1.3</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.3</v>
+      </c>
+      <c r="B5">
+        <v>2.5</v>
+      </c>
+      <c r="G5">
+        <v>1.2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2.4</v>
+      </c>
+      <c r="G6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="G7">
+        <v>2.5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="G8">
+        <v>2.4</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1.2</v>
+      </c>
+      <c r="B9">
+        <v>2.5</v>
+      </c>
+      <c r="G9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2.4</v>
+      </c>
+      <c r="G10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="G12" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="G13" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="G14" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="G15" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>105</v>
-      </c>
-      <c r="B97">
-        <v>14</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>104</v>
-      </c>
-      <c r="B98">
-        <v>13</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>102</v>
-      </c>
-      <c r="B100">
-        <v>12</v>
-      </c>
-      <c r="C100">
-        <v>2</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>99</v>
-      </c>
-      <c r="B103">
-        <v>11</v>
-      </c>
-      <c r="C103">
-        <v>3</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>95</v>
-      </c>
-      <c r="B107">
-        <v>10</v>
-      </c>
-      <c r="C107">
-        <v>4</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>90</v>
-      </c>
-      <c r="B112">
-        <v>9</v>
-      </c>
-      <c r="C112">
-        <v>5</v>
-      </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>84</v>
-      </c>
-      <c r="B118">
-        <v>8</v>
-      </c>
-      <c r="C118">
-        <v>6</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>77</v>
-      </c>
-      <c r="B125">
-        <v>7</v>
-      </c>
-      <c r="C125">
-        <v>7</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>69</v>
-      </c>
-      <c r="B133">
-        <v>6</v>
-      </c>
-      <c r="C133">
-        <v>8</v>
-      </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>60</v>
-      </c>
-      <c r="B142">
-        <v>5</v>
-      </c>
-      <c r="C142">
-        <v>9</v>
-      </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>50</v>
-      </c>
-      <c r="B152">
-        <v>4</v>
-      </c>
-      <c r="C152">
-        <v>10</v>
-      </c>
-      <c r="D152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>42</v>
-      </c>
-      <c r="H160">
-        <v>1</v>
-      </c>
-      <c r="I160">
-        <v>13</v>
-      </c>
-      <c r="J160">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>39</v>
-      </c>
-      <c r="B163">
-        <v>3</v>
-      </c>
-      <c r="C163">
-        <v>11</v>
-      </c>
-      <c r="D163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>29</v>
-      </c>
-      <c r="N173" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>28</v>
-      </c>
-      <c r="M174" s="2"/>
-      <c r="N174" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>27</v>
-      </c>
-      <c r="B175">
-        <v>2</v>
-      </c>
-      <c r="C175">
-        <v>12</v>
-      </c>
-      <c r="D175">
-        <v>1</v>
-      </c>
-      <c r="N175" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>26</v>
-      </c>
-      <c r="E176">
-        <v>1</v>
-      </c>
-      <c r="F176">
-        <v>13</v>
-      </c>
-      <c r="G176">
-        <v>2</v>
-      </c>
-      <c r="N176" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>14</v>
-      </c>
-      <c r="B188">
-        <v>1</v>
-      </c>
-      <c r="C188">
-        <v>13</v>
-      </c>
-      <c r="D188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>13</v>
-      </c>
-      <c r="E189">
-        <v>2</v>
-      </c>
-      <c r="F189">
-        <v>12</v>
-      </c>
-      <c r="G189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>0</v>
-      </c>
-      <c r="B202">
-        <v>0</v>
-      </c>
-      <c r="C202">
-        <v>14</v>
-      </c>
-      <c r="D202">
-        <v>2</v>
-      </c>
-      <c r="E202">
-        <v>0</v>
-      </c>
-      <c r="F202">
-        <v>14</v>
-      </c>
-      <c r="G202">
-        <v>3</v>
-      </c>
-      <c r="H202">
-        <v>0</v>
-      </c>
-      <c r="I202">
-        <v>14</v>
-      </c>
-      <c r="J202">
-        <v>4</v>
-      </c>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="7">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="C25" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D27" s="7">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="188" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O188" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1815,13 +981,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN209"/>
+  <dimension ref="A1:AT209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X181" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AG141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK170" sqref="AK170"/>
+      <selection pane="bottomRight" activeCell="AL187" sqref="AL187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,9 +995,11 @@
     <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="4" width="10.140625" customWidth="1"/>
+    <col min="45" max="45" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1866,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="U1" s="4" t="s">
         <v>1</v>
@@ -1878,58 +1046,61 @@
         <v>2</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Z1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>200</v>
       </c>
@@ -1970,7 +1141,7 @@
       <c r="AM2" s="7"/>
       <c r="AN2" s="8"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>199</v>
       </c>
@@ -2011,7 +1182,7 @@
       <c r="AM3" s="7"/>
       <c r="AN3" s="8"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>198</v>
       </c>
@@ -2052,7 +1223,7 @@
       <c r="AM4" s="7"/>
       <c r="AN4" s="8"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>197</v>
       </c>
@@ -2093,7 +1264,7 @@
       <c r="AM5" s="7"/>
       <c r="AN5" s="8"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>196</v>
       </c>
@@ -2134,7 +1305,7 @@
       <c r="AM6" s="7"/>
       <c r="AN6" s="8"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>195</v>
       </c>
@@ -2175,7 +1346,7 @@
       <c r="AM7" s="7"/>
       <c r="AN7" s="8"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>194</v>
       </c>
@@ -2216,7 +1387,7 @@
       <c r="AM8" s="7"/>
       <c r="AN8" s="8"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>193</v>
       </c>
@@ -2257,7 +1428,7 @@
       <c r="AM9" s="7"/>
       <c r="AN9" s="8"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>192</v>
       </c>
@@ -2298,7 +1469,7 @@
       <c r="AM10" s="7"/>
       <c r="AN10" s="8"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>191</v>
       </c>
@@ -2339,7 +1510,7 @@
       <c r="AM11" s="7"/>
       <c r="AN11" s="8"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>190</v>
       </c>
@@ -2380,7 +1551,7 @@
       <c r="AM12" s="7"/>
       <c r="AN12" s="8"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>189</v>
       </c>
@@ -2421,7 +1592,7 @@
       <c r="AM13" s="7"/>
       <c r="AN13" s="8"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>188</v>
       </c>
@@ -2462,7 +1633,7 @@
       <c r="AM14" s="7"/>
       <c r="AN14" s="8"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>187</v>
       </c>
@@ -2503,7 +1674,7 @@
       <c r="AM15" s="7"/>
       <c r="AN15" s="8"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>186</v>
       </c>
@@ -7136,7 +6307,7 @@
       <c r="AM128" s="7"/>
       <c r="AN128" s="8"/>
     </row>
-    <row r="129" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>73</v>
       </c>
@@ -7177,7 +6348,7 @@
       <c r="AM129" s="7"/>
       <c r="AN129" s="8"/>
     </row>
-    <row r="130" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>72</v>
       </c>
@@ -7218,7 +6389,7 @@
       <c r="AM130" s="7"/>
       <c r="AN130" s="8"/>
     </row>
-    <row r="131" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>71</v>
       </c>
@@ -7259,7 +6430,7 @@
       <c r="AM131" s="7"/>
       <c r="AN131" s="8"/>
     </row>
-    <row r="132" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>70</v>
       </c>
@@ -7300,7 +6471,7 @@
       <c r="AM132" s="7"/>
       <c r="AN132" s="8"/>
     </row>
-    <row r="133" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>69</v>
       </c>
@@ -7341,7 +6512,7 @@
       <c r="AM133" s="7"/>
       <c r="AN133" s="8"/>
     </row>
-    <row r="134" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>68</v>
       </c>
@@ -7382,7 +6553,7 @@
       <c r="AM134" s="7"/>
       <c r="AN134" s="8"/>
     </row>
-    <row r="135" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>67</v>
       </c>
@@ -7423,7 +6594,7 @@
       <c r="AM135" s="7"/>
       <c r="AN135" s="8"/>
     </row>
-    <row r="136" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>66</v>
       </c>
@@ -7464,7 +6635,7 @@
       <c r="AM136" s="7"/>
       <c r="AN136" s="8"/>
     </row>
-    <row r="137" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>65</v>
       </c>
@@ -7505,7 +6676,7 @@
       <c r="AM137" s="7"/>
       <c r="AN137" s="8"/>
     </row>
-    <row r="138" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>64</v>
       </c>
@@ -7546,7 +6717,7 @@
       <c r="AM138" s="7"/>
       <c r="AN138" s="8"/>
     </row>
-    <row r="139" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>63</v>
       </c>
@@ -7587,7 +6758,7 @@
       <c r="AM139" s="7"/>
       <c r="AN139" s="8"/>
     </row>
-    <row r="140" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>62</v>
       </c>
@@ -7635,8 +6806,16 @@
       <c r="AN140" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO140" t="str">
+        <f t="shared" ref="AO140:AO191" si="0">AK140&amp;AL140</f>
+        <v>16</v>
+      </c>
+      <c r="AP140">
+        <f t="shared" ref="AP140:AP198" si="1">IF(AO140 = "- -", "",COUNTIF(AO$140:AO$201,AO140))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>61</v>
       </c>
@@ -7684,8 +6863,16 @@
       <c r="AN141" s="43">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO141" t="str">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AP141">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>60</v>
       </c>
@@ -7722,19 +6909,27 @@
       <c r="AI142" s="7"/>
       <c r="AJ142" s="8"/>
       <c r="AK142" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AL142" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AM142" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AN142" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="143" spans="1:40" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="AO142" t="str">
+        <f t="shared" si="0"/>
+        <v>- -</v>
+      </c>
+      <c r="AP142" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>59</v>
       </c>
@@ -7782,8 +6977,16 @@
       <c r="AN143" s="43">
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO143" t="str">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AP143">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>58</v>
       </c>
@@ -7819,20 +7022,28 @@
       <c r="AH144" s="7"/>
       <c r="AI144" s="7"/>
       <c r="AJ144" s="8"/>
-      <c r="AK144" s="6">
-        <v>2</v>
-      </c>
-      <c r="AL144" s="7">
+      <c r="AK144" s="45">
+        <v>2</v>
+      </c>
+      <c r="AL144" s="46">
         <v>6</v>
       </c>
-      <c r="AM144" s="7">
-        <v>4</v>
-      </c>
-      <c r="AN144" s="8">
+      <c r="AM144" s="46">
+        <v>4</v>
+      </c>
+      <c r="AN144" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO144" t="str">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AP144">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>57</v>
       </c>
@@ -7868,20 +7079,28 @@
       <c r="AH145" s="7"/>
       <c r="AI145" s="7"/>
       <c r="AJ145" s="8"/>
-      <c r="AK145" s="6">
-        <v>2</v>
-      </c>
-      <c r="AL145" s="7">
+      <c r="AK145" s="45">
+        <v>2</v>
+      </c>
+      <c r="AL145" s="46">
         <v>5</v>
       </c>
-      <c r="AM145" s="7">
-        <v>4</v>
-      </c>
-      <c r="AN145" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM145" s="46">
+        <v>4</v>
+      </c>
+      <c r="AN145" s="47">
+        <v>1</v>
+      </c>
+      <c r="AO145" t="str">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AP145">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>56</v>
       </c>
@@ -7926,19 +7145,27 @@
         <v>0</v>
       </c>
       <c r="AK146" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AL146" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AM146" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AN146" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="147" spans="1:40" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="AO146" t="str">
+        <f t="shared" si="0"/>
+        <v>- -</v>
+      </c>
+      <c r="AP146" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>55</v>
       </c>
@@ -7994,8 +7221,16 @@
       <c r="AN147" s="43">
         <v>3</v>
       </c>
-    </row>
-    <row r="148" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO147" t="str">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AP147">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>54</v>
       </c>
@@ -8028,31 +7263,39 @@
       <c r="AE148" s="7"/>
       <c r="AF148" s="8"/>
       <c r="AG148" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH148" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI148" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ148" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK148" s="6">
-        <v>2</v>
-      </c>
-      <c r="AL148" s="7">
+        <v>14</v>
+      </c>
+      <c r="AK148" s="45">
+        <v>2</v>
+      </c>
+      <c r="AL148" s="46">
         <v>6</v>
       </c>
-      <c r="AM148" s="7">
-        <v>4</v>
-      </c>
-      <c r="AN148" s="8">
+      <c r="AM148" s="46">
+        <v>4</v>
+      </c>
+      <c r="AN148" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO148" t="str">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AP148">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>53</v>
       </c>
@@ -8096,20 +7339,28 @@
       <c r="AJ149" s="43">
         <v>2</v>
       </c>
-      <c r="AK149" s="6">
-        <v>2</v>
-      </c>
-      <c r="AL149" s="7">
+      <c r="AK149" s="45">
+        <v>2</v>
+      </c>
+      <c r="AL149" s="46">
         <v>5</v>
       </c>
-      <c r="AM149" s="7">
-        <v>4</v>
-      </c>
-      <c r="AN149" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM149" s="46">
+        <v>4</v>
+      </c>
+      <c r="AN149" s="47">
+        <v>1</v>
+      </c>
+      <c r="AO149" t="str">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AP149">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>52</v>
       </c>
@@ -8154,19 +7405,27 @@
         <v>0</v>
       </c>
       <c r="AK150" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AL150" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AM150" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AN150" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="151" spans="1:40" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="AO150" t="str">
+        <f t="shared" si="0"/>
+        <v>- -</v>
+      </c>
+      <c r="AP150" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>51</v>
       </c>
@@ -8210,20 +7469,28 @@
       <c r="AJ151" s="8">
         <v>1</v>
       </c>
-      <c r="AK151" s="6">
-        <v>2</v>
-      </c>
-      <c r="AL151" s="7">
-        <v>4</v>
-      </c>
-      <c r="AM151" s="7">
-        <v>4</v>
-      </c>
-      <c r="AN151" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AK151" s="45">
+        <v>2</v>
+      </c>
+      <c r="AL151" s="46">
+        <v>4</v>
+      </c>
+      <c r="AM151" s="46">
+        <v>4</v>
+      </c>
+      <c r="AN151" s="47">
+        <v>2</v>
+      </c>
+      <c r="AO151" t="str">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AP151">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>50</v>
       </c>
@@ -8256,31 +7523,39 @@
       <c r="AE152" s="7"/>
       <c r="AF152" s="8"/>
       <c r="AG152" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH152" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI152" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ152" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK152" s="6">
-        <v>3</v>
-      </c>
-      <c r="AL152" s="7">
+        <v>14</v>
+      </c>
+      <c r="AK152" s="48">
+        <v>3</v>
+      </c>
+      <c r="AL152" s="49">
         <v>6</v>
       </c>
-      <c r="AM152" s="7">
-        <v>3</v>
-      </c>
-      <c r="AN152" s="8">
+      <c r="AM152" s="49">
+        <v>3</v>
+      </c>
+      <c r="AN152" s="50">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO152" t="str">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AP152">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>49</v>
       </c>
@@ -8324,20 +7599,28 @@
       <c r="AJ153" s="43">
         <v>3</v>
       </c>
-      <c r="AK153" s="6">
-        <v>3</v>
-      </c>
-      <c r="AL153" s="7">
+      <c r="AK153" s="48">
+        <v>3</v>
+      </c>
+      <c r="AL153" s="49">
         <v>5</v>
       </c>
-      <c r="AM153" s="7">
-        <v>3</v>
-      </c>
-      <c r="AN153" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM153" s="49">
+        <v>3</v>
+      </c>
+      <c r="AN153" s="50">
+        <v>1</v>
+      </c>
+      <c r="AO153" t="str">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="AP153">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>48</v>
       </c>
@@ -8382,19 +7665,27 @@
         <v>0</v>
       </c>
       <c r="AK154" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AL154" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AM154" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AN154" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="155" spans="1:40" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="AO154" t="str">
+        <f t="shared" si="0"/>
+        <v>- -</v>
+      </c>
+      <c r="AP154" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>47</v>
       </c>
@@ -8450,8 +7741,16 @@
       <c r="AN155" s="43">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO155" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AP155">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>46</v>
       </c>
@@ -8484,31 +7783,39 @@
       <c r="AE156" s="7"/>
       <c r="AF156" s="8"/>
       <c r="AG156" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH156" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI156" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ156" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK156" s="6">
-        <v>2</v>
-      </c>
-      <c r="AL156" s="7">
+        <v>14</v>
+      </c>
+      <c r="AK156" s="45">
+        <v>2</v>
+      </c>
+      <c r="AL156" s="46">
         <v>6</v>
       </c>
-      <c r="AM156" s="7">
-        <v>4</v>
-      </c>
-      <c r="AN156" s="8">
+      <c r="AM156" s="46">
+        <v>4</v>
+      </c>
+      <c r="AN156" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO156" t="str">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AP156">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>45</v>
       </c>
@@ -8552,20 +7859,28 @@
       <c r="AJ157" s="8">
         <v>2</v>
       </c>
-      <c r="AK157" s="6">
-        <v>2</v>
-      </c>
-      <c r="AL157" s="7">
+      <c r="AK157" s="45">
+        <v>2</v>
+      </c>
+      <c r="AL157" s="46">
         <v>5</v>
       </c>
-      <c r="AM157" s="7">
-        <v>4</v>
-      </c>
-      <c r="AN157" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM157" s="46">
+        <v>4</v>
+      </c>
+      <c r="AN157" s="47">
+        <v>1</v>
+      </c>
+      <c r="AO157" t="str">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AP157">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>44</v>
       </c>
@@ -8610,19 +7925,27 @@
         <v>0</v>
       </c>
       <c r="AK158" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AL158" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AM158" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AN158" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="159" spans="1:40" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="AO158" t="str">
+        <f t="shared" si="0"/>
+        <v>- -</v>
+      </c>
+      <c r="AP158" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>43</v>
       </c>
@@ -8666,20 +7989,28 @@
       <c r="AJ159" s="8">
         <v>1</v>
       </c>
-      <c r="AK159" s="6">
-        <v>2</v>
-      </c>
-      <c r="AL159" s="7">
-        <v>4</v>
-      </c>
-      <c r="AM159" s="7">
-        <v>4</v>
-      </c>
-      <c r="AN159" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AK159" s="45">
+        <v>2</v>
+      </c>
+      <c r="AL159" s="46">
+        <v>4</v>
+      </c>
+      <c r="AM159" s="46">
+        <v>4</v>
+      </c>
+      <c r="AN159" s="47">
+        <v>2</v>
+      </c>
+      <c r="AO159" t="str">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AP159">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>42</v>
       </c>
@@ -8712,31 +8043,39 @@
       <c r="AE160" s="7"/>
       <c r="AF160" s="8"/>
       <c r="AG160" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH160" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI160" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ160" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK160" s="6">
-        <v>3</v>
-      </c>
-      <c r="AL160" s="7">
+        <v>14</v>
+      </c>
+      <c r="AK160" s="48">
+        <v>3</v>
+      </c>
+      <c r="AL160" s="49">
         <v>6</v>
       </c>
-      <c r="AM160" s="7">
-        <v>3</v>
-      </c>
-      <c r="AN160" s="8">
+      <c r="AM160" s="49">
+        <v>3</v>
+      </c>
+      <c r="AN160" s="50">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO160" t="str">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AP160">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>41</v>
       </c>
@@ -8780,20 +8119,28 @@
       <c r="AJ161" s="43">
         <v>4</v>
       </c>
-      <c r="AK161" s="6">
-        <v>3</v>
-      </c>
-      <c r="AL161" s="7">
+      <c r="AK161" s="48">
+        <v>3</v>
+      </c>
+      <c r="AL161" s="49">
         <v>5</v>
       </c>
-      <c r="AM161" s="7">
-        <v>3</v>
-      </c>
-      <c r="AN161" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM161" s="49">
+        <v>3</v>
+      </c>
+      <c r="AN161" s="50">
+        <v>1</v>
+      </c>
+      <c r="AO161" t="str">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="AP161">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>40</v>
       </c>
@@ -8838,19 +8185,27 @@
         <v>0</v>
       </c>
       <c r="AK162" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AL162" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AM162" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AN162" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="163" spans="1:40" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="AO162" t="str">
+        <f t="shared" si="0"/>
+        <v>- -</v>
+      </c>
+      <c r="AP162" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>39</v>
       </c>
@@ -8894,20 +8249,28 @@
       <c r="AJ163" s="8">
         <v>1</v>
       </c>
-      <c r="AK163" s="6">
-        <v>2</v>
-      </c>
-      <c r="AL163" s="7">
-        <v>3</v>
-      </c>
-      <c r="AM163" s="7">
-        <v>4</v>
-      </c>
-      <c r="AN163" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AK163" s="45">
+        <v>2</v>
+      </c>
+      <c r="AL163" s="46">
+        <v>3</v>
+      </c>
+      <c r="AM163" s="46">
+        <v>4</v>
+      </c>
+      <c r="AN163" s="47">
+        <v>3</v>
+      </c>
+      <c r="AO163" t="str">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="AP163">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>38</v>
       </c>
@@ -8940,31 +8303,39 @@
       <c r="AE164" s="7"/>
       <c r="AF164" s="8"/>
       <c r="AG164" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH164" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI164" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ164" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK164" s="6">
-        <v>3</v>
-      </c>
-      <c r="AL164" s="7">
+        <v>14</v>
+      </c>
+      <c r="AK164" s="48">
+        <v>3</v>
+      </c>
+      <c r="AL164" s="49">
         <v>6</v>
       </c>
-      <c r="AM164" s="7">
-        <v>3</v>
-      </c>
-      <c r="AN164" s="8">
+      <c r="AM164" s="49">
+        <v>3</v>
+      </c>
+      <c r="AN164" s="50">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO164" t="str">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AP164">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>37</v>
       </c>
@@ -9008,20 +8379,28 @@
       <c r="AJ165" s="8">
         <v>2</v>
       </c>
-      <c r="AK165" s="6">
-        <v>3</v>
-      </c>
-      <c r="AL165" s="7">
+      <c r="AK165" s="48">
+        <v>3</v>
+      </c>
+      <c r="AL165" s="49">
         <v>5</v>
       </c>
-      <c r="AM165" s="7">
-        <v>3</v>
-      </c>
-      <c r="AN165" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM165" s="49">
+        <v>3</v>
+      </c>
+      <c r="AN165" s="50">
+        <v>1</v>
+      </c>
+      <c r="AO165" t="str">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="AP165">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>36</v>
       </c>
@@ -9066,19 +8445,27 @@
         <v>0</v>
       </c>
       <c r="AK166" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AL166" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AM166" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AN166" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="167" spans="1:40" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="AO166" t="str">
+        <f t="shared" si="0"/>
+        <v>- -</v>
+      </c>
+      <c r="AP166" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>35</v>
       </c>
@@ -9122,20 +8509,28 @@
       <c r="AJ167" s="8">
         <v>1</v>
       </c>
-      <c r="AK167" s="6">
-        <v>3</v>
-      </c>
-      <c r="AL167" s="7">
-        <v>4</v>
-      </c>
-      <c r="AM167" s="7">
-        <v>3</v>
-      </c>
-      <c r="AN167" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AK167" s="48">
+        <v>3</v>
+      </c>
+      <c r="AL167" s="49">
+        <v>4</v>
+      </c>
+      <c r="AM167" s="49">
+        <v>3</v>
+      </c>
+      <c r="AN167" s="50">
+        <v>2</v>
+      </c>
+      <c r="AO167" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="AP167">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>34</v>
       </c>
@@ -9168,31 +8563,39 @@
       <c r="AE168" s="7"/>
       <c r="AF168" s="8"/>
       <c r="AG168" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH168" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI168" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ168" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK168" s="6">
-        <v>4</v>
-      </c>
-      <c r="AL168" s="7">
+        <v>14</v>
+      </c>
+      <c r="AK168" s="51">
+        <v>4</v>
+      </c>
+      <c r="AL168" s="52">
         <v>6</v>
       </c>
-      <c r="AM168" s="7">
-        <v>2</v>
-      </c>
-      <c r="AN168" s="8">
+      <c r="AM168" s="52">
+        <v>2</v>
+      </c>
+      <c r="AN168" s="53">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO168" t="str">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="AP168">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>33</v>
       </c>
@@ -9236,20 +8639,28 @@
       <c r="AJ169" s="8">
         <v>3</v>
       </c>
-      <c r="AK169" s="6">
-        <v>4</v>
-      </c>
-      <c r="AL169" s="7">
+      <c r="AK169" s="51">
+        <v>4</v>
+      </c>
+      <c r="AL169" s="52">
         <v>5</v>
       </c>
-      <c r="AM169" s="7">
-        <v>2</v>
-      </c>
-      <c r="AN169" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM169" s="52">
+        <v>2</v>
+      </c>
+      <c r="AN169" s="53">
+        <v>1</v>
+      </c>
+      <c r="AO169" t="str">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="AP169">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>32</v>
       </c>
@@ -9294,19 +8705,27 @@
         <v>0</v>
       </c>
       <c r="AK170" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AL170" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AM170" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AN170" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="171" spans="1:40" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="AO170" t="str">
+        <f t="shared" si="0"/>
+        <v>- -</v>
+      </c>
+      <c r="AP170" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>31</v>
       </c>
@@ -9370,8 +8789,16 @@
       <c r="AN171" s="43">
         <v>5</v>
       </c>
-    </row>
-    <row r="172" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO171" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="AP171">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>30</v>
       </c>
@@ -9428,31 +8855,39 @@
         <v>1</v>
       </c>
       <c r="AG172" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH172" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI172" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ172" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK172" s="27">
-        <v>2</v>
-      </c>
-      <c r="AL172" s="28">
+        <v>14</v>
+      </c>
+      <c r="AK172" s="45">
+        <v>2</v>
+      </c>
+      <c r="AL172" s="46">
         <v>6</v>
       </c>
-      <c r="AM172" s="28">
-        <v>4</v>
-      </c>
-      <c r="AN172" s="44">
+      <c r="AM172" s="46">
+        <v>4</v>
+      </c>
+      <c r="AN172" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO172" t="str">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AP172">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>29</v>
       </c>
@@ -9497,16 +8932,16 @@
         <v>1</v>
       </c>
       <c r="AC173" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD173" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE173" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AF173" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AG173" s="6">
         <v>3</v>
@@ -9520,20 +8955,28 @@
       <c r="AJ173" s="8">
         <v>2</v>
       </c>
-      <c r="AK173" s="27">
-        <v>2</v>
-      </c>
-      <c r="AL173" s="28">
+      <c r="AK173" s="45">
+        <v>2</v>
+      </c>
+      <c r="AL173" s="46">
         <v>5</v>
       </c>
-      <c r="AM173" s="28">
-        <v>4</v>
-      </c>
-      <c r="AN173" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM173" s="46">
+        <v>4</v>
+      </c>
+      <c r="AN173" s="47">
+        <v>1</v>
+      </c>
+      <c r="AO173" t="str">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AP173">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>28</v>
       </c>
@@ -9555,21 +8998,21 @@
       <c r="T174" s="6"/>
       <c r="U174" s="7"/>
       <c r="V174" s="38" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="W174" s="7"/>
       <c r="X174" s="8"/>
       <c r="Y174" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z174" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AA174" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AB174" s="21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AC174" s="36">
         <v>1</v>
@@ -9584,31 +9027,39 @@
         <v>2</v>
       </c>
       <c r="AG174" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH174" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI174" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ174" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AK174" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AL174" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AM174" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AN174" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="175" spans="1:40" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="AO174" t="str">
+        <f t="shared" si="0"/>
+        <v>- -</v>
+      </c>
+      <c r="AP174" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>27</v>
       </c>
@@ -9665,31 +9116,39 @@
         <v>0</v>
       </c>
       <c r="AG175" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH175" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI175" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ175" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK175" s="27">
-        <v>2</v>
-      </c>
-      <c r="AL175" s="28">
-        <v>4</v>
-      </c>
-      <c r="AM175" s="28">
-        <v>4</v>
-      </c>
-      <c r="AN175" s="44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:40" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="AK175" s="45">
+        <v>2</v>
+      </c>
+      <c r="AL175" s="46">
+        <v>4</v>
+      </c>
+      <c r="AM175" s="46">
+        <v>4</v>
+      </c>
+      <c r="AN175" s="47">
+        <v>2</v>
+      </c>
+      <c r="AO175" t="str">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AP175">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>26</v>
       </c>
@@ -9759,20 +9218,28 @@
       <c r="AJ176" s="43">
         <v>5</v>
       </c>
-      <c r="AK176" s="6">
-        <v>3</v>
-      </c>
-      <c r="AL176" s="7">
+      <c r="AK176" s="48">
+        <v>3</v>
+      </c>
+      <c r="AL176" s="49">
         <v>6</v>
       </c>
-      <c r="AM176" s="7">
-        <v>3</v>
-      </c>
-      <c r="AN176" s="8">
+      <c r="AM176" s="49">
+        <v>3</v>
+      </c>
+      <c r="AN176" s="50">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO176" t="str">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AP176">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>25</v>
       </c>
@@ -9819,16 +9286,16 @@
         <v>1</v>
       </c>
       <c r="AC177" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD177" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE177" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AF177" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AG177" s="27">
         <v>2</v>
@@ -9842,20 +9309,28 @@
       <c r="AJ177" s="44">
         <v>0</v>
       </c>
-      <c r="AK177" s="6">
-        <v>3</v>
-      </c>
-      <c r="AL177" s="7">
+      <c r="AK177" s="48">
+        <v>3</v>
+      </c>
+      <c r="AL177" s="49">
         <v>5</v>
       </c>
-      <c r="AM177" s="7">
-        <v>3</v>
-      </c>
-      <c r="AN177" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM177" s="49">
+        <v>3</v>
+      </c>
+      <c r="AN177" s="50">
+        <v>1</v>
+      </c>
+      <c r="AO177" t="str">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="AP177">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>24</v>
       </c>
@@ -9877,21 +9352,21 @@
       <c r="T178" s="6"/>
       <c r="U178" s="7"/>
       <c r="V178" s="38" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="W178" s="7"/>
       <c r="X178" s="8"/>
       <c r="Y178" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z178" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AA178" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AB178" s="21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AC178" s="36">
         <v>1</v>
@@ -9918,19 +9393,27 @@
         <v>1</v>
       </c>
       <c r="AK178" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AL178" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AM178" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AN178" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="179" spans="1:40" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="AO178" t="str">
+        <f t="shared" si="0"/>
+        <v>- -</v>
+      </c>
+      <c r="AP178" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>23</v>
       </c>
@@ -9989,31 +9472,39 @@
         <v>0</v>
       </c>
       <c r="AG179" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH179" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI179" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ179" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK179" s="27">
-        <v>2</v>
-      </c>
-      <c r="AL179" s="28">
-        <v>3</v>
-      </c>
-      <c r="AM179" s="28">
-        <v>4</v>
-      </c>
-      <c r="AN179" s="44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:40" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="AK179" s="45">
+        <v>2</v>
+      </c>
+      <c r="AL179" s="46">
+        <v>3</v>
+      </c>
+      <c r="AM179" s="46">
+        <v>4</v>
+      </c>
+      <c r="AN179" s="47">
+        <v>3</v>
+      </c>
+      <c r="AO179" t="str">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="AP179">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>22</v>
       </c>
@@ -10083,20 +9574,28 @@
       <c r="AJ180" s="44">
         <v>2</v>
       </c>
-      <c r="AK180" s="6">
-        <v>3</v>
-      </c>
-      <c r="AL180" s="7">
+      <c r="AK180" s="48">
+        <v>3</v>
+      </c>
+      <c r="AL180" s="49">
         <v>6</v>
       </c>
-      <c r="AM180" s="7">
-        <v>3</v>
-      </c>
-      <c r="AN180" s="8">
+      <c r="AM180" s="49">
+        <v>3</v>
+      </c>
+      <c r="AN180" s="50">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO180" t="str">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AP180">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>21</v>
       </c>
@@ -10143,16 +9642,16 @@
         <v>1</v>
       </c>
       <c r="AC181" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD181" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE181" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AF181" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AG181" s="6">
         <v>3</v>
@@ -10166,20 +9665,28 @@
       <c r="AJ181" s="8">
         <v>0</v>
       </c>
-      <c r="AK181" s="6">
-        <v>3</v>
-      </c>
-      <c r="AL181" s="7">
+      <c r="AK181" s="48">
+        <v>3</v>
+      </c>
+      <c r="AL181" s="49">
         <v>5</v>
       </c>
-      <c r="AM181" s="7">
-        <v>3</v>
-      </c>
-      <c r="AN181" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM181" s="49">
+        <v>3</v>
+      </c>
+      <c r="AN181" s="50">
+        <v>1</v>
+      </c>
+      <c r="AO181" t="str">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="AP181">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>20</v>
       </c>
@@ -10201,21 +9708,21 @@
       <c r="T182" s="6"/>
       <c r="U182" s="7"/>
       <c r="V182" s="38" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="W182" s="7"/>
       <c r="X182" s="8"/>
       <c r="Y182" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z182" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AA182" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AB182" s="21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AC182" s="6">
         <v>2</v>
@@ -10242,19 +9749,27 @@
         <v>1</v>
       </c>
       <c r="AK182" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AL182" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AM182" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AN182" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="183" spans="1:40" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="AO182" t="str">
+        <f t="shared" si="0"/>
+        <v>- -</v>
+      </c>
+      <c r="AP182" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>19</v>
       </c>
@@ -10313,31 +9828,39 @@
         <v>0</v>
       </c>
       <c r="AG183" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH183" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI183" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ183" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK183" s="6">
-        <v>3</v>
-      </c>
-      <c r="AL183" s="7">
-        <v>4</v>
-      </c>
-      <c r="AM183" s="7">
-        <v>3</v>
-      </c>
-      <c r="AN183" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:40" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="AK183" s="48">
+        <v>3</v>
+      </c>
+      <c r="AL183" s="49">
+        <v>4</v>
+      </c>
+      <c r="AM183" s="49">
+        <v>3</v>
+      </c>
+      <c r="AN183" s="50">
+        <v>2</v>
+      </c>
+      <c r="AO183" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="AP183">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>18</v>
       </c>
@@ -10407,20 +9930,28 @@
       <c r="AJ184" s="44">
         <v>3</v>
       </c>
-      <c r="AK184" s="6">
-        <v>4</v>
-      </c>
-      <c r="AL184" s="7">
+      <c r="AK184" s="51">
+        <v>4</v>
+      </c>
+      <c r="AL184" s="52">
         <v>6</v>
       </c>
-      <c r="AM184" s="7">
-        <v>2</v>
-      </c>
-      <c r="AN184" s="8">
+      <c r="AM184" s="52">
+        <v>2</v>
+      </c>
+      <c r="AN184" s="53">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO184" t="str">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="AP184">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>17</v>
       </c>
@@ -10467,16 +9998,16 @@
         <v>1</v>
       </c>
       <c r="AC185" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD185" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE185" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AF185" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AG185" s="6">
         <v>3</v>
@@ -10490,20 +10021,34 @@
       <c r="AJ185" s="8">
         <v>0</v>
       </c>
-      <c r="AK185" s="6">
-        <v>4</v>
-      </c>
-      <c r="AL185" s="7">
+      <c r="AK185" s="51">
+        <v>4</v>
+      </c>
+      <c r="AL185" s="52">
         <v>5</v>
       </c>
-      <c r="AM185" s="7">
-        <v>2</v>
-      </c>
-      <c r="AN185" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM185" s="52">
+        <v>2</v>
+      </c>
+      <c r="AN185" s="53">
+        <v>1</v>
+      </c>
+      <c r="AO185" t="str">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="AP185">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AR185" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS185" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>16</v>
       </c>
@@ -10525,21 +10070,21 @@
       <c r="T186" s="6"/>
       <c r="U186" s="7"/>
       <c r="V186" s="38" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="W186" s="7"/>
       <c r="X186" s="8"/>
       <c r="Y186" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z186" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AA186" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AB186" s="21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AC186" s="36">
         <v>1</v>
@@ -10566,19 +10111,36 @@
         <v>1</v>
       </c>
       <c r="AK186" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AL186" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM186" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN186" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO186" t="str">
+        <f t="shared" si="0"/>
+        <v>- -</v>
+      </c>
+      <c r="AP186" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AR186">
+        <v>1</v>
+      </c>
+      <c r="AS186">
+        <v>6</v>
+      </c>
+      <c r="AT186" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AM186" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN186" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="187" spans="1:40" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>15</v>
       </c>
@@ -10637,31 +10199,45 @@
         <v>0</v>
       </c>
       <c r="AG187" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH187" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI187" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ187" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK187" s="27">
-        <v>2</v>
-      </c>
-      <c r="AL187" s="28">
-        <v>2</v>
-      </c>
-      <c r="AM187" s="28">
-        <v>4</v>
-      </c>
-      <c r="AN187" s="44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:40" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="AK187" s="45">
+        <v>2</v>
+      </c>
+      <c r="AL187" s="46">
+        <v>2</v>
+      </c>
+      <c r="AM187" s="46">
+        <v>4</v>
+      </c>
+      <c r="AN187" s="47">
+        <v>4</v>
+      </c>
+      <c r="AO187" t="str">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AP187">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AR187">
+        <v>2</v>
+      </c>
+      <c r="AS187">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>14</v>
       </c>
@@ -10740,20 +10316,34 @@
       <c r="AJ188" s="8">
         <v>2</v>
       </c>
-      <c r="AK188" s="6">
-        <v>3</v>
-      </c>
-      <c r="AL188" s="7">
+      <c r="AK188" s="48">
+        <v>3</v>
+      </c>
+      <c r="AL188" s="49">
         <v>6</v>
       </c>
-      <c r="AM188" s="7">
-        <v>3</v>
-      </c>
-      <c r="AN188" s="8">
+      <c r="AM188" s="49">
+        <v>3</v>
+      </c>
+      <c r="AN188" s="50">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO188" t="str">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AP188">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AR188">
+        <v>3</v>
+      </c>
+      <c r="AS188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>13</v>
       </c>
@@ -10800,43 +10390,57 @@
         <v>1</v>
       </c>
       <c r="AC189" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD189" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE189" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AF189" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AG189" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH189" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI189" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ189" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK189" s="6">
-        <v>3</v>
-      </c>
-      <c r="AL189" s="7">
+        <v>14</v>
+      </c>
+      <c r="AK189" s="48">
+        <v>3</v>
+      </c>
+      <c r="AL189" s="49">
         <v>5</v>
       </c>
-      <c r="AM189" s="7">
-        <v>3</v>
-      </c>
-      <c r="AN189" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM189" s="49">
+        <v>3</v>
+      </c>
+      <c r="AN189" s="50">
+        <v>1</v>
+      </c>
+      <c r="AO189" t="str">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="AP189">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AR189">
+        <v>4</v>
+      </c>
+      <c r="AS189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>12</v>
       </c>
@@ -10861,21 +10465,21 @@
       <c r="T190" s="6"/>
       <c r="U190" s="7"/>
       <c r="V190" s="38" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="W190" s="7"/>
       <c r="X190" s="8"/>
       <c r="Y190" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z190" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AA190" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AB190" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AC190" s="27">
         <v>2</v>
@@ -10890,31 +10494,39 @@
         <v>2</v>
       </c>
       <c r="AG190" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH190" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI190" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ190" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AK190" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AL190" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AM190" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AN190" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="191" spans="1:40" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="AO190" t="str">
+        <f t="shared" si="0"/>
+        <v>- -</v>
+      </c>
+      <c r="AP190" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>11</v>
       </c>
@@ -10981,20 +10593,28 @@
       <c r="AJ191" s="44">
         <v>4</v>
       </c>
-      <c r="AK191" s="6">
-        <v>3</v>
-      </c>
-      <c r="AL191" s="7">
-        <v>4</v>
-      </c>
-      <c r="AM191" s="7">
-        <v>3</v>
-      </c>
-      <c r="AN191" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AK191" s="48">
+        <v>3</v>
+      </c>
+      <c r="AL191" s="49">
+        <v>4</v>
+      </c>
+      <c r="AM191" s="49">
+        <v>3</v>
+      </c>
+      <c r="AN191" s="50">
+        <v>2</v>
+      </c>
+      <c r="AO191" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="AP191">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>10</v>
       </c>
@@ -11067,20 +10687,28 @@
       <c r="AJ192" s="8">
         <v>0</v>
       </c>
-      <c r="AK192" s="6">
-        <v>4</v>
-      </c>
-      <c r="AL192" s="7">
+      <c r="AK192" s="51">
+        <v>4</v>
+      </c>
+      <c r="AL192" s="52">
         <v>6</v>
       </c>
-      <c r="AM192" s="7">
-        <v>2</v>
-      </c>
-      <c r="AN192" s="8">
+      <c r="AM192" s="52">
+        <v>2</v>
+      </c>
+      <c r="AN192" s="53">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO192" t="str">
+        <f>AK192&amp;AL192</f>
+        <v>46</v>
+      </c>
+      <c r="AP192">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>9</v>
       </c>
@@ -11127,16 +10755,16 @@
         <v>1</v>
       </c>
       <c r="AC193" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD193" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE193" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AF193" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AG193" s="6">
         <v>3</v>
@@ -11150,20 +10778,37 @@
       <c r="AJ193" s="8">
         <v>1</v>
       </c>
-      <c r="AK193" s="6">
-        <v>4</v>
-      </c>
-      <c r="AL193" s="7">
+      <c r="AK193" s="51">
+        <v>4</v>
+      </c>
+      <c r="AL193" s="52">
         <v>5</v>
       </c>
-      <c r="AM193" s="7">
-        <v>2</v>
-      </c>
-      <c r="AN193" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM193" s="52">
+        <v>2</v>
+      </c>
+      <c r="AN193" s="53">
+        <v>1</v>
+      </c>
+      <c r="AO193" t="str">
+        <f t="shared" ref="AO193:AO201" si="2">AK193&amp;AL193</f>
+        <v>45</v>
+      </c>
+      <c r="AP193">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AR193" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS193" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT193" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>8</v>
       </c>
@@ -11206,21 +10851,21 @@
       <c r="T194" s="10"/>
       <c r="U194" s="7"/>
       <c r="V194" s="38" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="W194" s="7"/>
       <c r="X194" s="8"/>
       <c r="Y194" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z194" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AA194" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AB194" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AC194" s="27">
         <v>2</v>
@@ -11235,31 +10880,48 @@
         <v>3</v>
       </c>
       <c r="AG194" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH194" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI194" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ194" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AK194" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AL194" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AM194" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AN194" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="195" spans="1:40" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="AO194" t="str">
+        <f t="shared" si="2"/>
+        <v>- -</v>
+      </c>
+      <c r="AP194" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AR194">
+        <v>1</v>
+      </c>
+      <c r="AS194">
+        <v>1</v>
+      </c>
+      <c r="AT194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>7</v>
       </c>
@@ -11344,20 +11006,37 @@
       <c r="AJ195" s="8">
         <v>2</v>
       </c>
-      <c r="AK195" s="6">
-        <v>3</v>
-      </c>
-      <c r="AL195" s="7">
-        <v>3</v>
-      </c>
-      <c r="AM195" s="7">
-        <v>3</v>
-      </c>
-      <c r="AN195" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AK195" s="48">
+        <v>3</v>
+      </c>
+      <c r="AL195" s="49">
+        <v>3</v>
+      </c>
+      <c r="AM195" s="49">
+        <v>3</v>
+      </c>
+      <c r="AN195" s="50">
+        <v>3</v>
+      </c>
+      <c r="AO195" t="str">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="AP195">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AR195">
+        <v>1</v>
+      </c>
+      <c r="AS195">
+        <v>2</v>
+      </c>
+      <c r="AT195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>6</v>
       </c>
@@ -11414,31 +11093,48 @@
         <v>1</v>
       </c>
       <c r="AG196" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH196" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI196" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ196" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK196" s="6">
-        <v>4</v>
-      </c>
-      <c r="AL196" s="7">
+        <v>14</v>
+      </c>
+      <c r="AK196" s="51">
+        <v>4</v>
+      </c>
+      <c r="AL196" s="52">
         <v>6</v>
       </c>
-      <c r="AM196" s="7">
-        <v>2</v>
-      </c>
-      <c r="AN196" s="8">
+      <c r="AM196" s="52">
+        <v>2</v>
+      </c>
+      <c r="AN196" s="53">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO196" t="str">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="AP196">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AR196">
+        <v>1</v>
+      </c>
+      <c r="AS196">
+        <v>3</v>
+      </c>
+      <c r="AT196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>5</v>
       </c>
@@ -11490,43 +11186,60 @@
         <v>1</v>
       </c>
       <c r="AC197" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD197" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE197" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AF197" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AG197" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH197" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI197" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ197" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK197" s="6">
-        <v>4</v>
-      </c>
-      <c r="AL197" s="7">
+        <v>14</v>
+      </c>
+      <c r="AK197" s="51">
+        <v>4</v>
+      </c>
+      <c r="AL197" s="52">
         <v>5</v>
       </c>
-      <c r="AM197" s="7">
-        <v>2</v>
-      </c>
-      <c r="AN197" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM197" s="52">
+        <v>2</v>
+      </c>
+      <c r="AN197" s="53">
+        <v>1</v>
+      </c>
+      <c r="AO197" t="str">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="AP197">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AR197">
+        <v>1</v>
+      </c>
+      <c r="AS197">
+        <v>4</v>
+      </c>
+      <c r="AT197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>4</v>
       </c>
@@ -11575,21 +11288,21 @@
       <c r="T198" s="10"/>
       <c r="U198" s="7"/>
       <c r="V198" s="38" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="W198" s="7"/>
       <c r="X198" s="12"/>
       <c r="Y198" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z198" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AA198" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AB198" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AC198" s="6">
         <v>3</v>
@@ -11616,19 +11329,36 @@
         <v>3</v>
       </c>
       <c r="AK198" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AL198" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AM198" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AN198" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="199" spans="1:40" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="AO198" t="str">
+        <f t="shared" si="2"/>
+        <v>- -</v>
+      </c>
+      <c r="AP198" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AR198">
+        <v>1</v>
+      </c>
+      <c r="AS198">
+        <v>5</v>
+      </c>
+      <c r="AT198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>3</v>
       </c>
@@ -11700,31 +11430,48 @@
         <v>0</v>
       </c>
       <c r="AG199" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH199" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI199" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ199" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK199" s="6">
-        <v>4</v>
-      </c>
-      <c r="AL199" s="7">
-        <v>4</v>
-      </c>
-      <c r="AM199" s="7">
-        <v>2</v>
-      </c>
-      <c r="AN199" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:40" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="AK199" s="51">
+        <v>4</v>
+      </c>
+      <c r="AL199" s="52">
+        <v>4</v>
+      </c>
+      <c r="AM199" s="52">
+        <v>2</v>
+      </c>
+      <c r="AN199" s="53">
+        <v>2</v>
+      </c>
+      <c r="AO199" t="str">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="AP199">
+        <f>IF(AO199 = "- -", "",COUNTIF(AO$140:AO$201,AO199))</f>
+        <v>1</v>
+      </c>
+      <c r="AR199">
+        <v>1</v>
+      </c>
+      <c r="AS199">
+        <v>6</v>
+      </c>
+      <c r="AT199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2</v>
       </c>
@@ -11759,21 +11506,21 @@
       <c r="T200" s="10"/>
       <c r="U200" s="18"/>
       <c r="V200" s="38" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="W200" s="18"/>
       <c r="X200" s="8"/>
       <c r="Y200" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z200" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AA200" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AB200" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AC200" s="6">
         <v>4</v>
@@ -11788,31 +11535,39 @@
         <v>1</v>
       </c>
       <c r="AG200" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH200" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI200" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ200" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AK200" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AL200" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AM200" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AN200" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="201" spans="1:40" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="AO200" t="str">
+        <f t="shared" si="2"/>
+        <v>- -</v>
+      </c>
+      <c r="AP200" t="str">
+        <f t="shared" ref="AP200:AP201" si="3">IF(AO200 = "- -", "",COUNTIF(AO$140:AO$201,AO200))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -11844,60 +11599,68 @@
       <c r="T201" s="17"/>
       <c r="U201" s="18"/>
       <c r="V201" s="38" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="W201" s="18"/>
       <c r="X201" s="8"/>
       <c r="Y201" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z201" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AA201" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AB201" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AC201" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD201" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE201" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AF201" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AG201" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH201" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI201" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ201" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AK201" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AL201" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AM201" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AN201" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="202" spans="1:40" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="AO201" t="str">
+        <f t="shared" si="2"/>
+        <v>- -</v>
+      </c>
+      <c r="AP201" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>0</v>
       </c>
@@ -12015,37 +11778,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:46" x14ac:dyDescent="0.25">
       <c r="Y203" s="7"/>
       <c r="Z203" s="7"/>
       <c r="AA203" s="7"/>
     </row>
-    <row r="204" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:46" x14ac:dyDescent="0.25">
       <c r="Y204" s="7"/>
       <c r="Z204" s="7"/>
       <c r="AA204" s="7"/>
     </row>
-    <row r="205" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:46" x14ac:dyDescent="0.25">
       <c r="Y205" s="9"/>
     </row>
-    <row r="206" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="207" spans="1:40" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N207" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="208" spans="1:40" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N208" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N209" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/solutions/fabergè_easter_eggs_crush_test.xlsx
+++ b/solutions/fabergè_easter_eggs_crush_test.xlsx
@@ -630,7 +630,7 @@
   <dimension ref="A1:O188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,10 +984,10 @@
   <dimension ref="A1:AT209"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AG177" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL187" sqref="AL187"/>
+      <selection pane="bottomRight" activeCell="AM143" sqref="AM143:AN143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/solutions/fabergè_easter_eggs_crush_test.xlsx
+++ b/solutions/fabergè_easter_eggs_crush_test.xlsx
@@ -118,6 +118,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -313,6 +316,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,9 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -643,9 +646,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1.6</v>
-      </c>
+      <c r="A1" s="55">
+        <v>1.5</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
       <c r="G1">
         <v>1.6</v>
       </c>
@@ -654,9 +660,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1.5</v>
-      </c>
+      <c r="A2" s="55">
+        <v>1.4</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
       <c r="G2">
         <v>1.5</v>
       </c>
@@ -665,12 +674,14 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1.4</v>
-      </c>
-      <c r="B3">
-        <v>2.5</v>
-      </c>
+      <c r="A3" s="55">
+        <v>1.3</v>
+      </c>
+      <c r="B3" s="55">
+        <v>2.4</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
       <c r="G3">
         <v>1.4</v>
       </c>
@@ -679,9 +690,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2.4</v>
-      </c>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
       <c r="G4">
         <v>1.3</v>
       </c>
@@ -690,12 +704,14 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1.3</v>
-      </c>
-      <c r="B5">
-        <v>2.5</v>
-      </c>
+      <c r="A5" s="55">
+        <v>1.2</v>
+      </c>
+      <c r="B5" s="55">
+        <v>2.4</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
       <c r="G5">
         <v>1.2</v>
       </c>
@@ -704,9 +720,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>2.4</v>
-      </c>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
       <c r="G6">
         <v>1.1000000000000001</v>
       </c>
@@ -715,12 +734,14 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C7" s="7">
-        <v>3.4</v>
-      </c>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C7" s="56">
+        <v>3.3</v>
+      </c>
+      <c r="D7" s="55"/>
       <c r="G7">
         <v>2.5</v>
       </c>
@@ -732,9 +753,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="7">
-        <v>3.3</v>
-      </c>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56">
+        <v>3.2</v>
+      </c>
+      <c r="D8" s="55"/>
       <c r="G8">
         <v>2.4</v>
       </c>
@@ -746,12 +770,14 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1.2</v>
-      </c>
-      <c r="B9">
-        <v>2.5</v>
-      </c>
+      <c r="A9" s="55">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B9" s="55">
+        <v>2.4</v>
+      </c>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
       <c r="G9">
         <v>2.2999999999999998</v>
       </c>
@@ -763,9 +789,12 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>2.4</v>
-      </c>
+      <c r="A10" s="55"/>
+      <c r="B10" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
       <c r="G10">
         <v>2.2000000000000002</v>
       </c>
@@ -777,12 +806,14 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C11" s="7">
-        <v>3.4</v>
-      </c>
+      <c r="A11" s="55"/>
+      <c r="B11" s="55">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C11" s="56">
+        <v>3.3</v>
+      </c>
+      <c r="D11" s="55"/>
       <c r="G11" s="7">
         <v>2.1</v>
       </c>
@@ -794,9 +825,12 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="7">
-        <v>3.3</v>
-      </c>
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56">
+        <v>3.2</v>
+      </c>
+      <c r="D12" s="55"/>
       <c r="G12" s="7">
         <v>3.4</v>
       </c>
@@ -808,13 +842,14 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C13" s="7">
-        <v>3.4</v>
-      </c>
-      <c r="D13" s="7"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="55">
+        <v>2.1</v>
+      </c>
+      <c r="C13" s="56">
+        <v>3.3</v>
+      </c>
+      <c r="D13" s="56"/>
       <c r="G13" s="7">
         <v>3.3</v>
       </c>
@@ -826,10 +861,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="D14" s="7"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56">
+        <v>3.2</v>
+      </c>
+      <c r="D14" s="56"/>
       <c r="G14" s="7">
         <v>3.2</v>
       </c>
@@ -841,11 +878,13 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="D15" s="7">
-        <v>4.3</v>
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="56">
+        <v>3.1</v>
+      </c>
+      <c r="D15" s="56">
+        <v>4.2</v>
       </c>
       <c r="G15" s="7">
         <v>3.1</v>
@@ -855,119 +894,145 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="7"/>
-      <c r="D16" s="7">
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="55">
+        <v>1</v>
+      </c>
+      <c r="B17" s="55">
+        <v>2.4</v>
+      </c>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="55"/>
+      <c r="B18" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="55"/>
+      <c r="B19" s="55">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C19" s="56">
+        <v>3.3</v>
+      </c>
+      <c r="D19" s="55"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56">
+        <v>3.2</v>
+      </c>
+      <c r="D20" s="55"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="55"/>
+      <c r="B21" s="55">
+        <v>2.1</v>
+      </c>
+      <c r="C21" s="56">
+        <v>3.3</v>
+      </c>
+      <c r="D21" s="56"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="56">
+        <v>3.2</v>
+      </c>
+      <c r="D22" s="56"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="56">
+        <v>3.1</v>
+      </c>
+      <c r="D23" s="56">
         <v>4.2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B17">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="7">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="55"/>
+      <c r="B25" s="56">
+        <v>2</v>
+      </c>
+      <c r="C25" s="56">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3.4</v>
-      </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="7">
+      <c r="D25" s="56"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="55"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56">
         <v>3.2</v>
       </c>
-      <c r="D23" s="7">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="7"/>
-      <c r="D24" s="7">
+      <c r="D26" s="56"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="55"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56">
+        <v>3.1</v>
+      </c>
+      <c r="D27" s="56">
         <v>4.2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="7">
-        <v>2.1</v>
-      </c>
-      <c r="C25" s="7">
-        <v>3.4</v>
-      </c>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="D27" s="7">
-        <v>4.3</v>
-      </c>
-    </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7">
+      <c r="A28" s="55"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="55"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56">
+        <v>3</v>
+      </c>
+      <c r="D29" s="56">
         <v>4.2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="D29" s="7">
-        <v>4.3</v>
-      </c>
-    </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7">
-        <v>4.2</v>
+      <c r="A30" s="55"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56">
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7">
-        <v>4.0999999999999996</v>
+      <c r="A31" s="55"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56">
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="15:15" x14ac:dyDescent="0.25">

--- a/solutions/fabergè_easter_eggs_crush_test.xlsx
+++ b/solutions/fabergè_easter_eggs_crush_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -634,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1048,11 +1048,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT209"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG177" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AG181" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AM143" sqref="AM143:AN143"/>
+      <selection pane="bottomRight" activeCell="AM196" sqref="AM196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/solutions/fabergè_easter_eggs_crush_test.xlsx
+++ b/solutions/fabergè_easter_eggs_crush_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="21">
   <si>
     <t>floor</t>
   </si>
@@ -88,30 +88,6 @@
   </si>
   <si>
     <t>no. sub levels</t>
-  </si>
-  <si>
-    <t>=sum(no(level1) - 2, 1)</t>
-  </si>
-  <si>
-    <t>=sum(no(level1) - 3, 1)</t>
-  </si>
-  <si>
-    <t>=sum(no(level1) - 4, 1)</t>
-  </si>
-  <si>
-    <t>=sum(no(level1) - 5, 1)</t>
-  </si>
-  <si>
-    <t>=sum(no(level2) - 2, 1) + [no(level2) - 2]</t>
-  </si>
-  <si>
-    <t>3 + 3</t>
-  </si>
-  <si>
-    <t>=sum(no(level2) - 3, 1) + [no(level2) - 3]</t>
-  </si>
-  <si>
-    <t>2 + 2</t>
   </si>
 </sst>
 </file>
@@ -248,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -313,9 +289,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
@@ -632,411 +605,1182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O188"/>
+  <dimension ref="A1:L188"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="9.42578125" customWidth="1"/>
     <col min="5" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="55">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="54">
         <v>1.5</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="G1">
-        <v>1.6</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="55">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="G1" s="36">
+        <v>1</v>
+      </c>
+      <c r="H1" s="31">
+        <v>6</v>
+      </c>
+      <c r="I1" s="31">
+        <v>5</v>
+      </c>
+      <c r="J1" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="54">
         <v>1.4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="G2">
-        <v>1.5</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="55">
+      <c r="B2" s="54">
+        <v>2.4</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="G2" s="36">
+        <v>1</v>
+      </c>
+      <c r="H2" s="31">
+        <v>5</v>
+      </c>
+      <c r="I2" s="31">
+        <v>5</v>
+      </c>
+      <c r="J2" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="54">
         <v>1.3</v>
       </c>
-      <c r="B3" s="55">
+      <c r="B3" s="54">
         <v>2.4</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="G3">
-        <v>1.4</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="G3" s="6">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7">
+        <v>6</v>
+      </c>
+      <c r="I3" s="7">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="G4">
-        <v>1.3</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="55">
+      <c r="C4" s="55">
+        <v>3.3</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="G4" s="36">
+        <v>1</v>
+      </c>
+      <c r="H4" s="31">
+        <v>4</v>
+      </c>
+      <c r="I4" s="31">
+        <v>5</v>
+      </c>
+      <c r="J4" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="54">
         <v>1.2</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="54">
         <v>2.4</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="G5">
-        <v>1.2</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55">
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="G5" s="45">
+        <v>2</v>
+      </c>
+      <c r="H5" s="46">
+        <v>6</v>
+      </c>
+      <c r="I5" s="46">
+        <v>4</v>
+      </c>
+      <c r="J5" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="G6">
+      <c r="C6" s="55">
+        <v>3.3</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="55"/>
+      <c r="G6" s="45">
+        <v>2</v>
+      </c>
+      <c r="H6" s="46">
+        <v>5</v>
+      </c>
+      <c r="I6" s="46">
+        <v>4</v>
+      </c>
+      <c r="J6" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C7" s="55">
+        <v>3.3</v>
+      </c>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="G7" s="6">
+        <v>3</v>
+      </c>
+      <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55">
+        <v>3.2</v>
+      </c>
+      <c r="D8" s="55">
+        <v>4.2</v>
+      </c>
+      <c r="E8" s="55"/>
+      <c r="G8" s="36">
+        <v>1</v>
+      </c>
+      <c r="H8" s="31">
+        <v>3</v>
+      </c>
+      <c r="I8" s="31">
+        <v>5</v>
+      </c>
+      <c r="J8" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="54">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55">
+      <c r="B9" s="54">
+        <v>2.4</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+      <c r="G9" s="45">
+        <v>2</v>
+      </c>
+      <c r="H9" s="46">
+        <v>6</v>
+      </c>
+      <c r="I9" s="46">
+        <v>4</v>
+      </c>
+      <c r="J9" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C10" s="55">
+        <v>3.3</v>
+      </c>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="G10" s="45">
+        <v>2</v>
+      </c>
+      <c r="H10" s="46">
+        <v>5</v>
+      </c>
+      <c r="I10" s="46">
+        <v>4</v>
+      </c>
+      <c r="J10" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C11" s="55">
         <v>3.3</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="G7">
-        <v>2.5</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="56">
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="G11" s="6">
+        <v>3</v>
+      </c>
+      <c r="H11" s="7">
+        <v>6</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55">
         <v>3.2</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="G8">
+      <c r="D12" s="55">
+        <v>4.2</v>
+      </c>
+      <c r="E12" s="55"/>
+      <c r="G12" s="45">
+        <v>2</v>
+      </c>
+      <c r="H12" s="46">
+        <v>4</v>
+      </c>
+      <c r="I12" s="46">
+        <v>4</v>
+      </c>
+      <c r="J12" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54">
+        <v>2.1</v>
+      </c>
+      <c r="C13" s="55">
+        <v>3.3</v>
+      </c>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="G13" s="48">
+        <v>3</v>
+      </c>
+      <c r="H13" s="49">
+        <v>6</v>
+      </c>
+      <c r="I13" s="49">
+        <v>3</v>
+      </c>
+      <c r="J13" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55">
+        <v>3.2</v>
+      </c>
+      <c r="D14" s="55">
+        <v>4.2</v>
+      </c>
+      <c r="E14" s="55"/>
+      <c r="G14" s="48">
+        <v>3</v>
+      </c>
+      <c r="H14" s="49">
+        <v>5</v>
+      </c>
+      <c r="I14" s="49">
+        <v>3</v>
+      </c>
+      <c r="J14" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55">
+        <v>3.1</v>
+      </c>
+      <c r="D15" s="55">
+        <v>4.2</v>
+      </c>
+      <c r="E15" s="55"/>
+      <c r="G15" s="6">
+        <v>4</v>
+      </c>
+      <c r="H15" s="7">
+        <v>6</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E16" s="55">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G16" s="36">
+        <v>1</v>
+      </c>
+      <c r="H16" s="31">
+        <v>2</v>
+      </c>
+      <c r="I16" s="31">
+        <v>5</v>
+      </c>
+      <c r="J16" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="54">
+        <v>1</v>
+      </c>
+      <c r="B17" s="54">
         <v>2.4</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="55">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B9" s="55">
-        <v>2.4</v>
-      </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="G9">
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="G17" s="45">
+        <v>2</v>
+      </c>
+      <c r="H17" s="46">
+        <v>6</v>
+      </c>
+      <c r="I17" s="46">
+        <v>4</v>
+      </c>
+      <c r="J17" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="54"/>
+      <c r="B18" s="54">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="G10">
+      <c r="C18" s="55">
+        <v>3.3</v>
+      </c>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="G18" s="45">
+        <v>2</v>
+      </c>
+      <c r="H18" s="46">
+        <v>5</v>
+      </c>
+      <c r="I18" s="46">
+        <v>4</v>
+      </c>
+      <c r="J18" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C11" s="56">
+      <c r="C19" s="55">
         <v>3.3</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="G11" s="7">
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
+      <c r="G19" s="6">
+        <v>3</v>
+      </c>
+      <c r="H19" s="7">
+        <v>6</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55">
+        <v>3.2</v>
+      </c>
+      <c r="D20" s="55">
+        <v>4.2</v>
+      </c>
+      <c r="E20" s="55"/>
+      <c r="G20" s="45">
+        <v>2</v>
+      </c>
+      <c r="H20" s="46">
+        <v>4</v>
+      </c>
+      <c r="I20" s="46">
+        <v>4</v>
+      </c>
+      <c r="J20" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="54"/>
+      <c r="B21" s="54">
         <v>2.1</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="56">
+      <c r="C21" s="55">
+        <v>3.3</v>
+      </c>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="G21" s="48">
+        <v>3</v>
+      </c>
+      <c r="H21" s="49">
+        <v>6</v>
+      </c>
+      <c r="I21" s="49">
+        <v>3</v>
+      </c>
+      <c r="J21" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55">
         <v>3.2</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="G12" s="7">
-        <v>3.4</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="54" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55">
-        <v>2.1</v>
-      </c>
-      <c r="C13" s="56">
+      <c r="D22" s="55">
+        <v>4.2</v>
+      </c>
+      <c r="E22" s="55"/>
+      <c r="G22" s="48">
+        <v>3</v>
+      </c>
+      <c r="H22" s="49">
+        <v>5</v>
+      </c>
+      <c r="I22" s="49">
+        <v>3</v>
+      </c>
+      <c r="J22" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="55">
+        <v>3.1</v>
+      </c>
+      <c r="D23" s="55">
+        <v>4.2</v>
+      </c>
+      <c r="E23" s="55"/>
+      <c r="G23" s="6">
+        <v>4</v>
+      </c>
+      <c r="H23" s="7">
+        <v>6</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E24" s="55">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G24" s="45">
+        <v>2</v>
+      </c>
+      <c r="H24" s="46">
+        <v>3</v>
+      </c>
+      <c r="I24" s="46">
+        <v>4</v>
+      </c>
+      <c r="J24" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="54"/>
+      <c r="B25" s="55">
+        <v>2</v>
+      </c>
+      <c r="C25" s="55">
         <v>3.3</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="G13" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="54" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="56">
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="G25" s="48">
+        <v>3</v>
+      </c>
+      <c r="H25" s="49">
+        <v>6</v>
+      </c>
+      <c r="I25" s="49">
+        <v>3</v>
+      </c>
+      <c r="J25" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="54"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55">
         <v>3.2</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="G14" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="56">
+      <c r="D26" s="55">
+        <v>4.2</v>
+      </c>
+      <c r="E26" s="55"/>
+      <c r="G26" s="48">
+        <v>3</v>
+      </c>
+      <c r="H26" s="49">
+        <v>5</v>
+      </c>
+      <c r="I26" s="49">
+        <v>3</v>
+      </c>
+      <c r="J26" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="54"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55">
         <v>3.1</v>
       </c>
-      <c r="D15" s="56">
+      <c r="D27" s="55">
         <v>4.2</v>
       </c>
-      <c r="G15" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="H15" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56">
+      <c r="E27" s="55"/>
+      <c r="G27" s="6">
+        <v>4</v>
+      </c>
+      <c r="H27" s="7">
+        <v>6</v>
+      </c>
+      <c r="I27" s="7">
+        <v>2</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="54"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="55">
-        <v>1</v>
-      </c>
-      <c r="B17" s="55">
-        <v>2.4</v>
-      </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C19" s="56">
-        <v>3.3</v>
-      </c>
-      <c r="D19" s="55"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="56">
-        <v>3.2</v>
-      </c>
-      <c r="D20" s="55"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55">
-        <v>2.1</v>
-      </c>
-      <c r="C21" s="56">
-        <v>3.3</v>
-      </c>
-      <c r="D21" s="56"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56">
-        <v>3.2</v>
-      </c>
-      <c r="D22" s="56"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="56">
-        <v>3.1</v>
-      </c>
-      <c r="D23" s="56">
+      <c r="E28" s="55">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G28" s="48">
+        <v>3</v>
+      </c>
+      <c r="H28" s="49">
+        <v>4</v>
+      </c>
+      <c r="I28" s="49">
+        <v>3</v>
+      </c>
+      <c r="J28" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="54"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55">
+        <v>3</v>
+      </c>
+      <c r="D29" s="55">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56">
+      <c r="E29" s="55"/>
+      <c r="G29" s="51">
+        <v>4</v>
+      </c>
+      <c r="H29" s="52">
+        <v>6</v>
+      </c>
+      <c r="I29" s="52">
+        <v>2</v>
+      </c>
+      <c r="J29" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="54"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="56">
-        <v>2</v>
-      </c>
-      <c r="C25" s="56">
-        <v>3.3</v>
-      </c>
-      <c r="D25" s="56"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56">
-        <v>3.2</v>
-      </c>
-      <c r="D26" s="56"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56">
-        <v>3.1</v>
-      </c>
-      <c r="D27" s="56">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56">
-        <v>3</v>
-      </c>
-      <c r="D29" s="56">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O188" s="2"/>
+      <c r="E30" s="55">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G30" s="51">
+        <v>4</v>
+      </c>
+      <c r="H30" s="52">
+        <v>5</v>
+      </c>
+      <c r="I30" s="52">
+        <v>2</v>
+      </c>
+      <c r="J30" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="54"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55">
+        <v>4</v>
+      </c>
+      <c r="E31" s="55">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G31" s="6">
+        <v>5</v>
+      </c>
+      <c r="H31" s="7">
+        <v>6</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E32" s="55">
+        <v>5</v>
+      </c>
+      <c r="G32" s="36">
+        <v>1</v>
+      </c>
+      <c r="H32" s="31">
+        <v>1</v>
+      </c>
+      <c r="I32" s="31">
+        <v>5</v>
+      </c>
+      <c r="J32" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G33" s="45">
+        <v>2</v>
+      </c>
+      <c r="H33" s="46">
+        <v>6</v>
+      </c>
+      <c r="I33" s="46">
+        <v>4</v>
+      </c>
+      <c r="J33" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G34" s="45">
+        <v>2</v>
+      </c>
+      <c r="H34" s="46">
+        <v>5</v>
+      </c>
+      <c r="I34" s="46">
+        <v>4</v>
+      </c>
+      <c r="J34" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G35" s="6">
+        <v>3</v>
+      </c>
+      <c r="H35" s="7">
+        <v>6</v>
+      </c>
+      <c r="I35" s="7">
+        <v>3</v>
+      </c>
+      <c r="J35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G36" s="45">
+        <v>2</v>
+      </c>
+      <c r="H36" s="46">
+        <v>4</v>
+      </c>
+      <c r="I36" s="46">
+        <v>4</v>
+      </c>
+      <c r="J36" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G37" s="48">
+        <v>3</v>
+      </c>
+      <c r="H37" s="49">
+        <v>6</v>
+      </c>
+      <c r="I37" s="49">
+        <v>3</v>
+      </c>
+      <c r="J37" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G38" s="48">
+        <v>3</v>
+      </c>
+      <c r="H38" s="49">
+        <v>5</v>
+      </c>
+      <c r="I38" s="49">
+        <v>3</v>
+      </c>
+      <c r="J38" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G39" s="6">
+        <v>2</v>
+      </c>
+      <c r="H39" s="7">
+        <v>6</v>
+      </c>
+      <c r="I39" s="7">
+        <v>2</v>
+      </c>
+      <c r="J39" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G40" s="45">
+        <v>2</v>
+      </c>
+      <c r="H40" s="46">
+        <v>3</v>
+      </c>
+      <c r="I40" s="46">
+        <v>4</v>
+      </c>
+      <c r="J40" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G41" s="48">
+        <v>3</v>
+      </c>
+      <c r="H41" s="49">
+        <v>6</v>
+      </c>
+      <c r="I41" s="49">
+        <v>3</v>
+      </c>
+      <c r="J41" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G42" s="48">
+        <v>3</v>
+      </c>
+      <c r="H42" s="49">
+        <v>5</v>
+      </c>
+      <c r="I42" s="49">
+        <v>3</v>
+      </c>
+      <c r="J42" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G43" s="6">
+        <v>4</v>
+      </c>
+      <c r="H43" s="7">
+        <v>6</v>
+      </c>
+      <c r="I43" s="7">
+        <v>2</v>
+      </c>
+      <c r="J43" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G44" s="48">
+        <v>3</v>
+      </c>
+      <c r="H44" s="49">
+        <v>4</v>
+      </c>
+      <c r="I44" s="49">
+        <v>3</v>
+      </c>
+      <c r="J44" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G45" s="51">
+        <v>4</v>
+      </c>
+      <c r="H45" s="52">
+        <v>6</v>
+      </c>
+      <c r="I45" s="52">
+        <v>2</v>
+      </c>
+      <c r="J45" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G46" s="51">
+        <v>4</v>
+      </c>
+      <c r="H46" s="52">
+        <v>5</v>
+      </c>
+      <c r="I46" s="52">
+        <v>2</v>
+      </c>
+      <c r="J46" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G47" s="6">
+        <v>5</v>
+      </c>
+      <c r="H47" s="7">
+        <v>6</v>
+      </c>
+      <c r="I47" s="7">
+        <v>1</v>
+      </c>
+      <c r="J47" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G48" s="45">
+        <v>2</v>
+      </c>
+      <c r="H48" s="46">
+        <v>2</v>
+      </c>
+      <c r="I48" s="46">
+        <v>4</v>
+      </c>
+      <c r="J48" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G49" s="48">
+        <v>3</v>
+      </c>
+      <c r="H49" s="49">
+        <v>6</v>
+      </c>
+      <c r="I49" s="49">
+        <v>3</v>
+      </c>
+      <c r="J49" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G50" s="48">
+        <v>3</v>
+      </c>
+      <c r="H50" s="49">
+        <v>5</v>
+      </c>
+      <c r="I50" s="49">
+        <v>3</v>
+      </c>
+      <c r="J50" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G51" s="6">
+        <v>4</v>
+      </c>
+      <c r="H51" s="7">
+        <v>6</v>
+      </c>
+      <c r="I51" s="7">
+        <v>2</v>
+      </c>
+      <c r="J51" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G52" s="48">
+        <v>3</v>
+      </c>
+      <c r="H52" s="49">
+        <v>4</v>
+      </c>
+      <c r="I52" s="49">
+        <v>3</v>
+      </c>
+      <c r="J52" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G53" s="51">
+        <v>4</v>
+      </c>
+      <c r="H53" s="52">
+        <v>6</v>
+      </c>
+      <c r="I53" s="52">
+        <v>2</v>
+      </c>
+      <c r="J53" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G54" s="51">
+        <v>4</v>
+      </c>
+      <c r="H54" s="52">
+        <v>5</v>
+      </c>
+      <c r="I54" s="52">
+        <v>2</v>
+      </c>
+      <c r="J54" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G55" s="6">
+        <v>5</v>
+      </c>
+      <c r="H55" s="7">
+        <v>6</v>
+      </c>
+      <c r="I55" s="7">
+        <v>1</v>
+      </c>
+      <c r="J55" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G56" s="48">
+        <v>3</v>
+      </c>
+      <c r="H56" s="49">
+        <v>3</v>
+      </c>
+      <c r="I56" s="49">
+        <v>3</v>
+      </c>
+      <c r="J56" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G57" s="51">
+        <v>4</v>
+      </c>
+      <c r="H57" s="52">
+        <v>6</v>
+      </c>
+      <c r="I57" s="52">
+        <v>2</v>
+      </c>
+      <c r="J57" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G58" s="51">
+        <v>4</v>
+      </c>
+      <c r="H58" s="52">
+        <v>5</v>
+      </c>
+      <c r="I58" s="52">
+        <v>2</v>
+      </c>
+      <c r="J58" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G59" s="6">
+        <v>5</v>
+      </c>
+      <c r="H59" s="7">
+        <v>6</v>
+      </c>
+      <c r="I59" s="7">
+        <v>1</v>
+      </c>
+      <c r="J59" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G60" s="51">
+        <v>4</v>
+      </c>
+      <c r="H60" s="52">
+        <v>4</v>
+      </c>
+      <c r="I60" s="52">
+        <v>2</v>
+      </c>
+      <c r="J60" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G61" s="6">
+        <v>5</v>
+      </c>
+      <c r="H61" s="7">
+        <v>6</v>
+      </c>
+      <c r="I61" s="7">
+        <v>1</v>
+      </c>
+      <c r="J61" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G62" s="6">
+        <v>5</v>
+      </c>
+      <c r="H62" s="7">
+        <v>5</v>
+      </c>
+      <c r="I62" s="7">
+        <v>1</v>
+      </c>
+      <c r="J62" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G63" s="6">
+        <v>0</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="7">
+        <v>5</v>
+      </c>
+      <c r="J63" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L188" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1046,13 +1790,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT209"/>
+  <dimension ref="A1:AX209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG181" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AA177" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AM196" sqref="AM196"/>
+      <selection pane="bottomRight" activeCell="AS200" sqref="AS200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,11 +1804,11 @@
     <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="4" width="10.140625" customWidth="1"/>
-    <col min="45" max="45" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1161,11 +1905,23 @@
       <c r="AN1" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="AO1" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AP1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>200</v>
       </c>
@@ -1205,8 +1961,12 @@
       <c r="AL2" s="7"/>
       <c r="AM2" s="7"/>
       <c r="AN2" s="8"/>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="8"/>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>199</v>
       </c>
@@ -1246,8 +2006,12 @@
       <c r="AL3" s="7"/>
       <c r="AM3" s="7"/>
       <c r="AN3" s="8"/>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="8"/>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>198</v>
       </c>
@@ -1287,8 +2051,12 @@
       <c r="AL4" s="7"/>
       <c r="AM4" s="7"/>
       <c r="AN4" s="8"/>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="8"/>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>197</v>
       </c>
@@ -1328,8 +2096,12 @@
       <c r="AL5" s="7"/>
       <c r="AM5" s="7"/>
       <c r="AN5" s="8"/>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="8"/>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>196</v>
       </c>
@@ -1369,8 +2141,12 @@
       <c r="AL6" s="7"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="8"/>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="8"/>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>195</v>
       </c>
@@ -1410,8 +2186,12 @@
       <c r="AL7" s="7"/>
       <c r="AM7" s="7"/>
       <c r="AN7" s="8"/>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="8"/>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>194</v>
       </c>
@@ -1451,8 +2231,12 @@
       <c r="AL8" s="7"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="8"/>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="8"/>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>193</v>
       </c>
@@ -1492,8 +2276,12 @@
       <c r="AL9" s="7"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="8"/>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="8"/>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>192</v>
       </c>
@@ -1533,8 +2321,12 @@
       <c r="AL10" s="7"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="8"/>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="8"/>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>191</v>
       </c>
@@ -1574,8 +2366,12 @@
       <c r="AL11" s="7"/>
       <c r="AM11" s="7"/>
       <c r="AN11" s="8"/>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="8"/>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>190</v>
       </c>
@@ -1615,8 +2411,12 @@
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="8"/>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="8"/>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>189</v>
       </c>
@@ -1656,8 +2456,12 @@
       <c r="AL13" s="7"/>
       <c r="AM13" s="7"/>
       <c r="AN13" s="8"/>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="7"/>
+      <c r="AQ13" s="7"/>
+      <c r="AR13" s="8"/>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>188</v>
       </c>
@@ -1697,8 +2501,12 @@
       <c r="AL14" s="7"/>
       <c r="AM14" s="7"/>
       <c r="AN14" s="8"/>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="7"/>
+      <c r="AQ14" s="7"/>
+      <c r="AR14" s="8"/>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>187</v>
       </c>
@@ -1738,8 +2546,12 @@
       <c r="AL15" s="7"/>
       <c r="AM15" s="7"/>
       <c r="AN15" s="8"/>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="7"/>
+      <c r="AQ15" s="7"/>
+      <c r="AR15" s="8"/>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>186</v>
       </c>
@@ -1779,8 +2591,12 @@
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="8"/>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="7"/>
+      <c r="AQ16" s="7"/>
+      <c r="AR16" s="8"/>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>185</v>
       </c>
@@ -1820,8 +2636,12 @@
       <c r="AL17" s="7"/>
       <c r="AM17" s="7"/>
       <c r="AN17" s="8"/>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="7"/>
+      <c r="AQ17" s="7"/>
+      <c r="AR17" s="8"/>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>184</v>
       </c>
@@ -1861,8 +2681,12 @@
       <c r="AL18" s="7"/>
       <c r="AM18" s="7"/>
       <c r="AN18" s="8"/>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="7"/>
+      <c r="AQ18" s="7"/>
+      <c r="AR18" s="8"/>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>183</v>
       </c>
@@ -1902,8 +2726,12 @@
       <c r="AL19" s="7"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="8"/>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="7"/>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="8"/>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>182</v>
       </c>
@@ -1943,8 +2771,12 @@
       <c r="AL20" s="7"/>
       <c r="AM20" s="7"/>
       <c r="AN20" s="8"/>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="8"/>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>181</v>
       </c>
@@ -1984,8 +2816,12 @@
       <c r="AL21" s="7"/>
       <c r="AM21" s="7"/>
       <c r="AN21" s="8"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO21" s="6"/>
+      <c r="AP21" s="7"/>
+      <c r="AQ21" s="7"/>
+      <c r="AR21" s="8"/>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>180</v>
       </c>
@@ -2025,8 +2861,12 @@
       <c r="AL22" s="7"/>
       <c r="AM22" s="7"/>
       <c r="AN22" s="8"/>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO22" s="6"/>
+      <c r="AP22" s="7"/>
+      <c r="AQ22" s="7"/>
+      <c r="AR22" s="8"/>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>179</v>
       </c>
@@ -2066,8 +2906,12 @@
       <c r="AL23" s="7"/>
       <c r="AM23" s="7"/>
       <c r="AN23" s="8"/>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="7"/>
+      <c r="AQ23" s="7"/>
+      <c r="AR23" s="8"/>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>178</v>
       </c>
@@ -2107,8 +2951,12 @@
       <c r="AL24" s="7"/>
       <c r="AM24" s="7"/>
       <c r="AN24" s="8"/>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO24" s="6"/>
+      <c r="AP24" s="7"/>
+      <c r="AQ24" s="7"/>
+      <c r="AR24" s="8"/>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>177</v>
       </c>
@@ -2148,8 +2996,12 @@
       <c r="AL25" s="7"/>
       <c r="AM25" s="7"/>
       <c r="AN25" s="8"/>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO25" s="6"/>
+      <c r="AP25" s="7"/>
+      <c r="AQ25" s="7"/>
+      <c r="AR25" s="8"/>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>176</v>
       </c>
@@ -2189,8 +3041,12 @@
       <c r="AL26" s="7"/>
       <c r="AM26" s="7"/>
       <c r="AN26" s="8"/>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO26" s="6"/>
+      <c r="AP26" s="7"/>
+      <c r="AQ26" s="7"/>
+      <c r="AR26" s="8"/>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>175</v>
       </c>
@@ -2230,8 +3086,12 @@
       <c r="AL27" s="7"/>
       <c r="AM27" s="7"/>
       <c r="AN27" s="8"/>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO27" s="6"/>
+      <c r="AP27" s="7"/>
+      <c r="AQ27" s="7"/>
+      <c r="AR27" s="8"/>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>174</v>
       </c>
@@ -2271,8 +3131,12 @@
       <c r="AL28" s="7"/>
       <c r="AM28" s="7"/>
       <c r="AN28" s="8"/>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="7"/>
+      <c r="AQ28" s="7"/>
+      <c r="AR28" s="8"/>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>173</v>
       </c>
@@ -2312,8 +3176,12 @@
       <c r="AL29" s="7"/>
       <c r="AM29" s="7"/>
       <c r="AN29" s="8"/>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="7"/>
+      <c r="AQ29" s="7"/>
+      <c r="AR29" s="8"/>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>172</v>
       </c>
@@ -2353,8 +3221,12 @@
       <c r="AL30" s="7"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="8"/>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO30" s="6"/>
+      <c r="AP30" s="7"/>
+      <c r="AQ30" s="7"/>
+      <c r="AR30" s="8"/>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>171</v>
       </c>
@@ -2394,8 +3266,12 @@
       <c r="AL31" s="7"/>
       <c r="AM31" s="7"/>
       <c r="AN31" s="8"/>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="7"/>
+      <c r="AQ31" s="7"/>
+      <c r="AR31" s="8"/>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>170</v>
       </c>
@@ -2435,8 +3311,12 @@
       <c r="AL32" s="7"/>
       <c r="AM32" s="7"/>
       <c r="AN32" s="8"/>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO32" s="6"/>
+      <c r="AP32" s="7"/>
+      <c r="AQ32" s="7"/>
+      <c r="AR32" s="8"/>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>169</v>
       </c>
@@ -2476,8 +3356,12 @@
       <c r="AL33" s="7"/>
       <c r="AM33" s="7"/>
       <c r="AN33" s="8"/>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO33" s="6"/>
+      <c r="AP33" s="7"/>
+      <c r="AQ33" s="7"/>
+      <c r="AR33" s="8"/>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>168</v>
       </c>
@@ -2517,8 +3401,12 @@
       <c r="AL34" s="7"/>
       <c r="AM34" s="7"/>
       <c r="AN34" s="8"/>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO34" s="6"/>
+      <c r="AP34" s="7"/>
+      <c r="AQ34" s="7"/>
+      <c r="AR34" s="8"/>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>167</v>
       </c>
@@ -2558,8 +3446,12 @@
       <c r="AL35" s="7"/>
       <c r="AM35" s="7"/>
       <c r="AN35" s="8"/>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO35" s="6"/>
+      <c r="AP35" s="7"/>
+      <c r="AQ35" s="7"/>
+      <c r="AR35" s="8"/>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>166</v>
       </c>
@@ -2599,8 +3491,12 @@
       <c r="AL36" s="7"/>
       <c r="AM36" s="7"/>
       <c r="AN36" s="8"/>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO36" s="6"/>
+      <c r="AP36" s="7"/>
+      <c r="AQ36" s="7"/>
+      <c r="AR36" s="8"/>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>165</v>
       </c>
@@ -2640,8 +3536,12 @@
       <c r="AL37" s="7"/>
       <c r="AM37" s="7"/>
       <c r="AN37" s="8"/>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO37" s="6"/>
+      <c r="AP37" s="7"/>
+      <c r="AQ37" s="7"/>
+      <c r="AR37" s="8"/>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>164</v>
       </c>
@@ -2681,8 +3581,12 @@
       <c r="AL38" s="7"/>
       <c r="AM38" s="7"/>
       <c r="AN38" s="8"/>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO38" s="6"/>
+      <c r="AP38" s="7"/>
+      <c r="AQ38" s="7"/>
+      <c r="AR38" s="8"/>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>163</v>
       </c>
@@ -2722,8 +3626,12 @@
       <c r="AL39" s="7"/>
       <c r="AM39" s="7"/>
       <c r="AN39" s="8"/>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO39" s="6"/>
+      <c r="AP39" s="7"/>
+      <c r="AQ39" s="7"/>
+      <c r="AR39" s="8"/>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>162</v>
       </c>
@@ -2763,8 +3671,12 @@
       <c r="AL40" s="7"/>
       <c r="AM40" s="7"/>
       <c r="AN40" s="8"/>
-    </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO40" s="6"/>
+      <c r="AP40" s="7"/>
+      <c r="AQ40" s="7"/>
+      <c r="AR40" s="8"/>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>161</v>
       </c>
@@ -2804,8 +3716,12 @@
       <c r="AL41" s="7"/>
       <c r="AM41" s="7"/>
       <c r="AN41" s="8"/>
-    </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO41" s="6"/>
+      <c r="AP41" s="7"/>
+      <c r="AQ41" s="7"/>
+      <c r="AR41" s="8"/>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>160</v>
       </c>
@@ -2845,8 +3761,12 @@
       <c r="AL42" s="7"/>
       <c r="AM42" s="7"/>
       <c r="AN42" s="8"/>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO42" s="6"/>
+      <c r="AP42" s="7"/>
+      <c r="AQ42" s="7"/>
+      <c r="AR42" s="8"/>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>159</v>
       </c>
@@ -2886,8 +3806,12 @@
       <c r="AL43" s="7"/>
       <c r="AM43" s="7"/>
       <c r="AN43" s="8"/>
-    </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO43" s="6"/>
+      <c r="AP43" s="7"/>
+      <c r="AQ43" s="7"/>
+      <c r="AR43" s="8"/>
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>158</v>
       </c>
@@ -2927,8 +3851,12 @@
       <c r="AL44" s="7"/>
       <c r="AM44" s="7"/>
       <c r="AN44" s="8"/>
-    </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO44" s="6"/>
+      <c r="AP44" s="7"/>
+      <c r="AQ44" s="7"/>
+      <c r="AR44" s="8"/>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>157</v>
       </c>
@@ -2968,8 +3896,12 @@
       <c r="AL45" s="7"/>
       <c r="AM45" s="7"/>
       <c r="AN45" s="8"/>
-    </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO45" s="6"/>
+      <c r="AP45" s="7"/>
+      <c r="AQ45" s="7"/>
+      <c r="AR45" s="8"/>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>156</v>
       </c>
@@ -3009,8 +3941,12 @@
       <c r="AL46" s="7"/>
       <c r="AM46" s="7"/>
       <c r="AN46" s="8"/>
-    </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO46" s="6"/>
+      <c r="AP46" s="7"/>
+      <c r="AQ46" s="7"/>
+      <c r="AR46" s="8"/>
+    </row>
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>155</v>
       </c>
@@ -3050,8 +3986,12 @@
       <c r="AL47" s="7"/>
       <c r="AM47" s="7"/>
       <c r="AN47" s="8"/>
-    </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO47" s="6"/>
+      <c r="AP47" s="7"/>
+      <c r="AQ47" s="7"/>
+      <c r="AR47" s="8"/>
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>154</v>
       </c>
@@ -3091,8 +4031,12 @@
       <c r="AL48" s="7"/>
       <c r="AM48" s="7"/>
       <c r="AN48" s="8"/>
-    </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO48" s="6"/>
+      <c r="AP48" s="7"/>
+      <c r="AQ48" s="7"/>
+      <c r="AR48" s="8"/>
+    </row>
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>153</v>
       </c>
@@ -3132,8 +4076,12 @@
       <c r="AL49" s="7"/>
       <c r="AM49" s="7"/>
       <c r="AN49" s="8"/>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO49" s="6"/>
+      <c r="AP49" s="7"/>
+      <c r="AQ49" s="7"/>
+      <c r="AR49" s="8"/>
+    </row>
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>152</v>
       </c>
@@ -3173,8 +4121,12 @@
       <c r="AL50" s="7"/>
       <c r="AM50" s="7"/>
       <c r="AN50" s="8"/>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO50" s="6"/>
+      <c r="AP50" s="7"/>
+      <c r="AQ50" s="7"/>
+      <c r="AR50" s="8"/>
+    </row>
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>151</v>
       </c>
@@ -3214,8 +4166,12 @@
       <c r="AL51" s="7"/>
       <c r="AM51" s="7"/>
       <c r="AN51" s="8"/>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO51" s="6"/>
+      <c r="AP51" s="7"/>
+      <c r="AQ51" s="7"/>
+      <c r="AR51" s="8"/>
+    </row>
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>150</v>
       </c>
@@ -3255,8 +4211,12 @@
       <c r="AL52" s="7"/>
       <c r="AM52" s="7"/>
       <c r="AN52" s="8"/>
-    </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO52" s="6"/>
+      <c r="AP52" s="7"/>
+      <c r="AQ52" s="7"/>
+      <c r="AR52" s="8"/>
+    </row>
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>149</v>
       </c>
@@ -3296,8 +4256,12 @@
       <c r="AL53" s="7"/>
       <c r="AM53" s="7"/>
       <c r="AN53" s="8"/>
-    </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO53" s="6"/>
+      <c r="AP53" s="7"/>
+      <c r="AQ53" s="7"/>
+      <c r="AR53" s="8"/>
+    </row>
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>148</v>
       </c>
@@ -3337,8 +4301,12 @@
       <c r="AL54" s="7"/>
       <c r="AM54" s="7"/>
       <c r="AN54" s="8"/>
-    </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO54" s="6"/>
+      <c r="AP54" s="7"/>
+      <c r="AQ54" s="7"/>
+      <c r="AR54" s="8"/>
+    </row>
+    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>147</v>
       </c>
@@ -3378,8 +4346,12 @@
       <c r="AL55" s="7"/>
       <c r="AM55" s="7"/>
       <c r="AN55" s="8"/>
-    </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO55" s="6"/>
+      <c r="AP55" s="7"/>
+      <c r="AQ55" s="7"/>
+      <c r="AR55" s="8"/>
+    </row>
+    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>146</v>
       </c>
@@ -3419,8 +4391,12 @@
       <c r="AL56" s="7"/>
       <c r="AM56" s="7"/>
       <c r="AN56" s="8"/>
-    </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO56" s="6"/>
+      <c r="AP56" s="7"/>
+      <c r="AQ56" s="7"/>
+      <c r="AR56" s="8"/>
+    </row>
+    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>145</v>
       </c>
@@ -3460,8 +4436,12 @@
       <c r="AL57" s="7"/>
       <c r="AM57" s="7"/>
       <c r="AN57" s="8"/>
-    </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO57" s="6"/>
+      <c r="AP57" s="7"/>
+      <c r="AQ57" s="7"/>
+      <c r="AR57" s="8"/>
+    </row>
+    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>144</v>
       </c>
@@ -3501,8 +4481,12 @@
       <c r="AL58" s="7"/>
       <c r="AM58" s="7"/>
       <c r="AN58" s="8"/>
-    </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO58" s="6"/>
+      <c r="AP58" s="7"/>
+      <c r="AQ58" s="7"/>
+      <c r="AR58" s="8"/>
+    </row>
+    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>143</v>
       </c>
@@ -3542,8 +4526,12 @@
       <c r="AL59" s="7"/>
       <c r="AM59" s="7"/>
       <c r="AN59" s="8"/>
-    </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO59" s="6"/>
+      <c r="AP59" s="7"/>
+      <c r="AQ59" s="7"/>
+      <c r="AR59" s="8"/>
+    </row>
+    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>142</v>
       </c>
@@ -3583,8 +4571,12 @@
       <c r="AL60" s="7"/>
       <c r="AM60" s="7"/>
       <c r="AN60" s="8"/>
-    </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO60" s="6"/>
+      <c r="AP60" s="7"/>
+      <c r="AQ60" s="7"/>
+      <c r="AR60" s="8"/>
+    </row>
+    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>141</v>
       </c>
@@ -3624,8 +4616,12 @@
       <c r="AL61" s="7"/>
       <c r="AM61" s="7"/>
       <c r="AN61" s="8"/>
-    </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO61" s="6"/>
+      <c r="AP61" s="7"/>
+      <c r="AQ61" s="7"/>
+      <c r="AR61" s="8"/>
+    </row>
+    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>140</v>
       </c>
@@ -3665,8 +4661,12 @@
       <c r="AL62" s="7"/>
       <c r="AM62" s="7"/>
       <c r="AN62" s="8"/>
-    </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO62" s="6"/>
+      <c r="AP62" s="7"/>
+      <c r="AQ62" s="7"/>
+      <c r="AR62" s="8"/>
+    </row>
+    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>139</v>
       </c>
@@ -3706,8 +4706,12 @@
       <c r="AL63" s="7"/>
       <c r="AM63" s="7"/>
       <c r="AN63" s="8"/>
-    </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO63" s="6"/>
+      <c r="AP63" s="7"/>
+      <c r="AQ63" s="7"/>
+      <c r="AR63" s="8"/>
+    </row>
+    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>138</v>
       </c>
@@ -3747,8 +4751,12 @@
       <c r="AL64" s="7"/>
       <c r="AM64" s="7"/>
       <c r="AN64" s="8"/>
-    </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO64" s="6"/>
+      <c r="AP64" s="7"/>
+      <c r="AQ64" s="7"/>
+      <c r="AR64" s="8"/>
+    </row>
+    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>137</v>
       </c>
@@ -3788,8 +4796,12 @@
       <c r="AL65" s="7"/>
       <c r="AM65" s="7"/>
       <c r="AN65" s="8"/>
-    </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO65" s="6"/>
+      <c r="AP65" s="7"/>
+      <c r="AQ65" s="7"/>
+      <c r="AR65" s="8"/>
+    </row>
+    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>136</v>
       </c>
@@ -3829,8 +4841,12 @@
       <c r="AL66" s="7"/>
       <c r="AM66" s="7"/>
       <c r="AN66" s="8"/>
-    </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO66" s="6"/>
+      <c r="AP66" s="7"/>
+      <c r="AQ66" s="7"/>
+      <c r="AR66" s="8"/>
+    </row>
+    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>135</v>
       </c>
@@ -3870,8 +4886,12 @@
       <c r="AL67" s="7"/>
       <c r="AM67" s="7"/>
       <c r="AN67" s="8"/>
-    </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO67" s="6"/>
+      <c r="AP67" s="7"/>
+      <c r="AQ67" s="7"/>
+      <c r="AR67" s="8"/>
+    </row>
+    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>134</v>
       </c>
@@ -3911,8 +4931,12 @@
       <c r="AL68" s="7"/>
       <c r="AM68" s="7"/>
       <c r="AN68" s="8"/>
-    </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO68" s="6"/>
+      <c r="AP68" s="7"/>
+      <c r="AQ68" s="7"/>
+      <c r="AR68" s="8"/>
+    </row>
+    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>133</v>
       </c>
@@ -3952,8 +4976,12 @@
       <c r="AL69" s="7"/>
       <c r="AM69" s="7"/>
       <c r="AN69" s="8"/>
-    </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO69" s="6"/>
+      <c r="AP69" s="7"/>
+      <c r="AQ69" s="7"/>
+      <c r="AR69" s="8"/>
+    </row>
+    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>132</v>
       </c>
@@ -3993,8 +5021,12 @@
       <c r="AL70" s="7"/>
       <c r="AM70" s="7"/>
       <c r="AN70" s="8"/>
-    </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO70" s="6"/>
+      <c r="AP70" s="7"/>
+      <c r="AQ70" s="7"/>
+      <c r="AR70" s="8"/>
+    </row>
+    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>131</v>
       </c>
@@ -4034,8 +5066,12 @@
       <c r="AL71" s="7"/>
       <c r="AM71" s="7"/>
       <c r="AN71" s="8"/>
-    </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO71" s="6"/>
+      <c r="AP71" s="7"/>
+      <c r="AQ71" s="7"/>
+      <c r="AR71" s="8"/>
+    </row>
+    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>130</v>
       </c>
@@ -4075,8 +5111,12 @@
       <c r="AL72" s="7"/>
       <c r="AM72" s="7"/>
       <c r="AN72" s="8"/>
-    </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO72" s="6"/>
+      <c r="AP72" s="7"/>
+      <c r="AQ72" s="7"/>
+      <c r="AR72" s="8"/>
+    </row>
+    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>129</v>
       </c>
@@ -4116,8 +5156,12 @@
       <c r="AL73" s="7"/>
       <c r="AM73" s="7"/>
       <c r="AN73" s="8"/>
-    </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO73" s="6"/>
+      <c r="AP73" s="7"/>
+      <c r="AQ73" s="7"/>
+      <c r="AR73" s="8"/>
+    </row>
+    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>128</v>
       </c>
@@ -4157,8 +5201,12 @@
       <c r="AL74" s="7"/>
       <c r="AM74" s="7"/>
       <c r="AN74" s="8"/>
-    </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO74" s="6"/>
+      <c r="AP74" s="7"/>
+      <c r="AQ74" s="7"/>
+      <c r="AR74" s="8"/>
+    </row>
+    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>127</v>
       </c>
@@ -4198,8 +5246,12 @@
       <c r="AL75" s="7"/>
       <c r="AM75" s="7"/>
       <c r="AN75" s="8"/>
-    </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO75" s="6"/>
+      <c r="AP75" s="7"/>
+      <c r="AQ75" s="7"/>
+      <c r="AR75" s="8"/>
+    </row>
+    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>126</v>
       </c>
@@ -4239,8 +5291,12 @@
       <c r="AL76" s="7"/>
       <c r="AM76" s="7"/>
       <c r="AN76" s="8"/>
-    </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO76" s="6"/>
+      <c r="AP76" s="7"/>
+      <c r="AQ76" s="7"/>
+      <c r="AR76" s="8"/>
+    </row>
+    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>125</v>
       </c>
@@ -4280,8 +5336,12 @@
       <c r="AL77" s="7"/>
       <c r="AM77" s="7"/>
       <c r="AN77" s="8"/>
-    </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO77" s="6"/>
+      <c r="AP77" s="7"/>
+      <c r="AQ77" s="7"/>
+      <c r="AR77" s="8"/>
+    </row>
+    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>124</v>
       </c>
@@ -4321,8 +5381,12 @@
       <c r="AL78" s="7"/>
       <c r="AM78" s="7"/>
       <c r="AN78" s="8"/>
-    </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO78" s="6"/>
+      <c r="AP78" s="7"/>
+      <c r="AQ78" s="7"/>
+      <c r="AR78" s="8"/>
+    </row>
+    <row r="79" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>123</v>
       </c>
@@ -4362,8 +5426,12 @@
       <c r="AL79" s="7"/>
       <c r="AM79" s="7"/>
       <c r="AN79" s="8"/>
-    </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO79" s="6"/>
+      <c r="AP79" s="7"/>
+      <c r="AQ79" s="7"/>
+      <c r="AR79" s="8"/>
+    </row>
+    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>122</v>
       </c>
@@ -4403,8 +5471,12 @@
       <c r="AL80" s="7"/>
       <c r="AM80" s="7"/>
       <c r="AN80" s="8"/>
-    </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO80" s="6"/>
+      <c r="AP80" s="7"/>
+      <c r="AQ80" s="7"/>
+      <c r="AR80" s="8"/>
+    </row>
+    <row r="81" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>121</v>
       </c>
@@ -4444,8 +5516,12 @@
       <c r="AL81" s="7"/>
       <c r="AM81" s="7"/>
       <c r="AN81" s="8"/>
-    </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO81" s="6"/>
+      <c r="AP81" s="7"/>
+      <c r="AQ81" s="7"/>
+      <c r="AR81" s="8"/>
+    </row>
+    <row r="82" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>120</v>
       </c>
@@ -4485,8 +5561,12 @@
       <c r="AL82" s="7"/>
       <c r="AM82" s="7"/>
       <c r="AN82" s="8"/>
-    </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO82" s="6"/>
+      <c r="AP82" s="7"/>
+      <c r="AQ82" s="7"/>
+      <c r="AR82" s="8"/>
+    </row>
+    <row r="83" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>119</v>
       </c>
@@ -4526,8 +5606,12 @@
       <c r="AL83" s="7"/>
       <c r="AM83" s="7"/>
       <c r="AN83" s="8"/>
-    </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO83" s="6"/>
+      <c r="AP83" s="7"/>
+      <c r="AQ83" s="7"/>
+      <c r="AR83" s="8"/>
+    </row>
+    <row r="84" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>118</v>
       </c>
@@ -4567,8 +5651,12 @@
       <c r="AL84" s="7"/>
       <c r="AM84" s="7"/>
       <c r="AN84" s="8"/>
-    </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO84" s="6"/>
+      <c r="AP84" s="7"/>
+      <c r="AQ84" s="7"/>
+      <c r="AR84" s="8"/>
+    </row>
+    <row r="85" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>117</v>
       </c>
@@ -4608,8 +5696,12 @@
       <c r="AL85" s="7"/>
       <c r="AM85" s="7"/>
       <c r="AN85" s="8"/>
-    </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO85" s="6"/>
+      <c r="AP85" s="7"/>
+      <c r="AQ85" s="7"/>
+      <c r="AR85" s="8"/>
+    </row>
+    <row r="86" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>116</v>
       </c>
@@ -4649,8 +5741,12 @@
       <c r="AL86" s="7"/>
       <c r="AM86" s="7"/>
       <c r="AN86" s="8"/>
-    </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO86" s="6"/>
+      <c r="AP86" s="7"/>
+      <c r="AQ86" s="7"/>
+      <c r="AR86" s="8"/>
+    </row>
+    <row r="87" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>115</v>
       </c>
@@ -4690,8 +5786,12 @@
       <c r="AL87" s="7"/>
       <c r="AM87" s="7"/>
       <c r="AN87" s="8"/>
-    </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO87" s="6"/>
+      <c r="AP87" s="7"/>
+      <c r="AQ87" s="7"/>
+      <c r="AR87" s="8"/>
+    </row>
+    <row r="88" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>114</v>
       </c>
@@ -4731,8 +5831,12 @@
       <c r="AL88" s="7"/>
       <c r="AM88" s="7"/>
       <c r="AN88" s="8"/>
-    </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO88" s="6"/>
+      <c r="AP88" s="7"/>
+      <c r="AQ88" s="7"/>
+      <c r="AR88" s="8"/>
+    </row>
+    <row r="89" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>113</v>
       </c>
@@ -4772,8 +5876,12 @@
       <c r="AL89" s="7"/>
       <c r="AM89" s="7"/>
       <c r="AN89" s="8"/>
-    </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO89" s="6"/>
+      <c r="AP89" s="7"/>
+      <c r="AQ89" s="7"/>
+      <c r="AR89" s="8"/>
+    </row>
+    <row r="90" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>112</v>
       </c>
@@ -4813,8 +5921,12 @@
       <c r="AL90" s="7"/>
       <c r="AM90" s="7"/>
       <c r="AN90" s="8"/>
-    </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO90" s="6"/>
+      <c r="AP90" s="7"/>
+      <c r="AQ90" s="7"/>
+      <c r="AR90" s="8"/>
+    </row>
+    <row r="91" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>111</v>
       </c>
@@ -4854,8 +5966,12 @@
       <c r="AL91" s="7"/>
       <c r="AM91" s="7"/>
       <c r="AN91" s="8"/>
-    </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO91" s="6"/>
+      <c r="AP91" s="7"/>
+      <c r="AQ91" s="7"/>
+      <c r="AR91" s="8"/>
+    </row>
+    <row r="92" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>110</v>
       </c>
@@ -4895,8 +6011,12 @@
       <c r="AL92" s="7"/>
       <c r="AM92" s="7"/>
       <c r="AN92" s="8"/>
-    </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO92" s="6"/>
+      <c r="AP92" s="7"/>
+      <c r="AQ92" s="7"/>
+      <c r="AR92" s="8"/>
+    </row>
+    <row r="93" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>109</v>
       </c>
@@ -4936,8 +6056,12 @@
       <c r="AL93" s="7"/>
       <c r="AM93" s="7"/>
       <c r="AN93" s="8"/>
-    </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO93" s="6"/>
+      <c r="AP93" s="7"/>
+      <c r="AQ93" s="7"/>
+      <c r="AR93" s="8"/>
+    </row>
+    <row r="94" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>108</v>
       </c>
@@ -4977,8 +6101,12 @@
       <c r="AL94" s="7"/>
       <c r="AM94" s="7"/>
       <c r="AN94" s="8"/>
-    </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO94" s="6"/>
+      <c r="AP94" s="7"/>
+      <c r="AQ94" s="7"/>
+      <c r="AR94" s="8"/>
+    </row>
+    <row r="95" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>107</v>
       </c>
@@ -5018,8 +6146,12 @@
       <c r="AL95" s="7"/>
       <c r="AM95" s="7"/>
       <c r="AN95" s="8"/>
-    </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO95" s="6"/>
+      <c r="AP95" s="7"/>
+      <c r="AQ95" s="7"/>
+      <c r="AR95" s="8"/>
+    </row>
+    <row r="96" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>106</v>
       </c>
@@ -5059,8 +6191,12 @@
       <c r="AL96" s="7"/>
       <c r="AM96" s="7"/>
       <c r="AN96" s="8"/>
-    </row>
-    <row r="97" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO96" s="6"/>
+      <c r="AP96" s="7"/>
+      <c r="AQ96" s="7"/>
+      <c r="AR96" s="8"/>
+    </row>
+    <row r="97" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>105</v>
       </c>
@@ -5100,8 +6236,12 @@
       <c r="AL97" s="7"/>
       <c r="AM97" s="7"/>
       <c r="AN97" s="8"/>
-    </row>
-    <row r="98" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO97" s="6"/>
+      <c r="AP97" s="7"/>
+      <c r="AQ97" s="7"/>
+      <c r="AR97" s="8"/>
+    </row>
+    <row r="98" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>104</v>
       </c>
@@ -5141,8 +6281,12 @@
       <c r="AL98" s="7"/>
       <c r="AM98" s="7"/>
       <c r="AN98" s="8"/>
-    </row>
-    <row r="99" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO98" s="6"/>
+      <c r="AP98" s="7"/>
+      <c r="AQ98" s="7"/>
+      <c r="AR98" s="8"/>
+    </row>
+    <row r="99" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>103</v>
       </c>
@@ -5182,8 +6326,12 @@
       <c r="AL99" s="7"/>
       <c r="AM99" s="7"/>
       <c r="AN99" s="8"/>
-    </row>
-    <row r="100" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO99" s="6"/>
+      <c r="AP99" s="7"/>
+      <c r="AQ99" s="7"/>
+      <c r="AR99" s="8"/>
+    </row>
+    <row r="100" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>102</v>
       </c>
@@ -5223,8 +6371,12 @@
       <c r="AL100" s="7"/>
       <c r="AM100" s="7"/>
       <c r="AN100" s="8"/>
-    </row>
-    <row r="101" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO100" s="6"/>
+      <c r="AP100" s="7"/>
+      <c r="AQ100" s="7"/>
+      <c r="AR100" s="8"/>
+    </row>
+    <row r="101" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>101</v>
       </c>
@@ -5264,8 +6416,12 @@
       <c r="AL101" s="7"/>
       <c r="AM101" s="7"/>
       <c r="AN101" s="8"/>
-    </row>
-    <row r="102" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO101" s="6"/>
+      <c r="AP101" s="7"/>
+      <c r="AQ101" s="7"/>
+      <c r="AR101" s="8"/>
+    </row>
+    <row r="102" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5305,8 +6461,12 @@
       <c r="AL102" s="7"/>
       <c r="AM102" s="7"/>
       <c r="AN102" s="8"/>
-    </row>
-    <row r="103" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO102" s="6"/>
+      <c r="AP102" s="7"/>
+      <c r="AQ102" s="7"/>
+      <c r="AR102" s="8"/>
+    </row>
+    <row r="103" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>99</v>
       </c>
@@ -5346,8 +6506,12 @@
       <c r="AL103" s="7"/>
       <c r="AM103" s="7"/>
       <c r="AN103" s="8"/>
-    </row>
-    <row r="104" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO103" s="6"/>
+      <c r="AP103" s="7"/>
+      <c r="AQ103" s="7"/>
+      <c r="AR103" s="8"/>
+    </row>
+    <row r="104" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>98</v>
       </c>
@@ -5387,8 +6551,12 @@
       <c r="AL104" s="7"/>
       <c r="AM104" s="7"/>
       <c r="AN104" s="8"/>
-    </row>
-    <row r="105" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO104" s="6"/>
+      <c r="AP104" s="7"/>
+      <c r="AQ104" s="7"/>
+      <c r="AR104" s="8"/>
+    </row>
+    <row r="105" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>97</v>
       </c>
@@ -5428,8 +6596,12 @@
       <c r="AL105" s="7"/>
       <c r="AM105" s="7"/>
       <c r="AN105" s="8"/>
-    </row>
-    <row r="106" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO105" s="6"/>
+      <c r="AP105" s="7"/>
+      <c r="AQ105" s="7"/>
+      <c r="AR105" s="8"/>
+    </row>
+    <row r="106" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>96</v>
       </c>
@@ -5469,8 +6641,12 @@
       <c r="AL106" s="7"/>
       <c r="AM106" s="7"/>
       <c r="AN106" s="8"/>
-    </row>
-    <row r="107" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO106" s="6"/>
+      <c r="AP106" s="7"/>
+      <c r="AQ106" s="7"/>
+      <c r="AR106" s="8"/>
+    </row>
+    <row r="107" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>95</v>
       </c>
@@ -5510,8 +6686,12 @@
       <c r="AL107" s="7"/>
       <c r="AM107" s="7"/>
       <c r="AN107" s="8"/>
-    </row>
-    <row r="108" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO107" s="6"/>
+      <c r="AP107" s="7"/>
+      <c r="AQ107" s="7"/>
+      <c r="AR107" s="8"/>
+    </row>
+    <row r="108" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>94</v>
       </c>
@@ -5551,8 +6731,12 @@
       <c r="AL108" s="7"/>
       <c r="AM108" s="7"/>
       <c r="AN108" s="8"/>
-    </row>
-    <row r="109" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO108" s="6"/>
+      <c r="AP108" s="7"/>
+      <c r="AQ108" s="7"/>
+      <c r="AR108" s="8"/>
+    </row>
+    <row r="109" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>93</v>
       </c>
@@ -5592,8 +6776,12 @@
       <c r="AL109" s="7"/>
       <c r="AM109" s="7"/>
       <c r="AN109" s="8"/>
-    </row>
-    <row r="110" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO109" s="6"/>
+      <c r="AP109" s="7"/>
+      <c r="AQ109" s="7"/>
+      <c r="AR109" s="8"/>
+    </row>
+    <row r="110" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>92</v>
       </c>
@@ -5633,8 +6821,12 @@
       <c r="AL110" s="7"/>
       <c r="AM110" s="7"/>
       <c r="AN110" s="8"/>
-    </row>
-    <row r="111" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO110" s="6"/>
+      <c r="AP110" s="7"/>
+      <c r="AQ110" s="7"/>
+      <c r="AR110" s="8"/>
+    </row>
+    <row r="111" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>91</v>
       </c>
@@ -5674,8 +6866,12 @@
       <c r="AL111" s="7"/>
       <c r="AM111" s="7"/>
       <c r="AN111" s="8"/>
-    </row>
-    <row r="112" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO111" s="6"/>
+      <c r="AP111" s="7"/>
+      <c r="AQ111" s="7"/>
+      <c r="AR111" s="8"/>
+    </row>
+    <row r="112" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>90</v>
       </c>
@@ -5715,8 +6911,12 @@
       <c r="AL112" s="7"/>
       <c r="AM112" s="7"/>
       <c r="AN112" s="8"/>
-    </row>
-    <row r="113" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO112" s="6"/>
+      <c r="AP112" s="7"/>
+      <c r="AQ112" s="7"/>
+      <c r="AR112" s="8"/>
+    </row>
+    <row r="113" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>89</v>
       </c>
@@ -5756,8 +6956,12 @@
       <c r="AL113" s="7"/>
       <c r="AM113" s="7"/>
       <c r="AN113" s="8"/>
-    </row>
-    <row r="114" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO113" s="6"/>
+      <c r="AP113" s="7"/>
+      <c r="AQ113" s="7"/>
+      <c r="AR113" s="8"/>
+    </row>
+    <row r="114" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>88</v>
       </c>
@@ -5797,8 +7001,12 @@
       <c r="AL114" s="7"/>
       <c r="AM114" s="7"/>
       <c r="AN114" s="8"/>
-    </row>
-    <row r="115" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO114" s="6"/>
+      <c r="AP114" s="7"/>
+      <c r="AQ114" s="7"/>
+      <c r="AR114" s="8"/>
+    </row>
+    <row r="115" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>87</v>
       </c>
@@ -5838,8 +7046,12 @@
       <c r="AL115" s="7"/>
       <c r="AM115" s="7"/>
       <c r="AN115" s="8"/>
-    </row>
-    <row r="116" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO115" s="6"/>
+      <c r="AP115" s="7"/>
+      <c r="AQ115" s="7"/>
+      <c r="AR115" s="8"/>
+    </row>
+    <row r="116" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>86</v>
       </c>
@@ -5879,8 +7091,12 @@
       <c r="AL116" s="7"/>
       <c r="AM116" s="7"/>
       <c r="AN116" s="8"/>
-    </row>
-    <row r="117" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO116" s="6"/>
+      <c r="AP116" s="7"/>
+      <c r="AQ116" s="7"/>
+      <c r="AR116" s="8"/>
+    </row>
+    <row r="117" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>85</v>
       </c>
@@ -5920,8 +7136,12 @@
       <c r="AL117" s="7"/>
       <c r="AM117" s="7"/>
       <c r="AN117" s="8"/>
-    </row>
-    <row r="118" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO117" s="6"/>
+      <c r="AP117" s="7"/>
+      <c r="AQ117" s="7"/>
+      <c r="AR117" s="8"/>
+    </row>
+    <row r="118" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>84</v>
       </c>
@@ -5961,8 +7181,12 @@
       <c r="AL118" s="7"/>
       <c r="AM118" s="7"/>
       <c r="AN118" s="8"/>
-    </row>
-    <row r="119" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO118" s="6"/>
+      <c r="AP118" s="7"/>
+      <c r="AQ118" s="7"/>
+      <c r="AR118" s="8"/>
+    </row>
+    <row r="119" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>83</v>
       </c>
@@ -6002,8 +7226,12 @@
       <c r="AL119" s="7"/>
       <c r="AM119" s="7"/>
       <c r="AN119" s="8"/>
-    </row>
-    <row r="120" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO119" s="6"/>
+      <c r="AP119" s="7"/>
+      <c r="AQ119" s="7"/>
+      <c r="AR119" s="8"/>
+    </row>
+    <row r="120" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>82</v>
       </c>
@@ -6043,8 +7271,12 @@
       <c r="AL120" s="7"/>
       <c r="AM120" s="7"/>
       <c r="AN120" s="8"/>
-    </row>
-    <row r="121" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO120" s="6"/>
+      <c r="AP120" s="7"/>
+      <c r="AQ120" s="7"/>
+      <c r="AR120" s="8"/>
+    </row>
+    <row r="121" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>81</v>
       </c>
@@ -6084,8 +7316,12 @@
       <c r="AL121" s="7"/>
       <c r="AM121" s="7"/>
       <c r="AN121" s="8"/>
-    </row>
-    <row r="122" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO121" s="6"/>
+      <c r="AP121" s="7"/>
+      <c r="AQ121" s="7"/>
+      <c r="AR121" s="8"/>
+    </row>
+    <row r="122" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>80</v>
       </c>
@@ -6125,8 +7361,12 @@
       <c r="AL122" s="7"/>
       <c r="AM122" s="7"/>
       <c r="AN122" s="8"/>
-    </row>
-    <row r="123" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO122" s="6"/>
+      <c r="AP122" s="7"/>
+      <c r="AQ122" s="7"/>
+      <c r="AR122" s="8"/>
+    </row>
+    <row r="123" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>79</v>
       </c>
@@ -6166,8 +7406,12 @@
       <c r="AL123" s="7"/>
       <c r="AM123" s="7"/>
       <c r="AN123" s="8"/>
-    </row>
-    <row r="124" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO123" s="6"/>
+      <c r="AP123" s="7"/>
+      <c r="AQ123" s="7"/>
+      <c r="AR123" s="8"/>
+    </row>
+    <row r="124" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>78</v>
       </c>
@@ -6207,8 +7451,12 @@
       <c r="AL124" s="7"/>
       <c r="AM124" s="7"/>
       <c r="AN124" s="8"/>
-    </row>
-    <row r="125" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO124" s="6"/>
+      <c r="AP124" s="7"/>
+      <c r="AQ124" s="7"/>
+      <c r="AR124" s="8"/>
+    </row>
+    <row r="125" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>77</v>
       </c>
@@ -6248,8 +7496,12 @@
       <c r="AL125" s="7"/>
       <c r="AM125" s="7"/>
       <c r="AN125" s="8"/>
-    </row>
-    <row r="126" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO125" s="6"/>
+      <c r="AP125" s="7"/>
+      <c r="AQ125" s="7"/>
+      <c r="AR125" s="8"/>
+    </row>
+    <row r="126" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>76</v>
       </c>
@@ -6289,8 +7541,12 @@
       <c r="AL126" s="7"/>
       <c r="AM126" s="7"/>
       <c r="AN126" s="8"/>
-    </row>
-    <row r="127" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO126" s="6"/>
+      <c r="AP126" s="7"/>
+      <c r="AQ126" s="7"/>
+      <c r="AR126" s="8"/>
+    </row>
+    <row r="127" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>75</v>
       </c>
@@ -6330,8 +7586,12 @@
       <c r="AL127" s="7"/>
       <c r="AM127" s="7"/>
       <c r="AN127" s="8"/>
-    </row>
-    <row r="128" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO127" s="6"/>
+      <c r="AP127" s="7"/>
+      <c r="AQ127" s="7"/>
+      <c r="AR127" s="8"/>
+    </row>
+    <row r="128" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>74</v>
       </c>
@@ -6371,8 +7631,12 @@
       <c r="AL128" s="7"/>
       <c r="AM128" s="7"/>
       <c r="AN128" s="8"/>
-    </row>
-    <row r="129" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO128" s="6"/>
+      <c r="AP128" s="7"/>
+      <c r="AQ128" s="7"/>
+      <c r="AR128" s="8"/>
+    </row>
+    <row r="129" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>73</v>
       </c>
@@ -6412,8 +7676,12 @@
       <c r="AL129" s="7"/>
       <c r="AM129" s="7"/>
       <c r="AN129" s="8"/>
-    </row>
-    <row r="130" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO129" s="6"/>
+      <c r="AP129" s="7"/>
+      <c r="AQ129" s="7"/>
+      <c r="AR129" s="8"/>
+    </row>
+    <row r="130" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>72</v>
       </c>
@@ -6453,8 +7721,12 @@
       <c r="AL130" s="7"/>
       <c r="AM130" s="7"/>
       <c r="AN130" s="8"/>
-    </row>
-    <row r="131" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO130" s="6"/>
+      <c r="AP130" s="7"/>
+      <c r="AQ130" s="7"/>
+      <c r="AR130" s="8"/>
+    </row>
+    <row r="131" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>71</v>
       </c>
@@ -6494,8 +7766,12 @@
       <c r="AL131" s="7"/>
       <c r="AM131" s="7"/>
       <c r="AN131" s="8"/>
-    </row>
-    <row r="132" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO131" s="6"/>
+      <c r="AP131" s="7"/>
+      <c r="AQ131" s="7"/>
+      <c r="AR131" s="8"/>
+    </row>
+    <row r="132" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>70</v>
       </c>
@@ -6535,8 +7811,12 @@
       <c r="AL132" s="7"/>
       <c r="AM132" s="7"/>
       <c r="AN132" s="8"/>
-    </row>
-    <row r="133" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO132" s="6"/>
+      <c r="AP132" s="7"/>
+      <c r="AQ132" s="7"/>
+      <c r="AR132" s="8"/>
+    </row>
+    <row r="133" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>69</v>
       </c>
@@ -6576,8 +7856,12 @@
       <c r="AL133" s="7"/>
       <c r="AM133" s="7"/>
       <c r="AN133" s="8"/>
-    </row>
-    <row r="134" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO133" s="6"/>
+      <c r="AP133" s="7"/>
+      <c r="AQ133" s="7"/>
+      <c r="AR133" s="8"/>
+    </row>
+    <row r="134" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>68</v>
       </c>
@@ -6617,8 +7901,12 @@
       <c r="AL134" s="7"/>
       <c r="AM134" s="7"/>
       <c r="AN134" s="8"/>
-    </row>
-    <row r="135" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO134" s="6"/>
+      <c r="AP134" s="7"/>
+      <c r="AQ134" s="7"/>
+      <c r="AR134" s="8"/>
+    </row>
+    <row r="135" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>67</v>
       </c>
@@ -6658,8 +7946,12 @@
       <c r="AL135" s="7"/>
       <c r="AM135" s="7"/>
       <c r="AN135" s="8"/>
-    </row>
-    <row r="136" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO135" s="6"/>
+      <c r="AP135" s="7"/>
+      <c r="AQ135" s="7"/>
+      <c r="AR135" s="8"/>
+    </row>
+    <row r="136" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>66</v>
       </c>
@@ -6699,8 +7991,12 @@
       <c r="AL136" s="7"/>
       <c r="AM136" s="7"/>
       <c r="AN136" s="8"/>
-    </row>
-    <row r="137" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO136" s="6"/>
+      <c r="AP136" s="7"/>
+      <c r="AQ136" s="7"/>
+      <c r="AR136" s="8"/>
+    </row>
+    <row r="137" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>65</v>
       </c>
@@ -6736,12 +8032,16 @@
       <c r="AH137" s="7"/>
       <c r="AI137" s="7"/>
       <c r="AJ137" s="8"/>
-      <c r="AK137" s="6"/>
-      <c r="AL137" s="7"/>
-      <c r="AM137" s="7"/>
-      <c r="AN137" s="8"/>
-    </row>
-    <row r="138" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AK137" s="20"/>
+      <c r="AL137" s="9"/>
+      <c r="AM137" s="9"/>
+      <c r="AN137" s="21"/>
+      <c r="AO137" s="6"/>
+      <c r="AP137" s="7"/>
+      <c r="AQ137" s="7"/>
+      <c r="AR137" s="8"/>
+    </row>
+    <row r="138" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>64</v>
       </c>
@@ -6777,12 +8077,16 @@
       <c r="AH138" s="7"/>
       <c r="AI138" s="7"/>
       <c r="AJ138" s="8"/>
-      <c r="AK138" s="6"/>
-      <c r="AL138" s="7"/>
-      <c r="AM138" s="7"/>
-      <c r="AN138" s="8"/>
-    </row>
-    <row r="139" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AK138" s="20"/>
+      <c r="AL138" s="9"/>
+      <c r="AM138" s="9"/>
+      <c r="AN138" s="21"/>
+      <c r="AO138" s="6"/>
+      <c r="AP138" s="7"/>
+      <c r="AQ138" s="7"/>
+      <c r="AR138" s="8"/>
+    </row>
+    <row r="139" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>63</v>
       </c>
@@ -6818,12 +8122,16 @@
       <c r="AH139" s="7"/>
       <c r="AI139" s="7"/>
       <c r="AJ139" s="8"/>
-      <c r="AK139" s="6"/>
-      <c r="AL139" s="7"/>
-      <c r="AM139" s="7"/>
-      <c r="AN139" s="8"/>
-    </row>
-    <row r="140" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AK139" s="20"/>
+      <c r="AL139" s="9"/>
+      <c r="AM139" s="9"/>
+      <c r="AN139" s="21"/>
+      <c r="AO139" s="6"/>
+      <c r="AP139" s="7"/>
+      <c r="AQ139" s="7"/>
+      <c r="AR139" s="8"/>
+    </row>
+    <row r="140" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>62</v>
       </c>
@@ -6859,28 +8167,32 @@
       <c r="AH140" s="7"/>
       <c r="AI140" s="7"/>
       <c r="AJ140" s="8"/>
-      <c r="AK140" s="36">
-        <v>1</v>
-      </c>
-      <c r="AL140" s="31">
+      <c r="AK140" s="24"/>
+      <c r="AL140" s="15"/>
+      <c r="AM140" s="15"/>
+      <c r="AN140" s="25"/>
+      <c r="AO140" s="36">
+        <v>1</v>
+      </c>
+      <c r="AP140" s="31">
         <v>6</v>
       </c>
-      <c r="AM140" s="31">
+      <c r="AQ140" s="31">
         <v>5</v>
       </c>
-      <c r="AN140" s="43">
-        <v>0</v>
-      </c>
-      <c r="AO140" t="str">
-        <f t="shared" ref="AO140:AO191" si="0">AK140&amp;AL140</f>
+      <c r="AR140" s="43">
+        <v>0</v>
+      </c>
+      <c r="AS140" t="str">
+        <f t="shared" ref="AS140:AS191" si="0">AO140&amp;AP140</f>
         <v>16</v>
       </c>
-      <c r="AP140">
-        <f t="shared" ref="AP140:AP198" si="1">IF(AO140 = "- -", "",COUNTIF(AO$140:AO$201,AO140))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AT140">
+        <f t="shared" ref="AT140:AT198" si="1">IF(AS140 = "- -", "",COUNTIF(AS$140:AS$201,AS140))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>61</v>
       </c>
@@ -6916,28 +8228,32 @@
       <c r="AH141" s="7"/>
       <c r="AI141" s="7"/>
       <c r="AJ141" s="8"/>
-      <c r="AK141" s="36">
-        <v>1</v>
-      </c>
-      <c r="AL141" s="31">
+      <c r="AK141" s="24"/>
+      <c r="AL141" s="15"/>
+      <c r="AM141" s="15"/>
+      <c r="AN141" s="25"/>
+      <c r="AO141" s="36">
+        <v>1</v>
+      </c>
+      <c r="AP141" s="31">
         <v>5</v>
       </c>
-      <c r="AM141" s="31">
+      <c r="AQ141" s="31">
         <v>5</v>
       </c>
-      <c r="AN141" s="43">
-        <v>1</v>
-      </c>
-      <c r="AO141" t="str">
+      <c r="AR141" s="43">
+        <v>1</v>
+      </c>
+      <c r="AS141" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="AP141">
+      <c r="AT141">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>60</v>
       </c>
@@ -6973,28 +8289,32 @@
       <c r="AH142" s="7"/>
       <c r="AI142" s="7"/>
       <c r="AJ142" s="8"/>
-      <c r="AK142" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL142" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM142" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN142" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO142" t="str">
+      <c r="AK142" s="20"/>
+      <c r="AL142" s="9"/>
+      <c r="AM142" s="9"/>
+      <c r="AN142" s="21"/>
+      <c r="AO142" s="6">
+        <v>2</v>
+      </c>
+      <c r="AP142" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ142" s="7">
+        <v>4</v>
+      </c>
+      <c r="AR142" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS142" t="str">
         <f t="shared" si="0"/>
-        <v>- -</v>
-      </c>
-      <c r="AP142" t="str">
+        <v>26</v>
+      </c>
+      <c r="AT142">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="1:42" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>59</v>
       </c>
@@ -7030,28 +8350,32 @@
       <c r="AH143" s="7"/>
       <c r="AI143" s="7"/>
       <c r="AJ143" s="8"/>
-      <c r="AK143" s="36">
-        <v>1</v>
-      </c>
-      <c r="AL143" s="31">
-        <v>4</v>
-      </c>
-      <c r="AM143" s="31">
+      <c r="AK143" s="24"/>
+      <c r="AL143" s="15"/>
+      <c r="AM143" s="15"/>
+      <c r="AN143" s="25"/>
+      <c r="AO143" s="36">
+        <v>1</v>
+      </c>
+      <c r="AP143" s="31">
+        <v>4</v>
+      </c>
+      <c r="AQ143" s="31">
         <v>5</v>
       </c>
-      <c r="AN143" s="43">
-        <v>2</v>
-      </c>
-      <c r="AO143" t="str">
+      <c r="AR143" s="43">
+        <v>2</v>
+      </c>
+      <c r="AS143" t="str">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="AP143">
+      <c r="AT143">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>58</v>
       </c>
@@ -7087,28 +8411,32 @@
       <c r="AH144" s="7"/>
       <c r="AI144" s="7"/>
       <c r="AJ144" s="8"/>
-      <c r="AK144" s="45">
-        <v>2</v>
-      </c>
-      <c r="AL144" s="46">
+      <c r="AK144" s="20"/>
+      <c r="AL144" s="9"/>
+      <c r="AM144" s="9"/>
+      <c r="AN144" s="21"/>
+      <c r="AO144" s="45">
+        <v>2</v>
+      </c>
+      <c r="AP144" s="46">
         <v>6</v>
       </c>
-      <c r="AM144" s="46">
-        <v>4</v>
-      </c>
-      <c r="AN144" s="47">
-        <v>0</v>
-      </c>
-      <c r="AO144" t="str">
+      <c r="AQ144" s="46">
+        <v>4</v>
+      </c>
+      <c r="AR144" s="47">
+        <v>0</v>
+      </c>
+      <c r="AS144" t="str">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AP144">
+      <c r="AT144">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:42" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>57</v>
       </c>
@@ -7144,28 +8472,32 @@
       <c r="AH145" s="7"/>
       <c r="AI145" s="7"/>
       <c r="AJ145" s="8"/>
-      <c r="AK145" s="45">
-        <v>2</v>
-      </c>
-      <c r="AL145" s="46">
+      <c r="AK145" s="20"/>
+      <c r="AL145" s="9"/>
+      <c r="AM145" s="9"/>
+      <c r="AN145" s="21"/>
+      <c r="AO145" s="45">
+        <v>2</v>
+      </c>
+      <c r="AP145" s="46">
         <v>5</v>
       </c>
-      <c r="AM145" s="46">
-        <v>4</v>
-      </c>
-      <c r="AN145" s="47">
-        <v>1</v>
-      </c>
-      <c r="AO145" t="str">
+      <c r="AQ145" s="46">
+        <v>4</v>
+      </c>
+      <c r="AR145" s="47">
+        <v>1</v>
+      </c>
+      <c r="AS145" t="str">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AP145">
+      <c r="AT145">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>56</v>
       </c>
@@ -7209,28 +8541,32 @@
       <c r="AJ146" s="43">
         <v>0</v>
       </c>
-      <c r="AK146" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL146" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM146" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN146" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO146" t="str">
+      <c r="AK146" s="20"/>
+      <c r="AL146" s="9"/>
+      <c r="AM146" s="9"/>
+      <c r="AN146" s="21"/>
+      <c r="AO146" s="6">
+        <v>3</v>
+      </c>
+      <c r="AP146" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ146" s="7">
+        <v>3</v>
+      </c>
+      <c r="AR146" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS146" t="str">
         <f t="shared" si="0"/>
-        <v>- -</v>
-      </c>
-      <c r="AP146" t="str">
+        <v>36</v>
+      </c>
+      <c r="AT146">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="1:42" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>55</v>
       </c>
@@ -7274,28 +8610,32 @@
       <c r="AJ147" s="43">
         <v>1</v>
       </c>
-      <c r="AK147" s="36">
-        <v>1</v>
-      </c>
-      <c r="AL147" s="31">
-        <v>3</v>
-      </c>
-      <c r="AM147" s="31">
+      <c r="AK147" s="24"/>
+      <c r="AL147" s="15"/>
+      <c r="AM147" s="15"/>
+      <c r="AN147" s="25"/>
+      <c r="AO147" s="36">
+        <v>1</v>
+      </c>
+      <c r="AP147" s="31">
+        <v>3</v>
+      </c>
+      <c r="AQ147" s="31">
         <v>5</v>
       </c>
-      <c r="AN147" s="43">
-        <v>3</v>
-      </c>
-      <c r="AO147" t="str">
+      <c r="AR147" s="43">
+        <v>3</v>
+      </c>
+      <c r="AS147" t="str">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="AP147">
+      <c r="AT147">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>54</v>
       </c>
@@ -7327,40 +8667,44 @@
       <c r="AD148" s="7"/>
       <c r="AE148" s="7"/>
       <c r="AF148" s="8"/>
-      <c r="AG148" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH148" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI148" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ148" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK148" s="45">
-        <v>2</v>
-      </c>
-      <c r="AL148" s="46">
+      <c r="AG148" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH148" s="7">
         <v>6</v>
       </c>
-      <c r="AM148" s="46">
-        <v>4</v>
-      </c>
-      <c r="AN148" s="47">
-        <v>0</v>
-      </c>
-      <c r="AO148" t="str">
+      <c r="AI148" s="7">
+        <v>3</v>
+      </c>
+      <c r="AJ148" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK148" s="20"/>
+      <c r="AL148" s="9"/>
+      <c r="AM148" s="9"/>
+      <c r="AN148" s="21"/>
+      <c r="AO148" s="45">
+        <v>2</v>
+      </c>
+      <c r="AP148" s="46">
+        <v>6</v>
+      </c>
+      <c r="AQ148" s="46">
+        <v>4</v>
+      </c>
+      <c r="AR148" s="47">
+        <v>0</v>
+      </c>
+      <c r="AS148" t="str">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AP148">
+      <c r="AT148">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:42" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>53</v>
       </c>
@@ -7404,28 +8748,32 @@
       <c r="AJ149" s="43">
         <v>2</v>
       </c>
-      <c r="AK149" s="45">
-        <v>2</v>
-      </c>
-      <c r="AL149" s="46">
+      <c r="AK149" s="20"/>
+      <c r="AL149" s="9"/>
+      <c r="AM149" s="9"/>
+      <c r="AN149" s="21"/>
+      <c r="AO149" s="45">
+        <v>2</v>
+      </c>
+      <c r="AP149" s="46">
         <v>5</v>
       </c>
-      <c r="AM149" s="46">
-        <v>4</v>
-      </c>
-      <c r="AN149" s="47">
-        <v>1</v>
-      </c>
-      <c r="AO149" t="str">
+      <c r="AQ149" s="46">
+        <v>4</v>
+      </c>
+      <c r="AR149" s="47">
+        <v>1</v>
+      </c>
+      <c r="AS149" t="str">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AP149">
+      <c r="AT149">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>52</v>
       </c>
@@ -7469,28 +8817,32 @@
       <c r="AJ150" s="8">
         <v>0</v>
       </c>
-      <c r="AK150" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL150" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM150" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN150" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO150" t="str">
+      <c r="AK150" s="20"/>
+      <c r="AL150" s="9"/>
+      <c r="AM150" s="9"/>
+      <c r="AN150" s="21"/>
+      <c r="AO150" s="6">
+        <v>3</v>
+      </c>
+      <c r="AP150" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ150" s="7">
+        <v>3</v>
+      </c>
+      <c r="AR150" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS150" t="str">
         <f t="shared" si="0"/>
-        <v>- -</v>
-      </c>
-      <c r="AP150" t="str">
+        <v>36</v>
+      </c>
+      <c r="AT150">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="1:42" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>51</v>
       </c>
@@ -7534,28 +8886,32 @@
       <c r="AJ151" s="8">
         <v>1</v>
       </c>
-      <c r="AK151" s="45">
-        <v>2</v>
-      </c>
-      <c r="AL151" s="46">
-        <v>4</v>
-      </c>
-      <c r="AM151" s="46">
-        <v>4</v>
-      </c>
-      <c r="AN151" s="47">
-        <v>2</v>
-      </c>
-      <c r="AO151" t="str">
+      <c r="AK151" s="20"/>
+      <c r="AL151" s="9"/>
+      <c r="AM151" s="9"/>
+      <c r="AN151" s="21"/>
+      <c r="AO151" s="45">
+        <v>2</v>
+      </c>
+      <c r="AP151" s="46">
+        <v>4</v>
+      </c>
+      <c r="AQ151" s="46">
+        <v>4</v>
+      </c>
+      <c r="AR151" s="47">
+        <v>2</v>
+      </c>
+      <c r="AS151" t="str">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AP151">
+      <c r="AT151">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>50</v>
       </c>
@@ -7587,40 +8943,44 @@
       <c r="AD152" s="7"/>
       <c r="AE152" s="7"/>
       <c r="AF152" s="8"/>
-      <c r="AG152" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH152" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI152" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ152" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK152" s="48">
-        <v>3</v>
-      </c>
-      <c r="AL152" s="49">
+      <c r="AG152" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH152" s="7">
         <v>6</v>
       </c>
-      <c r="AM152" s="49">
-        <v>3</v>
-      </c>
-      <c r="AN152" s="50">
-        <v>0</v>
-      </c>
-      <c r="AO152" t="str">
+      <c r="AI152" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ152" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK152" s="20"/>
+      <c r="AL152" s="9"/>
+      <c r="AM152" s="9"/>
+      <c r="AN152" s="21"/>
+      <c r="AO152" s="48">
+        <v>3</v>
+      </c>
+      <c r="AP152" s="49">
+        <v>6</v>
+      </c>
+      <c r="AQ152" s="49">
+        <v>3</v>
+      </c>
+      <c r="AR152" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS152" t="str">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="AP152">
+      <c r="AT152">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:42" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>49</v>
       </c>
@@ -7664,28 +9024,32 @@
       <c r="AJ153" s="43">
         <v>3</v>
       </c>
-      <c r="AK153" s="48">
-        <v>3</v>
-      </c>
-      <c r="AL153" s="49">
+      <c r="AK153" s="20"/>
+      <c r="AL153" s="9"/>
+      <c r="AM153" s="9"/>
+      <c r="AN153" s="21"/>
+      <c r="AO153" s="48">
+        <v>3</v>
+      </c>
+      <c r="AP153" s="49">
         <v>5</v>
       </c>
-      <c r="AM153" s="49">
-        <v>3</v>
-      </c>
-      <c r="AN153" s="50">
-        <v>1</v>
-      </c>
-      <c r="AO153" t="str">
+      <c r="AQ153" s="49">
+        <v>3</v>
+      </c>
+      <c r="AR153" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS153" t="str">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AP153">
+      <c r="AT153">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>48</v>
       </c>
@@ -7729,28 +9093,32 @@
       <c r="AJ154" s="8">
         <v>0</v>
       </c>
-      <c r="AK154" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL154" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM154" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN154" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO154" t="str">
+      <c r="AK154" s="20"/>
+      <c r="AL154" s="9"/>
+      <c r="AM154" s="9"/>
+      <c r="AN154" s="21"/>
+      <c r="AO154" s="6">
+        <v>4</v>
+      </c>
+      <c r="AP154" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ154" s="7">
+        <v>2</v>
+      </c>
+      <c r="AR154" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS154" t="str">
         <f t="shared" si="0"/>
-        <v>- -</v>
-      </c>
-      <c r="AP154" t="str">
+        <v>46</v>
+      </c>
+      <c r="AT154">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="1:42" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>47</v>
       </c>
@@ -7794,28 +9162,32 @@
       <c r="AJ155" s="8">
         <v>1</v>
       </c>
-      <c r="AK155" s="36">
-        <v>1</v>
-      </c>
-      <c r="AL155" s="31">
-        <v>2</v>
-      </c>
-      <c r="AM155" s="31">
+      <c r="AK155" s="24"/>
+      <c r="AL155" s="15"/>
+      <c r="AM155" s="15"/>
+      <c r="AN155" s="25"/>
+      <c r="AO155" s="36">
+        <v>1</v>
+      </c>
+      <c r="AP155" s="31">
+        <v>2</v>
+      </c>
+      <c r="AQ155" s="31">
         <v>5</v>
       </c>
-      <c r="AN155" s="43">
-        <v>4</v>
-      </c>
-      <c r="AO155" t="str">
+      <c r="AR155" s="43">
+        <v>4</v>
+      </c>
+      <c r="AS155" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="AP155">
+      <c r="AT155">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>46</v>
       </c>
@@ -7847,40 +9219,44 @@
       <c r="AD156" s="7"/>
       <c r="AE156" s="7"/>
       <c r="AF156" s="8"/>
-      <c r="AG156" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH156" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI156" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ156" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK156" s="45">
-        <v>2</v>
-      </c>
-      <c r="AL156" s="46">
+      <c r="AG156" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH156" s="7">
         <v>6</v>
       </c>
-      <c r="AM156" s="46">
-        <v>4</v>
-      </c>
-      <c r="AN156" s="47">
-        <v>0</v>
-      </c>
-      <c r="AO156" t="str">
+      <c r="AI156" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ156" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK156" s="20"/>
+      <c r="AL156" s="9"/>
+      <c r="AM156" s="9"/>
+      <c r="AN156" s="21"/>
+      <c r="AO156" s="45">
+        <v>2</v>
+      </c>
+      <c r="AP156" s="46">
+        <v>6</v>
+      </c>
+      <c r="AQ156" s="46">
+        <v>4</v>
+      </c>
+      <c r="AR156" s="47">
+        <v>0</v>
+      </c>
+      <c r="AS156" t="str">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AP156">
+      <c r="AT156">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:42" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>45</v>
       </c>
@@ -7924,28 +9300,32 @@
       <c r="AJ157" s="8">
         <v>2</v>
       </c>
-      <c r="AK157" s="45">
-        <v>2</v>
-      </c>
-      <c r="AL157" s="46">
+      <c r="AK157" s="20"/>
+      <c r="AL157" s="9"/>
+      <c r="AM157" s="9"/>
+      <c r="AN157" s="21"/>
+      <c r="AO157" s="45">
+        <v>2</v>
+      </c>
+      <c r="AP157" s="46">
         <v>5</v>
       </c>
-      <c r="AM157" s="46">
-        <v>4</v>
-      </c>
-      <c r="AN157" s="47">
-        <v>1</v>
-      </c>
-      <c r="AO157" t="str">
+      <c r="AQ157" s="46">
+        <v>4</v>
+      </c>
+      <c r="AR157" s="47">
+        <v>1</v>
+      </c>
+      <c r="AS157" t="str">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AP157">
+      <c r="AT157">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>44</v>
       </c>
@@ -7989,28 +9369,32 @@
       <c r="AJ158" s="8">
         <v>0</v>
       </c>
-      <c r="AK158" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL158" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM158" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN158" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO158" t="str">
+      <c r="AK158" s="20"/>
+      <c r="AL158" s="9"/>
+      <c r="AM158" s="9"/>
+      <c r="AN158" s="21"/>
+      <c r="AO158" s="6">
+        <v>3</v>
+      </c>
+      <c r="AP158" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ158" s="7">
+        <v>3</v>
+      </c>
+      <c r="AR158" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS158" t="str">
         <f t="shared" si="0"/>
-        <v>- -</v>
-      </c>
-      <c r="AP158" t="str">
+        <v>36</v>
+      </c>
+      <c r="AT158">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="1:42" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>43</v>
       </c>
@@ -8054,28 +9438,32 @@
       <c r="AJ159" s="8">
         <v>1</v>
       </c>
-      <c r="AK159" s="45">
-        <v>2</v>
-      </c>
-      <c r="AL159" s="46">
-        <v>4</v>
-      </c>
-      <c r="AM159" s="46">
-        <v>4</v>
-      </c>
-      <c r="AN159" s="47">
-        <v>2</v>
-      </c>
-      <c r="AO159" t="str">
+      <c r="AK159" s="20"/>
+      <c r="AL159" s="9"/>
+      <c r="AM159" s="9"/>
+      <c r="AN159" s="21"/>
+      <c r="AO159" s="45">
+        <v>2</v>
+      </c>
+      <c r="AP159" s="46">
+        <v>4</v>
+      </c>
+      <c r="AQ159" s="46">
+        <v>4</v>
+      </c>
+      <c r="AR159" s="47">
+        <v>2</v>
+      </c>
+      <c r="AS159" t="str">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AP159">
+      <c r="AT159">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>42</v>
       </c>
@@ -8107,40 +9495,44 @@
       <c r="AD160" s="7"/>
       <c r="AE160" s="7"/>
       <c r="AF160" s="8"/>
-      <c r="AG160" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH160" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI160" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ160" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK160" s="48">
-        <v>3</v>
-      </c>
-      <c r="AL160" s="49">
+      <c r="AG160" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH160" s="7">
         <v>6</v>
       </c>
-      <c r="AM160" s="49">
-        <v>3</v>
-      </c>
-      <c r="AN160" s="50">
-        <v>0</v>
-      </c>
-      <c r="AO160" t="str">
+      <c r="AI160" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ160" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK160" s="20"/>
+      <c r="AL160" s="9"/>
+      <c r="AM160" s="9"/>
+      <c r="AN160" s="21"/>
+      <c r="AO160" s="48">
+        <v>3</v>
+      </c>
+      <c r="AP160" s="49">
+        <v>6</v>
+      </c>
+      <c r="AQ160" s="49">
+        <v>3</v>
+      </c>
+      <c r="AR160" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS160" t="str">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="AP160">
+      <c r="AT160">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="161" spans="1:42" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>41</v>
       </c>
@@ -8184,28 +9576,32 @@
       <c r="AJ161" s="43">
         <v>4</v>
       </c>
-      <c r="AK161" s="48">
-        <v>3</v>
-      </c>
-      <c r="AL161" s="49">
+      <c r="AK161" s="20"/>
+      <c r="AL161" s="9"/>
+      <c r="AM161" s="9"/>
+      <c r="AN161" s="21"/>
+      <c r="AO161" s="48">
+        <v>3</v>
+      </c>
+      <c r="AP161" s="49">
         <v>5</v>
       </c>
-      <c r="AM161" s="49">
-        <v>3</v>
-      </c>
-      <c r="AN161" s="50">
-        <v>1</v>
-      </c>
-      <c r="AO161" t="str">
+      <c r="AQ161" s="49">
+        <v>3</v>
+      </c>
+      <c r="AR161" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS161" t="str">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AP161">
+      <c r="AT161">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>40</v>
       </c>
@@ -8249,28 +9645,32 @@
       <c r="AJ162" s="8">
         <v>0</v>
       </c>
-      <c r="AK162" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL162" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM162" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN162" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO162" t="str">
+      <c r="AK162" s="20"/>
+      <c r="AL162" s="9"/>
+      <c r="AM162" s="9"/>
+      <c r="AN162" s="21"/>
+      <c r="AO162" s="6">
+        <v>4</v>
+      </c>
+      <c r="AP162" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ162" s="7">
+        <v>2</v>
+      </c>
+      <c r="AR162" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS162" t="str">
         <f t="shared" si="0"/>
-        <v>- -</v>
-      </c>
-      <c r="AP162" t="str">
+        <v>46</v>
+      </c>
+      <c r="AT162">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="1:42" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>39</v>
       </c>
@@ -8314,28 +9714,32 @@
       <c r="AJ163" s="8">
         <v>1</v>
       </c>
-      <c r="AK163" s="45">
-        <v>2</v>
-      </c>
-      <c r="AL163" s="46">
-        <v>3</v>
-      </c>
-      <c r="AM163" s="46">
-        <v>4</v>
-      </c>
-      <c r="AN163" s="47">
-        <v>3</v>
-      </c>
-      <c r="AO163" t="str">
+      <c r="AK163" s="20"/>
+      <c r="AL163" s="9"/>
+      <c r="AM163" s="9"/>
+      <c r="AN163" s="21"/>
+      <c r="AO163" s="45">
+        <v>2</v>
+      </c>
+      <c r="AP163" s="46">
+        <v>3</v>
+      </c>
+      <c r="AQ163" s="46">
+        <v>4</v>
+      </c>
+      <c r="AR163" s="47">
+        <v>3</v>
+      </c>
+      <c r="AS163" t="str">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AP163">
+      <c r="AT163">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>38</v>
       </c>
@@ -8367,40 +9771,44 @@
       <c r="AD164" s="7"/>
       <c r="AE164" s="7"/>
       <c r="AF164" s="8"/>
-      <c r="AG164" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH164" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI164" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ164" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK164" s="48">
-        <v>3</v>
-      </c>
-      <c r="AL164" s="49">
+      <c r="AG164" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH164" s="7">
         <v>6</v>
       </c>
-      <c r="AM164" s="49">
-        <v>3</v>
-      </c>
-      <c r="AN164" s="50">
-        <v>0</v>
-      </c>
-      <c r="AO164" t="str">
+      <c r="AI164" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ164" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK164" s="20"/>
+      <c r="AL164" s="9"/>
+      <c r="AM164" s="9"/>
+      <c r="AN164" s="21"/>
+      <c r="AO164" s="48">
+        <v>3</v>
+      </c>
+      <c r="AP164" s="49">
+        <v>6</v>
+      </c>
+      <c r="AQ164" s="49">
+        <v>3</v>
+      </c>
+      <c r="AR164" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS164" t="str">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="AP164">
+      <c r="AT164">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="165" spans="1:42" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>37</v>
       </c>
@@ -8444,28 +9852,32 @@
       <c r="AJ165" s="8">
         <v>2</v>
       </c>
-      <c r="AK165" s="48">
-        <v>3</v>
-      </c>
-      <c r="AL165" s="49">
+      <c r="AK165" s="20"/>
+      <c r="AL165" s="9"/>
+      <c r="AM165" s="9"/>
+      <c r="AN165" s="21"/>
+      <c r="AO165" s="48">
+        <v>3</v>
+      </c>
+      <c r="AP165" s="49">
         <v>5</v>
       </c>
-      <c r="AM165" s="49">
-        <v>3</v>
-      </c>
-      <c r="AN165" s="50">
-        <v>1</v>
-      </c>
-      <c r="AO165" t="str">
+      <c r="AQ165" s="49">
+        <v>3</v>
+      </c>
+      <c r="AR165" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS165" t="str">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AP165">
+      <c r="AT165">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>36</v>
       </c>
@@ -8509,28 +9921,32 @@
       <c r="AJ166" s="8">
         <v>0</v>
       </c>
-      <c r="AK166" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL166" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM166" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN166" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO166" t="str">
+      <c r="AK166" s="20"/>
+      <c r="AL166" s="9"/>
+      <c r="AM166" s="9"/>
+      <c r="AN166" s="21"/>
+      <c r="AO166" s="6">
+        <v>4</v>
+      </c>
+      <c r="AP166" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ166" s="7">
+        <v>2</v>
+      </c>
+      <c r="AR166" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS166" t="str">
         <f t="shared" si="0"/>
-        <v>- -</v>
-      </c>
-      <c r="AP166" t="str">
+        <v>46</v>
+      </c>
+      <c r="AT166">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="1:42" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>35</v>
       </c>
@@ -8574,28 +9990,32 @@
       <c r="AJ167" s="8">
         <v>1</v>
       </c>
-      <c r="AK167" s="48">
-        <v>3</v>
-      </c>
-      <c r="AL167" s="49">
-        <v>4</v>
-      </c>
-      <c r="AM167" s="49">
-        <v>3</v>
-      </c>
-      <c r="AN167" s="50">
-        <v>2</v>
-      </c>
-      <c r="AO167" t="str">
+      <c r="AK167" s="20"/>
+      <c r="AL167" s="9"/>
+      <c r="AM167" s="9"/>
+      <c r="AN167" s="21"/>
+      <c r="AO167" s="48">
+        <v>3</v>
+      </c>
+      <c r="AP167" s="49">
+        <v>4</v>
+      </c>
+      <c r="AQ167" s="49">
+        <v>3</v>
+      </c>
+      <c r="AR167" s="50">
+        <v>2</v>
+      </c>
+      <c r="AS167" t="str">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AP167">
+      <c r="AT167">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>34</v>
       </c>
@@ -8627,40 +10047,44 @@
       <c r="AD168" s="7"/>
       <c r="AE168" s="7"/>
       <c r="AF168" s="8"/>
-      <c r="AG168" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH168" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI168" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ168" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK168" s="51">
-        <v>4</v>
-      </c>
-      <c r="AL168" s="52">
+      <c r="AG168" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH168" s="7">
         <v>6</v>
       </c>
-      <c r="AM168" s="52">
-        <v>2</v>
-      </c>
-      <c r="AN168" s="53">
-        <v>0</v>
-      </c>
-      <c r="AO168" t="str">
+      <c r="AI168" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ168" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK168" s="20"/>
+      <c r="AL168" s="9"/>
+      <c r="AM168" s="9"/>
+      <c r="AN168" s="21"/>
+      <c r="AO168" s="51">
+        <v>4</v>
+      </c>
+      <c r="AP168" s="52">
+        <v>6</v>
+      </c>
+      <c r="AQ168" s="52">
+        <v>2</v>
+      </c>
+      <c r="AR168" s="53">
+        <v>0</v>
+      </c>
+      <c r="AS168" t="str">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="AP168">
+      <c r="AT168">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:42" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>33</v>
       </c>
@@ -8704,28 +10128,32 @@
       <c r="AJ169" s="8">
         <v>3</v>
       </c>
-      <c r="AK169" s="51">
-        <v>4</v>
-      </c>
-      <c r="AL169" s="52">
+      <c r="AK169" s="20"/>
+      <c r="AL169" s="9"/>
+      <c r="AM169" s="9"/>
+      <c r="AN169" s="21"/>
+      <c r="AO169" s="51">
+        <v>4</v>
+      </c>
+      <c r="AP169" s="52">
         <v>5</v>
       </c>
-      <c r="AM169" s="52">
-        <v>2</v>
-      </c>
-      <c r="AN169" s="53">
-        <v>1</v>
-      </c>
-      <c r="AO169" t="str">
+      <c r="AQ169" s="52">
+        <v>2</v>
+      </c>
+      <c r="AR169" s="53">
+        <v>1</v>
+      </c>
+      <c r="AS169" t="str">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="AP169">
+      <c r="AT169">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>32</v>
       </c>
@@ -8769,28 +10197,32 @@
       <c r="AJ170" s="8">
         <v>0</v>
       </c>
-      <c r="AK170" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL170" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM170" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN170" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO170" t="str">
+      <c r="AK170" s="20"/>
+      <c r="AL170" s="9"/>
+      <c r="AM170" s="9"/>
+      <c r="AN170" s="21"/>
+      <c r="AO170" s="6">
+        <v>5</v>
+      </c>
+      <c r="AP170" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ170" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR170" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS170" t="str">
         <f t="shared" si="0"/>
-        <v>- -</v>
-      </c>
-      <c r="AP170" t="str">
+        <v>56</v>
+      </c>
+      <c r="AT170">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="1:42" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>31</v>
       </c>
@@ -8842,28 +10274,32 @@
       <c r="AJ171" s="8">
         <v>1</v>
       </c>
-      <c r="AK171" s="36">
-        <v>1</v>
-      </c>
-      <c r="AL171" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM171" s="31">
+      <c r="AK171" s="24"/>
+      <c r="AL171" s="15"/>
+      <c r="AM171" s="15"/>
+      <c r="AN171" s="25"/>
+      <c r="AO171" s="36">
+        <v>1</v>
+      </c>
+      <c r="AP171" s="31">
+        <v>1</v>
+      </c>
+      <c r="AQ171" s="31">
         <v>5</v>
       </c>
-      <c r="AN171" s="43">
+      <c r="AR171" s="43">
         <v>5</v>
       </c>
-      <c r="AO171" t="str">
+      <c r="AS171" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="AP171">
+      <c r="AT171">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>30</v>
       </c>
@@ -8919,40 +10355,44 @@
       <c r="AF172" s="43">
         <v>1</v>
       </c>
-      <c r="AG172" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH172" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI172" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ172" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK172" s="45">
-        <v>2</v>
-      </c>
-      <c r="AL172" s="46">
+      <c r="AG172" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH172" s="7">
         <v>6</v>
       </c>
-      <c r="AM172" s="46">
-        <v>4</v>
-      </c>
-      <c r="AN172" s="47">
-        <v>0</v>
-      </c>
-      <c r="AO172" t="str">
+      <c r="AI172" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ172" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK172" s="20"/>
+      <c r="AL172" s="9"/>
+      <c r="AM172" s="9"/>
+      <c r="AN172" s="21"/>
+      <c r="AO172" s="45">
+        <v>2</v>
+      </c>
+      <c r="AP172" s="46">
+        <v>6</v>
+      </c>
+      <c r="AQ172" s="46">
+        <v>4</v>
+      </c>
+      <c r="AR172" s="47">
+        <v>0</v>
+      </c>
+      <c r="AS172" t="str">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AP172">
+      <c r="AT172">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:42" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>29</v>
       </c>
@@ -9020,28 +10460,32 @@
       <c r="AJ173" s="8">
         <v>2</v>
       </c>
-      <c r="AK173" s="45">
-        <v>2</v>
-      </c>
-      <c r="AL173" s="46">
+      <c r="AK173" s="20"/>
+      <c r="AL173" s="9"/>
+      <c r="AM173" s="9"/>
+      <c r="AN173" s="21"/>
+      <c r="AO173" s="45">
+        <v>2</v>
+      </c>
+      <c r="AP173" s="46">
         <v>5</v>
       </c>
-      <c r="AM173" s="46">
-        <v>4</v>
-      </c>
-      <c r="AN173" s="47">
-        <v>1</v>
-      </c>
-      <c r="AO173" t="str">
+      <c r="AQ173" s="46">
+        <v>4</v>
+      </c>
+      <c r="AR173" s="47">
+        <v>1</v>
+      </c>
+      <c r="AS173" t="str">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AP173">
+      <c r="AT173">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>28</v>
       </c>
@@ -9091,40 +10535,44 @@
       <c r="AF174" s="43">
         <v>2</v>
       </c>
-      <c r="AG174" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH174" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI174" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ174" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK174" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL174" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM174" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN174" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO174" t="str">
+      <c r="AG174" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH174" s="7">
+        <v>6</v>
+      </c>
+      <c r="AI174" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ174" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK174" s="20"/>
+      <c r="AL174" s="9"/>
+      <c r="AM174" s="9"/>
+      <c r="AN174" s="21"/>
+      <c r="AO174" s="6">
+        <v>3</v>
+      </c>
+      <c r="AP174" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ174" s="7">
+        <v>3</v>
+      </c>
+      <c r="AR174" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS174" t="str">
         <f t="shared" si="0"/>
-        <v>- -</v>
-      </c>
-      <c r="AP174" t="str">
+        <v>36</v>
+      </c>
+      <c r="AT174">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="1:42" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>27</v>
       </c>
@@ -9180,40 +10628,44 @@
       <c r="AF175" s="8">
         <v>0</v>
       </c>
-      <c r="AG175" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH175" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI175" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ175" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK175" s="45">
-        <v>2</v>
-      </c>
-      <c r="AL175" s="46">
-        <v>4</v>
-      </c>
-      <c r="AM175" s="46">
-        <v>4</v>
-      </c>
-      <c r="AN175" s="47">
-        <v>2</v>
-      </c>
-      <c r="AO175" t="str">
+      <c r="AG175" s="9">
+        <v>4</v>
+      </c>
+      <c r="AH175" s="9">
+        <v>5</v>
+      </c>
+      <c r="AI175" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ175" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK175" s="20"/>
+      <c r="AL175" s="9"/>
+      <c r="AM175" s="9"/>
+      <c r="AN175" s="21"/>
+      <c r="AO175" s="45">
+        <v>2</v>
+      </c>
+      <c r="AP175" s="46">
+        <v>4</v>
+      </c>
+      <c r="AQ175" s="46">
+        <v>4</v>
+      </c>
+      <c r="AR175" s="47">
+        <v>2</v>
+      </c>
+      <c r="AS175" t="str">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AP175">
+      <c r="AT175">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>26</v>
       </c>
@@ -9283,28 +10735,32 @@
       <c r="AJ176" s="43">
         <v>5</v>
       </c>
-      <c r="AK176" s="48">
-        <v>3</v>
-      </c>
-      <c r="AL176" s="49">
+      <c r="AK176" s="20"/>
+      <c r="AL176" s="9"/>
+      <c r="AM176" s="9"/>
+      <c r="AN176" s="21"/>
+      <c r="AO176" s="48">
+        <v>3</v>
+      </c>
+      <c r="AP176" s="49">
         <v>6</v>
       </c>
-      <c r="AM176" s="49">
-        <v>3</v>
-      </c>
-      <c r="AN176" s="50">
-        <v>0</v>
-      </c>
-      <c r="AO176" t="str">
+      <c r="AQ176" s="49">
+        <v>3</v>
+      </c>
+      <c r="AR176" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS176" t="str">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="AP176">
+      <c r="AT176">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="177" spans="1:46" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>25</v>
       </c>
@@ -9374,28 +10830,32 @@
       <c r="AJ177" s="44">
         <v>0</v>
       </c>
-      <c r="AK177" s="48">
-        <v>3</v>
-      </c>
-      <c r="AL177" s="49">
+      <c r="AK177" s="20"/>
+      <c r="AL177" s="9"/>
+      <c r="AM177" s="9"/>
+      <c r="AN177" s="21"/>
+      <c r="AO177" s="48">
+        <v>3</v>
+      </c>
+      <c r="AP177" s="49">
         <v>5</v>
       </c>
-      <c r="AM177" s="49">
-        <v>3</v>
-      </c>
-      <c r="AN177" s="50">
-        <v>1</v>
-      </c>
-      <c r="AO177" t="str">
+      <c r="AQ177" s="49">
+        <v>3</v>
+      </c>
+      <c r="AR177" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS177" t="str">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AP177">
+      <c r="AT177">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>24</v>
       </c>
@@ -9457,28 +10917,32 @@
       <c r="AJ178" s="44">
         <v>1</v>
       </c>
-      <c r="AK178" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL178" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM178" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN178" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO178" t="str">
+      <c r="AK178" s="20"/>
+      <c r="AL178" s="9"/>
+      <c r="AM178" s="9"/>
+      <c r="AN178" s="21"/>
+      <c r="AO178" s="6">
+        <v>4</v>
+      </c>
+      <c r="AP178" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ178" s="7">
+        <v>2</v>
+      </c>
+      <c r="AR178" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS178" t="str">
         <f t="shared" si="0"/>
-        <v>- -</v>
-      </c>
-      <c r="AP178" t="str">
+        <v>46</v>
+      </c>
+      <c r="AT178">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="1:46" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>23</v>
       </c>
@@ -9536,40 +11000,44 @@
       <c r="AF179" s="8">
         <v>0</v>
       </c>
-      <c r="AG179" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH179" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI179" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ179" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK179" s="45">
-        <v>2</v>
-      </c>
-      <c r="AL179" s="46">
-        <v>3</v>
-      </c>
-      <c r="AM179" s="46">
-        <v>4</v>
-      </c>
-      <c r="AN179" s="47">
-        <v>3</v>
-      </c>
-      <c r="AO179" t="str">
+      <c r="AG179" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH179" s="7">
+        <v>6</v>
+      </c>
+      <c r="AI179" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ179" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK179" s="20"/>
+      <c r="AL179" s="9"/>
+      <c r="AM179" s="9"/>
+      <c r="AN179" s="21"/>
+      <c r="AO179" s="45">
+        <v>2</v>
+      </c>
+      <c r="AP179" s="46">
+        <v>3</v>
+      </c>
+      <c r="AQ179" s="46">
+        <v>4</v>
+      </c>
+      <c r="AR179" s="47">
+        <v>3</v>
+      </c>
+      <c r="AS179" t="str">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AP179">
+      <c r="AT179">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>22</v>
       </c>
@@ -9639,28 +11107,32 @@
       <c r="AJ180" s="44">
         <v>2</v>
       </c>
-      <c r="AK180" s="48">
-        <v>3</v>
-      </c>
-      <c r="AL180" s="49">
+      <c r="AK180" s="20"/>
+      <c r="AL180" s="9"/>
+      <c r="AM180" s="9"/>
+      <c r="AN180" s="21"/>
+      <c r="AO180" s="48">
+        <v>3</v>
+      </c>
+      <c r="AP180" s="49">
         <v>6</v>
       </c>
-      <c r="AM180" s="49">
-        <v>3</v>
-      </c>
-      <c r="AN180" s="50">
-        <v>0</v>
-      </c>
-      <c r="AO180" t="str">
+      <c r="AQ180" s="49">
+        <v>3</v>
+      </c>
+      <c r="AR180" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS180" t="str">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="AP180">
+      <c r="AT180">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="181" spans="1:46" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>21</v>
       </c>
@@ -9730,28 +11202,32 @@
       <c r="AJ181" s="8">
         <v>0</v>
       </c>
-      <c r="AK181" s="48">
-        <v>3</v>
-      </c>
-      <c r="AL181" s="49">
+      <c r="AK181" s="20"/>
+      <c r="AL181" s="9"/>
+      <c r="AM181" s="9"/>
+      <c r="AN181" s="21"/>
+      <c r="AO181" s="48">
+        <v>3</v>
+      </c>
+      <c r="AP181" s="49">
         <v>5</v>
       </c>
-      <c r="AM181" s="49">
-        <v>3</v>
-      </c>
-      <c r="AN181" s="50">
-        <v>1</v>
-      </c>
-      <c r="AO181" t="str">
+      <c r="AQ181" s="49">
+        <v>3</v>
+      </c>
+      <c r="AR181" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS181" t="str">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AP181">
+      <c r="AT181">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>20</v>
       </c>
@@ -9813,28 +11289,32 @@
       <c r="AJ182" s="8">
         <v>1</v>
       </c>
-      <c r="AK182" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL182" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM182" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN182" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO182" t="str">
+      <c r="AK182" s="20"/>
+      <c r="AL182" s="9"/>
+      <c r="AM182" s="9"/>
+      <c r="AN182" s="21"/>
+      <c r="AO182" s="6">
+        <v>4</v>
+      </c>
+      <c r="AP182" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ182" s="7">
+        <v>2</v>
+      </c>
+      <c r="AR182" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS182" t="str">
         <f t="shared" si="0"/>
-        <v>- -</v>
-      </c>
-      <c r="AP182" t="str">
+        <v>46</v>
+      </c>
+      <c r="AT182">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="1:46" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>19</v>
       </c>
@@ -9892,40 +11372,44 @@
       <c r="AF183" s="8">
         <v>0</v>
       </c>
-      <c r="AG183" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH183" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI183" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ183" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK183" s="48">
-        <v>3</v>
-      </c>
-      <c r="AL183" s="49">
-        <v>4</v>
-      </c>
-      <c r="AM183" s="49">
-        <v>3</v>
-      </c>
-      <c r="AN183" s="50">
-        <v>2</v>
-      </c>
-      <c r="AO183" t="str">
+      <c r="AG183" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH183" s="7">
+        <v>6</v>
+      </c>
+      <c r="AI183" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ183" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK183" s="20"/>
+      <c r="AL183" s="9"/>
+      <c r="AM183" s="9"/>
+      <c r="AN183" s="21"/>
+      <c r="AO183" s="48">
+        <v>3</v>
+      </c>
+      <c r="AP183" s="49">
+        <v>4</v>
+      </c>
+      <c r="AQ183" s="49">
+        <v>3</v>
+      </c>
+      <c r="AR183" s="50">
+        <v>2</v>
+      </c>
+      <c r="AS183" t="str">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AP183">
+      <c r="AT183">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>18</v>
       </c>
@@ -9995,28 +11479,32 @@
       <c r="AJ184" s="44">
         <v>3</v>
       </c>
-      <c r="AK184" s="51">
-        <v>4</v>
-      </c>
-      <c r="AL184" s="52">
+      <c r="AK184" s="20"/>
+      <c r="AL184" s="9"/>
+      <c r="AM184" s="9"/>
+      <c r="AN184" s="21"/>
+      <c r="AO184" s="51">
+        <v>4</v>
+      </c>
+      <c r="AP184" s="52">
         <v>6</v>
       </c>
-      <c r="AM184" s="52">
-        <v>2</v>
-      </c>
-      <c r="AN184" s="53">
-        <v>0</v>
-      </c>
-      <c r="AO184" t="str">
+      <c r="AQ184" s="52">
+        <v>2</v>
+      </c>
+      <c r="AR184" s="53">
+        <v>0</v>
+      </c>
+      <c r="AS184" t="str">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="AP184">
+      <c r="AT184">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:46" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>17</v>
       </c>
@@ -10086,34 +11574,38 @@
       <c r="AJ185" s="8">
         <v>0</v>
       </c>
-      <c r="AK185" s="51">
-        <v>4</v>
-      </c>
-      <c r="AL185" s="52">
+      <c r="AK185" s="20"/>
+      <c r="AL185" s="9"/>
+      <c r="AM185" s="9"/>
+      <c r="AN185" s="21"/>
+      <c r="AO185" s="51">
+        <v>4</v>
+      </c>
+      <c r="AP185" s="52">
         <v>5</v>
       </c>
-      <c r="AM185" s="52">
-        <v>2</v>
-      </c>
-      <c r="AN185" s="53">
-        <v>1</v>
-      </c>
-      <c r="AO185" t="str">
+      <c r="AQ185" s="52">
+        <v>2</v>
+      </c>
+      <c r="AR185" s="53">
+        <v>1</v>
+      </c>
+      <c r="AS185" t="str">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="AP185">
+      <c r="AT185">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AR185" t="s">
+      <c r="AV185" t="s">
         <v>9</v>
       </c>
-      <c r="AS185" t="s">
+      <c r="AW185" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>16</v>
       </c>
@@ -10175,37 +11667,41 @@
       <c r="AJ186" s="8">
         <v>1</v>
       </c>
-      <c r="AK186" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL186" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM186" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN186" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO186" t="str">
+      <c r="AK186" s="20"/>
+      <c r="AL186" s="9"/>
+      <c r="AM186" s="9"/>
+      <c r="AN186" s="21"/>
+      <c r="AO186" s="6">
+        <v>5</v>
+      </c>
+      <c r="AP186" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ186" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR186" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS186" t="str">
         <f t="shared" si="0"/>
-        <v>- -</v>
-      </c>
-      <c r="AP186" t="str">
+        <v>56</v>
+      </c>
+      <c r="AT186">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AR186">
-        <v>1</v>
-      </c>
-      <c r="AS186">
+        <v>5</v>
+      </c>
+      <c r="AV186">
+        <v>1</v>
+      </c>
+      <c r="AW186">
         <v>6</v>
       </c>
-      <c r="AT186" s="2" t="s">
+      <c r="AX186" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>15</v>
       </c>
@@ -10263,46 +11759,50 @@
       <c r="AF187" s="44">
         <v>0</v>
       </c>
-      <c r="AG187" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH187" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI187" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ187" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK187" s="45">
-        <v>2</v>
-      </c>
-      <c r="AL187" s="46">
-        <v>2</v>
-      </c>
-      <c r="AM187" s="46">
-        <v>4</v>
-      </c>
-      <c r="AN187" s="47">
-        <v>4</v>
-      </c>
-      <c r="AO187" t="str">
+      <c r="AG187" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH187" s="7">
+        <v>6</v>
+      </c>
+      <c r="AI187" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ187" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK187" s="20"/>
+      <c r="AL187" s="9"/>
+      <c r="AM187" s="9"/>
+      <c r="AN187" s="21"/>
+      <c r="AO187" s="45">
+        <v>2</v>
+      </c>
+      <c r="AP187" s="46">
+        <v>2</v>
+      </c>
+      <c r="AQ187" s="46">
+        <v>4</v>
+      </c>
+      <c r="AR187" s="47">
+        <v>4</v>
+      </c>
+      <c r="AS187" t="str">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AP187">
+      <c r="AT187">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AR187">
-        <v>2</v>
-      </c>
-      <c r="AS187">
+      <c r="AV187">
+        <v>2</v>
+      </c>
+      <c r="AW187">
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>14</v>
       </c>
@@ -10381,34 +11881,38 @@
       <c r="AJ188" s="8">
         <v>2</v>
       </c>
-      <c r="AK188" s="48">
-        <v>3</v>
-      </c>
-      <c r="AL188" s="49">
+      <c r="AK188" s="20"/>
+      <c r="AL188" s="9"/>
+      <c r="AM188" s="9"/>
+      <c r="AN188" s="21"/>
+      <c r="AO188" s="48">
+        <v>3</v>
+      </c>
+      <c r="AP188" s="49">
         <v>6</v>
       </c>
-      <c r="AM188" s="49">
-        <v>3</v>
-      </c>
-      <c r="AN188" s="50">
-        <v>0</v>
-      </c>
-      <c r="AO188" t="str">
+      <c r="AQ188" s="49">
+        <v>3</v>
+      </c>
+      <c r="AR188" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS188" t="str">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="AP188">
+      <c r="AT188">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AR188">
-        <v>3</v>
-      </c>
-      <c r="AS188">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:46" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="AV188">
+        <v>3</v>
+      </c>
+      <c r="AW188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>13</v>
       </c>
@@ -10466,46 +11970,46 @@
       <c r="AF189" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AG189" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH189" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI189" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ189" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK189" s="48">
-        <v>3</v>
-      </c>
-      <c r="AL189" s="49">
+      <c r="AG189" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH189" s="7">
+        <v>6</v>
+      </c>
+      <c r="AI189" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ189" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO189" s="48">
+        <v>3</v>
+      </c>
+      <c r="AP189" s="49">
         <v>5</v>
       </c>
-      <c r="AM189" s="49">
-        <v>3</v>
-      </c>
-      <c r="AN189" s="50">
-        <v>1</v>
-      </c>
-      <c r="AO189" t="str">
+      <c r="AQ189" s="49">
+        <v>3</v>
+      </c>
+      <c r="AR189" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS189" t="str">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AP189">
+      <c r="AT189">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AR189">
-        <v>4</v>
-      </c>
-      <c r="AS189">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AV189">
+        <v>4</v>
+      </c>
+      <c r="AW189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>12</v>
       </c>
@@ -10558,40 +12062,44 @@
       <c r="AF190" s="44">
         <v>2</v>
       </c>
-      <c r="AG190" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH190" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI190" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ190" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK190" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL190" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM190" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN190" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO190" t="str">
+      <c r="AG190" s="9">
+        <v>4</v>
+      </c>
+      <c r="AH190" s="9">
+        <v>5</v>
+      </c>
+      <c r="AI190" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ190" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK190" s="20"/>
+      <c r="AL190" s="9"/>
+      <c r="AM190" s="9"/>
+      <c r="AN190" s="21"/>
+      <c r="AO190" s="6">
+        <v>4</v>
+      </c>
+      <c r="AP190" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ190" s="7">
+        <v>2</v>
+      </c>
+      <c r="AR190" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS190" t="str">
         <f t="shared" si="0"/>
-        <v>- -</v>
-      </c>
-      <c r="AP190" t="str">
+        <v>46</v>
+      </c>
+      <c r="AT190">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="1:46" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>11</v>
       </c>
@@ -10658,28 +12166,32 @@
       <c r="AJ191" s="44">
         <v>4</v>
       </c>
-      <c r="AK191" s="48">
-        <v>3</v>
-      </c>
-      <c r="AL191" s="49">
-        <v>4</v>
-      </c>
-      <c r="AM191" s="49">
-        <v>3</v>
-      </c>
-      <c r="AN191" s="50">
-        <v>2</v>
-      </c>
-      <c r="AO191" t="str">
+      <c r="AK191" s="20"/>
+      <c r="AL191" s="9"/>
+      <c r="AM191" s="9"/>
+      <c r="AN191" s="21"/>
+      <c r="AO191" s="48">
+        <v>3</v>
+      </c>
+      <c r="AP191" s="49">
+        <v>4</v>
+      </c>
+      <c r="AQ191" s="49">
+        <v>3</v>
+      </c>
+      <c r="AR191" s="50">
+        <v>2</v>
+      </c>
+      <c r="AS191" t="str">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AP191">
+      <c r="AT191">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>10</v>
       </c>
@@ -10752,28 +12264,32 @@
       <c r="AJ192" s="8">
         <v>0</v>
       </c>
-      <c r="AK192" s="51">
-        <v>4</v>
-      </c>
-      <c r="AL192" s="52">
+      <c r="AK192" s="20"/>
+      <c r="AL192" s="9"/>
+      <c r="AM192" s="9"/>
+      <c r="AN192" s="21"/>
+      <c r="AO192" s="51">
+        <v>4</v>
+      </c>
+      <c r="AP192" s="52">
         <v>6</v>
       </c>
-      <c r="AM192" s="52">
-        <v>2</v>
-      </c>
-      <c r="AN192" s="53">
-        <v>0</v>
-      </c>
-      <c r="AO192" t="str">
-        <f>AK192&amp;AL192</f>
+      <c r="AQ192" s="52">
+        <v>2</v>
+      </c>
+      <c r="AR192" s="53">
+        <v>0</v>
+      </c>
+      <c r="AS192" t="str">
+        <f>AO192&amp;AP192</f>
         <v>46</v>
       </c>
-      <c r="AP192">
+      <c r="AT192">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:46" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>9</v>
       </c>
@@ -10843,37 +12359,37 @@
       <c r="AJ193" s="8">
         <v>1</v>
       </c>
-      <c r="AK193" s="51">
-        <v>4</v>
-      </c>
-      <c r="AL193" s="52">
+      <c r="AO193" s="51">
+        <v>4</v>
+      </c>
+      <c r="AP193" s="52">
         <v>5</v>
       </c>
-      <c r="AM193" s="52">
-        <v>2</v>
-      </c>
-      <c r="AN193" s="53">
-        <v>1</v>
-      </c>
-      <c r="AO193" t="str">
-        <f t="shared" ref="AO193:AO201" si="2">AK193&amp;AL193</f>
+      <c r="AQ193" s="52">
+        <v>2</v>
+      </c>
+      <c r="AR193" s="53">
+        <v>1</v>
+      </c>
+      <c r="AS193" t="str">
+        <f t="shared" ref="AS193:AS201" si="2">AO193&amp;AP193</f>
         <v>45</v>
       </c>
-      <c r="AP193">
+      <c r="AT193">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AR193" t="s">
+      <c r="AV193" t="s">
         <v>9</v>
       </c>
-      <c r="AS193" t="s">
+      <c r="AW193" t="s">
         <v>19</v>
       </c>
-      <c r="AT193" t="s">
+      <c r="AX193" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>8</v>
       </c>
@@ -10944,49 +12460,49 @@
       <c r="AF194" s="44">
         <v>3</v>
       </c>
-      <c r="AG194" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH194" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI194" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ194" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK194" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL194" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM194" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN194" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO194" t="str">
+      <c r="AG194" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH194" s="7">
+        <v>6</v>
+      </c>
+      <c r="AI194" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ194" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO194" s="6">
+        <v>5</v>
+      </c>
+      <c r="AP194" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ194" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR194" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS194" t="str">
         <f t="shared" si="2"/>
-        <v>- -</v>
-      </c>
-      <c r="AP194" t="str">
+        <v>56</v>
+      </c>
+      <c r="AT194">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AR194">
-        <v>1</v>
-      </c>
-      <c r="AS194">
-        <v>1</v>
-      </c>
-      <c r="AT194">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:46" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="AV194">
+        <v>1</v>
+      </c>
+      <c r="AW194">
+        <v>1</v>
+      </c>
+      <c r="AX194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>7</v>
       </c>
@@ -11071,37 +12587,49 @@
       <c r="AJ195" s="8">
         <v>2</v>
       </c>
-      <c r="AK195" s="48">
-        <v>3</v>
-      </c>
-      <c r="AL195" s="49">
-        <v>3</v>
-      </c>
-      <c r="AM195" s="49">
-        <v>3</v>
-      </c>
-      <c r="AN195" s="50">
-        <v>3</v>
-      </c>
-      <c r="AO195" t="str">
+      <c r="AK195" s="20">
+        <v>1</v>
+      </c>
+      <c r="AL195" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM195" s="9">
+        <v>19</v>
+      </c>
+      <c r="AN195" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO195" s="48">
+        <v>3</v>
+      </c>
+      <c r="AP195" s="49">
+        <v>3</v>
+      </c>
+      <c r="AQ195" s="49">
+        <v>3</v>
+      </c>
+      <c r="AR195" s="50">
+        <v>3</v>
+      </c>
+      <c r="AS195" t="str">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="AP195">
+      <c r="AT195">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AR195">
-        <v>1</v>
-      </c>
-      <c r="AS195">
-        <v>2</v>
-      </c>
-      <c r="AT195">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AV195">
+        <v>1</v>
+      </c>
+      <c r="AW195">
+        <v>2</v>
+      </c>
+      <c r="AX195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>6</v>
       </c>
@@ -11157,49 +12685,61 @@
       <c r="AF196" s="8">
         <v>1</v>
       </c>
-      <c r="AG196" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH196" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI196" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ196" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK196" s="51">
-        <v>4</v>
-      </c>
-      <c r="AL196" s="52">
+      <c r="AG196" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH196" s="7">
         <v>6</v>
       </c>
-      <c r="AM196" s="52">
-        <v>2</v>
-      </c>
-      <c r="AN196" s="53">
-        <v>0</v>
-      </c>
-      <c r="AO196" t="str">
+      <c r="AI196" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ196" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK196" s="20">
+        <v>1</v>
+      </c>
+      <c r="AL196" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM196" s="9">
+        <v>19</v>
+      </c>
+      <c r="AN196" s="21">
+        <v>1</v>
+      </c>
+      <c r="AO196" s="51">
+        <v>4</v>
+      </c>
+      <c r="AP196" s="52">
+        <v>6</v>
+      </c>
+      <c r="AQ196" s="52">
+        <v>2</v>
+      </c>
+      <c r="AR196" s="53">
+        <v>0</v>
+      </c>
+      <c r="AS196" t="str">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="AP196">
+      <c r="AT196">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AR196">
-        <v>1</v>
-      </c>
-      <c r="AS196">
-        <v>3</v>
-      </c>
-      <c r="AT196">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:46" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="AV196">
+        <v>1</v>
+      </c>
+      <c r="AW196">
+        <v>3</v>
+      </c>
+      <c r="AX196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>5</v>
       </c>
@@ -11262,49 +12802,61 @@
       <c r="AF197" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AG197" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH197" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI197" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ197" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK197" s="51">
-        <v>4</v>
-      </c>
-      <c r="AL197" s="52">
+      <c r="AG197" s="9">
+        <v>4</v>
+      </c>
+      <c r="AH197" s="9">
         <v>5</v>
       </c>
-      <c r="AM197" s="52">
-        <v>2</v>
-      </c>
-      <c r="AN197" s="53">
-        <v>1</v>
-      </c>
-      <c r="AO197" t="str">
+      <c r="AI197" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ197" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK197" s="20">
+        <v>2</v>
+      </c>
+      <c r="AL197" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM197" s="9">
+        <v>18</v>
+      </c>
+      <c r="AN197" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO197" s="51">
+        <v>4</v>
+      </c>
+      <c r="AP197" s="52">
+        <v>5</v>
+      </c>
+      <c r="AQ197" s="52">
+        <v>2</v>
+      </c>
+      <c r="AR197" s="53">
+        <v>1</v>
+      </c>
+      <c r="AS197" t="str">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="AP197">
+      <c r="AT197">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AR197">
-        <v>1</v>
-      </c>
-      <c r="AS197">
-        <v>4</v>
-      </c>
-      <c r="AT197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AV197">
+        <v>1</v>
+      </c>
+      <c r="AW197">
+        <v>4</v>
+      </c>
+      <c r="AX197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>4</v>
       </c>
@@ -11393,37 +12945,49 @@
       <c r="AJ198" s="8">
         <v>3</v>
       </c>
-      <c r="AK198" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL198" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM198" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN198" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO198" t="str">
+      <c r="AK198" s="20">
+        <v>1</v>
+      </c>
+      <c r="AL198" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM198" s="9">
+        <v>19</v>
+      </c>
+      <c r="AN198" s="21">
+        <v>2</v>
+      </c>
+      <c r="AO198" s="6">
+        <v>5</v>
+      </c>
+      <c r="AP198" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ198" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR198" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS198" t="str">
         <f t="shared" si="2"/>
-        <v>- -</v>
-      </c>
-      <c r="AP198" t="str">
+        <v>56</v>
+      </c>
+      <c r="AT198">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AR198">
-        <v>1</v>
-      </c>
-      <c r="AS198">
         <v>5</v>
       </c>
-      <c r="AT198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AV198">
+        <v>1</v>
+      </c>
+      <c r="AW198">
+        <v>5</v>
+      </c>
+      <c r="AX198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>3</v>
       </c>
@@ -11494,49 +13058,61 @@
       <c r="AF199" s="8">
         <v>0</v>
       </c>
-      <c r="AG199" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH199" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI199" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ199" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK199" s="51">
-        <v>4</v>
-      </c>
-      <c r="AL199" s="52">
-        <v>4</v>
-      </c>
-      <c r="AM199" s="52">
-        <v>2</v>
-      </c>
-      <c r="AN199" s="53">
-        <v>2</v>
-      </c>
-      <c r="AO199" t="str">
+      <c r="AG199" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH199" s="7">
+        <v>6</v>
+      </c>
+      <c r="AI199" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ199" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK199" s="20">
+        <v>3</v>
+      </c>
+      <c r="AL199" s="9">
+        <v>3</v>
+      </c>
+      <c r="AM199" s="9">
+        <v>18</v>
+      </c>
+      <c r="AN199" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO199" s="51">
+        <v>4</v>
+      </c>
+      <c r="AP199" s="52">
+        <v>4</v>
+      </c>
+      <c r="AQ199" s="52">
+        <v>2</v>
+      </c>
+      <c r="AR199" s="53">
+        <v>2</v>
+      </c>
+      <c r="AS199" t="str">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="AP199">
-        <f>IF(AO199 = "- -", "",COUNTIF(AO$140:AO$201,AO199))</f>
-        <v>1</v>
-      </c>
-      <c r="AR199">
-        <v>1</v>
-      </c>
-      <c r="AS199">
+      <c r="AT199">
+        <f>IF(AS199 = "- -", "",COUNTIF(AS$140:AS$201,AS199))</f>
+        <v>1</v>
+      </c>
+      <c r="AV199">
+        <v>1</v>
+      </c>
+      <c r="AW199">
         <v>6</v>
       </c>
-      <c r="AT199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AX199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2</v>
       </c>
@@ -11599,40 +13175,52 @@
       <c r="AF200" s="8">
         <v>1</v>
       </c>
-      <c r="AG200" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH200" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI200" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ200" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK200" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL200" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM200" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN200" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO200" t="str">
+      <c r="AG200" s="9">
+        <v>4</v>
+      </c>
+      <c r="AH200" s="9">
+        <v>5</v>
+      </c>
+      <c r="AI200" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ200" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK200" s="20">
+        <v>2</v>
+      </c>
+      <c r="AL200" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM200" s="9">
+        <v>18</v>
+      </c>
+      <c r="AN200" s="21">
+        <v>1</v>
+      </c>
+      <c r="AO200" s="6">
+        <v>5</v>
+      </c>
+      <c r="AP200" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ200" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR200" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS200" t="str">
         <f t="shared" si="2"/>
-        <v>- -</v>
-      </c>
-      <c r="AP200" t="str">
-        <f t="shared" ref="AP200:AP201" si="3">IF(AO200 = "- -", "",COUNTIF(AO$140:AO$201,AO200))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="1:46" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="AT200">
+        <f t="shared" ref="AT200:AT201" si="3">IF(AS200 = "- -", "",COUNTIF(AS$140:AS$201,AS200))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -11692,40 +13280,52 @@
       <c r="AF201" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AG201" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH201" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI201" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ201" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK201" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL201" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM201" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN201" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO201" t="str">
+      <c r="AG201" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH201" s="7">
+        <v>4</v>
+      </c>
+      <c r="AI201" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ201" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK201" s="20">
+        <v>3</v>
+      </c>
+      <c r="AL201" s="9">
+        <v>3</v>
+      </c>
+      <c r="AM201" s="9">
+        <v>17</v>
+      </c>
+      <c r="AN201" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO201" s="6">
+        <v>5</v>
+      </c>
+      <c r="AP201" s="7">
+        <v>5</v>
+      </c>
+      <c r="AQ201" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR201" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS201" t="str">
         <f t="shared" si="2"/>
-        <v>- -</v>
-      </c>
-      <c r="AP201" t="str">
+        <v>55</v>
+      </c>
+      <c r="AT201">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="1:46" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>0</v>
       </c>
@@ -11837,36 +13437,52 @@
         <v>0</v>
       </c>
       <c r="AM202" s="7">
+        <v>19</v>
+      </c>
+      <c r="AN202" s="8">
+        <v>3</v>
+      </c>
+      <c r="AO202" s="6">
+        <v>0</v>
+      </c>
+      <c r="AP202" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ202" s="7">
         <v>5</v>
       </c>
-      <c r="AN202" s="8">
+      <c r="AR202" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="203" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AV202">
+        <f>(477*10000) / (477*500)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203" spans="1:50" x14ac:dyDescent="0.25">
       <c r="Y203" s="7"/>
       <c r="Z203" s="7"/>
       <c r="AA203" s="7"/>
     </row>
-    <row r="204" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:50" x14ac:dyDescent="0.25">
       <c r="Y204" s="7"/>
       <c r="Z204" s="7"/>
       <c r="AA204" s="7"/>
     </row>
-    <row r="205" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:50" x14ac:dyDescent="0.25">
       <c r="Y205" s="9"/>
     </row>
-    <row r="206" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:50" x14ac:dyDescent="0.25">
       <c r="N206" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:50" x14ac:dyDescent="0.25">
       <c r="N207" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:50" x14ac:dyDescent="0.25">
       <c r="N208" t="s">
         <v>6</v>
       </c>

--- a/solutions/fabergè_easter_eggs_crush_test.xlsx
+++ b/solutions/fabergè_easter_eggs_crush_test.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="22">
   <si>
     <t>floor</t>
   </si>
@@ -89,6 +89,9 @@
   <si>
     <t>no. sub levels</t>
   </si>
+  <si>
+    <t>level 2 =</t>
+  </si>
 </sst>
 </file>
 
@@ -97,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +117,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -224,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -291,6 +302,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,1182 +618,1493 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L188"/>
+  <dimension ref="A1:Y188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="6" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="5" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="11" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="54">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B1" s="54">
         <v>1.5</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
       <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="G1" s="36">
-        <v>1</v>
-      </c>
-      <c r="H1" s="31">
+      <c r="F1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="L1" s="36">
+        <v>1</v>
+      </c>
+      <c r="M1" s="31">
         <v>6</v>
       </c>
-      <c r="I1" s="31">
+      <c r="N1" s="31">
         <v>5</v>
       </c>
-      <c r="J1" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="54">
+      <c r="O1" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B2" s="54">
         <v>1.4</v>
       </c>
-      <c r="B2" s="54">
+      <c r="D2" s="54">
         <v>2.4</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="G2" s="36">
-        <v>1</v>
-      </c>
-      <c r="H2" s="31">
+      <c r="F2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="J2" s="55"/>
+      <c r="L2" s="36">
+        <v>1</v>
+      </c>
+      <c r="M2" s="31">
         <v>5</v>
       </c>
-      <c r="I2" s="31">
+      <c r="N2" s="31">
         <v>5</v>
       </c>
-      <c r="J2" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="54">
+      <c r="O2" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="54">
         <v>1.3</v>
       </c>
-      <c r="B3" s="54">
+      <c r="D3" s="54">
         <v>2.4</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="G3" s="6">
-        <v>2</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="F3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="J3" s="55"/>
+      <c r="L3" s="6">
+        <v>2</v>
+      </c>
+      <c r="M3" s="7">
         <v>6</v>
       </c>
-      <c r="I3" s="7">
-        <v>4</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54">
+      <c r="N3" s="7">
+        <v>4</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B4" s="54"/>
+      <c r="D4" s="54">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C4" s="55">
+      <c r="F4" s="55">
         <v>3.3</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="G4" s="36">
-        <v>1</v>
-      </c>
-      <c r="H4" s="31">
-        <v>4</v>
-      </c>
-      <c r="I4" s="31">
+      <c r="H4" s="54"/>
+      <c r="J4" s="55"/>
+      <c r="L4" s="36">
+        <v>1</v>
+      </c>
+      <c r="M4" s="31">
+        <v>4</v>
+      </c>
+      <c r="N4" s="31">
         <v>5</v>
       </c>
-      <c r="J4" s="43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="54">
+      <c r="O4" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="54">
         <v>1.2</v>
       </c>
-      <c r="B5" s="54">
+      <c r="D5" s="54">
         <v>2.4</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="G5" s="45">
-        <v>2</v>
-      </c>
-      <c r="H5" s="46">
+      <c r="F5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="L5" s="45">
+        <v>2</v>
+      </c>
+      <c r="M5" s="46">
         <v>6</v>
       </c>
-      <c r="I5" s="46">
-        <v>4</v>
-      </c>
-      <c r="J5" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54">
+      <c r="N5" s="46">
+        <v>4</v>
+      </c>
+      <c r="O5" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="54"/>
+      <c r="D6" s="54">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C6" s="55">
+      <c r="F6" s="55">
         <v>3.3</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
-      <c r="G6" s="45">
-        <v>2</v>
-      </c>
-      <c r="H6" s="46">
+      <c r="H6" s="54"/>
+      <c r="J6" s="55"/>
+      <c r="L6" s="45">
+        <v>2</v>
+      </c>
+      <c r="M6" s="46">
         <v>5</v>
       </c>
-      <c r="I6" s="46">
-        <v>4</v>
-      </c>
-      <c r="J6" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54">
+      <c r="N6" s="46">
+        <v>4</v>
+      </c>
+      <c r="O6" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="54"/>
+      <c r="D7" s="54">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C7" s="55">
+      <c r="F7" s="55">
         <v>3.3</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
-      <c r="G7" s="6">
-        <v>3</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="H7" s="54"/>
+      <c r="J7" s="55"/>
+      <c r="L7" s="6">
+        <v>3</v>
+      </c>
+      <c r="M7" s="7">
         <v>6</v>
       </c>
-      <c r="I7" s="7">
-        <v>3</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="N7" s="7">
+        <v>3</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="54"/>
-      <c r="C8" s="55">
+      <c r="D8" s="54"/>
+      <c r="F8" s="55">
         <v>3.2</v>
       </c>
-      <c r="D8" s="55">
+      <c r="H8" s="55">
         <v>4.2</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="G8" s="36">
-        <v>1</v>
-      </c>
-      <c r="H8" s="31">
-        <v>3</v>
-      </c>
-      <c r="I8" s="31">
+      <c r="J8" s="55"/>
+      <c r="L8" s="36">
+        <v>1</v>
+      </c>
+      <c r="M8" s="31">
+        <v>3</v>
+      </c>
+      <c r="N8" s="31">
         <v>5</v>
       </c>
-      <c r="J8" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="54">
+      <c r="O8" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B9" s="54">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="54">
+      <c r="D9" s="54">
         <v>2.4</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-      <c r="G9" s="45">
-        <v>2</v>
-      </c>
-      <c r="H9" s="46">
+      <c r="F9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="J9" s="55"/>
+      <c r="L9" s="45">
+        <v>2</v>
+      </c>
+      <c r="M9" s="46">
         <v>6</v>
       </c>
-      <c r="I9" s="46">
-        <v>4</v>
-      </c>
-      <c r="J9" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54">
+      <c r="N9" s="46">
+        <v>4</v>
+      </c>
+      <c r="O9" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B10" s="54"/>
+      <c r="D10" s="54">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C10" s="55">
+      <c r="F10" s="55">
         <v>3.3</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
-      <c r="G10" s="45">
-        <v>2</v>
-      </c>
-      <c r="H10" s="46">
+      <c r="H10" s="54"/>
+      <c r="J10" s="55"/>
+      <c r="L10" s="45">
+        <v>2</v>
+      </c>
+      <c r="M10" s="46">
         <v>5</v>
       </c>
-      <c r="I10" s="46">
-        <v>4</v>
-      </c>
-      <c r="J10" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54">
+      <c r="N10" s="46">
+        <v>4</v>
+      </c>
+      <c r="O10" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="54"/>
+      <c r="D11" s="54">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C11" s="55">
+      <c r="F11" s="55">
         <v>3.3</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-      <c r="G11" s="6">
-        <v>3</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="H11" s="54"/>
+      <c r="J11" s="55"/>
+      <c r="L11" s="6">
+        <v>3</v>
+      </c>
+      <c r="M11" s="7">
         <v>6</v>
       </c>
-      <c r="I11" s="7">
-        <v>3</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="N11" s="7">
+        <v>3</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="56">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <f>SUM(R11:W11)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="54"/>
-      <c r="C12" s="55">
+      <c r="D12" s="54"/>
+      <c r="F12" s="55">
         <v>3.2</v>
       </c>
-      <c r="D12" s="55">
+      <c r="H12" s="55">
         <v>4.2</v>
       </c>
-      <c r="E12" s="55"/>
-      <c r="G12" s="45">
-        <v>2</v>
-      </c>
-      <c r="H12" s="46">
-        <v>4</v>
-      </c>
-      <c r="I12" s="46">
-        <v>4</v>
-      </c>
-      <c r="J12" s="47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54">
+      <c r="J12" s="55"/>
+      <c r="L12" s="45">
+        <v>2</v>
+      </c>
+      <c r="M12" s="46">
+        <v>4</v>
+      </c>
+      <c r="N12" s="46">
+        <v>4</v>
+      </c>
+      <c r="O12" s="47">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="56">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>4</v>
+      </c>
+      <c r="V12">
+        <v>5</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" ref="Y12:Y22" si="0">SUM(R12:W12)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="54"/>
+      <c r="D13" s="54">
         <v>2.1</v>
       </c>
-      <c r="C13" s="55">
+      <c r="F13" s="55">
         <v>3.3</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="G13" s="48">
-        <v>3</v>
-      </c>
-      <c r="H13" s="49">
+      <c r="H13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="L13" s="48">
+        <v>3</v>
+      </c>
+      <c r="M13" s="49">
         <v>6</v>
       </c>
-      <c r="I13" s="49">
-        <v>3</v>
-      </c>
-      <c r="J13" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+      <c r="N13" s="49">
+        <v>3</v>
+      </c>
+      <c r="O13" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="56">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>6</v>
+      </c>
+      <c r="U13">
+        <v>10</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="54"/>
-      <c r="C14" s="55">
+      <c r="D14" s="54"/>
+      <c r="F14" s="55">
         <v>3.2</v>
       </c>
-      <c r="D14" s="55">
+      <c r="H14" s="55">
         <v>4.2</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="G14" s="48">
-        <v>3</v>
-      </c>
-      <c r="H14" s="49">
+      <c r="J14" s="55"/>
+      <c r="L14" s="48">
+        <v>3</v>
+      </c>
+      <c r="M14" s="49">
         <v>5</v>
       </c>
-      <c r="I14" s="49">
-        <v>3</v>
-      </c>
-      <c r="J14" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="N14" s="49">
+        <v>3</v>
+      </c>
+      <c r="O14" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="56">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>4</v>
+      </c>
+      <c r="T14">
+        <v>10</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="54"/>
-      <c r="C15" s="55">
+      <c r="D15" s="54"/>
+      <c r="F15" s="55">
         <v>3.1</v>
       </c>
-      <c r="D15" s="55">
+      <c r="H15" s="55">
         <v>4.2</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="G15" s="6">
-        <v>4</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="J15" s="55"/>
+      <c r="L15" s="6">
+        <v>4</v>
+      </c>
+      <c r="M15" s="7">
         <v>6</v>
       </c>
-      <c r="I15" s="7">
-        <v>2</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
+      <c r="N15" s="7">
+        <v>2</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="56">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55">
+      <c r="D16" s="54"/>
+      <c r="F16" s="55"/>
+      <c r="H16" s="55">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E16" s="55">
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="55">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G16" s="36">
-        <v>1</v>
-      </c>
-      <c r="H16" s="31">
-        <v>2</v>
-      </c>
-      <c r="I16" s="31">
+      <c r="L16" s="36">
+        <v>1</v>
+      </c>
+      <c r="M16" s="31">
+        <v>2</v>
+      </c>
+      <c r="N16" s="31">
         <v>5</v>
       </c>
-      <c r="J16" s="43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="54">
-        <v>1</v>
+      <c r="O16" s="43">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="56"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>31</v>
       </c>
       <c r="B17" s="54">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="54">
         <v>2.4</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
-      <c r="G17" s="45">
-        <v>2</v>
-      </c>
-      <c r="H17" s="46">
+      <c r="F17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="J17" s="55"/>
+      <c r="L17" s="45">
+        <v>2</v>
+      </c>
+      <c r="M17" s="46">
         <v>6</v>
       </c>
-      <c r="I17" s="46">
-        <v>4</v>
-      </c>
-      <c r="J17" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54">
+      <c r="N17" s="46">
+        <v>4</v>
+      </c>
+      <c r="O17" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="56">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B18" s="54"/>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="54">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C18" s="55">
+      <c r="F18" s="55">
         <v>3.3</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-      <c r="G18" s="45">
-        <v>2</v>
-      </c>
-      <c r="H18" s="46">
+      <c r="H18" s="54"/>
+      <c r="J18" s="55"/>
+      <c r="L18" s="45">
+        <v>2</v>
+      </c>
+      <c r="M18" s="46">
         <v>5</v>
       </c>
-      <c r="I18" s="46">
-        <v>4</v>
-      </c>
-      <c r="J18" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54">
+      <c r="N18" s="46">
+        <v>4</v>
+      </c>
+      <c r="O18" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="56">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>4</v>
+      </c>
+      <c r="V18">
+        <v>5</v>
+      </c>
+      <c r="W18">
+        <v>6</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B19" s="54"/>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" s="54">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C19" s="55">
+      <c r="F19" s="55">
         <v>3.3</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-      <c r="G19" s="6">
-        <v>3</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="H19" s="54"/>
+      <c r="J19" s="55"/>
+      <c r="L19" s="6">
+        <v>3</v>
+      </c>
+      <c r="M19" s="7">
         <v>6</v>
       </c>
-      <c r="I19" s="7">
-        <v>3</v>
-      </c>
-      <c r="J19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
+      <c r="N19" s="7">
+        <v>3</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="56">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>3</v>
+      </c>
+      <c r="T19">
+        <v>6</v>
+      </c>
+      <c r="U19">
+        <v>10</v>
+      </c>
+      <c r="V19">
+        <v>15</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" s="54"/>
-      <c r="C20" s="55">
+      <c r="D20" s="54"/>
+      <c r="F20" s="55">
         <v>3.2</v>
       </c>
-      <c r="D20" s="55">
+      <c r="H20" s="55">
         <v>4.2</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="G20" s="45">
-        <v>2</v>
-      </c>
-      <c r="H20" s="46">
-        <v>4</v>
-      </c>
-      <c r="I20" s="46">
-        <v>4</v>
-      </c>
-      <c r="J20" s="47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54">
+      <c r="J20" s="55"/>
+      <c r="L20" s="45">
+        <v>2</v>
+      </c>
+      <c r="M20" s="46">
+        <v>4</v>
+      </c>
+      <c r="N20" s="46">
+        <v>4</v>
+      </c>
+      <c r="O20" s="47">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="56">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <v>10</v>
+      </c>
+      <c r="U20">
+        <v>20</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B21" s="54"/>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21" s="54">
         <v>2.1</v>
       </c>
-      <c r="C21" s="55">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="55">
         <v>3.3</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="G21" s="48">
-        <v>3</v>
-      </c>
-      <c r="H21" s="49">
+      <c r="H21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="L21" s="48">
+        <v>3</v>
+      </c>
+      <c r="M21" s="49">
         <v>6</v>
       </c>
-      <c r="I21" s="49">
-        <v>3</v>
-      </c>
-      <c r="J21" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
+      <c r="N21" s="49">
+        <v>3</v>
+      </c>
+      <c r="O21" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="56">
+        <v>5</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>5</v>
+      </c>
+      <c r="T21">
+        <v>15</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="54"/>
-      <c r="C22" s="55">
+      <c r="D22" s="54"/>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="55">
         <v>3.2</v>
       </c>
-      <c r="D22" s="55">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="55">
         <v>4.2</v>
       </c>
-      <c r="E22" s="55"/>
-      <c r="G22" s="48">
-        <v>3</v>
-      </c>
-      <c r="H22" s="49">
+      <c r="J22" s="55"/>
+      <c r="L22" s="48">
+        <v>3</v>
+      </c>
+      <c r="M22" s="49">
         <v>5</v>
       </c>
-      <c r="I22" s="49">
-        <v>3</v>
-      </c>
-      <c r="J22" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
+      <c r="N22" s="49">
+        <v>3</v>
+      </c>
+      <c r="O22" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="56">
+        <v>6</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>6</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="54"/>
-      <c r="C23" s="55">
+      <c r="D23" s="54"/>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23" s="55">
         <v>3.1</v>
       </c>
-      <c r="D23" s="55">
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="55">
         <v>4.2</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="G23" s="6">
-        <v>4</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="J23" s="55"/>
+      <c r="L23" s="6">
+        <v>4</v>
+      </c>
+      <c r="M23" s="7">
         <v>6</v>
       </c>
-      <c r="I23" s="7">
-        <v>2</v>
-      </c>
-      <c r="J23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
+      <c r="N23" s="7">
+        <v>2</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55">
+      <c r="D24" s="54"/>
+      <c r="F24" s="55"/>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24" s="55">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E24" s="55">
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="55">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G24" s="45">
-        <v>2</v>
-      </c>
-      <c r="H24" s="46">
-        <v>3</v>
-      </c>
-      <c r="I24" s="46">
-        <v>4</v>
-      </c>
-      <c r="J24" s="47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
-      <c r="B25" s="55">
-        <v>2</v>
-      </c>
-      <c r="C25" s="55">
+      <c r="L24" s="45">
+        <v>2</v>
+      </c>
+      <c r="M24" s="46">
+        <v>3</v>
+      </c>
+      <c r="N24" s="46">
+        <v>4</v>
+      </c>
+      <c r="O24" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="54"/>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25" s="55">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="55">
         <v>3.3</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="G25" s="48">
-        <v>3</v>
-      </c>
-      <c r="H25" s="49">
+      <c r="H25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="L25" s="48">
+        <v>3</v>
+      </c>
+      <c r="M25" s="49">
         <v>6</v>
       </c>
-      <c r="I25" s="49">
-        <v>3</v>
-      </c>
-      <c r="J25" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55">
+      <c r="N25" s="49">
+        <v>3</v>
+      </c>
+      <c r="O25" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B26" s="54"/>
+      <c r="D26" s="55"/>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" s="55">
         <v>3.2</v>
       </c>
-      <c r="D26" s="55">
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="55">
         <v>4.2</v>
       </c>
-      <c r="E26" s="55"/>
-      <c r="G26" s="48">
-        <v>3</v>
-      </c>
-      <c r="H26" s="49">
+      <c r="J26" s="55"/>
+      <c r="L26" s="48">
+        <v>3</v>
+      </c>
+      <c r="M26" s="49">
         <v>5</v>
       </c>
-      <c r="I26" s="49">
-        <v>3</v>
-      </c>
-      <c r="J26" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55">
+      <c r="N26" s="49">
+        <v>3</v>
+      </c>
+      <c r="O26" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B27" s="54"/>
+      <c r="D27" s="55"/>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27" s="55">
         <v>3.1</v>
       </c>
-      <c r="D27" s="55">
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="55">
         <v>4.2</v>
       </c>
-      <c r="E27" s="55"/>
-      <c r="G27" s="6">
-        <v>4</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="J27" s="55"/>
+      <c r="L27" s="6">
+        <v>4</v>
+      </c>
+      <c r="M27" s="7">
         <v>6</v>
       </c>
-      <c r="I27" s="7">
-        <v>2</v>
-      </c>
-      <c r="J27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55">
+      <c r="N27" s="7">
+        <v>2</v>
+      </c>
+      <c r="O27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="54"/>
+      <c r="D28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28" s="55">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E28" s="55">
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" s="55">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G28" s="48">
-        <v>3</v>
-      </c>
-      <c r="H28" s="49">
-        <v>4</v>
-      </c>
-      <c r="I28" s="49">
-        <v>3</v>
-      </c>
-      <c r="J28" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55">
-        <v>3</v>
-      </c>
-      <c r="D29" s="55">
+      <c r="L28" s="48">
+        <v>3</v>
+      </c>
+      <c r="M28" s="49">
+        <v>4</v>
+      </c>
+      <c r="N28" s="49">
+        <v>3</v>
+      </c>
+      <c r="O28" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="54"/>
+      <c r="D29" s="55"/>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29" s="55">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" s="55">
         <v>4.2</v>
       </c>
-      <c r="E29" s="55"/>
-      <c r="G29" s="51">
-        <v>4</v>
-      </c>
-      <c r="H29" s="52">
+      <c r="J29" s="55"/>
+      <c r="L29" s="51">
+        <v>4</v>
+      </c>
+      <c r="M29" s="52">
         <v>6</v>
       </c>
-      <c r="I29" s="52">
-        <v>2</v>
-      </c>
-      <c r="J29" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55">
+      <c r="N29" s="52">
+        <v>2</v>
+      </c>
+      <c r="O29" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B30" s="54"/>
+      <c r="D30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" s="55">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E30" s="55">
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" s="55">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G30" s="51">
-        <v>4</v>
-      </c>
-      <c r="H30" s="52">
+      <c r="L30" s="51">
+        <v>4</v>
+      </c>
+      <c r="M30" s="52">
         <v>5</v>
       </c>
-      <c r="I30" s="52">
-        <v>2</v>
-      </c>
-      <c r="J30" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55">
-        <v>4</v>
-      </c>
-      <c r="E31" s="55">
+      <c r="N30" s="52">
+        <v>2</v>
+      </c>
+      <c r="O30" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B31" s="54"/>
+      <c r="D31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31" s="55">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" s="55">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G31" s="6">
+      <c r="L31" s="6">
         <v>5</v>
       </c>
-      <c r="H31" s="7">
+      <c r="M31" s="7">
         <v>6</v>
       </c>
-      <c r="I31" s="7">
-        <v>1</v>
-      </c>
-      <c r="J31" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E32" s="55">
+      <c r="N31" s="7">
+        <v>1</v>
+      </c>
+      <c r="O31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" s="55">
         <v>5</v>
       </c>
-      <c r="G32" s="36">
-        <v>1</v>
-      </c>
-      <c r="H32" s="31">
-        <v>1</v>
-      </c>
-      <c r="I32" s="31">
+      <c r="L32" s="36">
+        <v>1</v>
+      </c>
+      <c r="M32" s="31">
+        <v>1</v>
+      </c>
+      <c r="N32" s="31">
         <v>5</v>
       </c>
-      <c r="J32" s="43">
+      <c r="O32" s="43">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G33" s="45">
-        <v>2</v>
-      </c>
-      <c r="H33" s="46">
+    <row r="33" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L33" s="45">
+        <v>2</v>
+      </c>
+      <c r="M33" s="46">
         <v>6</v>
       </c>
-      <c r="I33" s="46">
-        <v>4</v>
-      </c>
-      <c r="J33" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G34" s="45">
-        <v>2</v>
-      </c>
-      <c r="H34" s="46">
+      <c r="N33" s="46">
+        <v>4</v>
+      </c>
+      <c r="O33" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L34" s="45">
+        <v>2</v>
+      </c>
+      <c r="M34" s="46">
         <v>5</v>
       </c>
-      <c r="I34" s="46">
-        <v>4</v>
-      </c>
-      <c r="J34" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G35" s="6">
-        <v>3</v>
-      </c>
-      <c r="H35" s="7">
+      <c r="N34" s="46">
+        <v>4</v>
+      </c>
+      <c r="O34" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L35" s="6">
+        <v>3</v>
+      </c>
+      <c r="M35" s="7">
         <v>6</v>
       </c>
-      <c r="I35" s="7">
-        <v>3</v>
-      </c>
-      <c r="J35" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G36" s="45">
-        <v>2</v>
-      </c>
-      <c r="H36" s="46">
-        <v>4</v>
-      </c>
-      <c r="I36" s="46">
-        <v>4</v>
-      </c>
-      <c r="J36" s="47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G37" s="48">
-        <v>3</v>
-      </c>
-      <c r="H37" s="49">
+      <c r="N35" s="7">
+        <v>3</v>
+      </c>
+      <c r="O35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L36" s="45">
+        <v>2</v>
+      </c>
+      <c r="M36" s="46">
+        <v>4</v>
+      </c>
+      <c r="N36" s="46">
+        <v>4</v>
+      </c>
+      <c r="O36" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L37" s="48">
+        <v>3</v>
+      </c>
+      <c r="M37" s="49">
         <v>6</v>
       </c>
-      <c r="I37" s="49">
-        <v>3</v>
-      </c>
-      <c r="J37" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G38" s="48">
-        <v>3</v>
-      </c>
-      <c r="H38" s="49">
+      <c r="N37" s="49">
+        <v>3</v>
+      </c>
+      <c r="O37" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L38" s="48">
+        <v>3</v>
+      </c>
+      <c r="M38" s="49">
         <v>5</v>
       </c>
-      <c r="I38" s="49">
-        <v>3</v>
-      </c>
-      <c r="J38" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G39" s="6">
-        <v>2</v>
-      </c>
-      <c r="H39" s="7">
+      <c r="N38" s="49">
+        <v>3</v>
+      </c>
+      <c r="O38" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L39" s="6">
+        <v>2</v>
+      </c>
+      <c r="M39" s="7">
         <v>6</v>
       </c>
-      <c r="I39" s="7">
-        <v>2</v>
-      </c>
-      <c r="J39" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G40" s="45">
-        <v>2</v>
-      </c>
-      <c r="H40" s="46">
-        <v>3</v>
-      </c>
-      <c r="I40" s="46">
-        <v>4</v>
-      </c>
-      <c r="J40" s="47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G41" s="48">
-        <v>3</v>
-      </c>
-      <c r="H41" s="49">
+      <c r="N39" s="7">
+        <v>2</v>
+      </c>
+      <c r="O39" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L40" s="45">
+        <v>2</v>
+      </c>
+      <c r="M40" s="46">
+        <v>3</v>
+      </c>
+      <c r="N40" s="46">
+        <v>4</v>
+      </c>
+      <c r="O40" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L41" s="48">
+        <v>3</v>
+      </c>
+      <c r="M41" s="49">
         <v>6</v>
       </c>
-      <c r="I41" s="49">
-        <v>3</v>
-      </c>
-      <c r="J41" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G42" s="48">
-        <v>3</v>
-      </c>
-      <c r="H42" s="49">
+      <c r="N41" s="49">
+        <v>3</v>
+      </c>
+      <c r="O41" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L42" s="48">
+        <v>3</v>
+      </c>
+      <c r="M42" s="49">
         <v>5</v>
       </c>
-      <c r="I42" s="49">
-        <v>3</v>
-      </c>
-      <c r="J42" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G43" s="6">
-        <v>4</v>
-      </c>
-      <c r="H43" s="7">
+      <c r="N42" s="49">
+        <v>3</v>
+      </c>
+      <c r="O42" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L43" s="6">
+        <v>4</v>
+      </c>
+      <c r="M43" s="7">
         <v>6</v>
       </c>
-      <c r="I43" s="7">
-        <v>2</v>
-      </c>
-      <c r="J43" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G44" s="48">
-        <v>3</v>
-      </c>
-      <c r="H44" s="49">
-        <v>4</v>
-      </c>
-      <c r="I44" s="49">
-        <v>3</v>
-      </c>
-      <c r="J44" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G45" s="51">
-        <v>4</v>
-      </c>
-      <c r="H45" s="52">
+      <c r="N43" s="7">
+        <v>2</v>
+      </c>
+      <c r="O43" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L44" s="48">
+        <v>3</v>
+      </c>
+      <c r="M44" s="49">
+        <v>4</v>
+      </c>
+      <c r="N44" s="49">
+        <v>3</v>
+      </c>
+      <c r="O44" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L45" s="51">
+        <v>4</v>
+      </c>
+      <c r="M45" s="52">
         <v>6</v>
       </c>
-      <c r="I45" s="52">
-        <v>2</v>
-      </c>
-      <c r="J45" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G46" s="51">
-        <v>4</v>
-      </c>
-      <c r="H46" s="52">
+      <c r="N45" s="52">
+        <v>2</v>
+      </c>
+      <c r="O45" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L46" s="51">
+        <v>4</v>
+      </c>
+      <c r="M46" s="52">
         <v>5</v>
       </c>
-      <c r="I46" s="52">
-        <v>2</v>
-      </c>
-      <c r="J46" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G47" s="6">
+      <c r="N46" s="52">
+        <v>2</v>
+      </c>
+      <c r="O46" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L47" s="6">
         <v>5</v>
       </c>
-      <c r="H47" s="7">
+      <c r="M47" s="7">
         <v>6</v>
       </c>
-      <c r="I47" s="7">
-        <v>1</v>
-      </c>
-      <c r="J47" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G48" s="45">
-        <v>2</v>
-      </c>
-      <c r="H48" s="46">
-        <v>2</v>
-      </c>
-      <c r="I48" s="46">
-        <v>4</v>
-      </c>
-      <c r="J48" s="47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G49" s="48">
-        <v>3</v>
-      </c>
-      <c r="H49" s="49">
+      <c r="N47" s="7">
+        <v>1</v>
+      </c>
+      <c r="O47" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L48" s="45">
+        <v>2</v>
+      </c>
+      <c r="M48" s="46">
+        <v>2</v>
+      </c>
+      <c r="N48" s="46">
+        <v>4</v>
+      </c>
+      <c r="O48" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L49" s="48">
+        <v>3</v>
+      </c>
+      <c r="M49" s="49">
         <v>6</v>
       </c>
-      <c r="I49" s="49">
-        <v>3</v>
-      </c>
-      <c r="J49" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G50" s="48">
-        <v>3</v>
-      </c>
-      <c r="H50" s="49">
+      <c r="N49" s="49">
+        <v>3</v>
+      </c>
+      <c r="O49" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L50" s="48">
+        <v>3</v>
+      </c>
+      <c r="M50" s="49">
         <v>5</v>
       </c>
-      <c r="I50" s="49">
-        <v>3</v>
-      </c>
-      <c r="J50" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G51" s="6">
-        <v>4</v>
-      </c>
-      <c r="H51" s="7">
+      <c r="N50" s="49">
+        <v>3</v>
+      </c>
+      <c r="O50" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L51" s="6">
+        <v>4</v>
+      </c>
+      <c r="M51" s="7">
         <v>6</v>
       </c>
-      <c r="I51" s="7">
-        <v>2</v>
-      </c>
-      <c r="J51" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G52" s="48">
-        <v>3</v>
-      </c>
-      <c r="H52" s="49">
-        <v>4</v>
-      </c>
-      <c r="I52" s="49">
-        <v>3</v>
-      </c>
-      <c r="J52" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G53" s="51">
-        <v>4</v>
-      </c>
-      <c r="H53" s="52">
+      <c r="N51" s="7">
+        <v>2</v>
+      </c>
+      <c r="O51" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L52" s="48">
+        <v>3</v>
+      </c>
+      <c r="M52" s="49">
+        <v>4</v>
+      </c>
+      <c r="N52" s="49">
+        <v>3</v>
+      </c>
+      <c r="O52" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L53" s="51">
+        <v>4</v>
+      </c>
+      <c r="M53" s="52">
         <v>6</v>
       </c>
-      <c r="I53" s="52">
-        <v>2</v>
-      </c>
-      <c r="J53" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G54" s="51">
-        <v>4</v>
-      </c>
-      <c r="H54" s="52">
+      <c r="N53" s="52">
+        <v>2</v>
+      </c>
+      <c r="O53" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L54" s="51">
+        <v>4</v>
+      </c>
+      <c r="M54" s="52">
         <v>5</v>
       </c>
-      <c r="I54" s="52">
-        <v>2</v>
-      </c>
-      <c r="J54" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G55" s="6">
+      <c r="N54" s="52">
+        <v>2</v>
+      </c>
+      <c r="O54" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L55" s="6">
         <v>5</v>
       </c>
-      <c r="H55" s="7">
+      <c r="M55" s="7">
         <v>6</v>
       </c>
-      <c r="I55" s="7">
-        <v>1</v>
-      </c>
-      <c r="J55" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G56" s="48">
-        <v>3</v>
-      </c>
-      <c r="H56" s="49">
-        <v>3</v>
-      </c>
-      <c r="I56" s="49">
-        <v>3</v>
-      </c>
-      <c r="J56" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G57" s="51">
-        <v>4</v>
-      </c>
-      <c r="H57" s="52">
+      <c r="N55" s="7">
+        <v>1</v>
+      </c>
+      <c r="O55" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L56" s="48">
+        <v>3</v>
+      </c>
+      <c r="M56" s="49">
+        <v>3</v>
+      </c>
+      <c r="N56" s="49">
+        <v>3</v>
+      </c>
+      <c r="O56" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L57" s="51">
+        <v>4</v>
+      </c>
+      <c r="M57" s="52">
         <v>6</v>
       </c>
-      <c r="I57" s="52">
-        <v>2</v>
-      </c>
-      <c r="J57" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G58" s="51">
-        <v>4</v>
-      </c>
-      <c r="H58" s="52">
+      <c r="N57" s="52">
+        <v>2</v>
+      </c>
+      <c r="O57" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L58" s="51">
+        <v>4</v>
+      </c>
+      <c r="M58" s="52">
         <v>5</v>
       </c>
-      <c r="I58" s="52">
-        <v>2</v>
-      </c>
-      <c r="J58" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G59" s="6">
+      <c r="N58" s="52">
+        <v>2</v>
+      </c>
+      <c r="O58" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L59" s="6">
         <v>5</v>
       </c>
-      <c r="H59" s="7">
+      <c r="M59" s="7">
         <v>6</v>
       </c>
-      <c r="I59" s="7">
-        <v>1</v>
-      </c>
-      <c r="J59" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G60" s="51">
-        <v>4</v>
-      </c>
-      <c r="H60" s="52">
-        <v>4</v>
-      </c>
-      <c r="I60" s="52">
-        <v>2</v>
-      </c>
-      <c r="J60" s="53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G61" s="6">
+      <c r="N59" s="7">
+        <v>1</v>
+      </c>
+      <c r="O59" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L60" s="51">
+        <v>4</v>
+      </c>
+      <c r="M60" s="52">
+        <v>4</v>
+      </c>
+      <c r="N60" s="52">
+        <v>2</v>
+      </c>
+      <c r="O60" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L61" s="6">
         <v>5</v>
       </c>
-      <c r="H61" s="7">
+      <c r="M61" s="7">
         <v>6</v>
       </c>
-      <c r="I61" s="7">
-        <v>1</v>
-      </c>
-      <c r="J61" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G62" s="6">
+      <c r="N61" s="7">
+        <v>1</v>
+      </c>
+      <c r="O61" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L62" s="6">
         <v>5</v>
       </c>
-      <c r="H62" s="7">
+      <c r="M62" s="7">
         <v>5</v>
       </c>
-      <c r="I62" s="7">
-        <v>1</v>
-      </c>
-      <c r="J62" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G63" s="6">
-        <v>0</v>
-      </c>
-      <c r="H63" s="7">
-        <v>0</v>
-      </c>
-      <c r="I63" s="7">
+      <c r="N62" s="7">
+        <v>1</v>
+      </c>
+      <c r="O62" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L63" s="6">
+        <v>0</v>
+      </c>
+      <c r="M63" s="7">
+        <v>0</v>
+      </c>
+      <c r="N63" s="7">
         <v>5</v>
       </c>
-      <c r="J63" s="8">
+      <c r="O63" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L188" s="2"/>
+    <row r="188" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q188" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/solutions/fabergè_easter_eggs_crush_test.xlsx
+++ b/solutions/fabergè_easter_eggs_crush_test.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -100,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +130,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +172,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -304,6 +324,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -2117,7 +2149,7 @@
   <dimension ref="A1:AX209"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA177" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AA183" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AS200" sqref="AS200"/>
@@ -13823,4 +13855,518 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="10" width="6.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="59">
+        <v>1</v>
+      </c>
+      <c r="B1" s="59">
+        <v>2</v>
+      </c>
+      <c r="C1" s="59">
+        <v>3</v>
+      </c>
+      <c r="D1" s="59">
+        <v>4</v>
+      </c>
+      <c r="E1" s="59">
+        <v>5</v>
+      </c>
+      <c r="F1" s="60">
+        <v>6</v>
+      </c>
+      <c r="G1" s="60">
+        <v>7</v>
+      </c>
+      <c r="H1" s="60">
+        <v>8</v>
+      </c>
+      <c r="I1" s="60">
+        <v>9</v>
+      </c>
+      <c r="J1" s="60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="59">
+        <v>1</v>
+      </c>
+      <c r="B2" s="59">
+        <v>3</v>
+      </c>
+      <c r="C2" s="59">
+        <v>6</v>
+      </c>
+      <c r="D2" s="59">
+        <v>10</v>
+      </c>
+      <c r="E2" s="59">
+        <v>15</v>
+      </c>
+      <c r="F2" s="59">
+        <v>21</v>
+      </c>
+      <c r="G2" s="60">
+        <v>28</v>
+      </c>
+      <c r="H2" s="60">
+        <v>36</v>
+      </c>
+      <c r="I2" s="60">
+        <v>45</v>
+      </c>
+      <c r="J2" s="60">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59">
+        <v>3</v>
+      </c>
+      <c r="C3" s="59">
+        <v>7</v>
+      </c>
+      <c r="D3" s="59">
+        <v>14</v>
+      </c>
+      <c r="E3" s="59">
+        <v>25</v>
+      </c>
+      <c r="F3" s="59">
+        <v>41</v>
+      </c>
+      <c r="G3" s="59">
+        <v>63</v>
+      </c>
+      <c r="H3" s="58">
+        <v>92</v>
+      </c>
+      <c r="I3" s="58">
+        <v>129</v>
+      </c>
+      <c r="J3" s="58">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59">
+        <v>7</v>
+      </c>
+      <c r="D4" s="59">
+        <v>15</v>
+      </c>
+      <c r="E4" s="59">
+        <v>30</v>
+      </c>
+      <c r="F4" s="59">
+        <v>56</v>
+      </c>
+      <c r="G4" s="59">
+        <v>98</v>
+      </c>
+      <c r="H4" s="59">
+        <v>162</v>
+      </c>
+      <c r="I4" s="58">
+        <v>255</v>
+      </c>
+      <c r="J4" s="58">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59">
+        <v>15</v>
+      </c>
+      <c r="E5" s="59">
+        <v>31</v>
+      </c>
+      <c r="F5" s="59">
+        <v>62</v>
+      </c>
+      <c r="G5" s="59">
+        <v>119</v>
+      </c>
+      <c r="H5" s="59">
+        <v>218</v>
+      </c>
+      <c r="I5" s="59">
+        <v>381</v>
+      </c>
+      <c r="J5" s="58">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59">
+        <v>31</v>
+      </c>
+      <c r="F6" s="59">
+        <v>63</v>
+      </c>
+      <c r="G6" s="59">
+        <v>126</v>
+      </c>
+      <c r="H6" s="59">
+        <v>246</v>
+      </c>
+      <c r="I6" s="59">
+        <v>465</v>
+      </c>
+      <c r="J6" s="61">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58">
+        <v>63</v>
+      </c>
+      <c r="G7" s="60">
+        <v>127</v>
+      </c>
+      <c r="H7" s="60">
+        <v>254</v>
+      </c>
+      <c r="I7" s="60">
+        <v>501</v>
+      </c>
+      <c r="J7" s="60">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="60">
+        <v>127</v>
+      </c>
+      <c r="H8" s="60">
+        <v>255</v>
+      </c>
+      <c r="I8" s="60">
+        <v>510</v>
+      </c>
+      <c r="J8" s="60">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60">
+        <v>255</v>
+      </c>
+      <c r="I9" s="60">
+        <v>511</v>
+      </c>
+      <c r="J9" s="60">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60">
+        <v>511</v>
+      </c>
+      <c r="J10" s="60">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="59">
+        <v>1</v>
+      </c>
+      <c r="B12" s="59">
+        <v>2</v>
+      </c>
+      <c r="C12" s="60">
+        <v>3</v>
+      </c>
+      <c r="D12" s="60">
+        <v>4</v>
+      </c>
+      <c r="E12" s="60">
+        <v>5</v>
+      </c>
+      <c r="F12" s="60">
+        <v>6</v>
+      </c>
+      <c r="G12" s="60">
+        <v>7</v>
+      </c>
+      <c r="H12" s="60">
+        <v>8</v>
+      </c>
+      <c r="I12" s="60">
+        <v>9</v>
+      </c>
+      <c r="J12" s="60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="59">
+        <v>1</v>
+      </c>
+      <c r="B13" s="59">
+        <v>3</v>
+      </c>
+      <c r="C13" s="59">
+        <v>6</v>
+      </c>
+      <c r="D13" s="60">
+        <v>10</v>
+      </c>
+      <c r="E13" s="60">
+        <v>15</v>
+      </c>
+      <c r="F13" s="60">
+        <v>21</v>
+      </c>
+      <c r="G13" s="60">
+        <v>28</v>
+      </c>
+      <c r="H13" s="60">
+        <v>36</v>
+      </c>
+      <c r="I13" s="60">
+        <v>45</v>
+      </c>
+      <c r="J13" s="60">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="59">
+        <v>3</v>
+      </c>
+      <c r="C14" s="59">
+        <v>7</v>
+      </c>
+      <c r="D14" s="59">
+        <v>14</v>
+      </c>
+      <c r="E14" s="60">
+        <v>25</v>
+      </c>
+      <c r="F14" s="60">
+        <v>41</v>
+      </c>
+      <c r="G14" s="60">
+        <v>63</v>
+      </c>
+      <c r="H14" s="60">
+        <v>92</v>
+      </c>
+      <c r="I14" s="60">
+        <v>129</v>
+      </c>
+      <c r="J14" s="60">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="59">
+        <v>7</v>
+      </c>
+      <c r="D15" s="59">
+        <v>15</v>
+      </c>
+      <c r="E15" s="59">
+        <v>30</v>
+      </c>
+      <c r="F15" s="60">
+        <v>56</v>
+      </c>
+      <c r="G15" s="60">
+        <v>98</v>
+      </c>
+      <c r="H15" s="60">
+        <v>162</v>
+      </c>
+      <c r="I15" s="60">
+        <v>255</v>
+      </c>
+      <c r="J15" s="60">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="59">
+        <v>15</v>
+      </c>
+      <c r="E16" s="59">
+        <v>31</v>
+      </c>
+      <c r="F16" s="59">
+        <v>62</v>
+      </c>
+      <c r="G16" s="60">
+        <v>119</v>
+      </c>
+      <c r="H16" s="60">
+        <v>218</v>
+      </c>
+      <c r="I16" s="60">
+        <v>381</v>
+      </c>
+      <c r="J16" s="60">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="59">
+        <v>31</v>
+      </c>
+      <c r="F17" s="59">
+        <v>63</v>
+      </c>
+      <c r="G17" s="59">
+        <v>126</v>
+      </c>
+      <c r="H17" s="60">
+        <v>246</v>
+      </c>
+      <c r="I17" s="60">
+        <v>465</v>
+      </c>
+      <c r="J17" s="60">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="59">
+        <v>63</v>
+      </c>
+      <c r="G18" s="59">
+        <v>127</v>
+      </c>
+      <c r="H18" s="59">
+        <v>254</v>
+      </c>
+      <c r="I18" s="60">
+        <v>501</v>
+      </c>
+      <c r="J18" s="60">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="59">
+        <v>127</v>
+      </c>
+      <c r="H19" s="59">
+        <v>255</v>
+      </c>
+      <c r="I19" s="59">
+        <v>510</v>
+      </c>
+      <c r="J19" s="60">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="59">
+        <v>255</v>
+      </c>
+      <c r="I20" s="59">
+        <v>511</v>
+      </c>
+      <c r="J20" s="61">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60">
+        <v>511</v>
+      </c>
+      <c r="J21" s="60">
+        <v>1023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/solutions/fabergè_easter_eggs_crush_test.xlsx
+++ b/solutions/fabergè_easter_eggs_crush_test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="23">
   <si>
     <t>floor</t>
   </si>
@@ -93,6 +93,9 @@
   <si>
     <t>level 2 =</t>
   </si>
+  <si>
+    <t>eggs</t>
+  </si>
 </sst>
 </file>
 
@@ -131,6 +134,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -177,18 +181,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -251,11 +255,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -324,16 +390,88 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -13859,514 +13997,670 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="12" width="6.28515625" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="26" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59">
-        <v>1</v>
-      </c>
-      <c r="B1" s="59">
-        <v>2</v>
-      </c>
-      <c r="C1" s="59">
-        <v>3</v>
-      </c>
-      <c r="D1" s="59">
-        <v>4</v>
-      </c>
-      <c r="E1" s="59">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C1" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="68"/>
+      <c r="Q1" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="68"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C2" s="69">
+        <v>1</v>
+      </c>
+      <c r="D2" s="70">
+        <v>2</v>
+      </c>
+      <c r="E2" s="70">
+        <v>3</v>
+      </c>
+      <c r="F2" s="70">
+        <v>4</v>
+      </c>
+      <c r="G2" s="70">
         <v>5</v>
       </c>
-      <c r="F1" s="60">
+      <c r="H2" s="70">
         <v>6</v>
       </c>
-      <c r="G1" s="60">
+      <c r="I2" s="70">
         <v>7</v>
       </c>
-      <c r="H1" s="60">
+      <c r="J2" s="70">
         <v>8</v>
       </c>
-      <c r="I1" s="60">
+      <c r="K2" s="70">
         <v>9</v>
       </c>
-      <c r="J1" s="60">
+      <c r="L2" s="71">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="59">
-        <v>1</v>
-      </c>
-      <c r="B2" s="59">
-        <v>3</v>
-      </c>
-      <c r="C2" s="59">
+      <c r="Q2" s="69">
+        <v>1</v>
+      </c>
+      <c r="R2" s="70">
+        <v>2</v>
+      </c>
+      <c r="S2" s="70">
+        <v>3</v>
+      </c>
+      <c r="T2" s="70">
+        <v>4</v>
+      </c>
+      <c r="U2" s="70">
+        <v>5</v>
+      </c>
+      <c r="V2" s="70">
         <v>6</v>
       </c>
-      <c r="D2" s="59">
+      <c r="W2" s="70">
+        <v>7</v>
+      </c>
+      <c r="X2" s="70">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="70">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="71">
         <v>10</v>
       </c>
-      <c r="E2" s="59">
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="75">
+        <v>1</v>
+      </c>
+      <c r="C3" s="78">
+        <v>1</v>
+      </c>
+      <c r="D3" s="84">
+        <v>2</v>
+      </c>
+      <c r="E3" s="84">
+        <v>3</v>
+      </c>
+      <c r="F3" s="84">
+        <v>4</v>
+      </c>
+      <c r="G3" s="84">
+        <v>5</v>
+      </c>
+      <c r="H3" s="83">
+        <v>6</v>
+      </c>
+      <c r="I3" s="83">
+        <v>7</v>
+      </c>
+      <c r="J3" s="84">
+        <v>8</v>
+      </c>
+      <c r="K3" s="84">
+        <v>9</v>
+      </c>
+      <c r="L3" s="85">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M11" si="0">2^B3-1</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="75">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <f>2^P3-1</f>
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <f>R4-1</f>
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <f>S4-S$2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="73"/>
+      <c r="B4" s="62">
+        <v>2</v>
+      </c>
+      <c r="C4" s="77">
+        <v>1</v>
+      </c>
+      <c r="D4" s="79">
+        <v>3</v>
+      </c>
+      <c r="E4" s="83">
+        <v>6</v>
+      </c>
+      <c r="F4" s="83">
+        <v>10</v>
+      </c>
+      <c r="G4" s="58">
         <v>15</v>
       </c>
-      <c r="F2" s="59">
+      <c r="H4" s="58">
         <v>21</v>
       </c>
-      <c r="G2" s="60">
+      <c r="I4" s="58">
         <v>28</v>
       </c>
-      <c r="H2" s="60">
+      <c r="J4" s="58">
         <v>36</v>
       </c>
-      <c r="I2" s="60">
+      <c r="K4" s="58">
         <v>45</v>
       </c>
-      <c r="J2" s="60">
+      <c r="L4" s="59">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59">
-        <v>3</v>
-      </c>
-      <c r="C3" s="59">
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O4" s="73"/>
+      <c r="P4" s="62">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <f>2^$P4-1</f>
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <f>S5-1</f>
+        <v>6</v>
+      </c>
+      <c r="T4">
+        <f>T5-T$2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="73"/>
+      <c r="B5" s="62">
+        <v>3</v>
+      </c>
+      <c r="C5" s="60">
+        <v>1</v>
+      </c>
+      <c r="D5" s="58">
+        <v>3</v>
+      </c>
+      <c r="E5" s="79">
         <v>7</v>
       </c>
-      <c r="D3" s="59">
+      <c r="F5" s="83">
         <v>14</v>
       </c>
-      <c r="E3" s="59">
+      <c r="G5" s="83">
         <v>25</v>
       </c>
-      <c r="F3" s="59">
+      <c r="H5" s="58">
         <v>41</v>
       </c>
-      <c r="G3" s="59">
+      <c r="I5" s="58">
         <v>63</v>
       </c>
-      <c r="H3" s="58">
+      <c r="J5" s="58">
         <v>92</v>
       </c>
-      <c r="I3" s="58">
+      <c r="K5" s="58">
         <v>129</v>
       </c>
-      <c r="J3" s="58">
+      <c r="L5" s="81">
         <v>175</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59">
+      <c r="M5">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D4" s="59">
+      <c r="O5" s="73"/>
+      <c r="P5" s="62">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <f>2^$P5-1</f>
+        <v>7</v>
+      </c>
+      <c r="T5">
+        <f>T6-1</f>
+        <v>14</v>
+      </c>
+      <c r="U5">
+        <f>U6-U$2</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="73"/>
+      <c r="B6" s="62">
+        <v>4</v>
+      </c>
+      <c r="C6" s="60">
+        <v>1</v>
+      </c>
+      <c r="D6" s="61">
+        <v>3</v>
+      </c>
+      <c r="E6" s="58">
+        <v>7</v>
+      </c>
+      <c r="F6" s="79">
         <v>15</v>
       </c>
-      <c r="E4" s="59">
+      <c r="G6" s="83">
         <v>30</v>
       </c>
-      <c r="F4" s="59">
+      <c r="H6" s="83">
         <v>56</v>
       </c>
-      <c r="G4" s="59">
+      <c r="I6" s="58">
         <v>98</v>
       </c>
-      <c r="H4" s="59">
+      <c r="J6" s="58">
         <v>162</v>
       </c>
-      <c r="I4" s="58">
+      <c r="K6" s="58">
         <v>255</v>
       </c>
-      <c r="J4" s="58">
+      <c r="L6" s="59">
         <v>385</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59">
+      <c r="M6">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E5" s="59">
+      <c r="O6" s="73"/>
+      <c r="P6" s="62">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <f>2^$P6-1</f>
+        <v>15</v>
+      </c>
+      <c r="U6">
+        <f>U7-1</f>
+        <v>30</v>
+      </c>
+      <c r="V6">
+        <f>V7-V$2</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="73"/>
+      <c r="B7" s="62">
+        <v>5</v>
+      </c>
+      <c r="C7" s="60">
+        <v>1</v>
+      </c>
+      <c r="D7" s="61">
+        <v>3</v>
+      </c>
+      <c r="E7" s="61">
+        <v>7</v>
+      </c>
+      <c r="F7" s="58">
+        <v>15</v>
+      </c>
+      <c r="G7" s="79">
         <v>31</v>
       </c>
-      <c r="F5" s="59">
+      <c r="H7" s="83">
         <v>62</v>
       </c>
-      <c r="G5" s="59">
+      <c r="I7" s="83">
         <v>119</v>
       </c>
-      <c r="H5" s="59">
+      <c r="J7" s="58">
         <v>218</v>
       </c>
-      <c r="I5" s="59">
+      <c r="K7" s="58">
         <v>381</v>
       </c>
-      <c r="J5" s="58">
+      <c r="L7" s="59">
         <v>637</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59">
+      <c r="M7">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="F6" s="59">
+      <c r="O7" s="73"/>
+      <c r="P7" s="62">
+        <v>5</v>
+      </c>
+      <c r="U7">
+        <f>2^$P7-1</f>
+        <v>31</v>
+      </c>
+      <c r="V7">
+        <f>V8-1</f>
+        <v>62</v>
+      </c>
+      <c r="W7">
+        <f>W8-W$2</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="73"/>
+      <c r="B8" s="62">
+        <v>6</v>
+      </c>
+      <c r="C8" s="60">
+        <v>1</v>
+      </c>
+      <c r="D8" s="61">
+        <v>3</v>
+      </c>
+      <c r="E8" s="61">
+        <v>7</v>
+      </c>
+      <c r="F8" s="61">
+        <v>15</v>
+      </c>
+      <c r="G8" s="58">
+        <v>31</v>
+      </c>
+      <c r="H8" s="79">
         <v>63</v>
       </c>
-      <c r="G6" s="59">
+      <c r="I8" s="83">
         <v>126</v>
       </c>
-      <c r="H6" s="59">
+      <c r="J8" s="83">
         <v>246</v>
       </c>
-      <c r="I6" s="59">
+      <c r="K8" s="58">
         <v>465</v>
       </c>
-      <c r="J6" s="61">
+      <c r="L8" s="59">
         <v>847</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58">
+      <c r="M8">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="G7" s="60">
+      <c r="O8" s="73"/>
+      <c r="P8" s="62">
+        <v>6</v>
+      </c>
+      <c r="V8">
+        <f>2^$P8-1</f>
+        <v>63</v>
+      </c>
+      <c r="W8">
+        <f>W9-1</f>
+        <v>126</v>
+      </c>
+      <c r="X8">
+        <f>X9-X$2</f>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="73"/>
+      <c r="B9" s="62">
+        <v>7</v>
+      </c>
+      <c r="C9" s="60">
+        <v>1</v>
+      </c>
+      <c r="D9" s="61">
+        <v>3</v>
+      </c>
+      <c r="E9" s="61">
+        <v>7</v>
+      </c>
+      <c r="F9" s="61">
+        <v>15</v>
+      </c>
+      <c r="G9" s="61">
+        <v>31</v>
+      </c>
+      <c r="H9" s="61">
+        <v>63</v>
+      </c>
+      <c r="I9" s="79">
         <v>127</v>
       </c>
-      <c r="H7" s="60">
+      <c r="J9" s="83">
         <v>254</v>
       </c>
-      <c r="I7" s="60">
+      <c r="K9" s="83">
         <v>501</v>
       </c>
-      <c r="J7" s="60">
+      <c r="L9" s="59">
         <v>967</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="60">
+      <c r="M9">
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
-      <c r="H8" s="60">
+      <c r="O9" s="73"/>
+      <c r="P9" s="62">
+        <v>7</v>
+      </c>
+      <c r="W9">
+        <f>2^$P9-1</f>
+        <v>127</v>
+      </c>
+      <c r="X9">
+        <f>X10-1</f>
+        <v>254</v>
+      </c>
+      <c r="Y9">
+        <f>Y10-Y$2</f>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="73"/>
+      <c r="B10" s="62">
+        <v>8</v>
+      </c>
+      <c r="C10" s="60">
+        <v>1</v>
+      </c>
+      <c r="D10" s="61">
+        <v>3</v>
+      </c>
+      <c r="E10" s="61">
+        <v>7</v>
+      </c>
+      <c r="F10" s="61">
+        <v>15</v>
+      </c>
+      <c r="G10" s="61">
+        <v>31</v>
+      </c>
+      <c r="H10" s="61">
+        <v>63</v>
+      </c>
+      <c r="I10" s="58">
+        <v>127</v>
+      </c>
+      <c r="J10" s="79">
         <v>255</v>
       </c>
-      <c r="I8" s="60">
+      <c r="K10" s="83">
         <v>510</v>
       </c>
-      <c r="J8" s="60">
+      <c r="L10" s="82">
         <v>1012</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60">
+      <c r="M10">
+        <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="I9" s="60">
+      <c r="O10" s="73"/>
+      <c r="P10" s="62">
+        <v>8</v>
+      </c>
+      <c r="X10">
+        <f>2^$P10-1</f>
+        <v>255</v>
+      </c>
+      <c r="Y10">
+        <f>Y11-1</f>
+        <v>510</v>
+      </c>
+      <c r="Z10">
+        <f>Z11-Z$2</f>
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="73"/>
+      <c r="B11" s="62">
+        <v>9</v>
+      </c>
+      <c r="C11" s="60">
+        <v>1</v>
+      </c>
+      <c r="D11" s="61">
+        <v>3</v>
+      </c>
+      <c r="E11" s="61">
+        <v>7</v>
+      </c>
+      <c r="F11" s="61">
+        <v>15</v>
+      </c>
+      <c r="G11" s="61">
+        <v>31</v>
+      </c>
+      <c r="H11" s="61">
+        <v>63</v>
+      </c>
+      <c r="I11" s="58">
+        <v>127</v>
+      </c>
+      <c r="J11" s="58">
+        <v>255</v>
+      </c>
+      <c r="K11" s="79">
         <v>511</v>
       </c>
-      <c r="J9" s="60">
+      <c r="L11" s="82">
         <v>1022</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60">
+      <c r="M11">
+        <f t="shared" si="0"/>
         <v>511</v>
       </c>
-      <c r="J10" s="60">
+      <c r="O11" s="73"/>
+      <c r="P11" s="62">
+        <v>9</v>
+      </c>
+      <c r="Y11">
+        <f>2^$P11-1</f>
+        <v>511</v>
+      </c>
+      <c r="Z11">
+        <f>Z12-1</f>
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="74"/>
+      <c r="B12" s="76">
+        <v>10</v>
+      </c>
+      <c r="C12" s="63">
+        <v>1</v>
+      </c>
+      <c r="D12" s="64">
+        <v>3</v>
+      </c>
+      <c r="E12" s="64">
+        <v>7</v>
+      </c>
+      <c r="F12" s="64">
+        <v>15</v>
+      </c>
+      <c r="G12" s="64">
+        <v>31</v>
+      </c>
+      <c r="H12" s="64">
+        <v>63</v>
+      </c>
+      <c r="I12" s="65">
+        <v>127</v>
+      </c>
+      <c r="J12" s="65">
+        <v>255</v>
+      </c>
+      <c r="K12" s="65">
+        <v>511</v>
+      </c>
+      <c r="L12" s="80">
         <v>1023</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="59">
-        <v>1</v>
-      </c>
-      <c r="B12" s="59">
-        <v>2</v>
-      </c>
-      <c r="C12" s="60">
-        <v>3</v>
-      </c>
-      <c r="D12" s="60">
-        <v>4</v>
-      </c>
-      <c r="E12" s="60">
-        <v>5</v>
-      </c>
-      <c r="F12" s="60">
-        <v>6</v>
-      </c>
-      <c r="G12" s="60">
-        <v>7</v>
-      </c>
-      <c r="H12" s="60">
-        <v>8</v>
-      </c>
-      <c r="I12" s="60">
-        <v>9</v>
-      </c>
-      <c r="J12" s="60">
+      <c r="M12">
+        <f>2^L2-1</f>
+        <v>1023</v>
+      </c>
+      <c r="O12" s="74"/>
+      <c r="P12" s="76">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="59">
-        <v>1</v>
-      </c>
-      <c r="B13" s="59">
-        <v>3</v>
-      </c>
-      <c r="C13" s="59">
-        <v>6</v>
-      </c>
-      <c r="D13" s="60">
-        <v>10</v>
-      </c>
-      <c r="E13" s="60">
-        <v>15</v>
-      </c>
-      <c r="F13" s="60">
-        <v>21</v>
-      </c>
-      <c r="G13" s="60">
-        <v>28</v>
-      </c>
-      <c r="H13" s="60">
-        <v>36</v>
-      </c>
-      <c r="I13" s="60">
-        <v>45</v>
-      </c>
-      <c r="J13" s="60">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="59">
-        <v>3</v>
-      </c>
-      <c r="C14" s="59">
-        <v>7</v>
-      </c>
-      <c r="D14" s="59">
-        <v>14</v>
-      </c>
-      <c r="E14" s="60">
-        <v>25</v>
-      </c>
-      <c r="F14" s="60">
-        <v>41</v>
-      </c>
-      <c r="G14" s="60">
-        <v>63</v>
-      </c>
-      <c r="H14" s="60">
-        <v>92</v>
-      </c>
-      <c r="I14" s="60">
-        <v>129</v>
-      </c>
-      <c r="J14" s="60">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="59">
-        <v>7</v>
-      </c>
-      <c r="D15" s="59">
-        <v>15</v>
-      </c>
-      <c r="E15" s="59">
-        <v>30</v>
-      </c>
-      <c r="F15" s="60">
-        <v>56</v>
-      </c>
-      <c r="G15" s="60">
-        <v>98</v>
-      </c>
-      <c r="H15" s="60">
-        <v>162</v>
-      </c>
-      <c r="I15" s="60">
-        <v>255</v>
-      </c>
-      <c r="J15" s="60">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="59">
-        <v>15</v>
-      </c>
-      <c r="E16" s="59">
-        <v>31</v>
-      </c>
-      <c r="F16" s="59">
-        <v>62</v>
-      </c>
-      <c r="G16" s="60">
-        <v>119</v>
-      </c>
-      <c r="H16" s="60">
-        <v>218</v>
-      </c>
-      <c r="I16" s="60">
-        <v>381</v>
-      </c>
-      <c r="J16" s="60">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="59">
-        <v>31</v>
-      </c>
-      <c r="F17" s="59">
-        <v>63</v>
-      </c>
-      <c r="G17" s="59">
-        <v>126</v>
-      </c>
-      <c r="H17" s="60">
-        <v>246</v>
-      </c>
-      <c r="I17" s="60">
-        <v>465</v>
-      </c>
-      <c r="J17" s="60">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="59">
-        <v>63</v>
-      </c>
-      <c r="G18" s="59">
-        <v>127</v>
-      </c>
-      <c r="H18" s="59">
-        <v>254</v>
-      </c>
-      <c r="I18" s="60">
-        <v>501</v>
-      </c>
-      <c r="J18" s="60">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="59">
-        <v>127</v>
-      </c>
-      <c r="H19" s="59">
-        <v>255</v>
-      </c>
-      <c r="I19" s="59">
-        <v>510</v>
-      </c>
-      <c r="J19" s="60">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="59">
-        <v>255</v>
-      </c>
-      <c r="I20" s="59">
-        <v>511</v>
-      </c>
-      <c r="J20" s="61">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60">
-        <v>511</v>
-      </c>
-      <c r="J21" s="60">
+      <c r="Z12">
+        <f>2^$P12-1-(Z$2-$P12)</f>
         <v>1023</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="O3:O12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/solutions/fabergè_easter_eggs_crush_test.xlsx
+++ b/solutions/fabergè_easter_eggs_crush_test.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027" iterate="1"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="23">
   <si>
     <t>floor</t>
   </si>
@@ -142,7 +143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +189,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,9 +400,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -403,15 +407,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -450,19 +445,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -471,8 +460,26 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13997,10 +14004,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="M2" activeCellId="2" sqref="M7 A7:XFD7 M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14008,174 +14015,177 @@
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.140625" customWidth="1"/>
     <col min="3" max="12" width="6.28515625" customWidth="1"/>
-    <col min="15" max="15" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="26" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C1" s="66" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="68"/>
-      <c r="Q1" s="66" t="s">
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="64"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C2" s="65">
+        <v>1</v>
+      </c>
+      <c r="D2" s="66">
+        <v>2</v>
+      </c>
+      <c r="E2" s="66">
+        <v>3</v>
+      </c>
+      <c r="F2" s="66">
+        <v>4</v>
+      </c>
+      <c r="G2" s="66">
+        <v>5</v>
+      </c>
+      <c r="H2" s="66">
+        <v>6</v>
+      </c>
+      <c r="I2" s="66">
+        <v>7</v>
+      </c>
+      <c r="J2" s="66">
+        <v>8</v>
+      </c>
+      <c r="K2" s="66">
+        <v>9</v>
+      </c>
+      <c r="L2" s="66">
+        <v>10</v>
+      </c>
+      <c r="M2" s="66">
+        <v>11</v>
+      </c>
+      <c r="N2" s="66">
+        <v>12</v>
+      </c>
+      <c r="O2" s="66">
+        <v>13</v>
+      </c>
+      <c r="P2" s="66">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="66">
         <v>15</v>
       </c>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="68"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="69">
-        <v>1</v>
-      </c>
-      <c r="D2" s="70">
-        <v>2</v>
-      </c>
-      <c r="E2" s="70">
-        <v>3</v>
-      </c>
-      <c r="F2" s="70">
-        <v>4</v>
-      </c>
-      <c r="G2" s="70">
+      <c r="R2" s="66">
+        <v>16</v>
+      </c>
+      <c r="S2" s="66">
+        <v>17</v>
+      </c>
+      <c r="T2" s="66">
+        <v>18</v>
+      </c>
+      <c r="U2" s="66">
+        <v>19</v>
+      </c>
+      <c r="V2" s="67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="71">
+        <v>1</v>
+      </c>
+      <c r="C3" s="75">
+        <v>1</v>
+      </c>
+      <c r="D3" s="78">
+        <v>2</v>
+      </c>
+      <c r="E3" s="78">
+        <v>3</v>
+      </c>
+      <c r="F3" s="78">
+        <v>4</v>
+      </c>
+      <c r="G3" s="78">
         <v>5</v>
       </c>
-      <c r="H2" s="70">
+      <c r="H3" s="78">
         <v>6</v>
       </c>
-      <c r="I2" s="70">
+      <c r="I3" s="78">
         <v>7</v>
       </c>
-      <c r="J2" s="70">
+      <c r="J3" s="78">
         <v>8</v>
       </c>
-      <c r="K2" s="70">
+      <c r="K3" s="78">
         <v>9</v>
       </c>
-      <c r="L2" s="71">
+      <c r="L3" s="78">
         <v>10</v>
       </c>
-      <c r="Q2" s="69">
-        <v>1</v>
-      </c>
-      <c r="R2" s="70">
-        <v>2</v>
-      </c>
-      <c r="S2" s="70">
-        <v>3</v>
-      </c>
-      <c r="T2" s="70">
-        <v>4</v>
-      </c>
-      <c r="U2" s="70">
-        <v>5</v>
-      </c>
-      <c r="V2" s="70">
+      <c r="M3" s="78">
+        <v>11</v>
+      </c>
+      <c r="N3" s="78">
+        <v>12</v>
+      </c>
+      <c r="O3" s="78">
+        <v>13</v>
+      </c>
+      <c r="P3" s="78">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="78">
+        <v>15</v>
+      </c>
+      <c r="R3" s="78">
+        <v>16</v>
+      </c>
+      <c r="S3" s="78">
+        <v>17</v>
+      </c>
+      <c r="T3" s="78">
+        <v>18</v>
+      </c>
+      <c r="U3" s="78">
+        <v>19</v>
+      </c>
+      <c r="V3" s="78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="69"/>
+      <c r="B4" s="61">
+        <v>2</v>
+      </c>
+      <c r="C4" s="73">
+        <v>1</v>
+      </c>
+      <c r="D4" s="76">
+        <v>3</v>
+      </c>
+      <c r="E4" s="77">
         <v>6</v>
       </c>
-      <c r="W2" s="70">
-        <v>7</v>
-      </c>
-      <c r="X2" s="70">
-        <v>8</v>
-      </c>
-      <c r="Y2" s="70">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="71">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="75">
-        <v>1</v>
-      </c>
-      <c r="C3" s="78">
-        <v>1</v>
-      </c>
-      <c r="D3" s="84">
-        <v>2</v>
-      </c>
-      <c r="E3" s="84">
-        <v>3</v>
-      </c>
-      <c r="F3" s="84">
-        <v>4</v>
-      </c>
-      <c r="G3" s="84">
-        <v>5</v>
-      </c>
-      <c r="H3" s="83">
-        <v>6</v>
-      </c>
-      <c r="I3" s="83">
-        <v>7</v>
-      </c>
-      <c r="J3" s="84">
-        <v>8</v>
-      </c>
-      <c r="K3" s="84">
-        <v>9</v>
-      </c>
-      <c r="L3" s="85">
-        <v>10</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M11" si="0">2^B3-1</f>
-        <v>1</v>
-      </c>
-      <c r="O3" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="75">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <f>2^P3-1</f>
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <f>R4-1</f>
-        <v>2</v>
-      </c>
-      <c r="S3">
-        <f>S4-S$2</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="62">
-        <v>2</v>
-      </c>
-      <c r="C4" s="77">
-        <v>1</v>
-      </c>
-      <c r="D4" s="79">
-        <v>3</v>
-      </c>
-      <c r="E4" s="83">
-        <v>6</v>
-      </c>
-      <c r="F4" s="83">
+      <c r="F4" s="77">
         <v>10</v>
       </c>
       <c r="G4" s="58">
@@ -14193,48 +14203,58 @@
       <c r="K4" s="58">
         <v>45</v>
       </c>
-      <c r="L4" s="59">
+      <c r="L4" s="58">
         <v>55</v>
       </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O4" s="73"/>
-      <c r="P4" s="62">
-        <v>2</v>
-      </c>
-      <c r="R4">
-        <f>2^$P4-1</f>
-        <v>3</v>
-      </c>
-      <c r="S4">
-        <f>S5-1</f>
-        <v>6</v>
-      </c>
-      <c r="T4">
-        <f>T5-T$2</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="62">
-        <v>3</v>
-      </c>
-      <c r="C5" s="60">
+      <c r="M4" s="79">
+        <v>66</v>
+      </c>
+      <c r="N4" s="79">
+        <v>78</v>
+      </c>
+      <c r="O4" s="79">
+        <v>91</v>
+      </c>
+      <c r="P4" s="79">
+        <v>105</v>
+      </c>
+      <c r="Q4" s="79">
+        <v>120</v>
+      </c>
+      <c r="R4" s="79">
+        <v>136</v>
+      </c>
+      <c r="S4" s="79">
+        <v>153</v>
+      </c>
+      <c r="T4" s="79">
+        <v>171</v>
+      </c>
+      <c r="U4" s="79">
+        <v>190</v>
+      </c>
+      <c r="V4" s="80">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="69"/>
+      <c r="B5" s="61">
+        <v>3</v>
+      </c>
+      <c r="C5" s="59">
         <v>1</v>
       </c>
       <c r="D5" s="58">
         <v>3</v>
       </c>
-      <c r="E5" s="79">
+      <c r="E5" s="76">
         <v>7</v>
       </c>
-      <c r="F5" s="83">
+      <c r="F5" s="77">
         <v>14</v>
       </c>
-      <c r="G5" s="83">
+      <c r="G5" s="77">
         <v>25</v>
       </c>
       <c r="H5" s="58">
@@ -14249,51 +14269,61 @@
       <c r="K5" s="58">
         <v>129</v>
       </c>
-      <c r="L5" s="81">
+      <c r="L5" s="58">
         <v>175</v>
       </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="O5" s="73"/>
-      <c r="P5" s="62">
-        <v>3</v>
-      </c>
-      <c r="S5">
-        <f>2^$P5-1</f>
-        <v>7</v>
-      </c>
-      <c r="T5">
-        <f>T6-1</f>
-        <v>14</v>
-      </c>
-      <c r="U5">
-        <f>U6-U$2</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="62">
-        <v>4</v>
-      </c>
-      <c r="C6" s="60">
-        <v>1</v>
-      </c>
-      <c r="D6" s="61">
+      <c r="M5" s="79">
+        <v>231</v>
+      </c>
+      <c r="N5" s="79">
+        <v>298</v>
+      </c>
+      <c r="O5" s="79">
+        <v>377</v>
+      </c>
+      <c r="P5" s="79">
+        <v>469</v>
+      </c>
+      <c r="Q5" s="79">
+        <v>575</v>
+      </c>
+      <c r="R5" s="79">
+        <v>696</v>
+      </c>
+      <c r="S5" s="79">
+        <v>833</v>
+      </c>
+      <c r="T5" s="79">
+        <v>987</v>
+      </c>
+      <c r="U5" s="79">
+        <v>1159</v>
+      </c>
+      <c r="V5" s="80">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="69"/>
+      <c r="B6" s="61">
+        <v>4</v>
+      </c>
+      <c r="C6" s="59">
+        <v>1</v>
+      </c>
+      <c r="D6" s="60">
         <v>3</v>
       </c>
       <c r="E6" s="58">
         <v>7</v>
       </c>
-      <c r="F6" s="79">
+      <c r="F6" s="76">
         <v>15</v>
       </c>
-      <c r="G6" s="83">
+      <c r="G6" s="77">
         <v>30</v>
       </c>
-      <c r="H6" s="83">
+      <c r="H6" s="77">
         <v>56</v>
       </c>
       <c r="I6" s="58">
@@ -14305,54 +14335,64 @@
       <c r="K6" s="58">
         <v>255</v>
       </c>
-      <c r="L6" s="59">
+      <c r="L6" s="58">
         <v>385</v>
       </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="O6" s="73"/>
-      <c r="P6" s="62">
-        <v>4</v>
-      </c>
-      <c r="T6">
-        <f>2^$P6-1</f>
-        <v>15</v>
-      </c>
-      <c r="U6">
-        <f>U7-1</f>
-        <v>30</v>
-      </c>
-      <c r="V6">
-        <f>V7-V$2</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
-      <c r="B7" s="62">
+      <c r="M6" s="79">
+        <v>561</v>
+      </c>
+      <c r="N6" s="79">
+        <v>793</v>
+      </c>
+      <c r="O6" s="79">
+        <v>1092</v>
+      </c>
+      <c r="P6" s="79">
+        <v>1470</v>
+      </c>
+      <c r="Q6" s="79">
+        <v>1940</v>
+      </c>
+      <c r="R6" s="79">
+        <v>2516</v>
+      </c>
+      <c r="S6" s="79">
+        <v>3213</v>
+      </c>
+      <c r="T6" s="79">
+        <v>4047</v>
+      </c>
+      <c r="U6" s="79">
+        <v>5035</v>
+      </c>
+      <c r="V6" s="80">
+        <v>6195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="69"/>
+      <c r="B7" s="61">
         <v>5</v>
       </c>
-      <c r="C7" s="60">
-        <v>1</v>
-      </c>
-      <c r="D7" s="61">
-        <v>3</v>
-      </c>
-      <c r="E7" s="61">
+      <c r="C7" s="59">
+        <v>1</v>
+      </c>
+      <c r="D7" s="60">
+        <v>3</v>
+      </c>
+      <c r="E7" s="60">
         <v>7</v>
       </c>
       <c r="F7" s="58">
         <v>15</v>
       </c>
-      <c r="G7" s="79">
+      <c r="G7" s="76">
         <v>31</v>
       </c>
-      <c r="H7" s="83">
+      <c r="H7" s="77">
         <v>62</v>
       </c>
-      <c r="I7" s="83">
+      <c r="I7" s="77">
         <v>119</v>
       </c>
       <c r="J7" s="58">
@@ -14361,219 +14401,259 @@
       <c r="K7" s="58">
         <v>381</v>
       </c>
-      <c r="L7" s="59">
+      <c r="L7" s="58">
         <v>637</v>
       </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="O7" s="73"/>
-      <c r="P7" s="62">
-        <v>5</v>
-      </c>
-      <c r="U7">
-        <f>2^$P7-1</f>
-        <v>31</v>
-      </c>
-      <c r="V7">
-        <f>V8-1</f>
-        <v>62</v>
-      </c>
-      <c r="W7">
-        <f>W8-W$2</f>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
-      <c r="B8" s="62">
+      <c r="M7" s="81">
+        <v>1023</v>
+      </c>
+      <c r="N7" s="79">
+        <v>1585</v>
+      </c>
+      <c r="O7" s="79">
+        <v>2379</v>
+      </c>
+      <c r="P7" s="79">
+        <v>3472</v>
+      </c>
+      <c r="Q7" s="79">
+        <v>4943</v>
+      </c>
+      <c r="R7" s="79">
+        <v>6884</v>
+      </c>
+      <c r="S7" s="79">
+        <v>9401</v>
+      </c>
+      <c r="T7" s="79">
+        <v>12615</v>
+      </c>
+      <c r="U7" s="79">
+        <v>16663</v>
+      </c>
+      <c r="V7" s="80">
+        <v>21699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="69"/>
+      <c r="B8" s="61">
         <v>6</v>
       </c>
-      <c r="C8" s="60">
-        <v>1</v>
-      </c>
-      <c r="D8" s="61">
-        <v>3</v>
-      </c>
-      <c r="E8" s="61">
+      <c r="C8" s="59">
+        <v>1</v>
+      </c>
+      <c r="D8" s="60">
+        <v>3</v>
+      </c>
+      <c r="E8" s="60">
         <v>7</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="60">
         <v>15</v>
       </c>
       <c r="G8" s="58">
         <v>31</v>
       </c>
-      <c r="H8" s="79">
+      <c r="H8" s="76">
         <v>63</v>
       </c>
-      <c r="I8" s="83">
+      <c r="I8" s="77">
         <v>126</v>
       </c>
-      <c r="J8" s="83">
+      <c r="J8" s="77">
         <v>246</v>
       </c>
       <c r="K8" s="58">
         <v>465</v>
       </c>
-      <c r="L8" s="59">
+      <c r="L8" s="58">
         <v>847</v>
       </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
+      <c r="M8" s="79">
+        <v>1485</v>
+      </c>
+      <c r="N8" s="79">
+        <v>2509</v>
+      </c>
+      <c r="O8" s="79">
+        <v>4095</v>
+      </c>
+      <c r="P8" s="79">
+        <v>6475</v>
+      </c>
+      <c r="Q8" s="79">
+        <v>9948</v>
+      </c>
+      <c r="R8" s="79">
+        <v>14892</v>
+      </c>
+      <c r="S8" s="79">
+        <v>21777</v>
+      </c>
+      <c r="T8" s="79">
+        <v>31179</v>
+      </c>
+      <c r="U8" s="79">
+        <v>43795</v>
+      </c>
+      <c r="V8" s="80">
+        <v>60459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="69"/>
+      <c r="B9" s="61">
+        <v>7</v>
+      </c>
+      <c r="C9" s="59">
+        <v>1</v>
+      </c>
+      <c r="D9" s="60">
+        <v>3</v>
+      </c>
+      <c r="E9" s="60">
+        <v>7</v>
+      </c>
+      <c r="F9" s="60">
+        <v>15</v>
+      </c>
+      <c r="G9" s="60">
+        <v>31</v>
+      </c>
+      <c r="H9" s="60">
         <v>63</v>
       </c>
-      <c r="O8" s="73"/>
-      <c r="P8" s="62">
-        <v>6</v>
-      </c>
-      <c r="V8">
-        <f>2^$P8-1</f>
-        <v>63</v>
-      </c>
-      <c r="W8">
-        <f>W9-1</f>
-        <v>126</v>
-      </c>
-      <c r="X8">
-        <f>X9-X$2</f>
-        <v>246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="62">
+      <c r="I9" s="76">
+        <v>127</v>
+      </c>
+      <c r="J9" s="77">
+        <v>254</v>
+      </c>
+      <c r="K9" s="77">
+        <v>501</v>
+      </c>
+      <c r="L9" s="58">
+        <v>967</v>
+      </c>
+      <c r="M9" s="79">
+        <v>1815</v>
+      </c>
+      <c r="N9" s="79">
+        <v>3301</v>
+      </c>
+      <c r="O9" s="79">
+        <v>5811</v>
+      </c>
+      <c r="P9" s="79">
+        <v>9907</v>
+      </c>
+      <c r="Q9" s="79">
+        <v>16383</v>
+      </c>
+      <c r="R9" s="79">
+        <v>26332</v>
+      </c>
+      <c r="S9" s="79">
+        <v>41225</v>
+      </c>
+      <c r="T9" s="79">
+        <v>63003</v>
+      </c>
+      <c r="U9" s="79">
+        <v>94183</v>
+      </c>
+      <c r="V9" s="80">
+        <v>137979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="69"/>
+      <c r="B10" s="61">
+        <v>8</v>
+      </c>
+      <c r="C10" s="59">
+        <v>1</v>
+      </c>
+      <c r="D10" s="60">
+        <v>3</v>
+      </c>
+      <c r="E10" s="60">
         <v>7</v>
       </c>
-      <c r="C9" s="60">
-        <v>1</v>
-      </c>
-      <c r="D9" s="61">
-        <v>3</v>
-      </c>
-      <c r="E9" s="61">
-        <v>7</v>
-      </c>
-      <c r="F9" s="61">
+      <c r="F10" s="60">
         <v>15</v>
       </c>
-      <c r="G9" s="61">
+      <c r="G10" s="60">
         <v>31</v>
       </c>
-      <c r="H9" s="61">
-        <v>63</v>
-      </c>
-      <c r="I9" s="79">
-        <v>127</v>
-      </c>
-      <c r="J9" s="83">
-        <v>254</v>
-      </c>
-      <c r="K9" s="83">
-        <v>501</v>
-      </c>
-      <c r="L9" s="59">
-        <v>967</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="O9" s="73"/>
-      <c r="P9" s="62">
-        <v>7</v>
-      </c>
-      <c r="W9">
-        <f>2^$P9-1</f>
-        <v>127</v>
-      </c>
-      <c r="X9">
-        <f>X10-1</f>
-        <v>254</v>
-      </c>
-      <c r="Y9">
-        <f>Y10-Y$2</f>
-        <v>501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
-      <c r="B10" s="62">
-        <v>8</v>
-      </c>
-      <c r="C10" s="60">
-        <v>1</v>
-      </c>
-      <c r="D10" s="61">
-        <v>3</v>
-      </c>
-      <c r="E10" s="61">
-        <v>7</v>
-      </c>
-      <c r="F10" s="61">
-        <v>15</v>
-      </c>
-      <c r="G10" s="61">
-        <v>31</v>
-      </c>
-      <c r="H10" s="61">
+      <c r="H10" s="60">
         <v>63</v>
       </c>
       <c r="I10" s="58">
         <v>127</v>
       </c>
-      <c r="J10" s="79">
+      <c r="J10" s="76">
         <v>255</v>
       </c>
-      <c r="K10" s="83">
+      <c r="K10" s="77">
         <v>510</v>
       </c>
-      <c r="L10" s="82">
+      <c r="L10" s="77">
         <v>1012</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
-        <v>255</v>
-      </c>
-      <c r="O10" s="73"/>
-      <c r="P10" s="62">
-        <v>8</v>
-      </c>
-      <c r="X10">
-        <f>2^$P10-1</f>
-        <v>255</v>
-      </c>
-      <c r="Y10">
-        <f>Y11-1</f>
-        <v>510</v>
-      </c>
-      <c r="Z10">
-        <f>Z11-Z$2</f>
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="62">
+      <c r="M10" s="79">
+        <v>1980</v>
+      </c>
+      <c r="N10" s="79">
+        <v>3796</v>
+      </c>
+      <c r="O10" s="79">
+        <v>7098</v>
+      </c>
+      <c r="P10" s="79">
+        <v>12910</v>
+      </c>
+      <c r="Q10" s="79">
+        <v>22818</v>
+      </c>
+      <c r="R10" s="79">
+        <v>39202</v>
+      </c>
+      <c r="S10" s="79">
+        <v>65535</v>
+      </c>
+      <c r="T10" s="79">
+        <v>106761</v>
+      </c>
+      <c r="U10" s="79">
+        <v>169765</v>
+      </c>
+      <c r="V10" s="80">
+        <v>263949</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="69"/>
+      <c r="B11" s="61">
         <v>9</v>
       </c>
-      <c r="C11" s="60">
-        <v>1</v>
-      </c>
-      <c r="D11" s="61">
-        <v>3</v>
-      </c>
-      <c r="E11" s="61">
+      <c r="C11" s="59">
+        <v>1</v>
+      </c>
+      <c r="D11" s="60">
+        <v>3</v>
+      </c>
+      <c r="E11" s="60">
         <v>7</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="60">
         <v>15</v>
       </c>
-      <c r="G11" s="61">
+      <c r="G11" s="60">
         <v>31</v>
       </c>
-      <c r="H11" s="61">
+      <c r="H11" s="60">
         <v>63</v>
       </c>
       <c r="I11" s="58">
@@ -14582,85 +14662,2038 @@
       <c r="J11" s="58">
         <v>255</v>
       </c>
-      <c r="K11" s="79">
+      <c r="K11" s="76">
         <v>511</v>
       </c>
-      <c r="L11" s="82">
+      <c r="L11" s="77">
         <v>1022</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
+      <c r="M11" s="84">
+        <v>2035</v>
+      </c>
+      <c r="N11" s="79">
+        <v>4016</v>
+      </c>
+      <c r="O11" s="79">
+        <v>7813</v>
+      </c>
+      <c r="P11" s="79">
+        <v>14912</v>
+      </c>
+      <c r="Q11" s="79">
+        <v>27823</v>
+      </c>
+      <c r="R11" s="79">
+        <v>50642</v>
+      </c>
+      <c r="S11" s="79">
+        <v>89845</v>
+      </c>
+      <c r="T11" s="79">
+        <v>155381</v>
+      </c>
+      <c r="U11" s="79">
+        <v>262143</v>
+      </c>
+      <c r="V11" s="80">
+        <v>431909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="69"/>
+      <c r="B12" s="61">
+        <v>10</v>
+      </c>
+      <c r="C12" s="59">
+        <v>1</v>
+      </c>
+      <c r="D12" s="60">
+        <v>3</v>
+      </c>
+      <c r="E12" s="60">
+        <v>7</v>
+      </c>
+      <c r="F12" s="60">
+        <v>15</v>
+      </c>
+      <c r="G12" s="60">
+        <v>31</v>
+      </c>
+      <c r="H12" s="60">
+        <v>63</v>
+      </c>
+      <c r="I12" s="58">
+        <v>127</v>
+      </c>
+      <c r="J12" s="58">
+        <v>255</v>
+      </c>
+      <c r="K12" s="58">
         <v>511</v>
       </c>
-      <c r="O11" s="73"/>
-      <c r="P11" s="62">
-        <v>9</v>
-      </c>
-      <c r="Y11">
-        <f>2^$P11-1</f>
+      <c r="L12" s="76">
+        <v>1023</v>
+      </c>
+      <c r="M12" s="84">
+        <v>2046</v>
+      </c>
+      <c r="N12" s="84">
+        <v>4082</v>
+      </c>
+      <c r="O12" s="79">
+        <v>8099</v>
+      </c>
+      <c r="P12" s="79">
+        <v>15913</v>
+      </c>
+      <c r="Q12" s="79">
+        <v>30826</v>
+      </c>
+      <c r="R12" s="79">
+        <v>58650</v>
+      </c>
+      <c r="S12" s="79">
+        <v>109293</v>
+      </c>
+      <c r="T12" s="79">
+        <v>199139</v>
+      </c>
+      <c r="U12" s="79">
+        <v>354521</v>
+      </c>
+      <c r="V12" s="80">
+        <v>616665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="69"/>
+      <c r="B13" s="61">
+        <v>11</v>
+      </c>
+      <c r="C13" s="74">
+        <v>1</v>
+      </c>
+      <c r="D13" s="79">
+        <v>3</v>
+      </c>
+      <c r="E13" s="79">
+        <v>7</v>
+      </c>
+      <c r="F13" s="79">
+        <v>15</v>
+      </c>
+      <c r="G13" s="79">
+        <v>31</v>
+      </c>
+      <c r="H13" s="79">
+        <v>63</v>
+      </c>
+      <c r="I13" s="79">
+        <v>127</v>
+      </c>
+      <c r="J13" s="79">
+        <v>255</v>
+      </c>
+      <c r="K13" s="79">
         <v>511</v>
       </c>
-      <c r="Z11">
-        <f>Z12-1</f>
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="76">
-        <v>10</v>
-      </c>
-      <c r="C12" s="63">
-        <v>1</v>
-      </c>
-      <c r="D12" s="64">
-        <v>3</v>
-      </c>
-      <c r="E12" s="64">
+      <c r="L13" s="79">
+        <v>1023</v>
+      </c>
+      <c r="M13" s="82">
+        <v>2047</v>
+      </c>
+      <c r="N13" s="84">
+        <v>4094</v>
+      </c>
+      <c r="O13" s="84">
+        <v>8177</v>
+      </c>
+      <c r="P13" s="79">
+        <v>16277</v>
+      </c>
+      <c r="Q13" s="79">
+        <v>32191</v>
+      </c>
+      <c r="R13" s="79">
+        <v>63018</v>
+      </c>
+      <c r="S13" s="79">
+        <v>121669</v>
+      </c>
+      <c r="T13" s="79">
+        <v>230963</v>
+      </c>
+      <c r="U13" s="79">
+        <v>430103</v>
+      </c>
+      <c r="V13" s="81">
+        <v>784625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="69"/>
+      <c r="B14" s="61">
+        <v>12</v>
+      </c>
+      <c r="C14" s="74">
+        <v>1</v>
+      </c>
+      <c r="D14" s="79">
+        <v>3</v>
+      </c>
+      <c r="E14" s="79">
         <v>7</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F14" s="79">
         <v>15</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G14" s="79">
         <v>31</v>
       </c>
-      <c r="H12" s="64">
+      <c r="H14" s="79">
         <v>63</v>
       </c>
-      <c r="I12" s="65">
+      <c r="I14" s="79">
         <v>127</v>
       </c>
-      <c r="J12" s="65">
+      <c r="J14" s="79">
         <v>255</v>
       </c>
-      <c r="K12" s="65">
+      <c r="K14" s="79">
         <v>511</v>
       </c>
-      <c r="L12" s="80">
+      <c r="L14" s="79">
         <v>1023</v>
       </c>
-      <c r="M12">
-        <f>2^L2-1</f>
+      <c r="M14" s="79">
+        <v>2047</v>
+      </c>
+      <c r="N14" s="82">
+        <v>4095</v>
+      </c>
+      <c r="O14" s="84">
+        <v>8190</v>
+      </c>
+      <c r="P14" s="84">
+        <v>16368</v>
+      </c>
+      <c r="Q14" s="79">
+        <v>32646</v>
+      </c>
+      <c r="R14" s="79">
+        <v>64838</v>
+      </c>
+      <c r="S14" s="79">
+        <v>127857</v>
+      </c>
+      <c r="T14" s="79">
+        <v>249527</v>
+      </c>
+      <c r="U14" s="79">
+        <v>480491</v>
+      </c>
+      <c r="V14" s="80">
+        <v>910595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="69"/>
+      <c r="B15" s="61">
+        <v>13</v>
+      </c>
+      <c r="C15" s="74">
+        <v>1</v>
+      </c>
+      <c r="D15" s="79">
+        <v>3</v>
+      </c>
+      <c r="E15" s="79">
+        <v>7</v>
+      </c>
+      <c r="F15" s="79">
+        <v>15</v>
+      </c>
+      <c r="G15" s="79">
+        <v>31</v>
+      </c>
+      <c r="H15" s="79">
+        <v>63</v>
+      </c>
+      <c r="I15" s="79">
+        <v>127</v>
+      </c>
+      <c r="J15" s="79">
+        <v>255</v>
+      </c>
+      <c r="K15" s="79">
+        <v>511</v>
+      </c>
+      <c r="L15" s="79">
         <v>1023</v>
       </c>
-      <c r="O12" s="74"/>
-      <c r="P12" s="76">
-        <v>10</v>
-      </c>
-      <c r="Z12">
-        <f>2^$P12-1-(Z$2-$P12)</f>
+      <c r="M15" s="79">
+        <v>2047</v>
+      </c>
+      <c r="N15" s="79">
+        <v>4095</v>
+      </c>
+      <c r="O15" s="82">
+        <v>8191</v>
+      </c>
+      <c r="P15" s="84">
+        <v>16382</v>
+      </c>
+      <c r="Q15" s="84">
+        <v>32751</v>
+      </c>
+      <c r="R15" s="79">
+        <v>65398</v>
+      </c>
+      <c r="S15" s="79">
+        <v>130237</v>
+      </c>
+      <c r="T15" s="79">
+        <v>258095</v>
+      </c>
+      <c r="U15" s="79">
+        <v>507623</v>
+      </c>
+      <c r="V15" s="80">
+        <v>988115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="69"/>
+      <c r="B16" s="61">
+        <v>14</v>
+      </c>
+      <c r="C16" s="74">
+        <v>1</v>
+      </c>
+      <c r="D16" s="79">
+        <v>3</v>
+      </c>
+      <c r="E16" s="79">
+        <v>7</v>
+      </c>
+      <c r="F16" s="79">
+        <v>15</v>
+      </c>
+      <c r="G16" s="79">
+        <v>31</v>
+      </c>
+      <c r="H16" s="79">
+        <v>63</v>
+      </c>
+      <c r="I16" s="79">
+        <v>127</v>
+      </c>
+      <c r="J16" s="79">
+        <v>255</v>
+      </c>
+      <c r="K16" s="79">
+        <v>511</v>
+      </c>
+      <c r="L16" s="79">
         <v>1023</v>
       </c>
+      <c r="M16" s="79">
+        <v>2047</v>
+      </c>
+      <c r="N16" s="79">
+        <v>4095</v>
+      </c>
+      <c r="O16" s="79">
+        <v>8191</v>
+      </c>
+      <c r="P16" s="82">
+        <v>16383</v>
+      </c>
+      <c r="Q16" s="84">
+        <v>32766</v>
+      </c>
+      <c r="R16" s="84">
+        <v>65518</v>
+      </c>
+      <c r="S16" s="79">
+        <v>130917</v>
+      </c>
+      <c r="T16" s="79">
+        <v>261155</v>
+      </c>
+      <c r="U16" s="79">
+        <v>519251</v>
+      </c>
+      <c r="V16" s="80">
+        <v>1026875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="69"/>
+      <c r="B17" s="61">
+        <v>15</v>
+      </c>
+      <c r="C17" s="74">
+        <v>1</v>
+      </c>
+      <c r="D17" s="79">
+        <v>3</v>
+      </c>
+      <c r="E17" s="79">
+        <v>7</v>
+      </c>
+      <c r="F17" s="79">
+        <v>15</v>
+      </c>
+      <c r="G17" s="79">
+        <v>31</v>
+      </c>
+      <c r="H17" s="79">
+        <v>63</v>
+      </c>
+      <c r="I17" s="79">
+        <v>127</v>
+      </c>
+      <c r="J17" s="79">
+        <v>255</v>
+      </c>
+      <c r="K17" s="79">
+        <v>511</v>
+      </c>
+      <c r="L17" s="79">
+        <v>1023</v>
+      </c>
+      <c r="M17" s="79">
+        <v>2047</v>
+      </c>
+      <c r="N17" s="79">
+        <v>4095</v>
+      </c>
+      <c r="O17" s="79">
+        <v>8191</v>
+      </c>
+      <c r="P17" s="79">
+        <v>16383</v>
+      </c>
+      <c r="Q17" s="82">
+        <v>32767</v>
+      </c>
+      <c r="R17" s="84">
+        <v>65534</v>
+      </c>
+      <c r="S17" s="84">
+        <v>131053</v>
+      </c>
+      <c r="T17" s="79">
+        <v>261971</v>
+      </c>
+      <c r="U17" s="79">
+        <v>523127</v>
+      </c>
+      <c r="V17" s="80">
+        <v>1042379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="69"/>
+      <c r="B18" s="61">
+        <v>16</v>
+      </c>
+      <c r="C18" s="74">
+        <v>1</v>
+      </c>
+      <c r="D18" s="79">
+        <v>3</v>
+      </c>
+      <c r="E18" s="79">
+        <v>7</v>
+      </c>
+      <c r="F18" s="79">
+        <v>15</v>
+      </c>
+      <c r="G18" s="79">
+        <v>31</v>
+      </c>
+      <c r="H18" s="79">
+        <v>63</v>
+      </c>
+      <c r="I18" s="79">
+        <v>127</v>
+      </c>
+      <c r="J18" s="79">
+        <v>255</v>
+      </c>
+      <c r="K18" s="79">
+        <v>511</v>
+      </c>
+      <c r="L18" s="79">
+        <v>1023</v>
+      </c>
+      <c r="M18" s="79">
+        <v>2047</v>
+      </c>
+      <c r="N18" s="79">
+        <v>4095</v>
+      </c>
+      <c r="O18" s="79">
+        <v>8191</v>
+      </c>
+      <c r="P18" s="79">
+        <v>16383</v>
+      </c>
+      <c r="Q18" s="79">
+        <v>32767</v>
+      </c>
+      <c r="R18" s="82">
+        <v>65535</v>
+      </c>
+      <c r="S18" s="84">
+        <v>131070</v>
+      </c>
+      <c r="T18" s="84">
+        <v>262124</v>
+      </c>
+      <c r="U18" s="79">
+        <v>524096</v>
+      </c>
+      <c r="V18" s="80">
+        <v>1047224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="69"/>
+      <c r="B19" s="61">
+        <v>17</v>
+      </c>
+      <c r="C19" s="74">
+        <v>1</v>
+      </c>
+      <c r="D19" s="79">
+        <v>3</v>
+      </c>
+      <c r="E19" s="79">
+        <v>7</v>
+      </c>
+      <c r="F19" s="79">
+        <v>15</v>
+      </c>
+      <c r="G19" s="79">
+        <v>31</v>
+      </c>
+      <c r="H19" s="79">
+        <v>63</v>
+      </c>
+      <c r="I19" s="79">
+        <v>127</v>
+      </c>
+      <c r="J19" s="79">
+        <v>255</v>
+      </c>
+      <c r="K19" s="79">
+        <v>511</v>
+      </c>
+      <c r="L19" s="79">
+        <v>1023</v>
+      </c>
+      <c r="M19" s="79">
+        <v>2047</v>
+      </c>
+      <c r="N19" s="79">
+        <v>4095</v>
+      </c>
+      <c r="O19" s="79">
+        <v>8191</v>
+      </c>
+      <c r="P19" s="79">
+        <v>16383</v>
+      </c>
+      <c r="Q19" s="79">
+        <v>32767</v>
+      </c>
+      <c r="R19" s="79">
+        <v>65535</v>
+      </c>
+      <c r="S19" s="82">
+        <v>131071</v>
+      </c>
+      <c r="T19" s="84">
+        <v>262142</v>
+      </c>
+      <c r="U19" s="84">
+        <v>524267</v>
+      </c>
+      <c r="V19" s="80">
+        <v>1048364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="69"/>
+      <c r="B20" s="61">
+        <v>18</v>
+      </c>
+      <c r="C20" s="74">
+        <v>1</v>
+      </c>
+      <c r="D20" s="79">
+        <v>3</v>
+      </c>
+      <c r="E20" s="79">
+        <v>7</v>
+      </c>
+      <c r="F20" s="79">
+        <v>15</v>
+      </c>
+      <c r="G20" s="79">
+        <v>31</v>
+      </c>
+      <c r="H20" s="79">
+        <v>63</v>
+      </c>
+      <c r="I20" s="79">
+        <v>127</v>
+      </c>
+      <c r="J20" s="79">
+        <v>255</v>
+      </c>
+      <c r="K20" s="79">
+        <v>511</v>
+      </c>
+      <c r="L20" s="79">
+        <v>1023</v>
+      </c>
+      <c r="M20" s="79">
+        <v>2047</v>
+      </c>
+      <c r="N20" s="79">
+        <v>4095</v>
+      </c>
+      <c r="O20" s="79">
+        <v>8191</v>
+      </c>
+      <c r="P20" s="79">
+        <v>16383</v>
+      </c>
+      <c r="Q20" s="79">
+        <v>32767</v>
+      </c>
+      <c r="R20" s="79">
+        <v>65535</v>
+      </c>
+      <c r="S20" s="79">
+        <v>131071</v>
+      </c>
+      <c r="T20" s="82">
+        <v>262143</v>
+      </c>
+      <c r="U20" s="84">
+        <v>524286</v>
+      </c>
+      <c r="V20" s="85">
+        <v>1048554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="69"/>
+      <c r="B21" s="61">
+        <v>19</v>
+      </c>
+      <c r="C21" s="74">
+        <v>1</v>
+      </c>
+      <c r="D21" s="79">
+        <v>3</v>
+      </c>
+      <c r="E21" s="79">
+        <v>7</v>
+      </c>
+      <c r="F21" s="79">
+        <v>15</v>
+      </c>
+      <c r="G21" s="79">
+        <v>31</v>
+      </c>
+      <c r="H21" s="79">
+        <v>63</v>
+      </c>
+      <c r="I21" s="79">
+        <v>127</v>
+      </c>
+      <c r="J21" s="79">
+        <v>255</v>
+      </c>
+      <c r="K21" s="79">
+        <v>511</v>
+      </c>
+      <c r="L21" s="79">
+        <v>1023</v>
+      </c>
+      <c r="M21" s="79">
+        <v>2047</v>
+      </c>
+      <c r="N21" s="79">
+        <v>4095</v>
+      </c>
+      <c r="O21" s="79">
+        <v>8191</v>
+      </c>
+      <c r="P21" s="79">
+        <v>16383</v>
+      </c>
+      <c r="Q21" s="79">
+        <v>32767</v>
+      </c>
+      <c r="R21" s="79">
+        <v>65535</v>
+      </c>
+      <c r="S21" s="79">
+        <v>131071</v>
+      </c>
+      <c r="T21" s="79">
+        <v>262143</v>
+      </c>
+      <c r="U21" s="82">
+        <v>524287</v>
+      </c>
+      <c r="V21" s="85">
+        <v>1048574</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="70"/>
+      <c r="B22" s="72">
+        <v>20</v>
+      </c>
+      <c r="C22" s="65">
+        <v>1</v>
+      </c>
+      <c r="D22" s="66">
+        <v>3</v>
+      </c>
+      <c r="E22" s="66">
+        <v>7</v>
+      </c>
+      <c r="F22" s="66">
+        <v>15</v>
+      </c>
+      <c r="G22" s="66">
+        <v>31</v>
+      </c>
+      <c r="H22" s="66">
+        <v>63</v>
+      </c>
+      <c r="I22" s="66">
+        <v>127</v>
+      </c>
+      <c r="J22" s="66">
+        <v>255</v>
+      </c>
+      <c r="K22" s="66">
+        <v>511</v>
+      </c>
+      <c r="L22" s="66">
+        <v>1023</v>
+      </c>
+      <c r="M22" s="66">
+        <v>2047</v>
+      </c>
+      <c r="N22" s="66">
+        <v>4095</v>
+      </c>
+      <c r="O22" s="66">
+        <v>8191</v>
+      </c>
+      <c r="P22" s="66">
+        <v>16383</v>
+      </c>
+      <c r="Q22" s="66">
+        <v>32767</v>
+      </c>
+      <c r="R22" s="66">
+        <v>65535</v>
+      </c>
+      <c r="S22" s="66">
+        <v>131071</v>
+      </c>
+      <c r="T22" s="66">
+        <v>262143</v>
+      </c>
+      <c r="U22" s="66">
+        <v>524287</v>
+      </c>
+      <c r="V22" s="83">
+        <v>1048575</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="O3:O12"/>
+  <mergeCells count="2">
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="A3:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:T20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="3.5703125" customWidth="1"/>
+    <col min="7" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>17</v>
+      </c>
+      <c r="R1">
+        <v>18</v>
+      </c>
+      <c r="S1">
+        <v>19</v>
+      </c>
+      <c r="T1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>28</v>
+      </c>
+      <c r="H2">
+        <v>36</v>
+      </c>
+      <c r="I2">
+        <v>45</v>
+      </c>
+      <c r="J2">
+        <v>55</v>
+      </c>
+      <c r="K2">
+        <v>66</v>
+      </c>
+      <c r="L2">
+        <v>78</v>
+      </c>
+      <c r="M2">
+        <v>91</v>
+      </c>
+      <c r="N2">
+        <v>105</v>
+      </c>
+      <c r="O2">
+        <v>120</v>
+      </c>
+      <c r="P2">
+        <v>136</v>
+      </c>
+      <c r="Q2">
+        <v>153</v>
+      </c>
+      <c r="R2">
+        <v>171</v>
+      </c>
+      <c r="S2">
+        <v>190</v>
+      </c>
+      <c r="T2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>41</v>
+      </c>
+      <c r="G3">
+        <v>63</v>
+      </c>
+      <c r="H3">
+        <v>92</v>
+      </c>
+      <c r="I3">
+        <v>129</v>
+      </c>
+      <c r="J3">
+        <v>175</v>
+      </c>
+      <c r="K3">
+        <v>231</v>
+      </c>
+      <c r="L3">
+        <v>298</v>
+      </c>
+      <c r="M3">
+        <v>377</v>
+      </c>
+      <c r="N3">
+        <v>469</v>
+      </c>
+      <c r="O3">
+        <v>575</v>
+      </c>
+      <c r="P3">
+        <v>696</v>
+      </c>
+      <c r="Q3">
+        <v>833</v>
+      </c>
+      <c r="R3">
+        <v>987</v>
+      </c>
+      <c r="S3">
+        <v>1159</v>
+      </c>
+      <c r="T3">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>56</v>
+      </c>
+      <c r="G4">
+        <v>98</v>
+      </c>
+      <c r="H4">
+        <v>162</v>
+      </c>
+      <c r="I4">
+        <v>255</v>
+      </c>
+      <c r="J4">
+        <v>385</v>
+      </c>
+      <c r="K4">
+        <v>561</v>
+      </c>
+      <c r="L4">
+        <v>793</v>
+      </c>
+      <c r="M4">
+        <v>1092</v>
+      </c>
+      <c r="N4">
+        <v>1470</v>
+      </c>
+      <c r="O4">
+        <v>1940</v>
+      </c>
+      <c r="P4">
+        <v>2516</v>
+      </c>
+      <c r="Q4">
+        <v>3213</v>
+      </c>
+      <c r="R4">
+        <v>4047</v>
+      </c>
+      <c r="S4">
+        <v>5035</v>
+      </c>
+      <c r="T4">
+        <v>6195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>62</v>
+      </c>
+      <c r="G5">
+        <v>119</v>
+      </c>
+      <c r="H5">
+        <v>218</v>
+      </c>
+      <c r="I5">
+        <v>381</v>
+      </c>
+      <c r="J5">
+        <v>637</v>
+      </c>
+      <c r="K5">
+        <v>1023</v>
+      </c>
+      <c r="L5">
+        <v>1585</v>
+      </c>
+      <c r="M5">
+        <v>2379</v>
+      </c>
+      <c r="N5">
+        <v>3472</v>
+      </c>
+      <c r="O5">
+        <v>4943</v>
+      </c>
+      <c r="P5">
+        <v>6884</v>
+      </c>
+      <c r="Q5">
+        <v>9401</v>
+      </c>
+      <c r="R5">
+        <v>12615</v>
+      </c>
+      <c r="S5">
+        <v>16663</v>
+      </c>
+      <c r="T5">
+        <v>21699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <v>63</v>
+      </c>
+      <c r="G6">
+        <v>126</v>
+      </c>
+      <c r="H6">
+        <v>246</v>
+      </c>
+      <c r="I6">
+        <v>465</v>
+      </c>
+      <c r="J6">
+        <v>847</v>
+      </c>
+      <c r="K6">
+        <v>1485</v>
+      </c>
+      <c r="L6">
+        <v>2509</v>
+      </c>
+      <c r="M6">
+        <v>4095</v>
+      </c>
+      <c r="N6">
+        <v>6475</v>
+      </c>
+      <c r="O6">
+        <v>9948</v>
+      </c>
+      <c r="P6">
+        <v>14892</v>
+      </c>
+      <c r="Q6">
+        <v>21777</v>
+      </c>
+      <c r="R6">
+        <v>31179</v>
+      </c>
+      <c r="S6">
+        <v>43795</v>
+      </c>
+      <c r="T6">
+        <v>60459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>31</v>
+      </c>
+      <c r="F7">
+        <v>63</v>
+      </c>
+      <c r="G7">
+        <v>127</v>
+      </c>
+      <c r="H7">
+        <v>254</v>
+      </c>
+      <c r="I7">
+        <v>501</v>
+      </c>
+      <c r="J7">
+        <v>967</v>
+      </c>
+      <c r="K7">
+        <v>1815</v>
+      </c>
+      <c r="L7">
+        <v>3301</v>
+      </c>
+      <c r="M7">
+        <v>5811</v>
+      </c>
+      <c r="N7">
+        <v>9907</v>
+      </c>
+      <c r="O7">
+        <v>16383</v>
+      </c>
+      <c r="P7">
+        <v>26332</v>
+      </c>
+      <c r="Q7">
+        <v>41225</v>
+      </c>
+      <c r="R7">
+        <v>63003</v>
+      </c>
+      <c r="S7">
+        <v>94183</v>
+      </c>
+      <c r="T7">
+        <v>137979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>63</v>
+      </c>
+      <c r="G8">
+        <v>127</v>
+      </c>
+      <c r="H8">
+        <v>255</v>
+      </c>
+      <c r="I8">
+        <v>510</v>
+      </c>
+      <c r="J8">
+        <v>1012</v>
+      </c>
+      <c r="K8">
+        <v>1980</v>
+      </c>
+      <c r="L8">
+        <v>3796</v>
+      </c>
+      <c r="M8">
+        <v>7098</v>
+      </c>
+      <c r="N8">
+        <v>12910</v>
+      </c>
+      <c r="O8">
+        <v>22818</v>
+      </c>
+      <c r="P8">
+        <v>39202</v>
+      </c>
+      <c r="Q8">
+        <v>65535</v>
+      </c>
+      <c r="R8">
+        <v>106761</v>
+      </c>
+      <c r="S8">
+        <v>169765</v>
+      </c>
+      <c r="T8">
+        <v>263949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>63</v>
+      </c>
+      <c r="G9">
+        <v>127</v>
+      </c>
+      <c r="H9">
+        <v>255</v>
+      </c>
+      <c r="I9">
+        <v>511</v>
+      </c>
+      <c r="J9">
+        <v>1022</v>
+      </c>
+      <c r="K9">
+        <v>2035</v>
+      </c>
+      <c r="L9">
+        <v>4016</v>
+      </c>
+      <c r="M9">
+        <v>7813</v>
+      </c>
+      <c r="N9">
+        <v>14912</v>
+      </c>
+      <c r="O9">
+        <v>27823</v>
+      </c>
+      <c r="P9">
+        <v>50642</v>
+      </c>
+      <c r="Q9">
+        <v>89845</v>
+      </c>
+      <c r="R9">
+        <v>155381</v>
+      </c>
+      <c r="S9">
+        <v>262143</v>
+      </c>
+      <c r="T9">
+        <v>431909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>31</v>
+      </c>
+      <c r="F10">
+        <v>63</v>
+      </c>
+      <c r="G10">
+        <v>127</v>
+      </c>
+      <c r="H10">
+        <v>255</v>
+      </c>
+      <c r="I10">
+        <v>511</v>
+      </c>
+      <c r="J10">
+        <v>1023</v>
+      </c>
+      <c r="K10">
+        <v>2046</v>
+      </c>
+      <c r="L10">
+        <v>4082</v>
+      </c>
+      <c r="M10">
+        <v>8099</v>
+      </c>
+      <c r="N10">
+        <v>15913</v>
+      </c>
+      <c r="O10">
+        <v>30826</v>
+      </c>
+      <c r="P10">
+        <v>58650</v>
+      </c>
+      <c r="Q10">
+        <v>109293</v>
+      </c>
+      <c r="R10">
+        <v>199139</v>
+      </c>
+      <c r="S10">
+        <v>354521</v>
+      </c>
+      <c r="T10">
+        <v>616665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>63</v>
+      </c>
+      <c r="G11">
+        <v>127</v>
+      </c>
+      <c r="H11">
+        <v>255</v>
+      </c>
+      <c r="I11">
+        <v>511</v>
+      </c>
+      <c r="J11">
+        <v>1023</v>
+      </c>
+      <c r="K11">
+        <v>2047</v>
+      </c>
+      <c r="L11">
+        <v>4094</v>
+      </c>
+      <c r="M11">
+        <v>8177</v>
+      </c>
+      <c r="N11">
+        <v>16277</v>
+      </c>
+      <c r="O11">
+        <v>32191</v>
+      </c>
+      <c r="P11">
+        <v>63018</v>
+      </c>
+      <c r="Q11">
+        <v>121669</v>
+      </c>
+      <c r="R11">
+        <v>230963</v>
+      </c>
+      <c r="S11">
+        <v>430103</v>
+      </c>
+      <c r="T11">
+        <v>784625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>63</v>
+      </c>
+      <c r="G12">
+        <v>127</v>
+      </c>
+      <c r="H12">
+        <v>255</v>
+      </c>
+      <c r="I12">
+        <v>511</v>
+      </c>
+      <c r="J12">
+        <v>1023</v>
+      </c>
+      <c r="K12">
+        <v>2047</v>
+      </c>
+      <c r="L12">
+        <v>4095</v>
+      </c>
+      <c r="M12">
+        <v>8190</v>
+      </c>
+      <c r="N12">
+        <v>16368</v>
+      </c>
+      <c r="O12">
+        <v>32646</v>
+      </c>
+      <c r="P12">
+        <v>64838</v>
+      </c>
+      <c r="Q12">
+        <v>127857</v>
+      </c>
+      <c r="R12">
+        <v>249527</v>
+      </c>
+      <c r="S12">
+        <v>480491</v>
+      </c>
+      <c r="T12">
+        <v>910595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>63</v>
+      </c>
+      <c r="G13">
+        <v>127</v>
+      </c>
+      <c r="H13">
+        <v>255</v>
+      </c>
+      <c r="I13">
+        <v>511</v>
+      </c>
+      <c r="J13">
+        <v>1023</v>
+      </c>
+      <c r="K13">
+        <v>2047</v>
+      </c>
+      <c r="L13">
+        <v>4095</v>
+      </c>
+      <c r="M13">
+        <v>8191</v>
+      </c>
+      <c r="N13">
+        <v>16382</v>
+      </c>
+      <c r="O13">
+        <v>32751</v>
+      </c>
+      <c r="P13">
+        <v>65398</v>
+      </c>
+      <c r="Q13">
+        <v>130237</v>
+      </c>
+      <c r="R13">
+        <v>258095</v>
+      </c>
+      <c r="S13">
+        <v>507623</v>
+      </c>
+      <c r="T13">
+        <v>988115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>31</v>
+      </c>
+      <c r="F14">
+        <v>63</v>
+      </c>
+      <c r="G14">
+        <v>127</v>
+      </c>
+      <c r="H14">
+        <v>255</v>
+      </c>
+      <c r="I14">
+        <v>511</v>
+      </c>
+      <c r="J14">
+        <v>1023</v>
+      </c>
+      <c r="K14">
+        <v>2047</v>
+      </c>
+      <c r="L14">
+        <v>4095</v>
+      </c>
+      <c r="M14">
+        <v>8191</v>
+      </c>
+      <c r="N14">
+        <v>16383</v>
+      </c>
+      <c r="O14">
+        <v>32766</v>
+      </c>
+      <c r="P14">
+        <v>65518</v>
+      </c>
+      <c r="Q14">
+        <v>130917</v>
+      </c>
+      <c r="R14">
+        <v>261155</v>
+      </c>
+      <c r="S14">
+        <v>519251</v>
+      </c>
+      <c r="T14">
+        <v>1026875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>31</v>
+      </c>
+      <c r="F15">
+        <v>63</v>
+      </c>
+      <c r="G15">
+        <v>127</v>
+      </c>
+      <c r="H15">
+        <v>255</v>
+      </c>
+      <c r="I15">
+        <v>511</v>
+      </c>
+      <c r="J15">
+        <v>1023</v>
+      </c>
+      <c r="K15">
+        <v>2047</v>
+      </c>
+      <c r="L15">
+        <v>4095</v>
+      </c>
+      <c r="M15">
+        <v>8191</v>
+      </c>
+      <c r="N15">
+        <v>16383</v>
+      </c>
+      <c r="O15">
+        <v>32767</v>
+      </c>
+      <c r="P15">
+        <v>65534</v>
+      </c>
+      <c r="Q15">
+        <v>131053</v>
+      </c>
+      <c r="R15">
+        <v>261971</v>
+      </c>
+      <c r="S15">
+        <v>523127</v>
+      </c>
+      <c r="T15">
+        <v>1042379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>31</v>
+      </c>
+      <c r="F16">
+        <v>63</v>
+      </c>
+      <c r="G16">
+        <v>127</v>
+      </c>
+      <c r="H16">
+        <v>255</v>
+      </c>
+      <c r="I16">
+        <v>511</v>
+      </c>
+      <c r="J16">
+        <v>1023</v>
+      </c>
+      <c r="K16">
+        <v>2047</v>
+      </c>
+      <c r="L16">
+        <v>4095</v>
+      </c>
+      <c r="M16">
+        <v>8191</v>
+      </c>
+      <c r="N16">
+        <v>16383</v>
+      </c>
+      <c r="O16">
+        <v>32767</v>
+      </c>
+      <c r="P16">
+        <v>65535</v>
+      </c>
+      <c r="Q16">
+        <v>131070</v>
+      </c>
+      <c r="R16">
+        <v>262124</v>
+      </c>
+      <c r="S16">
+        <v>524096</v>
+      </c>
+      <c r="T16">
+        <v>1047224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>31</v>
+      </c>
+      <c r="F17">
+        <v>63</v>
+      </c>
+      <c r="G17">
+        <v>127</v>
+      </c>
+      <c r="H17">
+        <v>255</v>
+      </c>
+      <c r="I17">
+        <v>511</v>
+      </c>
+      <c r="J17">
+        <v>1023</v>
+      </c>
+      <c r="K17">
+        <v>2047</v>
+      </c>
+      <c r="L17">
+        <v>4095</v>
+      </c>
+      <c r="M17">
+        <v>8191</v>
+      </c>
+      <c r="N17">
+        <v>16383</v>
+      </c>
+      <c r="O17">
+        <v>32767</v>
+      </c>
+      <c r="P17">
+        <v>65535</v>
+      </c>
+      <c r="Q17">
+        <v>131071</v>
+      </c>
+      <c r="R17">
+        <v>262142</v>
+      </c>
+      <c r="S17">
+        <v>524267</v>
+      </c>
+      <c r="T17">
+        <v>1048364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>31</v>
+      </c>
+      <c r="F18">
+        <v>63</v>
+      </c>
+      <c r="G18">
+        <v>127</v>
+      </c>
+      <c r="H18">
+        <v>255</v>
+      </c>
+      <c r="I18">
+        <v>511</v>
+      </c>
+      <c r="J18">
+        <v>1023</v>
+      </c>
+      <c r="K18">
+        <v>2047</v>
+      </c>
+      <c r="L18">
+        <v>4095</v>
+      </c>
+      <c r="M18">
+        <v>8191</v>
+      </c>
+      <c r="N18">
+        <v>16383</v>
+      </c>
+      <c r="O18">
+        <v>32767</v>
+      </c>
+      <c r="P18">
+        <v>65535</v>
+      </c>
+      <c r="Q18">
+        <v>131071</v>
+      </c>
+      <c r="R18">
+        <v>262143</v>
+      </c>
+      <c r="S18">
+        <v>524286</v>
+      </c>
+      <c r="T18">
+        <v>1048554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>31</v>
+      </c>
+      <c r="F19">
+        <v>63</v>
+      </c>
+      <c r="G19">
+        <v>127</v>
+      </c>
+      <c r="H19">
+        <v>255</v>
+      </c>
+      <c r="I19">
+        <v>511</v>
+      </c>
+      <c r="J19">
+        <v>1023</v>
+      </c>
+      <c r="K19">
+        <v>2047</v>
+      </c>
+      <c r="L19">
+        <v>4095</v>
+      </c>
+      <c r="M19">
+        <v>8191</v>
+      </c>
+      <c r="N19">
+        <v>16383</v>
+      </c>
+      <c r="O19">
+        <v>32767</v>
+      </c>
+      <c r="P19">
+        <v>65535</v>
+      </c>
+      <c r="Q19">
+        <v>131071</v>
+      </c>
+      <c r="R19">
+        <v>262143</v>
+      </c>
+      <c r="S19">
+        <v>524287</v>
+      </c>
+      <c r="T19">
+        <v>1048574</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>31</v>
+      </c>
+      <c r="F20">
+        <v>63</v>
+      </c>
+      <c r="G20">
+        <v>127</v>
+      </c>
+      <c r="H20">
+        <v>255</v>
+      </c>
+      <c r="I20">
+        <v>511</v>
+      </c>
+      <c r="J20">
+        <v>1023</v>
+      </c>
+      <c r="K20">
+        <v>2047</v>
+      </c>
+      <c r="L20">
+        <v>4095</v>
+      </c>
+      <c r="M20">
+        <v>8191</v>
+      </c>
+      <c r="N20">
+        <v>16383</v>
+      </c>
+      <c r="O20">
+        <v>32767</v>
+      </c>
+      <c r="P20">
+        <v>65535</v>
+      </c>
+      <c r="Q20">
+        <v>131071</v>
+      </c>
+      <c r="R20">
+        <v>262143</v>
+      </c>
+      <c r="S20">
+        <v>524287</v>
+      </c>
+      <c r="T20">
+        <v>1048575</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/solutions/fabergè_easter_eggs_crush_test.xlsx
+++ b/solutions/fabergè_easter_eggs_crush_test.xlsx
@@ -328,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -409,15 +409,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,15 +417,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,6 +462,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14004,10 +14007,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M2" activeCellId="2" sqref="M7 A7:XFD7 M1:M1048576"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14017,175 +14020,175 @@
     <col min="3" max="12" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C1" s="62" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C1" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="64"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C2" s="65">
-        <v>1</v>
-      </c>
-      <c r="D2" s="66">
-        <v>2</v>
-      </c>
-      <c r="E2" s="66">
-        <v>3</v>
-      </c>
-      <c r="F2" s="66">
-        <v>4</v>
-      </c>
-      <c r="G2" s="66">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="82"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C2" s="62">
+        <v>1</v>
+      </c>
+      <c r="D2" s="63">
+        <v>2</v>
+      </c>
+      <c r="E2" s="63">
+        <v>3</v>
+      </c>
+      <c r="F2" s="63">
+        <v>4</v>
+      </c>
+      <c r="G2" s="63">
         <v>5</v>
       </c>
-      <c r="H2" s="66">
+      <c r="H2" s="63">
         <v>6</v>
       </c>
-      <c r="I2" s="66">
+      <c r="I2" s="63">
         <v>7</v>
       </c>
-      <c r="J2" s="66">
+      <c r="J2" s="63">
         <v>8</v>
       </c>
-      <c r="K2" s="66">
+      <c r="K2" s="63">
         <v>9</v>
       </c>
-      <c r="L2" s="66">
+      <c r="L2" s="63">
         <v>10</v>
       </c>
-      <c r="M2" s="66">
+      <c r="M2" s="63">
         <v>11</v>
       </c>
-      <c r="N2" s="66">
+      <c r="N2" s="63">
         <v>12</v>
       </c>
-      <c r="O2" s="66">
+      <c r="O2" s="63">
         <v>13</v>
       </c>
-      <c r="P2" s="66">
+      <c r="P2" s="63">
         <v>14</v>
       </c>
-      <c r="Q2" s="66">
+      <c r="Q2" s="63">
         <v>15</v>
       </c>
-      <c r="R2" s="66">
+      <c r="R2" s="63">
         <v>16</v>
       </c>
-      <c r="S2" s="66">
+      <c r="S2" s="63">
         <v>17</v>
       </c>
-      <c r="T2" s="66">
+      <c r="T2" s="63">
         <v>18</v>
       </c>
-      <c r="U2" s="66">
+      <c r="U2" s="63">
         <v>19</v>
       </c>
-      <c r="V2" s="67">
+      <c r="V2" s="64">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="71">
-        <v>1</v>
-      </c>
-      <c r="C3" s="75">
-        <v>1</v>
-      </c>
-      <c r="D3" s="78">
-        <v>2</v>
-      </c>
-      <c r="E3" s="78">
-        <v>3</v>
-      </c>
-      <c r="F3" s="78">
-        <v>4</v>
-      </c>
-      <c r="G3" s="78">
+      <c r="B3" s="65">
+        <v>1</v>
+      </c>
+      <c r="C3" s="69">
+        <v>1</v>
+      </c>
+      <c r="D3" s="72">
+        <v>2</v>
+      </c>
+      <c r="E3" s="72">
+        <v>3</v>
+      </c>
+      <c r="F3" s="72">
+        <v>4</v>
+      </c>
+      <c r="G3" s="72">
         <v>5</v>
       </c>
-      <c r="H3" s="78">
+      <c r="H3" s="72">
         <v>6</v>
       </c>
-      <c r="I3" s="78">
+      <c r="I3" s="72">
         <v>7</v>
       </c>
-      <c r="J3" s="78">
+      <c r="J3" s="72">
         <v>8</v>
       </c>
-      <c r="K3" s="78">
+      <c r="K3" s="72">
         <v>9</v>
       </c>
-      <c r="L3" s="78">
+      <c r="L3" s="72">
         <v>10</v>
       </c>
-      <c r="M3" s="78">
+      <c r="M3" s="72">
         <v>11</v>
       </c>
-      <c r="N3" s="78">
+      <c r="N3" s="72">
         <v>12</v>
       </c>
-      <c r="O3" s="78">
+      <c r="O3" s="72">
         <v>13</v>
       </c>
-      <c r="P3" s="78">
+      <c r="P3" s="72">
         <v>14</v>
       </c>
-      <c r="Q3" s="78">
+      <c r="Q3" s="72">
         <v>15</v>
       </c>
-      <c r="R3" s="78">
+      <c r="R3" s="72">
         <v>16</v>
       </c>
-      <c r="S3" s="78">
+      <c r="S3" s="72">
         <v>17</v>
       </c>
-      <c r="T3" s="78">
+      <c r="T3" s="72">
         <v>18</v>
       </c>
-      <c r="U3" s="78">
+      <c r="U3" s="72">
         <v>19</v>
       </c>
-      <c r="V3" s="78">
+      <c r="V3" s="86">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="84"/>
       <c r="B4" s="61">
         <v>2</v>
       </c>
-      <c r="C4" s="73">
-        <v>1</v>
-      </c>
-      <c r="D4" s="76">
-        <v>3</v>
-      </c>
-      <c r="E4" s="77">
+      <c r="C4" s="67">
+        <v>1</v>
+      </c>
+      <c r="D4" s="70">
+        <v>3</v>
+      </c>
+      <c r="E4" s="71">
         <v>6</v>
       </c>
-      <c r="F4" s="77">
+      <c r="F4" s="71">
         <v>10</v>
       </c>
       <c r="G4" s="58">
@@ -14206,39 +14209,47 @@
       <c r="L4" s="58">
         <v>55</v>
       </c>
-      <c r="M4" s="79">
+      <c r="M4" s="73">
         <v>66</v>
       </c>
-      <c r="N4" s="79">
+      <c r="N4" s="73">
         <v>78</v>
       </c>
-      <c r="O4" s="79">
+      <c r="O4" s="73">
         <v>91</v>
       </c>
-      <c r="P4" s="79">
+      <c r="P4" s="73">
         <v>105</v>
       </c>
-      <c r="Q4" s="79">
+      <c r="Q4" s="73">
         <v>120</v>
       </c>
-      <c r="R4" s="79">
+      <c r="R4" s="73">
         <v>136</v>
       </c>
-      <c r="S4" s="79">
+      <c r="S4" s="73">
         <v>153</v>
       </c>
-      <c r="T4" s="79">
+      <c r="T4" s="73">
         <v>171</v>
       </c>
-      <c r="U4" s="79">
+      <c r="U4" s="73">
         <v>190</v>
       </c>
-      <c r="V4" s="80">
+      <c r="V4" s="74">
         <v>210</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="W4">
+        <f>V4-V3</f>
+        <v>190</v>
+      </c>
+      <c r="X4">
+        <f>M4-M3</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="84"/>
       <c r="B5" s="61">
         <v>3</v>
       </c>
@@ -14248,13 +14259,13 @@
       <c r="D5" s="58">
         <v>3</v>
       </c>
-      <c r="E5" s="76">
+      <c r="E5" s="70">
         <v>7</v>
       </c>
-      <c r="F5" s="77">
+      <c r="F5" s="71">
         <v>14</v>
       </c>
-      <c r="G5" s="77">
+      <c r="G5" s="71">
         <v>25</v>
       </c>
       <c r="H5" s="58">
@@ -14272,39 +14283,47 @@
       <c r="L5" s="58">
         <v>175</v>
       </c>
-      <c r="M5" s="79">
+      <c r="M5" s="73">
         <v>231</v>
       </c>
-      <c r="N5" s="79">
+      <c r="N5" s="73">
         <v>298</v>
       </c>
-      <c r="O5" s="79">
+      <c r="O5" s="73">
         <v>377</v>
       </c>
-      <c r="P5" s="79">
+      <c r="P5" s="73">
         <v>469</v>
       </c>
-      <c r="Q5" s="79">
+      <c r="Q5" s="73">
         <v>575</v>
       </c>
-      <c r="R5" s="79">
+      <c r="R5" s="73">
         <v>696</v>
       </c>
-      <c r="S5" s="79">
+      <c r="S5" s="73">
         <v>833</v>
       </c>
-      <c r="T5" s="79">
+      <c r="T5" s="73">
         <v>987</v>
       </c>
-      <c r="U5" s="79">
+      <c r="U5" s="73">
         <v>1159</v>
       </c>
-      <c r="V5" s="80">
+      <c r="V5" s="74">
         <v>1350</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
+      <c r="W5">
+        <f t="shared" ref="W5:W22" si="0">V5-V4</f>
+        <v>1140</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ref="X5:X22" si="1">M5-M4</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="84"/>
       <c r="B6" s="61">
         <v>4</v>
       </c>
@@ -14317,13 +14336,13 @@
       <c r="E6" s="58">
         <v>7</v>
       </c>
-      <c r="F6" s="76">
+      <c r="F6" s="70">
         <v>15</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="71">
         <v>30</v>
       </c>
-      <c r="H6" s="77">
+      <c r="H6" s="71">
         <v>56</v>
       </c>
       <c r="I6" s="58">
@@ -14338,39 +14357,47 @@
       <c r="L6" s="58">
         <v>385</v>
       </c>
-      <c r="M6" s="79">
+      <c r="M6" s="73">
         <v>561</v>
       </c>
-      <c r="N6" s="79">
+      <c r="N6" s="73">
         <v>793</v>
       </c>
-      <c r="O6" s="79">
+      <c r="O6" s="73">
         <v>1092</v>
       </c>
-      <c r="P6" s="79">
+      <c r="P6" s="73">
         <v>1470</v>
       </c>
-      <c r="Q6" s="79">
+      <c r="Q6" s="73">
         <v>1940</v>
       </c>
-      <c r="R6" s="79">
+      <c r="R6" s="73">
         <v>2516</v>
       </c>
-      <c r="S6" s="79">
+      <c r="S6" s="73">
         <v>3213</v>
       </c>
-      <c r="T6" s="79">
+      <c r="T6" s="73">
         <v>4047</v>
       </c>
-      <c r="U6" s="79">
+      <c r="U6" s="73">
         <v>5035</v>
       </c>
-      <c r="V6" s="80">
+      <c r="V6" s="74">
         <v>6195</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>4845</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="84"/>
       <c r="B7" s="61">
         <v>5</v>
       </c>
@@ -14386,13 +14413,13 @@
       <c r="F7" s="58">
         <v>15</v>
       </c>
-      <c r="G7" s="76">
+      <c r="G7" s="70">
         <v>31</v>
       </c>
-      <c r="H7" s="77">
+      <c r="H7" s="71">
         <v>62</v>
       </c>
-      <c r="I7" s="77">
+      <c r="I7" s="71">
         <v>119</v>
       </c>
       <c r="J7" s="58">
@@ -14404,39 +14431,47 @@
       <c r="L7" s="58">
         <v>637</v>
       </c>
-      <c r="M7" s="81">
+      <c r="M7" s="75">
         <v>1023</v>
       </c>
-      <c r="N7" s="79">
+      <c r="N7" s="73">
         <v>1585</v>
       </c>
-      <c r="O7" s="79">
+      <c r="O7" s="73">
         <v>2379</v>
       </c>
-      <c r="P7" s="79">
+      <c r="P7" s="73">
         <v>3472</v>
       </c>
-      <c r="Q7" s="79">
+      <c r="Q7" s="73">
         <v>4943</v>
       </c>
-      <c r="R7" s="79">
+      <c r="R7" s="73">
         <v>6884</v>
       </c>
-      <c r="S7" s="79">
+      <c r="S7" s="73">
         <v>9401</v>
       </c>
-      <c r="T7" s="79">
+      <c r="T7" s="73">
         <v>12615</v>
       </c>
-      <c r="U7" s="79">
+      <c r="U7" s="73">
         <v>16663</v>
       </c>
-      <c r="V7" s="80">
+      <c r="V7" s="74">
         <v>21699</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>15504</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="1"/>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="84"/>
       <c r="B8" s="61">
         <v>6</v>
       </c>
@@ -14455,13 +14490,13 @@
       <c r="G8" s="58">
         <v>31</v>
       </c>
-      <c r="H8" s="76">
+      <c r="H8" s="70">
         <v>63</v>
       </c>
-      <c r="I8" s="77">
+      <c r="I8" s="71">
         <v>126</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="71">
         <v>246</v>
       </c>
       <c r="K8" s="58">
@@ -14470,39 +14505,47 @@
       <c r="L8" s="58">
         <v>847</v>
       </c>
-      <c r="M8" s="79">
+      <c r="M8" s="73">
         <v>1485</v>
       </c>
-      <c r="N8" s="79">
+      <c r="N8" s="73">
         <v>2509</v>
       </c>
-      <c r="O8" s="79">
+      <c r="O8" s="73">
         <v>4095</v>
       </c>
-      <c r="P8" s="79">
+      <c r="P8" s="73">
         <v>6475</v>
       </c>
-      <c r="Q8" s="79">
+      <c r="Q8" s="73">
         <v>9948</v>
       </c>
-      <c r="R8" s="79">
+      <c r="R8" s="73">
         <v>14892</v>
       </c>
-      <c r="S8" s="79">
+      <c r="S8" s="73">
         <v>21777</v>
       </c>
-      <c r="T8" s="79">
+      <c r="T8" s="73">
         <v>31179</v>
       </c>
-      <c r="U8" s="79">
+      <c r="U8" s="73">
         <v>43795</v>
       </c>
-      <c r="V8" s="80">
+      <c r="V8" s="74">
         <v>60459</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>38760</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="1"/>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="84"/>
       <c r="B9" s="61">
         <v>7</v>
       </c>
@@ -14524,51 +14567,59 @@
       <c r="H9" s="60">
         <v>63</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="70">
         <v>127</v>
       </c>
-      <c r="J9" s="77">
+      <c r="J9" s="71">
         <v>254</v>
       </c>
-      <c r="K9" s="77">
+      <c r="K9" s="71">
         <v>501</v>
       </c>
       <c r="L9" s="58">
         <v>967</v>
       </c>
-      <c r="M9" s="79">
+      <c r="M9" s="73">
         <v>1815</v>
       </c>
-      <c r="N9" s="79">
+      <c r="N9" s="73">
         <v>3301</v>
       </c>
-      <c r="O9" s="79">
+      <c r="O9" s="73">
         <v>5811</v>
       </c>
-      <c r="P9" s="79">
+      <c r="P9" s="73">
         <v>9907</v>
       </c>
-      <c r="Q9" s="79">
+      <c r="Q9" s="73">
         <v>16383</v>
       </c>
-      <c r="R9" s="79">
+      <c r="R9" s="73">
         <v>26332</v>
       </c>
-      <c r="S9" s="79">
+      <c r="S9" s="73">
         <v>41225</v>
       </c>
-      <c r="T9" s="79">
+      <c r="T9" s="73">
         <v>63003</v>
       </c>
-      <c r="U9" s="79">
+      <c r="U9" s="73">
         <v>94183</v>
       </c>
-      <c r="V9" s="80">
+      <c r="V9" s="74">
         <v>137979</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>77520</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="84"/>
       <c r="B10" s="61">
         <v>8</v>
       </c>
@@ -14593,48 +14644,56 @@
       <c r="I10" s="58">
         <v>127</v>
       </c>
-      <c r="J10" s="76">
+      <c r="J10" s="70">
         <v>255</v>
       </c>
-      <c r="K10" s="77">
+      <c r="K10" s="71">
         <v>510</v>
       </c>
-      <c r="L10" s="77">
+      <c r="L10" s="71">
         <v>1012</v>
       </c>
-      <c r="M10" s="79">
+      <c r="M10" s="73">
         <v>1980</v>
       </c>
-      <c r="N10" s="79">
+      <c r="N10" s="73">
         <v>3796</v>
       </c>
-      <c r="O10" s="79">
+      <c r="O10" s="73">
         <v>7098</v>
       </c>
-      <c r="P10" s="79">
+      <c r="P10" s="73">
         <v>12910</v>
       </c>
-      <c r="Q10" s="79">
+      <c r="Q10" s="73">
         <v>22818</v>
       </c>
-      <c r="R10" s="79">
+      <c r="R10" s="73">
         <v>39202</v>
       </c>
-      <c r="S10" s="79">
+      <c r="S10" s="73">
         <v>65535</v>
       </c>
-      <c r="T10" s="79">
+      <c r="T10" s="73">
         <v>106761</v>
       </c>
-      <c r="U10" s="79">
+      <c r="U10" s="73">
         <v>169765</v>
       </c>
-      <c r="V10" s="80">
+      <c r="V10" s="74">
         <v>263949</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>125970</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="84"/>
       <c r="B11" s="61">
         <v>9</v>
       </c>
@@ -14662,45 +14721,53 @@
       <c r="J11" s="58">
         <v>255</v>
       </c>
-      <c r="K11" s="76">
+      <c r="K11" s="70">
         <v>511</v>
       </c>
-      <c r="L11" s="77">
+      <c r="L11" s="71">
         <v>1022</v>
       </c>
-      <c r="M11" s="84">
+      <c r="M11" s="78">
         <v>2035</v>
       </c>
-      <c r="N11" s="79">
+      <c r="N11" s="73">
         <v>4016</v>
       </c>
-      <c r="O11" s="79">
+      <c r="O11" s="73">
         <v>7813</v>
       </c>
-      <c r="P11" s="79">
+      <c r="P11" s="73">
         <v>14912</v>
       </c>
-      <c r="Q11" s="79">
+      <c r="Q11" s="73">
         <v>27823</v>
       </c>
-      <c r="R11" s="79">
+      <c r="R11" s="73">
         <v>50642</v>
       </c>
-      <c r="S11" s="79">
+      <c r="S11" s="73">
         <v>89845</v>
       </c>
-      <c r="T11" s="79">
+      <c r="T11" s="73">
         <v>155381</v>
       </c>
-      <c r="U11" s="79">
+      <c r="U11" s="73">
         <v>262143</v>
       </c>
-      <c r="V11" s="80">
+      <c r="V11" s="74">
         <v>431909</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>167960</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="84"/>
       <c r="B12" s="61">
         <v>10</v>
       </c>
@@ -14731,698 +14798,786 @@
       <c r="K12" s="58">
         <v>511</v>
       </c>
-      <c r="L12" s="76">
+      <c r="L12" s="70">
         <v>1023</v>
       </c>
-      <c r="M12" s="84">
+      <c r="M12" s="78">
         <v>2046</v>
       </c>
-      <c r="N12" s="84">
+      <c r="N12" s="78">
         <v>4082</v>
       </c>
-      <c r="O12" s="79">
+      <c r="O12" s="73">
         <v>8099</v>
       </c>
-      <c r="P12" s="79">
+      <c r="P12" s="73">
         <v>15913</v>
       </c>
-      <c r="Q12" s="79">
+      <c r="Q12" s="73">
         <v>30826</v>
       </c>
-      <c r="R12" s="79">
+      <c r="R12" s="73">
         <v>58650</v>
       </c>
-      <c r="S12" s="79">
+      <c r="S12" s="73">
         <v>109293</v>
       </c>
-      <c r="T12" s="79">
+      <c r="T12" s="73">
         <v>199139</v>
       </c>
-      <c r="U12" s="79">
+      <c r="U12" s="73">
         <v>354521</v>
       </c>
-      <c r="V12" s="80">
+      <c r="V12" s="74">
         <v>616665</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>184756</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="84"/>
       <c r="B13" s="61">
         <v>11</v>
       </c>
-      <c r="C13" s="74">
-        <v>1</v>
-      </c>
-      <c r="D13" s="79">
-        <v>3</v>
-      </c>
-      <c r="E13" s="79">
+      <c r="C13" s="68">
+        <v>1</v>
+      </c>
+      <c r="D13" s="73">
+        <v>3</v>
+      </c>
+      <c r="E13" s="73">
         <v>7</v>
       </c>
-      <c r="F13" s="79">
+      <c r="F13" s="73">
         <v>15</v>
       </c>
-      <c r="G13" s="79">
+      <c r="G13" s="73">
         <v>31</v>
       </c>
-      <c r="H13" s="79">
+      <c r="H13" s="73">
         <v>63</v>
       </c>
-      <c r="I13" s="79">
+      <c r="I13" s="73">
         <v>127</v>
       </c>
-      <c r="J13" s="79">
+      <c r="J13" s="73">
         <v>255</v>
       </c>
-      <c r="K13" s="79">
+      <c r="K13" s="73">
         <v>511</v>
       </c>
-      <c r="L13" s="79">
+      <c r="L13" s="73">
         <v>1023</v>
       </c>
-      <c r="M13" s="82">
+      <c r="M13" s="76">
         <v>2047</v>
       </c>
-      <c r="N13" s="84">
+      <c r="N13" s="78">
         <v>4094</v>
       </c>
-      <c r="O13" s="84">
+      <c r="O13" s="78">
         <v>8177</v>
       </c>
-      <c r="P13" s="79">
+      <c r="P13" s="73">
         <v>16277</v>
       </c>
-      <c r="Q13" s="79">
+      <c r="Q13" s="73">
         <v>32191</v>
       </c>
-      <c r="R13" s="79">
+      <c r="R13" s="73">
         <v>63018</v>
       </c>
-      <c r="S13" s="79">
+      <c r="S13" s="73">
         <v>121669</v>
       </c>
-      <c r="T13" s="79">
+      <c r="T13" s="73">
         <v>230963</v>
       </c>
-      <c r="U13" s="79">
+      <c r="U13" s="73">
         <v>430103</v>
       </c>
-      <c r="V13" s="81">
+      <c r="V13" s="75">
         <v>784625</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>167960</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="84"/>
       <c r="B14" s="61">
         <v>12</v>
       </c>
-      <c r="C14" s="74">
-        <v>1</v>
-      </c>
-      <c r="D14" s="79">
-        <v>3</v>
-      </c>
-      <c r="E14" s="79">
+      <c r="C14" s="68">
+        <v>1</v>
+      </c>
+      <c r="D14" s="73">
+        <v>3</v>
+      </c>
+      <c r="E14" s="73">
         <v>7</v>
       </c>
-      <c r="F14" s="79">
+      <c r="F14" s="73">
         <v>15</v>
       </c>
-      <c r="G14" s="79">
+      <c r="G14" s="73">
         <v>31</v>
       </c>
-      <c r="H14" s="79">
+      <c r="H14" s="73">
         <v>63</v>
       </c>
-      <c r="I14" s="79">
+      <c r="I14" s="73">
         <v>127</v>
       </c>
-      <c r="J14" s="79">
+      <c r="J14" s="73">
         <v>255</v>
       </c>
-      <c r="K14" s="79">
+      <c r="K14" s="73">
         <v>511</v>
       </c>
-      <c r="L14" s="79">
+      <c r="L14" s="73">
         <v>1023</v>
       </c>
-      <c r="M14" s="79">
+      <c r="M14" s="73">
         <v>2047</v>
       </c>
-      <c r="N14" s="82">
+      <c r="N14" s="76">
         <v>4095</v>
       </c>
-      <c r="O14" s="84">
+      <c r="O14" s="78">
         <v>8190</v>
       </c>
-      <c r="P14" s="84">
+      <c r="P14" s="78">
         <v>16368</v>
       </c>
-      <c r="Q14" s="79">
+      <c r="Q14" s="73">
         <v>32646</v>
       </c>
-      <c r="R14" s="79">
+      <c r="R14" s="73">
         <v>64838</v>
       </c>
-      <c r="S14" s="79">
+      <c r="S14" s="73">
         <v>127857</v>
       </c>
-      <c r="T14" s="79">
+      <c r="T14" s="73">
         <v>249527</v>
       </c>
-      <c r="U14" s="79">
+      <c r="U14" s="73">
         <v>480491</v>
       </c>
-      <c r="V14" s="80">
+      <c r="V14" s="74">
         <v>910595</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>125970</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="84"/>
       <c r="B15" s="61">
         <v>13</v>
       </c>
-      <c r="C15" s="74">
-        <v>1</v>
-      </c>
-      <c r="D15" s="79">
-        <v>3</v>
-      </c>
-      <c r="E15" s="79">
+      <c r="C15" s="68">
+        <v>1</v>
+      </c>
+      <c r="D15" s="73">
+        <v>3</v>
+      </c>
+      <c r="E15" s="73">
         <v>7</v>
       </c>
-      <c r="F15" s="79">
+      <c r="F15" s="73">
         <v>15</v>
       </c>
-      <c r="G15" s="79">
+      <c r="G15" s="73">
         <v>31</v>
       </c>
-      <c r="H15" s="79">
+      <c r="H15" s="73">
         <v>63</v>
       </c>
-      <c r="I15" s="79">
+      <c r="I15" s="73">
         <v>127</v>
       </c>
-      <c r="J15" s="79">
+      <c r="J15" s="73">
         <v>255</v>
       </c>
-      <c r="K15" s="79">
+      <c r="K15" s="73">
         <v>511</v>
       </c>
-      <c r="L15" s="79">
+      <c r="L15" s="73">
         <v>1023</v>
       </c>
-      <c r="M15" s="79">
+      <c r="M15" s="73">
         <v>2047</v>
       </c>
-      <c r="N15" s="79">
+      <c r="N15" s="73">
         <v>4095</v>
       </c>
-      <c r="O15" s="82">
+      <c r="O15" s="76">
         <v>8191</v>
       </c>
-      <c r="P15" s="84">
+      <c r="P15" s="78">
         <v>16382</v>
       </c>
-      <c r="Q15" s="84">
+      <c r="Q15" s="78">
         <v>32751</v>
       </c>
-      <c r="R15" s="79">
+      <c r="R15" s="73">
         <v>65398</v>
       </c>
-      <c r="S15" s="79">
+      <c r="S15" s="73">
         <v>130237</v>
       </c>
-      <c r="T15" s="79">
+      <c r="T15" s="73">
         <v>258095</v>
       </c>
-      <c r="U15" s="79">
+      <c r="U15" s="73">
         <v>507623</v>
       </c>
-      <c r="V15" s="80">
+      <c r="V15" s="74">
         <v>988115</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>77520</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="84"/>
       <c r="B16" s="61">
         <v>14</v>
       </c>
-      <c r="C16" s="74">
-        <v>1</v>
-      </c>
-      <c r="D16" s="79">
-        <v>3</v>
-      </c>
-      <c r="E16" s="79">
+      <c r="C16" s="68">
+        <v>1</v>
+      </c>
+      <c r="D16" s="73">
+        <v>3</v>
+      </c>
+      <c r="E16" s="73">
         <v>7</v>
       </c>
-      <c r="F16" s="79">
+      <c r="F16" s="73">
         <v>15</v>
       </c>
-      <c r="G16" s="79">
+      <c r="G16" s="73">
         <v>31</v>
       </c>
-      <c r="H16" s="79">
+      <c r="H16" s="73">
         <v>63</v>
       </c>
-      <c r="I16" s="79">
+      <c r="I16" s="73">
         <v>127</v>
       </c>
-      <c r="J16" s="79">
+      <c r="J16" s="73">
         <v>255</v>
       </c>
-      <c r="K16" s="79">
+      <c r="K16" s="73">
         <v>511</v>
       </c>
-      <c r="L16" s="79">
+      <c r="L16" s="73">
         <v>1023</v>
       </c>
-      <c r="M16" s="79">
+      <c r="M16" s="73">
         <v>2047</v>
       </c>
-      <c r="N16" s="79">
+      <c r="N16" s="73">
         <v>4095</v>
       </c>
-      <c r="O16" s="79">
+      <c r="O16" s="73">
         <v>8191</v>
       </c>
-      <c r="P16" s="82">
+      <c r="P16" s="76">
         <v>16383</v>
       </c>
-      <c r="Q16" s="84">
+      <c r="Q16" s="78">
         <v>32766</v>
       </c>
-      <c r="R16" s="84">
+      <c r="R16" s="78">
         <v>65518</v>
       </c>
-      <c r="S16" s="79">
+      <c r="S16" s="73">
         <v>130917</v>
       </c>
-      <c r="T16" s="79">
+      <c r="T16" s="73">
         <v>261155</v>
       </c>
-      <c r="U16" s="79">
+      <c r="U16" s="73">
         <v>519251</v>
       </c>
-      <c r="V16" s="80">
+      <c r="V16" s="74">
         <v>1026875</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>38760</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="84"/>
       <c r="B17" s="61">
         <v>15</v>
       </c>
-      <c r="C17" s="74">
-        <v>1</v>
-      </c>
-      <c r="D17" s="79">
-        <v>3</v>
-      </c>
-      <c r="E17" s="79">
+      <c r="C17" s="68">
+        <v>1</v>
+      </c>
+      <c r="D17" s="73">
+        <v>3</v>
+      </c>
+      <c r="E17" s="73">
         <v>7</v>
       </c>
-      <c r="F17" s="79">
+      <c r="F17" s="73">
         <v>15</v>
       </c>
-      <c r="G17" s="79">
+      <c r="G17" s="73">
         <v>31</v>
       </c>
-      <c r="H17" s="79">
+      <c r="H17" s="73">
         <v>63</v>
       </c>
-      <c r="I17" s="79">
+      <c r="I17" s="73">
         <v>127</v>
       </c>
-      <c r="J17" s="79">
+      <c r="J17" s="73">
         <v>255</v>
       </c>
-      <c r="K17" s="79">
+      <c r="K17" s="73">
         <v>511</v>
       </c>
-      <c r="L17" s="79">
+      <c r="L17" s="73">
         <v>1023</v>
       </c>
-      <c r="M17" s="79">
+      <c r="M17" s="73">
         <v>2047</v>
       </c>
-      <c r="N17" s="79">
+      <c r="N17" s="73">
         <v>4095</v>
       </c>
-      <c r="O17" s="79">
+      <c r="O17" s="73">
         <v>8191</v>
       </c>
-      <c r="P17" s="79">
+      <c r="P17" s="73">
         <v>16383</v>
       </c>
-      <c r="Q17" s="82">
+      <c r="Q17" s="76">
         <v>32767</v>
       </c>
-      <c r="R17" s="84">
+      <c r="R17" s="78">
         <v>65534</v>
       </c>
-      <c r="S17" s="84">
+      <c r="S17" s="78">
         <v>131053</v>
       </c>
-      <c r="T17" s="79">
+      <c r="T17" s="73">
         <v>261971</v>
       </c>
-      <c r="U17" s="79">
+      <c r="U17" s="73">
         <v>523127</v>
       </c>
-      <c r="V17" s="80">
+      <c r="V17" s="74">
         <v>1042379</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
+      <c r="W17">
+        <f t="shared" si="0"/>
+        <v>15504</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="84"/>
       <c r="B18" s="61">
         <v>16</v>
       </c>
-      <c r="C18" s="74">
-        <v>1</v>
-      </c>
-      <c r="D18" s="79">
-        <v>3</v>
-      </c>
-      <c r="E18" s="79">
+      <c r="C18" s="68">
+        <v>1</v>
+      </c>
+      <c r="D18" s="73">
+        <v>3</v>
+      </c>
+      <c r="E18" s="73">
         <v>7</v>
       </c>
-      <c r="F18" s="79">
+      <c r="F18" s="73">
         <v>15</v>
       </c>
-      <c r="G18" s="79">
+      <c r="G18" s="73">
         <v>31</v>
       </c>
-      <c r="H18" s="79">
+      <c r="H18" s="73">
         <v>63</v>
       </c>
-      <c r="I18" s="79">
+      <c r="I18" s="73">
         <v>127</v>
       </c>
-      <c r="J18" s="79">
+      <c r="J18" s="73">
         <v>255</v>
       </c>
-      <c r="K18" s="79">
+      <c r="K18" s="73">
         <v>511</v>
       </c>
-      <c r="L18" s="79">
+      <c r="L18" s="73">
         <v>1023</v>
       </c>
-      <c r="M18" s="79">
+      <c r="M18" s="73">
         <v>2047</v>
       </c>
-      <c r="N18" s="79">
+      <c r="N18" s="73">
         <v>4095</v>
       </c>
-      <c r="O18" s="79">
+      <c r="O18" s="73">
         <v>8191</v>
       </c>
-      <c r="P18" s="79">
+      <c r="P18" s="73">
         <v>16383</v>
       </c>
-      <c r="Q18" s="79">
+      <c r="Q18" s="73">
         <v>32767</v>
       </c>
-      <c r="R18" s="82">
+      <c r="R18" s="76">
         <v>65535</v>
       </c>
-      <c r="S18" s="84">
+      <c r="S18" s="78">
         <v>131070</v>
       </c>
-      <c r="T18" s="84">
+      <c r="T18" s="78">
         <v>262124</v>
       </c>
-      <c r="U18" s="79">
+      <c r="U18" s="73">
         <v>524096</v>
       </c>
-      <c r="V18" s="80">
+      <c r="V18" s="74">
         <v>1047224</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
+      <c r="W18">
+        <f t="shared" si="0"/>
+        <v>4845</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="84"/>
       <c r="B19" s="61">
         <v>17</v>
       </c>
-      <c r="C19" s="74">
-        <v>1</v>
-      </c>
-      <c r="D19" s="79">
-        <v>3</v>
-      </c>
-      <c r="E19" s="79">
+      <c r="C19" s="68">
+        <v>1</v>
+      </c>
+      <c r="D19" s="73">
+        <v>3</v>
+      </c>
+      <c r="E19" s="73">
         <v>7</v>
       </c>
-      <c r="F19" s="79">
+      <c r="F19" s="73">
         <v>15</v>
       </c>
-      <c r="G19" s="79">
+      <c r="G19" s="73">
         <v>31</v>
       </c>
-      <c r="H19" s="79">
+      <c r="H19" s="73">
         <v>63</v>
       </c>
-      <c r="I19" s="79">
+      <c r="I19" s="73">
         <v>127</v>
       </c>
-      <c r="J19" s="79">
+      <c r="J19" s="73">
         <v>255</v>
       </c>
-      <c r="K19" s="79">
+      <c r="K19" s="73">
         <v>511</v>
       </c>
-      <c r="L19" s="79">
+      <c r="L19" s="73">
         <v>1023</v>
       </c>
-      <c r="M19" s="79">
+      <c r="M19" s="73">
         <v>2047</v>
       </c>
-      <c r="N19" s="79">
+      <c r="N19" s="73">
         <v>4095</v>
       </c>
-      <c r="O19" s="79">
+      <c r="O19" s="73">
         <v>8191</v>
       </c>
-      <c r="P19" s="79">
+      <c r="P19" s="73">
         <v>16383</v>
       </c>
-      <c r="Q19" s="79">
+      <c r="Q19" s="73">
         <v>32767</v>
       </c>
-      <c r="R19" s="79">
+      <c r="R19" s="73">
         <v>65535</v>
       </c>
-      <c r="S19" s="82">
+      <c r="S19" s="76">
         <v>131071</v>
       </c>
-      <c r="T19" s="84">
+      <c r="T19" s="78">
         <v>262142</v>
       </c>
-      <c r="U19" s="84">
+      <c r="U19" s="78">
         <v>524267</v>
       </c>
-      <c r="V19" s="80">
+      <c r="V19" s="74">
         <v>1048364</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
+      <c r="W19">
+        <f t="shared" si="0"/>
+        <v>1140</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="84"/>
       <c r="B20" s="61">
         <v>18</v>
       </c>
-      <c r="C20" s="74">
-        <v>1</v>
-      </c>
-      <c r="D20" s="79">
-        <v>3</v>
-      </c>
-      <c r="E20" s="79">
+      <c r="C20" s="68">
+        <v>1</v>
+      </c>
+      <c r="D20" s="73">
+        <v>3</v>
+      </c>
+      <c r="E20" s="73">
         <v>7</v>
       </c>
-      <c r="F20" s="79">
+      <c r="F20" s="73">
         <v>15</v>
       </c>
-      <c r="G20" s="79">
+      <c r="G20" s="73">
         <v>31</v>
       </c>
-      <c r="H20" s="79">
+      <c r="H20" s="73">
         <v>63</v>
       </c>
-      <c r="I20" s="79">
+      <c r="I20" s="73">
         <v>127</v>
       </c>
-      <c r="J20" s="79">
+      <c r="J20" s="73">
         <v>255</v>
       </c>
-      <c r="K20" s="79">
+      <c r="K20" s="73">
         <v>511</v>
       </c>
-      <c r="L20" s="79">
+      <c r="L20" s="73">
         <v>1023</v>
       </c>
-      <c r="M20" s="79">
+      <c r="M20" s="73">
         <v>2047</v>
       </c>
-      <c r="N20" s="79">
+      <c r="N20" s="73">
         <v>4095</v>
       </c>
-      <c r="O20" s="79">
+      <c r="O20" s="73">
         <v>8191</v>
       </c>
-      <c r="P20" s="79">
+      <c r="P20" s="73">
         <v>16383</v>
       </c>
-      <c r="Q20" s="79">
+      <c r="Q20" s="73">
         <v>32767</v>
       </c>
-      <c r="R20" s="79">
+      <c r="R20" s="73">
         <v>65535</v>
       </c>
-      <c r="S20" s="79">
+      <c r="S20" s="73">
         <v>131071</v>
       </c>
-      <c r="T20" s="82">
+      <c r="T20" s="76">
         <v>262143</v>
       </c>
-      <c r="U20" s="84">
+      <c r="U20" s="78">
         <v>524286</v>
       </c>
-      <c r="V20" s="85">
+      <c r="V20" s="79">
         <v>1048554</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
+      <c r="W20">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="84"/>
       <c r="B21" s="61">
         <v>19</v>
       </c>
-      <c r="C21" s="74">
-        <v>1</v>
-      </c>
-      <c r="D21" s="79">
-        <v>3</v>
-      </c>
-      <c r="E21" s="79">
+      <c r="C21" s="68">
+        <v>1</v>
+      </c>
+      <c r="D21" s="73">
+        <v>3</v>
+      </c>
+      <c r="E21" s="73">
         <v>7</v>
       </c>
-      <c r="F21" s="79">
+      <c r="F21" s="73">
         <v>15</v>
       </c>
-      <c r="G21" s="79">
+      <c r="G21" s="73">
         <v>31</v>
       </c>
-      <c r="H21" s="79">
+      <c r="H21" s="73">
         <v>63</v>
       </c>
-      <c r="I21" s="79">
+      <c r="I21" s="73">
         <v>127</v>
       </c>
-      <c r="J21" s="79">
+      <c r="J21" s="73">
         <v>255</v>
       </c>
-      <c r="K21" s="79">
+      <c r="K21" s="73">
         <v>511</v>
       </c>
-      <c r="L21" s="79">
+      <c r="L21" s="73">
         <v>1023</v>
       </c>
-      <c r="M21" s="79">
+      <c r="M21" s="73">
         <v>2047</v>
       </c>
-      <c r="N21" s="79">
+      <c r="N21" s="73">
         <v>4095</v>
       </c>
-      <c r="O21" s="79">
+      <c r="O21" s="73">
         <v>8191</v>
       </c>
-      <c r="P21" s="79">
+      <c r="P21" s="73">
         <v>16383</v>
       </c>
-      <c r="Q21" s="79">
+      <c r="Q21" s="73">
         <v>32767</v>
       </c>
-      <c r="R21" s="79">
+      <c r="R21" s="73">
         <v>65535</v>
       </c>
-      <c r="S21" s="79">
+      <c r="S21" s="73">
         <v>131071</v>
       </c>
-      <c r="T21" s="79">
+      <c r="T21" s="73">
         <v>262143</v>
       </c>
-      <c r="U21" s="82">
+      <c r="U21" s="76">
         <v>524287</v>
       </c>
-      <c r="V21" s="85">
+      <c r="V21" s="79">
         <v>1048574</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="70"/>
-      <c r="B22" s="72">
+      <c r="W21">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="65">
-        <v>1</v>
-      </c>
-      <c r="D22" s="66">
-        <v>3</v>
-      </c>
-      <c r="E22" s="66">
+      <c r="X21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="85"/>
+      <c r="B22" s="66">
+        <v>20</v>
+      </c>
+      <c r="C22" s="62">
+        <v>1</v>
+      </c>
+      <c r="D22" s="63">
+        <v>3</v>
+      </c>
+      <c r="E22" s="63">
         <v>7</v>
       </c>
-      <c r="F22" s="66">
+      <c r="F22" s="63">
         <v>15</v>
       </c>
-      <c r="G22" s="66">
+      <c r="G22" s="63">
         <v>31</v>
       </c>
-      <c r="H22" s="66">
+      <c r="H22" s="63">
         <v>63</v>
       </c>
-      <c r="I22" s="66">
+      <c r="I22" s="63">
         <v>127</v>
       </c>
-      <c r="J22" s="66">
+      <c r="J22" s="63">
         <v>255</v>
       </c>
-      <c r="K22" s="66">
+      <c r="K22" s="63">
         <v>511</v>
       </c>
-      <c r="L22" s="66">
+      <c r="L22" s="63">
         <v>1023</v>
       </c>
-      <c r="M22" s="66">
+      <c r="M22" s="63">
         <v>2047</v>
       </c>
-      <c r="N22" s="66">
+      <c r="N22" s="63">
         <v>4095</v>
       </c>
-      <c r="O22" s="66">
+      <c r="O22" s="63">
         <v>8191</v>
       </c>
-      <c r="P22" s="66">
+      <c r="P22" s="63">
         <v>16383</v>
       </c>
-      <c r="Q22" s="66">
+      <c r="Q22" s="63">
         <v>32767</v>
       </c>
-      <c r="R22" s="66">
+      <c r="R22" s="63">
         <v>65535</v>
       </c>
-      <c r="S22" s="66">
+      <c r="S22" s="63">
         <v>131071</v>
       </c>
-      <c r="T22" s="66">
+      <c r="T22" s="63">
         <v>262143</v>
       </c>
-      <c r="U22" s="66">
+      <c r="U22" s="63">
         <v>524287</v>
       </c>
-      <c r="V22" s="83">
+      <c r="V22" s="77">
         <v>1048575</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/solutions/fabergè_easter_eggs_crush_test.xlsx
+++ b/solutions/fabergè_easter_eggs_crush_test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="23">
   <si>
     <t>floor</t>
   </si>
@@ -328,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -400,9 +400,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -424,14 +421,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -463,6 +454,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -472,17 +466,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14007,10 +14017,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14018,775 +14028,881 @@
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.140625" customWidth="1"/>
     <col min="3" max="12" width="6.28515625" customWidth="1"/>
+    <col min="14" max="22" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C1" s="80" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C1" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="82"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C2" s="62">
-        <v>1</v>
-      </c>
-      <c r="D2" s="63">
-        <v>2</v>
-      </c>
-      <c r="E2" s="63">
-        <v>3</v>
-      </c>
-      <c r="F2" s="63">
-        <v>4</v>
-      </c>
-      <c r="G2" s="63">
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="80"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C2" s="66">
+        <v>1</v>
+      </c>
+      <c r="D2" s="70">
+        <v>2</v>
+      </c>
+      <c r="E2" s="70">
+        <v>3</v>
+      </c>
+      <c r="F2" s="70">
+        <v>4</v>
+      </c>
+      <c r="G2" s="70">
         <v>5</v>
       </c>
-      <c r="H2" s="63">
+      <c r="H2" s="70">
         <v>6</v>
       </c>
-      <c r="I2" s="63">
+      <c r="I2" s="70">
         <v>7</v>
       </c>
-      <c r="J2" s="63">
+      <c r="J2" s="70">
         <v>8</v>
       </c>
-      <c r="K2" s="63">
+      <c r="K2" s="70">
         <v>9</v>
       </c>
-      <c r="L2" s="63">
+      <c r="L2" s="70">
         <v>10</v>
       </c>
-      <c r="M2" s="63">
+      <c r="M2" s="70">
         <v>11</v>
       </c>
-      <c r="N2" s="63">
+      <c r="N2" s="70">
         <v>12</v>
       </c>
-      <c r="O2" s="63">
+      <c r="O2" s="70">
         <v>13</v>
       </c>
-      <c r="P2" s="63">
+      <c r="P2" s="70">
         <v>14</v>
       </c>
-      <c r="Q2" s="63">
+      <c r="Q2" s="70">
         <v>15</v>
       </c>
-      <c r="R2" s="63">
+      <c r="R2" s="70">
         <v>16</v>
       </c>
-      <c r="S2" s="63">
+      <c r="S2" s="70">
         <v>17</v>
       </c>
-      <c r="T2" s="63">
+      <c r="T2" s="70">
         <v>18</v>
       </c>
-      <c r="U2" s="63">
+      <c r="U2" s="70">
         <v>19</v>
       </c>
-      <c r="V2" s="64">
+      <c r="V2" s="71">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="W2" s="66">
+        <v>1</v>
+      </c>
+      <c r="X2" s="70">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="70">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="70">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="70">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="70">
+        <v>6</v>
+      </c>
+      <c r="AC2" s="70">
+        <v>7</v>
+      </c>
+      <c r="AD2" s="70">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="70">
+        <v>9</v>
+      </c>
+      <c r="AF2" s="70">
+        <v>10</v>
+      </c>
+      <c r="AG2" s="70">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="65">
-        <v>1</v>
-      </c>
-      <c r="C3" s="69">
-        <v>1</v>
-      </c>
-      <c r="D3" s="72">
-        <v>2</v>
-      </c>
-      <c r="E3" s="72">
-        <v>3</v>
-      </c>
-      <c r="F3" s="72">
-        <v>4</v>
-      </c>
-      <c r="G3" s="72">
+      <c r="B3" s="82">
+        <v>0</v>
+      </c>
+      <c r="C3" s="89">
+        <v>1</v>
+      </c>
+      <c r="D3" s="69">
+        <v>1</v>
+      </c>
+      <c r="E3" s="69">
+        <v>1</v>
+      </c>
+      <c r="F3" s="69">
+        <v>1</v>
+      </c>
+      <c r="G3" s="69">
+        <v>1</v>
+      </c>
+      <c r="H3" s="69">
+        <v>1</v>
+      </c>
+      <c r="I3" s="69">
+        <v>1</v>
+      </c>
+      <c r="J3" s="69">
+        <v>1</v>
+      </c>
+      <c r="K3" s="69">
+        <v>1</v>
+      </c>
+      <c r="L3" s="69">
+        <v>1</v>
+      </c>
+      <c r="M3" s="69">
+        <v>1</v>
+      </c>
+      <c r="N3" s="69">
+        <v>1</v>
+      </c>
+      <c r="O3" s="69">
+        <v>1</v>
+      </c>
+      <c r="P3" s="69">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="69">
+        <v>1</v>
+      </c>
+      <c r="R3" s="69">
+        <v>1</v>
+      </c>
+      <c r="S3" s="69">
+        <v>1</v>
+      </c>
+      <c r="T3" s="69">
+        <v>1</v>
+      </c>
+      <c r="U3" s="69">
+        <v>1</v>
+      </c>
+      <c r="V3" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="86"/>
+      <c r="B4" s="60">
+        <v>1</v>
+      </c>
+      <c r="C4" s="67">
+        <v>1</v>
+      </c>
+      <c r="D4" s="68">
+        <v>2</v>
+      </c>
+      <c r="E4" s="68">
+        <v>3</v>
+      </c>
+      <c r="F4" s="68">
+        <v>4</v>
+      </c>
+      <c r="G4" s="68">
         <v>5</v>
       </c>
-      <c r="H3" s="72">
+      <c r="H4" s="68">
         <v>6</v>
       </c>
-      <c r="I3" s="72">
+      <c r="I4" s="68">
         <v>7</v>
       </c>
-      <c r="J3" s="72">
+      <c r="J4" s="68">
         <v>8</v>
       </c>
-      <c r="K3" s="72">
+      <c r="K4" s="68">
         <v>9</v>
       </c>
-      <c r="L3" s="72">
+      <c r="L4" s="68">
         <v>10</v>
       </c>
-      <c r="M3" s="72">
+      <c r="M4" s="68">
         <v>11</v>
       </c>
-      <c r="N3" s="72">
+      <c r="N4" s="68">
         <v>12</v>
       </c>
-      <c r="O3" s="72">
+      <c r="O4" s="68">
         <v>13</v>
       </c>
-      <c r="P3" s="72">
+      <c r="P4" s="68">
         <v>14</v>
       </c>
-      <c r="Q3" s="72">
+      <c r="Q4" s="68">
         <v>15</v>
       </c>
-      <c r="R3" s="72">
+      <c r="R4" s="68">
         <v>16</v>
       </c>
-      <c r="S3" s="72">
+      <c r="S4" s="68">
         <v>17</v>
       </c>
-      <c r="T3" s="72">
+      <c r="T4" s="68">
         <v>18</v>
       </c>
-      <c r="U3" s="72">
+      <c r="U4" s="68">
         <v>19</v>
       </c>
-      <c r="V3" s="86">
+      <c r="V4" s="83">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="61">
-        <v>2</v>
-      </c>
-      <c r="C4" s="67">
-        <v>1</v>
-      </c>
-      <c r="D4" s="70">
-        <v>3</v>
-      </c>
-      <c r="E4" s="71">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="86"/>
+      <c r="B5" s="60">
+        <v>2</v>
+      </c>
+      <c r="C5" s="58">
+        <v>1</v>
+      </c>
+      <c r="D5" s="67">
+        <v>3</v>
+      </c>
+      <c r="E5" s="68">
         <v>6</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F5" s="68">
         <v>10</v>
       </c>
-      <c r="G4" s="58">
+      <c r="G5" s="58">
         <v>15</v>
       </c>
-      <c r="H4" s="58">
+      <c r="H5" s="58">
         <v>21</v>
       </c>
-      <c r="I4" s="58">
+      <c r="I5" s="58">
         <v>28</v>
       </c>
-      <c r="J4" s="58">
+      <c r="J5" s="58">
         <v>36</v>
       </c>
-      <c r="K4" s="58">
+      <c r="K5" s="58">
         <v>45</v>
       </c>
-      <c r="L4" s="58">
+      <c r="L5" s="58">
         <v>55</v>
       </c>
-      <c r="M4" s="73">
+      <c r="M5" s="70">
         <v>66</v>
       </c>
-      <c r="N4" s="73">
+      <c r="N5" s="70">
         <v>78</v>
       </c>
-      <c r="O4" s="73">
+      <c r="O5" s="70">
         <v>91</v>
       </c>
-      <c r="P4" s="73">
+      <c r="P5" s="70">
         <v>105</v>
       </c>
-      <c r="Q4" s="73">
+      <c r="Q5" s="70">
         <v>120</v>
       </c>
-      <c r="R4" s="73">
+      <c r="R5" s="70">
         <v>136</v>
       </c>
-      <c r="S4" s="73">
+      <c r="S5" s="70">
         <v>153</v>
       </c>
-      <c r="T4" s="73">
+      <c r="T5" s="70">
         <v>171</v>
       </c>
-      <c r="U4" s="73">
+      <c r="U5" s="70">
         <v>190</v>
       </c>
-      <c r="V4" s="74">
+      <c r="V5" s="71">
         <v>210</v>
       </c>
-      <c r="W4">
-        <f>V4-V3</f>
-        <v>190</v>
-      </c>
-      <c r="X4">
-        <f>M4-M3</f>
+      <c r="AA5">
+        <f>G5-G4</f>
+        <v>10</v>
+      </c>
+      <c r="AB5">
+        <f>H5-H4</f>
+        <v>15</v>
+      </c>
+      <c r="AC5">
+        <f>I5-I4</f>
+        <v>21</v>
+      </c>
+      <c r="AD5">
+        <f>J5-J4</f>
+        <v>28</v>
+      </c>
+      <c r="AE5">
+        <f>K5-K4</f>
+        <v>36</v>
+      </c>
+      <c r="AF5">
+        <f>L5-L4</f>
+        <v>45</v>
+      </c>
+      <c r="AG5">
+        <f>M5-M4</f>
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="61">
-        <v>3</v>
-      </c>
-      <c r="C5" s="59">
-        <v>1</v>
-      </c>
-      <c r="D5" s="58">
-        <v>3</v>
-      </c>
-      <c r="E5" s="70">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="86"/>
+      <c r="B6" s="60">
+        <v>3</v>
+      </c>
+      <c r="C6" s="59">
+        <v>1</v>
+      </c>
+      <c r="D6" s="58">
+        <v>3</v>
+      </c>
+      <c r="E6" s="67">
         <v>7</v>
       </c>
-      <c r="F5" s="71">
+      <c r="F6" s="68">
         <v>14</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G6" s="68">
         <v>25</v>
       </c>
-      <c r="H5" s="58">
+      <c r="H6" s="58">
         <v>41</v>
       </c>
-      <c r="I5" s="58">
+      <c r="I6" s="58">
         <v>63</v>
       </c>
-      <c r="J5" s="58">
+      <c r="J6" s="58">
         <v>92</v>
       </c>
-      <c r="K5" s="58">
+      <c r="K6" s="58">
         <v>129</v>
       </c>
-      <c r="L5" s="58">
+      <c r="L6" s="58">
         <v>175</v>
       </c>
-      <c r="M5" s="73">
+      <c r="M6" s="70">
         <v>231</v>
       </c>
-      <c r="N5" s="73">
+      <c r="N6" s="70">
         <v>298</v>
       </c>
-      <c r="O5" s="73">
+      <c r="O6" s="70">
         <v>377</v>
       </c>
-      <c r="P5" s="73">
+      <c r="P6" s="70">
         <v>469</v>
       </c>
-      <c r="Q5" s="73">
+      <c r="Q6" s="70">
         <v>575</v>
       </c>
-      <c r="R5" s="73">
+      <c r="R6" s="70">
         <v>696</v>
       </c>
-      <c r="S5" s="73">
+      <c r="S6" s="70">
         <v>833</v>
       </c>
-      <c r="T5" s="73">
+      <c r="T6" s="70">
         <v>987</v>
       </c>
-      <c r="U5" s="73">
+      <c r="U6" s="70">
         <v>1159</v>
       </c>
-      <c r="V5" s="74">
+      <c r="V6" s="71">
         <v>1350</v>
       </c>
-      <c r="W5">
-        <f t="shared" ref="W5:W22" si="0">V5-V4</f>
-        <v>1140</v>
-      </c>
-      <c r="X5">
-        <f t="shared" ref="X5:X22" si="1">M5-M4</f>
+      <c r="AA6">
+        <f>G6-G5</f>
+        <v>10</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" ref="AB6:AB7" si="0">H6-H5</f>
+        <v>20</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" ref="AC6:AC8" si="1">I6-I5</f>
+        <v>35</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" ref="AD6:AD9" si="2">J6-J5</f>
+        <v>56</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" ref="AE6:AE10" si="3">K6-K5</f>
+        <v>84</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" ref="AF6:AF11" si="4">L6-L5</f>
+        <v>120</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" ref="AG6:AG12" si="5">M6-M5</f>
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
-      <c r="B6" s="61">
-        <v>4</v>
-      </c>
-      <c r="C6" s="59">
-        <v>1</v>
-      </c>
-      <c r="D6" s="60">
-        <v>3</v>
-      </c>
-      <c r="E6" s="58">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="86"/>
+      <c r="B7" s="60">
+        <v>4</v>
+      </c>
+      <c r="C7" s="59">
+        <v>1</v>
+      </c>
+      <c r="D7" s="59">
+        <v>3</v>
+      </c>
+      <c r="E7" s="58">
         <v>7</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F7" s="67">
         <v>15</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G7" s="68">
         <v>30</v>
       </c>
-      <c r="H6" s="71">
+      <c r="H7" s="68">
         <v>56</v>
       </c>
-      <c r="I6" s="58">
+      <c r="I7" s="58">
         <v>98</v>
       </c>
-      <c r="J6" s="58">
+      <c r="J7" s="58">
         <v>162</v>
       </c>
-      <c r="K6" s="58">
+      <c r="K7" s="58">
         <v>255</v>
       </c>
-      <c r="L6" s="58">
+      <c r="L7" s="58">
         <v>385</v>
       </c>
-      <c r="M6" s="73">
+      <c r="M7" s="70">
         <v>561</v>
       </c>
-      <c r="N6" s="73">
+      <c r="N7" s="70">
         <v>793</v>
       </c>
-      <c r="O6" s="73">
+      <c r="O7" s="70">
         <v>1092</v>
       </c>
-      <c r="P6" s="73">
+      <c r="P7" s="70">
         <v>1470</v>
       </c>
-      <c r="Q6" s="73">
+      <c r="Q7" s="70">
         <v>1940</v>
       </c>
-      <c r="R6" s="73">
+      <c r="R7" s="70">
         <v>2516</v>
       </c>
-      <c r="S6" s="73">
+      <c r="S7" s="70">
         <v>3213</v>
       </c>
-      <c r="T6" s="73">
+      <c r="T7" s="70">
         <v>4047</v>
       </c>
-      <c r="U6" s="73">
+      <c r="U7" s="70">
         <v>5035</v>
       </c>
-      <c r="V6" s="74">
+      <c r="V7" s="71">
         <v>6195</v>
       </c>
-      <c r="W6">
+      <c r="AB7">
         <f t="shared" si="0"/>
-        <v>4845</v>
-      </c>
-      <c r="X6">
+        <v>15</v>
+      </c>
+      <c r="AC7">
         <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="61">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="86"/>
+      <c r="B8" s="60">
         <v>5</v>
       </c>
-      <c r="C7" s="59">
-        <v>1</v>
-      </c>
-      <c r="D7" s="60">
-        <v>3</v>
-      </c>
-      <c r="E7" s="60">
+      <c r="C8" s="59">
+        <v>1</v>
+      </c>
+      <c r="D8" s="59">
+        <v>3</v>
+      </c>
+      <c r="E8" s="59">
         <v>7</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F8" s="58">
         <v>15</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G8" s="67">
         <v>31</v>
       </c>
-      <c r="H7" s="71">
+      <c r="H8" s="68">
         <v>62</v>
       </c>
-      <c r="I7" s="71">
+      <c r="I8" s="68">
         <v>119</v>
       </c>
-      <c r="J7" s="58">
+      <c r="J8" s="58">
         <v>218</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K8" s="58">
         <v>381</v>
       </c>
-      <c r="L7" s="58">
+      <c r="L8" s="58">
         <v>637</v>
       </c>
-      <c r="M7" s="75">
+      <c r="M8" s="72">
         <v>1023</v>
       </c>
-      <c r="N7" s="73">
+      <c r="N8" s="70">
         <v>1585</v>
       </c>
-      <c r="O7" s="73">
+      <c r="O8" s="70">
         <v>2379</v>
       </c>
-      <c r="P7" s="73">
+      <c r="P8" s="70">
         <v>3472</v>
       </c>
-      <c r="Q7" s="73">
+      <c r="Q8" s="70">
         <v>4943</v>
       </c>
-      <c r="R7" s="73">
+      <c r="R8" s="70">
         <v>6884</v>
       </c>
-      <c r="S7" s="73">
+      <c r="S8" s="70">
         <v>9401</v>
       </c>
-      <c r="T7" s="73">
+      <c r="T8" s="70">
         <v>12615</v>
       </c>
-      <c r="U7" s="73">
+      <c r="U8" s="70">
         <v>16663</v>
       </c>
-      <c r="V7" s="74">
+      <c r="V8" s="71">
         <v>21699</v>
       </c>
-      <c r="W7">
-        <f t="shared" si="0"/>
-        <v>15504</v>
-      </c>
-      <c r="X7">
+      <c r="AC8">
         <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="4"/>
+        <v>252</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="5"/>
         <v>462</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="61">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="86"/>
+      <c r="B9" s="60">
         <v>6</v>
       </c>
-      <c r="C8" s="59">
-        <v>1</v>
-      </c>
-      <c r="D8" s="60">
-        <v>3</v>
-      </c>
-      <c r="E8" s="60">
+      <c r="C9" s="59">
+        <v>1</v>
+      </c>
+      <c r="D9" s="59">
+        <v>3</v>
+      </c>
+      <c r="E9" s="59">
         <v>7</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F9" s="59">
         <v>15</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G9" s="58">
         <v>31</v>
       </c>
-      <c r="H8" s="70">
+      <c r="H9" s="67">
         <v>63</v>
       </c>
-      <c r="I8" s="71">
+      <c r="I9" s="68">
         <v>126</v>
       </c>
-      <c r="J8" s="71">
+      <c r="J9" s="68">
         <v>246</v>
       </c>
-      <c r="K8" s="58">
+      <c r="K9" s="58">
         <v>465</v>
       </c>
-      <c r="L8" s="58">
+      <c r="L9" s="58">
         <v>847</v>
       </c>
-      <c r="M8" s="73">
+      <c r="M9" s="70">
         <v>1485</v>
       </c>
-      <c r="N8" s="73">
+      <c r="N9" s="70">
         <v>2509</v>
       </c>
-      <c r="O8" s="73">
+      <c r="O9" s="70">
         <v>4095</v>
       </c>
-      <c r="P8" s="73">
+      <c r="P9" s="70">
         <v>6475</v>
       </c>
-      <c r="Q8" s="73">
+      <c r="Q9" s="70">
         <v>9948</v>
       </c>
-      <c r="R8" s="73">
+      <c r="R9" s="70">
         <v>14892</v>
       </c>
-      <c r="S8" s="73">
+      <c r="S9" s="70">
         <v>21777</v>
       </c>
-      <c r="T8" s="73">
+      <c r="T9" s="70">
         <v>31179</v>
       </c>
-      <c r="U8" s="73">
+      <c r="U9" s="70">
         <v>43795</v>
       </c>
-      <c r="V8" s="74">
+      <c r="V9" s="71">
         <v>60459</v>
       </c>
-      <c r="W8">
-        <f t="shared" si="0"/>
-        <v>38760</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="1"/>
+      <c r="AD9">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="5"/>
         <v>462</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="61">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="86"/>
+      <c r="B10" s="60">
         <v>7</v>
       </c>
-      <c r="C9" s="59">
-        <v>1</v>
-      </c>
-      <c r="D9" s="60">
-        <v>3</v>
-      </c>
-      <c r="E9" s="60">
+      <c r="C10" s="59">
+        <v>1</v>
+      </c>
+      <c r="D10" s="59">
+        <v>3</v>
+      </c>
+      <c r="E10" s="59">
         <v>7</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F10" s="59">
         <v>15</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G10" s="59">
         <v>31</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H10" s="59">
         <v>63</v>
       </c>
-      <c r="I9" s="70">
+      <c r="I10" s="67">
         <v>127</v>
       </c>
-      <c r="J9" s="71">
+      <c r="J10" s="68">
         <v>254</v>
       </c>
-      <c r="K9" s="71">
+      <c r="K10" s="68">
         <v>501</v>
       </c>
-      <c r="L9" s="58">
+      <c r="L10" s="58">
         <v>967</v>
       </c>
-      <c r="M9" s="73">
+      <c r="M10" s="70">
         <v>1815</v>
       </c>
-      <c r="N9" s="73">
+      <c r="N10" s="70">
         <v>3301</v>
       </c>
-      <c r="O9" s="73">
+      <c r="O10" s="70">
         <v>5811</v>
       </c>
-      <c r="P9" s="73">
+      <c r="P10" s="70">
         <v>9907</v>
       </c>
-      <c r="Q9" s="73">
+      <c r="Q10" s="70">
         <v>16383</v>
       </c>
-      <c r="R9" s="73">
+      <c r="R10" s="70">
         <v>26332</v>
       </c>
-      <c r="S9" s="73">
+      <c r="S10" s="70">
         <v>41225</v>
       </c>
-      <c r="T9" s="73">
+      <c r="T10" s="70">
         <v>63003</v>
       </c>
-      <c r="U9" s="73">
+      <c r="U10" s="70">
         <v>94183</v>
       </c>
-      <c r="V9" s="74">
+      <c r="V10" s="71">
         <v>137979</v>
       </c>
-      <c r="W9">
-        <f t="shared" si="0"/>
-        <v>77520</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="1"/>
+      <c r="AE10">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="61">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="86"/>
+      <c r="B11" s="60">
         <v>8</v>
       </c>
-      <c r="C10" s="59">
-        <v>1</v>
-      </c>
-      <c r="D10" s="60">
-        <v>3</v>
-      </c>
-      <c r="E10" s="60">
+      <c r="C11" s="59">
+        <v>1</v>
+      </c>
+      <c r="D11" s="59">
+        <v>3</v>
+      </c>
+      <c r="E11" s="59">
         <v>7</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F11" s="59">
         <v>15</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G11" s="59">
         <v>31</v>
       </c>
-      <c r="H10" s="60">
-        <v>63</v>
-      </c>
-      <c r="I10" s="58">
-        <v>127</v>
-      </c>
-      <c r="J10" s="70">
-        <v>255</v>
-      </c>
-      <c r="K10" s="71">
-        <v>510</v>
-      </c>
-      <c r="L10" s="71">
-        <v>1012</v>
-      </c>
-      <c r="M10" s="73">
-        <v>1980</v>
-      </c>
-      <c r="N10" s="73">
-        <v>3796</v>
-      </c>
-      <c r="O10" s="73">
-        <v>7098</v>
-      </c>
-      <c r="P10" s="73">
-        <v>12910</v>
-      </c>
-      <c r="Q10" s="73">
-        <v>22818</v>
-      </c>
-      <c r="R10" s="73">
-        <v>39202</v>
-      </c>
-      <c r="S10" s="73">
-        <v>65535</v>
-      </c>
-      <c r="T10" s="73">
-        <v>106761</v>
-      </c>
-      <c r="U10" s="73">
-        <v>169765</v>
-      </c>
-      <c r="V10" s="74">
-        <v>263949</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="0"/>
-        <v>125970</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="1"/>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="61">
-        <v>9</v>
-      </c>
-      <c r="C11" s="59">
-        <v>1</v>
-      </c>
-      <c r="D11" s="60">
-        <v>3</v>
-      </c>
-      <c r="E11" s="60">
-        <v>7</v>
-      </c>
-      <c r="F11" s="60">
-        <v>15</v>
-      </c>
-      <c r="G11" s="60">
-        <v>31</v>
-      </c>
-      <c r="H11" s="60">
+      <c r="H11" s="59">
         <v>63</v>
       </c>
       <c r="I11" s="58">
         <v>127</v>
       </c>
-      <c r="J11" s="58">
+      <c r="J11" s="67">
         <v>255</v>
       </c>
-      <c r="K11" s="70">
-        <v>511</v>
-      </c>
-      <c r="L11" s="71">
-        <v>1022</v>
-      </c>
-      <c r="M11" s="78">
-        <v>2035</v>
-      </c>
-      <c r="N11" s="73">
-        <v>4016</v>
-      </c>
-      <c r="O11" s="73">
-        <v>7813</v>
-      </c>
-      <c r="P11" s="73">
-        <v>14912</v>
-      </c>
-      <c r="Q11" s="73">
-        <v>27823</v>
-      </c>
-      <c r="R11" s="73">
-        <v>50642</v>
-      </c>
-      <c r="S11" s="73">
-        <v>89845</v>
-      </c>
-      <c r="T11" s="73">
-        <v>155381</v>
-      </c>
-      <c r="U11" s="73">
-        <v>262143</v>
-      </c>
-      <c r="V11" s="74">
-        <v>431909</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="0"/>
-        <v>167960</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="61">
-        <v>10</v>
+      <c r="K11" s="68">
+        <v>510</v>
+      </c>
+      <c r="L11" s="68">
+        <v>1012</v>
+      </c>
+      <c r="M11" s="70">
+        <v>1980</v>
+      </c>
+      <c r="N11" s="70">
+        <v>3796</v>
+      </c>
+      <c r="O11" s="70">
+        <v>7098</v>
+      </c>
+      <c r="P11" s="70">
+        <v>12910</v>
+      </c>
+      <c r="Q11" s="70">
+        <v>22818</v>
+      </c>
+      <c r="R11" s="70">
+        <v>39202</v>
+      </c>
+      <c r="S11" s="70">
+        <v>65535</v>
+      </c>
+      <c r="T11" s="70">
+        <v>106761</v>
+      </c>
+      <c r="U11" s="70">
+        <v>169765</v>
+      </c>
+      <c r="V11" s="71">
+        <v>263949</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="5"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="86"/>
+      <c r="B12" s="60">
+        <v>9</v>
       </c>
       <c r="C12" s="59">
         <v>1</v>
       </c>
-      <c r="D12" s="60">
-        <v>3</v>
-      </c>
-      <c r="E12" s="60">
+      <c r="D12" s="59">
+        <v>3</v>
+      </c>
+      <c r="E12" s="59">
         <v>7</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="59">
         <v>15</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="59">
         <v>31</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="59">
         <v>63</v>
       </c>
       <c r="I12" s="58">
@@ -14795,795 +14911,1352 @@
       <c r="J12" s="58">
         <v>255</v>
       </c>
-      <c r="K12" s="58">
+      <c r="K12" s="67">
         <v>511</v>
       </c>
-      <c r="L12" s="70">
+      <c r="L12" s="68">
+        <v>1022</v>
+      </c>
+      <c r="M12" s="75">
+        <v>2035</v>
+      </c>
+      <c r="N12" s="70">
+        <v>4016</v>
+      </c>
+      <c r="O12" s="70">
+        <v>7813</v>
+      </c>
+      <c r="P12" s="70">
+        <v>14912</v>
+      </c>
+      <c r="Q12" s="70">
+        <v>27823</v>
+      </c>
+      <c r="R12" s="70">
+        <v>50642</v>
+      </c>
+      <c r="S12" s="70">
+        <v>89845</v>
+      </c>
+      <c r="T12" s="70">
+        <v>155381</v>
+      </c>
+      <c r="U12" s="70">
+        <v>262143</v>
+      </c>
+      <c r="V12" s="71">
+        <v>431909</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="86"/>
+      <c r="B13" s="60">
+        <v>10</v>
+      </c>
+      <c r="C13" s="59">
+        <v>1</v>
+      </c>
+      <c r="D13" s="59">
+        <v>3</v>
+      </c>
+      <c r="E13" s="59">
+        <v>7</v>
+      </c>
+      <c r="F13" s="59">
+        <v>15</v>
+      </c>
+      <c r="G13" s="59">
+        <v>31</v>
+      </c>
+      <c r="H13" s="59">
+        <v>63</v>
+      </c>
+      <c r="I13" s="58">
+        <v>127</v>
+      </c>
+      <c r="J13" s="58">
+        <v>255</v>
+      </c>
+      <c r="K13" s="58">
+        <v>511</v>
+      </c>
+      <c r="L13" s="67">
         <v>1023</v>
       </c>
-      <c r="M12" s="78">
+      <c r="M13" s="75">
         <v>2046</v>
       </c>
-      <c r="N12" s="78">
+      <c r="N13" s="75">
         <v>4082</v>
       </c>
-      <c r="O12" s="73">
+      <c r="O13" s="70">
         <v>8099</v>
       </c>
-      <c r="P12" s="73">
+      <c r="P13" s="70">
         <v>15913</v>
       </c>
-      <c r="Q12" s="73">
+      <c r="Q13" s="70">
         <v>30826</v>
       </c>
-      <c r="R12" s="73">
+      <c r="R13" s="70">
         <v>58650</v>
       </c>
-      <c r="S12" s="73">
+      <c r="S13" s="70">
         <v>109293</v>
       </c>
-      <c r="T12" s="73">
+      <c r="T13" s="70">
         <v>199139</v>
       </c>
-      <c r="U12" s="73">
+      <c r="U13" s="70">
         <v>354521</v>
       </c>
-      <c r="V12" s="74">
+      <c r="V13" s="71">
         <v>616665</v>
       </c>
-      <c r="W12">
-        <f t="shared" si="0"/>
-        <v>184756</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="14" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="86"/>
+      <c r="B14" s="60">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="61">
-        <v>11</v>
-      </c>
-      <c r="C13" s="68">
-        <v>1</v>
-      </c>
-      <c r="D13" s="73">
-        <v>3</v>
-      </c>
-      <c r="E13" s="73">
+      <c r="C14" s="70">
+        <v>1</v>
+      </c>
+      <c r="D14" s="70">
+        <v>3</v>
+      </c>
+      <c r="E14" s="70">
         <v>7</v>
       </c>
-      <c r="F13" s="73">
+      <c r="F14" s="70">
         <v>15</v>
       </c>
-      <c r="G13" s="73">
+      <c r="G14" s="70">
         <v>31</v>
       </c>
-      <c r="H13" s="73">
+      <c r="H14" s="70">
         <v>63</v>
       </c>
-      <c r="I13" s="73">
+      <c r="I14" s="70">
         <v>127</v>
       </c>
-      <c r="J13" s="73">
+      <c r="J14" s="70">
         <v>255</v>
       </c>
-      <c r="K13" s="73">
+      <c r="K14" s="70">
         <v>511</v>
       </c>
-      <c r="L13" s="73">
-        <v>1023</v>
-      </c>
-      <c r="M13" s="76">
-        <v>2047</v>
-      </c>
-      <c r="N13" s="78">
-        <v>4094</v>
-      </c>
-      <c r="O13" s="78">
-        <v>8177</v>
-      </c>
-      <c r="P13" s="73">
-        <v>16277</v>
-      </c>
-      <c r="Q13" s="73">
-        <v>32191</v>
-      </c>
-      <c r="R13" s="73">
-        <v>63018</v>
-      </c>
-      <c r="S13" s="73">
-        <v>121669</v>
-      </c>
-      <c r="T13" s="73">
-        <v>230963</v>
-      </c>
-      <c r="U13" s="73">
-        <v>430103</v>
-      </c>
-      <c r="V13" s="75">
-        <v>784625</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="0"/>
-        <v>167960</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="61">
-        <v>12</v>
-      </c>
-      <c r="C14" s="68">
-        <v>1</v>
-      </c>
-      <c r="D14" s="73">
-        <v>3</v>
-      </c>
-      <c r="E14" s="73">
-        <v>7</v>
-      </c>
-      <c r="F14" s="73">
-        <v>15</v>
-      </c>
-      <c r="G14" s="73">
-        <v>31</v>
-      </c>
-      <c r="H14" s="73">
-        <v>63</v>
-      </c>
-      <c r="I14" s="73">
-        <v>127</v>
-      </c>
-      <c r="J14" s="73">
-        <v>255</v>
-      </c>
-      <c r="K14" s="73">
-        <v>511</v>
-      </c>
-      <c r="L14" s="73">
+      <c r="L14" s="70">
         <v>1023</v>
       </c>
       <c r="M14" s="73">
         <v>2047</v>
       </c>
-      <c r="N14" s="76">
-        <v>4095</v>
-      </c>
-      <c r="O14" s="78">
-        <v>8190</v>
-      </c>
-      <c r="P14" s="78">
-        <v>16368</v>
-      </c>
-      <c r="Q14" s="73">
-        <v>32646</v>
-      </c>
-      <c r="R14" s="73">
-        <v>64838</v>
-      </c>
-      <c r="S14" s="73">
-        <v>127857</v>
-      </c>
-      <c r="T14" s="73">
-        <v>249527</v>
-      </c>
-      <c r="U14" s="73">
-        <v>480491</v>
-      </c>
-      <c r="V14" s="74">
-        <v>910595</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="0"/>
-        <v>125970</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="61">
-        <v>13</v>
-      </c>
-      <c r="C15" s="68">
-        <v>1</v>
-      </c>
-      <c r="D15" s="73">
-        <v>3</v>
-      </c>
-      <c r="E15" s="73">
+      <c r="N14" s="75">
+        <v>4094</v>
+      </c>
+      <c r="O14" s="75">
+        <v>8177</v>
+      </c>
+      <c r="P14" s="70">
+        <v>16277</v>
+      </c>
+      <c r="Q14" s="70">
+        <v>32191</v>
+      </c>
+      <c r="R14" s="70">
+        <v>63018</v>
+      </c>
+      <c r="S14" s="70">
+        <v>121669</v>
+      </c>
+      <c r="T14" s="70">
+        <v>230963</v>
+      </c>
+      <c r="U14" s="70">
+        <v>430103</v>
+      </c>
+      <c r="V14" s="72">
+        <v>784625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="86"/>
+      <c r="B15" s="65">
+        <v>12</v>
+      </c>
+      <c r="C15" s="70">
+        <v>1</v>
+      </c>
+      <c r="D15" s="70">
+        <v>3</v>
+      </c>
+      <c r="E15" s="70">
         <v>7</v>
       </c>
-      <c r="F15" s="73">
+      <c r="F15" s="70">
         <v>15</v>
       </c>
-      <c r="G15" s="73">
+      <c r="G15" s="70">
         <v>31</v>
       </c>
-      <c r="H15" s="73">
+      <c r="H15" s="70">
         <v>63</v>
       </c>
-      <c r="I15" s="73">
+      <c r="I15" s="70">
         <v>127</v>
       </c>
-      <c r="J15" s="73">
+      <c r="J15" s="70">
         <v>255</v>
       </c>
-      <c r="K15" s="73">
+      <c r="K15" s="70">
         <v>511</v>
       </c>
-      <c r="L15" s="73">
+      <c r="L15" s="70">
         <v>1023</v>
       </c>
-      <c r="M15" s="73">
+      <c r="M15" s="70">
         <v>2047</v>
       </c>
       <c r="N15" s="73">
         <v>4095</v>
       </c>
-      <c r="O15" s="76">
-        <v>8191</v>
-      </c>
-      <c r="P15" s="78">
-        <v>16382</v>
-      </c>
-      <c r="Q15" s="78">
-        <v>32751</v>
-      </c>
-      <c r="R15" s="73">
-        <v>65398</v>
-      </c>
-      <c r="S15" s="73">
-        <v>130237</v>
-      </c>
-      <c r="T15" s="73">
-        <v>258095</v>
-      </c>
-      <c r="U15" s="73">
-        <v>507623</v>
-      </c>
-      <c r="V15" s="74">
-        <v>988115</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="0"/>
-        <v>77520</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="61">
-        <v>14</v>
-      </c>
-      <c r="C16" s="68">
-        <v>1</v>
-      </c>
-      <c r="D16" s="73">
-        <v>3</v>
-      </c>
-      <c r="E16" s="73">
+      <c r="O15" s="75">
+        <v>8190</v>
+      </c>
+      <c r="P15" s="75">
+        <v>16368</v>
+      </c>
+      <c r="Q15" s="70">
+        <v>32646</v>
+      </c>
+      <c r="R15" s="70">
+        <v>64838</v>
+      </c>
+      <c r="S15" s="70">
+        <v>127857</v>
+      </c>
+      <c r="T15" s="70">
+        <v>249527</v>
+      </c>
+      <c r="U15" s="70">
+        <v>480491</v>
+      </c>
+      <c r="V15" s="71">
+        <v>910595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="86"/>
+      <c r="B16" s="60">
+        <v>13</v>
+      </c>
+      <c r="C16" s="70">
+        <v>1</v>
+      </c>
+      <c r="D16" s="70">
+        <v>3</v>
+      </c>
+      <c r="E16" s="70">
         <v>7</v>
       </c>
-      <c r="F16" s="73">
+      <c r="F16" s="70">
         <v>15</v>
       </c>
-      <c r="G16" s="73">
+      <c r="G16" s="70">
         <v>31</v>
       </c>
-      <c r="H16" s="73">
+      <c r="H16" s="70">
         <v>63</v>
       </c>
-      <c r="I16" s="73">
+      <c r="I16" s="70">
         <v>127</v>
       </c>
-      <c r="J16" s="73">
+      <c r="J16" s="70">
         <v>255</v>
       </c>
-      <c r="K16" s="73">
+      <c r="K16" s="70">
         <v>511</v>
       </c>
-      <c r="L16" s="73">
+      <c r="L16" s="70">
         <v>1023</v>
       </c>
-      <c r="M16" s="73">
+      <c r="M16" s="70">
         <v>2047</v>
       </c>
-      <c r="N16" s="73">
+      <c r="N16" s="70">
         <v>4095</v>
       </c>
       <c r="O16" s="73">
         <v>8191</v>
       </c>
-      <c r="P16" s="76">
-        <v>16383</v>
-      </c>
-      <c r="Q16" s="78">
-        <v>32766</v>
-      </c>
-      <c r="R16" s="78">
-        <v>65518</v>
-      </c>
-      <c r="S16" s="73">
-        <v>130917</v>
-      </c>
-      <c r="T16" s="73">
-        <v>261155</v>
-      </c>
-      <c r="U16" s="73">
-        <v>519251</v>
-      </c>
-      <c r="V16" s="74">
-        <v>1026875</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="0"/>
-        <v>38760</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="61">
+      <c r="P16" s="75">
+        <v>16382</v>
+      </c>
+      <c r="Q16" s="75">
+        <v>32751</v>
+      </c>
+      <c r="R16" s="70">
+        <v>65398</v>
+      </c>
+      <c r="S16" s="70">
+        <v>130237</v>
+      </c>
+      <c r="T16" s="70">
+        <v>258095</v>
+      </c>
+      <c r="U16" s="70">
+        <v>507623</v>
+      </c>
+      <c r="V16" s="71">
+        <v>988115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="86"/>
+      <c r="B17" s="60">
+        <v>14</v>
+      </c>
+      <c r="C17" s="70">
+        <v>1</v>
+      </c>
+      <c r="D17" s="70">
+        <v>3</v>
+      </c>
+      <c r="E17" s="70">
+        <v>7</v>
+      </c>
+      <c r="F17" s="70">
         <v>15</v>
       </c>
-      <c r="C17" s="68">
-        <v>1</v>
-      </c>
-      <c r="D17" s="73">
-        <v>3</v>
-      </c>
-      <c r="E17" s="73">
-        <v>7</v>
-      </c>
-      <c r="F17" s="73">
-        <v>15</v>
-      </c>
-      <c r="G17" s="73">
+      <c r="G17" s="70">
         <v>31</v>
       </c>
-      <c r="H17" s="73">
+      <c r="H17" s="70">
         <v>63</v>
       </c>
-      <c r="I17" s="73">
+      <c r="I17" s="70">
         <v>127</v>
       </c>
-      <c r="J17" s="73">
+      <c r="J17" s="70">
         <v>255</v>
       </c>
-      <c r="K17" s="73">
+      <c r="K17" s="70">
         <v>511</v>
       </c>
-      <c r="L17" s="73">
+      <c r="L17" s="70">
         <v>1023</v>
       </c>
-      <c r="M17" s="73">
+      <c r="M17" s="70">
         <v>2047</v>
       </c>
-      <c r="N17" s="73">
+      <c r="N17" s="70">
         <v>4095</v>
       </c>
-      <c r="O17" s="73">
+      <c r="O17" s="70">
         <v>8191</v>
       </c>
       <c r="P17" s="73">
         <v>16383</v>
       </c>
-      <c r="Q17" s="76">
-        <v>32767</v>
-      </c>
-      <c r="R17" s="78">
-        <v>65534</v>
-      </c>
-      <c r="S17" s="78">
-        <v>131053</v>
-      </c>
-      <c r="T17" s="73">
-        <v>261971</v>
-      </c>
-      <c r="U17" s="73">
-        <v>523127</v>
-      </c>
-      <c r="V17" s="74">
-        <v>1042379</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="0"/>
-        <v>15504</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="61">
-        <v>16</v>
-      </c>
-      <c r="C18" s="68">
-        <v>1</v>
-      </c>
-      <c r="D18" s="73">
-        <v>3</v>
-      </c>
-      <c r="E18" s="73">
+      <c r="Q17" s="75">
+        <v>32766</v>
+      </c>
+      <c r="R17" s="75">
+        <v>65518</v>
+      </c>
+      <c r="S17" s="70">
+        <v>130917</v>
+      </c>
+      <c r="T17" s="70">
+        <v>261155</v>
+      </c>
+      <c r="U17" s="70">
+        <v>519251</v>
+      </c>
+      <c r="V17" s="71">
+        <v>1026875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="86"/>
+      <c r="B18" s="60">
+        <v>15</v>
+      </c>
+      <c r="C18" s="70">
+        <v>1</v>
+      </c>
+      <c r="D18" s="70">
+        <v>3</v>
+      </c>
+      <c r="E18" s="70">
         <v>7</v>
       </c>
-      <c r="F18" s="73">
+      <c r="F18" s="70">
         <v>15</v>
       </c>
-      <c r="G18" s="73">
+      <c r="G18" s="70">
         <v>31</v>
       </c>
-      <c r="H18" s="73">
+      <c r="H18" s="70">
         <v>63</v>
       </c>
-      <c r="I18" s="73">
+      <c r="I18" s="70">
         <v>127</v>
       </c>
-      <c r="J18" s="73">
+      <c r="J18" s="70">
         <v>255</v>
       </c>
-      <c r="K18" s="73">
+      <c r="K18" s="70">
         <v>511</v>
       </c>
-      <c r="L18" s="73">
+      <c r="L18" s="70">
         <v>1023</v>
       </c>
-      <c r="M18" s="73">
+      <c r="M18" s="70">
         <v>2047</v>
       </c>
-      <c r="N18" s="73">
+      <c r="N18" s="70">
         <v>4095</v>
       </c>
-      <c r="O18" s="73">
+      <c r="O18" s="70">
         <v>8191</v>
       </c>
-      <c r="P18" s="73">
+      <c r="P18" s="70">
         <v>16383</v>
       </c>
       <c r="Q18" s="73">
         <v>32767</v>
       </c>
-      <c r="R18" s="76">
-        <v>65535</v>
-      </c>
-      <c r="S18" s="78">
-        <v>131070</v>
-      </c>
-      <c r="T18" s="78">
-        <v>262124</v>
-      </c>
-      <c r="U18" s="73">
-        <v>524096</v>
-      </c>
-      <c r="V18" s="74">
-        <v>1047224</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="0"/>
-        <v>4845</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="61">
-        <v>17</v>
-      </c>
-      <c r="C19" s="68">
-        <v>1</v>
-      </c>
-      <c r="D19" s="73">
-        <v>3</v>
-      </c>
-      <c r="E19" s="73">
+      <c r="R18" s="75">
+        <v>65534</v>
+      </c>
+      <c r="S18" s="75">
+        <v>131053</v>
+      </c>
+      <c r="T18" s="70">
+        <v>261971</v>
+      </c>
+      <c r="U18" s="70">
+        <v>523127</v>
+      </c>
+      <c r="V18" s="71">
+        <v>1042379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="86"/>
+      <c r="B19" s="60">
+        <v>16</v>
+      </c>
+      <c r="C19" s="70">
+        <v>1</v>
+      </c>
+      <c r="D19" s="70">
+        <v>3</v>
+      </c>
+      <c r="E19" s="70">
         <v>7</v>
       </c>
-      <c r="F19" s="73">
+      <c r="F19" s="70">
         <v>15</v>
       </c>
-      <c r="G19" s="73">
+      <c r="G19" s="70">
         <v>31</v>
       </c>
-      <c r="H19" s="73">
+      <c r="H19" s="70">
         <v>63</v>
       </c>
-      <c r="I19" s="73">
+      <c r="I19" s="70">
         <v>127</v>
       </c>
-      <c r="J19" s="73">
+      <c r="J19" s="70">
         <v>255</v>
       </c>
-      <c r="K19" s="73">
+      <c r="K19" s="70">
         <v>511</v>
       </c>
-      <c r="L19" s="73">
+      <c r="L19" s="70">
         <v>1023</v>
       </c>
-      <c r="M19" s="73">
+      <c r="M19" s="70">
         <v>2047</v>
       </c>
-      <c r="N19" s="73">
+      <c r="N19" s="70">
         <v>4095</v>
       </c>
-      <c r="O19" s="73">
+      <c r="O19" s="70">
         <v>8191</v>
       </c>
-      <c r="P19" s="73">
+      <c r="P19" s="70">
         <v>16383</v>
       </c>
-      <c r="Q19" s="73">
+      <c r="Q19" s="70">
         <v>32767</v>
       </c>
       <c r="R19" s="73">
         <v>65535</v>
       </c>
-      <c r="S19" s="76">
-        <v>131071</v>
-      </c>
-      <c r="T19" s="78">
-        <v>262142</v>
-      </c>
-      <c r="U19" s="78">
-        <v>524267</v>
-      </c>
-      <c r="V19" s="74">
-        <v>1048364</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="0"/>
-        <v>1140</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="61">
-        <v>18</v>
-      </c>
-      <c r="C20" s="68">
-        <v>1</v>
-      </c>
-      <c r="D20" s="73">
-        <v>3</v>
-      </c>
-      <c r="E20" s="73">
+      <c r="S19" s="75">
+        <v>131070</v>
+      </c>
+      <c r="T19" s="75">
+        <v>262124</v>
+      </c>
+      <c r="U19" s="70">
+        <v>524096</v>
+      </c>
+      <c r="V19" s="71">
+        <v>1047224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="86"/>
+      <c r="B20" s="60">
+        <v>17</v>
+      </c>
+      <c r="C20" s="70">
+        <v>1</v>
+      </c>
+      <c r="D20" s="70">
+        <v>3</v>
+      </c>
+      <c r="E20" s="70">
         <v>7</v>
       </c>
-      <c r="F20" s="73">
+      <c r="F20" s="70">
         <v>15</v>
       </c>
-      <c r="G20" s="73">
+      <c r="G20" s="70">
         <v>31</v>
       </c>
-      <c r="H20" s="73">
+      <c r="H20" s="70">
         <v>63</v>
       </c>
-      <c r="I20" s="73">
+      <c r="I20" s="70">
         <v>127</v>
       </c>
-      <c r="J20" s="73">
+      <c r="J20" s="70">
         <v>255</v>
       </c>
-      <c r="K20" s="73">
+      <c r="K20" s="70">
         <v>511</v>
       </c>
-      <c r="L20" s="73">
+      <c r="L20" s="70">
         <v>1023</v>
       </c>
-      <c r="M20" s="73">
+      <c r="M20" s="70">
         <v>2047</v>
       </c>
-      <c r="N20" s="73">
+      <c r="N20" s="70">
         <v>4095</v>
       </c>
-      <c r="O20" s="73">
+      <c r="O20" s="70">
         <v>8191</v>
       </c>
-      <c r="P20" s="73">
+      <c r="P20" s="70">
         <v>16383</v>
       </c>
-      <c r="Q20" s="73">
+      <c r="Q20" s="70">
         <v>32767</v>
       </c>
-      <c r="R20" s="73">
+      <c r="R20" s="70">
         <v>65535</v>
       </c>
       <c r="S20" s="73">
         <v>131071</v>
       </c>
-      <c r="T20" s="76">
-        <v>262143</v>
-      </c>
-      <c r="U20" s="78">
-        <v>524286</v>
-      </c>
-      <c r="V20" s="79">
-        <v>1048554</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="0"/>
-        <v>190</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
-      <c r="B21" s="61">
-        <v>19</v>
-      </c>
-      <c r="C21" s="68">
-        <v>1</v>
-      </c>
-      <c r="D21" s="73">
-        <v>3</v>
-      </c>
-      <c r="E21" s="73">
+      <c r="T20" s="75">
+        <v>262142</v>
+      </c>
+      <c r="U20" s="75">
+        <v>524267</v>
+      </c>
+      <c r="V20" s="71">
+        <v>1048364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="86"/>
+      <c r="B21" s="60">
+        <v>18</v>
+      </c>
+      <c r="C21" s="70">
+        <v>1</v>
+      </c>
+      <c r="D21" s="70">
+        <v>3</v>
+      </c>
+      <c r="E21" s="70">
         <v>7</v>
       </c>
-      <c r="F21" s="73">
+      <c r="F21" s="70">
         <v>15</v>
       </c>
-      <c r="G21" s="73">
+      <c r="G21" s="70">
         <v>31</v>
       </c>
-      <c r="H21" s="73">
+      <c r="H21" s="70">
         <v>63</v>
       </c>
-      <c r="I21" s="73">
+      <c r="I21" s="70">
         <v>127</v>
       </c>
-      <c r="J21" s="73">
+      <c r="J21" s="70">
         <v>255</v>
       </c>
-      <c r="K21" s="73">
+      <c r="K21" s="70">
         <v>511</v>
       </c>
-      <c r="L21" s="73">
+      <c r="L21" s="70">
         <v>1023</v>
       </c>
-      <c r="M21" s="73">
+      <c r="M21" s="70">
         <v>2047</v>
       </c>
-      <c r="N21" s="73">
+      <c r="N21" s="70">
         <v>4095</v>
       </c>
-      <c r="O21" s="73">
+      <c r="O21" s="70">
         <v>8191</v>
       </c>
-      <c r="P21" s="73">
+      <c r="P21" s="70">
         <v>16383</v>
       </c>
-      <c r="Q21" s="73">
+      <c r="Q21" s="70">
         <v>32767</v>
       </c>
-      <c r="R21" s="73">
+      <c r="R21" s="70">
         <v>65535</v>
       </c>
-      <c r="S21" s="73">
+      <c r="S21" s="70">
         <v>131071</v>
       </c>
       <c r="T21" s="73">
         <v>262143</v>
       </c>
-      <c r="U21" s="76">
+      <c r="U21" s="75">
+        <v>524286</v>
+      </c>
+      <c r="V21" s="76">
+        <v>1048554</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="86"/>
+      <c r="B22" s="60">
+        <v>19</v>
+      </c>
+      <c r="C22" s="70">
+        <v>1</v>
+      </c>
+      <c r="D22" s="70">
+        <v>3</v>
+      </c>
+      <c r="E22" s="70">
+        <v>7</v>
+      </c>
+      <c r="F22" s="70">
+        <v>15</v>
+      </c>
+      <c r="G22" s="70">
+        <v>31</v>
+      </c>
+      <c r="H22" s="70">
+        <v>63</v>
+      </c>
+      <c r="I22" s="70">
+        <v>127</v>
+      </c>
+      <c r="J22" s="70">
+        <v>255</v>
+      </c>
+      <c r="K22" s="70">
+        <v>511</v>
+      </c>
+      <c r="L22" s="70">
+        <v>1023</v>
+      </c>
+      <c r="M22" s="70">
+        <v>2047</v>
+      </c>
+      <c r="N22" s="70">
+        <v>4095</v>
+      </c>
+      <c r="O22" s="70">
+        <v>8191</v>
+      </c>
+      <c r="P22" s="70">
+        <v>16383</v>
+      </c>
+      <c r="Q22" s="70">
+        <v>32767</v>
+      </c>
+      <c r="R22" s="70">
+        <v>65535</v>
+      </c>
+      <c r="S22" s="70">
+        <v>131071</v>
+      </c>
+      <c r="T22" s="70">
+        <v>262143</v>
+      </c>
+      <c r="U22" s="73">
         <v>524287</v>
       </c>
-      <c r="V21" s="79">
+      <c r="V22" s="76">
         <v>1048574</v>
       </c>
-      <c r="W21">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="88"/>
+      <c r="B23" s="65">
         <v>20</v>
       </c>
-      <c r="X21">
-        <f t="shared" si="1"/>
+      <c r="C23" s="62">
+        <v>1</v>
+      </c>
+      <c r="D23" s="62">
+        <v>3</v>
+      </c>
+      <c r="E23" s="62">
+        <v>7</v>
+      </c>
+      <c r="F23" s="62">
+        <v>15</v>
+      </c>
+      <c r="G23" s="62">
+        <v>31</v>
+      </c>
+      <c r="H23" s="62">
+        <v>63</v>
+      </c>
+      <c r="I23" s="62">
+        <v>127</v>
+      </c>
+      <c r="J23" s="62">
+        <v>255</v>
+      </c>
+      <c r="K23" s="62">
+        <v>511</v>
+      </c>
+      <c r="L23" s="62">
+        <v>1023</v>
+      </c>
+      <c r="M23" s="62">
+        <v>2047</v>
+      </c>
+      <c r="N23" s="62">
+        <v>4095</v>
+      </c>
+      <c r="O23" s="62">
+        <v>8191</v>
+      </c>
+      <c r="P23" s="62">
+        <v>16383</v>
+      </c>
+      <c r="Q23" s="62">
+        <v>32767</v>
+      </c>
+      <c r="R23" s="62">
+        <v>65535</v>
+      </c>
+      <c r="S23" s="62">
+        <v>131071</v>
+      </c>
+      <c r="T23" s="62">
+        <v>262143</v>
+      </c>
+      <c r="U23" s="62">
+        <v>524287</v>
+      </c>
+      <c r="V23" s="74">
+        <v>1048575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="84"/>
+      <c r="C24" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="80"/>
+    </row>
+    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="85"/>
+      <c r="C25" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
-      <c r="B22" s="66">
+      <c r="D25" s="62">
+        <v>1</v>
+      </c>
+      <c r="E25" s="62">
+        <v>2</v>
+      </c>
+      <c r="F25" s="62">
+        <v>3</v>
+      </c>
+      <c r="G25" s="62">
+        <v>4</v>
+      </c>
+      <c r="H25" s="62">
+        <v>5</v>
+      </c>
+      <c r="I25" s="62">
+        <v>6</v>
+      </c>
+      <c r="J25" s="62">
+        <v>7</v>
+      </c>
+      <c r="K25" s="62">
+        <v>8</v>
+      </c>
+      <c r="L25" s="62">
+        <v>9</v>
+      </c>
+      <c r="M25" s="62">
+        <v>10</v>
+      </c>
+      <c r="N25" s="62">
+        <v>11</v>
+      </c>
+      <c r="O25" s="62">
+        <v>12</v>
+      </c>
+      <c r="P25" s="62">
+        <v>13</v>
+      </c>
+      <c r="Q25" s="62">
+        <v>14</v>
+      </c>
+      <c r="R25" s="62">
+        <v>15</v>
+      </c>
+      <c r="S25" s="62">
+        <v>16</v>
+      </c>
+      <c r="T25" s="62">
+        <v>17</v>
+      </c>
+      <c r="U25" s="62">
+        <v>18</v>
+      </c>
+      <c r="V25" s="63">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="64">
+        <v>0</v>
+      </c>
+      <c r="C26" s="69">
+        <v>1</v>
+      </c>
+      <c r="D26" s="69">
+        <v>1</v>
+      </c>
+      <c r="E26" s="69">
+        <v>1</v>
+      </c>
+      <c r="F26" s="69">
+        <v>1</v>
+      </c>
+      <c r="G26" s="69">
+        <v>1</v>
+      </c>
+      <c r="H26" s="69">
+        <v>1</v>
+      </c>
+      <c r="I26" s="69">
+        <v>1</v>
+      </c>
+      <c r="J26" s="69">
+        <v>1</v>
+      </c>
+      <c r="K26" s="69">
+        <v>1</v>
+      </c>
+      <c r="L26" s="69">
+        <v>1</v>
+      </c>
+      <c r="M26" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="86"/>
+      <c r="B27" s="60">
+        <v>1</v>
+      </c>
+      <c r="C27" s="67">
+        <v>1</v>
+      </c>
+      <c r="D27" s="68">
+        <v>2</v>
+      </c>
+      <c r="E27" s="75">
+        <v>3</v>
+      </c>
+      <c r="F27" s="75">
+        <v>4</v>
+      </c>
+      <c r="G27" s="75">
+        <v>5</v>
+      </c>
+      <c r="H27" s="75">
+        <v>6</v>
+      </c>
+      <c r="I27" s="75">
+        <v>7</v>
+      </c>
+      <c r="J27" s="75">
+        <v>8</v>
+      </c>
+      <c r="K27" s="75">
+        <v>9</v>
+      </c>
+      <c r="L27" s="75">
+        <v>10</v>
+      </c>
+      <c r="M27" s="90">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="86"/>
+      <c r="B28" s="60">
+        <v>2</v>
+      </c>
+      <c r="C28" s="70">
+        <v>1</v>
+      </c>
+      <c r="D28" s="67">
+        <v>3</v>
+      </c>
+      <c r="E28" s="68">
+        <v>6</v>
+      </c>
+      <c r="F28" s="68">
+        <v>10</v>
+      </c>
+      <c r="G28" s="70">
+        <v>15</v>
+      </c>
+      <c r="H28" s="70">
+        <v>21</v>
+      </c>
+      <c r="I28" s="70">
+        <v>28</v>
+      </c>
+      <c r="J28" s="70">
+        <v>36</v>
+      </c>
+      <c r="K28" s="70">
+        <v>45</v>
+      </c>
+      <c r="L28" s="70">
+        <v>55</v>
+      </c>
+      <c r="M28" s="81">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="86"/>
+      <c r="B29" s="60">
+        <v>3</v>
+      </c>
+      <c r="C29" s="70">
+        <v>1</v>
+      </c>
+      <c r="D29" s="70">
+        <v>4</v>
+      </c>
+      <c r="E29" s="67">
+        <v>10</v>
+      </c>
+      <c r="F29" s="68">
         <v>20</v>
       </c>
-      <c r="C22" s="62">
-        <v>1</v>
-      </c>
-      <c r="D22" s="63">
-        <v>3</v>
-      </c>
-      <c r="E22" s="63">
+      <c r="G29" s="68">
+        <v>35</v>
+      </c>
+      <c r="H29" s="70">
+        <v>56</v>
+      </c>
+      <c r="I29" s="70">
+        <v>84</v>
+      </c>
+      <c r="J29" s="70">
+        <v>120</v>
+      </c>
+      <c r="K29" s="70">
+        <v>165</v>
+      </c>
+      <c r="L29" s="70">
+        <v>220</v>
+      </c>
+      <c r="M29" s="81">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="86"/>
+      <c r="B30" s="60">
+        <v>4</v>
+      </c>
+      <c r="C30" s="70">
+        <v>1</v>
+      </c>
+      <c r="D30" s="70">
+        <v>5</v>
+      </c>
+      <c r="E30" s="70">
+        <v>15</v>
+      </c>
+      <c r="F30" s="67">
+        <v>35</v>
+      </c>
+      <c r="G30" s="68">
+        <v>70</v>
+      </c>
+      <c r="H30" s="68">
+        <v>126</v>
+      </c>
+      <c r="I30" s="70">
+        <v>210</v>
+      </c>
+      <c r="J30" s="70">
+        <v>330</v>
+      </c>
+      <c r="K30" s="70">
+        <v>495</v>
+      </c>
+      <c r="L30" s="70">
+        <v>715</v>
+      </c>
+      <c r="M30" s="81">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="86"/>
+      <c r="B31" s="60">
+        <v>5</v>
+      </c>
+      <c r="C31" s="70">
+        <v>1</v>
+      </c>
+      <c r="D31" s="70">
+        <v>6</v>
+      </c>
+      <c r="E31" s="70">
+        <v>21</v>
+      </c>
+      <c r="F31" s="70">
+        <v>56</v>
+      </c>
+      <c r="G31" s="67">
+        <v>126</v>
+      </c>
+      <c r="H31" s="68">
+        <v>252</v>
+      </c>
+      <c r="I31" s="68">
+        <v>462</v>
+      </c>
+      <c r="J31" s="70">
+        <v>792</v>
+      </c>
+      <c r="K31" s="70">
+        <v>1287</v>
+      </c>
+      <c r="L31" s="70">
+        <v>2002</v>
+      </c>
+      <c r="M31" s="81">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="86"/>
+      <c r="B32" s="60">
+        <v>6</v>
+      </c>
+      <c r="C32" s="70">
+        <v>1</v>
+      </c>
+      <c r="D32" s="70">
         <v>7</v>
       </c>
-      <c r="F22" s="63">
+      <c r="E32" s="70">
+        <v>28</v>
+      </c>
+      <c r="F32" s="70">
+        <v>84</v>
+      </c>
+      <c r="G32" s="70">
+        <v>210</v>
+      </c>
+      <c r="H32" s="67">
+        <v>462</v>
+      </c>
+      <c r="I32" s="68">
+        <v>924</v>
+      </c>
+      <c r="J32" s="68">
+        <v>1716</v>
+      </c>
+      <c r="K32" s="70">
+        <v>3003</v>
+      </c>
+      <c r="L32" s="70">
+        <v>5005</v>
+      </c>
+      <c r="M32" s="81">
+        <v>8008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="86"/>
+      <c r="B33" s="60">
+        <v>7</v>
+      </c>
+      <c r="C33" s="70">
+        <v>1</v>
+      </c>
+      <c r="D33" s="70">
+        <v>8</v>
+      </c>
+      <c r="E33" s="70">
+        <v>36</v>
+      </c>
+      <c r="F33" s="70">
+        <v>120</v>
+      </c>
+      <c r="G33" s="70">
+        <v>330</v>
+      </c>
+      <c r="H33" s="70">
+        <v>792</v>
+      </c>
+      <c r="I33" s="67">
+        <v>1716</v>
+      </c>
+      <c r="J33" s="68">
+        <v>3432</v>
+      </c>
+      <c r="K33" s="68">
+        <v>6435</v>
+      </c>
+      <c r="L33" s="70">
+        <v>11440</v>
+      </c>
+      <c r="M33" s="81">
+        <v>19448</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="86"/>
+      <c r="B34" s="60">
+        <v>8</v>
+      </c>
+      <c r="C34" s="70">
+        <v>1</v>
+      </c>
+      <c r="D34" s="70">
+        <v>9</v>
+      </c>
+      <c r="E34" s="70">
+        <v>45</v>
+      </c>
+      <c r="F34" s="70">
+        <v>165</v>
+      </c>
+      <c r="G34" s="70">
+        <v>495</v>
+      </c>
+      <c r="H34" s="70">
+        <v>1287</v>
+      </c>
+      <c r="I34" s="70">
+        <v>3003</v>
+      </c>
+      <c r="J34" s="67">
+        <v>6435</v>
+      </c>
+      <c r="K34" s="68">
+        <v>12870</v>
+      </c>
+      <c r="L34" s="68">
+        <v>24310</v>
+      </c>
+      <c r="M34" s="81">
+        <v>43758</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="86"/>
+      <c r="B35" s="60">
+        <v>9</v>
+      </c>
+      <c r="C35" s="70">
+        <v>1</v>
+      </c>
+      <c r="D35" s="70">
+        <v>10</v>
+      </c>
+      <c r="E35" s="70">
+        <v>55</v>
+      </c>
+      <c r="F35" s="70">
+        <v>220</v>
+      </c>
+      <c r="G35" s="70">
+        <v>715</v>
+      </c>
+      <c r="H35" s="70">
+        <v>2002</v>
+      </c>
+      <c r="I35" s="70">
+        <v>5005</v>
+      </c>
+      <c r="J35" s="70">
+        <v>11440</v>
+      </c>
+      <c r="K35" s="67">
+        <v>24310</v>
+      </c>
+      <c r="L35" s="68">
+        <v>48620</v>
+      </c>
+      <c r="M35" s="68">
+        <v>92378</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="86"/>
+      <c r="B36" s="60">
+        <v>10</v>
+      </c>
+      <c r="C36" s="81">
+        <v>1</v>
+      </c>
+      <c r="D36" s="81">
+        <v>11</v>
+      </c>
+      <c r="E36" s="81">
+        <v>66</v>
+      </c>
+      <c r="F36" s="81">
+        <v>286</v>
+      </c>
+      <c r="G36" s="81">
+        <v>1001</v>
+      </c>
+      <c r="H36" s="81">
+        <v>3003</v>
+      </c>
+      <c r="I36" s="81">
+        <v>8008</v>
+      </c>
+      <c r="J36" s="81">
+        <v>19448</v>
+      </c>
+      <c r="K36" s="81">
+        <v>43758</v>
+      </c>
+      <c r="L36" s="67">
+        <v>92378</v>
+      </c>
+      <c r="M36" s="68">
+        <v>184756</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="86"/>
+      <c r="B37" s="60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="86"/>
+      <c r="B38" s="60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="86"/>
+      <c r="B39" s="60">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="86"/>
+      <c r="B40" s="60">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="86"/>
+      <c r="B41" s="60">
         <v>15</v>
       </c>
-      <c r="G22" s="63">
-        <v>31</v>
-      </c>
-      <c r="H22" s="63">
-        <v>63</v>
-      </c>
-      <c r="I22" s="63">
-        <v>127</v>
-      </c>
-      <c r="J22" s="63">
-        <v>255</v>
-      </c>
-      <c r="K22" s="63">
-        <v>511</v>
-      </c>
-      <c r="L22" s="63">
-        <v>1023</v>
-      </c>
-      <c r="M22" s="63">
-        <v>2047</v>
-      </c>
-      <c r="N22" s="63">
-        <v>4095</v>
-      </c>
-      <c r="O22" s="63">
-        <v>8191</v>
-      </c>
-      <c r="P22" s="63">
-        <v>16383</v>
-      </c>
-      <c r="Q22" s="63">
-        <v>32767</v>
-      </c>
-      <c r="R22" s="63">
-        <v>65535</v>
-      </c>
-      <c r="S22" s="63">
-        <v>131071</v>
-      </c>
-      <c r="T22" s="63">
-        <v>262143</v>
-      </c>
-      <c r="U22" s="63">
-        <v>524287</v>
-      </c>
-      <c r="V22" s="77">
-        <v>1048575</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="86"/>
+      <c r="B42" s="60">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="86"/>
+      <c r="B43" s="60">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="86"/>
+      <c r="B44" s="60">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="88"/>
+      <c r="B45" s="65">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C1:V1"/>
-    <mergeCell ref="A3:A22"/>
+    <mergeCell ref="C24:V24"/>
+    <mergeCell ref="A26:A45"/>
+    <mergeCell ref="A3:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/solutions/fabergè_easter_eggs_crush_test.xlsx
+++ b/solutions/fabergè_easter_eggs_crush_test.xlsx
@@ -457,15 +457,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -479,20 +470,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14020,7 +14020,7 @@
   <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14028,32 +14028,32 @@
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.140625" customWidth="1"/>
     <col min="3" max="12" width="6.28515625" customWidth="1"/>
-    <col min="14" max="22" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="22" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="80"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="87"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C2" s="66">
@@ -14151,13 +14151,13 @@
       </c>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="82">
+      <c r="B3" s="79">
         <v>0</v>
       </c>
-      <c r="C3" s="89">
+      <c r="C3" s="83">
         <v>1</v>
       </c>
       <c r="D3" s="69">
@@ -14219,7 +14219,7 @@
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="86"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="60">
         <v>1</v>
       </c>
@@ -14280,12 +14280,12 @@
       <c r="U4" s="68">
         <v>19</v>
       </c>
-      <c r="V4" s="83">
+      <c r="V4" s="80">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="60">
         <v>2</v>
       </c>
@@ -14350,36 +14350,36 @@
         <v>210</v>
       </c>
       <c r="AA5">
-        <f>G5-G4</f>
+        <f t="shared" ref="AA5:AG5" si="0">G5-G4</f>
         <v>10</v>
       </c>
       <c r="AB5">
-        <f>H5-H4</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="AC5">
-        <f>I5-I4</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="AD5">
-        <f>J5-J4</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="AE5">
-        <f>K5-K4</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="AF5">
-        <f>L5-L4</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="AG5">
-        <f>M5-M4</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="60">
         <v>3</v>
       </c>
@@ -14448,32 +14448,32 @@
         <v>10</v>
       </c>
       <c r="AB6">
-        <f t="shared" ref="AB6:AB7" si="0">H6-H5</f>
+        <f t="shared" ref="AB6:AB7" si="1">H6-H5</f>
         <v>20</v>
       </c>
       <c r="AC6">
-        <f t="shared" ref="AC6:AC8" si="1">I6-I5</f>
+        <f t="shared" ref="AC6:AC8" si="2">I6-I5</f>
         <v>35</v>
       </c>
       <c r="AD6">
-        <f t="shared" ref="AD6:AD9" si="2">J6-J5</f>
+        <f t="shared" ref="AD6:AD9" si="3">J6-J5</f>
         <v>56</v>
       </c>
       <c r="AE6">
-        <f t="shared" ref="AE6:AE10" si="3">K6-K5</f>
+        <f t="shared" ref="AE6:AE10" si="4">K6-K5</f>
         <v>84</v>
       </c>
       <c r="AF6">
-        <f t="shared" ref="AF6:AF11" si="4">L6-L5</f>
+        <f t="shared" ref="AF6:AF11" si="5">L6-L5</f>
         <v>120</v>
       </c>
       <c r="AG6">
-        <f t="shared" ref="AG6:AG12" si="5">M6-M5</f>
+        <f t="shared" ref="AG6:AG12" si="6">M6-M5</f>
         <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="60">
         <v>4</v>
       </c>
@@ -14538,32 +14538,32 @@
         <v>6195</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="60">
         <v>5</v>
       </c>
@@ -14628,28 +14628,28 @@
         <v>21699</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>252</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="60">
         <v>6</v>
       </c>
@@ -14714,24 +14714,24 @@
         <v>60459</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="60">
         <v>7</v>
       </c>
@@ -14796,20 +14796,20 @@
         <v>137979</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="60">
         <v>8</v>
       </c>
@@ -14874,16 +14874,16 @@
         <v>263949</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="60">
         <v>9</v>
       </c>
@@ -14948,12 +14948,12 @@
         <v>431909</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="60">
         <v>10</v>
       </c>
@@ -15019,7 +15019,7 @@
       </c>
     </row>
     <row r="14" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="60">
         <v>11</v>
       </c>
@@ -15085,7 +15085,7 @@
       </c>
     </row>
     <row r="15" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="65">
         <v>12</v>
       </c>
@@ -15151,7 +15151,7 @@
       </c>
     </row>
     <row r="16" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="60">
         <v>13</v>
       </c>
@@ -15217,7 +15217,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="60">
         <v>14</v>
       </c>
@@ -15283,7 +15283,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="60">
         <v>15</v>
       </c>
@@ -15349,7 +15349,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="60">
         <v>16</v>
       </c>
@@ -15415,7 +15415,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
+      <c r="A20" s="89"/>
       <c r="B20" s="60">
         <v>17</v>
       </c>
@@ -15481,7 +15481,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="60">
         <v>18</v>
       </c>
@@ -15547,7 +15547,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
+      <c r="A22" s="89"/>
       <c r="B22" s="60">
         <v>19</v>
       </c>
@@ -15613,7 +15613,7 @@
       </c>
     </row>
     <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="88"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="65">
         <v>20</v>
       </c>
@@ -15679,32 +15679,32 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
-      <c r="C24" s="78" t="s">
+      <c r="A24" s="81"/>
+      <c r="C24" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="80"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="86"/>
+      <c r="U24" s="86"/>
+      <c r="V24" s="87"/>
     </row>
     <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="85"/>
+      <c r="A25" s="82"/>
       <c r="C25" s="61">
         <v>0</v>
       </c>
@@ -15767,7 +15767,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="88" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="64">
@@ -15808,7 +15808,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="86"/>
+      <c r="A27" s="89"/>
       <c r="B27" s="60">
         <v>1</v>
       </c>
@@ -15842,12 +15842,12 @@
       <c r="L27" s="75">
         <v>10</v>
       </c>
-      <c r="M27" s="90">
+      <c r="M27" s="84">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="86"/>
+      <c r="A28" s="89"/>
       <c r="B28" s="60">
         <v>2</v>
       </c>
@@ -15881,12 +15881,12 @@
       <c r="L28" s="70">
         <v>55</v>
       </c>
-      <c r="M28" s="81">
+      <c r="M28" s="78">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
+      <c r="A29" s="89"/>
       <c r="B29" s="60">
         <v>3</v>
       </c>
@@ -15920,12 +15920,12 @@
       <c r="L29" s="70">
         <v>220</v>
       </c>
-      <c r="M29" s="81">
+      <c r="M29" s="78">
         <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
+      <c r="A30" s="89"/>
       <c r="B30" s="60">
         <v>4</v>
       </c>
@@ -15959,12 +15959,12 @@
       <c r="L30" s="70">
         <v>715</v>
       </c>
-      <c r="M30" s="81">
+      <c r="M30" s="78">
         <v>1001</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
+      <c r="A31" s="89"/>
       <c r="B31" s="60">
         <v>5</v>
       </c>
@@ -15998,12 +15998,12 @@
       <c r="L31" s="70">
         <v>2002</v>
       </c>
-      <c r="M31" s="81">
+      <c r="M31" s="78">
         <v>3003</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
+      <c r="A32" s="89"/>
       <c r="B32" s="60">
         <v>6</v>
       </c>
@@ -16037,12 +16037,12 @@
       <c r="L32" s="70">
         <v>5005</v>
       </c>
-      <c r="M32" s="81">
+      <c r="M32" s="78">
         <v>8008</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
+      <c r="A33" s="89"/>
       <c r="B33" s="60">
         <v>7</v>
       </c>
@@ -16076,12 +16076,12 @@
       <c r="L33" s="70">
         <v>11440</v>
       </c>
-      <c r="M33" s="81">
+      <c r="M33" s="78">
         <v>19448</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
+      <c r="A34" s="89"/>
       <c r="B34" s="60">
         <v>8</v>
       </c>
@@ -16115,12 +16115,12 @@
       <c r="L34" s="68">
         <v>24310</v>
       </c>
-      <c r="M34" s="81">
+      <c r="M34" s="78">
         <v>43758</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="86"/>
+      <c r="A35" s="89"/>
       <c r="B35" s="60">
         <v>9</v>
       </c>
@@ -16159,35 +16159,35 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="86"/>
+      <c r="A36" s="89"/>
       <c r="B36" s="60">
         <v>10</v>
       </c>
-      <c r="C36" s="81">
-        <v>1</v>
-      </c>
-      <c r="D36" s="81">
+      <c r="C36" s="78">
+        <v>1</v>
+      </c>
+      <c r="D36" s="78">
         <v>11</v>
       </c>
-      <c r="E36" s="81">
+      <c r="E36" s="78">
         <v>66</v>
       </c>
-      <c r="F36" s="81">
+      <c r="F36" s="78">
         <v>286</v>
       </c>
-      <c r="G36" s="81">
+      <c r="G36" s="78">
         <v>1001</v>
       </c>
-      <c r="H36" s="81">
+      <c r="H36" s="78">
         <v>3003</v>
       </c>
-      <c r="I36" s="81">
+      <c r="I36" s="78">
         <v>8008</v>
       </c>
-      <c r="J36" s="81">
+      <c r="J36" s="78">
         <v>19448</v>
       </c>
-      <c r="K36" s="81">
+      <c r="K36" s="78">
         <v>43758</v>
       </c>
       <c r="L36" s="67">
@@ -16198,55 +16198,55 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="86"/>
+      <c r="A37" s="89"/>
       <c r="B37" s="60">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="86"/>
+      <c r="A38" s="89"/>
       <c r="B38" s="60">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="86"/>
+      <c r="A39" s="89"/>
       <c r="B39" s="60">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="86"/>
+      <c r="A40" s="89"/>
       <c r="B40" s="60">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="86"/>
+      <c r="A41" s="89"/>
       <c r="B41" s="60">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="86"/>
+      <c r="A42" s="89"/>
       <c r="B42" s="60">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="86"/>
+      <c r="A43" s="89"/>
       <c r="B43" s="60">
         <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="86"/>
+      <c r="A44" s="89"/>
       <c r="B44" s="60">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="88"/>
+      <c r="A45" s="90"/>
       <c r="B45" s="65">
         <v>19</v>
       </c>

--- a/solutions/fabergè_easter_eggs_crush_test.xlsx
+++ b/solutions/fabergè_easter_eggs_crush_test.xlsx
@@ -14019,8 +14019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L10" activeCellId="10" sqref="U14 U13:U14 T12:T14 S11:S14 R10:R14 Q9:Q14 P8:P14 O7:O13 N6:N12 M5:M11 L5:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14116,39 +14116,17 @@
       <c r="V2" s="71">
         <v>20</v>
       </c>
-      <c r="W2" s="66">
-        <v>1</v>
-      </c>
-      <c r="X2" s="70">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="70">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="70">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="70">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="70">
-        <v>6</v>
-      </c>
-      <c r="AC2" s="70">
-        <v>7</v>
-      </c>
-      <c r="AD2" s="70">
-        <v>8</v>
-      </c>
-      <c r="AE2" s="70">
-        <v>9</v>
-      </c>
-      <c r="AF2" s="70">
-        <v>10</v>
-      </c>
-      <c r="AG2" s="70">
-        <v>11</v>
-      </c>
+      <c r="W2" s="66"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
@@ -14349,33 +14327,9 @@
       <c r="V5" s="71">
         <v>210</v>
       </c>
-      <c r="AA5">
-        <f t="shared" ref="AA5:AG5" si="0">G5-G4</f>
-        <v>10</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="AD5">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="AE5">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="AF5">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="AG5">
-        <f t="shared" si="0"/>
-        <v>55</v>
+      <c r="W5">
+        <f>V5-V4</f>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -14443,33 +14397,9 @@
       <c r="V6" s="71">
         <v>1350</v>
       </c>
-      <c r="AA6">
-        <f>G6-G5</f>
-        <v>10</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" ref="AB6:AB7" si="1">H6-H5</f>
-        <v>20</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" ref="AC6:AC8" si="2">I6-I5</f>
-        <v>35</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" ref="AD6:AD9" si="3">J6-J5</f>
-        <v>56</v>
-      </c>
-      <c r="AE6">
-        <f t="shared" ref="AE6:AE10" si="4">K6-K5</f>
-        <v>84</v>
-      </c>
-      <c r="AF6">
-        <f t="shared" ref="AF6:AF11" si="5">L6-L5</f>
-        <v>120</v>
-      </c>
-      <c r="AG6">
-        <f t="shared" ref="AG6:AG12" si="6">M6-M5</f>
-        <v>165</v>
+      <c r="W6">
+        <f t="shared" ref="W6:W21" si="0">V6-V5</f>
+        <v>1140</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -14537,29 +14467,9 @@
       <c r="V7" s="71">
         <v>6195</v>
       </c>
-      <c r="AB7">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="AE7">
-        <f t="shared" si="4"/>
-        <v>126</v>
-      </c>
-      <c r="AF7">
-        <f t="shared" si="5"/>
-        <v>210</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" si="6"/>
-        <v>330</v>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>4845</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
@@ -14597,7 +14507,7 @@
       <c r="L8" s="58">
         <v>637</v>
       </c>
-      <c r="M8" s="72">
+      <c r="M8" s="70">
         <v>1023</v>
       </c>
       <c r="N8" s="70">
@@ -14627,25 +14537,9 @@
       <c r="V8" s="71">
         <v>21699</v>
       </c>
-      <c r="AC8">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="AE8">
-        <f t="shared" si="4"/>
-        <v>126</v>
-      </c>
-      <c r="AF8">
-        <f t="shared" si="5"/>
-        <v>252</v>
-      </c>
-      <c r="AG8">
-        <f t="shared" si="6"/>
-        <v>462</v>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>15504</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -14713,21 +14607,9 @@
       <c r="V9" s="71">
         <v>60459</v>
       </c>
-      <c r="AD9">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="AE9">
-        <f t="shared" si="4"/>
-        <v>84</v>
-      </c>
-      <c r="AF9">
-        <f t="shared" si="5"/>
-        <v>210</v>
-      </c>
-      <c r="AG9">
-        <f t="shared" si="6"/>
-        <v>462</v>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>38760</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
@@ -14795,17 +14677,9 @@
       <c r="V10" s="71">
         <v>137979</v>
       </c>
-      <c r="AE10">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="AF10">
-        <f t="shared" si="5"/>
-        <v>120</v>
-      </c>
-      <c r="AG10">
-        <f t="shared" si="6"/>
-        <v>330</v>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>77520</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
@@ -14873,13 +14747,9 @@
       <c r="V11" s="71">
         <v>263949</v>
       </c>
-      <c r="AF11">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="AG11">
-        <f t="shared" si="6"/>
-        <v>165</v>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>125970</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
@@ -14947,9 +14817,9 @@
       <c r="V12" s="71">
         <v>431909</v>
       </c>
-      <c r="AG12">
-        <f t="shared" si="6"/>
-        <v>55</v>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>167960</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -15017,8 +14887,12 @@
       <c r="V13" s="71">
         <v>616665</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>184756</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="89"/>
       <c r="B14" s="60">
         <v>11</v>
@@ -15083,10 +14957,18 @@
       <c r="V14" s="72">
         <v>784625</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>167960</v>
+      </c>
+      <c r="X14">
+        <f>V15-V14</f>
+        <v>125970</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="89"/>
-      <c r="B15" s="65">
+      <c r="B15" s="60">
         <v>12</v>
       </c>
       <c r="C15" s="70">
@@ -15149,8 +15031,12 @@
       <c r="V15" s="71">
         <v>910595</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>125970</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="89"/>
       <c r="B16" s="60">
         <v>13</v>
@@ -15215,8 +15101,12 @@
       <c r="V16" s="71">
         <v>988115</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>77520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="89"/>
       <c r="B17" s="60">
         <v>14</v>
@@ -15281,8 +15171,12 @@
       <c r="V17" s="71">
         <v>1026875</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W17">
+        <f t="shared" si="0"/>
+        <v>38760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="89"/>
       <c r="B18" s="60">
         <v>15</v>
@@ -15347,8 +15241,12 @@
       <c r="V18" s="71">
         <v>1042379</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W18">
+        <f t="shared" si="0"/>
+        <v>15504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="89"/>
       <c r="B19" s="60">
         <v>16</v>
@@ -15413,8 +15311,12 @@
       <c r="V19" s="71">
         <v>1047224</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W19">
+        <f t="shared" si="0"/>
+        <v>4845</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="89"/>
       <c r="B20" s="60">
         <v>17</v>
@@ -15479,8 +15381,12 @@
       <c r="V20" s="71">
         <v>1048364</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W20">
+        <f t="shared" si="0"/>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="89"/>
       <c r="B21" s="60">
         <v>18</v>
@@ -15545,8 +15451,12 @@
       <c r="V21" s="76">
         <v>1048554</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W21">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="89"/>
       <c r="B22" s="60">
         <v>19</v>
@@ -15612,7 +15522,7 @@
         <v>1048574</v>
       </c>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="90"/>
       <c r="B23" s="65">
         <v>20</v>
@@ -15678,7 +15588,7 @@
         <v>1048575</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="81"/>
       <c r="C24" s="85" t="s">
         <v>15</v>
@@ -15703,7 +15613,7 @@
       <c r="U24" s="86"/>
       <c r="V24" s="87"/>
     </row>
-    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="82"/>
       <c r="C25" s="61">
         <v>0</v>
@@ -15766,7 +15676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="88" t="s">
         <v>22</v>
       </c>
@@ -15807,7 +15717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="89"/>
       <c r="B27" s="60">
         <v>1</v>
@@ -15846,7 +15756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="89"/>
       <c r="B28" s="60">
         <v>2</v>
@@ -15885,7 +15795,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="89"/>
       <c r="B29" s="60">
         <v>3</v>
@@ -15924,7 +15834,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="89"/>
       <c r="B30" s="60">
         <v>4</v>
@@ -15963,7 +15873,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="89"/>
       <c r="B31" s="60">
         <v>5</v>
@@ -16002,7 +15912,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="89"/>
       <c r="B32" s="60">
         <v>6</v>
